--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4018573</v>
+        <v>3901261</v>
       </c>
       <c r="F2" t="n">
-        <v>466.7744895666136</v>
+        <v>309.601299641059</v>
       </c>
       <c r="G2" t="n">
-        <v>447.3368795739659</v>
+        <v>392.4315417260229</v>
       </c>
       <c r="H2" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="I2" t="n">
-        <v>156040</v>
+        <v>156264</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1475378</v>
+        <v>1495036</v>
       </c>
       <c r="E3" t="n">
-        <v>4769028</v>
+        <v>4832571</v>
       </c>
       <c r="F3" t="n">
-        <v>1578.423222791948</v>
+        <v>1190.076855515348</v>
       </c>
       <c r="G3" t="n">
-        <v>1254.068803744746</v>
+        <v>1540.06930702742</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="I3" t="n">
-        <v>224191</v>
+        <v>223551</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>254197149</v>
+        <v>253579119</v>
       </c>
       <c r="E4" t="n">
-        <v>1594034589</v>
+        <v>1590159011</v>
       </c>
       <c r="F4" t="n">
-        <v>245253.6750196333</v>
+        <v>25144.68715564926</v>
       </c>
       <c r="G4" t="n">
-        <v>247651.6538490776</v>
+        <v>59500.87428378704</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>19537276</v>
+        <v>22663532</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149913192</v>
+        <v>148253321</v>
       </c>
       <c r="E5" t="n">
-        <v>166127245</v>
+        <v>164287848</v>
       </c>
       <c r="F5" t="n">
-        <v>76153.01489509581</v>
+        <v>36481.85752487523</v>
       </c>
       <c r="G5" t="n">
-        <v>55833.80144557555</v>
+        <v>44495.86298114771</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>45676124</v>
+        <v>49218647</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>126155382</v>
+        <v>124010686</v>
       </c>
       <c r="E6" t="n">
-        <v>494491325</v>
+        <v>486084759</v>
       </c>
       <c r="F6" t="n">
-        <v>21353.41682527546</v>
+        <v>20491.45938594718</v>
       </c>
       <c r="G6" t="n">
-        <v>30002.31111685764</v>
+        <v>23234.98915758165</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>25553853</v>
+        <v>27306247</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4584972</v>
+        <v>4324945</v>
       </c>
       <c r="E7" t="n">
-        <v>28154070</v>
+        <v>26557356</v>
       </c>
       <c r="F7" t="n">
-        <v>1969.019017545388</v>
+        <v>2444.136835492115</v>
       </c>
       <c r="G7" t="n">
-        <v>2234.593211348697</v>
+        <v>1877.825251535411</v>
       </c>
       <c r="H7" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="I7" t="n">
-        <v>693282</v>
+        <v>712028</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>200664</v>
+        <v>198036</v>
       </c>
       <c r="E8" t="n">
-        <v>2207528</v>
+        <v>2178619</v>
       </c>
       <c r="F8" t="n">
-        <v>2531.666212458415</v>
+        <v>2425.362518601633</v>
       </c>
       <c r="G8" t="n">
-        <v>3198.373626234339</v>
+        <v>4556.164019390581</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="I8" t="n">
-        <v>33844</v>
+        <v>34311</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72474728</v>
+        <v>72096787</v>
       </c>
       <c r="E9" t="n">
-        <v>125484745</v>
+        <v>124827384</v>
       </c>
       <c r="F9" t="n">
-        <v>9960.245084231537</v>
+        <v>3440.772482481055</v>
       </c>
       <c r="G9" t="n">
-        <v>9887.111843792025</v>
+        <v>5995.045353603712</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="I9" t="n">
-        <v>893706</v>
+        <v>930080</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8831190</v>
+        <v>8788413</v>
       </c>
       <c r="E10" t="n">
-        <v>12499893</v>
+        <v>12439345</v>
       </c>
       <c r="F10" t="n">
-        <v>4456.916466015762</v>
+        <v>2876.909877788779</v>
       </c>
       <c r="G10" t="n">
-        <v>4150.507316272043</v>
+        <v>3419.228309313847</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>45997</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>520376197</v>
+        <v>518788427</v>
       </c>
       <c r="E11" t="n">
-        <v>520376199</v>
+        <v>518788428</v>
       </c>
       <c r="F11" t="n">
-        <v>39052.56997096983</v>
+        <v>49074.65399293715</v>
       </c>
       <c r="G11" t="n">
-        <v>50196.08726602673</v>
+        <v>54219.96807430765</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>81087643</v>
+        <v>72788424</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>322342</v>
+        <v>315309</v>
       </c>
       <c r="E12" t="n">
-        <v>1504724</v>
+        <v>1471896</v>
       </c>
       <c r="F12" t="n">
-        <v>154.3588352686681</v>
+        <v>18.35517560022025</v>
       </c>
       <c r="G12" t="n">
-        <v>4138.960136673149</v>
+        <v>2450.529232425601</v>
       </c>
       <c r="H12" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="I12" t="n">
-        <v>705941</v>
+        <v>685916</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2931510</v>
+        <v>2155190</v>
       </c>
       <c r="F13" t="n">
-        <v>37.45834823020455</v>
+        <v>4702.848807267073</v>
       </c>
       <c r="G13" t="n">
-        <v>378.9858508115727</v>
+        <v>362.2225406542867</v>
       </c>
       <c r="H13" t="n">
-        <v>3.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>1123698</v>
+        <v>633380</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12390884</v>
+        <v>12074068</v>
       </c>
       <c r="E14" t="n">
-        <v>30838670</v>
+        <v>30050171</v>
       </c>
       <c r="F14" t="n">
-        <v>1722.924894085264</v>
+        <v>780.9275701470552</v>
       </c>
       <c r="G14" t="n">
-        <v>1737.888240306851</v>
+        <v>1453.37684256489</v>
       </c>
       <c r="H14" t="n">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="I14" t="n">
-        <v>1430205</v>
+        <v>1408125</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>114975927</v>
+        <v>114551704</v>
       </c>
       <c r="E15" t="n">
-        <v>447085666</v>
+        <v>445410433</v>
       </c>
       <c r="F15" t="n">
-        <v>40725.47257184779</v>
+        <v>21968.49307020957</v>
       </c>
       <c r="G15" t="n">
-        <v>91635.10161606371</v>
+        <v>18667.41878679785</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>12623876</v>
+        <v>12778350</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4960939</v>
+        <v>4892514</v>
       </c>
       <c r="E16" t="n">
-        <v>7302771</v>
+        <v>7202045</v>
       </c>
       <c r="F16" t="n">
-        <v>3741.668730636196</v>
+        <v>3603.728571002806</v>
       </c>
       <c r="G16" t="n">
-        <v>3948.308816342835</v>
+        <v>2368.538235808654</v>
       </c>
       <c r="H16" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>570465</v>
+        <v>560176</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2034323</v>
+        <v>2010265</v>
       </c>
       <c r="F17" t="n">
-        <v>190.2133778510576</v>
+        <v>538.9985085106905</v>
       </c>
       <c r="G17" t="n">
-        <v>992.8932448742797</v>
+        <v>342.7912809065301</v>
       </c>
       <c r="H17" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="I17" t="n">
-        <v>113153</v>
+        <v>112629</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>146079539</v>
+        <v>145697335</v>
       </c>
       <c r="E18" t="n">
-        <v>146079539</v>
+        <v>145697335</v>
       </c>
       <c r="F18" t="n">
-        <v>98506.70860383542</v>
+        <v>77256.95748026582</v>
       </c>
       <c r="G18" t="n">
-        <v>143330.4440319417</v>
+        <v>97081.71982149515</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>78308693</v>
+        <v>86246222</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68097228</v>
+        <v>67519461</v>
       </c>
       <c r="E19" t="n">
-        <v>349216553</v>
+        <v>346253646</v>
       </c>
       <c r="F19" t="n">
-        <v>9401.851573637141</v>
+        <v>10024.5708275015</v>
       </c>
       <c r="G19" t="n">
-        <v>11276.0653878744</v>
+        <v>11887.33013106943</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>25039290</v>
+        <v>26173042</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>270451176</v>
+        <v>267266041</v>
       </c>
       <c r="E20" t="n">
-        <v>270451176</v>
+        <v>267266041</v>
       </c>
       <c r="F20" t="n">
-        <v>71799.39233217685</v>
+        <v>64327.80570583548</v>
       </c>
       <c r="G20" t="n">
-        <v>76053.0737635905</v>
+        <v>77060.52236040721</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>21244077</v>
+        <v>20175359</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>185029909</v>
+        <v>178833633</v>
       </c>
       <c r="E21" t="n">
-        <v>243477720</v>
+        <v>235324146</v>
       </c>
       <c r="F21" t="n">
-        <v>21037.31509217428</v>
+        <v>8251.616652842415</v>
       </c>
       <c r="G21" t="n">
-        <v>36093.16286437114</v>
+        <v>15158.07430479214</v>
       </c>
       <c r="H21" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="I21" t="n">
-        <v>14639446</v>
+        <v>15533496</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>84940195</v>
+        <v>84262718</v>
       </c>
       <c r="E22" t="n">
-        <v>237608107</v>
+        <v>235724202</v>
       </c>
       <c r="F22" t="n">
-        <v>29830.74063285534</v>
+        <v>31882.48727335688</v>
       </c>
       <c r="G22" t="n">
-        <v>37346.34158377361</v>
+        <v>30777.14220963812</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>48957377</v>
+        <v>54268322</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>89712558</v>
+        <v>90400736</v>
       </c>
       <c r="E23" t="n">
-        <v>187043479</v>
+        <v>188478273</v>
       </c>
       <c r="F23" t="n">
-        <v>32516.57391430013</v>
+        <v>29133.66097013504</v>
       </c>
       <c r="G23" t="n">
-        <v>60607.33409076203</v>
+        <v>43327.06316579453</v>
       </c>
       <c r="H23" t="n">
         <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>56072723</v>
+        <v>65470971</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>696176414</v>
+        <v>688776186</v>
       </c>
       <c r="E24" t="n">
-        <v>696176414</v>
+        <v>688776186</v>
       </c>
       <c r="F24" t="n">
-        <v>211884.5612019797</v>
+        <v>177444.5464593022</v>
       </c>
       <c r="G24" t="n">
-        <v>208967.2481647186</v>
+        <v>154150.3917348321</v>
       </c>
       <c r="H24" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>433762762</v>
+        <v>488492537</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>207597231</v>
+        <v>206224451</v>
       </c>
       <c r="E25" t="n">
-        <v>721211542</v>
+        <v>716442381</v>
       </c>
       <c r="F25" t="n">
-        <v>135783.6546940535</v>
+        <v>83239.41674560105</v>
       </c>
       <c r="G25" t="n">
-        <v>271510.9829271049</v>
+        <v>103698.005871364</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I25" t="n">
-        <v>38653170</v>
+        <v>37159104</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5964379</v>
+        <v>5819371</v>
       </c>
       <c r="E26" t="n">
-        <v>8096976</v>
+        <v>7899793</v>
       </c>
       <c r="F26" t="n">
-        <v>2064.145368239392</v>
+        <v>2200.501316439369</v>
       </c>
       <c r="G26" t="n">
-        <v>979.8459313296172</v>
+        <v>252.5411511047593</v>
       </c>
       <c r="H26" t="n">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="I26" t="n">
-        <v>5385046</v>
+        <v>4787568</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14744821</v>
+        <v>14653326</v>
       </c>
       <c r="F27" t="n">
-        <v>1393.668041533206</v>
+        <v>1888.94773264038</v>
       </c>
       <c r="G27" t="n">
-        <v>3551.738124877229</v>
+        <v>2634.896710556922</v>
       </c>
       <c r="H27" t="n">
-        <v>0.57</v>
+        <v>1.18</v>
       </c>
       <c r="I27" t="n">
-        <v>224344</v>
+        <v>213768</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26420177</v>
+        <v>25848176</v>
       </c>
       <c r="E28" t="n">
-        <v>37335970</v>
+        <v>36527641</v>
       </c>
       <c r="F28" t="n">
-        <v>514.3051111587464</v>
+        <v>278.3390298410631</v>
       </c>
       <c r="G28" t="n">
-        <v>809.6356180818659</v>
+        <v>8822.525110323022</v>
       </c>
       <c r="H28" t="n">
-        <v>0.22</v>
+        <v>0.72</v>
       </c>
       <c r="I28" t="n">
-        <v>80735</v>
+        <v>91504</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>274425324</v>
+        <v>270304248</v>
       </c>
       <c r="E29" t="n">
-        <v>1184572044</v>
+        <v>1166783190</v>
       </c>
       <c r="F29" t="n">
-        <v>248790.0986304506</v>
+        <v>193997.6016675189</v>
       </c>
       <c r="G29" t="n">
-        <v>267077.3239414346</v>
+        <v>168064.625591389</v>
       </c>
       <c r="H29" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>112991985</v>
+        <v>132735413</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11612530</v>
+        <v>11126491</v>
       </c>
       <c r="E30" t="n">
-        <v>140138308</v>
+        <v>133965687</v>
       </c>
       <c r="F30" t="n">
-        <v>3184.250292655366</v>
+        <v>3933.908052468636</v>
       </c>
       <c r="G30" t="n">
-        <v>3932.584298901878</v>
+        <v>4063.086621410644</v>
       </c>
       <c r="H30" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="I30" t="n">
-        <v>433803</v>
+        <v>466262</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19134988</v>
+        <v>17666335</v>
       </c>
       <c r="E31" t="n">
-        <v>47837469</v>
+        <v>44165837</v>
       </c>
       <c r="F31" t="n">
-        <v>6761.769622432365</v>
+        <v>7225.643103994582</v>
       </c>
       <c r="G31" t="n">
-        <v>11252.95698347611</v>
+        <v>6109.303892706569</v>
       </c>
       <c r="H31" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I31" t="n">
-        <v>2442081</v>
+        <v>3167889</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19958920</v>
+        <v>19902105</v>
       </c>
       <c r="F32" t="n">
-        <v>3000.628668572721</v>
+        <v>3581.562451081422</v>
       </c>
       <c r="G32" t="n">
-        <v>3561.006047984744</v>
+        <v>4401.751587427695</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
-        <v>35990</v>
+        <v>50250</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1448516</v>
+        <v>1419316</v>
       </c>
       <c r="E33" t="n">
-        <v>5400022</v>
+        <v>5291168</v>
       </c>
       <c r="F33" t="n">
-        <v>556.8605499265475</v>
+        <v>1334.307806484908</v>
       </c>
       <c r="G33" t="n">
-        <v>5242.387962464286</v>
+        <v>1131.46648007385</v>
       </c>
       <c r="H33" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="I33" t="n">
-        <v>587819</v>
+        <v>592529</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4193875</v>
+        <v>4189890</v>
       </c>
       <c r="E34" t="n">
-        <v>12080637</v>
+        <v>12068240</v>
       </c>
       <c r="F34" t="n">
-        <v>3323.094033871197</v>
+        <v>2642.172048031288</v>
       </c>
       <c r="G34" t="n">
-        <v>3492.702728688384</v>
+        <v>4157.150624350877</v>
       </c>
       <c r="H34" t="n">
         <v>0.33</v>
       </c>
       <c r="I34" t="n">
-        <v>602406</v>
+        <v>532219</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16089987</v>
+        <v>15370095</v>
       </c>
       <c r="E35" t="n">
-        <v>77926373</v>
+        <v>74439825</v>
       </c>
       <c r="F35" t="n">
-        <v>14518.69906107923</v>
+        <v>3993.521737168418</v>
       </c>
       <c r="G35" t="n">
-        <v>8102.143468566182</v>
+        <v>2893.020102056177</v>
       </c>
       <c r="H35" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="I35" t="n">
-        <v>4730153</v>
+        <v>5040830</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1454642</v>
+        <v>1402860</v>
       </c>
       <c r="E36" t="n">
-        <v>9520595</v>
+        <v>9181679</v>
       </c>
       <c r="F36" t="n">
-        <v>642.1512416079553</v>
+        <v>358.6727530692484</v>
       </c>
       <c r="G36" t="n">
-        <v>318.1776889328274</v>
+        <v>1963.381887470544</v>
       </c>
       <c r="H36" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="I36" t="n">
-        <v>510065</v>
+        <v>513774</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1894235118</v>
+        <v>1891496798</v>
       </c>
       <c r="F37" t="n">
-        <v>72480.91085651153</v>
+        <v>77224.48375259496</v>
       </c>
       <c r="G37" t="n">
-        <v>57146.13867426239</v>
+        <v>76446.99989430456</v>
       </c>
       <c r="H37" t="n">
-        <v>0.26</v>
+        <v>0.58</v>
       </c>
       <c r="I37" t="n">
-        <v>28629038</v>
+        <v>29267096</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1993101</v>
+        <v>1914706</v>
       </c>
       <c r="E38" t="n">
-        <v>14292331</v>
+        <v>13730162</v>
       </c>
       <c r="F38" t="n">
-        <v>3733.987760916192</v>
+        <v>3781.315162738958</v>
       </c>
       <c r="G38" t="n">
-        <v>5607.123359767696</v>
+        <v>5555.466954156573</v>
       </c>
       <c r="H38" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="I38" t="n">
-        <v>2061443</v>
+        <v>616054</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>208158161</v>
+        <v>203152378</v>
       </c>
       <c r="E39" t="n">
-        <v>1178719409</v>
+        <v>1150373590</v>
       </c>
       <c r="F39" t="n">
-        <v>140553.8277656214</v>
+        <v>67348.07519907542</v>
       </c>
       <c r="G39" t="n">
-        <v>192324.3461817888</v>
+        <v>57785.40757628771</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>69521359</v>
+        <v>81403951</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>144295428</v>
+        <v>123554933</v>
       </c>
       <c r="E40" t="n">
-        <v>1068855020</v>
+        <v>915221724</v>
       </c>
       <c r="F40" t="n">
-        <v>120681.5090589427</v>
+        <v>46808.14274044432</v>
       </c>
       <c r="G40" t="n">
-        <v>131833.0608387222</v>
+        <v>62520.62013885185</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I40" t="n">
-        <v>8437293</v>
+        <v>18585204</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>339716863</v>
+        <v>336982450</v>
       </c>
       <c r="E41" t="n">
-        <v>3056303553</v>
+        <v>3031703076</v>
       </c>
       <c r="F41" t="n">
-        <v>235502.888261878</v>
+        <v>83582.70385176314</v>
       </c>
       <c r="G41" t="n">
-        <v>241828.8065192353</v>
+        <v>106362.1799741584</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>47042160</v>
+        <v>55267397</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1572360</v>
+        <v>1536211</v>
       </c>
       <c r="E42" t="n">
-        <v>13103002</v>
+        <v>12801759</v>
       </c>
       <c r="F42" t="n">
-        <v>2399.049441062</v>
+        <v>2245.015448416107</v>
       </c>
       <c r="G42" t="n">
-        <v>4355.212515555274</v>
+        <v>66.68909295984702</v>
       </c>
       <c r="H42" t="n">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="I42" t="n">
-        <v>17857.75</v>
+        <v>32225</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22705323</v>
+        <v>21533520</v>
       </c>
       <c r="E43" t="n">
-        <v>68065269</v>
+        <v>64550356</v>
       </c>
       <c r="F43" t="n">
-        <v>29605.78883870133</v>
+        <v>3457.369476769239</v>
       </c>
       <c r="G43" t="n">
-        <v>62452.95805578874</v>
+        <v>5656.768983975838</v>
       </c>
       <c r="H43" t="n">
-        <v>0.21</v>
+        <v>0.52</v>
       </c>
       <c r="I43" t="n">
-        <v>3567020</v>
+        <v>3906415</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9435236</v>
+        <v>9158715</v>
       </c>
       <c r="F44" t="n">
-        <v>5744.813047517961</v>
+        <v>1882.057578605953</v>
       </c>
       <c r="G44" t="n">
-        <v>6144.25781750341</v>
+        <v>1076.360612015416</v>
       </c>
       <c r="H44" t="n">
-        <v>0.21</v>
+        <v>0.76</v>
       </c>
       <c r="I44" t="n">
-        <v>100442</v>
+        <v>104677</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13473151</v>
+        <v>12977242</v>
       </c>
       <c r="E45" t="n">
-        <v>13473151</v>
+        <v>12977242</v>
       </c>
       <c r="F45" t="n">
-        <v>1470.150013984337</v>
+        <v>1232.626287763869</v>
       </c>
       <c r="G45" t="n">
-        <v>671.2330092668948</v>
+        <v>167.6737693138032</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6</v>
+        <v>2.16</v>
       </c>
       <c r="I45" t="n">
-        <v>4454634</v>
+        <v>4448846</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>316826851</v>
+        <v>311851856</v>
       </c>
       <c r="E46" t="n">
-        <v>316826851</v>
+        <v>311851856</v>
       </c>
       <c r="F46" t="n">
-        <v>13892.49078402063</v>
+        <v>11197.60944265364</v>
       </c>
       <c r="G46" t="n">
-        <v>37619.09616300459</v>
+        <v>18463.24560803366</v>
       </c>
       <c r="H46" t="n">
         <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>16846534</v>
+        <v>18793421</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12747187</v>
+        <v>12657458</v>
       </c>
       <c r="E47" t="n">
-        <v>40317966</v>
+        <v>40034101</v>
       </c>
       <c r="F47" t="n">
-        <v>12351.86588904009</v>
+        <v>4152.051333209346</v>
       </c>
       <c r="G47" t="n">
-        <v>11204.38423956745</v>
+        <v>5877.853246568547</v>
       </c>
       <c r="H47" t="n">
-        <v>0.15</v>
+        <v>0.79</v>
       </c>
       <c r="I47" t="n">
-        <v>880505</v>
+        <v>943607</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>34092045</v>
+        <v>32287978</v>
       </c>
       <c r="E48" t="n">
-        <v>94431582</v>
+        <v>89434494</v>
       </c>
       <c r="F48" t="n">
-        <v>3408.585549126351</v>
+        <v>3246.546700968968</v>
       </c>
       <c r="G48" t="n">
-        <v>7238.822618947444</v>
+        <v>8520.393940240536</v>
       </c>
       <c r="H48" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="I48" t="n">
-        <v>12641639</v>
+        <v>12232450</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28969668</v>
+        <v>27449922</v>
       </c>
       <c r="E49" t="n">
-        <v>68824729</v>
+        <v>65214189</v>
       </c>
       <c r="F49" t="n">
-        <v>8183.940247601029</v>
+        <v>5941.081935966847</v>
       </c>
       <c r="G49" t="n">
-        <v>15284.37521269136</v>
+        <v>7075.91608926219</v>
       </c>
       <c r="H49" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="I49" t="n">
-        <v>469664</v>
+        <v>526121</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12749495</v>
+        <v>12639292</v>
       </c>
       <c r="E50" t="n">
-        <v>19407607</v>
+        <v>19239853</v>
       </c>
       <c r="F50" t="n">
-        <v>4827.918894860988</v>
+        <v>3955.757142109364</v>
       </c>
       <c r="G50" t="n">
-        <v>3875.387230258268</v>
+        <v>3229.535869872348</v>
       </c>
       <c r="H50" t="n">
-        <v>0.32</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>631442</v>
+        <v>279108</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>305759623</v>
+        <v>305046034</v>
       </c>
       <c r="E51" t="n">
-        <v>305759623</v>
+        <v>305046034</v>
       </c>
       <c r="F51" t="n">
-        <v>78830.96457398769</v>
+        <v>47591.03108532448</v>
       </c>
       <c r="G51" t="n">
-        <v>111842.59374046</v>
+        <v>72499.56101141154</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>77485178</v>
+        <v>84731237</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90741720</v>
+        <v>89571984</v>
       </c>
       <c r="E52" t="n">
-        <v>522892928</v>
+        <v>516152404</v>
       </c>
       <c r="F52" t="n">
-        <v>270185.2910130757</v>
+        <v>11768.09047980896</v>
       </c>
       <c r="G52" t="n">
-        <v>277509.4981601257</v>
+        <v>15227.12481537867</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>18729122</v>
+        <v>20025051</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32024450</v>
+        <v>30718450</v>
       </c>
       <c r="E53" t="n">
-        <v>143386599</v>
+        <v>137539101</v>
       </c>
       <c r="F53" t="n">
-        <v>27548.33876139708</v>
+        <v>19046.55311923847</v>
       </c>
       <c r="G53" t="n">
-        <v>39729.45578328015</v>
+        <v>27782.18975619947</v>
       </c>
       <c r="H53" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>9680418</v>
+        <v>11292567</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9089223</v>
+        <v>9084523</v>
       </c>
       <c r="F54" t="n">
-        <v>2621.580474236709</v>
+        <v>2623.31456889144</v>
       </c>
       <c r="G54" t="n">
-        <v>4729.355478449007</v>
+        <v>4504.325502831456</v>
       </c>
       <c r="H54" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="I54" t="n">
-        <v>295798</v>
+        <v>292864</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4762040</v>
+        <v>4789109</v>
       </c>
       <c r="F55" t="n">
-        <v>2851.377173960183</v>
+        <v>166.0862986379544</v>
       </c>
       <c r="G55" t="n">
-        <v>1380.667449072354</v>
+        <v>117.1601510951726</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5</v>
+        <v>2.42</v>
       </c>
       <c r="I55" t="n">
-        <v>205782</v>
+        <v>236848</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125486570</v>
+        <v>123579792</v>
       </c>
       <c r="E56" t="n">
-        <v>2078160371</v>
+        <v>2046582563</v>
       </c>
       <c r="F56" t="n">
-        <v>185091.1980095525</v>
+        <v>26273.27793503707</v>
       </c>
       <c r="G56" t="n">
-        <v>187808.8466810805</v>
+        <v>25520.49121946029</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5318430</v>
+        <v>11101451</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>109449133</v>
+        <v>106685660</v>
       </c>
       <c r="E57" t="n">
-        <v>110627279</v>
+        <v>107834054</v>
       </c>
       <c r="F57" t="n">
-        <v>28698.21154595103</v>
+        <v>34685.73045428147</v>
       </c>
       <c r="G57" t="n">
-        <v>35561.85987089339</v>
+        <v>35614.90179567101</v>
       </c>
       <c r="H57" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I57" t="n">
-        <v>71273282</v>
+        <v>80165252</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>255658863</v>
+        <v>248900840</v>
       </c>
       <c r="E58" t="n">
-        <v>255658863</v>
+        <v>248900840</v>
       </c>
       <c r="F58" t="n">
-        <v>78809.12162272922</v>
+        <v>68009.35753353202</v>
       </c>
       <c r="G58" t="n">
-        <v>97093.63189964523</v>
+        <v>58880.03836587527</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>57087812</v>
+        <v>70698855</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24564648</v>
+        <v>24227644</v>
       </c>
       <c r="E59" t="n">
-        <v>146975225</v>
+        <v>144958867</v>
       </c>
       <c r="F59" t="n">
-        <v>55246.80764772386</v>
+        <v>11886.45920602079</v>
       </c>
       <c r="G59" t="n">
-        <v>70230.4514669536</v>
+        <v>28371.83719231348</v>
       </c>
       <c r="H59" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>14400852</v>
+        <v>15855499</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2414170</v>
+        <v>2400075</v>
       </c>
       <c r="E60" t="n">
-        <v>4455489</v>
+        <v>4429476</v>
       </c>
       <c r="F60" t="n">
-        <v>579.2045382293137</v>
+        <v>2614.942989611559</v>
       </c>
       <c r="G60" t="n">
-        <v>344.2948248021329</v>
+        <v>2398.110962610907</v>
       </c>
       <c r="H60" t="n">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>29653</v>
+        <v>29124</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11038986</v>
+        <v>9937371</v>
       </c>
       <c r="E62" t="n">
-        <v>32742089</v>
+        <v>29459719</v>
       </c>
       <c r="F62" t="n">
-        <v>3657.265706245752</v>
+        <v>2508.645584817902</v>
       </c>
       <c r="G62" t="n">
-        <v>4720.125375266551</v>
+        <v>1734.580540708652</v>
       </c>
       <c r="H62" t="n">
-        <v>0.08</v>
+        <v>0.68</v>
       </c>
       <c r="I62" t="n">
-        <v>5976391</v>
+        <v>6151686</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14630878</v>
+        <v>14548386</v>
       </c>
       <c r="E63" t="n">
-        <v>29619319</v>
+        <v>29452319</v>
       </c>
       <c r="F63" t="n">
-        <v>7748.054244835345</v>
+        <v>8681.785330562707</v>
       </c>
       <c r="G63" t="n">
-        <v>9020.391339458534</v>
+        <v>18451.29252640285</v>
       </c>
       <c r="H63" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I63" t="n">
-        <v>540924</v>
+        <v>547074</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>39379005</v>
+        <v>34653585</v>
       </c>
       <c r="E64" t="n">
-        <v>279190721</v>
+        <v>245688267</v>
       </c>
       <c r="F64" t="n">
-        <v>70573.43628259849</v>
+        <v>96036.67531730355</v>
       </c>
       <c r="G64" t="n">
-        <v>49273.2425839494</v>
+        <v>81983.06798117895</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I64" t="n">
-        <v>2128069</v>
+        <v>3812210</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1314724</v>
+        <v>1291374</v>
       </c>
       <c r="E65" t="n">
-        <v>8153247</v>
+        <v>8008446</v>
       </c>
       <c r="F65" t="n">
-        <v>1997.352314626856</v>
+        <v>403.7653010608181</v>
       </c>
       <c r="G65" t="n">
-        <v>2519.946433449943</v>
+        <v>269.3277569840181</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>2.37</v>
       </c>
       <c r="I65" t="n">
-        <v>796946</v>
+        <v>800872</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>614122825</v>
+        <v>606142679</v>
       </c>
       <c r="E66" t="n">
-        <v>2378407095</v>
+        <v>2347501167</v>
       </c>
       <c r="F66" t="n">
-        <v>123183.795551971</v>
+        <v>50087.5645478372</v>
       </c>
       <c r="G66" t="n">
-        <v>126459.5038106314</v>
+        <v>63684.45939909839</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>43396129</v>
+        <v>52271433</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5597854</v>
+        <v>5474603</v>
       </c>
       <c r="E67" t="n">
-        <v>25058396</v>
+        <v>24506670</v>
       </c>
       <c r="F67" t="n">
-        <v>3625.999985315544</v>
+        <v>3931.543640202042</v>
       </c>
       <c r="G67" t="n">
-        <v>4175.09625377838</v>
+        <v>24376.87024901143</v>
       </c>
       <c r="H67" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="I67" t="n">
-        <v>160409</v>
+        <v>181529</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>116274047</v>
+        <v>114760483</v>
       </c>
       <c r="E68" t="n">
-        <v>1080335743</v>
+        <v>1066272788</v>
       </c>
       <c r="F68" t="n">
-        <v>168924.3448199474</v>
+        <v>18463.27085629966</v>
       </c>
       <c r="G68" t="n">
-        <v>164043.2894692975</v>
+        <v>17104.51128225688</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I68" t="n">
-        <v>10616548</v>
+        <v>12347081</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>112790630</v>
+        <v>102830522</v>
       </c>
       <c r="E69" t="n">
-        <v>172064750</v>
+        <v>156870372</v>
       </c>
       <c r="F69" t="n">
-        <v>54081.60917760661</v>
+        <v>16444.09565135301</v>
       </c>
       <c r="G69" t="n">
-        <v>77071.66963323967</v>
+        <v>22161.70874767708</v>
       </c>
       <c r="H69" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="I69" t="n">
-        <v>8973002</v>
+        <v>10578952</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1123448</v>
+        <v>1086917</v>
       </c>
       <c r="E70" t="n">
-        <v>4350237</v>
+        <v>4208782</v>
       </c>
       <c r="F70" t="n">
-        <v>2209.51114968688</v>
+        <v>2259.020165795225</v>
       </c>
       <c r="G70" t="n">
-        <v>3141.043482878165</v>
+        <v>3742.345910197852</v>
       </c>
       <c r="H70" t="n">
-        <v>0.38</v>
+        <v>0.93</v>
       </c>
       <c r="I70" t="n">
-        <v>355140</v>
+        <v>308126</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>125859327</v>
+        <v>126073482</v>
       </c>
       <c r="E71" t="n">
-        <v>482816636</v>
+        <v>483638170</v>
       </c>
       <c r="F71" t="n">
-        <v>146596.9342983791</v>
+        <v>19085.82447901618</v>
       </c>
       <c r="G71" t="n">
-        <v>154160.4913242412</v>
+        <v>20290.59062368661</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="I71" t="n">
-        <v>38788642</v>
+        <v>40768845</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3321880</v>
+        <v>3171640</v>
       </c>
       <c r="E72" t="n">
-        <v>31475305</v>
+        <v>30051756</v>
       </c>
       <c r="F72" t="n">
-        <v>4009.704419270494</v>
+        <v>289.4311805999866</v>
       </c>
       <c r="G72" t="n">
-        <v>4395.395288528453</v>
+        <v>560.1487181025014</v>
       </c>
       <c r="H72" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I72" t="n">
-        <v>194518</v>
+        <v>204977</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>36229352</v>
+        <v>35493785</v>
       </c>
       <c r="F73" t="n">
-        <v>2626.479181810125</v>
+        <v>3330.168289764423</v>
       </c>
       <c r="G73" t="n">
-        <v>5688.725016512444</v>
+        <v>2760.024504654529</v>
       </c>
       <c r="H73" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I73" t="n">
-        <v>6327902</v>
+        <v>5566812</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89036732</v>
+        <v>88642332</v>
       </c>
       <c r="E74" t="n">
-        <v>329122440</v>
+        <v>327662936</v>
       </c>
       <c r="F74" t="n">
-        <v>7868.7665756776</v>
+        <v>93.74719183294189</v>
       </c>
       <c r="G74" t="n">
-        <v>7267.450219059951</v>
+        <v>540.4930656736443</v>
       </c>
       <c r="H74" t="n">
-        <v>0.15</v>
+        <v>1.87</v>
       </c>
       <c r="I74" t="n">
-        <v>175195</v>
+        <v>204986</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>24074212</v>
+        <v>23302112</v>
       </c>
       <c r="E75" t="n">
-        <v>24074212</v>
+        <v>23302112</v>
       </c>
       <c r="F75" t="n">
-        <v>28395.57695691391</v>
+        <v>13638.64030282882</v>
       </c>
       <c r="G75" t="n">
-        <v>19099.32505927931</v>
+        <v>14779.49321680342</v>
       </c>
       <c r="H75" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="I75" t="n">
-        <v>5297448</v>
+        <v>5561762</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>500660669</v>
+        <v>495161308</v>
       </c>
       <c r="E76" t="n">
-        <v>1742758122</v>
+        <v>1723615303</v>
       </c>
       <c r="F76" t="n">
-        <v>125384.5383752885</v>
+        <v>92616.0648211035</v>
       </c>
       <c r="G76" t="n">
-        <v>191599.6523863538</v>
+        <v>110118.0999303169</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>38737695</v>
+        <v>42611918</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5817103420</v>
+        <v>5752585510</v>
       </c>
       <c r="E77" t="n">
-        <v>5817103420</v>
+        <v>5752585510</v>
       </c>
       <c r="F77" t="n">
-        <v>10287.12234242057</v>
+        <v>3240.605283747401</v>
       </c>
       <c r="G77" t="n">
-        <v>74406.05378196151</v>
+        <v>1211.683073083847</v>
       </c>
       <c r="H77" t="n">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="I77" t="n">
-        <v>25724257</v>
+        <v>34162460</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7509910</v>
+        <v>7288639</v>
       </c>
       <c r="E78" t="n">
-        <v>19509938</v>
+        <v>18935101</v>
       </c>
       <c r="F78" t="n">
-        <v>2283.923739731549</v>
+        <v>3885.247592449571</v>
       </c>
       <c r="G78" t="n">
-        <v>3504.071420578256</v>
+        <v>2794.535430643361</v>
       </c>
       <c r="H78" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="I78" t="n">
-        <v>728696</v>
+        <v>735444</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>110379091</v>
+        <v>107646950</v>
       </c>
       <c r="E79" t="n">
-        <v>167237076</v>
+        <v>163097566</v>
       </c>
       <c r="F79" t="n">
-        <v>40841.96893488771</v>
+        <v>41356.71337411956</v>
       </c>
       <c r="G79" t="n">
-        <v>41242.02637941712</v>
+        <v>38130.09485924307</v>
       </c>
       <c r="H79" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>9050105</v>
+        <v>9512405</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2631167</v>
+        <v>2584565</v>
       </c>
       <c r="E80" t="n">
-        <v>10524667</v>
+        <v>10338259</v>
       </c>
       <c r="F80" t="n">
-        <v>4701.57181803869</v>
+        <v>8194.794802730952</v>
       </c>
       <c r="G80" t="n">
-        <v>71132.38241106778</v>
+        <v>3822.333379785933</v>
       </c>
       <c r="H80" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="I80" t="n">
-        <v>7035977</v>
+        <v>7122838</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2585904</v>
+        <v>2486232</v>
       </c>
       <c r="F81" t="n">
-        <v>2175.482163564738</v>
+        <v>2332.396474804293</v>
       </c>
       <c r="G81" t="n">
-        <v>56.84572847860621</v>
+        <v>7.46412720783209</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.67</v>
       </c>
       <c r="I81" t="n">
-        <v>292412</v>
+        <v>261998</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>405441271</v>
+        <v>398468150</v>
       </c>
       <c r="E82" t="n">
-        <v>2316807263</v>
+        <v>2276960856</v>
       </c>
       <c r="F82" t="n">
-        <v>79456.57127410876</v>
+        <v>49187.58375849787</v>
       </c>
       <c r="G82" t="n">
-        <v>160483.8623379921</v>
+        <v>68582.91711294651</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>44477741</v>
+        <v>49223625</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3901261</v>
+        <v>3858268</v>
       </c>
       <c r="F2" t="n">
-        <v>309.601299641059</v>
+        <v>244.2724141310578</v>
       </c>
       <c r="G2" t="n">
-        <v>392.4315417260229</v>
+        <v>394.6421314935454</v>
       </c>
       <c r="H2" t="n">
-        <v>0.77</v>
+        <v>0.57</v>
       </c>
       <c r="I2" t="n">
-        <v>156264</v>
+        <v>143631</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1495036</v>
+        <v>1481726</v>
       </c>
       <c r="E3" t="n">
-        <v>4832571</v>
+        <v>4789545</v>
       </c>
       <c r="F3" t="n">
-        <v>1190.076855515348</v>
+        <v>1359.765315902155</v>
       </c>
       <c r="G3" t="n">
-        <v>1540.06930702742</v>
+        <v>940.5549557305877</v>
       </c>
       <c r="H3" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I3" t="n">
-        <v>223551</v>
+        <v>226118</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253579119</v>
+        <v>257317011</v>
       </c>
       <c r="E4" t="n">
-        <v>1590159011</v>
+        <v>1613598809</v>
       </c>
       <c r="F4" t="n">
-        <v>25144.68715564926</v>
+        <v>27972.33904062447</v>
       </c>
       <c r="G4" t="n">
-        <v>59500.87428378704</v>
+        <v>30809.89223351459</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I4" t="n">
-        <v>22663532</v>
+        <v>22171702</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148253321</v>
+        <v>146096221</v>
       </c>
       <c r="E5" t="n">
-        <v>164287848</v>
+        <v>161897444</v>
       </c>
       <c r="F5" t="n">
-        <v>36481.85752487523</v>
+        <v>43897.24757296244</v>
       </c>
       <c r="G5" t="n">
-        <v>44495.86298114771</v>
+        <v>37800.91766965981</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>49218647</v>
+        <v>49493784</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124010686</v>
+        <v>121885360</v>
       </c>
       <c r="E6" t="n">
-        <v>486084759</v>
+        <v>477754115</v>
       </c>
       <c r="F6" t="n">
-        <v>20491.45938594718</v>
+        <v>26954.11988625325</v>
       </c>
       <c r="G6" t="n">
-        <v>23234.98915758165</v>
+        <v>18179.78393023368</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>27306247</v>
+        <v>27463361</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4324945</v>
+        <v>4261269</v>
       </c>
       <c r="E7" t="n">
-        <v>26557356</v>
+        <v>26166348</v>
       </c>
       <c r="F7" t="n">
-        <v>2444.136835492115</v>
+        <v>435.4282034362367</v>
       </c>
       <c r="G7" t="n">
-        <v>1877.825251535411</v>
+        <v>1636.634714888916</v>
       </c>
       <c r="H7" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="I7" t="n">
-        <v>712028</v>
+        <v>708487</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198036</v>
+        <v>197696</v>
       </c>
       <c r="E8" t="n">
-        <v>2178619</v>
+        <v>2174879</v>
       </c>
       <c r="F8" t="n">
-        <v>2425.362518601633</v>
+        <v>2488.179275713416</v>
       </c>
       <c r="G8" t="n">
-        <v>4556.164019390581</v>
+        <v>4875.546911269273</v>
       </c>
       <c r="H8" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="I8" t="n">
-        <v>34311</v>
+        <v>33466</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72096787</v>
+        <v>71980342</v>
       </c>
       <c r="E9" t="n">
-        <v>124827384</v>
+        <v>124622796</v>
       </c>
       <c r="F9" t="n">
-        <v>3440.772482481055</v>
+        <v>1038.774585351978</v>
       </c>
       <c r="G9" t="n">
-        <v>5995.045353603712</v>
+        <v>2948.689285035598</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>930080</v>
+        <v>905953</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8788413</v>
+        <v>8803062</v>
       </c>
       <c r="E10" t="n">
-        <v>12439345</v>
+        <v>12460081</v>
       </c>
       <c r="F10" t="n">
-        <v>2876.909877788779</v>
+        <v>2882.889688642274</v>
       </c>
       <c r="G10" t="n">
-        <v>3419.228309313847</v>
+        <v>3435.051854733711</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>44033</v>
+        <v>43829</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>518788427</v>
+        <v>511919889</v>
       </c>
       <c r="E11" t="n">
-        <v>518788428</v>
+        <v>511919889</v>
       </c>
       <c r="F11" t="n">
-        <v>49074.65399293715</v>
+        <v>44367.09294913714</v>
       </c>
       <c r="G11" t="n">
-        <v>54219.96807430765</v>
+        <v>48132.31952137745</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>72788424</v>
+        <v>72548921</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>315309</v>
+        <v>309304</v>
       </c>
       <c r="E12" t="n">
-        <v>1471896</v>
+        <v>1443861</v>
       </c>
       <c r="F12" t="n">
-        <v>18.35517560022025</v>
+        <v>1.187511789450183</v>
       </c>
       <c r="G12" t="n">
-        <v>2450.529232425601</v>
+        <v>1180.392299649533</v>
       </c>
       <c r="H12" t="n">
-        <v>1.38</v>
+        <v>1.77</v>
       </c>
       <c r="I12" t="n">
-        <v>685916</v>
+        <v>663666</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2155190</v>
+        <v>1988748</v>
       </c>
       <c r="F13" t="n">
-        <v>4702.848807267073</v>
+        <v>4748.171571670204</v>
       </c>
       <c r="G13" t="n">
-        <v>362.2225406542867</v>
+        <v>326.42978925521</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>633380</v>
+        <v>1202455</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12074068</v>
+        <v>12053574</v>
       </c>
       <c r="E14" t="n">
-        <v>30050171</v>
+        <v>29999164</v>
       </c>
       <c r="F14" t="n">
-        <v>780.9275701470552</v>
+        <v>1558.825819417124</v>
       </c>
       <c r="G14" t="n">
-        <v>1453.37684256489</v>
+        <v>985.9750216801527</v>
       </c>
       <c r="H14" t="n">
-        <v>0.73</v>
+        <v>0.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1408125</v>
+        <v>1431917</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>114551704</v>
+        <v>112600051</v>
       </c>
       <c r="E15" t="n">
-        <v>445410433</v>
+        <v>437805463</v>
       </c>
       <c r="F15" t="n">
-        <v>21968.49307020957</v>
+        <v>15535.50668820146</v>
       </c>
       <c r="G15" t="n">
-        <v>18667.41878679785</v>
+        <v>12206.69462363134</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I15" t="n">
-        <v>12778350</v>
+        <v>20361998</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4892514</v>
+        <v>4952789</v>
       </c>
       <c r="E16" t="n">
-        <v>7202045</v>
+        <v>7290774</v>
       </c>
       <c r="F16" t="n">
-        <v>3603.728571002806</v>
+        <v>1759.277709860143</v>
       </c>
       <c r="G16" t="n">
-        <v>2368.538235808654</v>
+        <v>2025.565959264792</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I16" t="n">
-        <v>560176</v>
+        <v>564192</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2010265</v>
+        <v>1947776</v>
       </c>
       <c r="F17" t="n">
-        <v>538.9985085106905</v>
+        <v>531.820067404627</v>
       </c>
       <c r="G17" t="n">
-        <v>342.7912809065301</v>
+        <v>601.7998377383168</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="I17" t="n">
-        <v>112629</v>
+        <v>110933</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>145697335</v>
+        <v>143511789</v>
       </c>
       <c r="E18" t="n">
-        <v>145697335</v>
+        <v>143511789</v>
       </c>
       <c r="F18" t="n">
-        <v>77256.95748026582</v>
+        <v>92596.56290574506</v>
       </c>
       <c r="G18" t="n">
-        <v>97081.71982149515</v>
+        <v>96896.57487067282</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>86246222</v>
+        <v>87411464</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67519461</v>
+        <v>66421086</v>
       </c>
       <c r="E19" t="n">
-        <v>346253646</v>
+        <v>340620953</v>
       </c>
       <c r="F19" t="n">
-        <v>10024.5708275015</v>
+        <v>13646.04885953764</v>
       </c>
       <c r="G19" t="n">
-        <v>11887.33013106943</v>
+        <v>10919.03318163557</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>26173042</v>
+        <v>26535885</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>267266041</v>
+        <v>263256070</v>
       </c>
       <c r="E20" t="n">
-        <v>267266041</v>
+        <v>263256070</v>
       </c>
       <c r="F20" t="n">
-        <v>64327.80570583548</v>
+        <v>44409.56108720892</v>
       </c>
       <c r="G20" t="n">
-        <v>77060.52236040721</v>
+        <v>73889.16225490918</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>20175359</v>
+        <v>22227835</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>178833633</v>
+        <v>177980345</v>
       </c>
       <c r="E21" t="n">
-        <v>235324146</v>
+        <v>234201318</v>
       </c>
       <c r="F21" t="n">
-        <v>8251.616652842415</v>
+        <v>17348.78566362661</v>
       </c>
       <c r="G21" t="n">
-        <v>15158.07430479214</v>
+        <v>17792.21222877606</v>
       </c>
       <c r="H21" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I21" t="n">
-        <v>15533496</v>
+        <v>15649587</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>84262718</v>
+        <v>83726845</v>
       </c>
       <c r="E22" t="n">
-        <v>235724202</v>
+        <v>234215934</v>
       </c>
       <c r="F22" t="n">
-        <v>31882.48727335688</v>
+        <v>32587.78801762065</v>
       </c>
       <c r="G22" t="n">
-        <v>30777.14220963812</v>
+        <v>25057.04960322726</v>
       </c>
       <c r="H22" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="I22" t="n">
-        <v>54268322</v>
+        <v>48894949</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>90400736</v>
+        <v>90055427</v>
       </c>
       <c r="E23" t="n">
-        <v>188478273</v>
+        <v>187758332</v>
       </c>
       <c r="F23" t="n">
-        <v>29133.66097013504</v>
+        <v>33151.05963516264</v>
       </c>
       <c r="G23" t="n">
-        <v>43327.06316579453</v>
+        <v>33320.37889944478</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>65470971</v>
+        <v>67105374</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>688776186</v>
+        <v>677029265</v>
       </c>
       <c r="E24" t="n">
-        <v>688776186</v>
+        <v>677029265</v>
       </c>
       <c r="F24" t="n">
-        <v>177444.5464593022</v>
+        <v>171479.9324009893</v>
       </c>
       <c r="G24" t="n">
-        <v>154150.3917348321</v>
+        <v>112227.5119746544</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>488492537</v>
+        <v>497351048</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>206224451</v>
+        <v>204554082</v>
       </c>
       <c r="E25" t="n">
-        <v>716442381</v>
+        <v>710639367</v>
       </c>
       <c r="F25" t="n">
-        <v>83239.41674560105</v>
+        <v>80597.40374385611</v>
       </c>
       <c r="G25" t="n">
-        <v>103698.005871364</v>
+        <v>104339.5365423604</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>37159104</v>
+        <v>37629597</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5819371</v>
+        <v>5802949</v>
       </c>
       <c r="E26" t="n">
-        <v>7899793</v>
+        <v>7877612</v>
       </c>
       <c r="F26" t="n">
-        <v>2200.501316439369</v>
+        <v>612.6692817642821</v>
       </c>
       <c r="G26" t="n">
-        <v>252.5411511047593</v>
+        <v>305.1635112022836</v>
       </c>
       <c r="H26" t="n">
-        <v>0.49</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>4787568</v>
+        <v>5293228</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14653326</v>
+        <v>14642467</v>
       </c>
       <c r="F27" t="n">
-        <v>1888.94773264038</v>
+        <v>2219.331752527325</v>
       </c>
       <c r="G27" t="n">
-        <v>2634.896710556922</v>
+        <v>2417.928814483763</v>
       </c>
       <c r="H27" t="n">
-        <v>1.18</v>
+        <v>0.38</v>
       </c>
       <c r="I27" t="n">
-        <v>213768</v>
+        <v>225383</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25848176</v>
+        <v>25811031</v>
       </c>
       <c r="E28" t="n">
-        <v>36527641</v>
+        <v>36475148</v>
       </c>
       <c r="F28" t="n">
-        <v>278.3390298410631</v>
+        <v>754.9500219723687</v>
       </c>
       <c r="G28" t="n">
-        <v>8822.525110323022</v>
+        <v>1019.152996938137</v>
       </c>
       <c r="H28" t="n">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="I28" t="n">
-        <v>91504</v>
+        <v>101594</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>270304248</v>
+        <v>266860883</v>
       </c>
       <c r="E29" t="n">
-        <v>1166783190</v>
+        <v>1151919715</v>
       </c>
       <c r="F29" t="n">
-        <v>193997.6016675189</v>
+        <v>174623.4664755697</v>
       </c>
       <c r="G29" t="n">
-        <v>168064.625591389</v>
+        <v>167335.06384236</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>132735413</v>
+        <v>134827074</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11126491</v>
+        <v>10913405</v>
       </c>
       <c r="E30" t="n">
-        <v>133965687</v>
+        <v>131400078</v>
       </c>
       <c r="F30" t="n">
-        <v>3933.908052468636</v>
+        <v>1545.143530033032</v>
       </c>
       <c r="G30" t="n">
-        <v>4063.086621410644</v>
+        <v>6326.729635099819</v>
       </c>
       <c r="H30" t="n">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
       <c r="I30" t="n">
-        <v>466262</v>
+        <v>476111</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17666335</v>
+        <v>16389953</v>
       </c>
       <c r="E31" t="n">
-        <v>44165837</v>
+        <v>40974882</v>
       </c>
       <c r="F31" t="n">
-        <v>7225.643103994582</v>
+        <v>7244.91527472012</v>
       </c>
       <c r="G31" t="n">
-        <v>6109.303892706569</v>
+        <v>5414.12331494752</v>
       </c>
       <c r="H31" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="I31" t="n">
-        <v>3167889</v>
+        <v>3958400</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19902105</v>
+        <v>19834524</v>
       </c>
       <c r="F32" t="n">
-        <v>3581.562451081422</v>
+        <v>4217.464642837728</v>
       </c>
       <c r="G32" t="n">
-        <v>4401.751587427695</v>
+        <v>4027.859486827831</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>50250</v>
+        <v>56568</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1419316</v>
+        <v>1439423</v>
       </c>
       <c r="E33" t="n">
-        <v>5291168</v>
+        <v>5366125</v>
       </c>
       <c r="F33" t="n">
-        <v>1334.307806484908</v>
+        <v>2409.353546577324</v>
       </c>
       <c r="G33" t="n">
-        <v>1131.46648007385</v>
+        <v>1696.570519884958</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
       <c r="I33" t="n">
-        <v>592529</v>
+        <v>600707</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189890</v>
+        <v>4190867</v>
       </c>
       <c r="E34" t="n">
-        <v>12068240</v>
+        <v>12071053</v>
       </c>
       <c r="F34" t="n">
-        <v>2642.172048031288</v>
+        <v>2898.078388988269</v>
       </c>
       <c r="G34" t="n">
-        <v>4157.150624350877</v>
+        <v>2793.097058042255</v>
       </c>
       <c r="H34" t="n">
         <v>0.33</v>
       </c>
       <c r="I34" t="n">
-        <v>532219</v>
+        <v>530319</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15370095</v>
+        <v>14768069</v>
       </c>
       <c r="E35" t="n">
-        <v>74439825</v>
+        <v>71524117</v>
       </c>
       <c r="F35" t="n">
-        <v>3993.521737168418</v>
+        <v>4096.84784459127</v>
       </c>
       <c r="G35" t="n">
-        <v>2893.020102056177</v>
+        <v>3281.846489241126</v>
       </c>
       <c r="H35" t="n">
-        <v>0.23</v>
+        <v>0.84</v>
       </c>
       <c r="I35" t="n">
-        <v>5040830</v>
+        <v>5190964</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1402860</v>
+        <v>1358751</v>
       </c>
       <c r="E36" t="n">
-        <v>9181679</v>
+        <v>8892988</v>
       </c>
       <c r="F36" t="n">
-        <v>358.6727530692484</v>
+        <v>602.0723707033347</v>
       </c>
       <c r="G36" t="n">
-        <v>1963.381887470544</v>
+        <v>109.7686051675301</v>
       </c>
       <c r="H36" t="n">
-        <v>0.76</v>
+        <v>1.01</v>
       </c>
       <c r="I36" t="n">
-        <v>513774</v>
+        <v>520866</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1891496798</v>
+        <v>1873832787</v>
       </c>
       <c r="F37" t="n">
-        <v>77224.48375259496</v>
+        <v>75363.20893114674</v>
       </c>
       <c r="G37" t="n">
-        <v>76446.99989430456</v>
+        <v>75966.27330053985</v>
       </c>
       <c r="H37" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="I37" t="n">
-        <v>29267096</v>
+        <v>29384863</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1914706</v>
+        <v>1924785</v>
       </c>
       <c r="E38" t="n">
-        <v>13730162</v>
+        <v>13802445</v>
       </c>
       <c r="F38" t="n">
-        <v>3781.315162738958</v>
+        <v>3942.643510298697</v>
       </c>
       <c r="G38" t="n">
-        <v>5555.466954156573</v>
+        <v>5554.5737387585</v>
       </c>
       <c r="H38" t="n">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>616054</v>
+        <v>595147</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>203152378</v>
+        <v>199816414</v>
       </c>
       <c r="E39" t="n">
-        <v>1150373590</v>
+        <v>1131483313</v>
       </c>
       <c r="F39" t="n">
-        <v>67348.07519907542</v>
+        <v>35707.97589900727</v>
       </c>
       <c r="G39" t="n">
-        <v>57785.40757628771</v>
+        <v>69310.3567501354</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>81403951</v>
+        <v>82143629</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>123554933</v>
+        <v>126240097</v>
       </c>
       <c r="E40" t="n">
-        <v>915221724</v>
+        <v>935111826</v>
       </c>
       <c r="F40" t="n">
-        <v>46808.14274044432</v>
+        <v>52551.28525136955</v>
       </c>
       <c r="G40" t="n">
-        <v>62520.62013885185</v>
+        <v>55503.61346957648</v>
       </c>
       <c r="H40" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I40" t="n">
-        <v>18585204</v>
+        <v>20688701</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>336982450</v>
+        <v>333511388</v>
       </c>
       <c r="E41" t="n">
-        <v>3031703076</v>
+        <v>3000475249</v>
       </c>
       <c r="F41" t="n">
-        <v>83582.70385176314</v>
+        <v>73209.02181026711</v>
       </c>
       <c r="G41" t="n">
-        <v>106362.1799741584</v>
+        <v>90758.24458193683</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>55267397</v>
+        <v>57190067</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1536211</v>
+        <v>1553947</v>
       </c>
       <c r="E42" t="n">
-        <v>12801759</v>
+        <v>12949559</v>
       </c>
       <c r="F42" t="n">
-        <v>2245.015448416107</v>
+        <v>2776.554989480452</v>
       </c>
       <c r="G42" t="n">
-        <v>66.68909295984702</v>
+        <v>826.6869796808579</v>
       </c>
       <c r="H42" t="n">
-        <v>0.62</v>
+        <v>1.23</v>
       </c>
       <c r="I42" t="n">
-        <v>32225</v>
+        <v>28081</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>21533520</v>
+        <v>20018453</v>
       </c>
       <c r="E43" t="n">
-        <v>64550356</v>
+        <v>60005247</v>
       </c>
       <c r="F43" t="n">
-        <v>3457.369476769239</v>
+        <v>5264.215854951312</v>
       </c>
       <c r="G43" t="n">
-        <v>5656.768983975838</v>
+        <v>1488.496135475871</v>
       </c>
       <c r="H43" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="I43" t="n">
-        <v>3906415</v>
+        <v>4072169</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9158715</v>
+        <v>9723390</v>
       </c>
       <c r="F44" t="n">
-        <v>1882.057578605953</v>
+        <v>5395.612577367421</v>
       </c>
       <c r="G44" t="n">
-        <v>1076.360612015416</v>
+        <v>6960.319821718586</v>
       </c>
       <c r="H44" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="I44" t="n">
-        <v>104677</v>
+        <v>109800</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12977242</v>
+        <v>12797183</v>
       </c>
       <c r="E45" t="n">
-        <v>12977242</v>
+        <v>12797183</v>
       </c>
       <c r="F45" t="n">
-        <v>1232.626287763869</v>
+        <v>1328.045612950887</v>
       </c>
       <c r="G45" t="n">
-        <v>167.6737693138032</v>
+        <v>195.2989618784694</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="I45" t="n">
-        <v>4448846</v>
+        <v>4218565</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>311851856</v>
+        <v>302769029</v>
       </c>
       <c r="E46" t="n">
-        <v>311851856</v>
+        <v>302769029</v>
       </c>
       <c r="F46" t="n">
-        <v>11197.60944265364</v>
+        <v>9794.639652457163</v>
       </c>
       <c r="G46" t="n">
-        <v>18463.24560803366</v>
+        <v>26800.02783209696</v>
       </c>
       <c r="H46" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>18793421</v>
+        <v>19540081</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12657458</v>
+        <v>12611975</v>
       </c>
       <c r="E47" t="n">
-        <v>40034101</v>
+        <v>39890244</v>
       </c>
       <c r="F47" t="n">
-        <v>4152.051333209346</v>
+        <v>6580.547629691035</v>
       </c>
       <c r="G47" t="n">
-        <v>5877.853246568547</v>
+        <v>3057.298062188066</v>
       </c>
       <c r="H47" t="n">
-        <v>0.79</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>943607</v>
+        <v>916823</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32287978</v>
+        <v>31889843</v>
       </c>
       <c r="E48" t="n">
-        <v>89434494</v>
+        <v>88331701</v>
       </c>
       <c r="F48" t="n">
-        <v>3246.546700968968</v>
+        <v>5983.029354253219</v>
       </c>
       <c r="G48" t="n">
-        <v>8520.393940240536</v>
+        <v>6084.508439118692</v>
       </c>
       <c r="H48" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I48" t="n">
-        <v>12232450</v>
+        <v>12080139</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27449922</v>
+        <v>27375833</v>
       </c>
       <c r="E49" t="n">
-        <v>65214189</v>
+        <v>65010592</v>
       </c>
       <c r="F49" t="n">
-        <v>5941.081935966847</v>
+        <v>3055.378100187229</v>
       </c>
       <c r="G49" t="n">
-        <v>7075.91608926219</v>
+        <v>10489.64781743857</v>
       </c>
       <c r="H49" t="n">
         <v>0.03</v>
       </c>
       <c r="I49" t="n">
-        <v>526121</v>
+        <v>567852</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12639292</v>
+        <v>12649558</v>
       </c>
       <c r="E50" t="n">
-        <v>19239853</v>
+        <v>19255480</v>
       </c>
       <c r="F50" t="n">
-        <v>3955.757142109364</v>
+        <v>4849.397794418168</v>
       </c>
       <c r="G50" t="n">
-        <v>3229.535869872348</v>
+        <v>3317.635773438323</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="I50" t="n">
-        <v>279108</v>
+        <v>659557</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>305046034</v>
+        <v>300414473</v>
       </c>
       <c r="E51" t="n">
-        <v>305046034</v>
+        <v>300414473</v>
       </c>
       <c r="F51" t="n">
-        <v>47591.03108532448</v>
+        <v>50453.65600463749</v>
       </c>
       <c r="G51" t="n">
-        <v>72499.56101141154</v>
+        <v>76928.68287818627</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>84731237</v>
+        <v>84279550</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89571984</v>
+        <v>87719715</v>
       </c>
       <c r="E52" t="n">
-        <v>516152404</v>
+        <v>505478834</v>
       </c>
       <c r="F52" t="n">
-        <v>11768.09047980896</v>
+        <v>46404.49072836716</v>
       </c>
       <c r="G52" t="n">
-        <v>15227.12481537867</v>
+        <v>2256.842022432076</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I52" t="n">
-        <v>20025051</v>
+        <v>20070469</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30718450</v>
+        <v>30261216</v>
       </c>
       <c r="E53" t="n">
-        <v>137539101</v>
+        <v>135491878</v>
       </c>
       <c r="F53" t="n">
-        <v>19046.55311923847</v>
+        <v>18986.46516523392</v>
       </c>
       <c r="G53" t="n">
-        <v>27782.18975619947</v>
+        <v>17062.82407610668</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>11292567</v>
+        <v>12122954</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9084523</v>
+        <v>9131194</v>
       </c>
       <c r="F54" t="n">
-        <v>2623.31456889144</v>
+        <v>2578.631347792043</v>
       </c>
       <c r="G54" t="n">
-        <v>4504.325502831456</v>
+        <v>4552.361820800471</v>
       </c>
       <c r="H54" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I54" t="n">
-        <v>292864</v>
+        <v>288301</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4789109</v>
+        <v>4701437</v>
       </c>
       <c r="F55" t="n">
-        <v>166.0862986379544</v>
+        <v>184.8674574508589</v>
       </c>
       <c r="G55" t="n">
-        <v>117.1601510951726</v>
+        <v>181.2734137672153</v>
       </c>
       <c r="H55" t="n">
-        <v>2.42</v>
+        <v>0.35</v>
       </c>
       <c r="I55" t="n">
-        <v>236848</v>
+        <v>238499</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123579792</v>
+        <v>123412279</v>
       </c>
       <c r="E56" t="n">
-        <v>2046582563</v>
+        <v>2043808420</v>
       </c>
       <c r="F56" t="n">
-        <v>26273.27793503707</v>
+        <v>22017.23551091622</v>
       </c>
       <c r="G56" t="n">
-        <v>25520.49121946029</v>
+        <v>25831.91392103376</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I56" t="n">
-        <v>11101451</v>
+        <v>20480547</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>106685660</v>
+        <v>100598168</v>
       </c>
       <c r="E57" t="n">
-        <v>107834054</v>
+        <v>101681034</v>
       </c>
       <c r="F57" t="n">
-        <v>34685.73045428147</v>
+        <v>20302.85469464998</v>
       </c>
       <c r="G57" t="n">
-        <v>35614.90179567101</v>
+        <v>29906.39009234206</v>
       </c>
       <c r="H57" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I57" t="n">
-        <v>80165252</v>
+        <v>78814732</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>248900840</v>
+        <v>246566128</v>
       </c>
       <c r="E58" t="n">
-        <v>248900840</v>
+        <v>246566128</v>
       </c>
       <c r="F58" t="n">
-        <v>68009.35753353202</v>
+        <v>97728.63574481149</v>
       </c>
       <c r="G58" t="n">
-        <v>58880.03836587527</v>
+        <v>70730.62808949307</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>70698855</v>
+        <v>73640951</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24227644</v>
+        <v>23992052</v>
       </c>
       <c r="E59" t="n">
-        <v>144958867</v>
+        <v>143549268</v>
       </c>
       <c r="F59" t="n">
-        <v>11886.45920602079</v>
+        <v>23863.56012891549</v>
       </c>
       <c r="G59" t="n">
-        <v>28371.83719231348</v>
+        <v>27923.06148840204</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>15855499</v>
+        <v>16291656</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2400075</v>
+        <v>2480680</v>
       </c>
       <c r="E60" t="n">
-        <v>4429476</v>
+        <v>4578237</v>
       </c>
       <c r="F60" t="n">
-        <v>2614.942989611559</v>
+        <v>116.120440625495</v>
       </c>
       <c r="G60" t="n">
-        <v>2398.110962610907</v>
+        <v>15.00243453722432</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>3.62</v>
       </c>
       <c r="I60" t="n">
-        <v>29124</v>
+        <v>80989</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9937371</v>
+        <v>9542371</v>
       </c>
       <c r="E62" t="n">
-        <v>29459719</v>
+        <v>28288727</v>
       </c>
       <c r="F62" t="n">
-        <v>2508.645584817902</v>
+        <v>3683.749049076328</v>
       </c>
       <c r="G62" t="n">
-        <v>1734.580540708652</v>
+        <v>1762.861594994572</v>
       </c>
       <c r="H62" t="n">
-        <v>0.68</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>6151686</v>
+        <v>6140166</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14548386</v>
+        <v>14453189</v>
       </c>
       <c r="E63" t="n">
-        <v>29452319</v>
+        <v>29259599</v>
       </c>
       <c r="F63" t="n">
-        <v>8681.785330562707</v>
+        <v>4246.60786141046</v>
       </c>
       <c r="G63" t="n">
-        <v>18451.29252640285</v>
+        <v>11840.730790865</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="I63" t="n">
-        <v>547074</v>
+        <v>551578</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>34653585</v>
+        <v>32935434</v>
       </c>
       <c r="E64" t="n">
-        <v>245688267</v>
+        <v>233506852</v>
       </c>
       <c r="F64" t="n">
-        <v>96036.67531730355</v>
+        <v>91716.20079663656</v>
       </c>
       <c r="G64" t="n">
-        <v>81983.06798117895</v>
+        <v>45114.89746625541</v>
       </c>
       <c r="H64" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>3812210</v>
+        <v>4254620</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1291374</v>
+        <v>1288670</v>
       </c>
       <c r="E65" t="n">
-        <v>8008446</v>
+        <v>7991676</v>
       </c>
       <c r="F65" t="n">
-        <v>403.7653010608181</v>
+        <v>312.4318955055695</v>
       </c>
       <c r="G65" t="n">
-        <v>269.3277569840181</v>
+        <v>143.5282618399787</v>
       </c>
       <c r="H65" t="n">
-        <v>2.37</v>
+        <v>0.54</v>
       </c>
       <c r="I65" t="n">
-        <v>800872</v>
+        <v>797210</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>606142679</v>
+        <v>598486897</v>
       </c>
       <c r="E66" t="n">
-        <v>2347501167</v>
+        <v>2317851453</v>
       </c>
       <c r="F66" t="n">
-        <v>50087.5645478372</v>
+        <v>60734.51732391114</v>
       </c>
       <c r="G66" t="n">
-        <v>63684.45939909839</v>
+        <v>56977.09044043005</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>52271433</v>
+        <v>52530745</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5474603</v>
+        <v>5439875</v>
       </c>
       <c r="E67" t="n">
-        <v>24506670</v>
+        <v>24351214</v>
       </c>
       <c r="F67" t="n">
-        <v>3931.543640202042</v>
+        <v>1238.151562885682</v>
       </c>
       <c r="G67" t="n">
-        <v>24376.87024901143</v>
+        <v>20788.67165037908</v>
       </c>
       <c r="H67" t="n">
         <v>0.12</v>
       </c>
       <c r="I67" t="n">
-        <v>181529</v>
+        <v>183791</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>114760483</v>
+        <v>112014554</v>
       </c>
       <c r="E68" t="n">
-        <v>1066272788</v>
+        <v>1040759566</v>
       </c>
       <c r="F68" t="n">
-        <v>18463.27085629966</v>
+        <v>12977.31632755052</v>
       </c>
       <c r="G68" t="n">
-        <v>17104.51128225688</v>
+        <v>11712.92633212356</v>
       </c>
       <c r="H68" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I68" t="n">
-        <v>12347081</v>
+        <v>9928302</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>102830522</v>
+        <v>97848992</v>
       </c>
       <c r="E69" t="n">
-        <v>156870372</v>
+        <v>149270931</v>
       </c>
       <c r="F69" t="n">
-        <v>16444.09565135301</v>
+        <v>18191.15094693928</v>
       </c>
       <c r="G69" t="n">
-        <v>22161.70874767708</v>
+        <v>18933.34828764701</v>
       </c>
       <c r="H69" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="I69" t="n">
-        <v>10578952</v>
+        <v>10895702</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1086917</v>
+        <v>1075220</v>
       </c>
       <c r="E70" t="n">
-        <v>4208782</v>
+        <v>4163488</v>
       </c>
       <c r="F70" t="n">
-        <v>2259.020165795225</v>
+        <v>3096.704245999508</v>
       </c>
       <c r="G70" t="n">
-        <v>3742.345910197852</v>
+        <v>3500.96675839687</v>
       </c>
       <c r="H70" t="n">
-        <v>0.93</v>
+        <v>0.38</v>
       </c>
       <c r="I70" t="n">
-        <v>308126</v>
+        <v>314297</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>126073482</v>
+        <v>125357547</v>
       </c>
       <c r="E71" t="n">
-        <v>483638170</v>
+        <v>480891729</v>
       </c>
       <c r="F71" t="n">
-        <v>19085.82447901618</v>
+        <v>24639.39860427393</v>
       </c>
       <c r="G71" t="n">
-        <v>20290.59062368661</v>
+        <v>15724.40244483622</v>
       </c>
       <c r="H71" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I71" t="n">
-        <v>40768845</v>
+        <v>40551212</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3171640</v>
+        <v>3144522</v>
       </c>
       <c r="E72" t="n">
-        <v>30051756</v>
+        <v>29794812</v>
       </c>
       <c r="F72" t="n">
-        <v>289.4311805999866</v>
+        <v>271.1385423870988</v>
       </c>
       <c r="G72" t="n">
-        <v>560.1487181025014</v>
+        <v>51.62967376324165</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1</v>
+        <v>0.86</v>
       </c>
       <c r="I72" t="n">
-        <v>204977</v>
+        <v>246261</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35493785</v>
+        <v>35455289</v>
       </c>
       <c r="F73" t="n">
-        <v>3330.168289764423</v>
+        <v>5950.916588989309</v>
       </c>
       <c r="G73" t="n">
-        <v>2760.024504654529</v>
+        <v>1204.591191166627</v>
       </c>
       <c r="H73" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I73" t="n">
-        <v>5566812</v>
+        <v>7361299</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88642332</v>
+        <v>88315971</v>
       </c>
       <c r="E74" t="n">
-        <v>327662936</v>
+        <v>326456208</v>
       </c>
       <c r="F74" t="n">
-        <v>93.74719183294189</v>
+        <v>95.64276945484484</v>
       </c>
       <c r="G74" t="n">
-        <v>540.4930656736443</v>
+        <v>204.5941948353621</v>
       </c>
       <c r="H74" t="n">
-        <v>1.87</v>
+        <v>0.7</v>
       </c>
       <c r="I74" t="n">
-        <v>204986</v>
+        <v>215335</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23302112</v>
+        <v>22933129</v>
       </c>
       <c r="E75" t="n">
-        <v>23302112</v>
+        <v>22933129</v>
       </c>
       <c r="F75" t="n">
-        <v>13638.64030282882</v>
+        <v>16098.99205514941</v>
       </c>
       <c r="G75" t="n">
-        <v>14779.49321680342</v>
+        <v>8685.011063341173</v>
       </c>
       <c r="H75" t="n">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="I75" t="n">
-        <v>5561762</v>
+        <v>5545386</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>495161308</v>
+        <v>491252674</v>
       </c>
       <c r="E76" t="n">
-        <v>1723615303</v>
+        <v>1710009675</v>
       </c>
       <c r="F76" t="n">
-        <v>92616.0648211035</v>
+        <v>98335.73561489626</v>
       </c>
       <c r="G76" t="n">
-        <v>110118.0999303169</v>
+        <v>101566.6198125419</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>42611918</v>
+        <v>43232103</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5752585510</v>
+        <v>5660097190</v>
       </c>
       <c r="E77" t="n">
-        <v>5752585510</v>
+        <v>5660095562</v>
       </c>
       <c r="F77" t="n">
-        <v>3240.605283747401</v>
+        <v>3199.066116755935</v>
       </c>
       <c r="G77" t="n">
-        <v>1211.683073083847</v>
+        <v>1204.841306378337</v>
       </c>
       <c r="H77" t="n">
-        <v>0.48</v>
+        <v>2.15</v>
       </c>
       <c r="I77" t="n">
-        <v>34162460</v>
+        <v>33563727</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7288639</v>
+        <v>7326062</v>
       </c>
       <c r="E78" t="n">
-        <v>18935101</v>
+        <v>19032322</v>
       </c>
       <c r="F78" t="n">
-        <v>3885.247592449571</v>
+        <v>85.04096337920478</v>
       </c>
       <c r="G78" t="n">
-        <v>2794.535430643361</v>
+        <v>2030.456901996623</v>
       </c>
       <c r="H78" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I78" t="n">
-        <v>735444</v>
+        <v>739272</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>107646950</v>
+        <v>105795668</v>
       </c>
       <c r="E79" t="n">
-        <v>163097566</v>
+        <v>160292661</v>
       </c>
       <c r="F79" t="n">
-        <v>41356.71337411956</v>
+        <v>39133.35963754748</v>
       </c>
       <c r="G79" t="n">
-        <v>38130.09485924307</v>
+        <v>38228.93945728369</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="I79" t="n">
-        <v>9512405</v>
+        <v>9517243</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2584565</v>
+        <v>2545244</v>
       </c>
       <c r="E80" t="n">
-        <v>10338259</v>
+        <v>10180975</v>
       </c>
       <c r="F80" t="n">
-        <v>8194.794802730952</v>
+        <v>1702.089373830541</v>
       </c>
       <c r="G80" t="n">
-        <v>3822.333379785933</v>
+        <v>3076.678138313016</v>
       </c>
       <c r="H80" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="I80" t="n">
-        <v>7122838</v>
+        <v>7117108</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2486232</v>
+        <v>2360508</v>
       </c>
       <c r="F81" t="n">
-        <v>2332.396474804293</v>
+        <v>5.457041936564105</v>
       </c>
       <c r="G81" t="n">
-        <v>7.46412720783209</v>
+        <v>305.9041157375036</v>
       </c>
       <c r="H81" t="n">
-        <v>0.67</v>
+        <v>1.69</v>
       </c>
       <c r="I81" t="n">
-        <v>261998</v>
+        <v>214172</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>398468150</v>
+        <v>392429960</v>
       </c>
       <c r="E82" t="n">
-        <v>2276960856</v>
+        <v>2242456916</v>
       </c>
       <c r="F82" t="n">
-        <v>49187.58375849787</v>
+        <v>48574.71395546309</v>
       </c>
       <c r="G82" t="n">
-        <v>68582.91711294651</v>
+        <v>55056.6680988581</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>49223625</v>
+        <v>53618683</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3858268</v>
+        <v>3836589</v>
       </c>
       <c r="F2" t="n">
-        <v>244.2724141310578</v>
+        <v>713.3781646175511</v>
       </c>
       <c r="G2" t="n">
-        <v>394.6421314935454</v>
+        <v>379.3230605947846</v>
       </c>
       <c r="H2" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="I2" t="n">
-        <v>143631</v>
+        <v>143412</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1481726</v>
+        <v>1481821</v>
       </c>
       <c r="E3" t="n">
-        <v>4789545</v>
+        <v>4789855</v>
       </c>
       <c r="F3" t="n">
-        <v>1359.765315902155</v>
+        <v>1333.24108492864</v>
       </c>
       <c r="G3" t="n">
-        <v>940.5549557305877</v>
+        <v>1080.201870214413</v>
       </c>
       <c r="H3" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="I3" t="n">
-        <v>226118</v>
+        <v>225952</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>257317011</v>
+        <v>253496905</v>
       </c>
       <c r="E4" t="n">
-        <v>1613598809</v>
+        <v>1589643460</v>
       </c>
       <c r="F4" t="n">
-        <v>27972.33904062447</v>
+        <v>19274.27944546012</v>
       </c>
       <c r="G4" t="n">
-        <v>30809.89223351459</v>
+        <v>30036.06444598068</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I4" t="n">
-        <v>22171702</v>
+        <v>24411468</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146096221</v>
+        <v>143616624</v>
       </c>
       <c r="E5" t="n">
-        <v>161897444</v>
+        <v>159149663</v>
       </c>
       <c r="F5" t="n">
-        <v>43897.24757296244</v>
+        <v>56539.68088800598</v>
       </c>
       <c r="G5" t="n">
-        <v>37800.91766965981</v>
+        <v>31803.18990216821</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>49493784</v>
+        <v>49304569</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>121885360</v>
+        <v>120339769</v>
       </c>
       <c r="E6" t="n">
-        <v>477754115</v>
+        <v>471695864</v>
       </c>
       <c r="F6" t="n">
-        <v>26954.11988625325</v>
+        <v>25313.29421806545</v>
       </c>
       <c r="G6" t="n">
-        <v>18179.78393023368</v>
+        <v>18328.78521473882</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>27463361</v>
+        <v>27539621</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4261269</v>
+        <v>4255783</v>
       </c>
       <c r="E7" t="n">
-        <v>26166348</v>
+        <v>26132660</v>
       </c>
       <c r="F7" t="n">
-        <v>435.4282034362367</v>
+        <v>444.3924469883502</v>
       </c>
       <c r="G7" t="n">
-        <v>1636.634714888916</v>
+        <v>1528.69287857225</v>
       </c>
       <c r="H7" t="n">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="I7" t="n">
-        <v>708487</v>
+        <v>707077</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197696</v>
+        <v>196916</v>
       </c>
       <c r="E8" t="n">
-        <v>2174879</v>
+        <v>2166291</v>
       </c>
       <c r="F8" t="n">
-        <v>2488.179275713416</v>
+        <v>2753.269862586066</v>
       </c>
       <c r="G8" t="n">
-        <v>4875.546911269273</v>
+        <v>4768.786949860391</v>
       </c>
       <c r="H8" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="I8" t="n">
-        <v>33466</v>
+        <v>34697</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71980342</v>
+        <v>71513078</v>
       </c>
       <c r="E9" t="n">
-        <v>124622796</v>
+        <v>123813800</v>
       </c>
       <c r="F9" t="n">
-        <v>1038.774585351978</v>
+        <v>1291.369344669065</v>
       </c>
       <c r="G9" t="n">
-        <v>2948.689285035598</v>
+        <v>1421.568340641239</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>905953</v>
+        <v>909565</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8803062</v>
+        <v>8780370</v>
       </c>
       <c r="E10" t="n">
-        <v>12460081</v>
+        <v>12427961</v>
       </c>
       <c r="F10" t="n">
-        <v>2882.889688642274</v>
+        <v>2845.98520427156</v>
       </c>
       <c r="G10" t="n">
-        <v>3435.051854733711</v>
+        <v>3491.032334653672</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>43829</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>511919889</v>
+        <v>503593771</v>
       </c>
       <c r="E11" t="n">
-        <v>511919889</v>
+        <v>503593776</v>
       </c>
       <c r="F11" t="n">
-        <v>44367.09294913714</v>
+        <v>32747.33648033605</v>
       </c>
       <c r="G11" t="n">
-        <v>48132.31952137745</v>
+        <v>47359.03010231118</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>72548921</v>
+        <v>81993330</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>309304</v>
+        <v>304421</v>
       </c>
       <c r="E12" t="n">
-        <v>1443861</v>
+        <v>1421069</v>
       </c>
       <c r="F12" t="n">
-        <v>1.187511789450183</v>
+        <v>196.668644254743</v>
       </c>
       <c r="G12" t="n">
-        <v>1180.392299649533</v>
+        <v>1257.50049138262</v>
       </c>
       <c r="H12" t="n">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="I12" t="n">
-        <v>663666</v>
+        <v>668533</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1988748</v>
+        <v>1955226</v>
       </c>
       <c r="F13" t="n">
-        <v>4748.171571670204</v>
+        <v>4848.730361121564</v>
       </c>
       <c r="G13" t="n">
-        <v>326.42978925521</v>
+        <v>1887.521539956458</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="I13" t="n">
-        <v>1202455</v>
+        <v>1204321</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12053574</v>
+        <v>12098323</v>
       </c>
       <c r="E14" t="n">
-        <v>29999164</v>
+        <v>30110538</v>
       </c>
       <c r="F14" t="n">
-        <v>1558.825819417124</v>
+        <v>956.4439008809037</v>
       </c>
       <c r="G14" t="n">
-        <v>985.9750216801527</v>
+        <v>945.5430075679544</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="I14" t="n">
-        <v>1431917</v>
+        <v>1525618</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>112600051</v>
+        <v>110594516</v>
       </c>
       <c r="E15" t="n">
-        <v>437805463</v>
+        <v>429998873</v>
       </c>
       <c r="F15" t="n">
-        <v>15535.50668820146</v>
+        <v>23270.72118508592</v>
       </c>
       <c r="G15" t="n">
-        <v>12206.69462363134</v>
+        <v>16776.01206805381</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>20361998</v>
+        <v>20302547</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4952789</v>
+        <v>4942335</v>
       </c>
       <c r="E16" t="n">
-        <v>7290774</v>
+        <v>7275385</v>
       </c>
       <c r="F16" t="n">
-        <v>1759.277709860143</v>
+        <v>2214.339839851732</v>
       </c>
       <c r="G16" t="n">
-        <v>2025.565959264792</v>
+        <v>3623.359159834869</v>
       </c>
       <c r="H16" t="n">
         <v>0.68</v>
       </c>
       <c r="I16" t="n">
-        <v>564192</v>
+        <v>570667</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1947776</v>
+        <v>1937285</v>
       </c>
       <c r="F17" t="n">
-        <v>531.820067404627</v>
+        <v>171.5029744776693</v>
       </c>
       <c r="G17" t="n">
-        <v>601.7998377383168</v>
+        <v>583.3929358552261</v>
       </c>
       <c r="H17" t="n">
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>110933</v>
+        <v>111590</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>143511789</v>
+        <v>141808388</v>
       </c>
       <c r="E18" t="n">
-        <v>143511789</v>
+        <v>141808388</v>
       </c>
       <c r="F18" t="n">
-        <v>92596.56290574506</v>
+        <v>91031.09237062467</v>
       </c>
       <c r="G18" t="n">
-        <v>96896.57487067282</v>
+        <v>90171.87880440554</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>87411464</v>
+        <v>88305512</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66421086</v>
+        <v>65142825</v>
       </c>
       <c r="E19" t="n">
-        <v>340620953</v>
+        <v>334065772</v>
       </c>
       <c r="F19" t="n">
-        <v>13646.04885953764</v>
+        <v>14597.51547894087</v>
       </c>
       <c r="G19" t="n">
-        <v>10919.03318163557</v>
+        <v>6056.762660423998</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>26535885</v>
+        <v>27087973</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>263256070</v>
+        <v>261070034</v>
       </c>
       <c r="E20" t="n">
-        <v>263256070</v>
+        <v>261070034</v>
       </c>
       <c r="F20" t="n">
-        <v>44409.56108720892</v>
+        <v>71487.24894956627</v>
       </c>
       <c r="G20" t="n">
-        <v>73889.16225490918</v>
+        <v>64686.32543034166</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>22227835</v>
+        <v>27209005</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>177980345</v>
+        <v>172693005</v>
       </c>
       <c r="E21" t="n">
-        <v>234201318</v>
+        <v>227243797</v>
       </c>
       <c r="F21" t="n">
-        <v>17348.78566362661</v>
+        <v>16793.47223953107</v>
       </c>
       <c r="G21" t="n">
-        <v>17792.21222877606</v>
+        <v>12343.47760811746</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I21" t="n">
-        <v>15649587</v>
+        <v>15668413</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>83726845</v>
+        <v>82235439</v>
       </c>
       <c r="E22" t="n">
-        <v>234215934</v>
+        <v>230043294</v>
       </c>
       <c r="F22" t="n">
-        <v>32587.78801762065</v>
+        <v>49630.23230908934</v>
       </c>
       <c r="G22" t="n">
-        <v>25057.04960322726</v>
+        <v>17682.39179485335</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>48894949</v>
+        <v>55788834</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>90055427</v>
+        <v>86856624</v>
       </c>
       <c r="E23" t="n">
-        <v>187758332</v>
+        <v>181089085</v>
       </c>
       <c r="F23" t="n">
-        <v>33151.05963516264</v>
+        <v>30081.1212768794</v>
       </c>
       <c r="G23" t="n">
-        <v>33320.37889944478</v>
+        <v>30451.87193877439</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I23" t="n">
-        <v>67105374</v>
+        <v>67225724</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>677029265</v>
+        <v>668578616</v>
       </c>
       <c r="E24" t="n">
-        <v>677029265</v>
+        <v>668578616</v>
       </c>
       <c r="F24" t="n">
-        <v>171479.9324009893</v>
+        <v>154469.2386526656</v>
       </c>
       <c r="G24" t="n">
-        <v>112227.5119746544</v>
+        <v>113170.7883498828</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>497351048</v>
+        <v>501761291</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>204554082</v>
+        <v>200971284</v>
       </c>
       <c r="E25" t="n">
-        <v>710639367</v>
+        <v>698192405</v>
       </c>
       <c r="F25" t="n">
-        <v>80597.40374385611</v>
+        <v>87615.43560849217</v>
       </c>
       <c r="G25" t="n">
-        <v>104339.5365423604</v>
+        <v>97950.785934656</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>37629597</v>
+        <v>42211698</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5802949</v>
+        <v>5801823</v>
       </c>
       <c r="E26" t="n">
-        <v>7877612</v>
+        <v>7874144</v>
       </c>
       <c r="F26" t="n">
-        <v>612.6692817642821</v>
+        <v>429.6470671547755</v>
       </c>
       <c r="G26" t="n">
-        <v>305.1635112022836</v>
+        <v>2976.761262629711</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="I26" t="n">
-        <v>5293228</v>
+        <v>5292466</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14642467</v>
+        <v>14561682</v>
       </c>
       <c r="F27" t="n">
-        <v>2219.331752527325</v>
+        <v>863.3154961826039</v>
       </c>
       <c r="G27" t="n">
-        <v>2417.928814483763</v>
+        <v>3447.335120740466</v>
       </c>
       <c r="H27" t="n">
-        <v>0.38</v>
+        <v>1.26</v>
       </c>
       <c r="I27" t="n">
-        <v>225383</v>
+        <v>226458</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25811031</v>
+        <v>25673027</v>
       </c>
       <c r="E28" t="n">
-        <v>36475148</v>
+        <v>36280127</v>
       </c>
       <c r="F28" t="n">
-        <v>754.9500219723687</v>
+        <v>421.8997644942612</v>
       </c>
       <c r="G28" t="n">
-        <v>1019.152996938137</v>
+        <v>1301.169749771474</v>
       </c>
       <c r="H28" t="n">
         <v>0.44</v>
       </c>
       <c r="I28" t="n">
-        <v>101594</v>
+        <v>100663</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>266860883</v>
+        <v>262442491</v>
       </c>
       <c r="E29" t="n">
-        <v>1151919715</v>
+        <v>1132847485</v>
       </c>
       <c r="F29" t="n">
-        <v>174623.4664755697</v>
+        <v>173280.1310288918</v>
       </c>
       <c r="G29" t="n">
-        <v>167335.06384236</v>
+        <v>152781.4965903957</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>134827074</v>
+        <v>135828473</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10913405</v>
+        <v>10770715</v>
       </c>
       <c r="E30" t="n">
-        <v>131400078</v>
+        <v>129682055</v>
       </c>
       <c r="F30" t="n">
-        <v>1545.143530033032</v>
+        <v>1970.219759719381</v>
       </c>
       <c r="G30" t="n">
-        <v>6326.729635099819</v>
+        <v>5785.732686591423</v>
       </c>
       <c r="H30" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="I30" t="n">
-        <v>476111</v>
+        <v>478106</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16389953</v>
+        <v>16014735</v>
       </c>
       <c r="E31" t="n">
-        <v>40974882</v>
+        <v>40036838</v>
       </c>
       <c r="F31" t="n">
-        <v>7244.91527472012</v>
+        <v>15864.26852047644</v>
       </c>
       <c r="G31" t="n">
-        <v>5414.12331494752</v>
+        <v>4103.671654083373</v>
       </c>
       <c r="H31" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I31" t="n">
-        <v>3958400</v>
+        <v>4056755</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19834524</v>
+        <v>19700079</v>
       </c>
       <c r="F32" t="n">
-        <v>4217.464642837728</v>
+        <v>3477.334873671562</v>
       </c>
       <c r="G32" t="n">
-        <v>4027.859486827831</v>
+        <v>2184.022737715018</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I32" t="n">
-        <v>56568</v>
+        <v>56921</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1439423</v>
+        <v>1445533</v>
       </c>
       <c r="E33" t="n">
-        <v>5366125</v>
+        <v>5388903</v>
       </c>
       <c r="F33" t="n">
-        <v>2409.353546577324</v>
+        <v>2795.934812912873</v>
       </c>
       <c r="G33" t="n">
-        <v>1696.570519884958</v>
+        <v>1239.886302470098</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
       <c r="I33" t="n">
-        <v>600707</v>
+        <v>595548</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4190867</v>
+        <v>4189359</v>
       </c>
       <c r="E34" t="n">
-        <v>12071053</v>
+        <v>12066710</v>
       </c>
       <c r="F34" t="n">
-        <v>2898.078388988269</v>
+        <v>1250.732966669947</v>
       </c>
       <c r="G34" t="n">
-        <v>2793.097058042255</v>
+        <v>5438.00938556219</v>
       </c>
       <c r="H34" t="n">
-        <v>0.33</v>
+        <v>0.74</v>
       </c>
       <c r="I34" t="n">
-        <v>530319</v>
+        <v>491298</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14768069</v>
+        <v>14201645</v>
       </c>
       <c r="E35" t="n">
-        <v>71524117</v>
+        <v>68780835</v>
       </c>
       <c r="F35" t="n">
-        <v>4096.84784459127</v>
+        <v>3042.068234161839</v>
       </c>
       <c r="G35" t="n">
-        <v>3281.846489241126</v>
+        <v>2108.759583824994</v>
       </c>
       <c r="H35" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="I35" t="n">
-        <v>5190964</v>
+        <v>5212791</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1358751</v>
+        <v>1328307</v>
       </c>
       <c r="E36" t="n">
-        <v>8892988</v>
+        <v>8693734</v>
       </c>
       <c r="F36" t="n">
-        <v>602.0723707033347</v>
+        <v>338.8005870008308</v>
       </c>
       <c r="G36" t="n">
-        <v>109.7686051675301</v>
+        <v>530.0694298814138</v>
       </c>
       <c r="H36" t="n">
-        <v>1.01</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>520866</v>
+        <v>523647</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1873832787</v>
+        <v>1860530458</v>
       </c>
       <c r="F37" t="n">
-        <v>75363.20893114674</v>
+        <v>74880.19167206844</v>
       </c>
       <c r="G37" t="n">
-        <v>75966.27330053985</v>
+        <v>73000.78610651159</v>
       </c>
       <c r="H37" t="n">
         <v>0.64</v>
       </c>
       <c r="I37" t="n">
-        <v>29384863</v>
+        <v>29594956</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1924785</v>
+        <v>1935948</v>
       </c>
       <c r="E38" t="n">
-        <v>13802445</v>
+        <v>13882492</v>
       </c>
       <c r="F38" t="n">
-        <v>3942.643510298697</v>
+        <v>3970.902908888561</v>
       </c>
       <c r="G38" t="n">
-        <v>5554.5737387585</v>
+        <v>5513.875216251789</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I38" t="n">
-        <v>595147</v>
+        <v>2012367</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>199816414</v>
+        <v>198258622</v>
       </c>
       <c r="E39" t="n">
-        <v>1131483313</v>
+        <v>1122662138</v>
       </c>
       <c r="F39" t="n">
-        <v>35707.97589900727</v>
+        <v>53392.14935585196</v>
       </c>
       <c r="G39" t="n">
-        <v>69310.3567501354</v>
+        <v>77344.51373942755</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I39" t="n">
-        <v>82143629</v>
+        <v>82297105</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>126240097</v>
+        <v>126229997</v>
       </c>
       <c r="E40" t="n">
-        <v>935111826</v>
+        <v>935037017</v>
       </c>
       <c r="F40" t="n">
-        <v>52551.28525136955</v>
+        <v>76403.29866443458</v>
       </c>
       <c r="G40" t="n">
-        <v>55503.61346957648</v>
+        <v>50572.57590211889</v>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I40" t="n">
-        <v>20688701</v>
+        <v>20958336</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>333511388</v>
+        <v>329671300</v>
       </c>
       <c r="E41" t="n">
-        <v>3000475249</v>
+        <v>2965927440</v>
       </c>
       <c r="F41" t="n">
-        <v>73209.02181026711</v>
+        <v>72700.20269021134</v>
       </c>
       <c r="G41" t="n">
-        <v>90758.24458193683</v>
+        <v>105842.9826586578</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>57190067</v>
+        <v>60016327</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1553947</v>
+        <v>1554581</v>
       </c>
       <c r="E42" t="n">
-        <v>12949559</v>
+        <v>12954844</v>
       </c>
       <c r="F42" t="n">
-        <v>2776.554989480452</v>
+        <v>3044.651772418095</v>
       </c>
       <c r="G42" t="n">
-        <v>826.6869796808579</v>
+        <v>195.9977084519343</v>
       </c>
       <c r="H42" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="I42" t="n">
-        <v>28081</v>
+        <v>28074</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20018453</v>
+        <v>19664451</v>
       </c>
       <c r="E43" t="n">
-        <v>60005247</v>
+        <v>58954259</v>
       </c>
       <c r="F43" t="n">
-        <v>5264.215854951312</v>
+        <v>3345.438127810456</v>
       </c>
       <c r="G43" t="n">
-        <v>1488.496135475871</v>
+        <v>1907.499582446184</v>
       </c>
       <c r="H43" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="I43" t="n">
-        <v>4072169</v>
+        <v>4139811</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9723390</v>
+        <v>9625816</v>
       </c>
       <c r="F44" t="n">
-        <v>5395.612577367421</v>
+        <v>7510.611669174848</v>
       </c>
       <c r="G44" t="n">
-        <v>6960.319821718586</v>
+        <v>7268.178727364234</v>
       </c>
       <c r="H44" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="I44" t="n">
-        <v>109800</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12797183</v>
+        <v>12663613</v>
       </c>
       <c r="E45" t="n">
-        <v>12797183</v>
+        <v>12663613</v>
       </c>
       <c r="F45" t="n">
-        <v>1328.045612950887</v>
+        <v>982.8410613430957</v>
       </c>
       <c r="G45" t="n">
-        <v>195.2989618784694</v>
+        <v>181.7665766614298</v>
       </c>
       <c r="H45" t="n">
-        <v>1.32</v>
+        <v>0.39</v>
       </c>
       <c r="I45" t="n">
-        <v>4218565</v>
+        <v>4078464</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>302769029</v>
+        <v>296643308</v>
       </c>
       <c r="E46" t="n">
-        <v>302769029</v>
+        <v>296643308</v>
       </c>
       <c r="F46" t="n">
-        <v>9794.639652457163</v>
+        <v>14157.02136158773</v>
       </c>
       <c r="G46" t="n">
-        <v>26800.02783209696</v>
+        <v>19485.66865564168</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>19540081</v>
+        <v>19489120</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12611975</v>
+        <v>12513869</v>
       </c>
       <c r="E47" t="n">
-        <v>39890244</v>
+        <v>39579944</v>
       </c>
       <c r="F47" t="n">
-        <v>6580.547629691035</v>
+        <v>11375.92178292678</v>
       </c>
       <c r="G47" t="n">
-        <v>3057.298062188066</v>
+        <v>5591.53507679516</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>916823</v>
+        <v>921437</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31889843</v>
+        <v>31352307</v>
       </c>
       <c r="E48" t="n">
-        <v>88331701</v>
+        <v>86842780</v>
       </c>
       <c r="F48" t="n">
-        <v>5983.029354253219</v>
+        <v>5354.060318260438</v>
       </c>
       <c r="G48" t="n">
-        <v>6084.508439118692</v>
+        <v>5677.906945144648</v>
       </c>
       <c r="H48" t="n">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="I48" t="n">
-        <v>12080139</v>
+        <v>12013973</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27375833</v>
+        <v>27256754</v>
       </c>
       <c r="E49" t="n">
-        <v>65010592</v>
+        <v>64658075</v>
       </c>
       <c r="F49" t="n">
-        <v>3055.378100187229</v>
+        <v>1395.394536033404</v>
       </c>
       <c r="G49" t="n">
-        <v>10489.64781743857</v>
+        <v>2649.615438133583</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I49" t="n">
-        <v>567852</v>
+        <v>573902</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12649558</v>
+        <v>12636933</v>
       </c>
       <c r="E50" t="n">
-        <v>19255480</v>
+        <v>19236262</v>
       </c>
       <c r="F50" t="n">
-        <v>4849.397794418168</v>
+        <v>5437.79135891905</v>
       </c>
       <c r="G50" t="n">
-        <v>3317.635773438323</v>
+        <v>3631.563789820456</v>
       </c>
       <c r="H50" t="n">
-        <v>0.51</v>
+        <v>0.28</v>
       </c>
       <c r="I50" t="n">
-        <v>659557</v>
+        <v>664185</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>300414473</v>
+        <v>295882646</v>
       </c>
       <c r="E51" t="n">
-        <v>300414473</v>
+        <v>295882646</v>
       </c>
       <c r="F51" t="n">
-        <v>50453.65600463749</v>
+        <v>55453.80378313239</v>
       </c>
       <c r="G51" t="n">
-        <v>76928.68287818627</v>
+        <v>72382.15903458103</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>84279550</v>
+        <v>85562774</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>87719715</v>
+        <v>86233951</v>
       </c>
       <c r="E52" t="n">
-        <v>505478834</v>
+        <v>496917223</v>
       </c>
       <c r="F52" t="n">
-        <v>46404.49072836716</v>
+        <v>35615.05890234523</v>
       </c>
       <c r="G52" t="n">
-        <v>2256.842022432076</v>
+        <v>715.6558674528985</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I52" t="n">
-        <v>20070469</v>
+        <v>20242117</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30261216</v>
+        <v>30113151</v>
       </c>
       <c r="E53" t="n">
-        <v>135491878</v>
+        <v>134828931</v>
       </c>
       <c r="F53" t="n">
-        <v>18986.46516523392</v>
+        <v>15823.46299358179</v>
       </c>
       <c r="G53" t="n">
-        <v>17062.82407610668</v>
+        <v>20856.68998893939</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I53" t="n">
-        <v>12122954</v>
+        <v>12283267</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9131194</v>
+        <v>9064520</v>
       </c>
       <c r="F54" t="n">
-        <v>2578.631347792043</v>
+        <v>2700.851977506904</v>
       </c>
       <c r="G54" t="n">
-        <v>4552.361820800471</v>
+        <v>4533.812260777388</v>
       </c>
       <c r="H54" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I54" t="n">
-        <v>288301</v>
+        <v>286891</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4701437</v>
+        <v>4724396</v>
       </c>
       <c r="F55" t="n">
-        <v>184.8674574508589</v>
+        <v>1828.272673081196</v>
       </c>
       <c r="G55" t="n">
-        <v>181.2734137672153</v>
+        <v>1075.920391492218</v>
       </c>
       <c r="H55" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="I55" t="n">
-        <v>238499</v>
+        <v>240111</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123412279</v>
+        <v>123198170</v>
       </c>
       <c r="E56" t="n">
-        <v>2043808420</v>
+        <v>2040262602</v>
       </c>
       <c r="F56" t="n">
-        <v>22017.23551091622</v>
+        <v>39385.26842630826</v>
       </c>
       <c r="G56" t="n">
-        <v>25831.91392103376</v>
+        <v>27410.84379989444</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>20480547</v>
+        <v>22597949</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>100598168</v>
+        <v>97513932</v>
       </c>
       <c r="E57" t="n">
-        <v>101681034</v>
+        <v>98563599</v>
       </c>
       <c r="F57" t="n">
-        <v>20302.85469464998</v>
+        <v>16310.76923402959</v>
       </c>
       <c r="G57" t="n">
-        <v>29906.39009234206</v>
+        <v>31667.79295458309</v>
       </c>
       <c r="H57" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>78814732</v>
+        <v>78037899</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>246566128</v>
+        <v>241012483</v>
       </c>
       <c r="E58" t="n">
-        <v>246566128</v>
+        <v>241012483</v>
       </c>
       <c r="F58" t="n">
-        <v>97728.63574481149</v>
+        <v>46078.9461269907</v>
       </c>
       <c r="G58" t="n">
-        <v>70730.62808949307</v>
+        <v>65494.3467952976</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>73640951</v>
+        <v>75008937</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23992052</v>
+        <v>23688935</v>
       </c>
       <c r="E59" t="n">
-        <v>143549268</v>
+        <v>141735659</v>
       </c>
       <c r="F59" t="n">
-        <v>23863.56012891549</v>
+        <v>32590.4359236764</v>
       </c>
       <c r="G59" t="n">
-        <v>27923.06148840204</v>
+        <v>28412.97553611929</v>
       </c>
       <c r="H59" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>16291656</v>
+        <v>16548306</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2480680</v>
+        <v>2444290</v>
       </c>
       <c r="E60" t="n">
-        <v>4578237</v>
+        <v>4511077</v>
       </c>
       <c r="F60" t="n">
-        <v>116.120440625495</v>
+        <v>116.1205092040885</v>
       </c>
       <c r="G60" t="n">
-        <v>15.00243453722432</v>
+        <v>15.00244339738585</v>
       </c>
       <c r="H60" t="n">
         <v>3.62</v>
       </c>
       <c r="I60" t="n">
-        <v>80989</v>
+        <v>76951</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9542371</v>
+        <v>9519033</v>
       </c>
       <c r="E62" t="n">
-        <v>28288727</v>
+        <v>28219538</v>
       </c>
       <c r="F62" t="n">
-        <v>3683.749049076328</v>
+        <v>7390.193947566062</v>
       </c>
       <c r="G62" t="n">
-        <v>1762.861594994572</v>
+        <v>1372.300271702836</v>
       </c>
       <c r="H62" t="n">
         <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>6140166</v>
+        <v>6119321</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14453189</v>
+        <v>14343524</v>
       </c>
       <c r="E63" t="n">
-        <v>29259599</v>
+        <v>29037588</v>
       </c>
       <c r="F63" t="n">
-        <v>4246.60786141046</v>
+        <v>644.7026562267801</v>
       </c>
       <c r="G63" t="n">
-        <v>11840.730790865</v>
+        <v>18468.90883855068</v>
       </c>
       <c r="H63" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>551578</v>
+        <v>555191</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32935434</v>
+        <v>31793695</v>
       </c>
       <c r="E64" t="n">
-        <v>233506852</v>
+        <v>225412113</v>
       </c>
       <c r="F64" t="n">
-        <v>91716.20079663656</v>
+        <v>29586.18275002051</v>
       </c>
       <c r="G64" t="n">
-        <v>45114.89746625541</v>
+        <v>46770.65588171465</v>
       </c>
       <c r="H64" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I64" t="n">
-        <v>4254620</v>
+        <v>4449719</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1288670</v>
+        <v>1286608</v>
       </c>
       <c r="E65" t="n">
-        <v>7991676</v>
+        <v>7978889</v>
       </c>
       <c r="F65" t="n">
-        <v>312.4318955055695</v>
+        <v>118.302379639441</v>
       </c>
       <c r="G65" t="n">
-        <v>143.5282618399787</v>
+        <v>403.984270842364</v>
       </c>
       <c r="H65" t="n">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="I65" t="n">
-        <v>797210</v>
+        <v>796152</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>598486897</v>
+        <v>590717947</v>
       </c>
       <c r="E66" t="n">
-        <v>2317851453</v>
+        <v>2287763456</v>
       </c>
       <c r="F66" t="n">
-        <v>60734.51732391114</v>
+        <v>54325.16019966482</v>
       </c>
       <c r="G66" t="n">
-        <v>56977.09044043005</v>
+        <v>39776.26421133421</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>52530745</v>
+        <v>53408389</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5439875</v>
+        <v>5462594</v>
       </c>
       <c r="E67" t="n">
-        <v>24351214</v>
+        <v>24452912</v>
       </c>
       <c r="F67" t="n">
-        <v>1238.151562885682</v>
+        <v>3930.073681270598</v>
       </c>
       <c r="G67" t="n">
-        <v>20788.67165037908</v>
+        <v>19798.79159991413</v>
       </c>
       <c r="H67" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="I67" t="n">
-        <v>183791</v>
+        <v>182734</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>112014554</v>
+        <v>112303794</v>
       </c>
       <c r="E68" t="n">
-        <v>1040759566</v>
+        <v>1043446975</v>
       </c>
       <c r="F68" t="n">
-        <v>12977.31632755052</v>
+        <v>21949.86877717827</v>
       </c>
       <c r="G68" t="n">
-        <v>11712.92633212356</v>
+        <v>9913.426183688103</v>
       </c>
       <c r="H68" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="I68" t="n">
-        <v>9928302</v>
+        <v>15783983</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>97848992</v>
+        <v>97793318</v>
       </c>
       <c r="E69" t="n">
-        <v>149270931</v>
+        <v>149185999</v>
       </c>
       <c r="F69" t="n">
-        <v>18191.15094693928</v>
+        <v>7911.118757152391</v>
       </c>
       <c r="G69" t="n">
-        <v>18933.34828764701</v>
+        <v>16274.83356954845</v>
       </c>
       <c r="H69" t="n">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="I69" t="n">
-        <v>10895702</v>
+        <v>11170883</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1075220</v>
+        <v>1069048</v>
       </c>
       <c r="E70" t="n">
-        <v>4163488</v>
+        <v>4139588</v>
       </c>
       <c r="F70" t="n">
-        <v>3096.704245999508</v>
+        <v>2638.596741670494</v>
       </c>
       <c r="G70" t="n">
-        <v>3500.96675839687</v>
+        <v>3306.176128343332</v>
       </c>
       <c r="H70" t="n">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="I70" t="n">
-        <v>314297</v>
+        <v>222477</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>125357547</v>
+        <v>123945413</v>
       </c>
       <c r="E71" t="n">
-        <v>480891729</v>
+        <v>475474553</v>
       </c>
       <c r="F71" t="n">
-        <v>24639.39860427393</v>
+        <v>20164.60713442335</v>
       </c>
       <c r="G71" t="n">
-        <v>15724.40244483622</v>
+        <v>13425.52475359839</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I71" t="n">
-        <v>40551212</v>
+        <v>40389910</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3144522</v>
+        <v>3096449</v>
       </c>
       <c r="E72" t="n">
-        <v>29794812</v>
+        <v>29339317</v>
       </c>
       <c r="F72" t="n">
-        <v>271.1385423870988</v>
+        <v>233.1765177484602</v>
       </c>
       <c r="G72" t="n">
-        <v>51.62967376324165</v>
+        <v>56.17573003459841</v>
       </c>
       <c r="H72" t="n">
-        <v>0.86</v>
+        <v>0.51</v>
       </c>
       <c r="I72" t="n">
-        <v>246261</v>
+        <v>189535</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35455289</v>
+        <v>35122568</v>
       </c>
       <c r="F73" t="n">
-        <v>5950.916588989309</v>
+        <v>4773.743152899317</v>
       </c>
       <c r="G73" t="n">
-        <v>1204.591191166627</v>
+        <v>1062.496366089921</v>
       </c>
       <c r="H73" t="n">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="I73" t="n">
-        <v>7361299</v>
+        <v>7346881</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88315971</v>
+        <v>88036814</v>
       </c>
       <c r="E74" t="n">
-        <v>326456208</v>
+        <v>325423569</v>
       </c>
       <c r="F74" t="n">
-        <v>95.64276945484484</v>
+        <v>471.0319707527316</v>
       </c>
       <c r="G74" t="n">
-        <v>204.5941948353621</v>
+        <v>276.7168362558377</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I74" t="n">
-        <v>215335</v>
+        <v>217345</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22933129</v>
+        <v>22453937</v>
       </c>
       <c r="E75" t="n">
-        <v>22933129</v>
+        <v>22453937</v>
       </c>
       <c r="F75" t="n">
-        <v>16098.99205514941</v>
+        <v>21529.74914264498</v>
       </c>
       <c r="G75" t="n">
-        <v>8685.011063341173</v>
+        <v>3518.04475819342</v>
       </c>
       <c r="H75" t="n">
-        <v>0.19</v>
+        <v>0.79</v>
       </c>
       <c r="I75" t="n">
-        <v>5545386</v>
+        <v>5642802</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>491252674</v>
+        <v>484523135</v>
       </c>
       <c r="E76" t="n">
-        <v>1710009675</v>
+        <v>1686584708</v>
       </c>
       <c r="F76" t="n">
-        <v>98335.73561489626</v>
+        <v>104088.2448453911</v>
       </c>
       <c r="G76" t="n">
-        <v>101566.6198125419</v>
+        <v>117942.0783017033</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>43232103</v>
+        <v>44288252</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5660097190</v>
+        <v>5592211190</v>
       </c>
       <c r="E77" t="n">
-        <v>5660095562</v>
+        <v>5592211190</v>
       </c>
       <c r="F77" t="n">
-        <v>3199.066116755935</v>
+        <v>1248.411644430303</v>
       </c>
       <c r="G77" t="n">
-        <v>1204.841306378337</v>
+        <v>1187.396968015572</v>
       </c>
       <c r="H77" t="n">
         <v>2.15</v>
       </c>
       <c r="I77" t="n">
-        <v>33563727</v>
+        <v>34092984</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7326062</v>
+        <v>7331343</v>
       </c>
       <c r="E78" t="n">
-        <v>19032322</v>
+        <v>19046041</v>
       </c>
       <c r="F78" t="n">
-        <v>85.04096337920478</v>
+        <v>321.0152362434076</v>
       </c>
       <c r="G78" t="n">
-        <v>2030.456901996623</v>
+        <v>150.3096106299395</v>
       </c>
       <c r="H78" t="n">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="I78" t="n">
-        <v>739272</v>
+        <v>741417</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>105795668</v>
+        <v>104827568</v>
       </c>
       <c r="E79" t="n">
-        <v>160292661</v>
+        <v>158825877</v>
       </c>
       <c r="F79" t="n">
-        <v>39133.35963754748</v>
+        <v>44709.97029586518</v>
       </c>
       <c r="G79" t="n">
-        <v>38228.93945728369</v>
+        <v>5581.150457747303</v>
       </c>
       <c r="H79" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I79" t="n">
-        <v>9517243</v>
+        <v>9542490</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2545244</v>
+        <v>2531373</v>
       </c>
       <c r="E80" t="n">
-        <v>10180975</v>
+        <v>10125493</v>
       </c>
       <c r="F80" t="n">
-        <v>1702.089373830541</v>
+        <v>1929.790117251764</v>
       </c>
       <c r="G80" t="n">
-        <v>3076.678138313016</v>
+        <v>2784.427045095594</v>
       </c>
       <c r="H80" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I80" t="n">
-        <v>7117108</v>
+        <v>7120289</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2360508</v>
+        <v>2397409</v>
       </c>
       <c r="F81" t="n">
-        <v>5.457041936564105</v>
+        <v>667.0555540206536</v>
       </c>
       <c r="G81" t="n">
-        <v>305.9041157375036</v>
+        <v>150.6117316569004</v>
       </c>
       <c r="H81" t="n">
-        <v>1.69</v>
+        <v>1.19</v>
       </c>
       <c r="I81" t="n">
-        <v>214172</v>
+        <v>207064</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>392429960</v>
+        <v>389910653</v>
       </c>
       <c r="E82" t="n">
-        <v>2242456916</v>
+        <v>2228060874</v>
       </c>
       <c r="F82" t="n">
-        <v>48574.71395546309</v>
+        <v>36914.69728667386</v>
       </c>
       <c r="G82" t="n">
-        <v>55056.6680988581</v>
+        <v>54882.58206280384</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>53618683</v>
+        <v>54755766</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3836589</v>
+        <v>3762185</v>
       </c>
       <c r="F2" t="n">
-        <v>713.3781646175511</v>
+        <v>543.5929683171674</v>
       </c>
       <c r="G2" t="n">
-        <v>379.3230605947846</v>
+        <v>530.9999036795124</v>
       </c>
       <c r="H2" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="I2" t="n">
-        <v>143412</v>
+        <v>140902</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1481821</v>
+        <v>1465582</v>
       </c>
       <c r="E3" t="n">
-        <v>4789855</v>
+        <v>4737364</v>
       </c>
       <c r="F3" t="n">
-        <v>1333.24108492864</v>
+        <v>835.1184242919741</v>
       </c>
       <c r="G3" t="n">
-        <v>1080.201870214413</v>
+        <v>1046.604048760026</v>
       </c>
       <c r="H3" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="I3" t="n">
-        <v>225952</v>
+        <v>215350</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253496905</v>
+        <v>249364390</v>
       </c>
       <c r="E4" t="n">
-        <v>1589643460</v>
+        <v>1563729037</v>
       </c>
       <c r="F4" t="n">
-        <v>19274.27944546012</v>
+        <v>22063.45163402956</v>
       </c>
       <c r="G4" t="n">
-        <v>30036.06444598068</v>
+        <v>28200.51208952487</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>24411468</v>
+        <v>23867272</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143616624</v>
+        <v>143147457</v>
       </c>
       <c r="E5" t="n">
-        <v>159149663</v>
+        <v>158629754</v>
       </c>
       <c r="F5" t="n">
-        <v>56539.68088800598</v>
+        <v>32961.28775418736</v>
       </c>
       <c r="G5" t="n">
-        <v>31803.18990216821</v>
+        <v>27415.52014600629</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>49304569</v>
+        <v>50877181</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>120339769</v>
+        <v>119445329</v>
       </c>
       <c r="E6" t="n">
-        <v>471695864</v>
+        <v>468189924</v>
       </c>
       <c r="F6" t="n">
-        <v>25313.29421806545</v>
+        <v>15236.6494429633</v>
       </c>
       <c r="G6" t="n">
-        <v>18328.78521473882</v>
+        <v>10108.55439747314</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>27539621</v>
+        <v>27871879</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4255783</v>
+        <v>4257083</v>
       </c>
       <c r="E7" t="n">
-        <v>26132660</v>
+        <v>26140511</v>
       </c>
       <c r="F7" t="n">
-        <v>444.3924469883502</v>
+        <v>675.1352252063164</v>
       </c>
       <c r="G7" t="n">
-        <v>1528.69287857225</v>
+        <v>1537.088802127749</v>
       </c>
       <c r="H7" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>707077</v>
+        <v>684546</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>196916</v>
+        <v>197335</v>
       </c>
       <c r="E8" t="n">
-        <v>2166291</v>
+        <v>2170906</v>
       </c>
       <c r="F8" t="n">
-        <v>2753.269862586066</v>
+        <v>2628.275348292456</v>
       </c>
       <c r="G8" t="n">
-        <v>4768.786949860391</v>
+        <v>4627.614176000961</v>
       </c>
       <c r="H8" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="I8" t="n">
-        <v>34697</v>
+        <v>35187</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71513078</v>
+        <v>71000330</v>
       </c>
       <c r="E9" t="n">
-        <v>123813800</v>
+        <v>122923118</v>
       </c>
       <c r="F9" t="n">
-        <v>1291.369344669065</v>
+        <v>1172.758801948225</v>
       </c>
       <c r="G9" t="n">
-        <v>1421.568340641239</v>
+        <v>381.0553217724819</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.57</v>
       </c>
       <c r="I9" t="n">
-        <v>909565</v>
+        <v>853427</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8780370</v>
+        <v>8799051</v>
       </c>
       <c r="E10" t="n">
-        <v>12427961</v>
+        <v>12454403</v>
       </c>
       <c r="F10" t="n">
-        <v>2845.98520427156</v>
+        <v>2659.251357067236</v>
       </c>
       <c r="G10" t="n">
-        <v>3491.032334653672</v>
+        <v>3394.153171685676</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I10" t="n">
-        <v>43458</v>
+        <v>43693</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>503593771</v>
+        <v>508695749</v>
       </c>
       <c r="E11" t="n">
-        <v>503593776</v>
+        <v>508695749</v>
       </c>
       <c r="F11" t="n">
-        <v>32747.33648033605</v>
+        <v>28071.48488513705</v>
       </c>
       <c r="G11" t="n">
-        <v>47359.03010231118</v>
+        <v>1454.091370725633</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>81993330</v>
+        <v>71848081</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>304421</v>
+        <v>304578</v>
       </c>
       <c r="E12" t="n">
-        <v>1421069</v>
+        <v>1421801</v>
       </c>
       <c r="F12" t="n">
-        <v>196.668644254743</v>
+        <v>356.0351803352592</v>
       </c>
       <c r="G12" t="n">
-        <v>1257.50049138262</v>
+        <v>19.6261627001606</v>
       </c>
       <c r="H12" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="I12" t="n">
-        <v>668533</v>
+        <v>673048</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1955226</v>
+        <v>1897859</v>
       </c>
       <c r="F13" t="n">
-        <v>4848.730361121564</v>
+        <v>4611.480085353819</v>
       </c>
       <c r="G13" t="n">
-        <v>1887.521539956458</v>
+        <v>811.871314478342</v>
       </c>
       <c r="H13" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>1204321</v>
+        <v>1213180</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12098323</v>
+        <v>11956992</v>
       </c>
       <c r="E14" t="n">
-        <v>30110538</v>
+        <v>29758790</v>
       </c>
       <c r="F14" t="n">
-        <v>956.4439008809037</v>
+        <v>994.9322473947204</v>
       </c>
       <c r="G14" t="n">
-        <v>945.5430075679544</v>
+        <v>882.9354435768423</v>
       </c>
       <c r="H14" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1525618</v>
+        <v>1504813</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>110594516</v>
+        <v>109857920</v>
       </c>
       <c r="E15" t="n">
-        <v>429998873</v>
+        <v>427110348</v>
       </c>
       <c r="F15" t="n">
-        <v>23270.72118508592</v>
+        <v>6312.211103118048</v>
       </c>
       <c r="G15" t="n">
-        <v>16776.01206805381</v>
+        <v>16348.37580322339</v>
       </c>
       <c r="H15" t="n">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
       <c r="I15" t="n">
-        <v>20302547</v>
+        <v>12976894</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4942335</v>
+        <v>4772065</v>
       </c>
       <c r="E16" t="n">
-        <v>7275385</v>
+        <v>7024738</v>
       </c>
       <c r="F16" t="n">
-        <v>2214.339839851732</v>
+        <v>488.1633818801429</v>
       </c>
       <c r="G16" t="n">
-        <v>3623.359159834869</v>
+        <v>755.7349872005868</v>
       </c>
       <c r="H16" t="n">
-        <v>0.68</v>
+        <v>1.13</v>
       </c>
       <c r="I16" t="n">
-        <v>570667</v>
+        <v>558784</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1937285</v>
+        <v>1844190</v>
       </c>
       <c r="F17" t="n">
-        <v>171.5029744776693</v>
+        <v>89.69324639825886</v>
       </c>
       <c r="G17" t="n">
-        <v>583.3929358552261</v>
+        <v>534.0954908030502</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>1.42</v>
       </c>
       <c r="I17" t="n">
-        <v>111590</v>
+        <v>110072</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>141808388</v>
+        <v>141657584</v>
       </c>
       <c r="E18" t="n">
-        <v>141808388</v>
+        <v>141657584</v>
       </c>
       <c r="F18" t="n">
-        <v>91031.09237062467</v>
+        <v>83681.71135618773</v>
       </c>
       <c r="G18" t="n">
-        <v>90171.87880440554</v>
+        <v>90320.30377932548</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>88305512</v>
+        <v>86817714</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65142825</v>
+        <v>65330391</v>
       </c>
       <c r="E19" t="n">
-        <v>334065772</v>
+        <v>335027647</v>
       </c>
       <c r="F19" t="n">
-        <v>14597.51547894087</v>
+        <v>12413.76337520041</v>
       </c>
       <c r="G19" t="n">
-        <v>6056.762660423998</v>
+        <v>6044.69833958166</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>27087973</v>
+        <v>27067749</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>261070034</v>
+        <v>257452844</v>
       </c>
       <c r="E20" t="n">
-        <v>261070034</v>
+        <v>257452844</v>
       </c>
       <c r="F20" t="n">
-        <v>71487.24894956627</v>
+        <v>70734.86325059208</v>
       </c>
       <c r="G20" t="n">
-        <v>64686.32543034166</v>
+        <v>25842.25811511303</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>27209005</v>
+        <v>24032051</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>172693005</v>
+        <v>162496292</v>
       </c>
       <c r="E21" t="n">
-        <v>227243797</v>
+        <v>213826116</v>
       </c>
       <c r="F21" t="n">
-        <v>16793.47223953107</v>
+        <v>8853.722841635654</v>
       </c>
       <c r="G21" t="n">
-        <v>12343.47760811746</v>
+        <v>13384.34007322524</v>
       </c>
       <c r="H21" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>15668413</v>
+        <v>16503991</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82235439</v>
+        <v>84456825</v>
       </c>
       <c r="E22" t="n">
-        <v>230043294</v>
+        <v>236255948</v>
       </c>
       <c r="F22" t="n">
-        <v>49630.23230908934</v>
+        <v>35653.56284847267</v>
       </c>
       <c r="G22" t="n">
-        <v>17682.39179485335</v>
+        <v>22051.83624930771</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>55788834</v>
+        <v>52179345</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>86856624</v>
+        <v>86265425</v>
       </c>
       <c r="E23" t="n">
-        <v>181089085</v>
+        <v>179856483</v>
       </c>
       <c r="F23" t="n">
-        <v>30081.1212768794</v>
+        <v>16117.45807207923</v>
       </c>
       <c r="G23" t="n">
-        <v>30451.87193877439</v>
+        <v>18497.26499561451</v>
       </c>
       <c r="H23" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I23" t="n">
-        <v>67225724</v>
+        <v>68521696</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>668578616</v>
+        <v>657099172</v>
       </c>
       <c r="E24" t="n">
-        <v>668578616</v>
+        <v>657099172</v>
       </c>
       <c r="F24" t="n">
-        <v>154469.2386526656</v>
+        <v>157960.1815318184</v>
       </c>
       <c r="G24" t="n">
-        <v>113170.7883498828</v>
+        <v>70122.28796096012</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>501761291</v>
+        <v>523739798</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>200971284</v>
+        <v>200881953</v>
       </c>
       <c r="E25" t="n">
-        <v>698192405</v>
+        <v>697882060</v>
       </c>
       <c r="F25" t="n">
-        <v>87615.43560849217</v>
+        <v>71801.53336734965</v>
       </c>
       <c r="G25" t="n">
-        <v>97950.785934656</v>
+        <v>87729.86068529599</v>
       </c>
       <c r="H25" t="n">
         <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>42211698</v>
+        <v>38937962</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5801823</v>
+        <v>5793968</v>
       </c>
       <c r="E26" t="n">
-        <v>7874144</v>
+        <v>7863477</v>
       </c>
       <c r="F26" t="n">
-        <v>429.6470671547755</v>
+        <v>508.5504971411425</v>
       </c>
       <c r="G26" t="n">
-        <v>2976.761262629711</v>
+        <v>702.9980393898791</v>
       </c>
       <c r="H26" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="I26" t="n">
-        <v>5292466</v>
+        <v>5153406</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14561682</v>
+        <v>14507003</v>
       </c>
       <c r="F27" t="n">
-        <v>863.3154961826039</v>
+        <v>2535.62284326975</v>
       </c>
       <c r="G27" t="n">
-        <v>3447.335120740466</v>
+        <v>2396.549948340685</v>
       </c>
       <c r="H27" t="n">
-        <v>1.26</v>
+        <v>0.41</v>
       </c>
       <c r="I27" t="n">
-        <v>226458</v>
+        <v>226642</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25673027</v>
+        <v>25164598</v>
       </c>
       <c r="E28" t="n">
-        <v>36280127</v>
+        <v>35561634</v>
       </c>
       <c r="F28" t="n">
-        <v>421.8997644942612</v>
+        <v>8216.632471122857</v>
       </c>
       <c r="G28" t="n">
-        <v>1301.169749771474</v>
+        <v>117.0794960280183</v>
       </c>
       <c r="H28" t="n">
-        <v>0.44</v>
+        <v>0.74</v>
       </c>
       <c r="I28" t="n">
-        <v>100663</v>
+        <v>102481</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>262442491</v>
+        <v>262927043</v>
       </c>
       <c r="E29" t="n">
-        <v>1132847485</v>
+        <v>1134939079</v>
       </c>
       <c r="F29" t="n">
-        <v>173280.1310288918</v>
+        <v>134203.0812942427</v>
       </c>
       <c r="G29" t="n">
-        <v>152781.4965903957</v>
+        <v>141751.656093842</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I29" t="n">
-        <v>135828473</v>
+        <v>135768976</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10770715</v>
+        <v>10448783</v>
       </c>
       <c r="E30" t="n">
-        <v>129682055</v>
+        <v>125805913</v>
       </c>
       <c r="F30" t="n">
-        <v>1970.219759719381</v>
+        <v>1356.52360445226</v>
       </c>
       <c r="G30" t="n">
-        <v>5785.732686591423</v>
+        <v>1965.386180629147</v>
       </c>
       <c r="H30" t="n">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
       <c r="I30" t="n">
-        <v>478106</v>
+        <v>481453</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16014735</v>
+        <v>15832649</v>
       </c>
       <c r="E31" t="n">
-        <v>40036838</v>
+        <v>39581624</v>
       </c>
       <c r="F31" t="n">
-        <v>15864.26852047644</v>
+        <v>5607.013489753856</v>
       </c>
       <c r="G31" t="n">
-        <v>4103.671654083373</v>
+        <v>6209.593357856364</v>
       </c>
       <c r="H31" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4056755</v>
+        <v>4440412</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19700079</v>
+        <v>19711311</v>
       </c>
       <c r="F32" t="n">
-        <v>3477.334873671562</v>
+        <v>2581.680035902323</v>
       </c>
       <c r="G32" t="n">
-        <v>2184.022737715018</v>
+        <v>4044.128472903456</v>
       </c>
       <c r="H32" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>56921</v>
+        <v>73600</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1445533</v>
+        <v>1482311</v>
       </c>
       <c r="E33" t="n">
-        <v>5388903</v>
+        <v>5526009</v>
       </c>
       <c r="F33" t="n">
-        <v>2795.934812912873</v>
+        <v>3811.706595365026</v>
       </c>
       <c r="G33" t="n">
-        <v>1239.886302470098</v>
+        <v>1271.904814825242</v>
       </c>
       <c r="H33" t="n">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="I33" t="n">
-        <v>595548</v>
+        <v>606805</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189359</v>
+        <v>4265783</v>
       </c>
       <c r="E34" t="n">
-        <v>12066710</v>
+        <v>12286861</v>
       </c>
       <c r="F34" t="n">
-        <v>1250.732966669947</v>
+        <v>3781.924209016912</v>
       </c>
       <c r="G34" t="n">
-        <v>5438.00938556219</v>
+        <v>3638.992410322675</v>
       </c>
       <c r="H34" t="n">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="I34" t="n">
-        <v>491298</v>
+        <v>517429</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14201645</v>
+        <v>14153175</v>
       </c>
       <c r="E35" t="n">
-        <v>68780835</v>
+        <v>68546086</v>
       </c>
       <c r="F35" t="n">
-        <v>3042.068234161839</v>
+        <v>3063.176225925693</v>
       </c>
       <c r="G35" t="n">
-        <v>2108.759583824994</v>
+        <v>1953.495499503368</v>
       </c>
       <c r="H35" t="n">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="I35" t="n">
-        <v>5212791</v>
+        <v>5332000</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1328307</v>
+        <v>1301257</v>
       </c>
       <c r="E36" t="n">
-        <v>8693734</v>
+        <v>8516692</v>
       </c>
       <c r="F36" t="n">
-        <v>338.8005870008308</v>
+        <v>620.4858822958008</v>
       </c>
       <c r="G36" t="n">
-        <v>530.0694298814138</v>
+        <v>200.186420125654</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>523647</v>
+        <v>489479</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1860530458</v>
+        <v>1861621257</v>
       </c>
       <c r="F37" t="n">
-        <v>74880.19167206844</v>
+        <v>50582.13746963907</v>
       </c>
       <c r="G37" t="n">
-        <v>73000.78610651159</v>
+        <v>74860.07570702277</v>
       </c>
       <c r="H37" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>29594956</v>
+        <v>29990475</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1935948</v>
+        <v>1928933</v>
       </c>
       <c r="E38" t="n">
-        <v>13882492</v>
+        <v>13832189</v>
       </c>
       <c r="F38" t="n">
-        <v>3970.902908888561</v>
+        <v>3975.548071863087</v>
       </c>
       <c r="G38" t="n">
-        <v>5513.875216251789</v>
+        <v>5509.471132211535</v>
       </c>
       <c r="H38" t="n">
-        <v>0.29</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>2012367</v>
+        <v>2033127</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>198258622</v>
+        <v>194658457</v>
       </c>
       <c r="E39" t="n">
-        <v>1122662138</v>
+        <v>1102275793</v>
       </c>
       <c r="F39" t="n">
-        <v>53392.14935585196</v>
+        <v>43332.37086919532</v>
       </c>
       <c r="G39" t="n">
-        <v>77344.51373942755</v>
+        <v>58721.11590651406</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>82297105</v>
+        <v>83318487</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>126229997</v>
+        <v>123290409</v>
       </c>
       <c r="E40" t="n">
-        <v>935037017</v>
+        <v>913262288</v>
       </c>
       <c r="F40" t="n">
-        <v>76403.29866443458</v>
+        <v>9838.285599665258</v>
       </c>
       <c r="G40" t="n">
-        <v>50572.57590211889</v>
+        <v>8052.866454003633</v>
       </c>
       <c r="H40" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I40" t="n">
-        <v>20958336</v>
+        <v>24605165</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>329671300</v>
+        <v>326000137</v>
       </c>
       <c r="E41" t="n">
-        <v>2965927440</v>
+        <v>2932899378</v>
       </c>
       <c r="F41" t="n">
-        <v>72700.20269021134</v>
+        <v>63417.96311665733</v>
       </c>
       <c r="G41" t="n">
-        <v>105842.9826586578</v>
+        <v>88366.37736206349</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>60016327</v>
+        <v>63042546</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1554581</v>
+        <v>1549443</v>
       </c>
       <c r="E42" t="n">
-        <v>12954844</v>
+        <v>12912021</v>
       </c>
       <c r="F42" t="n">
-        <v>3044.651772418095</v>
+        <v>3103.670125168941</v>
       </c>
       <c r="G42" t="n">
-        <v>195.9977084519343</v>
+        <v>800.6716835268525</v>
       </c>
       <c r="H42" t="n">
-        <v>1.16</v>
+        <v>1.93</v>
       </c>
       <c r="I42" t="n">
-        <v>28074</v>
+        <v>29095</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19664451</v>
+        <v>19827537</v>
       </c>
       <c r="E43" t="n">
-        <v>58954259</v>
+        <v>59443415</v>
       </c>
       <c r="F43" t="n">
-        <v>3345.438127810456</v>
+        <v>1951.262223960986</v>
       </c>
       <c r="G43" t="n">
-        <v>1907.499582446184</v>
+        <v>17658.88640253405</v>
       </c>
       <c r="H43" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4139811</v>
+        <v>4340571</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9625816</v>
+        <v>9619107</v>
       </c>
       <c r="F44" t="n">
-        <v>7510.611669174848</v>
+        <v>7797.660635142524</v>
       </c>
       <c r="G44" t="n">
-        <v>7268.178727364234</v>
+        <v>7055.963511615431</v>
       </c>
       <c r="H44" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="I44" t="n">
-        <v>110000</v>
+        <v>110170</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12663613</v>
+        <v>12595948</v>
       </c>
       <c r="E45" t="n">
-        <v>12663613</v>
+        <v>12595948</v>
       </c>
       <c r="F45" t="n">
-        <v>982.8410613430957</v>
+        <v>388.7606874428206</v>
       </c>
       <c r="G45" t="n">
-        <v>181.7665766614298</v>
+        <v>248.4520001848463</v>
       </c>
       <c r="H45" t="n">
-        <v>0.39</v>
+        <v>1.76</v>
       </c>
       <c r="I45" t="n">
-        <v>4078464</v>
+        <v>3774399</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>296643308</v>
+        <v>295233684</v>
       </c>
       <c r="E46" t="n">
-        <v>296643308</v>
+        <v>295233684</v>
       </c>
       <c r="F46" t="n">
-        <v>14157.02136158773</v>
+        <v>12715.64651251129</v>
       </c>
       <c r="G46" t="n">
-        <v>19485.66865564168</v>
+        <v>14277.46478288203</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>19489120</v>
+        <v>19266102</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12513869</v>
+        <v>12403730</v>
       </c>
       <c r="E47" t="n">
-        <v>39579944</v>
+        <v>39231588</v>
       </c>
       <c r="F47" t="n">
-        <v>11375.92178292678</v>
+        <v>6263.35581995853</v>
       </c>
       <c r="G47" t="n">
-        <v>5591.53507679516</v>
+        <v>3036.948182095263</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>921437</v>
+        <v>976721</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31352307</v>
+        <v>31391770</v>
       </c>
       <c r="E48" t="n">
-        <v>86842780</v>
+        <v>86952088</v>
       </c>
       <c r="F48" t="n">
-        <v>5354.060318260438</v>
+        <v>2007.597078631409</v>
       </c>
       <c r="G48" t="n">
-        <v>5677.906945144648</v>
+        <v>4344.748955748949</v>
       </c>
       <c r="H48" t="n">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>12013973</v>
+        <v>12271868</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27256754</v>
+        <v>27652179</v>
       </c>
       <c r="E49" t="n">
-        <v>64658075</v>
+        <v>65596096</v>
       </c>
       <c r="F49" t="n">
-        <v>1395.394536033404</v>
+        <v>2353.439166650737</v>
       </c>
       <c r="G49" t="n">
-        <v>2649.615438133583</v>
+        <v>8353.277006441678</v>
       </c>
       <c r="H49" t="n">
         <v>0.02</v>
       </c>
       <c r="I49" t="n">
-        <v>573902</v>
+        <v>624084</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12636933</v>
+        <v>12570624</v>
       </c>
       <c r="E50" t="n">
-        <v>19236262</v>
+        <v>19135325</v>
       </c>
       <c r="F50" t="n">
-        <v>5437.79135891905</v>
+        <v>4932.997212382478</v>
       </c>
       <c r="G50" t="n">
-        <v>3631.563789820456</v>
+        <v>18639.12343198237</v>
       </c>
       <c r="H50" t="n">
-        <v>0.28</v>
+        <v>0.61</v>
       </c>
       <c r="I50" t="n">
-        <v>664185</v>
+        <v>652117</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>295882646</v>
+        <v>294635724</v>
       </c>
       <c r="E51" t="n">
-        <v>295882646</v>
+        <v>294635724</v>
       </c>
       <c r="F51" t="n">
-        <v>55453.80378313239</v>
+        <v>41720.40075541667</v>
       </c>
       <c r="G51" t="n">
-        <v>72382.15903458103</v>
+        <v>99197.33726852911</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>85562774</v>
+        <v>88228811</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>86233951</v>
+        <v>86098018</v>
       </c>
       <c r="E52" t="n">
-        <v>496917223</v>
+        <v>496133915</v>
       </c>
       <c r="F52" t="n">
-        <v>35615.05890234523</v>
+        <v>25149.79280124674</v>
       </c>
       <c r="G52" t="n">
-        <v>715.6558674528985</v>
+        <v>694.3359917061142</v>
       </c>
       <c r="H52" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I52" t="n">
-        <v>20242117</v>
+        <v>20370465</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30113151</v>
+        <v>29347489</v>
       </c>
       <c r="E53" t="n">
-        <v>134828931</v>
+        <v>131400748</v>
       </c>
       <c r="F53" t="n">
-        <v>15823.46299358179</v>
+        <v>13087.24368575456</v>
       </c>
       <c r="G53" t="n">
-        <v>20856.68998893939</v>
+        <v>20665.35915483586</v>
       </c>
       <c r="H53" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>12283267</v>
+        <v>13186994</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9064520</v>
+        <v>9060860</v>
       </c>
       <c r="F54" t="n">
-        <v>2700.851977506904</v>
+        <v>2711.591860745233</v>
       </c>
       <c r="G54" t="n">
-        <v>4533.812260777388</v>
+        <v>4547.86678003141</v>
       </c>
       <c r="H54" t="n">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="I54" t="n">
-        <v>286891</v>
+        <v>293072</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4724396</v>
+        <v>4535936</v>
       </c>
       <c r="F55" t="n">
-        <v>1828.272673081196</v>
+        <v>1491.119204753738</v>
       </c>
       <c r="G55" t="n">
-        <v>1075.920391492218</v>
+        <v>1428.854831155709</v>
       </c>
       <c r="H55" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="I55" t="n">
-        <v>240111</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123198170</v>
+        <v>124080695</v>
       </c>
       <c r="E56" t="n">
-        <v>2040262602</v>
+        <v>2054877940</v>
       </c>
       <c r="F56" t="n">
-        <v>39385.26842630826</v>
+        <v>19178.88153490058</v>
       </c>
       <c r="G56" t="n">
-        <v>27410.84379989444</v>
+        <v>24179.43893004351</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>22597949</v>
+        <v>30930272</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>97513932</v>
+        <v>99459740</v>
       </c>
       <c r="E57" t="n">
-        <v>98563599</v>
+        <v>100530352</v>
       </c>
       <c r="F57" t="n">
-        <v>16310.76923402959</v>
+        <v>15449.0903330022</v>
       </c>
       <c r="G57" t="n">
-        <v>31667.79295458309</v>
+        <v>32898.30489575746</v>
       </c>
       <c r="H57" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>78037899</v>
+        <v>80942318</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>241012483</v>
+        <v>247465690</v>
       </c>
       <c r="E58" t="n">
-        <v>241012483</v>
+        <v>247465690</v>
       </c>
       <c r="F58" t="n">
-        <v>46078.9461269907</v>
+        <v>85503.14540736788</v>
       </c>
       <c r="G58" t="n">
-        <v>65494.3467952976</v>
+        <v>52693.01119802279</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>75008937</v>
+        <v>85087169</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23688935</v>
+        <v>23589878</v>
       </c>
       <c r="E59" t="n">
-        <v>141735659</v>
+        <v>141142980</v>
       </c>
       <c r="F59" t="n">
-        <v>32590.4359236764</v>
+        <v>28110.26583132098</v>
       </c>
       <c r="G59" t="n">
-        <v>28412.97553611929</v>
+        <v>64893.6702362444</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I59" t="n">
-        <v>16548306</v>
+        <v>16632573</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2444290</v>
+        <v>2881593</v>
       </c>
       <c r="E60" t="n">
-        <v>4511077</v>
+        <v>5318145</v>
       </c>
       <c r="F60" t="n">
-        <v>116.1205092040885</v>
+        <v>267.8871706735103</v>
       </c>
       <c r="G60" t="n">
-        <v>15.00244339738585</v>
+        <v>141.9863856639137</v>
       </c>
       <c r="H60" t="n">
-        <v>3.62</v>
+        <v>0.21</v>
       </c>
       <c r="I60" t="n">
-        <v>76951</v>
+        <v>149645</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9519033</v>
+        <v>9157599</v>
       </c>
       <c r="E62" t="n">
-        <v>28219538</v>
+        <v>27148054</v>
       </c>
       <c r="F62" t="n">
-        <v>7390.193947566062</v>
+        <v>2618.681146394721</v>
       </c>
       <c r="G62" t="n">
-        <v>1372.300271702836</v>
+        <v>4584.980467117038</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I62" t="n">
-        <v>6119321</v>
+        <v>6215706</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14343524</v>
+        <v>14504070</v>
       </c>
       <c r="E63" t="n">
-        <v>29037588</v>
+        <v>29362603</v>
       </c>
       <c r="F63" t="n">
-        <v>644.7026562267801</v>
+        <v>8300.522443293725</v>
       </c>
       <c r="G63" t="n">
-        <v>18468.90883855068</v>
+        <v>8646.847668377639</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I63" t="n">
-        <v>555191</v>
+        <v>563669</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>31793695</v>
+        <v>32118925</v>
       </c>
       <c r="E64" t="n">
-        <v>225412113</v>
+        <v>227717939</v>
       </c>
       <c r="F64" t="n">
-        <v>29586.18275002051</v>
+        <v>68231.66470123244</v>
       </c>
       <c r="G64" t="n">
-        <v>46770.65588171465</v>
+        <v>50817.44317946475</v>
       </c>
       <c r="H64" t="n">
         <v>0.18</v>
       </c>
       <c r="I64" t="n">
-        <v>4449719</v>
+        <v>4884262</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1286608</v>
+        <v>1278424</v>
       </c>
       <c r="E65" t="n">
-        <v>7978889</v>
+        <v>7928135</v>
       </c>
       <c r="F65" t="n">
-        <v>118.302379639441</v>
+        <v>235.215236327979</v>
       </c>
       <c r="G65" t="n">
-        <v>403.984270842364</v>
+        <v>537.2700028030218</v>
       </c>
       <c r="H65" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I65" t="n">
-        <v>796152</v>
+        <v>792837</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>590717947</v>
+        <v>588392091</v>
       </c>
       <c r="E66" t="n">
-        <v>2287763456</v>
+        <v>2278755759</v>
       </c>
       <c r="F66" t="n">
-        <v>54325.16019966482</v>
+        <v>90412.27812124255</v>
       </c>
       <c r="G66" t="n">
-        <v>39776.26421133421</v>
+        <v>34678.03250108499</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>53408389</v>
+        <v>54924357</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5462594</v>
+        <v>5460079</v>
       </c>
       <c r="E67" t="n">
-        <v>24452912</v>
+        <v>24441656</v>
       </c>
       <c r="F67" t="n">
-        <v>3930.073681270598</v>
+        <v>4008.205809514525</v>
       </c>
       <c r="G67" t="n">
-        <v>19798.79159991413</v>
+        <v>19486.70734110476</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="I67" t="n">
-        <v>182734</v>
+        <v>189727</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>112303794</v>
+        <v>110946114</v>
       </c>
       <c r="E68" t="n">
-        <v>1043446975</v>
+        <v>1030832387</v>
       </c>
       <c r="F68" t="n">
-        <v>21949.86877717827</v>
+        <v>4459.614671869069</v>
       </c>
       <c r="G68" t="n">
-        <v>9913.426183688103</v>
+        <v>4666.338824550973</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="I68" t="n">
-        <v>15783983</v>
+        <v>14484267</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>97793318</v>
+        <v>96908469</v>
       </c>
       <c r="E69" t="n">
-        <v>149185999</v>
+        <v>147836141</v>
       </c>
       <c r="F69" t="n">
-        <v>7911.118757152391</v>
+        <v>3969.525388047321</v>
       </c>
       <c r="G69" t="n">
-        <v>16274.83356954845</v>
+        <v>22240.24774625095</v>
       </c>
       <c r="H69" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I69" t="n">
-        <v>11170883</v>
+        <v>12141138</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1069048</v>
+        <v>1076493</v>
       </c>
       <c r="E70" t="n">
-        <v>4139588</v>
+        <v>4168416</v>
       </c>
       <c r="F70" t="n">
-        <v>2638.596741670494</v>
+        <v>2551.851072480835</v>
       </c>
       <c r="G70" t="n">
-        <v>3306.176128343332</v>
+        <v>2792.408886015179</v>
       </c>
       <c r="H70" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I70" t="n">
-        <v>222477</v>
+        <v>311442</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>123945413</v>
+        <v>122644295</v>
       </c>
       <c r="E71" t="n">
-        <v>475474553</v>
+        <v>470483257</v>
       </c>
       <c r="F71" t="n">
-        <v>20164.60713442335</v>
+        <v>19049.30557675518</v>
       </c>
       <c r="G71" t="n">
-        <v>13425.52475359839</v>
+        <v>11382.03315646491</v>
       </c>
       <c r="H71" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>40389910</v>
+        <v>40270557</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3096449</v>
+        <v>3024448</v>
       </c>
       <c r="E72" t="n">
-        <v>29339317</v>
+        <v>28657093</v>
       </c>
       <c r="F72" t="n">
-        <v>233.1765177484602</v>
+        <v>16.25763008420706</v>
       </c>
       <c r="G72" t="n">
-        <v>56.17573003459841</v>
+        <v>166.4045976700347</v>
       </c>
       <c r="H72" t="n">
-        <v>0.51</v>
+        <v>0.88</v>
       </c>
       <c r="I72" t="n">
-        <v>189535</v>
+        <v>217550</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35122568</v>
+        <v>36432065</v>
       </c>
       <c r="F73" t="n">
-        <v>4773.743152899317</v>
+        <v>4872.346871360985</v>
       </c>
       <c r="G73" t="n">
-        <v>1062.496366089921</v>
+        <v>109.8503136723191</v>
       </c>
       <c r="H73" t="n">
-        <v>0.66</v>
+        <v>1.06</v>
       </c>
       <c r="I73" t="n">
-        <v>7346881</v>
+        <v>7233781</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88036814</v>
+        <v>87833725</v>
       </c>
       <c r="E74" t="n">
-        <v>325423569</v>
+        <v>324671698</v>
       </c>
       <c r="F74" t="n">
-        <v>471.0319707527316</v>
+        <v>215.0602197818381</v>
       </c>
       <c r="G74" t="n">
-        <v>276.7168362558377</v>
+        <v>354.5616730584419</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="I74" t="n">
-        <v>217345</v>
+        <v>228225</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22453937</v>
+        <v>21681096</v>
       </c>
       <c r="E75" t="n">
-        <v>22453937</v>
+        <v>21681096</v>
       </c>
       <c r="F75" t="n">
-        <v>21529.74914264498</v>
+        <v>4158.714916259171</v>
       </c>
       <c r="G75" t="n">
-        <v>3518.04475819342</v>
+        <v>1368.199135110389</v>
       </c>
       <c r="H75" t="n">
-        <v>0.79</v>
+        <v>0.14</v>
       </c>
       <c r="I75" t="n">
-        <v>5642802</v>
+        <v>5623922</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>484523135</v>
+        <v>481921251</v>
       </c>
       <c r="E76" t="n">
-        <v>1686584708</v>
+        <v>1677527767</v>
       </c>
       <c r="F76" t="n">
-        <v>104088.2448453911</v>
+        <v>30224.99682764682</v>
       </c>
       <c r="G76" t="n">
-        <v>117942.0783017033</v>
+        <v>48157.45796350588</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>44288252</v>
+        <v>44182279</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5592211190</v>
+        <v>5609106631</v>
       </c>
       <c r="E77" t="n">
-        <v>5592211190</v>
+        <v>5609106631</v>
       </c>
       <c r="F77" t="n">
-        <v>1248.411644430303</v>
+        <v>3469.51085645583</v>
       </c>
       <c r="G77" t="n">
-        <v>1187.396968015572</v>
+        <v>1193.444452388115</v>
       </c>
       <c r="H77" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="I77" t="n">
-        <v>34092984</v>
+        <v>35436869</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7331343</v>
+        <v>7320438</v>
       </c>
       <c r="E78" t="n">
-        <v>19046041</v>
+        <v>19017710</v>
       </c>
       <c r="F78" t="n">
-        <v>321.0152362434076</v>
+        <v>174.6485823426482</v>
       </c>
       <c r="G78" t="n">
-        <v>150.3096106299395</v>
+        <v>155.1580984770859</v>
       </c>
       <c r="H78" t="n">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="I78" t="n">
-        <v>741417</v>
+        <v>749946</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>104827568</v>
+        <v>106669882</v>
       </c>
       <c r="E79" t="n">
-        <v>158825877</v>
+        <v>161617196</v>
       </c>
       <c r="F79" t="n">
-        <v>44709.97029586518</v>
+        <v>37366.39096852992</v>
       </c>
       <c r="G79" t="n">
-        <v>5581.150457747303</v>
+        <v>39700.5777615014</v>
       </c>
       <c r="H79" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="I79" t="n">
-        <v>9542490</v>
+        <v>9656530</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2531373</v>
+        <v>2438734</v>
       </c>
       <c r="E80" t="n">
-        <v>10125493</v>
+        <v>9754938</v>
       </c>
       <c r="F80" t="n">
-        <v>1929.790117251764</v>
+        <v>531.3267530808594</v>
       </c>
       <c r="G80" t="n">
-        <v>2784.427045095594</v>
+        <v>158.2160650087426</v>
       </c>
       <c r="H80" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="I80" t="n">
-        <v>7120289</v>
+        <v>7209130</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2397409</v>
+        <v>2347813</v>
       </c>
       <c r="F81" t="n">
-        <v>667.0555540206536</v>
+        <v>411.6683538454199</v>
       </c>
       <c r="G81" t="n">
-        <v>150.6117316569004</v>
+        <v>801.8682200312522</v>
       </c>
       <c r="H81" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="I81" t="n">
-        <v>207064</v>
+        <v>188384</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>389910653</v>
+        <v>385375984</v>
       </c>
       <c r="E82" t="n">
-        <v>2228060874</v>
+        <v>2202148480</v>
       </c>
       <c r="F82" t="n">
-        <v>36914.69728667386</v>
+        <v>24093.43257564156</v>
       </c>
       <c r="G82" t="n">
-        <v>54882.58206280384</v>
+        <v>37685.05718392154</v>
       </c>
       <c r="H82" t="n">
         <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>54755766</v>
+        <v>56142758</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3762185</v>
+        <v>3764222</v>
       </c>
       <c r="F2" t="n">
-        <v>543.5929683171674</v>
+        <v>522.0880484436028</v>
       </c>
       <c r="G2" t="n">
-        <v>530.9999036795124</v>
+        <v>370.7821712494035</v>
       </c>
       <c r="H2" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>140902</v>
+        <v>141184</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1465582</v>
+        <v>1451645</v>
       </c>
       <c r="E3" t="n">
-        <v>4737364</v>
+        <v>4692314</v>
       </c>
       <c r="F3" t="n">
-        <v>835.1184242919741</v>
+        <v>371.7769511454016</v>
       </c>
       <c r="G3" t="n">
-        <v>1046.604048760026</v>
+        <v>687.5319878519851</v>
       </c>
       <c r="H3" t="n">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
       <c r="I3" t="n">
-        <v>215350</v>
+        <v>218469</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249364390</v>
+        <v>243832134</v>
       </c>
       <c r="E4" t="n">
-        <v>1563729037</v>
+        <v>1529037042</v>
       </c>
       <c r="F4" t="n">
-        <v>22063.45163402956</v>
+        <v>13690.26156128547</v>
       </c>
       <c r="G4" t="n">
-        <v>28200.51208952487</v>
+        <v>32913.38790372495</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>23867272</v>
+        <v>26239705</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143147457</v>
+        <v>141184537</v>
       </c>
       <c r="E5" t="n">
-        <v>158629754</v>
+        <v>156454531</v>
       </c>
       <c r="F5" t="n">
-        <v>32961.28775418736</v>
+        <v>29802.08877330077</v>
       </c>
       <c r="G5" t="n">
-        <v>27415.52014600629</v>
+        <v>19633.70870420761</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>50877181</v>
+        <v>51094367</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>119445329</v>
+        <v>118449489</v>
       </c>
       <c r="E6" t="n">
-        <v>468189924</v>
+        <v>464286529</v>
       </c>
       <c r="F6" t="n">
-        <v>15236.6494429633</v>
+        <v>17455.07162765125</v>
       </c>
       <c r="G6" t="n">
-        <v>10108.55439747314</v>
+        <v>10651.38561902308</v>
       </c>
       <c r="H6" t="n">
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>27871879</v>
+        <v>27369057</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4257083</v>
+        <v>4261208</v>
       </c>
       <c r="E7" t="n">
-        <v>26140511</v>
+        <v>26165844</v>
       </c>
       <c r="F7" t="n">
-        <v>675.1352252063164</v>
+        <v>454.9308510920782</v>
       </c>
       <c r="G7" t="n">
-        <v>1537.088802127749</v>
+        <v>1706.378201132697</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="I7" t="n">
-        <v>684546</v>
+        <v>668443</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197335</v>
+        <v>196187</v>
       </c>
       <c r="E8" t="n">
-        <v>2170906</v>
+        <v>2158272</v>
       </c>
       <c r="F8" t="n">
-        <v>2628.275348292456</v>
+        <v>2699.938002518272</v>
       </c>
       <c r="G8" t="n">
-        <v>4627.614176000961</v>
+        <v>4286.563525537405</v>
       </c>
       <c r="H8" t="n">
         <v>0.55</v>
       </c>
       <c r="I8" t="n">
-        <v>35187</v>
+        <v>34238</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71000330</v>
+        <v>70313460</v>
       </c>
       <c r="E9" t="n">
-        <v>122923118</v>
+        <v>121731030</v>
       </c>
       <c r="F9" t="n">
-        <v>1172.758801948225</v>
+        <v>965.5881261124653</v>
       </c>
       <c r="G9" t="n">
-        <v>381.0553217724819</v>
+        <v>2580.543510570898</v>
       </c>
       <c r="H9" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>853427</v>
+        <v>790203</v>
       </c>
     </row>
     <row r="10">
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8799051</v>
+        <v>8772673</v>
       </c>
       <c r="E10" t="n">
-        <v>12454403</v>
+        <v>12417067</v>
       </c>
       <c r="F10" t="n">
-        <v>2659.251357067236</v>
+        <v>2787.629981893002</v>
       </c>
       <c r="G10" t="n">
-        <v>3394.153171685676</v>
+        <v>3241.495398234073</v>
       </c>
       <c r="H10" t="n">
-        <v>0.16</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>43693</v>
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>508695749</v>
+        <v>495098846</v>
       </c>
       <c r="E11" t="n">
-        <v>508695749</v>
+        <v>495098846</v>
       </c>
       <c r="F11" t="n">
-        <v>28071.48488513705</v>
+        <v>21072.05155529041</v>
       </c>
       <c r="G11" t="n">
-        <v>1454.091370725633</v>
+        <v>39228.39194108004</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>71848081</v>
+        <v>70841530</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>304578</v>
+        <v>310359</v>
       </c>
       <c r="E12" t="n">
-        <v>1421801</v>
+        <v>1448787</v>
       </c>
       <c r="F12" t="n">
-        <v>356.0351803352592</v>
+        <v>334.1854670109953</v>
       </c>
       <c r="G12" t="n">
-        <v>19.6261627001606</v>
+        <v>650.6949424114316</v>
       </c>
       <c r="H12" t="n">
-        <v>1.46</v>
+        <v>0.68</v>
       </c>
       <c r="I12" t="n">
-        <v>673048</v>
+        <v>692382</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1897859</v>
+        <v>1876152</v>
       </c>
       <c r="F13" t="n">
-        <v>4611.480085353819</v>
+        <v>4598.125455827981</v>
       </c>
       <c r="G13" t="n">
-        <v>811.871314478342</v>
+        <v>3354.005033876625</v>
       </c>
       <c r="H13" t="n">
         <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>1213180</v>
+        <v>1147353</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11956992</v>
+        <v>11886209</v>
       </c>
       <c r="E14" t="n">
-        <v>29758790</v>
+        <v>29582623</v>
       </c>
       <c r="F14" t="n">
-        <v>994.9322473947204</v>
+        <v>879.5686495506496</v>
       </c>
       <c r="G14" t="n">
-        <v>882.9354435768423</v>
+        <v>1727.271514455259</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I14" t="n">
-        <v>1504813</v>
+        <v>1529214</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109857920</v>
+        <v>108841221</v>
       </c>
       <c r="E15" t="n">
-        <v>427110348</v>
+        <v>423142035</v>
       </c>
       <c r="F15" t="n">
-        <v>6312.211103118048</v>
+        <v>7295.270901856625</v>
       </c>
       <c r="G15" t="n">
-        <v>16348.37580322339</v>
+        <v>10766.54995109617</v>
       </c>
       <c r="H15" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="I15" t="n">
-        <v>12976894</v>
+        <v>11314688</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4772065</v>
+        <v>4756099</v>
       </c>
       <c r="E16" t="n">
-        <v>7024738</v>
+        <v>7001235</v>
       </c>
       <c r="F16" t="n">
-        <v>488.1633818801429</v>
+        <v>291.8469365098758</v>
       </c>
       <c r="G16" t="n">
-        <v>755.7349872005868</v>
+        <v>770.1588598562583</v>
       </c>
       <c r="H16" t="n">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="I16" t="n">
-        <v>558784</v>
+        <v>556266</v>
       </c>
     </row>
     <row r="17">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arbitrum Ecosystem</t>
+          <t>Base Ecosystem</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1844190</v>
+        <v>1756323</v>
       </c>
       <c r="F17" t="n">
-        <v>89.69324639825886</v>
+        <v>908.5929472146242</v>
       </c>
       <c r="G17" t="n">
-        <v>534.0954908030502</v>
+        <v>137.6093137768132</v>
       </c>
       <c r="H17" t="n">
-        <v>1.42</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>110072</v>
+        <v>110330</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>141657584</v>
+        <v>139959609</v>
       </c>
       <c r="E18" t="n">
-        <v>141657584</v>
+        <v>139959609</v>
       </c>
       <c r="F18" t="n">
-        <v>83681.71135618773</v>
+        <v>103101.797327179</v>
       </c>
       <c r="G18" t="n">
-        <v>90320.30377932548</v>
+        <v>72694.57961287869</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>86817714</v>
+        <v>91096260</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65330391</v>
+        <v>64137406</v>
       </c>
       <c r="E19" t="n">
-        <v>335027647</v>
+        <v>328909776</v>
       </c>
       <c r="F19" t="n">
-        <v>12413.76337520041</v>
+        <v>10896.51480551374</v>
       </c>
       <c r="G19" t="n">
-        <v>6044.69833958166</v>
+        <v>6085.170150032201</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>27067749</v>
+        <v>25752095</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="E20" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="F20" t="n">
-        <v>70734.86325059208</v>
+        <v>56773.15391309802</v>
       </c>
       <c r="G20" t="n">
-        <v>25842.25811511303</v>
+        <v>34688.31396467377</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>24032051</v>
+        <v>29445733</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162496292</v>
+        <v>162893921</v>
       </c>
       <c r="E21" t="n">
-        <v>213826116</v>
+        <v>214349348</v>
       </c>
       <c r="F21" t="n">
-        <v>8853.722841635654</v>
+        <v>2916.229165500524</v>
       </c>
       <c r="G21" t="n">
-        <v>13384.34007322524</v>
+        <v>15761.35699876233</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="I21" t="n">
-        <v>16503991</v>
+        <v>16872787</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>84456825</v>
+        <v>82974868</v>
       </c>
       <c r="E22" t="n">
-        <v>236255948</v>
+        <v>232121454</v>
       </c>
       <c r="F22" t="n">
-        <v>35653.56284847267</v>
+        <v>42669.92811247681</v>
       </c>
       <c r="G22" t="n">
-        <v>22051.83624930771</v>
+        <v>18774.94925573059</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="I22" t="n">
-        <v>52179345</v>
+        <v>58636776</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>86265425</v>
+        <v>83475223</v>
       </c>
       <c r="E23" t="n">
-        <v>179856483</v>
+        <v>174039136</v>
       </c>
       <c r="F23" t="n">
-        <v>16117.45807207923</v>
+        <v>20188.10999405295</v>
       </c>
       <c r="G23" t="n">
-        <v>18497.26499561451</v>
+        <v>21394.00087369224</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I23" t="n">
-        <v>68521696</v>
+        <v>68922175</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>657099172</v>
+        <v>643090774</v>
       </c>
       <c r="E24" t="n">
-        <v>657099172</v>
+        <v>643090774</v>
       </c>
       <c r="F24" t="n">
-        <v>157960.1815318184</v>
+        <v>116179.8206989106</v>
       </c>
       <c r="G24" t="n">
-        <v>70122.28796096012</v>
+        <v>102784.002986642</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>523739798</v>
+        <v>521833637</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>200881953</v>
+        <v>197870879</v>
       </c>
       <c r="E25" t="n">
-        <v>697882060</v>
+        <v>687421316</v>
       </c>
       <c r="F25" t="n">
-        <v>71801.53336734965</v>
+        <v>57793.36179017863</v>
       </c>
       <c r="G25" t="n">
-        <v>87729.86068529599</v>
+        <v>112707.9226059212</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I25" t="n">
-        <v>38937962</v>
+        <v>44104693</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5793968</v>
+        <v>5673580</v>
       </c>
       <c r="E26" t="n">
-        <v>7863477</v>
+        <v>7700087</v>
       </c>
       <c r="F26" t="n">
-        <v>508.5504971411425</v>
+        <v>512.0517692839752</v>
       </c>
       <c r="G26" t="n">
-        <v>702.9980393898791</v>
+        <v>455.7963717636602</v>
       </c>
       <c r="H26" t="n">
-        <v>0.22</v>
+        <v>0.59</v>
       </c>
       <c r="I26" t="n">
-        <v>5153406</v>
+        <v>5081901</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14507003</v>
+        <v>14427419</v>
       </c>
       <c r="F27" t="n">
-        <v>2535.62284326975</v>
+        <v>1732.14871883838</v>
       </c>
       <c r="G27" t="n">
-        <v>2396.549948340685</v>
+        <v>3114.559255317628</v>
       </c>
       <c r="H27" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="I27" t="n">
-        <v>226642</v>
+        <v>224251</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25164598</v>
+        <v>24725399</v>
       </c>
       <c r="E28" t="n">
-        <v>35561634</v>
+        <v>34940976</v>
       </c>
       <c r="F28" t="n">
-        <v>8216.632471122857</v>
+        <v>517.2799714370257</v>
       </c>
       <c r="G28" t="n">
-        <v>117.0794960280183</v>
+        <v>393.5578643036892</v>
       </c>
       <c r="H28" t="n">
-        <v>0.74</v>
+        <v>0.37</v>
       </c>
       <c r="I28" t="n">
-        <v>102481</v>
+        <v>116381</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>262927043</v>
+        <v>259129831</v>
       </c>
       <c r="E29" t="n">
-        <v>1134939079</v>
+        <v>1118548204</v>
       </c>
       <c r="F29" t="n">
-        <v>134203.0812942427</v>
+        <v>146993.6936670502</v>
       </c>
       <c r="G29" t="n">
-        <v>141751.656093842</v>
+        <v>148092.6980100319</v>
       </c>
       <c r="H29" t="n">
         <v>0.18</v>
       </c>
       <c r="I29" t="n">
-        <v>135768976</v>
+        <v>137734851</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10448783</v>
+        <v>10323144</v>
       </c>
       <c r="E30" t="n">
-        <v>125805913</v>
+        <v>124293199</v>
       </c>
       <c r="F30" t="n">
-        <v>1356.52360445226</v>
+        <v>1231.46130481494</v>
       </c>
       <c r="G30" t="n">
-        <v>1965.386180629147</v>
+        <v>679.5275217463567</v>
       </c>
       <c r="H30" t="n">
-        <v>0.71</v>
+        <v>1.13</v>
       </c>
       <c r="I30" t="n">
-        <v>481453</v>
+        <v>486365</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15832649</v>
+        <v>15508286</v>
       </c>
       <c r="E31" t="n">
-        <v>39581624</v>
+        <v>38770716</v>
       </c>
       <c r="F31" t="n">
-        <v>5607.013489753856</v>
+        <v>4467.051642726645</v>
       </c>
       <c r="G31" t="n">
-        <v>6209.593357856364</v>
+        <v>5235.616563752573</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>4440412</v>
+        <v>4593926</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19711311</v>
+        <v>19598208</v>
       </c>
       <c r="F32" t="n">
-        <v>2581.680035902323</v>
+        <v>4823.795480372194</v>
       </c>
       <c r="G32" t="n">
-        <v>4044.128472903456</v>
+        <v>3966.583761026021</v>
       </c>
       <c r="H32" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="I32" t="n">
-        <v>73600</v>
+        <v>73680</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1482311</v>
+        <v>1560412</v>
       </c>
       <c r="E33" t="n">
-        <v>5526009</v>
+        <v>5817167</v>
       </c>
       <c r="F33" t="n">
-        <v>3811.706595365026</v>
+        <v>6399.713203028523</v>
       </c>
       <c r="G33" t="n">
-        <v>1271.904814825242</v>
+        <v>477.2444270588555</v>
       </c>
       <c r="H33" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="I33" t="n">
-        <v>606805</v>
+        <v>655715</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4265783</v>
+        <v>4189837</v>
       </c>
       <c r="E34" t="n">
-        <v>12286861</v>
+        <v>12068110</v>
       </c>
       <c r="F34" t="n">
-        <v>3781.924209016912</v>
+        <v>4368.144671725129</v>
       </c>
       <c r="G34" t="n">
-        <v>3638.992410322675</v>
+        <v>3117.116001938919</v>
       </c>
       <c r="H34" t="n">
-        <v>0.57</v>
+        <v>0.82</v>
       </c>
       <c r="I34" t="n">
-        <v>517429</v>
+        <v>497286</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14153175</v>
+        <v>13920821</v>
       </c>
       <c r="E35" t="n">
-        <v>68546086</v>
+        <v>67420756</v>
       </c>
       <c r="F35" t="n">
-        <v>3063.176225925693</v>
+        <v>3177.434401390018</v>
       </c>
       <c r="G35" t="n">
-        <v>1953.495499503368</v>
+        <v>5628.11054269011</v>
       </c>
       <c r="H35" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>5332000</v>
+        <v>5306299</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1301257</v>
+        <v>1261716</v>
       </c>
       <c r="E36" t="n">
-        <v>8516692</v>
+        <v>8257896</v>
       </c>
       <c r="F36" t="n">
-        <v>620.4858822958008</v>
+        <v>260.5373476130703</v>
       </c>
       <c r="G36" t="n">
-        <v>200.186420125654</v>
+        <v>546.4098589531375</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="I36" t="n">
-        <v>489479</v>
+        <v>470677</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1861621257</v>
+        <v>1850051461</v>
       </c>
       <c r="F37" t="n">
-        <v>50582.13746963907</v>
+        <v>73909.2641039554</v>
       </c>
       <c r="G37" t="n">
-        <v>74860.07570702277</v>
+        <v>73719.50021697508</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.75</v>
       </c>
       <c r="I37" t="n">
-        <v>29990475</v>
+        <v>30081836</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1928933</v>
+        <v>1937770</v>
       </c>
       <c r="E38" t="n">
-        <v>13832189</v>
+        <v>13895552</v>
       </c>
       <c r="F38" t="n">
-        <v>3975.548071863087</v>
+        <v>3982.752838531575</v>
       </c>
       <c r="G38" t="n">
-        <v>5509.471132211535</v>
+        <v>5411.979750778973</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>2033127</v>
+        <v>2046745</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194658457</v>
+        <v>191785265</v>
       </c>
       <c r="E39" t="n">
-        <v>1102275793</v>
+        <v>1086006011</v>
       </c>
       <c r="F39" t="n">
-        <v>43332.37086919532</v>
+        <v>53753.31523924982</v>
       </c>
       <c r="G39" t="n">
-        <v>58721.11590651406</v>
+        <v>59296.36185072501</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>83318487</v>
+        <v>83867676</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>123290409</v>
+        <v>120973154</v>
       </c>
       <c r="E40" t="n">
-        <v>913262288</v>
+        <v>896097439</v>
       </c>
       <c r="F40" t="n">
-        <v>9838.285599665258</v>
+        <v>6463.187750607299</v>
       </c>
       <c r="G40" t="n">
-        <v>8052.866454003633</v>
+        <v>9346.853744802966</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>24605165</v>
+        <v>25015799</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>326000137</v>
+        <v>322724537</v>
       </c>
       <c r="E41" t="n">
-        <v>2932899378</v>
+        <v>2903430046</v>
       </c>
       <c r="F41" t="n">
-        <v>63417.96311665733</v>
+        <v>83125.89093502185</v>
       </c>
       <c r="G41" t="n">
-        <v>88366.37736206349</v>
+        <v>92777.52101220428</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="I41" t="n">
-        <v>63042546</v>
+        <v>65845828</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1549443</v>
+        <v>1523100</v>
       </c>
       <c r="E42" t="n">
-        <v>12912021</v>
+        <v>12692501</v>
       </c>
       <c r="F42" t="n">
-        <v>3103.670125168941</v>
+        <v>421.8079293633458</v>
       </c>
       <c r="G42" t="n">
-        <v>800.6716835268525</v>
+        <v>2471.243544891388</v>
       </c>
       <c r="H42" t="n">
-        <v>1.93</v>
+        <v>0.71</v>
       </c>
       <c r="I42" t="n">
-        <v>29095</v>
+        <v>29969</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19827537</v>
+        <v>19400083</v>
       </c>
       <c r="E43" t="n">
-        <v>59443415</v>
+        <v>58164952</v>
       </c>
       <c r="F43" t="n">
-        <v>1951.262223960986</v>
+        <v>2473.532755318831</v>
       </c>
       <c r="G43" t="n">
-        <v>17658.88640253405</v>
+        <v>3107.856566623608</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="I43" t="n">
-        <v>4340571</v>
+        <v>4404162</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9619107</v>
+        <v>9651381</v>
       </c>
       <c r="F44" t="n">
-        <v>7797.660635142524</v>
+        <v>7801.833140831402</v>
       </c>
       <c r="G44" t="n">
-        <v>7055.963511615431</v>
+        <v>7052.571203603347</v>
       </c>
       <c r="H44" t="n">
         <v>0.41</v>
       </c>
       <c r="I44" t="n">
-        <v>110170</v>
+        <v>110458</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12595948</v>
+        <v>12433170</v>
       </c>
       <c r="E45" t="n">
-        <v>12595948</v>
+        <v>12433170</v>
       </c>
       <c r="F45" t="n">
-        <v>388.7606874428206</v>
+        <v>546.0451363733233</v>
       </c>
       <c r="G45" t="n">
-        <v>248.4520001848463</v>
+        <v>35.87476227320153</v>
       </c>
       <c r="H45" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="I45" t="n">
-        <v>3774399</v>
+        <v>3732184</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>295233684</v>
+        <v>289700264</v>
       </c>
       <c r="E46" t="n">
-        <v>295233684</v>
+        <v>289700264</v>
       </c>
       <c r="F46" t="n">
-        <v>12715.64651251129</v>
+        <v>8476.287795805269</v>
       </c>
       <c r="G46" t="n">
-        <v>14277.46478288203</v>
+        <v>13554.55205615091</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>19266102</v>
+        <v>19402285</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12403730</v>
+        <v>12471647</v>
       </c>
       <c r="E47" t="n">
-        <v>39231588</v>
+        <v>39446401</v>
       </c>
       <c r="F47" t="n">
-        <v>6263.35581995853</v>
+        <v>6198.37948814122</v>
       </c>
       <c r="G47" t="n">
-        <v>3036.948182095263</v>
+        <v>2989.046686476094</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>976721</v>
+        <v>987041</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31391770</v>
+        <v>31212578</v>
       </c>
       <c r="E48" t="n">
-        <v>86952088</v>
+        <v>86455744</v>
       </c>
       <c r="F48" t="n">
-        <v>2007.597078631409</v>
+        <v>4768.86054149418</v>
       </c>
       <c r="G48" t="n">
-        <v>4344.748955748949</v>
+        <v>2080.919354486928</v>
       </c>
       <c r="H48" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I48" t="n">
-        <v>12271868</v>
+        <v>12407184</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27652179</v>
+        <v>27176404</v>
       </c>
       <c r="E49" t="n">
-        <v>65596096</v>
+        <v>64467469</v>
       </c>
       <c r="F49" t="n">
-        <v>2353.439166650737</v>
+        <v>7140.002502875213</v>
       </c>
       <c r="G49" t="n">
-        <v>8353.277006441678</v>
+        <v>8065.511800713224</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="I49" t="n">
-        <v>624084</v>
+        <v>643311</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12570624</v>
+        <v>12429548</v>
       </c>
       <c r="E50" t="n">
-        <v>19135325</v>
+        <v>18920575</v>
       </c>
       <c r="F50" t="n">
-        <v>4932.997212382478</v>
+        <v>4342.149805093794</v>
       </c>
       <c r="G50" t="n">
-        <v>18639.12343198237</v>
+        <v>17407.15086343674</v>
       </c>
       <c r="H50" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>652117</v>
+        <v>655475</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>294635724</v>
+        <v>291687283</v>
       </c>
       <c r="E51" t="n">
-        <v>294635724</v>
+        <v>291687283</v>
       </c>
       <c r="F51" t="n">
-        <v>41720.40075541667</v>
+        <v>28319.87617602768</v>
       </c>
       <c r="G51" t="n">
-        <v>99197.33726852911</v>
+        <v>62655.34357445112</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>88228811</v>
+        <v>88188416</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>86098018</v>
+        <v>85172482</v>
       </c>
       <c r="E52" t="n">
-        <v>496133915</v>
+        <v>490800579</v>
       </c>
       <c r="F52" t="n">
-        <v>25149.79280124674</v>
+        <v>6459.414944788874</v>
       </c>
       <c r="G52" t="n">
-        <v>694.3359917061142</v>
+        <v>3481.646694651893</v>
       </c>
       <c r="H52" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I52" t="n">
-        <v>20370465</v>
+        <v>20965371</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29347489</v>
+        <v>29144485</v>
       </c>
       <c r="E53" t="n">
-        <v>131400748</v>
+        <v>130491814</v>
       </c>
       <c r="F53" t="n">
-        <v>13087.24368575456</v>
+        <v>13959.84860326266</v>
       </c>
       <c r="G53" t="n">
-        <v>20665.35915483586</v>
+        <v>13099.26433778485</v>
       </c>
       <c r="H53" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I53" t="n">
-        <v>13186994</v>
+        <v>13427383</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9060860</v>
+        <v>8597422</v>
       </c>
       <c r="F54" t="n">
-        <v>2711.591860745233</v>
+        <v>5170.46376483951</v>
       </c>
       <c r="G54" t="n">
-        <v>4547.86678003141</v>
+        <v>53.0771820885401</v>
       </c>
       <c r="H54" t="n">
-        <v>0.11</v>
+        <v>0.72</v>
       </c>
       <c r="I54" t="n">
-        <v>293072</v>
+        <v>295889</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4535936</v>
+        <v>4468724</v>
       </c>
       <c r="F55" t="n">
-        <v>1491.119204753738</v>
+        <v>2791.683336812394</v>
       </c>
       <c r="G55" t="n">
-        <v>1428.854831155709</v>
+        <v>848.2563115665462</v>
       </c>
       <c r="H55" t="n">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
       <c r="I55" t="n">
-        <v>234000</v>
+        <v>215821</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124080695</v>
+        <v>123146356</v>
       </c>
       <c r="E56" t="n">
-        <v>2054877940</v>
+        <v>2039404517</v>
       </c>
       <c r="F56" t="n">
-        <v>19178.88153490058</v>
+        <v>18445.64140354513</v>
       </c>
       <c r="G56" t="n">
-        <v>24179.43893004351</v>
+        <v>22978.13739804379</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>30930272</v>
+        <v>33340290</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>99459740</v>
+        <v>95519882</v>
       </c>
       <c r="E57" t="n">
-        <v>100530352</v>
+        <v>96548084</v>
       </c>
       <c r="F57" t="n">
-        <v>15449.0903330022</v>
+        <v>52619.25901338837</v>
       </c>
       <c r="G57" t="n">
-        <v>32898.30489575746</v>
+        <v>29160.40571596965</v>
       </c>
       <c r="H57" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I57" t="n">
-        <v>80942318</v>
+        <v>79926509</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>247465690</v>
+        <v>239072114</v>
       </c>
       <c r="E58" t="n">
-        <v>247465690</v>
+        <v>239072114</v>
       </c>
       <c r="F58" t="n">
-        <v>85503.14540736788</v>
+        <v>58140.83735712081</v>
       </c>
       <c r="G58" t="n">
-        <v>52693.01119802279</v>
+        <v>83391.74809736178</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>85087169</v>
+        <v>87567937</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23589878</v>
+        <v>23244250</v>
       </c>
       <c r="E59" t="n">
-        <v>141142980</v>
+        <v>139075022</v>
       </c>
       <c r="F59" t="n">
-        <v>28110.26583132098</v>
+        <v>28036.47302462919</v>
       </c>
       <c r="G59" t="n">
-        <v>64893.6702362444</v>
+        <v>26161.81415048328</v>
       </c>
       <c r="H59" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="I59" t="n">
-        <v>16632573</v>
+        <v>16887987</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2881593</v>
+        <v>3093804</v>
       </c>
       <c r="E60" t="n">
-        <v>5318145</v>
+        <v>5709792</v>
       </c>
       <c r="F60" t="n">
-        <v>267.8871706735103</v>
+        <v>68.05659380265935</v>
       </c>
       <c r="G60" t="n">
-        <v>141.9863856639137</v>
+        <v>155.5766559736179</v>
       </c>
       <c r="H60" t="n">
-        <v>0.21</v>
+        <v>2.43</v>
       </c>
       <c r="I60" t="n">
-        <v>149645</v>
+        <v>302962</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9157599</v>
+        <v>8767198</v>
       </c>
       <c r="E62" t="n">
-        <v>27148054</v>
+        <v>25990695</v>
       </c>
       <c r="F62" t="n">
-        <v>2618.681146394721</v>
+        <v>2966.16811737278</v>
       </c>
       <c r="G62" t="n">
-        <v>4584.980467117038</v>
+        <v>1537.758974670313</v>
       </c>
       <c r="H62" t="n">
         <v>0.19</v>
       </c>
       <c r="I62" t="n">
-        <v>6215706</v>
+        <v>6230646</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14504070</v>
+        <v>14553709</v>
       </c>
       <c r="E63" t="n">
-        <v>29362603</v>
+        <v>29463095</v>
       </c>
       <c r="F63" t="n">
-        <v>8300.522443293725</v>
+        <v>7965.2994221196</v>
       </c>
       <c r="G63" t="n">
-        <v>8646.847668377639</v>
+        <v>11643.63112416921</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>563669</v>
+        <v>570457</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32118925</v>
+        <v>31810461</v>
       </c>
       <c r="E64" t="n">
-        <v>227717939</v>
+        <v>225530979</v>
       </c>
       <c r="F64" t="n">
-        <v>68231.66470123244</v>
+        <v>84527.26879939661</v>
       </c>
       <c r="G64" t="n">
-        <v>50817.44317946475</v>
+        <v>47905.32197568187</v>
       </c>
       <c r="H64" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>4884262</v>
+        <v>5258492</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1278424</v>
+        <v>1272625</v>
       </c>
       <c r="E65" t="n">
-        <v>7928135</v>
+        <v>7891464</v>
       </c>
       <c r="F65" t="n">
-        <v>235.215236327979</v>
+        <v>331.6410186128629</v>
       </c>
       <c r="G65" t="n">
-        <v>537.2700028030218</v>
+        <v>536.5282730032301</v>
       </c>
       <c r="H65" t="n">
-        <v>0.31</v>
+        <v>0.78</v>
       </c>
       <c r="I65" t="n">
-        <v>792837</v>
+        <v>789137</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>588392091</v>
+        <v>580074981</v>
       </c>
       <c r="E66" t="n">
-        <v>2278755759</v>
+        <v>2246544817</v>
       </c>
       <c r="F66" t="n">
-        <v>90412.27812124255</v>
+        <v>50494.07478119381</v>
       </c>
       <c r="G66" t="n">
-        <v>34678.03250108499</v>
+        <v>47563.61501657299</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>54924357</v>
+        <v>56926750</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5460079</v>
+        <v>5450152</v>
       </c>
       <c r="E67" t="n">
-        <v>24441656</v>
+        <v>24397189</v>
       </c>
       <c r="F67" t="n">
-        <v>4008.205809514525</v>
+        <v>4161.777192492832</v>
       </c>
       <c r="G67" t="n">
-        <v>19486.70734110476</v>
+        <v>19404.51011335396</v>
       </c>
       <c r="H67" t="n">
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
       <c r="I67" t="n">
-        <v>189727</v>
+        <v>190541</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>110946114</v>
+        <v>109348500</v>
       </c>
       <c r="E68" t="n">
-        <v>1030832387</v>
+        <v>1015988494</v>
       </c>
       <c r="F68" t="n">
-        <v>4459.614671869069</v>
+        <v>3650.221225903545</v>
       </c>
       <c r="G68" t="n">
-        <v>4666.338824550973</v>
+        <v>5220.243254847347</v>
       </c>
       <c r="H68" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="I68" t="n">
-        <v>14484267</v>
+        <v>14881576</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>96908469</v>
+        <v>95306122</v>
       </c>
       <c r="E69" t="n">
-        <v>147836141</v>
+        <v>145391723</v>
       </c>
       <c r="F69" t="n">
-        <v>3969.525388047321</v>
+        <v>11271.33251082921</v>
       </c>
       <c r="G69" t="n">
-        <v>22240.24774625095</v>
+        <v>16522.56797581942</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="I69" t="n">
-        <v>12141138</v>
+        <v>12452538</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1076493</v>
+        <v>1089378</v>
       </c>
       <c r="E70" t="n">
-        <v>4168416</v>
+        <v>4218308</v>
       </c>
       <c r="F70" t="n">
-        <v>2551.851072480835</v>
+        <v>2333.287764430501</v>
       </c>
       <c r="G70" t="n">
-        <v>2792.408886015179</v>
+        <v>2759.57286383132</v>
       </c>
       <c r="H70" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I70" t="n">
-        <v>311442</v>
+        <v>307678</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>122644295</v>
+        <v>121374137</v>
       </c>
       <c r="E71" t="n">
-        <v>470483257</v>
+        <v>465610725</v>
       </c>
       <c r="F71" t="n">
-        <v>19049.30557675518</v>
+        <v>16612.35992888499</v>
       </c>
       <c r="G71" t="n">
-        <v>11382.03315646491</v>
+        <v>13457.50467315179</v>
       </c>
       <c r="H71" t="n">
         <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>40270557</v>
+        <v>39807310</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3024448</v>
+        <v>2967763</v>
       </c>
       <c r="E72" t="n">
-        <v>28657093</v>
+        <v>28119996</v>
       </c>
       <c r="F72" t="n">
-        <v>16.25763008420706</v>
+        <v>165.0577008255432</v>
       </c>
       <c r="G72" t="n">
-        <v>166.4045976700347</v>
+        <v>65.36825513147707</v>
       </c>
       <c r="H72" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="I72" t="n">
-        <v>217550</v>
+        <v>206046</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>36432065</v>
+        <v>35185142</v>
       </c>
       <c r="F73" t="n">
-        <v>4872.346871360985</v>
+        <v>2147.920939653</v>
       </c>
       <c r="G73" t="n">
-        <v>109.8503136723191</v>
+        <v>4545.697981630664</v>
       </c>
       <c r="H73" t="n">
-        <v>1.06</v>
+        <v>0.38</v>
       </c>
       <c r="I73" t="n">
-        <v>7233781</v>
+        <v>7178730</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87833725</v>
+        <v>87772477</v>
       </c>
       <c r="E74" t="n">
-        <v>324671698</v>
+        <v>324444998</v>
       </c>
       <c r="F74" t="n">
-        <v>215.0602197818381</v>
+        <v>341.2995007475478</v>
       </c>
       <c r="G74" t="n">
-        <v>354.5616730584419</v>
+        <v>267.6756389765636</v>
       </c>
       <c r="H74" t="n">
-        <v>1.36</v>
+        <v>0.93</v>
       </c>
       <c r="I74" t="n">
-        <v>228225</v>
+        <v>236429</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21681096</v>
+        <v>21489233</v>
       </c>
       <c r="E75" t="n">
-        <v>21681096</v>
+        <v>21489233</v>
       </c>
       <c r="F75" t="n">
-        <v>4158.714916259171</v>
+        <v>5186.513442958541</v>
       </c>
       <c r="G75" t="n">
-        <v>1368.199135110389</v>
+        <v>1012.864107906497</v>
       </c>
       <c r="H75" t="n">
-        <v>0.14</v>
+        <v>0.95</v>
       </c>
       <c r="I75" t="n">
-        <v>5623922</v>
+        <v>5651750</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>481921251</v>
+        <v>474537280</v>
       </c>
       <c r="E76" t="n">
-        <v>1677527767</v>
+        <v>1651824777</v>
       </c>
       <c r="F76" t="n">
-        <v>30224.99682764682</v>
+        <v>20072.15789030259</v>
       </c>
       <c r="G76" t="n">
-        <v>48157.45796350588</v>
+        <v>27943.71093840843</v>
       </c>
       <c r="H76" t="n">
         <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>44182279</v>
+        <v>45980891</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5609106631</v>
+        <v>5576075531</v>
       </c>
       <c r="E77" t="n">
-        <v>5609106631</v>
+        <v>5576075258</v>
       </c>
       <c r="F77" t="n">
-        <v>3469.51085645583</v>
+        <v>3438.459700679678</v>
       </c>
       <c r="G77" t="n">
-        <v>1193.444452388115</v>
+        <v>1182.763456958361</v>
       </c>
       <c r="H77" t="n">
         <v>2.12</v>
       </c>
       <c r="I77" t="n">
-        <v>35436869</v>
+        <v>35721745</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7320438</v>
+        <v>7187192</v>
       </c>
       <c r="E78" t="n">
-        <v>19017710</v>
+        <v>18671553</v>
       </c>
       <c r="F78" t="n">
-        <v>174.6485823426482</v>
+        <v>269.3594442612034</v>
       </c>
       <c r="G78" t="n">
-        <v>155.1580984770859</v>
+        <v>369.8471781870828</v>
       </c>
       <c r="H78" t="n">
-        <v>0.37</v>
+        <v>0.76</v>
       </c>
       <c r="I78" t="n">
-        <v>749946</v>
+        <v>755156</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106669882</v>
+        <v>105393446</v>
       </c>
       <c r="E79" t="n">
-        <v>161617196</v>
+        <v>159683248</v>
       </c>
       <c r="F79" t="n">
-        <v>37366.39096852992</v>
+        <v>37448.32072386096</v>
       </c>
       <c r="G79" t="n">
-        <v>39700.5777615014</v>
+        <v>45495.29952824904</v>
       </c>
       <c r="H79" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="I79" t="n">
-        <v>9656530</v>
+        <v>9739373</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2438734</v>
+        <v>2390501</v>
       </c>
       <c r="E80" t="n">
-        <v>9754938</v>
+        <v>9562005</v>
       </c>
       <c r="F80" t="n">
-        <v>531.3267530808594</v>
+        <v>903.8065834700529</v>
       </c>
       <c r="G80" t="n">
-        <v>158.2160650087426</v>
+        <v>1289.917948512492</v>
       </c>
       <c r="H80" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="I80" t="n">
-        <v>7209130</v>
+        <v>7464673</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2347813</v>
+        <v>2353181</v>
       </c>
       <c r="F81" t="n">
-        <v>411.6683538454199</v>
+        <v>137.7626647571966</v>
       </c>
       <c r="G81" t="n">
-        <v>801.8682200312522</v>
+        <v>880.9006180665311</v>
       </c>
       <c r="H81" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="I81" t="n">
-        <v>188384</v>
+        <v>185558</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>385375984</v>
+        <v>382399844</v>
       </c>
       <c r="E82" t="n">
-        <v>2202148480</v>
+        <v>2185141967</v>
       </c>
       <c r="F82" t="n">
-        <v>24093.43257564156</v>
+        <v>31513.91150127009</v>
       </c>
       <c r="G82" t="n">
-        <v>37685.05718392154</v>
+        <v>42407.00686847184</v>
       </c>
       <c r="H82" t="n">
         <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>56142758</v>
+        <v>54410993</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3764222</v>
+        <v>3760784</v>
       </c>
       <c r="F2" t="n">
-        <v>522.0880484436028</v>
+        <v>475.522265518492</v>
       </c>
       <c r="G2" t="n">
-        <v>370.7821712494035</v>
+        <v>510.5565395848812</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
       <c r="I2" t="n">
-        <v>141184</v>
+        <v>140756</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1451645</v>
+        <v>1479131</v>
       </c>
       <c r="E3" t="n">
-        <v>4692314</v>
+        <v>4781160</v>
       </c>
       <c r="F3" t="n">
-        <v>371.7769511454016</v>
+        <v>1552.61927975724</v>
       </c>
       <c r="G3" t="n">
-        <v>687.5319878519851</v>
+        <v>913.5115016971107</v>
       </c>
       <c r="H3" t="n">
-        <v>0.87</v>
+        <v>0.52</v>
       </c>
       <c r="I3" t="n">
-        <v>218469</v>
+        <v>221767</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243832134</v>
+        <v>241974007</v>
       </c>
       <c r="E4" t="n">
-        <v>1529037042</v>
+        <v>1517384985</v>
       </c>
       <c r="F4" t="n">
-        <v>13690.26156128547</v>
+        <v>11658.1182804735</v>
       </c>
       <c r="G4" t="n">
-        <v>32913.38790372495</v>
+        <v>35302.99975936815</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>26239705</v>
+        <v>26250017</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141184537</v>
+        <v>140336257</v>
       </c>
       <c r="E5" t="n">
-        <v>156454531</v>
+        <v>155514504</v>
       </c>
       <c r="F5" t="n">
-        <v>29802.08877330077</v>
+        <v>32739.32327105417</v>
       </c>
       <c r="G5" t="n">
-        <v>19633.70870420761</v>
+        <v>19718.14356200204</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>51094367</v>
+        <v>51339376</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>118449489</v>
+        <v>117611405</v>
       </c>
       <c r="E6" t="n">
-        <v>464286529</v>
+        <v>461001492</v>
       </c>
       <c r="F6" t="n">
-        <v>17455.07162765125</v>
+        <v>12412.83356723404</v>
       </c>
       <c r="G6" t="n">
-        <v>10651.38561902308</v>
+        <v>11083.70730072146</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>27369057</v>
+        <v>27047848</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4261208</v>
+        <v>4246098</v>
       </c>
       <c r="E7" t="n">
-        <v>26165844</v>
+        <v>26073058</v>
       </c>
       <c r="F7" t="n">
-        <v>454.9308510920782</v>
+        <v>560.451238543189</v>
       </c>
       <c r="G7" t="n">
-        <v>1706.378201132697</v>
+        <v>1570.829677576575</v>
       </c>
       <c r="H7" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I7" t="n">
-        <v>668443</v>
+        <v>665465</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>196187</v>
+        <v>197582</v>
       </c>
       <c r="E8" t="n">
-        <v>2158272</v>
+        <v>2173622</v>
       </c>
       <c r="F8" t="n">
-        <v>2699.938002518272</v>
+        <v>2310.75264981191</v>
       </c>
       <c r="G8" t="n">
-        <v>4286.563525537405</v>
+        <v>4711.313108830669</v>
       </c>
       <c r="H8" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="I8" t="n">
-        <v>34238</v>
+        <v>34823</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70313460</v>
+        <v>69502878</v>
       </c>
       <c r="E9" t="n">
-        <v>121731030</v>
+        <v>120327700</v>
       </c>
       <c r="F9" t="n">
-        <v>965.5881261124653</v>
+        <v>1086.468847348827</v>
       </c>
       <c r="G9" t="n">
-        <v>2580.543510570898</v>
+        <v>2572.631765812278</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>790203</v>
+        <v>821688</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8772673</v>
+        <v>8790761</v>
       </c>
       <c r="E10" t="n">
-        <v>12417067</v>
+        <v>12442669</v>
       </c>
       <c r="F10" t="n">
-        <v>2787.629981893002</v>
+        <v>2787.400951284471</v>
       </c>
       <c r="G10" t="n">
-        <v>3241.495398234073</v>
+        <v>3241.229078217274</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>43693</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>495098846</v>
+        <v>488257610</v>
       </c>
       <c r="E11" t="n">
-        <v>495098846</v>
+        <v>488257615</v>
       </c>
       <c r="F11" t="n">
-        <v>21072.05155529041</v>
+        <v>33181.25677381672</v>
       </c>
       <c r="G11" t="n">
-        <v>39228.39194108004</v>
+        <v>32542.24472278604</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>70841530</v>
+        <v>84228081</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>310359</v>
+        <v>310538</v>
       </c>
       <c r="E12" t="n">
-        <v>1448787</v>
+        <v>1449622</v>
       </c>
       <c r="F12" t="n">
-        <v>334.1854670109953</v>
+        <v>48.79694509270533</v>
       </c>
       <c r="G12" t="n">
-        <v>650.6949424114316</v>
+        <v>519.276049563216</v>
       </c>
       <c r="H12" t="n">
-        <v>0.68</v>
+        <v>1.1</v>
       </c>
       <c r="I12" t="n">
-        <v>692382</v>
+        <v>692039</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1876152</v>
+        <v>1775208</v>
       </c>
       <c r="F13" t="n">
-        <v>4598.125455827981</v>
+        <v>15693.3730944529</v>
       </c>
       <c r="G13" t="n">
-        <v>3354.005033876625</v>
+        <v>3837.712857437233</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="I13" t="n">
-        <v>1147353</v>
+        <v>1140286</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11886209</v>
+        <v>11830458</v>
       </c>
       <c r="E14" t="n">
-        <v>29582623</v>
+        <v>29443871</v>
       </c>
       <c r="F14" t="n">
-        <v>879.5686495506496</v>
+        <v>793.1784189212621</v>
       </c>
       <c r="G14" t="n">
-        <v>1727.271514455259</v>
+        <v>798.5256357420077</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I14" t="n">
-        <v>1529214</v>
+        <v>1516041</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108841221</v>
+        <v>107859319</v>
       </c>
       <c r="E15" t="n">
-        <v>423142035</v>
+        <v>419315932</v>
       </c>
       <c r="F15" t="n">
-        <v>7295.270901856625</v>
+        <v>4930.249877730255</v>
       </c>
       <c r="G15" t="n">
-        <v>10766.54995109617</v>
+        <v>6844.068853713771</v>
       </c>
       <c r="H15" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I15" t="n">
-        <v>11314688</v>
+        <v>12044149</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4756099</v>
+        <v>4768213</v>
       </c>
       <c r="E16" t="n">
-        <v>7001235</v>
+        <v>7019067</v>
       </c>
       <c r="F16" t="n">
-        <v>291.8469365098758</v>
+        <v>158.1518264661309</v>
       </c>
       <c r="G16" t="n">
-        <v>770.1588598562583</v>
+        <v>592.4069052746128</v>
       </c>
       <c r="H16" t="n">
-        <v>0.43</v>
+        <v>1.27</v>
       </c>
       <c r="I16" t="n">
-        <v>556266</v>
+        <v>551141</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>430229</v>
       </c>
       <c r="E17" t="n">
-        <v>1756323</v>
+        <v>1779584</v>
       </c>
       <c r="F17" t="n">
-        <v>908.5929472146242</v>
+        <v>362.0899836157089</v>
       </c>
       <c r="G17" t="n">
-        <v>137.6093137768132</v>
+        <v>76.9495455344007</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4</v>
+        <v>1.84</v>
       </c>
       <c r="I17" t="n">
-        <v>110330</v>
+        <v>111186</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>139959609</v>
+        <v>138550013</v>
       </c>
       <c r="E18" t="n">
-        <v>139959609</v>
+        <v>138550013</v>
       </c>
       <c r="F18" t="n">
-        <v>103101.797327179</v>
+        <v>89548.63256118404</v>
       </c>
       <c r="G18" t="n">
-        <v>72694.57961287869</v>
+        <v>53118.9254493434</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>91096260</v>
+        <v>91983442</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64137406</v>
+        <v>63995135</v>
       </c>
       <c r="E19" t="n">
-        <v>328909776</v>
+        <v>328180181</v>
       </c>
       <c r="F19" t="n">
-        <v>10896.51480551374</v>
+        <v>12799.77064265786</v>
       </c>
       <c r="G19" t="n">
-        <v>6085.170150032201</v>
+        <v>4870.410949949762</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>25752095</v>
+        <v>27277439</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>253478088</v>
+        <v>251120335</v>
       </c>
       <c r="E20" t="n">
-        <v>253478088</v>
+        <v>251120335</v>
       </c>
       <c r="F20" t="n">
-        <v>56773.15391309802</v>
+        <v>79161.45272449152</v>
       </c>
       <c r="G20" t="n">
-        <v>34688.31396467377</v>
+        <v>40950.1269556143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>29445733</v>
+        <v>29644934</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162893921</v>
+        <v>161619051</v>
       </c>
       <c r="E21" t="n">
-        <v>214349348</v>
+        <v>212671769</v>
       </c>
       <c r="F21" t="n">
-        <v>2916.229165500524</v>
+        <v>10565.4861243391</v>
       </c>
       <c r="G21" t="n">
-        <v>15761.35699876233</v>
+        <v>6907.331124949911</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I21" t="n">
-        <v>16872787</v>
+        <v>16852849</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82974868</v>
+        <v>81654224</v>
       </c>
       <c r="E22" t="n">
-        <v>232121454</v>
+        <v>228441594</v>
       </c>
       <c r="F22" t="n">
-        <v>42669.92811247681</v>
+        <v>27989.76346217574</v>
       </c>
       <c r="G22" t="n">
-        <v>18774.94925573059</v>
+        <v>21540.83496112798</v>
       </c>
       <c r="H22" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I22" t="n">
-        <v>58636776</v>
+        <v>58884002</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83475223</v>
+        <v>83483591</v>
       </c>
       <c r="E23" t="n">
-        <v>174039136</v>
+        <v>174056583</v>
       </c>
       <c r="F23" t="n">
-        <v>20188.10999405295</v>
+        <v>18087.6380374479</v>
       </c>
       <c r="G23" t="n">
-        <v>21394.00087369224</v>
+        <v>20650.20286945815</v>
       </c>
       <c r="H23" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>68922175</v>
+        <v>69268427</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>643090774</v>
+        <v>640039556</v>
       </c>
       <c r="E24" t="n">
-        <v>643090774</v>
+        <v>640039556</v>
       </c>
       <c r="F24" t="n">
-        <v>116179.8206989106</v>
+        <v>122059.8537963569</v>
       </c>
       <c r="G24" t="n">
-        <v>102784.002986642</v>
+        <v>96685.26164355778</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>521833637</v>
+        <v>529078886</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>197870879</v>
+        <v>196452022</v>
       </c>
       <c r="E25" t="n">
-        <v>687421316</v>
+        <v>682492079</v>
       </c>
       <c r="F25" t="n">
-        <v>57793.36179017863</v>
+        <v>64206.72135930732</v>
       </c>
       <c r="G25" t="n">
-        <v>112707.9226059212</v>
+        <v>99429.16180316549</v>
       </c>
       <c r="H25" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>44104693</v>
+        <v>44508733</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5673580</v>
+        <v>5671672</v>
       </c>
       <c r="E26" t="n">
-        <v>7700087</v>
+        <v>7697307</v>
       </c>
       <c r="F26" t="n">
-        <v>512.0517692839752</v>
+        <v>532.8878849538385</v>
       </c>
       <c r="G26" t="n">
-        <v>455.7963717636602</v>
+        <v>2481.137563177571</v>
       </c>
       <c r="H26" t="n">
-        <v>0.59</v>
+        <v>0.22</v>
       </c>
       <c r="I26" t="n">
-        <v>5081901</v>
+        <v>5129581</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14427419</v>
+        <v>14355897</v>
       </c>
       <c r="F27" t="n">
-        <v>1732.14871883838</v>
+        <v>2891.324250732974</v>
       </c>
       <c r="G27" t="n">
-        <v>3114.559255317628</v>
+        <v>1882.092479690567</v>
       </c>
       <c r="H27" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I27" t="n">
-        <v>224251</v>
+        <v>223433</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24725399</v>
+        <v>24628976</v>
       </c>
       <c r="E28" t="n">
-        <v>34940976</v>
+        <v>34804714</v>
       </c>
       <c r="F28" t="n">
-        <v>517.2799714370257</v>
+        <v>204.2682622619714</v>
       </c>
       <c r="G28" t="n">
-        <v>393.5578643036892</v>
+        <v>2774.315874581617</v>
       </c>
       <c r="H28" t="n">
-        <v>0.37</v>
+        <v>0.92</v>
       </c>
       <c r="I28" t="n">
-        <v>116381</v>
+        <v>117940</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>259129831</v>
+        <v>258233724</v>
       </c>
       <c r="E29" t="n">
-        <v>1118548204</v>
+        <v>1114680107</v>
       </c>
       <c r="F29" t="n">
-        <v>146993.6936670502</v>
+        <v>94933.03652648258</v>
       </c>
       <c r="G29" t="n">
-        <v>148092.6980100319</v>
+        <v>147018.7941642592</v>
       </c>
       <c r="H29" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>137734851</v>
+        <v>138209021</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10323144</v>
+        <v>9902322</v>
       </c>
       <c r="E30" t="n">
-        <v>124293199</v>
+        <v>119226393</v>
       </c>
       <c r="F30" t="n">
-        <v>1231.46130481494</v>
+        <v>1714.498523017443</v>
       </c>
       <c r="G30" t="n">
-        <v>679.5275217463567</v>
+        <v>1028.152534935381</v>
       </c>
       <c r="H30" t="n">
-        <v>1.13</v>
+        <v>0.99</v>
       </c>
       <c r="I30" t="n">
-        <v>486365</v>
+        <v>522339</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15508286</v>
+        <v>15736754</v>
       </c>
       <c r="E31" t="n">
-        <v>38770716</v>
+        <v>39341885</v>
       </c>
       <c r="F31" t="n">
-        <v>4467.051642726645</v>
+        <v>5824.39291981965</v>
       </c>
       <c r="G31" t="n">
-        <v>5235.616563752573</v>
+        <v>5277.343264438587</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>4593926</v>
+        <v>4660727</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19598208</v>
+        <v>19496859</v>
       </c>
       <c r="F32" t="n">
-        <v>4823.795480372194</v>
+        <v>4005.913089315193</v>
       </c>
       <c r="G32" t="n">
-        <v>3966.583761026021</v>
+        <v>1681.707741504036</v>
       </c>
       <c r="H32" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="I32" t="n">
-        <v>73680</v>
+        <v>70577</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1560412</v>
+        <v>1545607</v>
       </c>
       <c r="E33" t="n">
-        <v>5817167</v>
+        <v>5761974</v>
       </c>
       <c r="F33" t="n">
-        <v>6399.713203028523</v>
+        <v>499.3513906972422</v>
       </c>
       <c r="G33" t="n">
-        <v>477.2444270588555</v>
+        <v>4188.914026066168</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="I33" t="n">
-        <v>655715</v>
+        <v>655239</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189837</v>
+        <v>4179716</v>
       </c>
       <c r="E34" t="n">
-        <v>12068110</v>
+        <v>12038959</v>
       </c>
       <c r="F34" t="n">
-        <v>4368.144671725129</v>
+        <v>2930.254241847926</v>
       </c>
       <c r="G34" t="n">
-        <v>3117.116001938919</v>
+        <v>3724.111642360198</v>
       </c>
       <c r="H34" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="I34" t="n">
-        <v>497286</v>
+        <v>504779</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13920821</v>
+        <v>13921950</v>
       </c>
       <c r="E35" t="n">
-        <v>67420756</v>
+        <v>67426228</v>
       </c>
       <c r="F35" t="n">
-        <v>3177.434401390018</v>
+        <v>2869.800258726003</v>
       </c>
       <c r="G35" t="n">
-        <v>5628.11054269011</v>
+        <v>1476.860945688105</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="I35" t="n">
-        <v>5306299</v>
+        <v>5238757</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1261716</v>
+        <v>1265706</v>
       </c>
       <c r="E36" t="n">
-        <v>8257896</v>
+        <v>8284009</v>
       </c>
       <c r="F36" t="n">
-        <v>260.5373476130703</v>
+        <v>799.0989098072912</v>
       </c>
       <c r="G36" t="n">
-        <v>546.4098589531375</v>
+        <v>346.8099678012834</v>
       </c>
       <c r="H36" t="n">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="I36" t="n">
-        <v>470677</v>
+        <v>466467</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1850051461</v>
+        <v>1845519959</v>
       </c>
       <c r="F37" t="n">
-        <v>73909.2641039554</v>
+        <v>70660.85040992789</v>
       </c>
       <c r="G37" t="n">
-        <v>73719.50021697508</v>
+        <v>77556.23919442364</v>
       </c>
       <c r="H37" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I37" t="n">
-        <v>30081836</v>
+        <v>30112482</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1937770</v>
+        <v>1827661</v>
       </c>
       <c r="E38" t="n">
-        <v>13895552</v>
+        <v>13105976</v>
       </c>
       <c r="F38" t="n">
-        <v>3982.752838531575</v>
+        <v>107.8103402488274</v>
       </c>
       <c r="G38" t="n">
-        <v>5411.979750778973</v>
+        <v>125.6710519294136</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>1.47</v>
       </c>
       <c r="I38" t="n">
-        <v>2046745</v>
+        <v>2032718</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>191785265</v>
+        <v>190422773</v>
       </c>
       <c r="E39" t="n">
-        <v>1086006011</v>
+        <v>1078290743</v>
       </c>
       <c r="F39" t="n">
-        <v>53753.31523924982</v>
+        <v>55883.97965333094</v>
       </c>
       <c r="G39" t="n">
-        <v>59296.36185072501</v>
+        <v>48170.54351413524</v>
       </c>
       <c r="H39" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>83867676</v>
+        <v>83661302</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>120973154</v>
+        <v>122487304</v>
       </c>
       <c r="E40" t="n">
-        <v>896097439</v>
+        <v>907313360</v>
       </c>
       <c r="F40" t="n">
-        <v>6463.187750607299</v>
+        <v>13852.80160716552</v>
       </c>
       <c r="G40" t="n">
-        <v>9346.853744802966</v>
+        <v>7515.396857388036</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>25015799</v>
+        <v>25298982</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>322724537</v>
+        <v>320533673</v>
       </c>
       <c r="E41" t="n">
-        <v>2903430046</v>
+        <v>2883719677</v>
       </c>
       <c r="F41" t="n">
-        <v>83125.89093502185</v>
+        <v>75802.97324579749</v>
       </c>
       <c r="G41" t="n">
-        <v>92777.52101220428</v>
+        <v>76362.50252103055</v>
       </c>
       <c r="H41" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I41" t="n">
-        <v>65845828</v>
+        <v>62881802</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1523100</v>
+        <v>1534048</v>
       </c>
       <c r="E42" t="n">
-        <v>12692501</v>
+        <v>12783733</v>
       </c>
       <c r="F42" t="n">
-        <v>421.8079293633458</v>
+        <v>2570.577500514883</v>
       </c>
       <c r="G42" t="n">
-        <v>2471.243544891388</v>
+        <v>2562.261193924376</v>
       </c>
       <c r="H42" t="n">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="I42" t="n">
-        <v>29969</v>
+        <v>29517</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19400083</v>
+        <v>19244560</v>
       </c>
       <c r="E43" t="n">
-        <v>58164952</v>
+        <v>57699105</v>
       </c>
       <c r="F43" t="n">
-        <v>2473.532755318831</v>
+        <v>1660.167422940334</v>
       </c>
       <c r="G43" t="n">
-        <v>3107.856566623608</v>
+        <v>2190.717207562452</v>
       </c>
       <c r="H43" t="n">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
       <c r="I43" t="n">
-        <v>4404162</v>
+        <v>4388546</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9651381</v>
+        <v>9616479</v>
       </c>
       <c r="F44" t="n">
-        <v>7801.833140831402</v>
+        <v>7748.598362677339</v>
       </c>
       <c r="G44" t="n">
-        <v>7052.571203603347</v>
+        <v>7060.538424989756</v>
       </c>
       <c r="H44" t="n">
         <v>0.41</v>
       </c>
       <c r="I44" t="n">
-        <v>110458</v>
+        <v>109509</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12433170</v>
+        <v>12419090</v>
       </c>
       <c r="E45" t="n">
-        <v>12433170</v>
+        <v>12419090</v>
       </c>
       <c r="F45" t="n">
-        <v>546.0451363733233</v>
+        <v>0.5174894559101346</v>
       </c>
       <c r="G45" t="n">
-        <v>35.87476227320153</v>
+        <v>1218.224723747947</v>
       </c>
       <c r="H45" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I45" t="n">
-        <v>3732184</v>
+        <v>3639731</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>289700264</v>
+        <v>286526711</v>
       </c>
       <c r="E46" t="n">
-        <v>289700264</v>
+        <v>286526711</v>
       </c>
       <c r="F46" t="n">
-        <v>8476.287795805269</v>
+        <v>8550.943727186284</v>
       </c>
       <c r="G46" t="n">
-        <v>13554.55205615091</v>
+        <v>17529.63677356856</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>19402285</v>
+        <v>19568695</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12471647</v>
+        <v>12555276</v>
       </c>
       <c r="E47" t="n">
-        <v>39446401</v>
+        <v>39710909</v>
       </c>
       <c r="F47" t="n">
-        <v>6198.37948814122</v>
+        <v>6209.363514606124</v>
       </c>
       <c r="G47" t="n">
-        <v>2989.046686476094</v>
+        <v>2969.496070564671</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>987041</v>
+        <v>1012000</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31212578</v>
+        <v>31276158</v>
       </c>
       <c r="E48" t="n">
-        <v>86455744</v>
+        <v>86631853</v>
       </c>
       <c r="F48" t="n">
-        <v>4768.86054149418</v>
+        <v>4770.679655969983</v>
       </c>
       <c r="G48" t="n">
-        <v>2080.919354486928</v>
+        <v>1624.105849766338</v>
       </c>
       <c r="H48" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I48" t="n">
-        <v>12407184</v>
+        <v>12391789</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27176404</v>
+        <v>27069459</v>
       </c>
       <c r="E49" t="n">
-        <v>64467469</v>
+        <v>64213776</v>
       </c>
       <c r="F49" t="n">
-        <v>7140.002502875213</v>
+        <v>9059.531572409882</v>
       </c>
       <c r="G49" t="n">
-        <v>8065.511800713224</v>
+        <v>2199.553979674217</v>
       </c>
       <c r="H49" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I49" t="n">
-        <v>643311</v>
+        <v>652491</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12429548</v>
+        <v>12387979</v>
       </c>
       <c r="E50" t="n">
-        <v>18920575</v>
+        <v>18857298</v>
       </c>
       <c r="F50" t="n">
-        <v>4342.149805093794</v>
+        <v>5968.875587395668</v>
       </c>
       <c r="G50" t="n">
-        <v>17407.15086343674</v>
+        <v>3734.640919271208</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I50" t="n">
-        <v>655475</v>
+        <v>655281</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>291687283</v>
+        <v>288734142</v>
       </c>
       <c r="E51" t="n">
-        <v>291687283</v>
+        <v>288734142</v>
       </c>
       <c r="F51" t="n">
-        <v>28319.87617602768</v>
+        <v>34045.04144557645</v>
       </c>
       <c r="G51" t="n">
-        <v>62655.34357445112</v>
+        <v>60768.66899160041</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>88188416</v>
+        <v>88624181</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>85172482</v>
+        <v>84605856</v>
       </c>
       <c r="E52" t="n">
-        <v>490800579</v>
+        <v>487535435</v>
       </c>
       <c r="F52" t="n">
-        <v>6459.414944788874</v>
+        <v>7076.341930138999</v>
       </c>
       <c r="G52" t="n">
-        <v>3481.646694651893</v>
+        <v>3981.568105927854</v>
       </c>
       <c r="H52" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I52" t="n">
-        <v>20965371</v>
+        <v>21069128</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29144485</v>
+        <v>28900450</v>
       </c>
       <c r="E53" t="n">
-        <v>130491814</v>
+        <v>129399171</v>
       </c>
       <c r="F53" t="n">
-        <v>13959.84860326266</v>
+        <v>8940.987578811084</v>
       </c>
       <c r="G53" t="n">
-        <v>13099.26433778485</v>
+        <v>13325.89069707444</v>
       </c>
       <c r="H53" t="n">
         <v>0.16</v>
       </c>
       <c r="I53" t="n">
-        <v>13427383</v>
+        <v>13597581</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8597422</v>
+        <v>8265145</v>
       </c>
       <c r="F54" t="n">
-        <v>5170.46376483951</v>
+        <v>4800.105370129086</v>
       </c>
       <c r="G54" t="n">
-        <v>53.0771820885401</v>
+        <v>4521.964970463708</v>
       </c>
       <c r="H54" t="n">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
       <c r="I54" t="n">
-        <v>295889</v>
+        <v>316839</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4468724</v>
+        <v>4464291</v>
       </c>
       <c r="F55" t="n">
-        <v>2791.683336812394</v>
+        <v>2704.031070532371</v>
       </c>
       <c r="G55" t="n">
-        <v>848.2563115665462</v>
+        <v>936.2891679301949</v>
       </c>
       <c r="H55" t="n">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
       <c r="I55" t="n">
-        <v>215821</v>
+        <v>218516</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123146356</v>
+        <v>123026500</v>
       </c>
       <c r="E56" t="n">
-        <v>2039404517</v>
+        <v>2037419602</v>
       </c>
       <c r="F56" t="n">
-        <v>18445.64140354513</v>
+        <v>21875.96797846551</v>
       </c>
       <c r="G56" t="n">
-        <v>22978.13739804379</v>
+        <v>25982.84132435475</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>33340290</v>
+        <v>33836605</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>95519882</v>
+        <v>93465867</v>
       </c>
       <c r="E57" t="n">
-        <v>96548084</v>
+        <v>94471960</v>
       </c>
       <c r="F57" t="n">
-        <v>52619.25901338837</v>
+        <v>20872.89064542846</v>
       </c>
       <c r="G57" t="n">
-        <v>29160.40571596965</v>
+        <v>8172.642880498663</v>
       </c>
       <c r="H57" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>79926509</v>
+        <v>78737033</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>239072114</v>
+        <v>238030568</v>
       </c>
       <c r="E58" t="n">
-        <v>239072114</v>
+        <v>238030568</v>
       </c>
       <c r="F58" t="n">
-        <v>58140.83735712081</v>
+        <v>67422.38678100299</v>
       </c>
       <c r="G58" t="n">
-        <v>83391.74809736178</v>
+        <v>73453.59397832182</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>87567937</v>
+        <v>87833487</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23244250</v>
+        <v>23116096</v>
       </c>
       <c r="E59" t="n">
-        <v>139075022</v>
+        <v>138308247</v>
       </c>
       <c r="F59" t="n">
-        <v>28036.47302462919</v>
+        <v>22878.62088907272</v>
       </c>
       <c r="G59" t="n">
-        <v>26161.81415048328</v>
+        <v>25332.80257870236</v>
       </c>
       <c r="H59" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I59" t="n">
-        <v>16887987</v>
+        <v>16763812</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3093804</v>
+        <v>2914554</v>
       </c>
       <c r="E60" t="n">
-        <v>5709792</v>
+        <v>5378976</v>
       </c>
       <c r="F60" t="n">
-        <v>68.05659380265935</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>155.5766559736179</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2.43</v>
+        <v>7.96</v>
       </c>
       <c r="I60" t="n">
-        <v>302962</v>
+        <v>328564</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8767198</v>
+        <v>8731388</v>
       </c>
       <c r="E62" t="n">
-        <v>25990695</v>
+        <v>25884534</v>
       </c>
       <c r="F62" t="n">
-        <v>2966.16811737278</v>
+        <v>4833.645575611553</v>
       </c>
       <c r="G62" t="n">
-        <v>1537.758974670313</v>
+        <v>1619.915976051381</v>
       </c>
       <c r="H62" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I62" t="n">
-        <v>6230646</v>
+        <v>6260883</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14553709</v>
+        <v>14668366</v>
       </c>
       <c r="E63" t="n">
-        <v>29463095</v>
+        <v>29695212</v>
       </c>
       <c r="F63" t="n">
-        <v>7965.2994221196</v>
+        <v>8108.911128525498</v>
       </c>
       <c r="G63" t="n">
-        <v>11643.63112416921</v>
+        <v>9882.288361646539</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="I63" t="n">
-        <v>570457</v>
+        <v>571276</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>31810461</v>
+        <v>31779821</v>
       </c>
       <c r="E64" t="n">
-        <v>225530979</v>
+        <v>225313747</v>
       </c>
       <c r="F64" t="n">
-        <v>84527.26879939661</v>
+        <v>36207.62750997042</v>
       </c>
       <c r="G64" t="n">
-        <v>47905.32197568187</v>
+        <v>45755.44614740319</v>
       </c>
       <c r="H64" t="n">
         <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>5258492</v>
+        <v>5334312</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1272625</v>
+        <v>1278903</v>
       </c>
       <c r="E65" t="n">
-        <v>7891464</v>
+        <v>7930394</v>
       </c>
       <c r="F65" t="n">
-        <v>331.6410186128629</v>
+        <v>334.7351835441898</v>
       </c>
       <c r="G65" t="n">
-        <v>536.5282730032301</v>
+        <v>215.8173876198107</v>
       </c>
       <c r="H65" t="n">
         <v>0.78</v>
       </c>
       <c r="I65" t="n">
-        <v>789137</v>
+        <v>787735</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>580074981</v>
+        <v>575430895</v>
       </c>
       <c r="E66" t="n">
-        <v>2246544817</v>
+        <v>2228558958</v>
       </c>
       <c r="F66" t="n">
-        <v>50494.07478119381</v>
+        <v>71505.50554679378</v>
       </c>
       <c r="G66" t="n">
-        <v>47563.61501657299</v>
+        <v>57457.8740359743</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>56926750</v>
+        <v>57310160</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5450152</v>
+        <v>5461929</v>
       </c>
       <c r="E67" t="n">
-        <v>24397189</v>
+        <v>24449907</v>
       </c>
       <c r="F67" t="n">
-        <v>4161.777192492832</v>
+        <v>4144.866746674801</v>
       </c>
       <c r="G67" t="n">
-        <v>19404.51011335396</v>
+        <v>19686.78086370428</v>
       </c>
       <c r="H67" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="I67" t="n">
-        <v>190541</v>
+        <v>190443</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>109348500</v>
+        <v>106115473</v>
       </c>
       <c r="E68" t="n">
-        <v>1015988494</v>
+        <v>1004617801</v>
       </c>
       <c r="F68" t="n">
-        <v>3650.221225903545</v>
+        <v>11442.51171479155</v>
       </c>
       <c r="G68" t="n">
-        <v>5220.243254847347</v>
+        <v>9842.495296464451</v>
       </c>
       <c r="H68" t="n">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>14881576</v>
+        <v>17353855</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>95306122</v>
+        <v>95847114</v>
       </c>
       <c r="E69" t="n">
-        <v>145391723</v>
+        <v>146217020</v>
       </c>
       <c r="F69" t="n">
-        <v>11271.33251082921</v>
+        <v>11498.90182239542</v>
       </c>
       <c r="G69" t="n">
-        <v>16522.56797581942</v>
+        <v>16722.60429699139</v>
       </c>
       <c r="H69" t="n">
-        <v>0.62</v>
+        <v>0.39</v>
       </c>
       <c r="I69" t="n">
-        <v>12452538</v>
+        <v>12486212</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1089378</v>
+        <v>1088915</v>
       </c>
       <c r="E70" t="n">
-        <v>4218308</v>
+        <v>4216515</v>
       </c>
       <c r="F70" t="n">
-        <v>2333.287764430501</v>
+        <v>2551.094115146996</v>
       </c>
       <c r="G70" t="n">
-        <v>2759.57286383132</v>
+        <v>2137.792961648452</v>
       </c>
       <c r="H70" t="n">
         <v>0.12</v>
       </c>
       <c r="I70" t="n">
-        <v>307678</v>
+        <v>315033</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>121374137</v>
+        <v>121421183</v>
       </c>
       <c r="E71" t="n">
-        <v>465610725</v>
+        <v>465791202</v>
       </c>
       <c r="F71" t="n">
-        <v>16612.35992888499</v>
+        <v>15813.80245931717</v>
       </c>
       <c r="G71" t="n">
-        <v>13457.50467315179</v>
+        <v>11251.80385169742</v>
       </c>
       <c r="H71" t="n">
         <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>39807310</v>
+        <v>39706889</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2967763</v>
+        <v>2970633</v>
       </c>
       <c r="E72" t="n">
-        <v>28119996</v>
+        <v>28147190</v>
       </c>
       <c r="F72" t="n">
-        <v>165.0577008255432</v>
+        <v>201.0075510199947</v>
       </c>
       <c r="G72" t="n">
-        <v>65.36825513147707</v>
+        <v>634.8440657624864</v>
       </c>
       <c r="H72" t="n">
-        <v>0.91</v>
+        <v>0.49</v>
       </c>
       <c r="I72" t="n">
-        <v>206046</v>
+        <v>245414</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35185142</v>
+        <v>35334118</v>
       </c>
       <c r="F73" t="n">
-        <v>2147.920939653</v>
+        <v>3463.336730563142</v>
       </c>
       <c r="G73" t="n">
-        <v>4545.697981630664</v>
+        <v>3588.015956538276</v>
       </c>
       <c r="H73" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="I73" t="n">
-        <v>7178730</v>
+        <v>7598815</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87772477</v>
+        <v>87860654</v>
       </c>
       <c r="E74" t="n">
-        <v>324444998</v>
+        <v>324771139</v>
       </c>
       <c r="F74" t="n">
-        <v>341.2995007475478</v>
+        <v>43.27984641789193</v>
       </c>
       <c r="G74" t="n">
-        <v>267.6756389765636</v>
+        <v>789.4570807466615</v>
       </c>
       <c r="H74" t="n">
-        <v>0.93</v>
+        <v>1.38</v>
       </c>
       <c r="I74" t="n">
-        <v>236429</v>
+        <v>205862</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21489233</v>
+        <v>21343954</v>
       </c>
       <c r="E75" t="n">
-        <v>21489233</v>
+        <v>21343954</v>
       </c>
       <c r="F75" t="n">
-        <v>5186.513442958541</v>
+        <v>5159.4328898931</v>
       </c>
       <c r="G75" t="n">
-        <v>1012.864107906497</v>
+        <v>1299.010173953906</v>
       </c>
       <c r="H75" t="n">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="I75" t="n">
-        <v>5651750</v>
+        <v>5432801</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>474537280</v>
+        <v>471559919</v>
       </c>
       <c r="E76" t="n">
-        <v>1651824777</v>
+        <v>1641460834</v>
       </c>
       <c r="F76" t="n">
-        <v>20072.15789030259</v>
+        <v>21276.59157363633</v>
       </c>
       <c r="G76" t="n">
-        <v>27943.71093840843</v>
+        <v>40317.888377638</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>45980891</v>
+        <v>46524060</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5576075531</v>
+        <v>5546519940</v>
       </c>
       <c r="E77" t="n">
-        <v>5576075258</v>
+        <v>5546519669</v>
       </c>
       <c r="F77" t="n">
-        <v>3438.459700679678</v>
+        <v>3417.496187328115</v>
       </c>
       <c r="G77" t="n">
-        <v>1182.763456958361</v>
+        <v>1175.552414898805</v>
       </c>
       <c r="H77" t="n">
         <v>2.12</v>
       </c>
       <c r="I77" t="n">
-        <v>35721745</v>
+        <v>34938261</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7187192</v>
+        <v>7132871</v>
       </c>
       <c r="E78" t="n">
-        <v>18671553</v>
+        <v>18530431</v>
       </c>
       <c r="F78" t="n">
-        <v>269.3594442612034</v>
+        <v>43.07022516363484</v>
       </c>
       <c r="G78" t="n">
-        <v>369.8471781870828</v>
+        <v>407.1746021192723</v>
       </c>
       <c r="H78" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="I78" t="n">
-        <v>755156</v>
+        <v>754550</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>105393446</v>
+        <v>105712195</v>
       </c>
       <c r="E79" t="n">
-        <v>159683248</v>
+        <v>160166189</v>
       </c>
       <c r="F79" t="n">
-        <v>37448.32072386096</v>
+        <v>37266.44203108682</v>
       </c>
       <c r="G79" t="n">
-        <v>45495.29952824904</v>
+        <v>45665.21036712251</v>
       </c>
       <c r="H79" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>9739373</v>
+        <v>9796289</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2390501</v>
+        <v>2381853</v>
       </c>
       <c r="E80" t="n">
-        <v>9562005</v>
+        <v>9527410</v>
       </c>
       <c r="F80" t="n">
-        <v>903.8065834700529</v>
+        <v>556.2581951626756</v>
       </c>
       <c r="G80" t="n">
-        <v>1289.917948512492</v>
+        <v>1261.032059722701</v>
       </c>
       <c r="H80" t="n">
-        <v>0.32</v>
+        <v>0.84</v>
       </c>
       <c r="I80" t="n">
-        <v>7464673</v>
+        <v>7473843</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2353181</v>
+        <v>2345592</v>
       </c>
       <c r="F81" t="n">
-        <v>137.7626647571966</v>
+        <v>104.348406829252</v>
       </c>
       <c r="G81" t="n">
-        <v>880.9006180665311</v>
+        <v>677.6165631712632</v>
       </c>
       <c r="H81" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="I81" t="n">
-        <v>185558</v>
+        <v>182966</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>382399844</v>
+        <v>380854485</v>
       </c>
       <c r="E82" t="n">
-        <v>2185141967</v>
+        <v>2176311343</v>
       </c>
       <c r="F82" t="n">
-        <v>31513.91150127009</v>
+        <v>38162.21339257985</v>
       </c>
       <c r="G82" t="n">
-        <v>42407.00686847184</v>
+        <v>35976.40812028892</v>
       </c>
       <c r="H82" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>54410993</v>
+        <v>57675989</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3760784</v>
+        <v>3857050</v>
       </c>
       <c r="F2" t="n">
-        <v>475.522265518492</v>
+        <v>280.1340403105807</v>
       </c>
       <c r="G2" t="n">
-        <v>510.5565395848812</v>
+        <v>542.4313463703295</v>
       </c>
       <c r="H2" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="I2" t="n">
-        <v>140756</v>
+        <v>142754</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1479131</v>
+        <v>1477506</v>
       </c>
       <c r="E3" t="n">
-        <v>4781160</v>
+        <v>4775907</v>
       </c>
       <c r="F3" t="n">
-        <v>1552.61927975724</v>
+        <v>1354.719423076704</v>
       </c>
       <c r="G3" t="n">
-        <v>913.5115016971107</v>
+        <v>648.6547174538158</v>
       </c>
       <c r="H3" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="I3" t="n">
-        <v>221767</v>
+        <v>222189</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>241974007</v>
+        <v>242443299</v>
       </c>
       <c r="E4" t="n">
-        <v>1517384985</v>
+        <v>1520327852</v>
       </c>
       <c r="F4" t="n">
-        <v>11658.1182804735</v>
+        <v>12709.45906521194</v>
       </c>
       <c r="G4" t="n">
-        <v>35302.99975936815</v>
+        <v>29295.02835242448</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>26250017</v>
+        <v>25396749</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140336257</v>
+        <v>139469578</v>
       </c>
       <c r="E5" t="n">
-        <v>155514504</v>
+        <v>154554089</v>
       </c>
       <c r="F5" t="n">
-        <v>32739.32327105417</v>
+        <v>26231.61577234272</v>
       </c>
       <c r="G5" t="n">
-        <v>19718.14356200204</v>
+        <v>22627.42811182261</v>
       </c>
       <c r="H5" t="n">
         <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>51339376</v>
+        <v>52443511</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117611405</v>
+        <v>116781739</v>
       </c>
       <c r="E6" t="n">
-        <v>461001492</v>
+        <v>457749450</v>
       </c>
       <c r="F6" t="n">
-        <v>12412.83356723404</v>
+        <v>10536.90925275698</v>
       </c>
       <c r="G6" t="n">
-        <v>11083.70730072146</v>
+        <v>10254.31265801776</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>27047848</v>
+        <v>27681380</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4246098</v>
+        <v>4266583</v>
       </c>
       <c r="E7" t="n">
-        <v>26073058</v>
+        <v>26198848</v>
       </c>
       <c r="F7" t="n">
-        <v>560.451238543189</v>
+        <v>559.3760109338118</v>
       </c>
       <c r="G7" t="n">
-        <v>1570.829677576575</v>
+        <v>1586.263360436511</v>
       </c>
       <c r="H7" t="n">
         <v>0.15</v>
       </c>
       <c r="I7" t="n">
-        <v>665465</v>
+        <v>650743</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197582</v>
+        <v>196945</v>
       </c>
       <c r="E8" t="n">
-        <v>2173622</v>
+        <v>2166610</v>
       </c>
       <c r="F8" t="n">
-        <v>2310.75264981191</v>
+        <v>2269.697051784345</v>
       </c>
       <c r="G8" t="n">
-        <v>4711.313108830669</v>
+        <v>4696.033153122491</v>
       </c>
       <c r="H8" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="I8" t="n">
-        <v>34823</v>
+        <v>36039</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69502878</v>
+        <v>69039469</v>
       </c>
       <c r="E9" t="n">
-        <v>120327700</v>
+        <v>119522560</v>
       </c>
       <c r="F9" t="n">
-        <v>1086.468847348827</v>
+        <v>1083.194897274629</v>
       </c>
       <c r="G9" t="n">
-        <v>2572.631765812278</v>
+        <v>2562.851761133084</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>821688</v>
+        <v>803067</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8790761</v>
+        <v>8759410</v>
       </c>
       <c r="E10" t="n">
-        <v>12442669</v>
+        <v>12398294</v>
       </c>
       <c r="F10" t="n">
-        <v>2787.400951284471</v>
+        <v>2606.461621987623</v>
       </c>
       <c r="G10" t="n">
-        <v>3241.229078217274</v>
+        <v>3224.460967783478</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I10" t="n">
-        <v>43636</v>
+        <v>43776</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>488257610</v>
+        <v>492400755</v>
       </c>
       <c r="E11" t="n">
-        <v>488257615</v>
+        <v>492400755</v>
       </c>
       <c r="F11" t="n">
-        <v>33181.25677381672</v>
+        <v>25869.04683104752</v>
       </c>
       <c r="G11" t="n">
-        <v>32542.24472278604</v>
+        <v>251596.2471837452</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>84228081</v>
+        <v>76395233</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>310538</v>
+        <v>298741</v>
       </c>
       <c r="E12" t="n">
-        <v>1449622</v>
+        <v>1394554</v>
       </c>
       <c r="F12" t="n">
-        <v>48.79694509270533</v>
+        <v>661.053921458471</v>
       </c>
       <c r="G12" t="n">
-        <v>519.276049563216</v>
+        <v>136.2297112533577</v>
       </c>
       <c r="H12" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="I12" t="n">
-        <v>692039</v>
+        <v>670652</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1775208</v>
+        <v>1666286</v>
       </c>
       <c r="F13" t="n">
-        <v>15693.3730944529</v>
+        <v>143.6356844883217</v>
       </c>
       <c r="G13" t="n">
-        <v>3837.712857437233</v>
+        <v>225.4780097913126</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>1140286</v>
+        <v>1224033</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11830458</v>
+        <v>11854292</v>
       </c>
       <c r="E14" t="n">
-        <v>29443871</v>
+        <v>29503189</v>
       </c>
       <c r="F14" t="n">
-        <v>793.1784189212621</v>
+        <v>927.6576754821226</v>
       </c>
       <c r="G14" t="n">
-        <v>798.5256357420077</v>
+        <v>1705.905841059513</v>
       </c>
       <c r="H14" t="n">
-        <v>0.27</v>
+        <v>0.64</v>
       </c>
       <c r="I14" t="n">
-        <v>1516041</v>
+        <v>1532778</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>107859319</v>
+        <v>107526484</v>
       </c>
       <c r="E15" t="n">
-        <v>419315932</v>
+        <v>417997839</v>
       </c>
       <c r="F15" t="n">
-        <v>4930.249877730255</v>
+        <v>4649.205020561152</v>
       </c>
       <c r="G15" t="n">
-        <v>6844.068853713771</v>
+        <v>3867.376575281316</v>
       </c>
       <c r="H15" t="n">
-        <v>0.34</v>
+        <v>0.6</v>
       </c>
       <c r="I15" t="n">
-        <v>12044149</v>
+        <v>12349444</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4768213</v>
+        <v>4797946</v>
       </c>
       <c r="E16" t="n">
-        <v>7019067</v>
+        <v>7062836</v>
       </c>
       <c r="F16" t="n">
-        <v>158.1518264661309</v>
+        <v>616.9203212214441</v>
       </c>
       <c r="G16" t="n">
-        <v>592.4069052746128</v>
+        <v>636.6321440583638</v>
       </c>
       <c r="H16" t="n">
-        <v>1.27</v>
+        <v>0.99</v>
       </c>
       <c r="I16" t="n">
-        <v>551141</v>
+        <v>561425</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>430229</v>
+        <v>424855</v>
       </c>
       <c r="E17" t="n">
-        <v>1779584</v>
+        <v>1757353</v>
       </c>
       <c r="F17" t="n">
-        <v>362.0899836157089</v>
+        <v>5.836402962404428</v>
       </c>
       <c r="G17" t="n">
-        <v>76.9495455344007</v>
+        <v>831.5398011272679</v>
       </c>
       <c r="H17" t="n">
-        <v>1.84</v>
+        <v>0.45</v>
       </c>
       <c r="I17" t="n">
-        <v>111186</v>
+        <v>112145</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>138550013</v>
+        <v>137091387</v>
       </c>
       <c r="E18" t="n">
-        <v>138550013</v>
+        <v>137091387</v>
       </c>
       <c r="F18" t="n">
-        <v>89548.63256118404</v>
+        <v>90339.64293927392</v>
       </c>
       <c r="G18" t="n">
-        <v>53118.9254493434</v>
+        <v>79425.99968498113</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>91983442</v>
+        <v>94640024</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63995135</v>
+        <v>63363251</v>
       </c>
       <c r="E19" t="n">
-        <v>328180181</v>
+        <v>324939751</v>
       </c>
       <c r="F19" t="n">
-        <v>12799.77064265786</v>
+        <v>10227.64238792386</v>
       </c>
       <c r="G19" t="n">
-        <v>4870.410949949762</v>
+        <v>5266.386949311788</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>27277439</v>
+        <v>27431214</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251120335</v>
+        <v>249090612</v>
       </c>
       <c r="E20" t="n">
-        <v>251120335</v>
+        <v>249090612</v>
       </c>
       <c r="F20" t="n">
-        <v>79161.45272449152</v>
+        <v>82547.8368095357</v>
       </c>
       <c r="G20" t="n">
-        <v>40950.1269556143</v>
+        <v>31680.05382351041</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>29644934</v>
+        <v>25693608</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>161619051</v>
+        <v>162972579</v>
       </c>
       <c r="E21" t="n">
-        <v>212671769</v>
+        <v>214452853</v>
       </c>
       <c r="F21" t="n">
-        <v>10565.4861243391</v>
+        <v>6220.434785973865</v>
       </c>
       <c r="G21" t="n">
-        <v>6907.331124949911</v>
+        <v>10837.01343055597</v>
       </c>
       <c r="H21" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="I21" t="n">
-        <v>16852849</v>
+        <v>17424849</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81654224</v>
+        <v>81515555</v>
       </c>
       <c r="E22" t="n">
-        <v>228441594</v>
+        <v>228039726</v>
       </c>
       <c r="F22" t="n">
-        <v>27989.76346217574</v>
+        <v>28773.48697701432</v>
       </c>
       <c r="G22" t="n">
-        <v>21540.83496112798</v>
+        <v>23386.89561118503</v>
       </c>
       <c r="H22" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I22" t="n">
-        <v>58884002</v>
+        <v>53668647</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83483591</v>
+        <v>83367188</v>
       </c>
       <c r="E23" t="n">
-        <v>174056583</v>
+        <v>173813891</v>
       </c>
       <c r="F23" t="n">
-        <v>18087.6380374479</v>
+        <v>18334.97674358548</v>
       </c>
       <c r="G23" t="n">
-        <v>20650.20286945815</v>
+        <v>16965.85247113551</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I23" t="n">
-        <v>69268427</v>
+        <v>70176925</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>640039556</v>
+        <v>639633202</v>
       </c>
       <c r="E24" t="n">
-        <v>640039556</v>
+        <v>639633202</v>
       </c>
       <c r="F24" t="n">
-        <v>122059.8537963569</v>
+        <v>123661.1038730228</v>
       </c>
       <c r="G24" t="n">
-        <v>96685.26164355778</v>
+        <v>84603.38440001596</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>529078886</v>
+        <v>549454375</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>196452022</v>
+        <v>194781492</v>
       </c>
       <c r="E25" t="n">
-        <v>682492079</v>
+        <v>676688507</v>
       </c>
       <c r="F25" t="n">
-        <v>64206.72135930732</v>
+        <v>57999.81342613371</v>
       </c>
       <c r="G25" t="n">
-        <v>99429.16180316549</v>
+        <v>98451.72701322685</v>
       </c>
       <c r="H25" t="n">
         <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>44508733</v>
+        <v>40679004</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5671672</v>
+        <v>5480825</v>
       </c>
       <c r="E26" t="n">
-        <v>7697307</v>
+        <v>7438196</v>
       </c>
       <c r="F26" t="n">
-        <v>532.8878849538385</v>
+        <v>424.29288500547</v>
       </c>
       <c r="G26" t="n">
-        <v>2481.137563177571</v>
+        <v>266.8397942993957</v>
       </c>
       <c r="H26" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5129581</v>
+        <v>5324586</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14355897</v>
+        <v>14236732</v>
       </c>
       <c r="F27" t="n">
-        <v>2891.324250732974</v>
+        <v>2319.647449947094</v>
       </c>
       <c r="G27" t="n">
-        <v>1882.092479690567</v>
+        <v>2766.737402463363</v>
       </c>
       <c r="H27" t="n">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="I27" t="n">
-        <v>223433</v>
+        <v>220748</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24628976</v>
+        <v>24692438</v>
       </c>
       <c r="E28" t="n">
-        <v>34804714</v>
+        <v>34894396</v>
       </c>
       <c r="F28" t="n">
-        <v>204.2682622619714</v>
+        <v>669.1761535840394</v>
       </c>
       <c r="G28" t="n">
-        <v>2774.315874581617</v>
+        <v>1176.098055956792</v>
       </c>
       <c r="H28" t="n">
-        <v>0.92</v>
+        <v>0.39</v>
       </c>
       <c r="I28" t="n">
-        <v>117940</v>
+        <v>139702</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>258233724</v>
+        <v>258223292</v>
       </c>
       <c r="E29" t="n">
-        <v>1114680107</v>
+        <v>1114635077</v>
       </c>
       <c r="F29" t="n">
-        <v>94933.03652648258</v>
+        <v>90221.79070341794</v>
       </c>
       <c r="G29" t="n">
-        <v>147018.7941642592</v>
+        <v>116737.705304647</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>138209021</v>
+        <v>142564726</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9902322</v>
+        <v>10290611</v>
       </c>
       <c r="E30" t="n">
-        <v>119226393</v>
+        <v>123892526</v>
       </c>
       <c r="F30" t="n">
-        <v>1714.498523017443</v>
+        <v>1048.772762336241</v>
       </c>
       <c r="G30" t="n">
-        <v>1028.152534935381</v>
+        <v>333.1392791545276</v>
       </c>
       <c r="H30" t="n">
-        <v>0.99</v>
+        <v>1.28</v>
       </c>
       <c r="I30" t="n">
-        <v>522339</v>
+        <v>587165</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15736754</v>
+        <v>15638488</v>
       </c>
       <c r="E31" t="n">
-        <v>39341885</v>
+        <v>39096220</v>
       </c>
       <c r="F31" t="n">
-        <v>5824.39291981965</v>
+        <v>6014.689845111563</v>
       </c>
       <c r="G31" t="n">
-        <v>5277.343264438587</v>
+        <v>4953.595400450112</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4660727</v>
+        <v>4806859</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19496859</v>
+        <v>19490020</v>
       </c>
       <c r="F32" t="n">
-        <v>4005.913089315193</v>
+        <v>2462.841971602706</v>
       </c>
       <c r="G32" t="n">
-        <v>1681.707741504036</v>
+        <v>2651.883611840285</v>
       </c>
       <c r="H32" t="n">
-        <v>0.46</v>
+        <v>0.76</v>
       </c>
       <c r="I32" t="n">
-        <v>70577</v>
+        <v>52938</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1545607</v>
+        <v>1554984</v>
       </c>
       <c r="E33" t="n">
-        <v>5761974</v>
+        <v>5796934</v>
       </c>
       <c r="F33" t="n">
-        <v>499.3513906972422</v>
+        <v>8301.879191293503</v>
       </c>
       <c r="G33" t="n">
-        <v>4188.914026066168</v>
+        <v>268.1008384976274</v>
       </c>
       <c r="H33" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="I33" t="n">
-        <v>655239</v>
+        <v>686534</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4179716</v>
+        <v>4161253</v>
       </c>
       <c r="E34" t="n">
-        <v>12038959</v>
+        <v>11985778</v>
       </c>
       <c r="F34" t="n">
-        <v>2930.254241847926</v>
+        <v>85.01510458085372</v>
       </c>
       <c r="G34" t="n">
-        <v>3724.111642360198</v>
+        <v>42.04826462955054</v>
       </c>
       <c r="H34" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="I34" t="n">
-        <v>504779</v>
+        <v>493947</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13921950</v>
+        <v>14132735</v>
       </c>
       <c r="E35" t="n">
-        <v>67426228</v>
+        <v>68447090</v>
       </c>
       <c r="F35" t="n">
-        <v>2869.800258726003</v>
+        <v>5296.566263212</v>
       </c>
       <c r="G35" t="n">
-        <v>1476.860945688105</v>
+        <v>1418.640556924739</v>
       </c>
       <c r="H35" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="I35" t="n">
-        <v>5238757</v>
+        <v>5435210</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1265706</v>
+        <v>1247456</v>
       </c>
       <c r="E36" t="n">
-        <v>8284009</v>
+        <v>8164567</v>
       </c>
       <c r="F36" t="n">
-        <v>799.0989098072912</v>
+        <v>415.8149694819577</v>
       </c>
       <c r="G36" t="n">
-        <v>346.8099678012834</v>
+        <v>123.8172075724137</v>
       </c>
       <c r="H36" t="n">
-        <v>0.72</v>
+        <v>0.24</v>
       </c>
       <c r="I36" t="n">
-        <v>466467</v>
+        <v>394316</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1845519959</v>
+        <v>1835743288</v>
       </c>
       <c r="F37" t="n">
-        <v>70660.85040992789</v>
+        <v>78896.82826200934</v>
       </c>
       <c r="G37" t="n">
-        <v>77556.23919442364</v>
+        <v>69224.6546770096</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="I37" t="n">
-        <v>30112482</v>
+        <v>30572133</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1827661</v>
+        <v>1834704</v>
       </c>
       <c r="E38" t="n">
-        <v>13105976</v>
+        <v>13156480</v>
       </c>
       <c r="F38" t="n">
-        <v>107.8103402488274</v>
+        <v>57.49143543883085</v>
       </c>
       <c r="G38" t="n">
-        <v>125.6710519294136</v>
+        <v>183.0250430531471</v>
       </c>
       <c r="H38" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="I38" t="n">
-        <v>2032718</v>
+        <v>2041698</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>190422773</v>
+        <v>190925384</v>
       </c>
       <c r="E39" t="n">
-        <v>1078290743</v>
+        <v>1081136838</v>
       </c>
       <c r="F39" t="n">
-        <v>55883.97965333094</v>
+        <v>39778.51613007591</v>
       </c>
       <c r="G39" t="n">
-        <v>48170.54351413524</v>
+        <v>60654.18255784448</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>83661302</v>
+        <v>85717093</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>122487304</v>
+        <v>123906829</v>
       </c>
       <c r="E40" t="n">
-        <v>907313360</v>
+        <v>917828366</v>
       </c>
       <c r="F40" t="n">
-        <v>13852.80160716552</v>
+        <v>19040.89311955049</v>
       </c>
       <c r="G40" t="n">
-        <v>7515.396857388036</v>
+        <v>6544.0837383361</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I40" t="n">
-        <v>25298982</v>
+        <v>26248280</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>320533673</v>
+        <v>321245967</v>
       </c>
       <c r="E41" t="n">
-        <v>2883719677</v>
+        <v>2890127914</v>
       </c>
       <c r="F41" t="n">
-        <v>75802.97324579749</v>
+        <v>67221.03742581245</v>
       </c>
       <c r="G41" t="n">
-        <v>76362.50252103055</v>
+        <v>63973.74288718917</v>
       </c>
       <c r="H41" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I41" t="n">
-        <v>62881802</v>
+        <v>66007177</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1534048</v>
+        <v>1532570</v>
       </c>
       <c r="E42" t="n">
-        <v>12783733</v>
+        <v>12771420</v>
       </c>
       <c r="F42" t="n">
-        <v>2570.577500514883</v>
+        <v>466.6901485027063</v>
       </c>
       <c r="G42" t="n">
-        <v>2562.261193924376</v>
+        <v>2312.972925697926</v>
       </c>
       <c r="H42" t="n">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="I42" t="n">
-        <v>29517</v>
+        <v>30196</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19244560</v>
+        <v>19426458</v>
       </c>
       <c r="E43" t="n">
-        <v>57699105</v>
+        <v>58242350</v>
       </c>
       <c r="F43" t="n">
-        <v>1660.167422940334</v>
+        <v>1274.421065098373</v>
       </c>
       <c r="G43" t="n">
-        <v>2190.717207562452</v>
+        <v>963.3328948687389</v>
       </c>
       <c r="H43" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="I43" t="n">
-        <v>4388546</v>
+        <v>4376626</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9616479</v>
+        <v>9620089</v>
       </c>
       <c r="F44" t="n">
-        <v>7748.598362677339</v>
+        <v>1901.458165745326</v>
       </c>
       <c r="G44" t="n">
-        <v>7060.538424989756</v>
+        <v>1323.99656775728</v>
       </c>
       <c r="H44" t="n">
         <v>0.41</v>
       </c>
       <c r="I44" t="n">
-        <v>109509</v>
+        <v>109671</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12419090</v>
+        <v>12568229</v>
       </c>
       <c r="E45" t="n">
-        <v>12419090</v>
+        <v>12568229</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5174894559101346</v>
+        <v>255.2602714363494</v>
       </c>
       <c r="G45" t="n">
-        <v>1218.224723747947</v>
+        <v>1200.535655329245</v>
       </c>
       <c r="H45" t="n">
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="I45" t="n">
-        <v>3639731</v>
+        <v>3440506</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>286526711</v>
+        <v>288262023</v>
       </c>
       <c r="E46" t="n">
-        <v>286526711</v>
+        <v>288262023</v>
       </c>
       <c r="F46" t="n">
-        <v>8550.943727186284</v>
+        <v>9907.413838056642</v>
       </c>
       <c r="G46" t="n">
-        <v>17529.63677356856</v>
+        <v>16519.13894259755</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="I46" t="n">
-        <v>19568695</v>
+        <v>19699903</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12555276</v>
+        <v>12600975</v>
       </c>
       <c r="E47" t="n">
-        <v>39710909</v>
+        <v>39855453</v>
       </c>
       <c r="F47" t="n">
-        <v>6209.363514606124</v>
+        <v>6241.555296308679</v>
       </c>
       <c r="G47" t="n">
-        <v>2969.496070564671</v>
+        <v>2891.029731930911</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>1012000</v>
+        <v>1024430</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31276158</v>
+        <v>31185360</v>
       </c>
       <c r="E48" t="n">
-        <v>86631853</v>
+        <v>86380352</v>
       </c>
       <c r="F48" t="n">
-        <v>4770.679655969983</v>
+        <v>4647.904353312995</v>
       </c>
       <c r="G48" t="n">
-        <v>1624.105849766338</v>
+        <v>1937.638354406951</v>
       </c>
       <c r="H48" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="I48" t="n">
-        <v>12391789</v>
+        <v>12490276</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27069459</v>
+        <v>27217456</v>
       </c>
       <c r="E49" t="n">
-        <v>64213776</v>
+        <v>64564852</v>
       </c>
       <c r="F49" t="n">
-        <v>9059.531572409882</v>
+        <v>7587.588706502363</v>
       </c>
       <c r="G49" t="n">
-        <v>2199.553979674217</v>
+        <v>8404.135172436681</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>652491</v>
+        <v>632975</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12387979</v>
+        <v>12397560</v>
       </c>
       <c r="E50" t="n">
-        <v>18857298</v>
+        <v>18871882</v>
       </c>
       <c r="F50" t="n">
-        <v>5968.875587395668</v>
+        <v>13788.83335468703</v>
       </c>
       <c r="G50" t="n">
-        <v>3734.640919271208</v>
+        <v>18319.92987857581</v>
       </c>
       <c r="H50" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="I50" t="n">
-        <v>655281</v>
+        <v>664548</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>288734142</v>
+        <v>286784523</v>
       </c>
       <c r="E51" t="n">
-        <v>288734142</v>
+        <v>286784523</v>
       </c>
       <c r="F51" t="n">
-        <v>34045.04144557645</v>
+        <v>30757.85927233022</v>
       </c>
       <c r="G51" t="n">
-        <v>60768.66899160041</v>
+        <v>49145.93198746388</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>88624181</v>
+        <v>92424216</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84605856</v>
+        <v>83996684</v>
       </c>
       <c r="E52" t="n">
-        <v>487535435</v>
+        <v>484025125</v>
       </c>
       <c r="F52" t="n">
-        <v>7076.341930138999</v>
+        <v>6316.081301680995</v>
       </c>
       <c r="G52" t="n">
-        <v>3981.568105927854</v>
+        <v>4903.777979123399</v>
       </c>
       <c r="H52" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>21069128</v>
+        <v>21494380</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>28900450</v>
+        <v>28719746</v>
       </c>
       <c r="E53" t="n">
-        <v>129399171</v>
+        <v>128590084</v>
       </c>
       <c r="F53" t="n">
-        <v>8940.987578811084</v>
+        <v>13088.99064683212</v>
       </c>
       <c r="G53" t="n">
-        <v>13325.89069707444</v>
+        <v>9306.028253856237</v>
       </c>
       <c r="H53" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>13597581</v>
+        <v>14150188</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8265145</v>
+        <v>8133512</v>
       </c>
       <c r="F54" t="n">
-        <v>4800.105370129086</v>
+        <v>4826.992679393075</v>
       </c>
       <c r="G54" t="n">
-        <v>4521.964970463708</v>
+        <v>3694.052242331941</v>
       </c>
       <c r="H54" t="n">
         <v>0.38</v>
       </c>
       <c r="I54" t="n">
-        <v>316839</v>
+        <v>311764</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4464291</v>
+        <v>4473037</v>
       </c>
       <c r="F55" t="n">
-        <v>2704.031070532371</v>
+        <v>2243.553531626891</v>
       </c>
       <c r="G55" t="n">
-        <v>936.2891679301949</v>
+        <v>903.1718449274704</v>
       </c>
       <c r="H55" t="n">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="I55" t="n">
-        <v>218516</v>
+        <v>221186</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123026500</v>
+        <v>123621473</v>
       </c>
       <c r="E56" t="n">
-        <v>2037419602</v>
+        <v>2047272841</v>
       </c>
       <c r="F56" t="n">
-        <v>21875.96797846551</v>
+        <v>24002.04628003479</v>
       </c>
       <c r="G56" t="n">
-        <v>25982.84132435475</v>
+        <v>24274.92865428296</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>33836605</v>
+        <v>35073536</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>93465867</v>
+        <v>92555456</v>
       </c>
       <c r="E57" t="n">
-        <v>94471960</v>
+        <v>93551749</v>
       </c>
       <c r="F57" t="n">
-        <v>20872.89064542846</v>
+        <v>13917.38552034797</v>
       </c>
       <c r="G57" t="n">
-        <v>8172.642880498663</v>
+        <v>23639.6344271094</v>
       </c>
       <c r="H57" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I57" t="n">
-        <v>78737033</v>
+        <v>82051612</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>238030568</v>
+        <v>239652086</v>
       </c>
       <c r="E58" t="n">
-        <v>238030568</v>
+        <v>239652086</v>
       </c>
       <c r="F58" t="n">
-        <v>67422.38678100299</v>
+        <v>54218.09856916632</v>
       </c>
       <c r="G58" t="n">
-        <v>73453.59397832182</v>
+        <v>59795.6747599317</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>87833487</v>
+        <v>91407007</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23116096</v>
+        <v>22781121</v>
       </c>
       <c r="E59" t="n">
-        <v>138308247</v>
+        <v>136304027</v>
       </c>
       <c r="F59" t="n">
-        <v>22878.62088907272</v>
+        <v>19165.48458376077</v>
       </c>
       <c r="G59" t="n">
-        <v>25332.80257870236</v>
+        <v>25927.7907307737</v>
       </c>
       <c r="H59" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I59" t="n">
-        <v>16763812</v>
+        <v>17891889</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2914554</v>
+        <v>2716424</v>
       </c>
       <c r="E60" t="n">
-        <v>5378976</v>
+        <v>5013315</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>7.271491503699388</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1189.346447156102</v>
       </c>
       <c r="H60" t="n">
-        <v>7.96</v>
+        <v>3.47</v>
       </c>
       <c r="I60" t="n">
-        <v>328564</v>
+        <v>386729</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8731388</v>
+        <v>8987146</v>
       </c>
       <c r="E62" t="n">
-        <v>25884534</v>
+        <v>26642738</v>
       </c>
       <c r="F62" t="n">
-        <v>4833.645575611553</v>
+        <v>4708.700224666648</v>
       </c>
       <c r="G62" t="n">
-        <v>1619.915976051381</v>
+        <v>3985.983239425805</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="I62" t="n">
-        <v>6260883</v>
+        <v>6037524</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14668366</v>
+        <v>14708600</v>
       </c>
       <c r="E63" t="n">
-        <v>29695212</v>
+        <v>29776663</v>
       </c>
       <c r="F63" t="n">
-        <v>8108.911128525498</v>
+        <v>6009.344935674034</v>
       </c>
       <c r="G63" t="n">
-        <v>9882.288361646539</v>
+        <v>19634.7917156863</v>
       </c>
       <c r="H63" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>571276</v>
+        <v>573809</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>31779821</v>
+        <v>33074038</v>
       </c>
       <c r="E64" t="n">
-        <v>225313747</v>
+        <v>234489535</v>
       </c>
       <c r="F64" t="n">
-        <v>36207.62750997042</v>
+        <v>39135.05380604347</v>
       </c>
       <c r="G64" t="n">
-        <v>45755.44614740319</v>
+        <v>42139.18543967533</v>
       </c>
       <c r="H64" t="n">
         <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>5334312</v>
+        <v>6101400</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1278903</v>
+        <v>1274074</v>
       </c>
       <c r="E65" t="n">
-        <v>7930394</v>
+        <v>7899380</v>
       </c>
       <c r="F65" t="n">
-        <v>334.7351835441898</v>
+        <v>305.7259037824122</v>
       </c>
       <c r="G65" t="n">
-        <v>215.8173876198107</v>
+        <v>206.5487908875983</v>
       </c>
       <c r="H65" t="n">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
       <c r="I65" t="n">
-        <v>787735</v>
+        <v>780131</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>575430895</v>
+        <v>576484279</v>
       </c>
       <c r="E66" t="n">
-        <v>2228558958</v>
+        <v>2232638558</v>
       </c>
       <c r="F66" t="n">
-        <v>71505.50554679378</v>
+        <v>46042.19413787375</v>
       </c>
       <c r="G66" t="n">
-        <v>57457.8740359743</v>
+        <v>44751.99071679437</v>
       </c>
       <c r="H66" t="n">
         <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>57310160</v>
+        <v>60109044</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5461929</v>
+        <v>5453241</v>
       </c>
       <c r="E67" t="n">
-        <v>24449907</v>
+        <v>24409979</v>
       </c>
       <c r="F67" t="n">
-        <v>4144.866746674801</v>
+        <v>4055.869806635717</v>
       </c>
       <c r="G67" t="n">
-        <v>19686.78086370428</v>
+        <v>19465.65783382322</v>
       </c>
       <c r="H67" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>190443</v>
+        <v>194093</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>106115473</v>
+        <v>107909075</v>
       </c>
       <c r="E68" t="n">
-        <v>1004617801</v>
+        <v>1021598205</v>
       </c>
       <c r="F68" t="n">
-        <v>11442.51171479155</v>
+        <v>7566.280751123842</v>
       </c>
       <c r="G68" t="n">
-        <v>9842.495296464451</v>
+        <v>8336.742192653139</v>
       </c>
       <c r="H68" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I68" t="n">
-        <v>17353855</v>
+        <v>16076892</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>95847114</v>
+        <v>96530665</v>
       </c>
       <c r="E69" t="n">
-        <v>146217020</v>
+        <v>147259792</v>
       </c>
       <c r="F69" t="n">
-        <v>11498.90182239542</v>
+        <v>11957.21663608704</v>
       </c>
       <c r="G69" t="n">
-        <v>16722.60429699139</v>
+        <v>17496.90581776928</v>
       </c>
       <c r="H69" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="I69" t="n">
-        <v>12486212</v>
+        <v>12882827</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1088915</v>
+        <v>1085600</v>
       </c>
       <c r="E70" t="n">
-        <v>4216515</v>
+        <v>4203680</v>
       </c>
       <c r="F70" t="n">
-        <v>2551.094115146996</v>
+        <v>3093.43396482683</v>
       </c>
       <c r="G70" t="n">
-        <v>2137.792961648452</v>
+        <v>2069.752412570252</v>
       </c>
       <c r="H70" t="n">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="I70" t="n">
-        <v>315033</v>
+        <v>316218</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>121421183</v>
+        <v>119777990</v>
       </c>
       <c r="E71" t="n">
-        <v>465791202</v>
+        <v>459487650</v>
       </c>
       <c r="F71" t="n">
-        <v>15813.80245931717</v>
+        <v>14691.68862725525</v>
       </c>
       <c r="G71" t="n">
-        <v>11251.80385169742</v>
+        <v>12438.79624990498</v>
       </c>
       <c r="H71" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>39706889</v>
+        <v>39579416</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2970633</v>
+        <v>2995785</v>
       </c>
       <c r="E72" t="n">
-        <v>28147190</v>
+        <v>28385504</v>
       </c>
       <c r="F72" t="n">
-        <v>201.0075510199947</v>
+        <v>165.6712210681912</v>
       </c>
       <c r="G72" t="n">
-        <v>634.8440657624864</v>
+        <v>99.43641977173058</v>
       </c>
       <c r="H72" t="n">
-        <v>0.49</v>
+        <v>1.12</v>
       </c>
       <c r="I72" t="n">
-        <v>245414</v>
+        <v>253649</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35334118</v>
+        <v>35710177</v>
       </c>
       <c r="F73" t="n">
-        <v>3463.336730563142</v>
+        <v>3040.922810588437</v>
       </c>
       <c r="G73" t="n">
-        <v>3588.015956538276</v>
+        <v>2700.483479271494</v>
       </c>
       <c r="H73" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="I73" t="n">
-        <v>7598815</v>
+        <v>7899471</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87860654</v>
+        <v>88941865</v>
       </c>
       <c r="E74" t="n">
-        <v>324771139</v>
+        <v>328766581</v>
       </c>
       <c r="F74" t="n">
-        <v>43.27984641789193</v>
+        <v>199.9260857436991</v>
       </c>
       <c r="G74" t="n">
-        <v>789.4570807466615</v>
+        <v>331.2330486825421</v>
       </c>
       <c r="H74" t="n">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="I74" t="n">
-        <v>205862</v>
+        <v>249865</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21343954</v>
+        <v>21485682</v>
       </c>
       <c r="E75" t="n">
-        <v>21343954</v>
+        <v>21485682</v>
       </c>
       <c r="F75" t="n">
-        <v>5159.4328898931</v>
+        <v>4047.448970020416</v>
       </c>
       <c r="G75" t="n">
-        <v>1299.010173953906</v>
+        <v>834.2175848140469</v>
       </c>
       <c r="H75" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="I75" t="n">
-        <v>5432801</v>
+        <v>5881180</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>471559919</v>
+        <v>466136834</v>
       </c>
       <c r="E76" t="n">
-        <v>1641460834</v>
+        <v>1622583526</v>
       </c>
       <c r="F76" t="n">
-        <v>21276.59157363633</v>
+        <v>23863.23761022386</v>
       </c>
       <c r="G76" t="n">
-        <v>40317.888377638</v>
+        <v>29789.71545180829</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>46524060</v>
+        <v>46775837</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5546519940</v>
+        <v>5516920936</v>
       </c>
       <c r="E77" t="n">
-        <v>5546519669</v>
+        <v>5516920936</v>
       </c>
       <c r="F77" t="n">
-        <v>3417.496187328115</v>
+        <v>1074.972506266928</v>
       </c>
       <c r="G77" t="n">
-        <v>1175.552414898805</v>
+        <v>1178.426675427358</v>
       </c>
       <c r="H77" t="n">
         <v>2.12</v>
       </c>
       <c r="I77" t="n">
-        <v>34938261</v>
+        <v>35594630</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7132871</v>
+        <v>7224066</v>
       </c>
       <c r="E78" t="n">
-        <v>18530431</v>
+        <v>18767348</v>
       </c>
       <c r="F78" t="n">
-        <v>43.07022516363484</v>
+        <v>40.53550478751445</v>
       </c>
       <c r="G78" t="n">
-        <v>407.1746021192723</v>
+        <v>161.9346414557924</v>
       </c>
       <c r="H78" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="I78" t="n">
-        <v>754550</v>
+        <v>764877</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>105712195</v>
+        <v>106713613</v>
       </c>
       <c r="E79" t="n">
-        <v>160166189</v>
+        <v>161683453</v>
       </c>
       <c r="F79" t="n">
-        <v>37266.44203108682</v>
+        <v>40606.88331755605</v>
       </c>
       <c r="G79" t="n">
-        <v>45665.21036712251</v>
+        <v>40112.53703932472</v>
       </c>
       <c r="H79" t="n">
         <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>9796289</v>
+        <v>10002215</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2381853</v>
+        <v>2355947</v>
       </c>
       <c r="E80" t="n">
-        <v>9527410</v>
+        <v>9423787</v>
       </c>
       <c r="F80" t="n">
-        <v>556.2581951626756</v>
+        <v>814.3396421668004</v>
       </c>
       <c r="G80" t="n">
-        <v>1261.032059722701</v>
+        <v>1714.772931905562</v>
       </c>
       <c r="H80" t="n">
-        <v>0.84</v>
+        <v>0.43</v>
       </c>
       <c r="I80" t="n">
-        <v>7473843</v>
+        <v>7497350</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2345592</v>
+        <v>2315383</v>
       </c>
       <c r="F81" t="n">
-        <v>104.348406829252</v>
+        <v>412.4085991925867</v>
       </c>
       <c r="G81" t="n">
-        <v>677.6165631712632</v>
+        <v>107.2121747160729</v>
       </c>
       <c r="H81" t="n">
-        <v>1.13</v>
+        <v>1.7</v>
       </c>
       <c r="I81" t="n">
-        <v>182966</v>
+        <v>179161</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>380854485</v>
+        <v>380177802</v>
       </c>
       <c r="E82" t="n">
-        <v>2176311343</v>
+        <v>2172444583</v>
       </c>
       <c r="F82" t="n">
-        <v>38162.21339257985</v>
+        <v>38980.2005767255</v>
       </c>
       <c r="G82" t="n">
-        <v>35976.40812028892</v>
+        <v>31442.3055437255</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>57675989</v>
+        <v>60112962</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3857050</v>
+        <v>3853386</v>
       </c>
       <c r="F2" t="n">
-        <v>280.1340403105807</v>
+        <v>224.0801188895126</v>
       </c>
       <c r="G2" t="n">
-        <v>542.4313463703295</v>
+        <v>476.7360654357829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I2" t="n">
-        <v>142754</v>
+        <v>143192</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1477506</v>
+        <v>1444736</v>
       </c>
       <c r="E3" t="n">
-        <v>4775907</v>
+        <v>4669981</v>
       </c>
       <c r="F3" t="n">
-        <v>1354.719423076704</v>
+        <v>403.6751187075284</v>
       </c>
       <c r="G3" t="n">
-        <v>648.6547174538158</v>
+        <v>468.3085901581106</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>222189</v>
+        <v>184582</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>242443299</v>
+        <v>243311812</v>
       </c>
       <c r="E4" t="n">
-        <v>1520327852</v>
+        <v>1525774175</v>
       </c>
       <c r="F4" t="n">
-        <v>12709.45906521194</v>
+        <v>15953.19483565138</v>
       </c>
       <c r="G4" t="n">
-        <v>29295.02835242448</v>
+        <v>29986.43215748864</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>25396749</v>
+        <v>26200983</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139469578</v>
+        <v>138663937</v>
       </c>
       <c r="E5" t="n">
-        <v>154554089</v>
+        <v>153661313</v>
       </c>
       <c r="F5" t="n">
-        <v>26231.61577234272</v>
+        <v>22922.48850900931</v>
       </c>
       <c r="G5" t="n">
-        <v>22627.42811182261</v>
+        <v>23907.28200409016</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>52443511</v>
+        <v>52646571</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>116781739</v>
+        <v>115888314</v>
       </c>
       <c r="E6" t="n">
-        <v>457749450</v>
+        <v>454247491</v>
       </c>
       <c r="F6" t="n">
-        <v>10536.90925275698</v>
+        <v>9869.815744781572</v>
       </c>
       <c r="G6" t="n">
-        <v>10254.31265801776</v>
+        <v>10578.12394609786</v>
       </c>
       <c r="H6" t="n">
         <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>27681380</v>
+        <v>27313944</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4266583</v>
+        <v>4258990</v>
       </c>
       <c r="E7" t="n">
-        <v>26198848</v>
+        <v>26149584</v>
       </c>
       <c r="F7" t="n">
-        <v>559.3760109338118</v>
+        <v>593.8146461527898</v>
       </c>
       <c r="G7" t="n">
-        <v>1586.263360436511</v>
+        <v>1515.167023611721</v>
       </c>
       <c r="H7" t="n">
         <v>0.15</v>
       </c>
       <c r="I7" t="n">
-        <v>650743</v>
+        <v>622922</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>196945</v>
+        <v>196123</v>
       </c>
       <c r="E8" t="n">
-        <v>2166610</v>
+        <v>2157568</v>
       </c>
       <c r="F8" t="n">
-        <v>2269.697051784345</v>
+        <v>3098.862932330012</v>
       </c>
       <c r="G8" t="n">
-        <v>4696.033153122491</v>
+        <v>4633.928466335018</v>
       </c>
       <c r="H8" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="I8" t="n">
-        <v>36039</v>
+        <v>36206</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69039469</v>
+        <v>68658195</v>
       </c>
       <c r="E9" t="n">
-        <v>119522560</v>
+        <v>118859652</v>
       </c>
       <c r="F9" t="n">
-        <v>1083.194897274629</v>
+        <v>1312.551326432651</v>
       </c>
       <c r="G9" t="n">
-        <v>2562.851761133084</v>
+        <v>2358.201773190971</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>803067</v>
+        <v>838868</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8759410</v>
+        <v>8770724</v>
       </c>
       <c r="E10" t="n">
-        <v>12398294</v>
+        <v>12414308</v>
       </c>
       <c r="F10" t="n">
-        <v>2606.461621987623</v>
+        <v>2908.389296478445</v>
       </c>
       <c r="G10" t="n">
-        <v>3224.460967783478</v>
+        <v>3183.893311739559</v>
       </c>
       <c r="H10" t="n">
-        <v>0.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>43776</v>
+        <v>42401</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>492400755</v>
+        <v>492986745</v>
       </c>
       <c r="E11" t="n">
-        <v>492400755</v>
+        <v>492986745</v>
       </c>
       <c r="F11" t="n">
-        <v>25869.04683104752</v>
+        <v>15311.02559880056</v>
       </c>
       <c r="G11" t="n">
-        <v>251596.2471837452</v>
+        <v>29647.01868786616</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>76395233</v>
+        <v>75780621</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>298741</v>
+        <v>297703</v>
       </c>
       <c r="E12" t="n">
-        <v>1394554</v>
+        <v>1389710</v>
       </c>
       <c r="F12" t="n">
-        <v>661.053921458471</v>
+        <v>639.1961200484056</v>
       </c>
       <c r="G12" t="n">
-        <v>136.2297112533577</v>
+        <v>293.3462256173342</v>
       </c>
       <c r="H12" t="n">
-        <v>1.26</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>670652</v>
+        <v>674292</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1666286</v>
+        <v>1821530</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6356844883217</v>
+        <v>58.10862807550718</v>
       </c>
       <c r="G13" t="n">
-        <v>225.4780097913126</v>
+        <v>11765.97916343747</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>1.03</v>
       </c>
       <c r="I13" t="n">
-        <v>1224033</v>
+        <v>1293748</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11854292</v>
+        <v>11905584</v>
       </c>
       <c r="E14" t="n">
-        <v>29503189</v>
+        <v>29630845</v>
       </c>
       <c r="F14" t="n">
-        <v>927.6576754821226</v>
+        <v>816.055162531991</v>
       </c>
       <c r="G14" t="n">
-        <v>1705.905841059513</v>
+        <v>1822.184265477695</v>
       </c>
       <c r="H14" t="n">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="I14" t="n">
-        <v>1532778</v>
+        <v>1582844</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>107526484</v>
+        <v>106762491</v>
       </c>
       <c r="E15" t="n">
-        <v>417997839</v>
+        <v>415012616</v>
       </c>
       <c r="F15" t="n">
-        <v>4649.205020561152</v>
+        <v>2864.636855857716</v>
       </c>
       <c r="G15" t="n">
-        <v>3867.376575281316</v>
+        <v>3446.181012916613</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="I15" t="n">
-        <v>12349444</v>
+        <v>19500328</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4797946</v>
+        <v>4674918</v>
       </c>
       <c r="E16" t="n">
-        <v>7062836</v>
+        <v>6881732</v>
       </c>
       <c r="F16" t="n">
-        <v>616.9203212214441</v>
+        <v>585.1996501836632</v>
       </c>
       <c r="G16" t="n">
-        <v>636.6321440583638</v>
+        <v>1378.329171566401</v>
       </c>
       <c r="H16" t="n">
-        <v>0.99</v>
+        <v>1.46</v>
       </c>
       <c r="I16" t="n">
-        <v>561425</v>
+        <v>556078</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>424855</v>
+        <v>437942</v>
       </c>
       <c r="E17" t="n">
-        <v>1757353</v>
+        <v>1811487</v>
       </c>
       <c r="F17" t="n">
-        <v>5.836402962404428</v>
+        <v>752.8064122323358</v>
       </c>
       <c r="G17" t="n">
-        <v>831.5398011272679</v>
+        <v>577.1754400295684</v>
       </c>
       <c r="H17" t="n">
-        <v>0.45</v>
+        <v>1.48</v>
       </c>
       <c r="I17" t="n">
-        <v>112145</v>
+        <v>106276</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>137091387</v>
+        <v>136017377</v>
       </c>
       <c r="E18" t="n">
-        <v>137091387</v>
+        <v>136017377</v>
       </c>
       <c r="F18" t="n">
-        <v>90339.64293927392</v>
+        <v>69134.96922804738</v>
       </c>
       <c r="G18" t="n">
-        <v>79425.99968498113</v>
+        <v>100364.0416886608</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>94640024</v>
+        <v>91006230</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63363251</v>
+        <v>62754207</v>
       </c>
       <c r="E19" t="n">
-        <v>324939751</v>
+        <v>321816445</v>
       </c>
       <c r="F19" t="n">
-        <v>10227.64238792386</v>
+        <v>9628.232838879896</v>
       </c>
       <c r="G19" t="n">
-        <v>5266.386949311788</v>
+        <v>7277.962313668573</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>27431214</v>
+        <v>27288651</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>249090612</v>
+        <v>248024356</v>
       </c>
       <c r="E20" t="n">
-        <v>249090612</v>
+        <v>248024356</v>
       </c>
       <c r="F20" t="n">
-        <v>82547.8368095357</v>
+        <v>60011.83919891257</v>
       </c>
       <c r="G20" t="n">
-        <v>31680.05382351041</v>
+        <v>46562.16443117665</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I20" t="n">
-        <v>25693608</v>
+        <v>25875536</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>162972579</v>
+        <v>168352359</v>
       </c>
       <c r="E21" t="n">
-        <v>214452853</v>
+        <v>221532015</v>
       </c>
       <c r="F21" t="n">
-        <v>6220.434785973865</v>
+        <v>8401.196061813867</v>
       </c>
       <c r="G21" t="n">
-        <v>10837.01343055597</v>
+        <v>1849.712047359606</v>
       </c>
       <c r="H21" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
       <c r="I21" t="n">
-        <v>17424849</v>
+        <v>17928183</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81515555</v>
+        <v>80685874</v>
       </c>
       <c r="E22" t="n">
-        <v>228039726</v>
+        <v>225730974</v>
       </c>
       <c r="F22" t="n">
-        <v>28773.48697701432</v>
+        <v>31911.16381971632</v>
       </c>
       <c r="G22" t="n">
-        <v>23386.89561118503</v>
+        <v>18380.10283702096</v>
       </c>
       <c r="H22" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>53668647</v>
+        <v>54137435</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83367188</v>
+        <v>82313344</v>
       </c>
       <c r="E23" t="n">
-        <v>173813891</v>
+        <v>171616712</v>
       </c>
       <c r="F23" t="n">
-        <v>18334.97674358548</v>
+        <v>14839.25466175143</v>
       </c>
       <c r="G23" t="n">
-        <v>16965.85247113551</v>
+        <v>20475.36220676264</v>
       </c>
       <c r="H23" t="n">
         <v>0.13</v>
       </c>
       <c r="I23" t="n">
-        <v>70176925</v>
+        <v>70773735</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>639633202</v>
+        <v>636226104</v>
       </c>
       <c r="E24" t="n">
-        <v>639633202</v>
+        <v>636226104</v>
       </c>
       <c r="F24" t="n">
-        <v>123661.1038730228</v>
+        <v>120498.3174051498</v>
       </c>
       <c r="G24" t="n">
-        <v>84603.38440001596</v>
+        <v>89487.60883740897</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>549454375</v>
+        <v>548772372</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>194781492</v>
+        <v>193202141</v>
       </c>
       <c r="E25" t="n">
-        <v>676688507</v>
+        <v>671201698</v>
       </c>
       <c r="F25" t="n">
-        <v>57999.81342613371</v>
+        <v>61589.87601551082</v>
       </c>
       <c r="G25" t="n">
-        <v>98451.72701322685</v>
+        <v>98107.27698907668</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>40679004</v>
+        <v>40944599</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5480825</v>
+        <v>5630694</v>
       </c>
       <c r="E26" t="n">
-        <v>7438196</v>
+        <v>7641494</v>
       </c>
       <c r="F26" t="n">
-        <v>424.29288500547</v>
+        <v>600.8928289063995</v>
       </c>
       <c r="G26" t="n">
-        <v>266.8397942993957</v>
+        <v>2542.7160673925</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
       <c r="I26" t="n">
-        <v>5324586</v>
+        <v>5493183</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14236732</v>
+        <v>14252646</v>
       </c>
       <c r="F27" t="n">
-        <v>2319.647449947094</v>
+        <v>1672.402318559828</v>
       </c>
       <c r="G27" t="n">
-        <v>2766.737402463363</v>
+        <v>2995.272292779563</v>
       </c>
       <c r="H27" t="n">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
       <c r="I27" t="n">
-        <v>220748</v>
+        <v>222317</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24692438</v>
+        <v>24762291</v>
       </c>
       <c r="E28" t="n">
-        <v>34894396</v>
+        <v>34993109</v>
       </c>
       <c r="F28" t="n">
-        <v>669.1761535840394</v>
+        <v>690.449485538585</v>
       </c>
       <c r="G28" t="n">
-        <v>1176.098055956792</v>
+        <v>80.16668564614831</v>
       </c>
       <c r="H28" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="I28" t="n">
-        <v>139702</v>
+        <v>140695</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>258223292</v>
+        <v>256143234</v>
       </c>
       <c r="E29" t="n">
-        <v>1114635077</v>
+        <v>1105656394</v>
       </c>
       <c r="F29" t="n">
-        <v>90221.79070341794</v>
+        <v>76803.50060306235</v>
       </c>
       <c r="G29" t="n">
-        <v>116737.705304647</v>
+        <v>119035.126188846</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>142564726</v>
+        <v>141971458</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10290611</v>
+        <v>10283512</v>
       </c>
       <c r="E30" t="n">
-        <v>123892526</v>
+        <v>123807057</v>
       </c>
       <c r="F30" t="n">
-        <v>1048.772762336241</v>
+        <v>490.45716859038</v>
       </c>
       <c r="G30" t="n">
-        <v>333.1392791545276</v>
+        <v>590.6883402393674</v>
       </c>
       <c r="H30" t="n">
-        <v>1.28</v>
+        <v>0.98</v>
       </c>
       <c r="I30" t="n">
-        <v>587165</v>
+        <v>589804</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15638488</v>
+        <v>15589759</v>
       </c>
       <c r="E31" t="n">
-        <v>39096220</v>
+        <v>38974399</v>
       </c>
       <c r="F31" t="n">
-        <v>6014.689845111563</v>
+        <v>5394.388640979883</v>
       </c>
       <c r="G31" t="n">
-        <v>4953.595400450112</v>
+        <v>3731.520672742492</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I31" t="n">
-        <v>4806859</v>
+        <v>4883952</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19490020</v>
+        <v>19400923</v>
       </c>
       <c r="F32" t="n">
-        <v>2462.841971602706</v>
+        <v>2950.1304793674</v>
       </c>
       <c r="G32" t="n">
-        <v>2651.883611840285</v>
+        <v>3171.910244098689</v>
       </c>
       <c r="H32" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="I32" t="n">
-        <v>52938</v>
+        <v>67323</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1554984</v>
+        <v>1560245</v>
       </c>
       <c r="E33" t="n">
-        <v>5796934</v>
+        <v>5816522</v>
       </c>
       <c r="F33" t="n">
-        <v>8301.879191293503</v>
+        <v>492.402444192773</v>
       </c>
       <c r="G33" t="n">
-        <v>268.1008384976274</v>
+        <v>7156.00683869045</v>
       </c>
       <c r="H33" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="I33" t="n">
-        <v>686534</v>
+        <v>714125</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4161253</v>
+        <v>4154124</v>
       </c>
       <c r="E34" t="n">
-        <v>11985778</v>
+        <v>11965244</v>
       </c>
       <c r="F34" t="n">
-        <v>85.01510458085372</v>
+        <v>235.5418550156595</v>
       </c>
       <c r="G34" t="n">
-        <v>42.04826462955054</v>
+        <v>52.15898790898913</v>
       </c>
       <c r="H34" t="n">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
       <c r="I34" t="n">
-        <v>493947</v>
+        <v>491690</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14132735</v>
+        <v>13701332</v>
       </c>
       <c r="E35" t="n">
-        <v>68447090</v>
+        <v>66357736</v>
       </c>
       <c r="F35" t="n">
-        <v>5296.566263212</v>
+        <v>3784.416743410404</v>
       </c>
       <c r="G35" t="n">
-        <v>1418.640556924739</v>
+        <v>3004.954821549577</v>
       </c>
       <c r="H35" t="n">
-        <v>0.44</v>
+        <v>0.57</v>
       </c>
       <c r="I35" t="n">
-        <v>5435210</v>
+        <v>5538400</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1247456</v>
+        <v>1240451</v>
       </c>
       <c r="E36" t="n">
-        <v>8164567</v>
+        <v>8118717</v>
       </c>
       <c r="F36" t="n">
-        <v>415.8149694819577</v>
+        <v>268.5626640049986</v>
       </c>
       <c r="G36" t="n">
-        <v>123.8172075724137</v>
+        <v>505.8648281184383</v>
       </c>
       <c r="H36" t="n">
-        <v>0.24</v>
+        <v>0.74</v>
       </c>
       <c r="I36" t="n">
-        <v>394316</v>
+        <v>342731</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1835743288</v>
+        <v>1832354926</v>
       </c>
       <c r="F37" t="n">
-        <v>78896.82826200934</v>
+        <v>75956.61023557949</v>
       </c>
       <c r="G37" t="n">
-        <v>69224.6546770096</v>
+        <v>75031.2323418445</v>
       </c>
       <c r="H37" t="n">
         <v>0.76</v>
       </c>
       <c r="I37" t="n">
-        <v>30572133</v>
+        <v>30764127</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1834704</v>
+        <v>1827321</v>
       </c>
       <c r="E38" t="n">
-        <v>13156480</v>
+        <v>13103539</v>
       </c>
       <c r="F38" t="n">
-        <v>57.49143543883085</v>
+        <v>253.1936061227347</v>
       </c>
       <c r="G38" t="n">
-        <v>183.0250430531471</v>
+        <v>144.1082984191181</v>
       </c>
       <c r="H38" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="I38" t="n">
-        <v>2041698</v>
+        <v>1576925</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>190925384</v>
+        <v>190853391</v>
       </c>
       <c r="E39" t="n">
-        <v>1081136838</v>
+        <v>1080729168</v>
       </c>
       <c r="F39" t="n">
-        <v>39778.51613007591</v>
+        <v>30810.96528820482</v>
       </c>
       <c r="G39" t="n">
-        <v>60654.18255784448</v>
+        <v>39796.50983000766</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>85717093</v>
+        <v>85818251</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>123906829</v>
+        <v>123073149</v>
       </c>
       <c r="E40" t="n">
-        <v>917828366</v>
+        <v>911652956</v>
       </c>
       <c r="F40" t="n">
-        <v>19040.89311955049</v>
+        <v>7351.925677488177</v>
       </c>
       <c r="G40" t="n">
-        <v>6544.0837383361</v>
+        <v>7642.854620348294</v>
       </c>
       <c r="H40" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>26248280</v>
+        <v>26654189</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>321245967</v>
+        <v>320480016</v>
       </c>
       <c r="E41" t="n">
-        <v>2890127914</v>
+        <v>2883236947</v>
       </c>
       <c r="F41" t="n">
-        <v>67221.03742581245</v>
+        <v>65007.70736418183</v>
       </c>
       <c r="G41" t="n">
-        <v>63973.74288718917</v>
+        <v>74682.17099590036</v>
       </c>
       <c r="H41" t="n">
         <v>0.11</v>
       </c>
       <c r="I41" t="n">
-        <v>66007177</v>
+        <v>67147142</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1532570</v>
+        <v>1541228</v>
       </c>
       <c r="E42" t="n">
-        <v>12771420</v>
+        <v>12843563</v>
       </c>
       <c r="F42" t="n">
-        <v>466.6901485027063</v>
+        <v>2889.784313154587</v>
       </c>
       <c r="G42" t="n">
-        <v>2312.972925697926</v>
+        <v>1101.089622912603</v>
       </c>
       <c r="H42" t="n">
         <v>0.86</v>
       </c>
       <c r="I42" t="n">
-        <v>30196</v>
+        <v>30426</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19426458</v>
+        <v>19396989</v>
       </c>
       <c r="E43" t="n">
-        <v>58242350</v>
+        <v>58157459</v>
       </c>
       <c r="F43" t="n">
-        <v>1274.421065098373</v>
+        <v>1824.43586968741</v>
       </c>
       <c r="G43" t="n">
-        <v>963.3328948687389</v>
+        <v>3143.776598723303</v>
       </c>
       <c r="H43" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I43" t="n">
-        <v>4376626</v>
+        <v>4336999</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9620089</v>
+        <v>9686049</v>
       </c>
       <c r="F44" t="n">
-        <v>1901.458165745326</v>
+        <v>1275.607226655005</v>
       </c>
       <c r="G44" t="n">
-        <v>1323.99656775728</v>
+        <v>1126.572817324445</v>
       </c>
       <c r="H44" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I44" t="n">
-        <v>109671</v>
+        <v>169869</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12568229</v>
+        <v>12481503</v>
       </c>
       <c r="E45" t="n">
-        <v>12568229</v>
+        <v>12481503</v>
       </c>
       <c r="F45" t="n">
-        <v>255.2602714363494</v>
+        <v>403.7182843982254</v>
       </c>
       <c r="G45" t="n">
-        <v>1200.535655329245</v>
+        <v>73.65232565576264</v>
       </c>
       <c r="H45" t="n">
-        <v>1.62</v>
+        <v>1.13</v>
       </c>
       <c r="I45" t="n">
-        <v>3440506</v>
+        <v>3211110</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>288262023</v>
+        <v>284671666</v>
       </c>
       <c r="E46" t="n">
-        <v>288262023</v>
+        <v>284671666</v>
       </c>
       <c r="F46" t="n">
-        <v>9907.413838056642</v>
+        <v>8959.750684117404</v>
       </c>
       <c r="G46" t="n">
-        <v>16519.13894259755</v>
+        <v>12144.8692873329</v>
       </c>
       <c r="H46" t="n">
         <v>0.14</v>
       </c>
       <c r="I46" t="n">
-        <v>19699903</v>
+        <v>19747889</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12600975</v>
+        <v>12605190</v>
       </c>
       <c r="E47" t="n">
-        <v>39855453</v>
+        <v>39868782</v>
       </c>
       <c r="F47" t="n">
-        <v>6241.555296308679</v>
+        <v>6440.899551062423</v>
       </c>
       <c r="G47" t="n">
-        <v>2891.029731930911</v>
+        <v>3003.977586610034</v>
       </c>
       <c r="H47" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>1024430</v>
+        <v>1004261</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31185360</v>
+        <v>31124359</v>
       </c>
       <c r="E48" t="n">
-        <v>86380352</v>
+        <v>86211384</v>
       </c>
       <c r="F48" t="n">
-        <v>4647.904353312995</v>
+        <v>4989.278924501542</v>
       </c>
       <c r="G48" t="n">
-        <v>1937.638354406951</v>
+        <v>2467.1184317384</v>
       </c>
       <c r="H48" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="I48" t="n">
-        <v>12490276</v>
+        <v>12421882</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27217456</v>
+        <v>27699907</v>
       </c>
       <c r="E49" t="n">
-        <v>64564852</v>
+        <v>65709317</v>
       </c>
       <c r="F49" t="n">
-        <v>7587.588706502363</v>
+        <v>1330.542398940082</v>
       </c>
       <c r="G49" t="n">
-        <v>8404.135172436681</v>
+        <v>7662.796807653996</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I49" t="n">
-        <v>632975</v>
+        <v>671495</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12397560</v>
+        <v>12455705</v>
       </c>
       <c r="E50" t="n">
-        <v>18871882</v>
+        <v>18960392</v>
       </c>
       <c r="F50" t="n">
-        <v>13788.83335468703</v>
+        <v>4042.684454528561</v>
       </c>
       <c r="G50" t="n">
-        <v>18319.92987857581</v>
+        <v>3457.981444874541</v>
       </c>
       <c r="H50" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="I50" t="n">
-        <v>664548</v>
+        <v>659850</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>286784523</v>
+        <v>285783967</v>
       </c>
       <c r="E51" t="n">
-        <v>286784523</v>
+        <v>285783967</v>
       </c>
       <c r="F51" t="n">
-        <v>30757.85927233022</v>
+        <v>24418.34897474662</v>
       </c>
       <c r="G51" t="n">
-        <v>49145.93198746388</v>
+        <v>35987.72860058572</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>92424216</v>
+        <v>93364481</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>83996684</v>
+        <v>83491054</v>
       </c>
       <c r="E52" t="n">
-        <v>484025125</v>
+        <v>481111463</v>
       </c>
       <c r="F52" t="n">
-        <v>6316.081301680995</v>
+        <v>19420.91628541879</v>
       </c>
       <c r="G52" t="n">
-        <v>4903.777979123399</v>
+        <v>4298.266083485863</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I52" t="n">
-        <v>21494380</v>
+        <v>21258006</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>28719746</v>
+        <v>28762666</v>
       </c>
       <c r="E53" t="n">
-        <v>128590084</v>
+        <v>128782256</v>
       </c>
       <c r="F53" t="n">
-        <v>13088.99064683212</v>
+        <v>13269.91386040433</v>
       </c>
       <c r="G53" t="n">
-        <v>9306.028253856237</v>
+        <v>12984.60088235382</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I53" t="n">
-        <v>14150188</v>
+        <v>14497020</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8133512</v>
+        <v>8079418</v>
       </c>
       <c r="F54" t="n">
-        <v>4826.992679393075</v>
+        <v>5420.412235332097</v>
       </c>
       <c r="G54" t="n">
-        <v>3694.052242331941</v>
+        <v>5051.961008179795</v>
       </c>
       <c r="H54" t="n">
-        <v>0.38</v>
+        <v>0.64</v>
       </c>
       <c r="I54" t="n">
-        <v>311764</v>
+        <v>310731</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4473037</v>
+        <v>4492545</v>
       </c>
       <c r="F55" t="n">
-        <v>2243.553531626891</v>
+        <v>2778.506931458969</v>
       </c>
       <c r="G55" t="n">
-        <v>903.1718449274704</v>
+        <v>860.9736783103373</v>
       </c>
       <c r="H55" t="n">
         <v>0.54</v>
       </c>
       <c r="I55" t="n">
-        <v>221186</v>
+        <v>246567</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123621473</v>
+        <v>123452218</v>
       </c>
       <c r="E56" t="n">
-        <v>2047272841</v>
+        <v>2044469842</v>
       </c>
       <c r="F56" t="n">
-        <v>24002.04628003479</v>
+        <v>21040.48626389167</v>
       </c>
       <c r="G56" t="n">
-        <v>24274.92865428296</v>
+        <v>26707.79352678128</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>35073536</v>
+        <v>35951200</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>92555456</v>
+        <v>91059535</v>
       </c>
       <c r="E57" t="n">
-        <v>93551749</v>
+        <v>92039725</v>
       </c>
       <c r="F57" t="n">
-        <v>13917.38552034797</v>
+        <v>12782.18764777848</v>
       </c>
       <c r="G57" t="n">
-        <v>23639.6344271094</v>
+        <v>23699.45692259771</v>
       </c>
       <c r="H57" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>82051612</v>
+        <v>81383048</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>239652086</v>
+        <v>243437056</v>
       </c>
       <c r="E58" t="n">
-        <v>239652086</v>
+        <v>243437056</v>
       </c>
       <c r="F58" t="n">
-        <v>54218.09856916632</v>
+        <v>49896.72497596367</v>
       </c>
       <c r="G58" t="n">
-        <v>59795.6747599317</v>
+        <v>80976.58071353528</v>
       </c>
       <c r="H58" t="n">
         <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>91407007</v>
+        <v>93455851</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22781121</v>
+        <v>22618405</v>
       </c>
       <c r="E59" t="n">
-        <v>136304027</v>
+        <v>135330462</v>
       </c>
       <c r="F59" t="n">
-        <v>19165.48458376077</v>
+        <v>22347.26177541685</v>
       </c>
       <c r="G59" t="n">
-        <v>25927.7907307737</v>
+        <v>29787.08257072535</v>
       </c>
       <c r="H59" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>17891889</v>
+        <v>18014262</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2716424</v>
+        <v>2832803</v>
       </c>
       <c r="E60" t="n">
-        <v>5013315</v>
+        <v>5228100</v>
       </c>
       <c r="F60" t="n">
-        <v>7.271491503699388</v>
+        <v>56.79718448341613</v>
       </c>
       <c r="G60" t="n">
-        <v>1189.346447156102</v>
+        <v>1511.063868687445</v>
       </c>
       <c r="H60" t="n">
-        <v>3.47</v>
+        <v>0.1</v>
       </c>
       <c r="I60" t="n">
-        <v>386729</v>
+        <v>408274</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8987146</v>
+        <v>8779942</v>
       </c>
       <c r="E62" t="n">
-        <v>26642738</v>
+        <v>26028476</v>
       </c>
       <c r="F62" t="n">
-        <v>4708.700224666648</v>
+        <v>3813.486324954158</v>
       </c>
       <c r="G62" t="n">
-        <v>3985.983239425805</v>
+        <v>1817.64337556682</v>
       </c>
       <c r="H62" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="I62" t="n">
-        <v>6037524</v>
+        <v>6442858</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14708600</v>
+        <v>14690472</v>
       </c>
       <c r="E63" t="n">
-        <v>29776663</v>
+        <v>29739963</v>
       </c>
       <c r="F63" t="n">
-        <v>6009.344935674034</v>
+        <v>6118.641224025817</v>
       </c>
       <c r="G63" t="n">
-        <v>19634.7917156863</v>
+        <v>19486.95257137634</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>573809</v>
+        <v>576745</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33074038</v>
+        <v>33097094</v>
       </c>
       <c r="E64" t="n">
-        <v>234489535</v>
+        <v>234652999</v>
       </c>
       <c r="F64" t="n">
-        <v>39135.05380604347</v>
+        <v>33366.03115454481</v>
       </c>
       <c r="G64" t="n">
-        <v>42139.18543967533</v>
+        <v>49131.86560151471</v>
       </c>
       <c r="H64" t="n">
         <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>6101400</v>
+        <v>6275651</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1274074</v>
+        <v>1256538</v>
       </c>
       <c r="E65" t="n">
-        <v>7899380</v>
+        <v>7790653</v>
       </c>
       <c r="F65" t="n">
-        <v>305.7259037824122</v>
+        <v>329.0548585873117</v>
       </c>
       <c r="G65" t="n">
-        <v>206.5487908875983</v>
+        <v>175.3095988014353</v>
       </c>
       <c r="H65" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="I65" t="n">
-        <v>780131</v>
+        <v>778427</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>576484279</v>
+        <v>572957303</v>
       </c>
       <c r="E66" t="n">
-        <v>2232638558</v>
+        <v>2218979099</v>
       </c>
       <c r="F66" t="n">
-        <v>46042.19413787375</v>
+        <v>50071.0052719045</v>
       </c>
       <c r="G66" t="n">
-        <v>44751.99071679437</v>
+        <v>48705.12762548758</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>60109044</v>
+        <v>60988525</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5453241</v>
+        <v>5433534</v>
       </c>
       <c r="E67" t="n">
-        <v>24409979</v>
+        <v>24321769</v>
       </c>
       <c r="F67" t="n">
-        <v>4055.869806635717</v>
+        <v>3654.640374165692</v>
       </c>
       <c r="G67" t="n">
-        <v>19465.65783382322</v>
+        <v>19175.06505802437</v>
       </c>
       <c r="H67" t="n">
         <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>194093</v>
+        <v>191772</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>107909075</v>
+        <v>106552086</v>
       </c>
       <c r="E68" t="n">
-        <v>1021598205</v>
+        <v>1008751301</v>
       </c>
       <c r="F68" t="n">
-        <v>7566.280751123842</v>
+        <v>6119.833060175084</v>
       </c>
       <c r="G68" t="n">
-        <v>8336.742192653139</v>
+        <v>5262.753197629406</v>
       </c>
       <c r="H68" t="n">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="I68" t="n">
-        <v>16076892</v>
+        <v>16234215</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>96530665</v>
+        <v>96951679</v>
       </c>
       <c r="E69" t="n">
-        <v>147259792</v>
+        <v>147902059</v>
       </c>
       <c r="F69" t="n">
-        <v>11957.21663608704</v>
+        <v>2762.563996788582</v>
       </c>
       <c r="G69" t="n">
-        <v>17496.90581776928</v>
+        <v>16592.67988135331</v>
       </c>
       <c r="H69" t="n">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
       <c r="I69" t="n">
-        <v>12882827</v>
+        <v>13187959</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1085600</v>
+        <v>1078851</v>
       </c>
       <c r="E70" t="n">
-        <v>4203680</v>
+        <v>4177546</v>
       </c>
       <c r="F70" t="n">
-        <v>3093.43396482683</v>
+        <v>3195.922357344427</v>
       </c>
       <c r="G70" t="n">
-        <v>2069.752412570252</v>
+        <v>2287.446820340646</v>
       </c>
       <c r="H70" t="n">
-        <v>0.45</v>
+        <v>0.71</v>
       </c>
       <c r="I70" t="n">
-        <v>316218</v>
+        <v>315919</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>119777990</v>
+        <v>120520311</v>
       </c>
       <c r="E71" t="n">
-        <v>459487650</v>
+        <v>462335311</v>
       </c>
       <c r="F71" t="n">
-        <v>14691.68862725525</v>
+        <v>12435.76234242648</v>
       </c>
       <c r="G71" t="n">
-        <v>12438.79624990498</v>
+        <v>14607.50200885081</v>
       </c>
       <c r="H71" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I71" t="n">
-        <v>39579416</v>
+        <v>39729391</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2995785</v>
+        <v>3094788</v>
       </c>
       <c r="E72" t="n">
-        <v>28385504</v>
+        <v>29323571</v>
       </c>
       <c r="F72" t="n">
-        <v>165.6712210681912</v>
+        <v>360.1693254764913</v>
       </c>
       <c r="G72" t="n">
-        <v>99.43641977173058</v>
+        <v>99.79395021491663</v>
       </c>
       <c r="H72" t="n">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="I72" t="n">
-        <v>253649</v>
+        <v>266162</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35710177</v>
+        <v>35738658</v>
       </c>
       <c r="F73" t="n">
-        <v>3040.922810588437</v>
+        <v>3068.926625283379</v>
       </c>
       <c r="G73" t="n">
-        <v>2700.483479271494</v>
+        <v>4616.287936618462</v>
       </c>
       <c r="H73" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="I73" t="n">
-        <v>7899471</v>
+        <v>8011082</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88941865</v>
+        <v>89375347</v>
       </c>
       <c r="E74" t="n">
-        <v>328766581</v>
+        <v>330367977</v>
       </c>
       <c r="F74" t="n">
-        <v>199.9260857436991</v>
+        <v>335.1121503761432</v>
       </c>
       <c r="G74" t="n">
-        <v>331.2330486825421</v>
+        <v>271.1499770294395</v>
       </c>
       <c r="H74" t="n">
-        <v>1.09</v>
+        <v>0.89</v>
       </c>
       <c r="I74" t="n">
-        <v>249865</v>
+        <v>271394</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21485682</v>
+        <v>21847878</v>
       </c>
       <c r="E75" t="n">
-        <v>21485682</v>
+        <v>21847878</v>
       </c>
       <c r="F75" t="n">
-        <v>4047.448970020416</v>
+        <v>2701.698112710066</v>
       </c>
       <c r="G75" t="n">
-        <v>834.2175848140469</v>
+        <v>853.4868452624917</v>
       </c>
       <c r="H75" t="n">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="I75" t="n">
-        <v>5881180</v>
+        <v>5985496</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>466136834</v>
+        <v>463832283</v>
       </c>
       <c r="E76" t="n">
-        <v>1622583526</v>
+        <v>1614561575</v>
       </c>
       <c r="F76" t="n">
-        <v>23863.23761022386</v>
+        <v>20623.27325354552</v>
       </c>
       <c r="G76" t="n">
-        <v>29789.71545180829</v>
+        <v>30415.18414291758</v>
       </c>
       <c r="H76" t="n">
         <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>46775837</v>
+        <v>47195121</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5516920936</v>
+        <v>5504144575</v>
       </c>
       <c r="E77" t="n">
-        <v>5516920936</v>
+        <v>5504144575</v>
       </c>
       <c r="F77" t="n">
-        <v>1074.972506266928</v>
+        <v>1524.854105228199</v>
       </c>
       <c r="G77" t="n">
-        <v>1178.426675427358</v>
+        <v>1172.037026532474</v>
       </c>
       <c r="H77" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35594630</v>
+        <v>35741328</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7224066</v>
+        <v>7214712</v>
       </c>
       <c r="E78" t="n">
-        <v>18767348</v>
+        <v>18743045</v>
       </c>
       <c r="F78" t="n">
-        <v>40.53550478751445</v>
+        <v>387.1308024131936</v>
       </c>
       <c r="G78" t="n">
-        <v>161.9346414557924</v>
+        <v>79.6999506091389</v>
       </c>
       <c r="H78" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="I78" t="n">
-        <v>764877</v>
+        <v>769791</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106713613</v>
+        <v>105278870</v>
       </c>
       <c r="E79" t="n">
-        <v>161683453</v>
+        <v>159509651</v>
       </c>
       <c r="F79" t="n">
-        <v>40606.88331755605</v>
+        <v>37941.46244914814</v>
       </c>
       <c r="G79" t="n">
-        <v>40112.53703932472</v>
+        <v>43369.30670883539</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="I79" t="n">
-        <v>10002215</v>
+        <v>9714972</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2355947</v>
+        <v>2355618</v>
       </c>
       <c r="E80" t="n">
-        <v>9423787</v>
+        <v>9422473</v>
       </c>
       <c r="F80" t="n">
-        <v>814.3396421668004</v>
+        <v>923.9326719695572</v>
       </c>
       <c r="G80" t="n">
-        <v>1714.772931905562</v>
+        <v>1648.061850498772</v>
       </c>
       <c r="H80" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="I80" t="n">
-        <v>7497350</v>
+        <v>7496759</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2315383</v>
+        <v>2347633</v>
       </c>
       <c r="F81" t="n">
-        <v>412.4085991925867</v>
+        <v>588.8254303418602</v>
       </c>
       <c r="G81" t="n">
-        <v>107.2121747160729</v>
+        <v>454.058411505568</v>
       </c>
       <c r="H81" t="n">
-        <v>1.7</v>
+        <v>0.95</v>
       </c>
       <c r="I81" t="n">
-        <v>179161</v>
+        <v>179641</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>380177802</v>
+        <v>379993831</v>
       </c>
       <c r="E82" t="n">
-        <v>2172444583</v>
+        <v>2171393320</v>
       </c>
       <c r="F82" t="n">
-        <v>38980.2005767255</v>
+        <v>29836.87322894847</v>
       </c>
       <c r="G82" t="n">
-        <v>31442.3055437255</v>
+        <v>49423.70157242423</v>
       </c>
       <c r="H82" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>60112962</v>
+        <v>61255386</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3853386</v>
+        <v>3882866</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0801188895126</v>
+        <v>155.6783510381593</v>
       </c>
       <c r="G2" t="n">
-        <v>476.7360654357829</v>
+        <v>469.0889444931805</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>143192</v>
+        <v>143056</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1444736</v>
+        <v>1446247</v>
       </c>
       <c r="E3" t="n">
-        <v>4669981</v>
+        <v>4674865</v>
       </c>
       <c r="F3" t="n">
-        <v>403.6751187075284</v>
+        <v>291.949651108561</v>
       </c>
       <c r="G3" t="n">
-        <v>468.3085901581106</v>
+        <v>290.3148634697246</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="I3" t="n">
-        <v>184582</v>
+        <v>222724</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243311812</v>
+        <v>244075810</v>
       </c>
       <c r="E4" t="n">
-        <v>1525774175</v>
+        <v>1530565099</v>
       </c>
       <c r="F4" t="n">
-        <v>15953.19483565138</v>
+        <v>14319.57973553855</v>
       </c>
       <c r="G4" t="n">
-        <v>29986.43215748864</v>
+        <v>30897.20514703043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>26200983</v>
+        <v>26192617</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138663937</v>
+        <v>138266723</v>
       </c>
       <c r="E5" t="n">
-        <v>153661313</v>
+        <v>153221138</v>
       </c>
       <c r="F5" t="n">
-        <v>22922.48850900931</v>
+        <v>29485.77478813453</v>
       </c>
       <c r="G5" t="n">
-        <v>23907.28200409016</v>
+        <v>20783.94162891657</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>52646571</v>
+        <v>52536379</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>115888314</v>
+        <v>115799203</v>
       </c>
       <c r="E6" t="n">
-        <v>454247491</v>
+        <v>453898204</v>
       </c>
       <c r="F6" t="n">
-        <v>9869.815744781572</v>
+        <v>10686.46860783294</v>
       </c>
       <c r="G6" t="n">
-        <v>10578.12394609786</v>
+        <v>10098.27815803037</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I6" t="n">
-        <v>27313944</v>
+        <v>27384389</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4258990</v>
+        <v>4261188</v>
       </c>
       <c r="E7" t="n">
-        <v>26149584</v>
+        <v>26163081</v>
       </c>
       <c r="F7" t="n">
-        <v>593.8146461527898</v>
+        <v>597.1921241288899</v>
       </c>
       <c r="G7" t="n">
-        <v>1515.167023611721</v>
+        <v>1661.443486835111</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I7" t="n">
-        <v>622922</v>
+        <v>608553</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>196123</v>
+        <v>195238</v>
       </c>
       <c r="E8" t="n">
-        <v>2157568</v>
+        <v>2147836</v>
       </c>
       <c r="F8" t="n">
-        <v>3098.862932330012</v>
+        <v>2831.187086170651</v>
       </c>
       <c r="G8" t="n">
-        <v>4633.928466335018</v>
+        <v>4050.915295277936</v>
       </c>
       <c r="H8" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I8" t="n">
-        <v>36206</v>
+        <v>36064</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68658195</v>
+        <v>68483128</v>
       </c>
       <c r="E9" t="n">
-        <v>118859652</v>
+        <v>118556579</v>
       </c>
       <c r="F9" t="n">
-        <v>1312.551326432651</v>
+        <v>1272.866049987933</v>
       </c>
       <c r="G9" t="n">
-        <v>2358.201773190971</v>
+        <v>4858.154284890507</v>
       </c>
       <c r="H9" t="n">
         <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>838868</v>
+        <v>837994</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8770724</v>
+        <v>8768866</v>
       </c>
       <c r="E10" t="n">
-        <v>12414308</v>
+        <v>12411678</v>
       </c>
       <c r="F10" t="n">
-        <v>2908.389296478445</v>
+        <v>2907.979058701723</v>
       </c>
       <c r="G10" t="n">
-        <v>3183.893311739559</v>
+        <v>3183.444213224753</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>42401</v>
+        <v>42420</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>492986745</v>
+        <v>494364281</v>
       </c>
       <c r="E11" t="n">
-        <v>492986745</v>
+        <v>494364281</v>
       </c>
       <c r="F11" t="n">
-        <v>15311.02559880056</v>
+        <v>16398.8619151037</v>
       </c>
       <c r="G11" t="n">
-        <v>29647.01868786616</v>
+        <v>24951.11923465744</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>75780621</v>
+        <v>75729448</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>297703</v>
+        <v>297413</v>
       </c>
       <c r="E12" t="n">
-        <v>1389710</v>
+        <v>1388355</v>
       </c>
       <c r="F12" t="n">
-        <v>639.1961200484056</v>
+        <v>638.4699856583968</v>
       </c>
       <c r="G12" t="n">
-        <v>293.3462256173342</v>
+        <v>292.6694141309086</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I12" t="n">
-        <v>674292</v>
+        <v>679599</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1821530</v>
+        <v>1890186</v>
       </c>
       <c r="F13" t="n">
-        <v>58.10862807550718</v>
+        <v>5008.719177911034</v>
       </c>
       <c r="G13" t="n">
-        <v>11765.97916343747</v>
+        <v>176.1783535204529</v>
       </c>
       <c r="H13" t="n">
-        <v>1.03</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>1293748</v>
+        <v>1220368</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11905584</v>
+        <v>11824615</v>
       </c>
       <c r="E14" t="n">
-        <v>29630845</v>
+        <v>29429328</v>
       </c>
       <c r="F14" t="n">
-        <v>816.055162531991</v>
+        <v>1391.460465181771</v>
       </c>
       <c r="G14" t="n">
-        <v>1822.184265477695</v>
+        <v>1718.56776910628</v>
       </c>
       <c r="H14" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I14" t="n">
-        <v>1582844</v>
+        <v>1521882</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>106762491</v>
+        <v>106277955</v>
       </c>
       <c r="E15" t="n">
-        <v>415012616</v>
+        <v>413120497</v>
       </c>
       <c r="F15" t="n">
-        <v>2864.636855857716</v>
+        <v>2524.051673003023</v>
       </c>
       <c r="G15" t="n">
-        <v>3446.181012916613</v>
+        <v>3113.268428096755</v>
       </c>
       <c r="H15" t="n">
-        <v>0.51</v>
+        <v>1.11</v>
       </c>
       <c r="I15" t="n">
-        <v>19500328</v>
+        <v>12332308</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4674918</v>
+        <v>4681281</v>
       </c>
       <c r="E16" t="n">
-        <v>6881732</v>
+        <v>6891099</v>
       </c>
       <c r="F16" t="n">
-        <v>585.1996501836632</v>
+        <v>560.1767012678355</v>
       </c>
       <c r="G16" t="n">
-        <v>1378.329171566401</v>
+        <v>606.953950357318</v>
       </c>
       <c r="H16" t="n">
-        <v>1.46</v>
+        <v>0.58</v>
       </c>
       <c r="I16" t="n">
-        <v>556078</v>
+        <v>142553</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>437942</v>
+        <v>432868</v>
       </c>
       <c r="E17" t="n">
-        <v>1811487</v>
+        <v>1798589</v>
       </c>
       <c r="F17" t="n">
-        <v>752.8064122323358</v>
+        <v>547.3108620958537</v>
       </c>
       <c r="G17" t="n">
-        <v>577.1754400295684</v>
+        <v>256.4214617785021</v>
       </c>
       <c r="H17" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="I17" t="n">
-        <v>106276</v>
+        <v>106456</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>136017377</v>
+        <v>135470129</v>
       </c>
       <c r="E18" t="n">
-        <v>136017377</v>
+        <v>135470129</v>
       </c>
       <c r="F18" t="n">
-        <v>69134.96922804738</v>
+        <v>72035.06267646914</v>
       </c>
       <c r="G18" t="n">
-        <v>100364.0416886608</v>
+        <v>92710.6173543192</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>91006230</v>
+        <v>90380814</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62754207</v>
+        <v>62667939</v>
       </c>
       <c r="E19" t="n">
-        <v>321816445</v>
+        <v>321374046</v>
       </c>
       <c r="F19" t="n">
-        <v>9628.232838879896</v>
+        <v>12091.54777622719</v>
       </c>
       <c r="G19" t="n">
-        <v>7277.962313668573</v>
+        <v>5441.216862459633</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>27288651</v>
+        <v>27253836</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>248024356</v>
+        <v>247411839</v>
       </c>
       <c r="E20" t="n">
-        <v>248024356</v>
+        <v>247411839</v>
       </c>
       <c r="F20" t="n">
-        <v>60011.83919891257</v>
+        <v>80975.479468252</v>
       </c>
       <c r="G20" t="n">
-        <v>46562.16443117665</v>
+        <v>33632.85148178953</v>
       </c>
       <c r="H20" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>25875536</v>
+        <v>25906541</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>168352359</v>
+        <v>168782702</v>
       </c>
       <c r="E21" t="n">
-        <v>221532015</v>
+        <v>222098296</v>
       </c>
       <c r="F21" t="n">
-        <v>8401.196061813867</v>
+        <v>14304.34610608349</v>
       </c>
       <c r="G21" t="n">
-        <v>1849.712047359606</v>
+        <v>3872.61800133198</v>
       </c>
       <c r="H21" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="I21" t="n">
-        <v>17928183</v>
+        <v>14579336</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80685874</v>
+        <v>80071959</v>
       </c>
       <c r="E22" t="n">
-        <v>225730974</v>
+        <v>224039334</v>
       </c>
       <c r="F22" t="n">
-        <v>31911.16381971632</v>
+        <v>21347.31790486097</v>
       </c>
       <c r="G22" t="n">
-        <v>18380.10283702096</v>
+        <v>28366.64942624911</v>
       </c>
       <c r="H22" t="n">
         <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>54137435</v>
+        <v>54595307</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>82313344</v>
+        <v>81734984</v>
       </c>
       <c r="E23" t="n">
-        <v>171616712</v>
+        <v>170410876</v>
       </c>
       <c r="F23" t="n">
-        <v>14839.25466175143</v>
+        <v>15047.65835455222</v>
       </c>
       <c r="G23" t="n">
-        <v>20475.36220676264</v>
+        <v>20628.42153955137</v>
       </c>
       <c r="H23" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I23" t="n">
-        <v>70773735</v>
+        <v>70723246</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>636226104</v>
+        <v>633976975</v>
       </c>
       <c r="E24" t="n">
-        <v>636226104</v>
+        <v>633976975</v>
       </c>
       <c r="F24" t="n">
-        <v>120498.3174051498</v>
+        <v>126149.8185514674</v>
       </c>
       <c r="G24" t="n">
-        <v>89487.60883740897</v>
+        <v>79934.02731682471</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>548772372</v>
+        <v>548889140</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>193202141</v>
+        <v>193745876</v>
       </c>
       <c r="E25" t="n">
-        <v>671201698</v>
+        <v>673090684</v>
       </c>
       <c r="F25" t="n">
-        <v>61589.87601551082</v>
+        <v>56826.17948556566</v>
       </c>
       <c r="G25" t="n">
-        <v>98107.27698907668</v>
+        <v>104225.5796889342</v>
       </c>
       <c r="H25" t="n">
         <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>40944599</v>
+        <v>41059237</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5630694</v>
+        <v>5618676</v>
       </c>
       <c r="E26" t="n">
-        <v>7641494</v>
+        <v>7625303</v>
       </c>
       <c r="F26" t="n">
-        <v>600.8928289063995</v>
+        <v>90.0878972845376</v>
       </c>
       <c r="G26" t="n">
-        <v>2542.7160673925</v>
+        <v>2295.042873674851</v>
       </c>
       <c r="H26" t="n">
-        <v>0.51</v>
+        <v>0.82</v>
       </c>
       <c r="I26" t="n">
-        <v>5493183</v>
+        <v>5497602</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14252646</v>
+        <v>14076569</v>
       </c>
       <c r="F27" t="n">
-        <v>1672.402318559828</v>
+        <v>2495.142143821161</v>
       </c>
       <c r="G27" t="n">
-        <v>2995.272292779563</v>
+        <v>2228.11048953224</v>
       </c>
       <c r="H27" t="n">
-        <v>0.61</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>222317</v>
+        <v>224377</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24762291</v>
+        <v>24676202</v>
       </c>
       <c r="E28" t="n">
-        <v>34993109</v>
+        <v>34871453</v>
       </c>
       <c r="F28" t="n">
-        <v>690.449485538585</v>
+        <v>675.9546310308195</v>
       </c>
       <c r="G28" t="n">
-        <v>80.16668564614831</v>
+        <v>151.5623157152284</v>
       </c>
       <c r="H28" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="I28" t="n">
-        <v>140695</v>
+        <v>140783</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>256143234</v>
+        <v>255260033</v>
       </c>
       <c r="E29" t="n">
-        <v>1105656394</v>
+        <v>1101844008</v>
       </c>
       <c r="F29" t="n">
-        <v>76803.50060306235</v>
+        <v>84032.30129231204</v>
       </c>
       <c r="G29" t="n">
-        <v>119035.126188846</v>
+        <v>123559.761958612</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>141971458</v>
+        <v>141931046</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10283512</v>
+        <v>10235198</v>
       </c>
       <c r="E30" t="n">
-        <v>123807057</v>
+        <v>123225384</v>
       </c>
       <c r="F30" t="n">
-        <v>490.45716859038</v>
+        <v>280.6860513568229</v>
       </c>
       <c r="G30" t="n">
-        <v>590.6883402393674</v>
+        <v>848.7926545679661</v>
       </c>
       <c r="H30" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="I30" t="n">
-        <v>589804</v>
+        <v>273925</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15589759</v>
+        <v>15714614</v>
       </c>
       <c r="E31" t="n">
-        <v>38974399</v>
+        <v>39286534</v>
       </c>
       <c r="F31" t="n">
-        <v>5394.388640979883</v>
+        <v>6950.273962510951</v>
       </c>
       <c r="G31" t="n">
-        <v>3731.520672742492</v>
+        <v>4822.742737206826</v>
       </c>
       <c r="H31" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I31" t="n">
-        <v>4883952</v>
+        <v>4917686</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19400923</v>
+        <v>19396374</v>
       </c>
       <c r="F32" t="n">
-        <v>2950.1304793674</v>
+        <v>1519.619630297587</v>
       </c>
       <c r="G32" t="n">
-        <v>3171.910244098689</v>
+        <v>1242.853382497084</v>
       </c>
       <c r="H32" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="I32" t="n">
-        <v>67323</v>
+        <v>67169</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1560245</v>
+        <v>1542753</v>
       </c>
       <c r="E33" t="n">
-        <v>5816522</v>
+        <v>5751315</v>
       </c>
       <c r="F33" t="n">
-        <v>492.402444192773</v>
+        <v>821.2005591078203</v>
       </c>
       <c r="G33" t="n">
-        <v>7156.00683869045</v>
+        <v>2988.972720412019</v>
       </c>
       <c r="H33" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="I33" t="n">
-        <v>714125</v>
+        <v>718316</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4154124</v>
+        <v>4106453</v>
       </c>
       <c r="E34" t="n">
-        <v>11965244</v>
+        <v>11827084</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5418550156595</v>
+        <v>3041.47776596605</v>
       </c>
       <c r="G34" t="n">
-        <v>52.15898790898913</v>
+        <v>4067.755254590218</v>
       </c>
       <c r="H34" t="n">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="I34" t="n">
-        <v>491690</v>
+        <v>490676</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13701332</v>
+        <v>13603613</v>
       </c>
       <c r="E35" t="n">
-        <v>66357736</v>
+        <v>65884467</v>
       </c>
       <c r="F35" t="n">
-        <v>3784.416743410404</v>
+        <v>3894.64538631057</v>
       </c>
       <c r="G35" t="n">
-        <v>3004.954821549577</v>
+        <v>1564.278384474869</v>
       </c>
       <c r="H35" t="n">
-        <v>0.57</v>
+        <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>5538400</v>
+        <v>5573384</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1240451</v>
+        <v>1242591</v>
       </c>
       <c r="E36" t="n">
-        <v>8118717</v>
+        <v>8132728</v>
       </c>
       <c r="F36" t="n">
-        <v>268.5626640049986</v>
+        <v>323.875053423325</v>
       </c>
       <c r="G36" t="n">
-        <v>505.8648281184383</v>
+        <v>1137.535926034878</v>
       </c>
       <c r="H36" t="n">
-        <v>0.74</v>
+        <v>0.25</v>
       </c>
       <c r="I36" t="n">
-        <v>342731</v>
+        <v>344564</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1832354926</v>
+        <v>1834713770</v>
       </c>
       <c r="F37" t="n">
-        <v>75956.61023557949</v>
+        <v>75400.22203095771</v>
       </c>
       <c r="G37" t="n">
-        <v>75031.2323418445</v>
+        <v>69589.22608430662</v>
       </c>
       <c r="H37" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="I37" t="n">
-        <v>30764127</v>
+        <v>30797091</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1827321</v>
+        <v>1788621</v>
       </c>
       <c r="E38" t="n">
-        <v>13103539</v>
+        <v>12826025</v>
       </c>
       <c r="F38" t="n">
-        <v>253.1936061227347</v>
+        <v>8.493814947607357</v>
       </c>
       <c r="G38" t="n">
-        <v>144.1082984191181</v>
+        <v>436.9436237954744</v>
       </c>
       <c r="H38" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="I38" t="n">
-        <v>1576925</v>
+        <v>2081987</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>190853391</v>
+        <v>191474990</v>
       </c>
       <c r="E39" t="n">
-        <v>1080729168</v>
+        <v>1084249045</v>
       </c>
       <c r="F39" t="n">
-        <v>30810.96528820482</v>
+        <v>41466.28016952208</v>
       </c>
       <c r="G39" t="n">
-        <v>39796.50983000766</v>
+        <v>45655.60346889054</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>85818251</v>
+        <v>86047506</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>123073149</v>
+        <v>122762329</v>
       </c>
       <c r="E40" t="n">
-        <v>911652956</v>
+        <v>909350587</v>
       </c>
       <c r="F40" t="n">
-        <v>7351.925677488177</v>
+        <v>13925.20541575086</v>
       </c>
       <c r="G40" t="n">
-        <v>7642.854620348294</v>
+        <v>9776.423001875322</v>
       </c>
       <c r="H40" t="n">
         <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>26654189</v>
+        <v>27460550</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>320480016</v>
+        <v>318069923</v>
       </c>
       <c r="E41" t="n">
-        <v>2883236947</v>
+        <v>2861554256</v>
       </c>
       <c r="F41" t="n">
-        <v>65007.70736418183</v>
+        <v>56480.64685143357</v>
       </c>
       <c r="G41" t="n">
-        <v>74682.17099590036</v>
+        <v>87854.66519680961</v>
       </c>
       <c r="H41" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>67147142</v>
+        <v>67784786</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1541228</v>
+        <v>1524726</v>
       </c>
       <c r="E42" t="n">
-        <v>12843563</v>
+        <v>12706047</v>
       </c>
       <c r="F42" t="n">
-        <v>2889.784313154587</v>
+        <v>2972.636438446121</v>
       </c>
       <c r="G42" t="n">
-        <v>1101.089622912603</v>
+        <v>1240.458349096628</v>
       </c>
       <c r="H42" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="I42" t="n">
-        <v>30426</v>
+        <v>30581</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19396989</v>
+        <v>19244971</v>
       </c>
       <c r="E43" t="n">
-        <v>58157459</v>
+        <v>57699435</v>
       </c>
       <c r="F43" t="n">
-        <v>1824.43586968741</v>
+        <v>2853.204675252216</v>
       </c>
       <c r="G43" t="n">
-        <v>3143.776598723303</v>
+        <v>1342.962970607443</v>
       </c>
       <c r="H43" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="I43" t="n">
-        <v>4336999</v>
+        <v>3626839</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9686049</v>
+        <v>10113871</v>
       </c>
       <c r="F44" t="n">
-        <v>1275.607226655005</v>
+        <v>2180.917407827466</v>
       </c>
       <c r="G44" t="n">
-        <v>1126.572817324445</v>
+        <v>88.95720371252747</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I44" t="n">
-        <v>169869</v>
+        <v>253976</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12481503</v>
+        <v>12471023</v>
       </c>
       <c r="E45" t="n">
-        <v>12481503</v>
+        <v>12471023</v>
       </c>
       <c r="F45" t="n">
-        <v>403.7182843982254</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>73.65232565576264</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.13</v>
+        <v>4.15</v>
       </c>
       <c r="I45" t="n">
-        <v>3211110</v>
+        <v>3157029</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>284671666</v>
+        <v>282665575</v>
       </c>
       <c r="E46" t="n">
-        <v>284671666</v>
+        <v>282665575</v>
       </c>
       <c r="F46" t="n">
-        <v>8959.750684117404</v>
+        <v>11829.29934705233</v>
       </c>
       <c r="G46" t="n">
-        <v>12144.8692873329</v>
+        <v>14741.85938395574</v>
       </c>
       <c r="H46" t="n">
         <v>0.14</v>
       </c>
       <c r="I46" t="n">
-        <v>19747889</v>
+        <v>19748113</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12605190</v>
+        <v>12580996</v>
       </c>
       <c r="E47" t="n">
-        <v>39868782</v>
+        <v>39792050</v>
       </c>
       <c r="F47" t="n">
-        <v>6440.899551062423</v>
+        <v>6301.896717927688</v>
       </c>
       <c r="G47" t="n">
-        <v>3003.977586610034</v>
+        <v>3085.602625713544</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="I47" t="n">
-        <v>1004261</v>
+        <v>1026214</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31124359</v>
+        <v>31040803</v>
       </c>
       <c r="E48" t="n">
-        <v>86211384</v>
+        <v>85979945</v>
       </c>
       <c r="F48" t="n">
-        <v>4989.278924501542</v>
+        <v>5185.125629399421</v>
       </c>
       <c r="G48" t="n">
-        <v>2467.1184317384</v>
+        <v>1994.98658435377</v>
       </c>
       <c r="H48" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>12421882</v>
+        <v>12488826</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27699907</v>
+        <v>27623866</v>
       </c>
       <c r="E49" t="n">
-        <v>65709317</v>
+        <v>65528931</v>
       </c>
       <c r="F49" t="n">
-        <v>1330.542398940082</v>
+        <v>2484.113856039141</v>
       </c>
       <c r="G49" t="n">
-        <v>7662.796807653996</v>
+        <v>7764.855835849453</v>
       </c>
       <c r="H49" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I49" t="n">
-        <v>671495</v>
+        <v>675667</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12455705</v>
+        <v>12253818</v>
       </c>
       <c r="E50" t="n">
-        <v>18960392</v>
+        <v>18653075</v>
       </c>
       <c r="F50" t="n">
-        <v>4042.684454528561</v>
+        <v>3653.503928410603</v>
       </c>
       <c r="G50" t="n">
-        <v>3457.981444874541</v>
+        <v>18538.15999019414</v>
       </c>
       <c r="H50" t="n">
-        <v>0.43</v>
+        <v>0.09</v>
       </c>
       <c r="I50" t="n">
-        <v>659850</v>
+        <v>649905</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>285783967</v>
+        <v>286048999</v>
       </c>
       <c r="E51" t="n">
-        <v>285783967</v>
+        <v>286048999</v>
       </c>
       <c r="F51" t="n">
-        <v>24418.34897474662</v>
+        <v>28615.63861852628</v>
       </c>
       <c r="G51" t="n">
-        <v>35987.72860058572</v>
+        <v>47439.16005878166</v>
       </c>
       <c r="H51" t="n">
         <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>93364481</v>
+        <v>93205671</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>83491054</v>
+        <v>83414356</v>
       </c>
       <c r="E52" t="n">
-        <v>481111463</v>
+        <v>480669498</v>
       </c>
       <c r="F52" t="n">
-        <v>19420.91628541879</v>
+        <v>21832.66261047051</v>
       </c>
       <c r="G52" t="n">
-        <v>4298.266083485863</v>
+        <v>4101.522784603349</v>
       </c>
       <c r="H52" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I52" t="n">
-        <v>21258006</v>
+        <v>21205713</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>28762666</v>
+        <v>28749906</v>
       </c>
       <c r="E53" t="n">
-        <v>128782256</v>
+        <v>128725121</v>
       </c>
       <c r="F53" t="n">
-        <v>13269.91386040433</v>
+        <v>11932.70311731553</v>
       </c>
       <c r="G53" t="n">
-        <v>12984.60088235382</v>
+        <v>12871.07467191649</v>
       </c>
       <c r="H53" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>14497020</v>
+        <v>14580628</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8079418</v>
+        <v>7993730</v>
       </c>
       <c r="F54" t="n">
-        <v>5420.412235332097</v>
+        <v>5341.622576307527</v>
       </c>
       <c r="G54" t="n">
-        <v>5051.961008179795</v>
+        <v>4876.207440758532</v>
       </c>
       <c r="H54" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="I54" t="n">
-        <v>310731</v>
+        <v>310864</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4492545</v>
+        <v>4521677</v>
       </c>
       <c r="F55" t="n">
-        <v>2778.506931458969</v>
+        <v>2042.54624041116</v>
       </c>
       <c r="G55" t="n">
-        <v>860.9736783103373</v>
+        <v>901.1478433604378</v>
       </c>
       <c r="H55" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="I55" t="n">
-        <v>246567</v>
+        <v>254588</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123452218</v>
+        <v>123694670</v>
       </c>
       <c r="E56" t="n">
-        <v>2044469842</v>
+        <v>2048485038</v>
       </c>
       <c r="F56" t="n">
-        <v>21040.48626389167</v>
+        <v>20209.51806098544</v>
       </c>
       <c r="G56" t="n">
-        <v>26707.79352678128</v>
+        <v>26268.85676352194</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>35951200</v>
+        <v>36053815</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>91059535</v>
+        <v>91102607</v>
       </c>
       <c r="E57" t="n">
-        <v>92039725</v>
+        <v>92083261</v>
       </c>
       <c r="F57" t="n">
-        <v>12782.18764777848</v>
+        <v>19502.29008035488</v>
       </c>
       <c r="G57" t="n">
-        <v>23699.45692259771</v>
+        <v>19401.81651217199</v>
       </c>
       <c r="H57" t="n">
         <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>81383048</v>
+        <v>81464171</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>243437056</v>
+        <v>241963376</v>
       </c>
       <c r="E58" t="n">
-        <v>243437056</v>
+        <v>241963376</v>
       </c>
       <c r="F58" t="n">
-        <v>49896.72497596367</v>
+        <v>64485.5032442792</v>
       </c>
       <c r="G58" t="n">
-        <v>80976.58071353528</v>
+        <v>72696.91715296055</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>93455851</v>
+        <v>93651481</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22618405</v>
+        <v>22561329</v>
       </c>
       <c r="E59" t="n">
-        <v>135330462</v>
+        <v>134988967</v>
       </c>
       <c r="F59" t="n">
-        <v>22347.26177541685</v>
+        <v>14613.98088502197</v>
       </c>
       <c r="G59" t="n">
-        <v>29787.08257072535</v>
+        <v>27562.95994276694</v>
       </c>
       <c r="H59" t="n">
         <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>18014262</v>
+        <v>18064381</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2832803</v>
+        <v>2686555</v>
       </c>
       <c r="E60" t="n">
-        <v>5228100</v>
+        <v>4958190</v>
       </c>
       <c r="F60" t="n">
-        <v>56.79718448341613</v>
+        <v>0.065430373082855</v>
       </c>
       <c r="G60" t="n">
-        <v>1511.063868687445</v>
+        <v>1131.373913936154</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1</v>
+        <v>0.61</v>
       </c>
       <c r="I60" t="n">
-        <v>408274</v>
+        <v>268731</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8779942</v>
+        <v>8803070</v>
       </c>
       <c r="E62" t="n">
-        <v>26028476</v>
+        <v>26097039</v>
       </c>
       <c r="F62" t="n">
-        <v>3813.486324954158</v>
+        <v>4484.372075483428</v>
       </c>
       <c r="G62" t="n">
-        <v>1817.64337556682</v>
+        <v>1509.930206963792</v>
       </c>
       <c r="H62" t="n">
         <v>0.19</v>
       </c>
       <c r="I62" t="n">
-        <v>6442858</v>
+        <v>6445564</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14690472</v>
+        <v>14715873</v>
       </c>
       <c r="E63" t="n">
-        <v>29739963</v>
+        <v>29791387</v>
       </c>
       <c r="F63" t="n">
-        <v>6118.641224025817</v>
+        <v>6143.366063374481</v>
       </c>
       <c r="G63" t="n">
-        <v>19486.95257137634</v>
+        <v>17630.14986959309</v>
       </c>
       <c r="H63" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I63" t="n">
-        <v>576745</v>
+        <v>575360</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33097094</v>
+        <v>32767720</v>
       </c>
       <c r="E64" t="n">
-        <v>234652999</v>
+        <v>232317792</v>
       </c>
       <c r="F64" t="n">
-        <v>33366.03115454481</v>
+        <v>36326.21660000728</v>
       </c>
       <c r="G64" t="n">
-        <v>49131.86560151471</v>
+        <v>48237.68020001162</v>
       </c>
       <c r="H64" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I64" t="n">
-        <v>6275651</v>
+        <v>6321692</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1256538</v>
+        <v>1253222</v>
       </c>
       <c r="E65" t="n">
-        <v>7790653</v>
+        <v>7770091</v>
       </c>
       <c r="F65" t="n">
-        <v>329.0548585873117</v>
+        <v>115.3002838652804</v>
       </c>
       <c r="G65" t="n">
-        <v>175.3095988014353</v>
+        <v>167.9308298872164</v>
       </c>
       <c r="H65" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="I65" t="n">
-        <v>778427</v>
+        <v>776138</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>572957303</v>
+        <v>570378695</v>
       </c>
       <c r="E66" t="n">
-        <v>2218979099</v>
+        <v>2208992533</v>
       </c>
       <c r="F66" t="n">
-        <v>50071.0052719045</v>
+        <v>58949.01008882324</v>
       </c>
       <c r="G66" t="n">
-        <v>48705.12762548758</v>
+        <v>43014.36306855791</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>60988525</v>
+        <v>60819249</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5433534</v>
+        <v>5433419</v>
       </c>
       <c r="E67" t="n">
-        <v>24321769</v>
+        <v>24321251</v>
       </c>
       <c r="F67" t="n">
-        <v>3654.640374165692</v>
+        <v>3895.105449076556</v>
       </c>
       <c r="G67" t="n">
-        <v>19175.06505802437</v>
+        <v>19148.29069860979</v>
       </c>
       <c r="H67" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>191772</v>
+        <v>191811</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>106552086</v>
+        <v>106708127</v>
       </c>
       <c r="E68" t="n">
-        <v>1008751301</v>
+        <v>1010228578</v>
       </c>
       <c r="F68" t="n">
-        <v>6119.833060175084</v>
+        <v>5214.000084500853</v>
       </c>
       <c r="G68" t="n">
-        <v>5262.753197629406</v>
+        <v>4584.969118554728</v>
       </c>
       <c r="H68" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>16234215</v>
+        <v>16322024</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>96951679</v>
+        <v>98460999</v>
       </c>
       <c r="E69" t="n">
-        <v>147902059</v>
+        <v>150204562</v>
       </c>
       <c r="F69" t="n">
-        <v>2762.563996788582</v>
+        <v>12647.85596818939</v>
       </c>
       <c r="G69" t="n">
-        <v>16592.67988135331</v>
+        <v>17960.49368235893</v>
       </c>
       <c r="H69" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="I69" t="n">
-        <v>13187959</v>
+        <v>13194152</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1078851</v>
+        <v>1078381</v>
       </c>
       <c r="E70" t="n">
-        <v>4177546</v>
+        <v>4175725</v>
       </c>
       <c r="F70" t="n">
-        <v>3195.922357344427</v>
+        <v>3256.414558149367</v>
       </c>
       <c r="G70" t="n">
-        <v>2287.446820340646</v>
+        <v>2238.56502946373</v>
       </c>
       <c r="H70" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="I70" t="n">
-        <v>315919</v>
+        <v>315974</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>120520311</v>
+        <v>120296882</v>
       </c>
       <c r="E71" t="n">
-        <v>462335311</v>
+        <v>461478201</v>
       </c>
       <c r="F71" t="n">
-        <v>12435.76234242648</v>
+        <v>17483.18609998441</v>
       </c>
       <c r="G71" t="n">
-        <v>14607.50200885081</v>
+        <v>12465.95968952989</v>
       </c>
       <c r="H71" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>39729391</v>
+        <v>39537255</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3094788</v>
+        <v>3100349</v>
       </c>
       <c r="E72" t="n">
-        <v>29323571</v>
+        <v>29376265</v>
       </c>
       <c r="F72" t="n">
-        <v>360.1693254764913</v>
+        <v>164.0728122825793</v>
       </c>
       <c r="G72" t="n">
-        <v>99.79395021491663</v>
+        <v>65.35234445326461</v>
       </c>
       <c r="H72" t="n">
-        <v>0.77</v>
+        <v>1.24</v>
       </c>
       <c r="I72" t="n">
-        <v>266162</v>
+        <v>261994</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35738658</v>
+        <v>36063732</v>
       </c>
       <c r="F73" t="n">
-        <v>3068.926625283379</v>
+        <v>2763.674670807416</v>
       </c>
       <c r="G73" t="n">
-        <v>4616.287936618462</v>
+        <v>2021.618015538191</v>
       </c>
       <c r="H73" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I73" t="n">
-        <v>8011082</v>
+        <v>8028472</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89375347</v>
+        <v>89298252</v>
       </c>
       <c r="E74" t="n">
-        <v>330367977</v>
+        <v>330083000</v>
       </c>
       <c r="F74" t="n">
-        <v>335.1121503761432</v>
+        <v>153.0850469414817</v>
       </c>
       <c r="G74" t="n">
-        <v>271.1499770294395</v>
+        <v>141.4541402041016</v>
       </c>
       <c r="H74" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>271394</v>
+        <v>272374</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21847878</v>
+        <v>21670240</v>
       </c>
       <c r="E75" t="n">
-        <v>21847878</v>
+        <v>21670240</v>
       </c>
       <c r="F75" t="n">
-        <v>2701.698112710066</v>
+        <v>3984.967122938115</v>
       </c>
       <c r="G75" t="n">
-        <v>853.4868452624917</v>
+        <v>849.7554104469813</v>
       </c>
       <c r="H75" t="n">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="I75" t="n">
-        <v>5985496</v>
+        <v>5959247</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>463832283</v>
+        <v>461827293</v>
       </c>
       <c r="E76" t="n">
-        <v>1614561575</v>
+        <v>1607582373</v>
       </c>
       <c r="F76" t="n">
-        <v>20623.27325354552</v>
+        <v>26747.80700140429</v>
       </c>
       <c r="G76" t="n">
-        <v>30415.18414291758</v>
+        <v>29111.67621850863</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I76" t="n">
-        <v>47195121</v>
+        <v>47367314</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5504144575</v>
+        <v>5474160062</v>
       </c>
       <c r="E77" t="n">
-        <v>5504144575</v>
+        <v>5473628623</v>
       </c>
       <c r="F77" t="n">
-        <v>1524.854105228199</v>
+        <v>1521.305469558694</v>
       </c>
       <c r="G77" t="n">
-        <v>1172.037026532474</v>
+        <v>1169.309465656929</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35741328</v>
+        <v>35242246</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7214712</v>
+        <v>7158856</v>
       </c>
       <c r="E78" t="n">
-        <v>18743045</v>
+        <v>18597938</v>
       </c>
       <c r="F78" t="n">
-        <v>387.1308024131936</v>
+        <v>321.4196015599091</v>
       </c>
       <c r="G78" t="n">
-        <v>79.6999506091389</v>
+        <v>106.9638603697076</v>
       </c>
       <c r="H78" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="I78" t="n">
-        <v>769791</v>
+        <v>770187</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>105278870</v>
+        <v>105526345</v>
       </c>
       <c r="E79" t="n">
-        <v>159509651</v>
+        <v>159884606</v>
       </c>
       <c r="F79" t="n">
-        <v>37941.46244914814</v>
+        <v>39667.92804674975</v>
       </c>
       <c r="G79" t="n">
-        <v>43369.30670883539</v>
+        <v>42034.33402161665</v>
       </c>
       <c r="H79" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="I79" t="n">
-        <v>9714972</v>
+        <v>9702987</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2355618</v>
+        <v>2350364</v>
       </c>
       <c r="E80" t="n">
-        <v>9422473</v>
+        <v>9401455</v>
       </c>
       <c r="F80" t="n">
-        <v>923.9326719695572</v>
+        <v>1038.51430380652</v>
       </c>
       <c r="G80" t="n">
-        <v>1648.061850498772</v>
+        <v>1508.297048034827</v>
       </c>
       <c r="H80" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="I80" t="n">
-        <v>7496759</v>
+        <v>7534218</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2347633</v>
+        <v>2281479</v>
       </c>
       <c r="F81" t="n">
-        <v>588.8254303418602</v>
+        <v>563.3284741949129</v>
       </c>
       <c r="G81" t="n">
-        <v>454.058411505568</v>
+        <v>215.9854393395662</v>
       </c>
       <c r="H81" t="n">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
       <c r="I81" t="n">
-        <v>179641</v>
+        <v>178575</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>379993831</v>
+        <v>378731146</v>
       </c>
       <c r="E82" t="n">
-        <v>2171393320</v>
+        <v>2164177974</v>
       </c>
       <c r="F82" t="n">
-        <v>29836.87322894847</v>
+        <v>30881.3985928841</v>
       </c>
       <c r="G82" t="n">
-        <v>49423.70157242423</v>
+        <v>42175.18516136624</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>61255386</v>
+        <v>61637851</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3882866</v>
+        <v>3876209</v>
       </c>
       <c r="F2" t="n">
-        <v>155.6783510381593</v>
+        <v>160.1699447180057</v>
       </c>
       <c r="G2" t="n">
-        <v>469.0889444931805</v>
+        <v>443.3838100226081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="I2" t="n">
-        <v>143056</v>
+        <v>141622</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1446247</v>
+        <v>1408080</v>
       </c>
       <c r="E3" t="n">
-        <v>4674865</v>
+        <v>4551492</v>
       </c>
       <c r="F3" t="n">
-        <v>291.949651108561</v>
+        <v>199.2067631780139</v>
       </c>
       <c r="G3" t="n">
-        <v>290.3148634697246</v>
+        <v>347.2207205458905</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="I3" t="n">
-        <v>222724</v>
+        <v>226975</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244075810</v>
+        <v>249469185</v>
       </c>
       <c r="E4" t="n">
-        <v>1530565099</v>
+        <v>1564386194</v>
       </c>
       <c r="F4" t="n">
-        <v>14319.57973553855</v>
+        <v>22053.75383336994</v>
       </c>
       <c r="G4" t="n">
-        <v>30897.20514703043</v>
+        <v>34212.84672129478</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>26192617</v>
+        <v>26643402</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138266723</v>
+        <v>140348431</v>
       </c>
       <c r="E5" t="n">
-        <v>153221138</v>
+        <v>155527995</v>
       </c>
       <c r="F5" t="n">
-        <v>29485.77478813453</v>
+        <v>24414.49377903929</v>
       </c>
       <c r="G5" t="n">
-        <v>20783.94162891657</v>
+        <v>17465.52288368534</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>52536379</v>
+        <v>53582874</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>115799203</v>
+        <v>117364219</v>
       </c>
       <c r="E6" t="n">
-        <v>453898204</v>
+        <v>460032599</v>
       </c>
       <c r="F6" t="n">
-        <v>10686.46860783294</v>
+        <v>9843.136370082206</v>
       </c>
       <c r="G6" t="n">
-        <v>10098.27815803037</v>
+        <v>6058.336961688076</v>
       </c>
       <c r="H6" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>27384389</v>
+        <v>27192054</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4261188</v>
+        <v>4362612</v>
       </c>
       <c r="E7" t="n">
-        <v>26163081</v>
+        <v>26785778</v>
       </c>
       <c r="F7" t="n">
-        <v>597.1921241288899</v>
+        <v>144.1177424131891</v>
       </c>
       <c r="G7" t="n">
-        <v>1661.443486835111</v>
+        <v>741.6578803441536</v>
       </c>
       <c r="H7" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="I7" t="n">
-        <v>608553</v>
+        <v>598046</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>195238</v>
+        <v>195707</v>
       </c>
       <c r="E8" t="n">
-        <v>2147836</v>
+        <v>2152990</v>
       </c>
       <c r="F8" t="n">
-        <v>2831.187086170651</v>
+        <v>3034.532673908579</v>
       </c>
       <c r="G8" t="n">
-        <v>4050.915295277936</v>
+        <v>4057.815713866099</v>
       </c>
       <c r="H8" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>36064</v>
+        <v>36613</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68483128</v>
+        <v>68888912</v>
       </c>
       <c r="E9" t="n">
-        <v>118556579</v>
+        <v>119256215</v>
       </c>
       <c r="F9" t="n">
-        <v>1272.866049987933</v>
+        <v>1239.244279358507</v>
       </c>
       <c r="G9" t="n">
-        <v>4858.154284890507</v>
+        <v>843.051732364934</v>
       </c>
       <c r="H9" t="n">
         <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>837994</v>
+        <v>829674</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8768866</v>
+        <v>8796598</v>
       </c>
       <c r="E10" t="n">
-        <v>12411678</v>
+        <v>12450930</v>
       </c>
       <c r="F10" t="n">
-        <v>2907.979058701723</v>
+        <v>3069.655387606373</v>
       </c>
       <c r="G10" t="n">
-        <v>3183.444213224753</v>
+        <v>2924.255344762996</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>42420</v>
+        <v>43537</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>494364281</v>
+        <v>497109266</v>
       </c>
       <c r="E11" t="n">
-        <v>494364281</v>
+        <v>497109266</v>
       </c>
       <c r="F11" t="n">
-        <v>16398.8619151037</v>
+        <v>10936.9029549988</v>
       </c>
       <c r="G11" t="n">
-        <v>24951.11923465744</v>
+        <v>20039.21387654383</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>75729448</v>
+        <v>75646341</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>297413</v>
+        <v>298999</v>
       </c>
       <c r="E12" t="n">
-        <v>1388355</v>
+        <v>1395759</v>
       </c>
       <c r="F12" t="n">
-        <v>638.4699856583968</v>
+        <v>639.8862654696594</v>
       </c>
       <c r="G12" t="n">
-        <v>292.6694141309086</v>
+        <v>178.1467582524599</v>
       </c>
       <c r="H12" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="I12" t="n">
-        <v>679599</v>
+        <v>687065</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1890186</v>
+        <v>1765642</v>
       </c>
       <c r="F13" t="n">
-        <v>5008.719177911034</v>
+        <v>2865.74120242264</v>
       </c>
       <c r="G13" t="n">
-        <v>176.1783535204529</v>
+        <v>1301.725624368405</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1220368</v>
+        <v>1222380</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11824615</v>
+        <v>11853817</v>
       </c>
       <c r="E14" t="n">
-        <v>29429328</v>
+        <v>29502008</v>
       </c>
       <c r="F14" t="n">
-        <v>1391.460465181771</v>
+        <v>592.901174488063</v>
       </c>
       <c r="G14" t="n">
-        <v>1718.56776910628</v>
+        <v>1663.85679823163</v>
       </c>
       <c r="H14" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="I14" t="n">
-        <v>1521882</v>
+        <v>1519332</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>106277955</v>
+        <v>108757669</v>
       </c>
       <c r="E15" t="n">
-        <v>413120497</v>
+        <v>422735187</v>
       </c>
       <c r="F15" t="n">
-        <v>2524.051673003023</v>
+        <v>1783.914022104683</v>
       </c>
       <c r="G15" t="n">
-        <v>3113.268428096755</v>
+        <v>1893.672620362696</v>
       </c>
       <c r="H15" t="n">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="I15" t="n">
-        <v>12332308</v>
+        <v>12544146</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4681281</v>
+        <v>4684634</v>
       </c>
       <c r="E16" t="n">
-        <v>6891099</v>
+        <v>6896035</v>
       </c>
       <c r="F16" t="n">
-        <v>560.1767012678355</v>
+        <v>3535.580804890758</v>
       </c>
       <c r="G16" t="n">
-        <v>606.953950357318</v>
+        <v>1084.212427023745</v>
       </c>
       <c r="H16" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="I16" t="n">
-        <v>142553</v>
+        <v>565344</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>432868</v>
+        <v>422505</v>
       </c>
       <c r="E17" t="n">
-        <v>1798589</v>
+        <v>1747634</v>
       </c>
       <c r="F17" t="n">
-        <v>547.3108620958537</v>
+        <v>370.0303576263746</v>
       </c>
       <c r="G17" t="n">
-        <v>256.4214617785021</v>
+        <v>1047.018253962898</v>
       </c>
       <c r="H17" t="n">
-        <v>1.32</v>
+        <v>2.56</v>
       </c>
       <c r="I17" t="n">
-        <v>106456</v>
+        <v>104146</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>135470129</v>
+        <v>137493799</v>
       </c>
       <c r="E18" t="n">
-        <v>135470129</v>
+        <v>137493799</v>
       </c>
       <c r="F18" t="n">
-        <v>72035.06267646914</v>
+        <v>67308.72619587026</v>
       </c>
       <c r="G18" t="n">
-        <v>92710.6173543192</v>
+        <v>90110.89185666174</v>
       </c>
       <c r="H18" t="n">
         <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>90380814</v>
+        <v>95071573</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62667939</v>
+        <v>63386582</v>
       </c>
       <c r="E19" t="n">
-        <v>321374046</v>
+        <v>325059394</v>
       </c>
       <c r="F19" t="n">
-        <v>12091.54777622719</v>
+        <v>10203.25197472166</v>
       </c>
       <c r="G19" t="n">
-        <v>5441.216862459633</v>
+        <v>5614.779267008459</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>27253836</v>
+        <v>27330686</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>247411839</v>
+        <v>249327965</v>
       </c>
       <c r="E20" t="n">
-        <v>247411839</v>
+        <v>249327965</v>
       </c>
       <c r="F20" t="n">
-        <v>80975.479468252</v>
+        <v>70706.37888668984</v>
       </c>
       <c r="G20" t="n">
-        <v>33632.85148178953</v>
+        <v>29064.71837236372</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I20" t="n">
-        <v>25906541</v>
+        <v>26095161</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>168782702</v>
+        <v>169244432</v>
       </c>
       <c r="E21" t="n">
-        <v>222098296</v>
+        <v>222705879</v>
       </c>
       <c r="F21" t="n">
-        <v>14304.34610608349</v>
+        <v>12027.51820327188</v>
       </c>
       <c r="G21" t="n">
-        <v>3872.61800133198</v>
+        <v>2045.140002195772</v>
       </c>
       <c r="H21" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I21" t="n">
-        <v>14579336</v>
+        <v>18318009</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80071959</v>
+        <v>80383541</v>
       </c>
       <c r="E22" t="n">
-        <v>224039334</v>
+        <v>224894283</v>
       </c>
       <c r="F22" t="n">
-        <v>21347.31790486097</v>
+        <v>25760.567099857</v>
       </c>
       <c r="G22" t="n">
-        <v>28366.64942624911</v>
+        <v>19260.43314174291</v>
       </c>
       <c r="H22" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I22" t="n">
-        <v>54595307</v>
+        <v>54503109</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81734984</v>
+        <v>84383497</v>
       </c>
       <c r="E23" t="n">
-        <v>170410876</v>
+        <v>175932814</v>
       </c>
       <c r="F23" t="n">
-        <v>15047.65835455222</v>
+        <v>10719.87383480599</v>
       </c>
       <c r="G23" t="n">
-        <v>20628.42153955137</v>
+        <v>17729.75806391809</v>
       </c>
       <c r="H23" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>70723246</v>
+        <v>71970640</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>633976975</v>
+        <v>646331399</v>
       </c>
       <c r="E24" t="n">
-        <v>633976975</v>
+        <v>646331399</v>
       </c>
       <c r="F24" t="n">
-        <v>126149.8185514674</v>
+        <v>134232.8106348873</v>
       </c>
       <c r="G24" t="n">
-        <v>79934.02731682471</v>
+        <v>73604.41336556971</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I24" t="n">
-        <v>548889140</v>
+        <v>555909648</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>193745876</v>
+        <v>195548969</v>
       </c>
       <c r="E25" t="n">
-        <v>673090684</v>
+        <v>679354792</v>
       </c>
       <c r="F25" t="n">
-        <v>56826.17948556566</v>
+        <v>56634.76184243489</v>
       </c>
       <c r="G25" t="n">
-        <v>104225.5796889342</v>
+        <v>102632.8487467125</v>
       </c>
       <c r="H25" t="n">
         <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>41059237</v>
+        <v>41310318</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5618676</v>
+        <v>5625640</v>
       </c>
       <c r="E26" t="n">
-        <v>7625303</v>
+        <v>7634593</v>
       </c>
       <c r="F26" t="n">
-        <v>90.0878972845376</v>
+        <v>117.3949682803383</v>
       </c>
       <c r="G26" t="n">
-        <v>2295.042873674851</v>
+        <v>2376.906964750745</v>
       </c>
       <c r="H26" t="n">
-        <v>0.82</v>
+        <v>0.22</v>
       </c>
       <c r="I26" t="n">
-        <v>5497602</v>
+        <v>5457108</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14076569</v>
+        <v>14082237</v>
       </c>
       <c r="F27" t="n">
-        <v>2495.142143821161</v>
+        <v>2652.094271017079</v>
       </c>
       <c r="G27" t="n">
-        <v>2228.11048953224</v>
+        <v>1794.35528488795</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>0.31</v>
       </c>
       <c r="I27" t="n">
-        <v>224377</v>
+        <v>232430</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24676202</v>
+        <v>24272274</v>
       </c>
       <c r="E28" t="n">
-        <v>34871453</v>
+        <v>34300637</v>
       </c>
       <c r="F28" t="n">
-        <v>675.9546310308195</v>
+        <v>433.9708329520743</v>
       </c>
       <c r="G28" t="n">
-        <v>151.5623157152284</v>
+        <v>119.6290956630726</v>
       </c>
       <c r="H28" t="n">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
       <c r="I28" t="n">
-        <v>140783</v>
+        <v>154823</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>255260033</v>
+        <v>257918306</v>
       </c>
       <c r="E29" t="n">
-        <v>1101844008</v>
+        <v>1113318588</v>
       </c>
       <c r="F29" t="n">
-        <v>84032.30129231204</v>
+        <v>117923.2796942439</v>
       </c>
       <c r="G29" t="n">
-        <v>123559.761958612</v>
+        <v>118498.1387821695</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I29" t="n">
-        <v>141931046</v>
+        <v>142650944</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10235198</v>
+        <v>10049174</v>
       </c>
       <c r="E30" t="n">
-        <v>123225384</v>
+        <v>120985776</v>
       </c>
       <c r="F30" t="n">
-        <v>280.6860513568229</v>
+        <v>520.1095810902167</v>
       </c>
       <c r="G30" t="n">
-        <v>848.7926545679661</v>
+        <v>247.8012516494533</v>
       </c>
       <c r="H30" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I30" t="n">
-        <v>273925</v>
+        <v>577054</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15714614</v>
+        <v>16184649</v>
       </c>
       <c r="E31" t="n">
-        <v>39286534</v>
+        <v>40461624</v>
       </c>
       <c r="F31" t="n">
-        <v>6950.273962510951</v>
+        <v>5396.418900934489</v>
       </c>
       <c r="G31" t="n">
-        <v>4822.742737206826</v>
+        <v>4942.495044446418</v>
       </c>
       <c r="H31" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>4917686</v>
+        <v>5050410</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19396374</v>
+        <v>19105395</v>
       </c>
       <c r="F32" t="n">
-        <v>1519.619630297587</v>
+        <v>2242.126248852196</v>
       </c>
       <c r="G32" t="n">
-        <v>1242.853382497084</v>
+        <v>3077.519243850994</v>
       </c>
       <c r="H32" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="I32" t="n">
-        <v>67169</v>
+        <v>68006</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1542753</v>
+        <v>1504190</v>
       </c>
       <c r="E33" t="n">
-        <v>5751315</v>
+        <v>5607551</v>
       </c>
       <c r="F33" t="n">
-        <v>821.2005591078203</v>
+        <v>1934.426038345006</v>
       </c>
       <c r="G33" t="n">
-        <v>2988.972720412019</v>
+        <v>1892.880983502494</v>
       </c>
       <c r="H33" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="I33" t="n">
-        <v>718316</v>
+        <v>727019</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4106453</v>
+        <v>4047077</v>
       </c>
       <c r="E34" t="n">
-        <v>11827084</v>
+        <v>11656076</v>
       </c>
       <c r="F34" t="n">
-        <v>3041.47776596605</v>
+        <v>4351.365021684555</v>
       </c>
       <c r="G34" t="n">
-        <v>4067.755254590218</v>
+        <v>3360.506020242995</v>
       </c>
       <c r="H34" t="n">
-        <v>0.42</v>
+        <v>0.68</v>
       </c>
       <c r="I34" t="n">
-        <v>490676</v>
+        <v>487165</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13603613</v>
+        <v>13937032</v>
       </c>
       <c r="E35" t="n">
-        <v>65884467</v>
+        <v>67499271</v>
       </c>
       <c r="F35" t="n">
-        <v>3894.64538631057</v>
+        <v>3997.627469562599</v>
       </c>
       <c r="G35" t="n">
-        <v>1564.278384474869</v>
+        <v>1516.315850750853</v>
       </c>
       <c r="H35" t="n">
-        <v>1.27</v>
+        <v>0.66</v>
       </c>
       <c r="I35" t="n">
-        <v>5573384</v>
+        <v>5537447</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1242591</v>
+        <v>1233768</v>
       </c>
       <c r="E36" t="n">
-        <v>8132728</v>
+        <v>8074979</v>
       </c>
       <c r="F36" t="n">
-        <v>323.875053423325</v>
+        <v>180.1212984401812</v>
       </c>
       <c r="G36" t="n">
-        <v>1137.535926034878</v>
+        <v>321.3378214893732</v>
       </c>
       <c r="H36" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="I36" t="n">
-        <v>344564</v>
+        <v>348442</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1834713770</v>
+        <v>1844541893</v>
       </c>
       <c r="F37" t="n">
-        <v>75400.22203095771</v>
+        <v>68010.20661255081</v>
       </c>
       <c r="G37" t="n">
-        <v>69589.22608430662</v>
+        <v>63828.32055290131</v>
       </c>
       <c r="H37" t="n">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>30797091</v>
+        <v>30891486</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1788621</v>
+        <v>1817265</v>
       </c>
       <c r="E38" t="n">
-        <v>12826025</v>
+        <v>13031428</v>
       </c>
       <c r="F38" t="n">
-        <v>8.493814947607357</v>
+        <v>146.6365249415612</v>
       </c>
       <c r="G38" t="n">
-        <v>436.9436237954744</v>
+        <v>126.7269224202447</v>
       </c>
       <c r="H38" t="n">
-        <v>1.25</v>
+        <v>3.09</v>
       </c>
       <c r="I38" t="n">
-        <v>2081987</v>
+        <v>2098309</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>191474990</v>
+        <v>192722507</v>
       </c>
       <c r="E39" t="n">
-        <v>1084249045</v>
+        <v>1091313253</v>
       </c>
       <c r="F39" t="n">
-        <v>41466.28016952208</v>
+        <v>36735.38910203488</v>
       </c>
       <c r="G39" t="n">
-        <v>45655.60346889054</v>
+        <v>57727.61276874059</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>86047506</v>
+        <v>86559165</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>122762329</v>
+        <v>123707878</v>
       </c>
       <c r="E40" t="n">
-        <v>909350587</v>
+        <v>916354651</v>
       </c>
       <c r="F40" t="n">
-        <v>13925.20541575086</v>
+        <v>5946.817383663393</v>
       </c>
       <c r="G40" t="n">
-        <v>9776.423001875322</v>
+        <v>4270.393575751171</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I40" t="n">
-        <v>27460550</v>
+        <v>35785725</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>318069923</v>
+        <v>320052307</v>
       </c>
       <c r="E41" t="n">
-        <v>2861554256</v>
+        <v>2879389010</v>
       </c>
       <c r="F41" t="n">
-        <v>56480.64685143357</v>
+        <v>64962.28702268006</v>
       </c>
       <c r="G41" t="n">
-        <v>87854.66519680961</v>
+        <v>76325.03789219604</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I41" t="n">
-        <v>67784786</v>
+        <v>69185776</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1524726</v>
+        <v>1522399</v>
       </c>
       <c r="E42" t="n">
-        <v>12706047</v>
+        <v>12686662</v>
       </c>
       <c r="F42" t="n">
-        <v>2972.636438446121</v>
+        <v>1379.846188379561</v>
       </c>
       <c r="G42" t="n">
-        <v>1240.458349096628</v>
+        <v>2338.806174989579</v>
       </c>
       <c r="H42" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>30581</v>
+        <v>30842</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19244971</v>
+        <v>19784699</v>
       </c>
       <c r="E43" t="n">
-        <v>57699435</v>
+        <v>59317623</v>
       </c>
       <c r="F43" t="n">
-        <v>2853.204675252216</v>
+        <v>2093.469196183322</v>
       </c>
       <c r="G43" t="n">
-        <v>1342.962970607443</v>
+        <v>839.73175947324</v>
       </c>
       <c r="H43" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="I43" t="n">
-        <v>3626839</v>
+        <v>4429193</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>10113871</v>
+        <v>11377289</v>
       </c>
       <c r="F44" t="n">
-        <v>2180.917407827466</v>
+        <v>1368.165476180313</v>
       </c>
       <c r="G44" t="n">
-        <v>88.95720371252747</v>
+        <v>1078.976695885282</v>
       </c>
       <c r="H44" t="n">
-        <v>0.25</v>
+        <v>0.84</v>
       </c>
       <c r="I44" t="n">
-        <v>253976</v>
+        <v>818976</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12471023</v>
+        <v>12376572</v>
       </c>
       <c r="E45" t="n">
-        <v>12471023</v>
+        <v>12376572</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>7.619488292102311</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>163.2257244679262</v>
       </c>
       <c r="H45" t="n">
-        <v>4.15</v>
+        <v>2.07</v>
       </c>
       <c r="I45" t="n">
-        <v>3157029</v>
+        <v>2971542</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>282665575</v>
+        <v>289381575</v>
       </c>
       <c r="E46" t="n">
-        <v>282665575</v>
+        <v>289381575</v>
       </c>
       <c r="F46" t="n">
-        <v>11829.29934705233</v>
+        <v>9172.35783869306</v>
       </c>
       <c r="G46" t="n">
-        <v>14741.85938395574</v>
+        <v>13331.8377718898</v>
       </c>
       <c r="H46" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>19748113</v>
+        <v>20157392</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12580996</v>
+        <v>12601631</v>
       </c>
       <c r="E47" t="n">
-        <v>39792050</v>
+        <v>39857315</v>
       </c>
       <c r="F47" t="n">
-        <v>6301.896717927688</v>
+        <v>5760.372611215412</v>
       </c>
       <c r="G47" t="n">
-        <v>3085.602625713544</v>
+        <v>2835.219075559348</v>
       </c>
       <c r="H47" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="I47" t="n">
-        <v>1026214</v>
+        <v>1007379</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31040803</v>
+        <v>31414780</v>
       </c>
       <c r="E48" t="n">
-        <v>85979945</v>
+        <v>87015822</v>
       </c>
       <c r="F48" t="n">
-        <v>5185.125629399421</v>
+        <v>4806.694515830342</v>
       </c>
       <c r="G48" t="n">
-        <v>1994.98658435377</v>
+        <v>1714.670917113028</v>
       </c>
       <c r="H48" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I48" t="n">
-        <v>12488826</v>
+        <v>12553021</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27623866</v>
+        <v>27686507</v>
       </c>
       <c r="E49" t="n">
-        <v>65528931</v>
+        <v>65677529</v>
       </c>
       <c r="F49" t="n">
-        <v>2484.113856039141</v>
+        <v>10259.45171350362</v>
       </c>
       <c r="G49" t="n">
-        <v>7764.855835849453</v>
+        <v>7547.036333196645</v>
       </c>
       <c r="H49" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="I49" t="n">
-        <v>675667</v>
+        <v>604068</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12253818</v>
+        <v>12229608</v>
       </c>
       <c r="E50" t="n">
-        <v>18653075</v>
+        <v>18616221</v>
       </c>
       <c r="F50" t="n">
-        <v>3653.503928410603</v>
+        <v>5733.001066311035</v>
       </c>
       <c r="G50" t="n">
-        <v>18538.15999019414</v>
+        <v>18868.76723584471</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09</v>
+        <v>0.52</v>
       </c>
       <c r="I50" t="n">
-        <v>649905</v>
+        <v>671357</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>286048999</v>
+        <v>289572255</v>
       </c>
       <c r="E51" t="n">
-        <v>286048999</v>
+        <v>289572255</v>
       </c>
       <c r="F51" t="n">
-        <v>28615.63861852628</v>
+        <v>36464.29295969856</v>
       </c>
       <c r="G51" t="n">
-        <v>47439.16005878166</v>
+        <v>43630.50171651146</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I51" t="n">
-        <v>93205671</v>
+        <v>93851906</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>83414356</v>
+        <v>84350209</v>
       </c>
       <c r="E52" t="n">
-        <v>480669498</v>
+        <v>486062286</v>
       </c>
       <c r="F52" t="n">
-        <v>21832.66261047051</v>
+        <v>6281.054455756114</v>
       </c>
       <c r="G52" t="n">
-        <v>4101.522784603349</v>
+        <v>2448.002490091154</v>
       </c>
       <c r="H52" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I52" t="n">
-        <v>21205713</v>
+        <v>20869654</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>28749906</v>
+        <v>29180678</v>
       </c>
       <c r="E53" t="n">
-        <v>128725121</v>
+        <v>130653865</v>
       </c>
       <c r="F53" t="n">
-        <v>11932.70311731553</v>
+        <v>10882.18280869336</v>
       </c>
       <c r="G53" t="n">
-        <v>12871.07467191649</v>
+        <v>7335.781279095387</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I53" t="n">
-        <v>14580628</v>
+        <v>14864862</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7993730</v>
+        <v>8036436</v>
       </c>
       <c r="F54" t="n">
-        <v>5341.622576307527</v>
+        <v>3779.477368936037</v>
       </c>
       <c r="G54" t="n">
-        <v>4876.207440758532</v>
+        <v>4896.055079493057</v>
       </c>
       <c r="H54" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="I54" t="n">
-        <v>310864</v>
+        <v>308606</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4521677</v>
+        <v>4412305</v>
       </c>
       <c r="F55" t="n">
-        <v>2042.54624041116</v>
+        <v>2065.128066742276</v>
       </c>
       <c r="G55" t="n">
-        <v>901.1478433604378</v>
+        <v>913.5907149810625</v>
       </c>
       <c r="H55" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="I55" t="n">
-        <v>254588</v>
+        <v>231816</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123694670</v>
+        <v>123904669</v>
       </c>
       <c r="E56" t="n">
-        <v>2048485038</v>
+        <v>2051962792</v>
       </c>
       <c r="F56" t="n">
-        <v>20209.51806098544</v>
+        <v>14833.02996278767</v>
       </c>
       <c r="G56" t="n">
-        <v>26268.85676352194</v>
+        <v>19878.13844214692</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>36053815</v>
+        <v>36374838</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>91102607</v>
+        <v>93567380</v>
       </c>
       <c r="E57" t="n">
-        <v>92083261</v>
+        <v>94574564</v>
       </c>
       <c r="F57" t="n">
-        <v>19502.29008035488</v>
+        <v>16027.90900318237</v>
       </c>
       <c r="G57" t="n">
-        <v>19401.81651217199</v>
+        <v>18160.15058030095</v>
       </c>
       <c r="H57" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I57" t="n">
-        <v>81464171</v>
+        <v>82900662</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>241963376</v>
+        <v>244547598</v>
       </c>
       <c r="E58" t="n">
-        <v>241963376</v>
+        <v>244547598</v>
       </c>
       <c r="F58" t="n">
-        <v>64485.5032442792</v>
+        <v>51554.38751083383</v>
       </c>
       <c r="G58" t="n">
-        <v>72696.91715296055</v>
+        <v>73903.95706629581</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>93651481</v>
+        <v>94429412</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22561329</v>
+        <v>23053341</v>
       </c>
       <c r="E59" t="n">
-        <v>134988967</v>
+        <v>137932776</v>
       </c>
       <c r="F59" t="n">
-        <v>14613.98088502197</v>
+        <v>22745.46537467267</v>
       </c>
       <c r="G59" t="n">
-        <v>27562.95994276694</v>
+        <v>21735.86039083811</v>
       </c>
       <c r="H59" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I59" t="n">
-        <v>18064381</v>
+        <v>18358681</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2686555</v>
+        <v>2828567</v>
       </c>
       <c r="E60" t="n">
-        <v>4958190</v>
+        <v>5220282</v>
       </c>
       <c r="F60" t="n">
-        <v>0.065430373082855</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1131.373913936154</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.61</v>
+        <v>7.8</v>
       </c>
       <c r="I60" t="n">
-        <v>268731</v>
+        <v>416162</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8803070</v>
+        <v>9180025</v>
       </c>
       <c r="E62" t="n">
-        <v>26097039</v>
+        <v>27214537</v>
       </c>
       <c r="F62" t="n">
-        <v>4484.372075483428</v>
+        <v>2380.710911470587</v>
       </c>
       <c r="G62" t="n">
-        <v>1509.930206963792</v>
+        <v>880.0216378266826</v>
       </c>
       <c r="H62" t="n">
         <v>0.19</v>
       </c>
       <c r="I62" t="n">
-        <v>6445564</v>
+        <v>6533311</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14715873</v>
+        <v>14533599</v>
       </c>
       <c r="E63" t="n">
-        <v>29791387</v>
+        <v>29422384</v>
       </c>
       <c r="F63" t="n">
-        <v>6143.366063374481</v>
+        <v>7624.935932133262</v>
       </c>
       <c r="G63" t="n">
-        <v>17630.14986959309</v>
+        <v>14202.56355941794</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>575360</v>
+        <v>570289</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32767720</v>
+        <v>33582789</v>
       </c>
       <c r="E64" t="n">
-        <v>232317792</v>
+        <v>238096495</v>
       </c>
       <c r="F64" t="n">
-        <v>36326.21660000728</v>
+        <v>37962.35608415133</v>
       </c>
       <c r="G64" t="n">
-        <v>48237.68020001162</v>
+        <v>44129.7250612967</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="I64" t="n">
-        <v>6321692</v>
+        <v>6360935</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1253222</v>
+        <v>1258693</v>
       </c>
       <c r="E65" t="n">
-        <v>7770091</v>
+        <v>7804014</v>
       </c>
       <c r="F65" t="n">
-        <v>115.3002838652804</v>
+        <v>62.54066393094573</v>
       </c>
       <c r="G65" t="n">
-        <v>167.9308298872164</v>
+        <v>177.6475651138729</v>
       </c>
       <c r="H65" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="I65" t="n">
-        <v>776138</v>
+        <v>773065</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>570378695</v>
+        <v>580365108</v>
       </c>
       <c r="E66" t="n">
-        <v>2208992533</v>
+        <v>2247668436</v>
       </c>
       <c r="F66" t="n">
-        <v>58949.01008882324</v>
+        <v>56246.20576004739</v>
       </c>
       <c r="G66" t="n">
-        <v>43014.36306855791</v>
+        <v>34565.86934168309</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>60819249</v>
+        <v>61735888</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5433419</v>
+        <v>5472292</v>
       </c>
       <c r="E67" t="n">
-        <v>24321251</v>
+        <v>24495257</v>
       </c>
       <c r="F67" t="n">
-        <v>3895.105449076556</v>
+        <v>3830.090345515096</v>
       </c>
       <c r="G67" t="n">
-        <v>19148.29069860979</v>
+        <v>19059.42124684284</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.46</v>
       </c>
       <c r="I67" t="n">
-        <v>191811</v>
+        <v>192670</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>106708127</v>
+        <v>108668687</v>
       </c>
       <c r="E68" t="n">
-        <v>1010228578</v>
+        <v>1028789614</v>
       </c>
       <c r="F68" t="n">
-        <v>5214.000084500853</v>
+        <v>16326.19130232997</v>
       </c>
       <c r="G68" t="n">
-        <v>4584.969118554728</v>
+        <v>1641.094631121625</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="I68" t="n">
-        <v>16322024</v>
+        <v>17127953</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>98460999</v>
+        <v>101536253</v>
       </c>
       <c r="E69" t="n">
-        <v>150204562</v>
+        <v>154895934</v>
       </c>
       <c r="F69" t="n">
-        <v>12647.85596818939</v>
+        <v>10985.9995429258</v>
       </c>
       <c r="G69" t="n">
-        <v>17960.49368235893</v>
+        <v>12563.45936719676</v>
       </c>
       <c r="H69" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="I69" t="n">
-        <v>13194152</v>
+        <v>13242354</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1078381</v>
+        <v>1064356</v>
       </c>
       <c r="E70" t="n">
-        <v>4175725</v>
+        <v>4121419</v>
       </c>
       <c r="F70" t="n">
-        <v>3256.414558149367</v>
+        <v>2200.030636618124</v>
       </c>
       <c r="G70" t="n">
-        <v>2238.56502946373</v>
+        <v>4405.563032996751</v>
       </c>
       <c r="H70" t="n">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="I70" t="n">
-        <v>315974</v>
+        <v>295808</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>120296882</v>
+        <v>121117275</v>
       </c>
       <c r="E71" t="n">
-        <v>461478201</v>
+        <v>464625362</v>
       </c>
       <c r="F71" t="n">
-        <v>17483.18609998441</v>
+        <v>13658.40432292989</v>
       </c>
       <c r="G71" t="n">
-        <v>12465.95968952989</v>
+        <v>8168.234695650657</v>
       </c>
       <c r="H71" t="n">
         <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>39537255</v>
+        <v>37400155</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3100349</v>
+        <v>3071929</v>
       </c>
       <c r="E72" t="n">
-        <v>29376265</v>
+        <v>29106982</v>
       </c>
       <c r="F72" t="n">
-        <v>164.0728122825793</v>
+        <v>888.5573433992715</v>
       </c>
       <c r="G72" t="n">
-        <v>65.35234445326461</v>
+        <v>18.53193159727414</v>
       </c>
       <c r="H72" t="n">
-        <v>1.24</v>
+        <v>0.72</v>
       </c>
       <c r="I72" t="n">
-        <v>261994</v>
+        <v>221104</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>36063732</v>
+        <v>37175137</v>
       </c>
       <c r="F73" t="n">
-        <v>2763.674670807416</v>
+        <v>1140.883511264651</v>
       </c>
       <c r="G73" t="n">
-        <v>2021.618015538191</v>
+        <v>2287.130795352635</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I73" t="n">
-        <v>8028472</v>
+        <v>8163068</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89298252</v>
+        <v>89512246</v>
       </c>
       <c r="E74" t="n">
-        <v>330083000</v>
+        <v>330872665</v>
       </c>
       <c r="F74" t="n">
-        <v>153.0850469414817</v>
+        <v>29.34093071747037</v>
       </c>
       <c r="G74" t="n">
-        <v>141.4541402041016</v>
+        <v>256.8720360301842</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2.65</v>
       </c>
       <c r="I74" t="n">
-        <v>272374</v>
+        <v>250995</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21670240</v>
+        <v>21990722</v>
       </c>
       <c r="E75" t="n">
-        <v>21670240</v>
+        <v>21990722</v>
       </c>
       <c r="F75" t="n">
-        <v>3984.967122938115</v>
+        <v>1960.278732723745</v>
       </c>
       <c r="G75" t="n">
-        <v>849.7554104469813</v>
+        <v>1034.445801395473</v>
       </c>
       <c r="H75" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I75" t="n">
-        <v>5959247</v>
+        <v>5936612</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>461827293</v>
+        <v>469423662</v>
       </c>
       <c r="E76" t="n">
-        <v>1607582373</v>
+        <v>1634024699</v>
       </c>
       <c r="F76" t="n">
-        <v>26747.80700140429</v>
+        <v>18906.14512839388</v>
       </c>
       <c r="G76" t="n">
-        <v>29111.67621850863</v>
+        <v>24435.44043618399</v>
       </c>
       <c r="H76" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>47367314</v>
+        <v>47805568</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5474160062</v>
+        <v>5529375578</v>
       </c>
       <c r="E77" t="n">
-        <v>5473628623</v>
+        <v>5529375578</v>
       </c>
       <c r="F77" t="n">
-        <v>1521.305469558694</v>
+        <v>1529.489879863385</v>
       </c>
       <c r="G77" t="n">
-        <v>1169.309465656929</v>
+        <v>1175.600186772178</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35242246</v>
+        <v>35675821</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7158856</v>
+        <v>7135949</v>
       </c>
       <c r="E78" t="n">
-        <v>18597938</v>
+        <v>18538428</v>
       </c>
       <c r="F78" t="n">
-        <v>321.4196015599091</v>
+        <v>320.4879690160065</v>
       </c>
       <c r="G78" t="n">
-        <v>106.9638603697076</v>
+        <v>232.9273236239885</v>
       </c>
       <c r="H78" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="I78" t="n">
-        <v>770187</v>
+        <v>773384</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>105526345</v>
+        <v>106302969</v>
       </c>
       <c r="E79" t="n">
-        <v>159884606</v>
+        <v>161061280</v>
       </c>
       <c r="F79" t="n">
-        <v>39667.92804674975</v>
+        <v>41065.24939142527</v>
       </c>
       <c r="G79" t="n">
-        <v>42034.33402161665</v>
+        <v>37167.78028391064</v>
       </c>
       <c r="H79" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="I79" t="n">
-        <v>9702987</v>
+        <v>9714816</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2350364</v>
+        <v>2313228</v>
       </c>
       <c r="E80" t="n">
-        <v>9401455</v>
+        <v>9252913</v>
       </c>
       <c r="F80" t="n">
-        <v>1038.51430380652</v>
+        <v>483.7811387016866</v>
       </c>
       <c r="G80" t="n">
-        <v>1508.297048034827</v>
+        <v>1623.053679610587</v>
       </c>
       <c r="H80" t="n">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="I80" t="n">
-        <v>7534218</v>
+        <v>7759475</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2281479</v>
+        <v>2282449</v>
       </c>
       <c r="F81" t="n">
-        <v>563.3284741949129</v>
+        <v>600.0831889673437</v>
       </c>
       <c r="G81" t="n">
-        <v>215.9854393395662</v>
+        <v>243.4419003830844</v>
       </c>
       <c r="H81" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="I81" t="n">
-        <v>178575</v>
+        <v>182087</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>378731146</v>
+        <v>380530367</v>
       </c>
       <c r="E82" t="n">
-        <v>2164177974</v>
+        <v>2174459238</v>
       </c>
       <c r="F82" t="n">
-        <v>30881.3985928841</v>
+        <v>29651.38427384097</v>
       </c>
       <c r="G82" t="n">
-        <v>42175.18516136624</v>
+        <v>30128.45015678009</v>
       </c>
       <c r="H82" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>61637851</v>
+        <v>62584414</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3876209</v>
+        <v>3862364</v>
       </c>
       <c r="F2" t="n">
-        <v>160.1699447180057</v>
+        <v>191.4876084847251</v>
       </c>
       <c r="G2" t="n">
-        <v>443.3838100226081</v>
+        <v>491.5456706648066</v>
       </c>
       <c r="H2" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="I2" t="n">
-        <v>141622</v>
+        <v>140891</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1408080</v>
+        <v>1415502</v>
       </c>
       <c r="E3" t="n">
-        <v>4551492</v>
+        <v>4575483</v>
       </c>
       <c r="F3" t="n">
-        <v>199.2067631780139</v>
+        <v>304.671838511353</v>
       </c>
       <c r="G3" t="n">
-        <v>347.2207205458905</v>
+        <v>269.6862143358335</v>
       </c>
       <c r="H3" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="I3" t="n">
-        <v>226975</v>
+        <v>228800</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249469185</v>
+        <v>251571223</v>
       </c>
       <c r="E4" t="n">
-        <v>1564386194</v>
+        <v>1577567776</v>
       </c>
       <c r="F4" t="n">
-        <v>22053.75383336994</v>
+        <v>13054.91729606872</v>
       </c>
       <c r="G4" t="n">
-        <v>34212.84672129478</v>
+        <v>23133.85671199682</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="I4" t="n">
-        <v>26643402</v>
+        <v>27633221</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140348431</v>
+        <v>140098388</v>
       </c>
       <c r="E5" t="n">
-        <v>155527995</v>
+        <v>155250908</v>
       </c>
       <c r="F5" t="n">
-        <v>24414.49377903929</v>
+        <v>23020.93941388492</v>
       </c>
       <c r="G5" t="n">
-        <v>17465.52288368534</v>
+        <v>24831.09240481668</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>53582874</v>
+        <v>53874421</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117364219</v>
+        <v>117292076</v>
       </c>
       <c r="E6" t="n">
-        <v>460032599</v>
+        <v>459749817</v>
       </c>
       <c r="F6" t="n">
-        <v>9843.136370082206</v>
+        <v>9447.629600461027</v>
       </c>
       <c r="G6" t="n">
-        <v>6058.336961688076</v>
+        <v>10140.90010407116</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>27192054</v>
+        <v>27093659</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4362612</v>
+        <v>4358662</v>
       </c>
       <c r="E7" t="n">
-        <v>26785778</v>
+        <v>26761524</v>
       </c>
       <c r="F7" t="n">
-        <v>144.1177424131891</v>
+        <v>303.1489111013303</v>
       </c>
       <c r="G7" t="n">
-        <v>741.6578803441536</v>
+        <v>709.5135226935906</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="I7" t="n">
-        <v>598046</v>
+        <v>573387</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>195707</v>
+        <v>195690</v>
       </c>
       <c r="E8" t="n">
-        <v>2152990</v>
+        <v>2152801</v>
       </c>
       <c r="F8" t="n">
-        <v>3034.532673908579</v>
+        <v>3382.690745218326</v>
       </c>
       <c r="G8" t="n">
-        <v>4057.815713866099</v>
+        <v>4034.549647830821</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>0.79</v>
       </c>
       <c r="I8" t="n">
-        <v>36613</v>
+        <v>35773</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68888912</v>
+        <v>68829979</v>
       </c>
       <c r="E9" t="n">
-        <v>119256215</v>
+        <v>119151345</v>
       </c>
       <c r="F9" t="n">
-        <v>1239.244279358507</v>
+        <v>1314.135890408757</v>
       </c>
       <c r="G9" t="n">
-        <v>843.051732364934</v>
+        <v>542.9110220903112</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I9" t="n">
-        <v>829674</v>
+        <v>795321</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8796598</v>
+        <v>8806131</v>
       </c>
       <c r="E10" t="n">
-        <v>12450930</v>
+        <v>12464424</v>
       </c>
       <c r="F10" t="n">
-        <v>3069.655387606373</v>
+        <v>3064.633293268297</v>
       </c>
       <c r="G10" t="n">
-        <v>2924.255344762996</v>
+        <v>3044.980884329268</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>43537</v>
+        <v>22382</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>497109266</v>
+        <v>492958291</v>
       </c>
       <c r="E11" t="n">
-        <v>497109266</v>
+        <v>492958295</v>
       </c>
       <c r="F11" t="n">
-        <v>10936.9029549988</v>
+        <v>15029.32283457527</v>
       </c>
       <c r="G11" t="n">
-        <v>20039.21387654383</v>
+        <v>26297.17871809687</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>75646341</v>
+        <v>77378083</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>298999</v>
+        <v>302595</v>
       </c>
       <c r="E12" t="n">
-        <v>1395759</v>
+        <v>1412543</v>
       </c>
       <c r="F12" t="n">
-        <v>639.8862654696594</v>
+        <v>504.9694656073883</v>
       </c>
       <c r="G12" t="n">
-        <v>178.1467582524599</v>
+        <v>98.54951531996748</v>
       </c>
       <c r="H12" t="n">
-        <v>0.21</v>
+        <v>2.91</v>
       </c>
       <c r="I12" t="n">
-        <v>687065</v>
+        <v>679153</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1765642</v>
+        <v>1718650</v>
       </c>
       <c r="F13" t="n">
-        <v>2865.74120242264</v>
+        <v>4165.98396841267</v>
       </c>
       <c r="G13" t="n">
-        <v>1301.725624368405</v>
+        <v>367.422413272451</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>1222380</v>
+        <v>1308467</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11853817</v>
+        <v>11933848</v>
       </c>
       <c r="E14" t="n">
-        <v>29502008</v>
+        <v>29701190</v>
       </c>
       <c r="F14" t="n">
-        <v>592.901174488063</v>
+        <v>1456.667732741841</v>
       </c>
       <c r="G14" t="n">
-        <v>1663.85679823163</v>
+        <v>797.82790561158</v>
       </c>
       <c r="H14" t="n">
-        <v>0.82</v>
+        <v>0.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1519332</v>
+        <v>1509874</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108757669</v>
+        <v>108687724</v>
       </c>
       <c r="E15" t="n">
-        <v>422735187</v>
+        <v>422438936</v>
       </c>
       <c r="F15" t="n">
-        <v>1783.914022104683</v>
+        <v>1277.805660791367</v>
       </c>
       <c r="G15" t="n">
-        <v>1893.672620362696</v>
+        <v>4653.57527799669</v>
       </c>
       <c r="H15" t="n">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="I15" t="n">
-        <v>12544146</v>
+        <v>12546578</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4684634</v>
+        <v>4684591</v>
       </c>
       <c r="E16" t="n">
-        <v>6896035</v>
+        <v>6895971</v>
       </c>
       <c r="F16" t="n">
-        <v>3535.580804890758</v>
+        <v>1929.680556338222</v>
       </c>
       <c r="G16" t="n">
-        <v>1084.212427023745</v>
+        <v>4694.591187034851</v>
       </c>
       <c r="H16" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="I16" t="n">
-        <v>565344</v>
+        <v>573446</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>422505</v>
+        <v>428317</v>
       </c>
       <c r="E17" t="n">
-        <v>1747634</v>
+        <v>1771673</v>
       </c>
       <c r="F17" t="n">
-        <v>370.0303576263746</v>
+        <v>27.77316019520912</v>
       </c>
       <c r="G17" t="n">
-        <v>1047.018253962898</v>
+        <v>456.1285637715844</v>
       </c>
       <c r="H17" t="n">
-        <v>2.56</v>
+        <v>1.99</v>
       </c>
       <c r="I17" t="n">
-        <v>104146</v>
+        <v>104777</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>137493799</v>
+        <v>137261467</v>
       </c>
       <c r="E18" t="n">
-        <v>137493799</v>
+        <v>137261467</v>
       </c>
       <c r="F18" t="n">
-        <v>67308.72619587026</v>
+        <v>71788.82066136242</v>
       </c>
       <c r="G18" t="n">
-        <v>90110.89185666174</v>
+        <v>56983.84074557036</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>95071573</v>
+        <v>91152730</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63386582</v>
+        <v>63121878</v>
       </c>
       <c r="E19" t="n">
-        <v>325059394</v>
+        <v>323701936</v>
       </c>
       <c r="F19" t="n">
-        <v>10203.25197472166</v>
+        <v>9921.856256987177</v>
       </c>
       <c r="G19" t="n">
-        <v>5614.779267008459</v>
+        <v>6197.915255364933</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>27330686</v>
+        <v>26916488</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>249327965</v>
+        <v>248629418</v>
       </c>
       <c r="E20" t="n">
-        <v>249327965</v>
+        <v>248629418</v>
       </c>
       <c r="F20" t="n">
-        <v>70706.37888668984</v>
+        <v>65958.9237797933</v>
       </c>
       <c r="G20" t="n">
-        <v>29064.71837236372</v>
+        <v>34857.78038723277</v>
       </c>
       <c r="H20" t="n">
         <v>0.11</v>
       </c>
       <c r="I20" t="n">
-        <v>26095161</v>
+        <v>26297204</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>169244432</v>
+        <v>167640003</v>
       </c>
       <c r="E21" t="n">
-        <v>222705879</v>
+        <v>220594637</v>
       </c>
       <c r="F21" t="n">
-        <v>12027.51820327188</v>
+        <v>8224.905300636789</v>
       </c>
       <c r="G21" t="n">
-        <v>2045.140002195772</v>
+        <v>7784.118514857026</v>
       </c>
       <c r="H21" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>18318009</v>
+        <v>18351923</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80383541</v>
+        <v>77897462</v>
       </c>
       <c r="E22" t="n">
-        <v>224894283</v>
+        <v>217976971</v>
       </c>
       <c r="F22" t="n">
-        <v>25760.567099857</v>
+        <v>26202.54951419405</v>
       </c>
       <c r="G22" t="n">
-        <v>19260.43314174291</v>
+        <v>21763.15196916645</v>
       </c>
       <c r="H22" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>54503109</v>
+        <v>54891793</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84383497</v>
+        <v>87958598</v>
       </c>
       <c r="E23" t="n">
-        <v>175932814</v>
+        <v>183386613</v>
       </c>
       <c r="F23" t="n">
-        <v>10719.87383480599</v>
+        <v>14937.91600039746</v>
       </c>
       <c r="G23" t="n">
-        <v>17729.75806391809</v>
+        <v>21892.62874938883</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I23" t="n">
-        <v>71970640</v>
+        <v>76782228</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>646331399</v>
+        <v>645974338</v>
       </c>
       <c r="E24" t="n">
-        <v>646331399</v>
+        <v>645974338</v>
       </c>
       <c r="F24" t="n">
-        <v>134232.8106348873</v>
+        <v>118955.4257908233</v>
       </c>
       <c r="G24" t="n">
-        <v>73604.41336556971</v>
+        <v>82617.13638004144</v>
       </c>
       <c r="H24" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>555909648</v>
+        <v>553874533</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>195548969</v>
+        <v>194815792</v>
       </c>
       <c r="E25" t="n">
-        <v>679354792</v>
+        <v>676807667</v>
       </c>
       <c r="F25" t="n">
-        <v>56634.76184243489</v>
+        <v>57418.61907024048</v>
       </c>
       <c r="G25" t="n">
-        <v>102632.8487467125</v>
+        <v>109970.1927230156</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I25" t="n">
-        <v>41310318</v>
+        <v>41312903</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5625640</v>
+        <v>5667626</v>
       </c>
       <c r="E26" t="n">
-        <v>7634593</v>
+        <v>7691455</v>
       </c>
       <c r="F26" t="n">
-        <v>117.3949682803383</v>
+        <v>225.5868926816997</v>
       </c>
       <c r="G26" t="n">
-        <v>2376.906964750745</v>
+        <v>2195.76208363762</v>
       </c>
       <c r="H26" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I26" t="n">
-        <v>5457108</v>
+        <v>5552295</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14082237</v>
+        <v>14097720</v>
       </c>
       <c r="F27" t="n">
-        <v>2652.094271017079</v>
+        <v>2469.191663379667</v>
       </c>
       <c r="G27" t="n">
-        <v>1794.35528488795</v>
+        <v>1967.17259052265</v>
       </c>
       <c r="H27" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I27" t="n">
-        <v>232430</v>
+        <v>232812</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24272274</v>
+        <v>24333501</v>
       </c>
       <c r="E28" t="n">
-        <v>34300637</v>
+        <v>34387161</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9708329520743</v>
+        <v>181.589866871567</v>
       </c>
       <c r="G28" t="n">
-        <v>119.6290956630726</v>
+        <v>210.7638997350828</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>154823</v>
+        <v>174724</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>257918306</v>
+        <v>258845526</v>
       </c>
       <c r="E29" t="n">
-        <v>1113318588</v>
+        <v>1117320987</v>
       </c>
       <c r="F29" t="n">
-        <v>117923.2796942439</v>
+        <v>129351.215870297</v>
       </c>
       <c r="G29" t="n">
-        <v>118498.1387821695</v>
+        <v>113489.7929499516</v>
       </c>
       <c r="H29" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>142650944</v>
+        <v>142435844</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10049174</v>
+        <v>10170166</v>
       </c>
       <c r="E30" t="n">
-        <v>120985776</v>
+        <v>122442437</v>
       </c>
       <c r="F30" t="n">
-        <v>520.1095810902167</v>
+        <v>213.941899016911</v>
       </c>
       <c r="G30" t="n">
-        <v>247.8012516494533</v>
+        <v>568.0809075860408</v>
       </c>
       <c r="H30" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="I30" t="n">
-        <v>577054</v>
+        <v>535710</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16184649</v>
+        <v>15954805</v>
       </c>
       <c r="E31" t="n">
-        <v>40461624</v>
+        <v>39887013</v>
       </c>
       <c r="F31" t="n">
-        <v>5396.418900934489</v>
+        <v>4912.322714152171</v>
       </c>
       <c r="G31" t="n">
-        <v>4942.495044446418</v>
+        <v>4915.065518370099</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>5050410</v>
+        <v>5088092</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19105395</v>
+        <v>19121855</v>
       </c>
       <c r="F32" t="n">
-        <v>2242.126248852196</v>
+        <v>911.5702919765725</v>
       </c>
       <c r="G32" t="n">
-        <v>3077.519243850994</v>
+        <v>2026.077051147925</v>
       </c>
       <c r="H32" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="I32" t="n">
-        <v>68006</v>
+        <v>68907</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1504190</v>
+        <v>1494619</v>
       </c>
       <c r="E33" t="n">
-        <v>5607551</v>
+        <v>5571874</v>
       </c>
       <c r="F33" t="n">
-        <v>1934.426038345006</v>
+        <v>3015.594204390658</v>
       </c>
       <c r="G33" t="n">
-        <v>1892.880983502494</v>
+        <v>1727.370719503607</v>
       </c>
       <c r="H33" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I33" t="n">
-        <v>727019</v>
+        <v>749505</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4047077</v>
+        <v>4047717</v>
       </c>
       <c r="E34" t="n">
-        <v>11656076</v>
+        <v>11657885</v>
       </c>
       <c r="F34" t="n">
-        <v>4351.365021684555</v>
+        <v>4453.379778937437</v>
       </c>
       <c r="G34" t="n">
-        <v>3360.506020242995</v>
+        <v>3034.690967382713</v>
       </c>
       <c r="H34" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="I34" t="n">
-        <v>487165</v>
+        <v>485346</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13937032</v>
+        <v>14045645</v>
       </c>
       <c r="E35" t="n">
-        <v>67499271</v>
+        <v>68025298</v>
       </c>
       <c r="F35" t="n">
-        <v>3997.627469562599</v>
+        <v>2225.405859384564</v>
       </c>
       <c r="G35" t="n">
-        <v>1516.315850750853</v>
+        <v>2021.157833889607</v>
       </c>
       <c r="H35" t="n">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5537447</v>
+        <v>5655944</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1233768</v>
+        <v>1229017</v>
       </c>
       <c r="E36" t="n">
-        <v>8074979</v>
+        <v>8043883</v>
       </c>
       <c r="F36" t="n">
-        <v>180.1212984401812</v>
+        <v>789.0248266597423</v>
       </c>
       <c r="G36" t="n">
-        <v>321.3378214893732</v>
+        <v>671.4869470047603</v>
       </c>
       <c r="H36" t="n">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="I36" t="n">
-        <v>348442</v>
+        <v>336991</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1844541893</v>
+        <v>1842334612</v>
       </c>
       <c r="F37" t="n">
-        <v>68010.20661255081</v>
+        <v>75767.20965886675</v>
       </c>
       <c r="G37" t="n">
-        <v>63828.32055290131</v>
+        <v>69112.34375058432</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="I37" t="n">
-        <v>30891486</v>
+        <v>31281325</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1817265</v>
+        <v>1823947</v>
       </c>
       <c r="E38" t="n">
-        <v>13031428</v>
+        <v>13079338</v>
       </c>
       <c r="F38" t="n">
-        <v>146.6365249415612</v>
+        <v>55.350189190384</v>
       </c>
       <c r="G38" t="n">
-        <v>126.7269224202447</v>
+        <v>137.6146401395429</v>
       </c>
       <c r="H38" t="n">
-        <v>3.09</v>
+        <v>1.53</v>
       </c>
       <c r="I38" t="n">
-        <v>2098309</v>
+        <v>2069988</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>192722507</v>
+        <v>192820270</v>
       </c>
       <c r="E39" t="n">
-        <v>1091313253</v>
+        <v>1091866847</v>
       </c>
       <c r="F39" t="n">
-        <v>36735.38910203488</v>
+        <v>51902.62842642175</v>
       </c>
       <c r="G39" t="n">
-        <v>57727.61276874059</v>
+        <v>48030.77974195791</v>
       </c>
       <c r="H39" t="n">
         <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>86559165</v>
+        <v>86406352</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>123707878</v>
+        <v>122875167</v>
       </c>
       <c r="E40" t="n">
-        <v>916354651</v>
+        <v>910186422</v>
       </c>
       <c r="F40" t="n">
-        <v>5946.817383663393</v>
+        <v>6187.355917038431</v>
       </c>
       <c r="G40" t="n">
-        <v>4270.393575751171</v>
+        <v>7684.433591572156</v>
       </c>
       <c r="H40" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I40" t="n">
-        <v>35785725</v>
+        <v>35762365</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>320052307</v>
+        <v>320542421</v>
       </c>
       <c r="E41" t="n">
-        <v>2879389010</v>
+        <v>2883798383</v>
       </c>
       <c r="F41" t="n">
-        <v>64962.28702268006</v>
+        <v>57769.40775787444</v>
       </c>
       <c r="G41" t="n">
-        <v>76325.03789219604</v>
+        <v>84923.85930088932</v>
       </c>
       <c r="H41" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>69185776</v>
+        <v>70475469</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1522399</v>
+        <v>1524351</v>
       </c>
       <c r="E42" t="n">
-        <v>12686662</v>
+        <v>12702924</v>
       </c>
       <c r="F42" t="n">
-        <v>1379.846188379561</v>
+        <v>3328.84534751618</v>
       </c>
       <c r="G42" t="n">
-        <v>2338.806174989579</v>
+        <v>2338.055637222083</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="I42" t="n">
-        <v>30842</v>
+        <v>30884</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19784699</v>
+        <v>19554026</v>
       </c>
       <c r="E43" t="n">
-        <v>59317623</v>
+        <v>58626029</v>
       </c>
       <c r="F43" t="n">
-        <v>2093.469196183322</v>
+        <v>1969.278935210763</v>
       </c>
       <c r="G43" t="n">
-        <v>839.73175947324</v>
+        <v>1473.091849303462</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I43" t="n">
-        <v>4429193</v>
+        <v>4388349</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>11377289</v>
+        <v>10194780</v>
       </c>
       <c r="F44" t="n">
-        <v>1368.165476180313</v>
+        <v>1291.073440612897</v>
       </c>
       <c r="G44" t="n">
-        <v>1078.976695885282</v>
+        <v>1309.701085717715</v>
       </c>
       <c r="H44" t="n">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="I44" t="n">
-        <v>818976</v>
+        <v>856754</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12376572</v>
+        <v>12437913</v>
       </c>
       <c r="E45" t="n">
-        <v>12376572</v>
+        <v>12437913</v>
       </c>
       <c r="F45" t="n">
-        <v>7.619488292102311</v>
+        <v>108.6950554970033</v>
       </c>
       <c r="G45" t="n">
-        <v>163.2257244679262</v>
+        <v>171.1446718325319</v>
       </c>
       <c r="H45" t="n">
         <v>2.07</v>
       </c>
       <c r="I45" t="n">
-        <v>2971542</v>
+        <v>2765793</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>289381575</v>
+        <v>286979637</v>
       </c>
       <c r="E46" t="n">
-        <v>289381575</v>
+        <v>286979637</v>
       </c>
       <c r="F46" t="n">
-        <v>9172.35783869306</v>
+        <v>15852.16810796657</v>
       </c>
       <c r="G46" t="n">
-        <v>13331.8377718898</v>
+        <v>13816.98923410076</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>20157392</v>
+        <v>19914925</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12601631</v>
+        <v>12797303</v>
       </c>
       <c r="E47" t="n">
-        <v>39857315</v>
+        <v>40475900</v>
       </c>
       <c r="F47" t="n">
-        <v>5760.372611215412</v>
+        <v>5960.174907550072</v>
       </c>
       <c r="G47" t="n">
-        <v>2835.219075559348</v>
+        <v>5352.659093664867</v>
       </c>
       <c r="H47" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I47" t="n">
-        <v>1007379</v>
+        <v>1037745</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31414780</v>
+        <v>31456083</v>
       </c>
       <c r="E48" t="n">
-        <v>87015822</v>
+        <v>87130229</v>
       </c>
       <c r="F48" t="n">
-        <v>4806.694515830342</v>
+        <v>4856.208364138754</v>
       </c>
       <c r="G48" t="n">
-        <v>1714.670917113028</v>
+        <v>1961.572737641283</v>
       </c>
       <c r="H48" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>12553021</v>
+        <v>12476875</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27686507</v>
+        <v>28297908</v>
       </c>
       <c r="E49" t="n">
-        <v>65677529</v>
+        <v>67127885</v>
       </c>
       <c r="F49" t="n">
-        <v>10259.45171350362</v>
+        <v>9109.869014341073</v>
       </c>
       <c r="G49" t="n">
-        <v>7547.036333196645</v>
+        <v>7698.9494404439</v>
       </c>
       <c r="H49" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>604068</v>
+        <v>629179</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12229608</v>
+        <v>12124055</v>
       </c>
       <c r="E50" t="n">
-        <v>18616221</v>
+        <v>18455546</v>
       </c>
       <c r="F50" t="n">
-        <v>5733.001066311035</v>
+        <v>5620.519179001042</v>
       </c>
       <c r="G50" t="n">
-        <v>18868.76723584471</v>
+        <v>3657.669068548039</v>
       </c>
       <c r="H50" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I50" t="n">
-        <v>671357</v>
+        <v>671227</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>289572255</v>
+        <v>288598960</v>
       </c>
       <c r="E51" t="n">
-        <v>289572255</v>
+        <v>288598960</v>
       </c>
       <c r="F51" t="n">
-        <v>36464.29295969856</v>
+        <v>32845.58412798669</v>
       </c>
       <c r="G51" t="n">
-        <v>43630.50171651146</v>
+        <v>30130.42498679277</v>
       </c>
       <c r="H51" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>93851906</v>
+        <v>92744282</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84350209</v>
+        <v>84069589</v>
       </c>
       <c r="E52" t="n">
-        <v>486062286</v>
+        <v>484445235</v>
       </c>
       <c r="F52" t="n">
-        <v>6281.054455756114</v>
+        <v>7291.154562486913</v>
       </c>
       <c r="G52" t="n">
-        <v>2448.002490091154</v>
+        <v>4042.13870816662</v>
       </c>
       <c r="H52" t="n">
         <v>0.19</v>
       </c>
       <c r="I52" t="n">
-        <v>20869654</v>
+        <v>21270917</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29180678</v>
+        <v>29369536</v>
       </c>
       <c r="E53" t="n">
-        <v>130653865</v>
+        <v>131499461</v>
       </c>
       <c r="F53" t="n">
-        <v>10882.18280869336</v>
+        <v>11851.93934597497</v>
       </c>
       <c r="G53" t="n">
-        <v>7335.781279095387</v>
+        <v>12090.06811658165</v>
       </c>
       <c r="H53" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="I53" t="n">
-        <v>14864862</v>
+        <v>15053413</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8036436</v>
+        <v>8133786</v>
       </c>
       <c r="F54" t="n">
-        <v>3779.477368936037</v>
+        <v>3656.027826205675</v>
       </c>
       <c r="G54" t="n">
-        <v>4896.055079493057</v>
+        <v>4908.276421558249</v>
       </c>
       <c r="H54" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="I54" t="n">
-        <v>308606</v>
+        <v>308067</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4412305</v>
+        <v>4413253</v>
       </c>
       <c r="F55" t="n">
-        <v>2065.128066742276</v>
+        <v>3983.013287867702</v>
       </c>
       <c r="G55" t="n">
-        <v>913.5907149810625</v>
+        <v>882.8369121659479</v>
       </c>
       <c r="H55" t="n">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="I55" t="n">
-        <v>231816</v>
+        <v>214122</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123904669</v>
+        <v>124091627</v>
       </c>
       <c r="E56" t="n">
-        <v>2051962792</v>
+        <v>2055058969</v>
       </c>
       <c r="F56" t="n">
-        <v>14833.02996278767</v>
+        <v>18496.18072648544</v>
       </c>
       <c r="G56" t="n">
-        <v>19878.13844214692</v>
+        <v>24005.45056178586</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>36374838</v>
+        <v>36565456</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>93567380</v>
+        <v>94387585</v>
       </c>
       <c r="E57" t="n">
-        <v>94574564</v>
+        <v>95403598</v>
       </c>
       <c r="F57" t="n">
-        <v>16027.90900318237</v>
+        <v>14627.92877842779</v>
       </c>
       <c r="G57" t="n">
-        <v>18160.15058030095</v>
+        <v>22019.46815901541</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I57" t="n">
-        <v>82900662</v>
+        <v>79327248</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>244547598</v>
+        <v>242339951</v>
       </c>
       <c r="E58" t="n">
-        <v>244547598</v>
+        <v>242339951</v>
       </c>
       <c r="F58" t="n">
-        <v>51554.38751083383</v>
+        <v>46280.46565881541</v>
       </c>
       <c r="G58" t="n">
-        <v>73903.95706629581</v>
+        <v>53388.85124893053</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>94429412</v>
+        <v>93965564</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23053341</v>
+        <v>22940181</v>
       </c>
       <c r="E59" t="n">
-        <v>137932776</v>
+        <v>137255712</v>
       </c>
       <c r="F59" t="n">
-        <v>22745.46537467267</v>
+        <v>25072.9737000096</v>
       </c>
       <c r="G59" t="n">
-        <v>21735.86039083811</v>
+        <v>22837.42348302367</v>
       </c>
       <c r="H59" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>18358681</v>
+        <v>18375751</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2828567</v>
+        <v>2843553</v>
       </c>
       <c r="E60" t="n">
-        <v>5220282</v>
+        <v>5247939</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>7.8</v>
+        <v>8.27</v>
       </c>
       <c r="I60" t="n">
-        <v>416162</v>
+        <v>425217</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9180025</v>
+        <v>9043561</v>
       </c>
       <c r="E62" t="n">
-        <v>27214537</v>
+        <v>26809984</v>
       </c>
       <c r="F62" t="n">
-        <v>2380.710911470587</v>
+        <v>1966.373183377919</v>
       </c>
       <c r="G62" t="n">
-        <v>880.0216378266826</v>
+        <v>1041.012608869676</v>
       </c>
       <c r="H62" t="n">
         <v>0.19</v>
       </c>
       <c r="I62" t="n">
-        <v>6533311</v>
+        <v>6590430</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14533599</v>
+        <v>14451420</v>
       </c>
       <c r="E63" t="n">
-        <v>29422384</v>
+        <v>29256017</v>
       </c>
       <c r="F63" t="n">
-        <v>7624.935932133262</v>
+        <v>8036.050673796103</v>
       </c>
       <c r="G63" t="n">
-        <v>14202.56355941794</v>
+        <v>8777.900519456876</v>
       </c>
       <c r="H63" t="n">
         <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>570289</v>
+        <v>564154</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33582789</v>
+        <v>33618913</v>
       </c>
       <c r="E64" t="n">
-        <v>238096495</v>
+        <v>238352610</v>
       </c>
       <c r="F64" t="n">
-        <v>37962.35608415133</v>
+        <v>33832.90702245853</v>
       </c>
       <c r="G64" t="n">
-        <v>44129.7250612967</v>
+        <v>41777.49312943795</v>
       </c>
       <c r="H64" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="I64" t="n">
-        <v>6360935</v>
+        <v>6382703</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1258693</v>
+        <v>1244915</v>
       </c>
       <c r="E65" t="n">
-        <v>7804014</v>
+        <v>7718587</v>
       </c>
       <c r="F65" t="n">
-        <v>62.54066393094573</v>
+        <v>80.34033380704065</v>
       </c>
       <c r="G65" t="n">
-        <v>177.6475651138729</v>
+        <v>67.97348377782411</v>
       </c>
       <c r="H65" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I65" t="n">
-        <v>773065</v>
+        <v>773478</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>580365108</v>
+        <v>578423029</v>
       </c>
       <c r="E66" t="n">
-        <v>2247668436</v>
+        <v>2240147051</v>
       </c>
       <c r="F66" t="n">
-        <v>56246.20576004739</v>
+        <v>47806.78918072642</v>
       </c>
       <c r="G66" t="n">
-        <v>34565.86934168309</v>
+        <v>49331.85043677272</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>61735888</v>
+        <v>62392627</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5472292</v>
+        <v>5487343</v>
       </c>
       <c r="E67" t="n">
-        <v>24495257</v>
+        <v>24562627</v>
       </c>
       <c r="F67" t="n">
-        <v>3830.090345515096</v>
+        <v>3804.386313970144</v>
       </c>
       <c r="G67" t="n">
-        <v>19059.42124684284</v>
+        <v>19227.80259388234</v>
       </c>
       <c r="H67" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="I67" t="n">
-        <v>192670</v>
+        <v>191902</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>108668687</v>
+        <v>109068613</v>
       </c>
       <c r="E68" t="n">
-        <v>1028789614</v>
+        <v>1032575801</v>
       </c>
       <c r="F68" t="n">
-        <v>16326.19130232997</v>
+        <v>3659.900198485437</v>
       </c>
       <c r="G68" t="n">
-        <v>1641.094631121625</v>
+        <v>3890.978861268989</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="I68" t="n">
-        <v>17127953</v>
+        <v>17696631</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>101536253</v>
+        <v>100028130</v>
       </c>
       <c r="E69" t="n">
-        <v>154895934</v>
+        <v>152595257</v>
       </c>
       <c r="F69" t="n">
-        <v>10985.9995429258</v>
+        <v>3536.21778791329</v>
       </c>
       <c r="G69" t="n">
-        <v>12563.45936719676</v>
+        <v>18058.12296208557</v>
       </c>
       <c r="H69" t="n">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="I69" t="n">
-        <v>13242354</v>
+        <v>13418943</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1064356</v>
+        <v>1066081</v>
       </c>
       <c r="E70" t="n">
-        <v>4121419</v>
+        <v>4128100</v>
       </c>
       <c r="F70" t="n">
-        <v>2200.030636618124</v>
+        <v>2138.603960543117</v>
       </c>
       <c r="G70" t="n">
-        <v>4405.563032996751</v>
+        <v>3940.020482354656</v>
       </c>
       <c r="H70" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="I70" t="n">
-        <v>295808</v>
+        <v>298065</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>121117275</v>
+        <v>120120831</v>
       </c>
       <c r="E71" t="n">
-        <v>464625362</v>
+        <v>460802843</v>
       </c>
       <c r="F71" t="n">
-        <v>13658.40432292989</v>
+        <v>15184.01398195845</v>
       </c>
       <c r="G71" t="n">
-        <v>8168.234695650657</v>
+        <v>11051.64857946074</v>
       </c>
       <c r="H71" t="n">
         <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>37400155</v>
+        <v>33509161</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3071929</v>
+        <v>3083372</v>
       </c>
       <c r="E72" t="n">
-        <v>29106982</v>
+        <v>29215405</v>
       </c>
       <c r="F72" t="n">
-        <v>888.5573433992715</v>
+        <v>630.2929493854953</v>
       </c>
       <c r="G72" t="n">
-        <v>18.53193159727414</v>
+        <v>36.70671238245237</v>
       </c>
       <c r="H72" t="n">
-        <v>0.72</v>
+        <v>0.17</v>
       </c>
       <c r="I72" t="n">
-        <v>221104</v>
+        <v>222102</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>37175137</v>
+        <v>38011142</v>
       </c>
       <c r="F73" t="n">
-        <v>1140.883511264651</v>
+        <v>3584.091547042059</v>
       </c>
       <c r="G73" t="n">
-        <v>2287.130795352635</v>
+        <v>1062.452320759241</v>
       </c>
       <c r="H73" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I73" t="n">
-        <v>8163068</v>
+        <v>8400940</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89512246</v>
+        <v>90918729</v>
       </c>
       <c r="E74" t="n">
-        <v>330872665</v>
+        <v>336070243</v>
       </c>
       <c r="F74" t="n">
-        <v>29.34093071747037</v>
+        <v>149.1410079324397</v>
       </c>
       <c r="G74" t="n">
-        <v>256.8720360301842</v>
+        <v>349.9823803955306</v>
       </c>
       <c r="H74" t="n">
-        <v>2.65</v>
+        <v>1.18</v>
       </c>
       <c r="I74" t="n">
-        <v>250995</v>
+        <v>310107</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21990722</v>
+        <v>21752812</v>
       </c>
       <c r="E75" t="n">
-        <v>21990722</v>
+        <v>21752812</v>
       </c>
       <c r="F75" t="n">
-        <v>1960.278732723745</v>
+        <v>5140.140527371324</v>
       </c>
       <c r="G75" t="n">
-        <v>1034.445801395473</v>
+        <v>765.4964668843088</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="I75" t="n">
-        <v>5936612</v>
+        <v>5905450</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>469423662</v>
+        <v>467785611</v>
       </c>
       <c r="E76" t="n">
-        <v>1634024699</v>
+        <v>1628322780</v>
       </c>
       <c r="F76" t="n">
-        <v>18906.14512839388</v>
+        <v>27890.44013947901</v>
       </c>
       <c r="G76" t="n">
-        <v>24435.44043618399</v>
+        <v>28215.78174939692</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>47805568</v>
+        <v>47755083</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5529375578</v>
+        <v>5531886095</v>
       </c>
       <c r="E77" t="n">
-        <v>5529375578</v>
+        <v>5531886095</v>
       </c>
       <c r="F77" t="n">
-        <v>1529.489879863385</v>
+        <v>1533.96664209221</v>
       </c>
       <c r="G77" t="n">
-        <v>1175.600186772178</v>
+        <v>1179.041126514003</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35675821</v>
+        <v>34995386</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7135949</v>
+        <v>7091626</v>
       </c>
       <c r="E78" t="n">
-        <v>18538428</v>
+        <v>18423282</v>
       </c>
       <c r="F78" t="n">
-        <v>320.4879690160065</v>
+        <v>375.3803444935747</v>
       </c>
       <c r="G78" t="n">
-        <v>232.9273236239885</v>
+        <v>49.25706314783687</v>
       </c>
       <c r="H78" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="I78" t="n">
-        <v>773384</v>
+        <v>775611</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106302969</v>
+        <v>106092769</v>
       </c>
       <c r="E79" t="n">
-        <v>161061280</v>
+        <v>160742804</v>
       </c>
       <c r="F79" t="n">
-        <v>41065.24939142527</v>
+        <v>37909.87623621049</v>
       </c>
       <c r="G79" t="n">
-        <v>37167.78028391064</v>
+        <v>40169.37622910681</v>
       </c>
       <c r="H79" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>9714816</v>
+        <v>9755729</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2313228</v>
+        <v>2322876</v>
       </c>
       <c r="E80" t="n">
-        <v>9252913</v>
+        <v>9291506</v>
       </c>
       <c r="F80" t="n">
-        <v>483.7811387016866</v>
+        <v>755.4676188020253</v>
       </c>
       <c r="G80" t="n">
-        <v>1623.053679610587</v>
+        <v>1113.436902940536</v>
       </c>
       <c r="H80" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I80" t="n">
-        <v>7759475</v>
+        <v>7620563</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2282449</v>
+        <v>2235359</v>
       </c>
       <c r="F81" t="n">
-        <v>600.0831889673437</v>
+        <v>1632.245733303979</v>
       </c>
       <c r="G81" t="n">
-        <v>243.4419003830844</v>
+        <v>126.9097117290266</v>
       </c>
       <c r="H81" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="I81" t="n">
-        <v>182087</v>
+        <v>177184</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>380530367</v>
+        <v>379956897</v>
       </c>
       <c r="E82" t="n">
-        <v>2174459238</v>
+        <v>2171182269</v>
       </c>
       <c r="F82" t="n">
-        <v>29651.38427384097</v>
+        <v>42843.66434054673</v>
       </c>
       <c r="G82" t="n">
-        <v>30128.45015678009</v>
+        <v>37766.94245284703</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>62584414</v>
+        <v>63517583</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3862364</v>
+        <v>3820890</v>
       </c>
       <c r="F2" t="n">
-        <v>191.4876084847251</v>
+        <v>215.6692608085029</v>
       </c>
       <c r="G2" t="n">
-        <v>491.5456706648066</v>
+        <v>540.4932235411982</v>
       </c>
       <c r="H2" t="n">
-        <v>0.65</v>
+        <v>0.99</v>
       </c>
       <c r="I2" t="n">
-        <v>140891</v>
+        <v>38063</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1415502</v>
+        <v>1414961</v>
       </c>
       <c r="E3" t="n">
-        <v>4575483</v>
+        <v>4573736</v>
       </c>
       <c r="F3" t="n">
-        <v>304.671838511353</v>
+        <v>235.0988735211812</v>
       </c>
       <c r="G3" t="n">
-        <v>269.6862143358335</v>
+        <v>327.4851607890168</v>
       </c>
       <c r="H3" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="I3" t="n">
-        <v>228800</v>
+        <v>229207</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251571223</v>
+        <v>251555377</v>
       </c>
       <c r="E4" t="n">
-        <v>1577567776</v>
+        <v>1577468413</v>
       </c>
       <c r="F4" t="n">
-        <v>13054.91729606872</v>
+        <v>11974.76519959256</v>
       </c>
       <c r="G4" t="n">
-        <v>23133.85671199682</v>
+        <v>21699.52299922817</v>
       </c>
       <c r="H4" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>27633221</v>
+        <v>27923946</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140098388</v>
+        <v>140156167</v>
       </c>
       <c r="E5" t="n">
-        <v>155250908</v>
+        <v>155314937</v>
       </c>
       <c r="F5" t="n">
-        <v>23020.93941388492</v>
+        <v>26388.84605554229</v>
       </c>
       <c r="G5" t="n">
-        <v>24831.09240481668</v>
+        <v>20381.53384813057</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>53874421</v>
+        <v>53689514</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117292076</v>
+        <v>117321897</v>
       </c>
       <c r="E6" t="n">
-        <v>459749817</v>
+        <v>459866707</v>
       </c>
       <c r="F6" t="n">
-        <v>9447.629600461027</v>
+        <v>11806.06071509985</v>
       </c>
       <c r="G6" t="n">
-        <v>10140.90010407116</v>
+        <v>9168.577374960041</v>
       </c>
       <c r="H6" t="n">
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>27093659</v>
+        <v>26910084</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4358662</v>
+        <v>4347979</v>
       </c>
       <c r="E7" t="n">
-        <v>26761524</v>
+        <v>26695935</v>
       </c>
       <c r="F7" t="n">
-        <v>303.1489111013303</v>
+        <v>434.7524012473736</v>
       </c>
       <c r="G7" t="n">
-        <v>709.5135226935906</v>
+        <v>668.562424001893</v>
       </c>
       <c r="H7" t="n">
         <v>0.26</v>
       </c>
       <c r="I7" t="n">
-        <v>573387</v>
+        <v>561799</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>195690</v>
+        <v>196221</v>
       </c>
       <c r="E8" t="n">
-        <v>2152801</v>
+        <v>2158646</v>
       </c>
       <c r="F8" t="n">
-        <v>3382.690745218326</v>
+        <v>3326.876672390598</v>
       </c>
       <c r="G8" t="n">
-        <v>4034.549647830821</v>
+        <v>4320.821329621969</v>
       </c>
       <c r="H8" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="I8" t="n">
-        <v>35773</v>
+        <v>35776</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68829979</v>
+        <v>68697466</v>
       </c>
       <c r="E9" t="n">
-        <v>119151345</v>
+        <v>118921953</v>
       </c>
       <c r="F9" t="n">
-        <v>1314.135890408757</v>
+        <v>1343.857038336885</v>
       </c>
       <c r="G9" t="n">
-        <v>542.9110220903112</v>
+        <v>499.1300513924394</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>795321</v>
+        <v>795405</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8806131</v>
+        <v>8807448</v>
       </c>
       <c r="E10" t="n">
-        <v>12464424</v>
+        <v>12466288</v>
       </c>
       <c r="F10" t="n">
-        <v>3064.633293268297</v>
+        <v>3064.658399979417</v>
       </c>
       <c r="G10" t="n">
-        <v>3044.980884329268</v>
+        <v>3045.005830039933</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>22382</v>
+        <v>19344.82</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>492958291</v>
+        <v>491536218</v>
       </c>
       <c r="E11" t="n">
-        <v>492958295</v>
+        <v>491536218</v>
       </c>
       <c r="F11" t="n">
-        <v>15029.32283457527</v>
+        <v>13980.77337445644</v>
       </c>
       <c r="G11" t="n">
-        <v>26297.17871809687</v>
+        <v>27468.050147523</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>77378083</v>
+        <v>76533656</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>302595</v>
+        <v>301596</v>
       </c>
       <c r="E12" t="n">
-        <v>1412543</v>
+        <v>1407881</v>
       </c>
       <c r="F12" t="n">
-        <v>504.9694656073883</v>
+        <v>513.2420710899593</v>
       </c>
       <c r="G12" t="n">
-        <v>98.54951531996748</v>
+        <v>220.114947737064</v>
       </c>
       <c r="H12" t="n">
         <v>2.91</v>
       </c>
       <c r="I12" t="n">
-        <v>679153</v>
+        <v>678591</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1718650</v>
+        <v>1697447</v>
       </c>
       <c r="F13" t="n">
-        <v>4165.98396841267</v>
+        <v>4130.943764655263</v>
       </c>
       <c r="G13" t="n">
-        <v>367.422413272451</v>
+        <v>1641.088961700523</v>
       </c>
       <c r="H13" t="n">
         <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>1308467</v>
+        <v>1309523</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11933848</v>
+        <v>11902374</v>
       </c>
       <c r="E14" t="n">
-        <v>29701190</v>
+        <v>29622856</v>
       </c>
       <c r="F14" t="n">
-        <v>1456.667732741841</v>
+        <v>1559.379546048378</v>
       </c>
       <c r="G14" t="n">
-        <v>797.82790561158</v>
+        <v>779.5198713458813</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="I14" t="n">
-        <v>1509874</v>
+        <v>1506132</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108687724</v>
+        <v>108821775</v>
       </c>
       <c r="E15" t="n">
-        <v>422438936</v>
+        <v>422959953</v>
       </c>
       <c r="F15" t="n">
-        <v>1277.805660791367</v>
+        <v>1109.440694852369</v>
       </c>
       <c r="G15" t="n">
-        <v>4653.57527799669</v>
+        <v>4599.473395791128</v>
       </c>
       <c r="H15" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I15" t="n">
-        <v>12546578</v>
+        <v>12524162</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4684591</v>
+        <v>4674977</v>
       </c>
       <c r="E16" t="n">
-        <v>6895971</v>
+        <v>6881819</v>
       </c>
       <c r="F16" t="n">
-        <v>1929.680556338222</v>
+        <v>4122.188563129114</v>
       </c>
       <c r="G16" t="n">
-        <v>4694.591187034851</v>
+        <v>4788.973788493274</v>
       </c>
       <c r="H16" t="n">
         <v>0.59</v>
       </c>
       <c r="I16" t="n">
-        <v>573446</v>
+        <v>567257</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>428317</v>
+        <v>432895</v>
       </c>
       <c r="E17" t="n">
-        <v>1771673</v>
+        <v>1790612</v>
       </c>
       <c r="F17" t="n">
-        <v>27.77316019520912</v>
+        <v>86.83001916418519</v>
       </c>
       <c r="G17" t="n">
-        <v>456.1285637715844</v>
+        <v>96.73316718553633</v>
       </c>
       <c r="H17" t="n">
-        <v>1.99</v>
+        <v>1.33</v>
       </c>
       <c r="I17" t="n">
-        <v>104777</v>
+        <v>100525</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>137261467</v>
+        <v>137094017</v>
       </c>
       <c r="E18" t="n">
-        <v>137261467</v>
+        <v>137094017</v>
       </c>
       <c r="F18" t="n">
-        <v>71788.82066136242</v>
+        <v>117765.7135904847</v>
       </c>
       <c r="G18" t="n">
-        <v>56983.84074557036</v>
+        <v>69049.28171896393</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>91152730</v>
+        <v>91393394</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63121878</v>
+        <v>63232179</v>
       </c>
       <c r="E19" t="n">
-        <v>323701936</v>
+        <v>324267586</v>
       </c>
       <c r="F19" t="n">
-        <v>9921.856256987177</v>
+        <v>9710.554607673555</v>
       </c>
       <c r="G19" t="n">
-        <v>6197.915255364933</v>
+        <v>5657.7083992154</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>26916488</v>
+        <v>26637857</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>248629418</v>
+        <v>248910997</v>
       </c>
       <c r="E20" t="n">
-        <v>248629418</v>
+        <v>248910997</v>
       </c>
       <c r="F20" t="n">
-        <v>65958.9237797933</v>
+        <v>85947.03946294035</v>
       </c>
       <c r="G20" t="n">
-        <v>34857.78038723277</v>
+        <v>24166.22267540475</v>
       </c>
       <c r="H20" t="n">
         <v>0.11</v>
       </c>
       <c r="I20" t="n">
-        <v>26297204</v>
+        <v>26349920</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>167640003</v>
+        <v>168906546</v>
       </c>
       <c r="E21" t="n">
-        <v>220594637</v>
+        <v>222261260</v>
       </c>
       <c r="F21" t="n">
-        <v>8224.905300636789</v>
+        <v>12918.02643001099</v>
       </c>
       <c r="G21" t="n">
-        <v>7784.118514857026</v>
+        <v>9421.542187862689</v>
       </c>
       <c r="H21" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>18351923</v>
+        <v>16717593</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77897462</v>
+        <v>77782218</v>
       </c>
       <c r="E22" t="n">
-        <v>217976971</v>
+        <v>217662904</v>
       </c>
       <c r="F22" t="n">
-        <v>26202.54951419405</v>
+        <v>27111.92373134285</v>
       </c>
       <c r="G22" t="n">
-        <v>21763.15196916645</v>
+        <v>21531.92295736009</v>
       </c>
       <c r="H22" t="n">
         <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>54891793</v>
+        <v>54828581</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>87958598</v>
+        <v>87689778</v>
       </c>
       <c r="E23" t="n">
-        <v>183386613</v>
+        <v>182826144</v>
       </c>
       <c r="F23" t="n">
-        <v>14937.91600039746</v>
+        <v>20734.04067736943</v>
       </c>
       <c r="G23" t="n">
-        <v>21892.62874938883</v>
+        <v>20469.46560436434</v>
       </c>
       <c r="H23" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I23" t="n">
-        <v>76782228</v>
+        <v>77153594</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>645974338</v>
+        <v>645514950</v>
       </c>
       <c r="E24" t="n">
-        <v>645974338</v>
+        <v>645514950</v>
       </c>
       <c r="F24" t="n">
-        <v>118955.4257908233</v>
+        <v>117518.1358757352</v>
       </c>
       <c r="G24" t="n">
-        <v>82617.13638004144</v>
+        <v>77410.93750122572</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>553874533</v>
+        <v>554092250</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>194815792</v>
+        <v>195474535</v>
       </c>
       <c r="E25" t="n">
-        <v>676807667</v>
+        <v>679096201</v>
       </c>
       <c r="F25" t="n">
-        <v>57418.61907024048</v>
+        <v>58020.93491812098</v>
       </c>
       <c r="G25" t="n">
-        <v>109970.1927230156</v>
+        <v>109305.2485137924</v>
       </c>
       <c r="H25" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>41312903</v>
+        <v>41335510</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5667626</v>
+        <v>5663406</v>
       </c>
       <c r="E26" t="n">
-        <v>7691455</v>
+        <v>7686007</v>
       </c>
       <c r="F26" t="n">
-        <v>225.5868926816997</v>
+        <v>231.2381703265775</v>
       </c>
       <c r="G26" t="n">
-        <v>2195.76208363762</v>
+        <v>2220.778208915681</v>
       </c>
       <c r="H26" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="I26" t="n">
-        <v>5552295</v>
+        <v>5567511</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14097720</v>
+        <v>14112115</v>
       </c>
       <c r="F27" t="n">
-        <v>2469.191663379667</v>
+        <v>2128.70353076226</v>
       </c>
       <c r="G27" t="n">
-        <v>1967.17259052265</v>
+        <v>2443.068592365561</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="I27" t="n">
-        <v>232812</v>
+        <v>235069</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24333501</v>
+        <v>24319074</v>
       </c>
       <c r="E28" t="n">
-        <v>34387161</v>
+        <v>34366773</v>
       </c>
       <c r="F28" t="n">
-        <v>181.589866871567</v>
+        <v>196.7425261662868</v>
       </c>
       <c r="G28" t="n">
-        <v>210.7638997350828</v>
+        <v>153.9862770947986</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="I28" t="n">
-        <v>174724</v>
+        <v>177074</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>258845526</v>
+        <v>258740722</v>
       </c>
       <c r="E29" t="n">
-        <v>1117320987</v>
+        <v>1116868593</v>
       </c>
       <c r="F29" t="n">
-        <v>129351.215870297</v>
+        <v>126208.2780972628</v>
       </c>
       <c r="G29" t="n">
-        <v>113489.7929499516</v>
+        <v>113898.6752081191</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I29" t="n">
-        <v>142435844</v>
+        <v>141473692</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10170166</v>
+        <v>10154485</v>
       </c>
       <c r="E30" t="n">
-        <v>122442437</v>
+        <v>122253644</v>
       </c>
       <c r="F30" t="n">
-        <v>213.941899016911</v>
+        <v>272.3926409537985</v>
       </c>
       <c r="G30" t="n">
-        <v>568.0809075860408</v>
+        <v>612.4722366377969</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
       </c>
       <c r="I30" t="n">
-        <v>535710</v>
+        <v>535719</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15954805</v>
+        <v>16018393</v>
       </c>
       <c r="E31" t="n">
-        <v>39887013</v>
+        <v>40045983</v>
       </c>
       <c r="F31" t="n">
-        <v>4912.322714152171</v>
+        <v>5921.170158056939</v>
       </c>
       <c r="G31" t="n">
-        <v>4915.065518370099</v>
+        <v>4804.683185444705</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I31" t="n">
-        <v>5088092</v>
+        <v>5076625</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19121855</v>
+        <v>19312435</v>
       </c>
       <c r="F32" t="n">
-        <v>911.5702919765725</v>
+        <v>2271.222890978223</v>
       </c>
       <c r="G32" t="n">
-        <v>2026.077051147925</v>
+        <v>2207.207021007167</v>
       </c>
       <c r="H32" t="n">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="I32" t="n">
-        <v>68907</v>
+        <v>79251</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1494619</v>
+        <v>1513636</v>
       </c>
       <c r="E33" t="n">
-        <v>5571874</v>
+        <v>5642768</v>
       </c>
       <c r="F33" t="n">
-        <v>3015.594204390658</v>
+        <v>4193.633259028935</v>
       </c>
       <c r="G33" t="n">
-        <v>1727.370719503607</v>
+        <v>569.9806590771464</v>
       </c>
       <c r="H33" t="n">
-        <v>0.38</v>
+        <v>0.14</v>
       </c>
       <c r="I33" t="n">
-        <v>749505</v>
+        <v>767229</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4047717</v>
+        <v>4057116</v>
       </c>
       <c r="E34" t="n">
-        <v>11657885</v>
+        <v>11684956</v>
       </c>
       <c r="F34" t="n">
-        <v>4453.379778937437</v>
+        <v>2665.991226206126</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.690967382713</v>
+        <v>4325.344182858881</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="I34" t="n">
-        <v>485346</v>
+        <v>484291</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14045645</v>
+        <v>14185972</v>
       </c>
       <c r="E35" t="n">
-        <v>68025298</v>
+        <v>68704928</v>
       </c>
       <c r="F35" t="n">
-        <v>2225.405859384564</v>
+        <v>2477.136557802376</v>
       </c>
       <c r="G35" t="n">
-        <v>2021.157833889607</v>
+        <v>1711.247983754866</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="I35" t="n">
-        <v>5655944</v>
+        <v>5658766</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1229017</v>
+        <v>1234706</v>
       </c>
       <c r="E36" t="n">
-        <v>8043883</v>
+        <v>8081115</v>
       </c>
       <c r="F36" t="n">
-        <v>789.0248266597423</v>
+        <v>1605.486799225953</v>
       </c>
       <c r="G36" t="n">
-        <v>671.4869470047603</v>
+        <v>603.9922771826899</v>
       </c>
       <c r="H36" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="I36" t="n">
-        <v>336991</v>
+        <v>336263</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1842334612</v>
+        <v>1846155036</v>
       </c>
       <c r="F37" t="n">
-        <v>75767.20965886675</v>
+        <v>73509.04297153369</v>
       </c>
       <c r="G37" t="n">
-        <v>69112.34375058432</v>
+        <v>73183.61258679636</v>
       </c>
       <c r="H37" t="n">
         <v>0.7</v>
       </c>
       <c r="I37" t="n">
-        <v>31281325</v>
+        <v>31519860</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1823947</v>
+        <v>1826128</v>
       </c>
       <c r="E38" t="n">
-        <v>13079338</v>
+        <v>13094979</v>
       </c>
       <c r="F38" t="n">
-        <v>55.350189190384</v>
+        <v>89.09662946014151</v>
       </c>
       <c r="G38" t="n">
-        <v>137.6146401395429</v>
+        <v>257.9939818126767</v>
       </c>
       <c r="H38" t="n">
-        <v>1.53</v>
+        <v>0.46</v>
       </c>
       <c r="I38" t="n">
-        <v>2069988</v>
+        <v>2076738</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>192820270</v>
+        <v>192899985</v>
       </c>
       <c r="E39" t="n">
-        <v>1091866847</v>
+        <v>1092318243</v>
       </c>
       <c r="F39" t="n">
-        <v>51902.62842642175</v>
+        <v>34608.2588511614</v>
       </c>
       <c r="G39" t="n">
-        <v>48030.77974195791</v>
+        <v>63922.31197521141</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>86406352</v>
+        <v>86135258</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>122875167</v>
+        <v>123351147</v>
       </c>
       <c r="E40" t="n">
-        <v>910186422</v>
+        <v>913712201</v>
       </c>
       <c r="F40" t="n">
-        <v>6187.355917038431</v>
+        <v>6933.481299140437</v>
       </c>
       <c r="G40" t="n">
-        <v>7684.433591572156</v>
+        <v>7417.41422046824</v>
       </c>
       <c r="H40" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I40" t="n">
-        <v>35762365</v>
+        <v>35780556</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>320542421</v>
+        <v>320812327</v>
       </c>
       <c r="E41" t="n">
-        <v>2883798383</v>
+        <v>2886226625</v>
       </c>
       <c r="F41" t="n">
-        <v>57769.40775787444</v>
+        <v>58230.0352596516</v>
       </c>
       <c r="G41" t="n">
-        <v>84923.85930088932</v>
+        <v>88624.3448780149</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I41" t="n">
-        <v>70475469</v>
+        <v>69452528</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1524351</v>
+        <v>1524986</v>
       </c>
       <c r="E42" t="n">
-        <v>12702924</v>
+        <v>12708214</v>
       </c>
       <c r="F42" t="n">
-        <v>3328.84534751618</v>
+        <v>3376.293317800342</v>
       </c>
       <c r="G42" t="n">
-        <v>2338.055637222083</v>
+        <v>2425.467216318303</v>
       </c>
       <c r="H42" t="n">
         <v>0.63</v>
       </c>
       <c r="I42" t="n">
-        <v>30884</v>
+        <v>30886</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19554026</v>
+        <v>19527992</v>
       </c>
       <c r="E43" t="n">
-        <v>58626029</v>
+        <v>58547976</v>
       </c>
       <c r="F43" t="n">
-        <v>1969.278935210763</v>
+        <v>1882.031460291357</v>
       </c>
       <c r="G43" t="n">
-        <v>1473.091849303462</v>
+        <v>2451.987531175164</v>
       </c>
       <c r="H43" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I43" t="n">
-        <v>4388349</v>
+        <v>3672406</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>10194780</v>
+        <v>10008822</v>
       </c>
       <c r="F44" t="n">
-        <v>1291.073440612897</v>
+        <v>7450.783127616424</v>
       </c>
       <c r="G44" t="n">
-        <v>1309.701085717715</v>
+        <v>1114.573587072335</v>
       </c>
       <c r="H44" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>856754</v>
+        <v>897194</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12437913</v>
+        <v>12396689</v>
       </c>
       <c r="E45" t="n">
-        <v>12437913</v>
+        <v>12396689</v>
       </c>
       <c r="F45" t="n">
-        <v>108.6950554970033</v>
+        <v>146.4986014019828</v>
       </c>
       <c r="G45" t="n">
-        <v>171.1446718325319</v>
+        <v>171.1460739186624</v>
       </c>
       <c r="H45" t="n">
         <v>2.07</v>
       </c>
       <c r="I45" t="n">
-        <v>2765793</v>
+        <v>2708427</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>286979637</v>
+        <v>286594947</v>
       </c>
       <c r="E46" t="n">
-        <v>286979637</v>
+        <v>286594947</v>
       </c>
       <c r="F46" t="n">
-        <v>15852.16810796657</v>
+        <v>15462.17986183537</v>
       </c>
       <c r="G46" t="n">
-        <v>13816.98923410076</v>
+        <v>13231.12164548032</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>19914925</v>
+        <v>19932183</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12797303</v>
+        <v>12853256</v>
       </c>
       <c r="E47" t="n">
-        <v>40475900</v>
+        <v>40652872</v>
       </c>
       <c r="F47" t="n">
-        <v>5960.174907550072</v>
+        <v>5944.674410372315</v>
       </c>
       <c r="G47" t="n">
-        <v>5352.659093664867</v>
+        <v>2817.598900392175</v>
       </c>
       <c r="H47" t="n">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="I47" t="n">
-        <v>1037745</v>
+        <v>1075792</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31456083</v>
+        <v>31522788</v>
       </c>
       <c r="E48" t="n">
-        <v>87130229</v>
+        <v>87314996</v>
       </c>
       <c r="F48" t="n">
-        <v>4856.208364138754</v>
+        <v>4504.07733420183</v>
       </c>
       <c r="G48" t="n">
-        <v>1961.572737641283</v>
+        <v>1589.346400958893</v>
       </c>
       <c r="H48" t="n">
         <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>12476875</v>
+        <v>12478534</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28297908</v>
+        <v>27972769</v>
       </c>
       <c r="E49" t="n">
-        <v>67127885</v>
+        <v>66356595</v>
       </c>
       <c r="F49" t="n">
-        <v>9109.869014341073</v>
+        <v>4835.285964915603</v>
       </c>
       <c r="G49" t="n">
-        <v>7698.9494404439</v>
+        <v>8504.45589319393</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I49" t="n">
-        <v>629179</v>
+        <v>464489</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12124055</v>
+        <v>12138300</v>
       </c>
       <c r="E50" t="n">
-        <v>18455546</v>
+        <v>18477230</v>
       </c>
       <c r="F50" t="n">
-        <v>5620.519179001042</v>
+        <v>5525.926644713474</v>
       </c>
       <c r="G50" t="n">
-        <v>3657.669068548039</v>
+        <v>18590.41949817161</v>
       </c>
       <c r="H50" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="I50" t="n">
-        <v>671227</v>
+        <v>673591</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>288598960</v>
+        <v>288958357</v>
       </c>
       <c r="E51" t="n">
-        <v>288598960</v>
+        <v>288958357</v>
       </c>
       <c r="F51" t="n">
-        <v>32845.58412798669</v>
+        <v>37131.9010189641</v>
       </c>
       <c r="G51" t="n">
-        <v>30130.42498679277</v>
+        <v>47653.46882185785</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>92744282</v>
+        <v>93216193</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84069589</v>
+        <v>84171987</v>
       </c>
       <c r="E52" t="n">
-        <v>484445235</v>
+        <v>485035297</v>
       </c>
       <c r="F52" t="n">
-        <v>7291.154562486913</v>
+        <v>7404.570163540014</v>
       </c>
       <c r="G52" t="n">
-        <v>4042.13870816662</v>
+        <v>3440.430375735432</v>
       </c>
       <c r="H52" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>21270917</v>
+        <v>20901772</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29369536</v>
+        <v>29599391</v>
       </c>
       <c r="E53" t="n">
-        <v>131499461</v>
+        <v>132528616</v>
       </c>
       <c r="F53" t="n">
-        <v>11851.93934597497</v>
+        <v>7925.317036873204</v>
       </c>
       <c r="G53" t="n">
-        <v>12090.06811658165</v>
+        <v>13287.0254120914</v>
       </c>
       <c r="H53" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="I53" t="n">
-        <v>15053413</v>
+        <v>15196607</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8133786</v>
+        <v>8092544</v>
       </c>
       <c r="F54" t="n">
-        <v>3656.027826205675</v>
+        <v>3656.39630938435</v>
       </c>
       <c r="G54" t="n">
-        <v>4908.276421558249</v>
+        <v>4908.316632136945</v>
       </c>
       <c r="H54" t="n">
         <v>0.51</v>
       </c>
       <c r="I54" t="n">
-        <v>308067</v>
+        <v>307528</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4413253</v>
+        <v>4422315</v>
       </c>
       <c r="F55" t="n">
-        <v>3983.013287867702</v>
+        <v>2117.112084320718</v>
       </c>
       <c r="G55" t="n">
-        <v>882.8369121659479</v>
+        <v>891.4239126625297</v>
       </c>
       <c r="H55" t="n">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="I55" t="n">
-        <v>214122</v>
+        <v>214040</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124091627</v>
+        <v>124318235</v>
       </c>
       <c r="E56" t="n">
-        <v>2055058969</v>
+        <v>2058811783</v>
       </c>
       <c r="F56" t="n">
-        <v>18496.18072648544</v>
+        <v>20302.99176616067</v>
       </c>
       <c r="G56" t="n">
-        <v>24005.45056178586</v>
+        <v>29001.61543534405</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>36565456</v>
+        <v>36702936</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94387585</v>
+        <v>94534430</v>
       </c>
       <c r="E57" t="n">
-        <v>95403598</v>
+        <v>95552024</v>
       </c>
       <c r="F57" t="n">
-        <v>14627.92877842779</v>
+        <v>17879.31353865529</v>
       </c>
       <c r="G57" t="n">
-        <v>22019.46815901541</v>
+        <v>20259.83378895375</v>
       </c>
       <c r="H57" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I57" t="n">
-        <v>79327248</v>
+        <v>78796376</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>242339951</v>
+        <v>241542330</v>
       </c>
       <c r="E58" t="n">
-        <v>242339951</v>
+        <v>241542330</v>
       </c>
       <c r="F58" t="n">
-        <v>46280.46565881541</v>
+        <v>48479.09053774975</v>
       </c>
       <c r="G58" t="n">
-        <v>53388.85124893053</v>
+        <v>58398.39626598835</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>93965564</v>
+        <v>93901885</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22940181</v>
+        <v>22959505</v>
       </c>
       <c r="E59" t="n">
-        <v>137255712</v>
+        <v>137371331</v>
       </c>
       <c r="F59" t="n">
-        <v>25072.9737000096</v>
+        <v>21024.69934281301</v>
       </c>
       <c r="G59" t="n">
-        <v>22837.42348302367</v>
+        <v>22284.38981905691</v>
       </c>
       <c r="H59" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I59" t="n">
-        <v>18375751</v>
+        <v>18416597</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2843553</v>
+        <v>2848390</v>
       </c>
       <c r="E60" t="n">
-        <v>5247939</v>
+        <v>5256867</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>31.17124309097162</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>94.0627776186503</v>
       </c>
       <c r="H60" t="n">
-        <v>8.27</v>
+        <v>0.09</v>
       </c>
       <c r="I60" t="n">
-        <v>425217</v>
+        <v>424357</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9043561</v>
+        <v>9138149</v>
       </c>
       <c r="E62" t="n">
-        <v>26809984</v>
+        <v>27090394</v>
       </c>
       <c r="F62" t="n">
-        <v>1966.373183377919</v>
+        <v>3440.648671818971</v>
       </c>
       <c r="G62" t="n">
-        <v>1041.012608869676</v>
+        <v>1628.447927881301</v>
       </c>
       <c r="H62" t="n">
         <v>0.19</v>
       </c>
       <c r="I62" t="n">
-        <v>6590430</v>
+        <v>6614468</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14451420</v>
+        <v>14410460</v>
       </c>
       <c r="E63" t="n">
-        <v>29256017</v>
+        <v>29173096</v>
       </c>
       <c r="F63" t="n">
-        <v>8036.050673796103</v>
+        <v>8118.650082011047</v>
       </c>
       <c r="G63" t="n">
-        <v>8777.900519456876</v>
+        <v>8166.815634067298</v>
       </c>
       <c r="H63" t="n">
         <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>564154</v>
+        <v>562243</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33618913</v>
+        <v>33814241</v>
       </c>
       <c r="E64" t="n">
-        <v>238352610</v>
+        <v>239737455</v>
       </c>
       <c r="F64" t="n">
-        <v>33832.90702245853</v>
+        <v>40861.29379416769</v>
       </c>
       <c r="G64" t="n">
-        <v>41777.49312943795</v>
+        <v>28239.2755778049</v>
       </c>
       <c r="H64" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>6382703</v>
+        <v>6398485</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1244915</v>
+        <v>1251716</v>
       </c>
       <c r="E65" t="n">
-        <v>7718587</v>
+        <v>7760755</v>
       </c>
       <c r="F65" t="n">
-        <v>80.34033380704065</v>
+        <v>85.29429670224584</v>
       </c>
       <c r="G65" t="n">
-        <v>67.97348377782411</v>
+        <v>98.22194561578389</v>
       </c>
       <c r="H65" t="n">
-        <v>1.19</v>
+        <v>0.71</v>
       </c>
       <c r="I65" t="n">
-        <v>773478</v>
+        <v>775862</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>578423029</v>
+        <v>579404414</v>
       </c>
       <c r="E66" t="n">
-        <v>2240147051</v>
+        <v>2243947811</v>
       </c>
       <c r="F66" t="n">
-        <v>47806.78918072642</v>
+        <v>58622.27064555837</v>
       </c>
       <c r="G66" t="n">
-        <v>49331.85043677272</v>
+        <v>40782.28820029832</v>
       </c>
       <c r="H66" t="n">
         <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>62392627</v>
+        <v>61803846</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5487343</v>
+        <v>5485974</v>
       </c>
       <c r="E67" t="n">
-        <v>24562627</v>
+        <v>24556499</v>
       </c>
       <c r="F67" t="n">
-        <v>3804.386313970144</v>
+        <v>3781.048095090955</v>
       </c>
       <c r="G67" t="n">
-        <v>19227.80259388234</v>
+        <v>19228.52398784259</v>
       </c>
       <c r="H67" t="n">
         <v>0.5</v>
       </c>
       <c r="I67" t="n">
-        <v>191902</v>
+        <v>191700</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>109068613</v>
+        <v>109151351</v>
       </c>
       <c r="E68" t="n">
-        <v>1032575801</v>
+        <v>1033359102</v>
       </c>
       <c r="F68" t="n">
-        <v>3659.900198485437</v>
+        <v>3730.982653808968</v>
       </c>
       <c r="G68" t="n">
-        <v>3890.978861268989</v>
+        <v>3810.982565811257</v>
       </c>
       <c r="H68" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>17696631</v>
+        <v>17624431</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>100028130</v>
+        <v>99701373</v>
       </c>
       <c r="E69" t="n">
-        <v>152595257</v>
+        <v>152096782</v>
       </c>
       <c r="F69" t="n">
-        <v>3536.21778791329</v>
+        <v>3073.467150046148</v>
       </c>
       <c r="G69" t="n">
-        <v>18058.12296208557</v>
+        <v>18099.71398442572</v>
       </c>
       <c r="H69" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="I69" t="n">
-        <v>13418943</v>
+        <v>13420993</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1066081</v>
+        <v>1065741</v>
       </c>
       <c r="E70" t="n">
-        <v>4128100</v>
+        <v>4126783</v>
       </c>
       <c r="F70" t="n">
-        <v>2138.603960543117</v>
+        <v>2481.921605514999</v>
       </c>
       <c r="G70" t="n">
-        <v>3940.020482354656</v>
+        <v>3933.075946613572</v>
       </c>
       <c r="H70" t="n">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="I70" t="n">
-        <v>298065</v>
+        <v>297980</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>120120831</v>
+        <v>120306802</v>
       </c>
       <c r="E71" t="n">
-        <v>460802843</v>
+        <v>461516257</v>
       </c>
       <c r="F71" t="n">
-        <v>15184.01398195845</v>
+        <v>15601.17373079034</v>
       </c>
       <c r="G71" t="n">
-        <v>11051.64857946074</v>
+        <v>10837.94359978846</v>
       </c>
       <c r="H71" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>33509161</v>
+        <v>32967816</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3083372</v>
+        <v>3082601</v>
       </c>
       <c r="E72" t="n">
-        <v>29215405</v>
+        <v>29208097</v>
       </c>
       <c r="F72" t="n">
-        <v>630.2929493854953</v>
+        <v>83.12680954611307</v>
       </c>
       <c r="G72" t="n">
-        <v>36.70671238245237</v>
+        <v>6.904600325631101</v>
       </c>
       <c r="H72" t="n">
-        <v>0.17</v>
+        <v>0.9</v>
       </c>
       <c r="I72" t="n">
-        <v>222102</v>
+        <v>223798</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>38011142</v>
+        <v>38415458</v>
       </c>
       <c r="F73" t="n">
-        <v>3584.091547042059</v>
+        <v>2904.718179326498</v>
       </c>
       <c r="G73" t="n">
-        <v>1062.452320759241</v>
+        <v>1325.718390153521</v>
       </c>
       <c r="H73" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>8400940</v>
+        <v>8452780</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>90918729</v>
+        <v>90686086</v>
       </c>
       <c r="E74" t="n">
-        <v>336070243</v>
+        <v>335210175</v>
       </c>
       <c r="F74" t="n">
-        <v>149.1410079324397</v>
+        <v>265.2841978904635</v>
       </c>
       <c r="G74" t="n">
-        <v>349.9823803955306</v>
+        <v>315.6959883134432</v>
       </c>
       <c r="H74" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="I74" t="n">
-        <v>310107</v>
+        <v>310292</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21752812</v>
+        <v>21805484</v>
       </c>
       <c r="E75" t="n">
-        <v>21752812</v>
+        <v>21805484</v>
       </c>
       <c r="F75" t="n">
-        <v>5140.140527371324</v>
+        <v>2653.287958676275</v>
       </c>
       <c r="G75" t="n">
-        <v>765.4964668843088</v>
+        <v>746.2646324953728</v>
       </c>
       <c r="H75" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="I75" t="n">
-        <v>5905450</v>
+        <v>5893519</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>467785611</v>
+        <v>466989852</v>
       </c>
       <c r="E76" t="n">
-        <v>1628322780</v>
+        <v>1625552809</v>
       </c>
       <c r="F76" t="n">
-        <v>27890.44013947901</v>
+        <v>28236.61433099805</v>
       </c>
       <c r="G76" t="n">
-        <v>28215.78174939692</v>
+        <v>27830.55479503394</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>47755083</v>
+        <v>48135721</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5531886095</v>
+        <v>5541631654</v>
       </c>
       <c r="E77" t="n">
-        <v>5531886095</v>
+        <v>5541631654</v>
       </c>
       <c r="F77" t="n">
-        <v>1533.96664209221</v>
+        <v>1538.232169957211</v>
       </c>
       <c r="G77" t="n">
-        <v>1179.041126514003</v>
+        <v>1182.319706791517</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>34995386</v>
+        <v>34481339</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7091626</v>
+        <v>7092500</v>
       </c>
       <c r="E78" t="n">
-        <v>18423282</v>
+        <v>18425552</v>
       </c>
       <c r="F78" t="n">
-        <v>375.3803444935747</v>
+        <v>317.5342825310781</v>
       </c>
       <c r="G78" t="n">
-        <v>49.25706314783687</v>
+        <v>226.0874676994516</v>
       </c>
       <c r="H78" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="I78" t="n">
-        <v>775611</v>
+        <v>776018</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106092769</v>
+        <v>106325608</v>
       </c>
       <c r="E79" t="n">
-        <v>160742804</v>
+        <v>161095580</v>
       </c>
       <c r="F79" t="n">
-        <v>37909.87623621049</v>
+        <v>38663.20247734868</v>
       </c>
       <c r="G79" t="n">
-        <v>40169.37622910681</v>
+        <v>41760.54947678665</v>
       </c>
       <c r="H79" t="n">
         <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>9755729</v>
+        <v>9772238</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2322876</v>
+        <v>2315687</v>
       </c>
       <c r="E80" t="n">
-        <v>9291506</v>
+        <v>9262748</v>
       </c>
       <c r="F80" t="n">
-        <v>755.4676188020253</v>
+        <v>412.4958977216119</v>
       </c>
       <c r="G80" t="n">
-        <v>1113.436902940536</v>
+        <v>698.3937550915393</v>
       </c>
       <c r="H80" t="n">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="I80" t="n">
-        <v>7620563</v>
+        <v>7343527</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2235359</v>
+        <v>2236750</v>
       </c>
       <c r="F81" t="n">
-        <v>1632.245733303979</v>
+        <v>1613.974778014972</v>
       </c>
       <c r="G81" t="n">
-        <v>126.9097117290266</v>
+        <v>106.3283533084586</v>
       </c>
       <c r="H81" t="n">
         <v>0.14</v>
       </c>
       <c r="I81" t="n">
-        <v>177184</v>
+        <v>176873</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>379956897</v>
+        <v>381392464</v>
       </c>
       <c r="E82" t="n">
-        <v>2171182269</v>
+        <v>2179385508</v>
       </c>
       <c r="F82" t="n">
-        <v>42843.66434054673</v>
+        <v>35580.19487060658</v>
       </c>
       <c r="G82" t="n">
-        <v>37766.94245284703</v>
+        <v>40031.98822405125</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>63517583</v>
+        <v>63508203</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3820890</v>
+        <v>3814430</v>
       </c>
       <c r="F2" t="n">
-        <v>215.6692608085029</v>
+        <v>216.8938363412096</v>
       </c>
       <c r="G2" t="n">
-        <v>540.4932235411982</v>
+        <v>469.05817099567</v>
       </c>
       <c r="H2" t="n">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>38063</v>
+        <v>138527</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1414961</v>
+        <v>1440902</v>
       </c>
       <c r="E3" t="n">
-        <v>4573736</v>
+        <v>4657585</v>
       </c>
       <c r="F3" t="n">
-        <v>235.0988735211812</v>
+        <v>230.6460170234104</v>
       </c>
       <c r="G3" t="n">
-        <v>327.4851607890168</v>
+        <v>254.930384991332</v>
       </c>
       <c r="H3" t="n">
         <v>0.96</v>
       </c>
       <c r="I3" t="n">
-        <v>229207</v>
+        <v>227845</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251555377</v>
+        <v>252013767</v>
       </c>
       <c r="E4" t="n">
-        <v>1577468413</v>
+        <v>1580342912</v>
       </c>
       <c r="F4" t="n">
-        <v>11974.76519959256</v>
+        <v>8931.230074971756</v>
       </c>
       <c r="G4" t="n">
-        <v>21699.52299922817</v>
+        <v>25711.54059048764</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I4" t="n">
-        <v>27923946</v>
+        <v>29168331</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140156167</v>
+        <v>141372122</v>
       </c>
       <c r="E5" t="n">
-        <v>155314937</v>
+        <v>156662405</v>
       </c>
       <c r="F5" t="n">
-        <v>26388.84605554229</v>
+        <v>21308.53880055537</v>
       </c>
       <c r="G5" t="n">
-        <v>20381.53384813057</v>
+        <v>27655.81553315593</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>53689514</v>
+        <v>53657336</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117321897</v>
+        <v>117821003</v>
       </c>
       <c r="E6" t="n">
-        <v>459866707</v>
+        <v>461823052</v>
       </c>
       <c r="F6" t="n">
-        <v>11806.06071509985</v>
+        <v>6460.975359105594</v>
       </c>
       <c r="G6" t="n">
-        <v>9168.577374960041</v>
+        <v>11246.69736148214</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>26910084</v>
+        <v>26439554</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4347979</v>
+        <v>4367913</v>
       </c>
       <c r="E7" t="n">
-        <v>26695935</v>
+        <v>26818231</v>
       </c>
       <c r="F7" t="n">
-        <v>434.7524012473736</v>
+        <v>386.8368165551769</v>
       </c>
       <c r="G7" t="n">
-        <v>668.562424001893</v>
+        <v>540.7626152917053</v>
       </c>
       <c r="H7" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I7" t="n">
-        <v>561799</v>
+        <v>426795</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>196221</v>
+        <v>195116</v>
       </c>
       <c r="E8" t="n">
-        <v>2158646</v>
+        <v>2146487</v>
       </c>
       <c r="F8" t="n">
-        <v>3326.876672390598</v>
+        <v>2678.487760232005</v>
       </c>
       <c r="G8" t="n">
-        <v>4320.821329621969</v>
+        <v>4423.953516934678</v>
       </c>
       <c r="H8" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>35776</v>
+        <v>38472</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68697466</v>
+        <v>70000003</v>
       </c>
       <c r="E9" t="n">
-        <v>118921953</v>
+        <v>121168085</v>
       </c>
       <c r="F9" t="n">
-        <v>1343.857038336885</v>
+        <v>1081.517778153543</v>
       </c>
       <c r="G9" t="n">
-        <v>499.1300513924394</v>
+        <v>443.7732025596151</v>
       </c>
       <c r="H9" t="n">
         <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>795405</v>
+        <v>766457</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8807448</v>
+        <v>8796666</v>
       </c>
       <c r="E10" t="n">
-        <v>12466288</v>
+        <v>12451028</v>
       </c>
       <c r="F10" t="n">
-        <v>3064.658399979417</v>
+        <v>3082.638837674675</v>
       </c>
       <c r="G10" t="n">
-        <v>3045.005830039933</v>
+        <v>3062.188944962792</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>19344.82</v>
+        <v>17010.09</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>491536218</v>
+        <v>484168283</v>
       </c>
       <c r="E11" t="n">
-        <v>491536218</v>
+        <v>484168283</v>
       </c>
       <c r="F11" t="n">
-        <v>13980.77337445644</v>
+        <v>10452.01054766998</v>
       </c>
       <c r="G11" t="n">
-        <v>27468.050147523</v>
+        <v>31922.19871251004</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>76533656</v>
+        <v>75163974</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>301596</v>
+        <v>295658</v>
       </c>
       <c r="E12" t="n">
-        <v>1407881</v>
+        <v>1380163</v>
       </c>
       <c r="F12" t="n">
-        <v>513.2420710899593</v>
+        <v>160.1859124075435</v>
       </c>
       <c r="G12" t="n">
-        <v>220.114947737064</v>
+        <v>321.087522974972</v>
       </c>
       <c r="H12" t="n">
-        <v>2.91</v>
+        <v>0.99</v>
       </c>
       <c r="I12" t="n">
-        <v>678591</v>
+        <v>648690</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1697447</v>
+        <v>1716052</v>
       </c>
       <c r="F13" t="n">
-        <v>4130.943764655263</v>
+        <v>4151.981131134547</v>
       </c>
       <c r="G13" t="n">
-        <v>1641.088961700523</v>
+        <v>377.4564771377112</v>
       </c>
       <c r="H13" t="n">
         <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>1309523</v>
+        <v>1364317</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11902374</v>
+        <v>11896213</v>
       </c>
       <c r="E14" t="n">
-        <v>29622856</v>
+        <v>29607524</v>
       </c>
       <c r="F14" t="n">
-        <v>1559.379546048378</v>
+        <v>954.2859813638086</v>
       </c>
       <c r="G14" t="n">
-        <v>779.5198713458813</v>
+        <v>1366.020944849103</v>
       </c>
       <c r="H14" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="I14" t="n">
-        <v>1506132</v>
+        <v>1498518</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108821775</v>
+        <v>108738860</v>
       </c>
       <c r="E15" t="n">
-        <v>422959953</v>
+        <v>422564584</v>
       </c>
       <c r="F15" t="n">
-        <v>1109.440694852369</v>
+        <v>1949.572459633876</v>
       </c>
       <c r="G15" t="n">
-        <v>4599.473395791128</v>
+        <v>4021.540931926522</v>
       </c>
       <c r="H15" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="I15" t="n">
-        <v>12524162</v>
+        <v>12571005</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4674977</v>
+        <v>4815680</v>
       </c>
       <c r="E16" t="n">
-        <v>6881819</v>
+        <v>7088941</v>
       </c>
       <c r="F16" t="n">
-        <v>4122.188563129114</v>
+        <v>3561.351039244617</v>
       </c>
       <c r="G16" t="n">
-        <v>4788.973788493274</v>
+        <v>4150.808945074037</v>
       </c>
       <c r="H16" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="I16" t="n">
-        <v>567257</v>
+        <v>605862</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>432895</v>
+        <v>438418</v>
       </c>
       <c r="E17" t="n">
-        <v>1790612</v>
+        <v>1813464</v>
       </c>
       <c r="F17" t="n">
-        <v>86.83001916418519</v>
+        <v>381.4211357106302</v>
       </c>
       <c r="G17" t="n">
-        <v>96.73316718553633</v>
+        <v>27.71114123580809</v>
       </c>
       <c r="H17" t="n">
-        <v>1.33</v>
+        <v>0.61</v>
       </c>
       <c r="I17" t="n">
-        <v>100525</v>
+        <v>81549</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>137094017</v>
+        <v>138867255</v>
       </c>
       <c r="E18" t="n">
-        <v>137094017</v>
+        <v>138867255</v>
       </c>
       <c r="F18" t="n">
-        <v>117765.7135904847</v>
+        <v>97759.26356983752</v>
       </c>
       <c r="G18" t="n">
-        <v>69049.28171896393</v>
+        <v>101759.5826024612</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>91393394</v>
+        <v>96972725</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63232179</v>
+        <v>63661124</v>
       </c>
       <c r="E19" t="n">
-        <v>324267586</v>
+        <v>326467304</v>
       </c>
       <c r="F19" t="n">
-        <v>9710.554607673555</v>
+        <v>12075.89619712837</v>
       </c>
       <c r="G19" t="n">
-        <v>5657.7083992154</v>
+        <v>8078.481807189472</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>26637857</v>
+        <v>25741251</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>248910997</v>
+        <v>251394517</v>
       </c>
       <c r="E20" t="n">
-        <v>248910997</v>
+        <v>251394517</v>
       </c>
       <c r="F20" t="n">
-        <v>85947.03946294035</v>
+        <v>56933.24302166336</v>
       </c>
       <c r="G20" t="n">
-        <v>24166.22267540475</v>
+        <v>55241.70998792313</v>
       </c>
       <c r="H20" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>26349920</v>
+        <v>26934548</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>168906546</v>
+        <v>177714455</v>
       </c>
       <c r="E21" t="n">
-        <v>222261260</v>
+        <v>233851439</v>
       </c>
       <c r="F21" t="n">
-        <v>12918.02643001099</v>
+        <v>9184.24222771285</v>
       </c>
       <c r="G21" t="n">
-        <v>9421.542187862689</v>
+        <v>11756.8577604012</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>16717593</v>
+        <v>19030529</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77782218</v>
+        <v>82438123</v>
       </c>
       <c r="E22" t="n">
-        <v>217662904</v>
+        <v>230679334</v>
       </c>
       <c r="F22" t="n">
-        <v>27111.92373134285</v>
+        <v>18541.92345997117</v>
       </c>
       <c r="G22" t="n">
-        <v>21531.92295736009</v>
+        <v>27174.29034157984</v>
       </c>
       <c r="H22" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>54828581</v>
+        <v>58019544</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>87689778</v>
+        <v>84667823</v>
       </c>
       <c r="E23" t="n">
-        <v>182826144</v>
+        <v>176525612</v>
       </c>
       <c r="F23" t="n">
-        <v>20734.04067736943</v>
+        <v>13349.71865171234</v>
       </c>
       <c r="G23" t="n">
-        <v>20469.46560436434</v>
+        <v>23098.87962926644</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I23" t="n">
-        <v>77153594</v>
+        <v>80555533</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>645514950</v>
+        <v>645519447</v>
       </c>
       <c r="E24" t="n">
-        <v>645514950</v>
+        <v>645519447</v>
       </c>
       <c r="F24" t="n">
-        <v>117518.1358757352</v>
+        <v>116749.4886995073</v>
       </c>
       <c r="G24" t="n">
-        <v>77410.93750122572</v>
+        <v>101047.2940313899</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>554092250</v>
+        <v>555349818</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>195474535</v>
+        <v>195618902</v>
       </c>
       <c r="E25" t="n">
-        <v>679096201</v>
+        <v>679597746</v>
       </c>
       <c r="F25" t="n">
-        <v>58020.93491812098</v>
+        <v>76524.58530355824</v>
       </c>
       <c r="G25" t="n">
-        <v>109305.2485137924</v>
+        <v>93126.907896623</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>41335510</v>
+        <v>41210322</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5663406</v>
+        <v>5634505</v>
       </c>
       <c r="E26" t="n">
-        <v>7686007</v>
+        <v>7646427</v>
       </c>
       <c r="F26" t="n">
-        <v>231.2381703265775</v>
+        <v>694.814268322474</v>
       </c>
       <c r="G26" t="n">
-        <v>2220.778208915681</v>
+        <v>131.0369804627604</v>
       </c>
       <c r="H26" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>5567511</v>
+        <v>5627679</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14112115</v>
+        <v>14455455</v>
       </c>
       <c r="F27" t="n">
-        <v>2128.70353076226</v>
+        <v>2649.663358420337</v>
       </c>
       <c r="G27" t="n">
-        <v>2443.068592365561</v>
+        <v>2177.602586602879</v>
       </c>
       <c r="H27" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I27" t="n">
-        <v>235069</v>
+        <v>233475</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24319074</v>
+        <v>25583616</v>
       </c>
       <c r="E28" t="n">
-        <v>34366773</v>
+        <v>36153775</v>
       </c>
       <c r="F28" t="n">
-        <v>196.7425261662868</v>
+        <v>85.09099881197629</v>
       </c>
       <c r="G28" t="n">
-        <v>153.9862770947986</v>
+        <v>197.0889501644712</v>
       </c>
       <c r="H28" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="I28" t="n">
-        <v>177074</v>
+        <v>187489</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>258740722</v>
+        <v>260647281</v>
       </c>
       <c r="E29" t="n">
-        <v>1116868593</v>
+        <v>1125098360</v>
       </c>
       <c r="F29" t="n">
-        <v>126208.2780972628</v>
+        <v>82725.10731276468</v>
       </c>
       <c r="G29" t="n">
-        <v>113898.6752081191</v>
+        <v>112886.895429179</v>
       </c>
       <c r="H29" t="n">
         <v>0.18</v>
       </c>
       <c r="I29" t="n">
-        <v>141473692</v>
+        <v>140229939</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10154485</v>
+        <v>10356881</v>
       </c>
       <c r="E30" t="n">
-        <v>122253644</v>
+        <v>124690367</v>
       </c>
       <c r="F30" t="n">
-        <v>272.3926409537985</v>
+        <v>925.9329272631566</v>
       </c>
       <c r="G30" t="n">
-        <v>612.4722366377969</v>
+        <v>241.4201906823043</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>535719</v>
+        <v>270049</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16018393</v>
+        <v>15650943</v>
       </c>
       <c r="E31" t="n">
-        <v>40045983</v>
+        <v>39127357</v>
       </c>
       <c r="F31" t="n">
-        <v>5921.170158056939</v>
+        <v>6143.175762046969</v>
       </c>
       <c r="G31" t="n">
-        <v>4804.683185444705</v>
+        <v>3900.477592159583</v>
       </c>
       <c r="H31" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I31" t="n">
-        <v>5076625</v>
+        <v>5199140</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19312435</v>
+        <v>19144112</v>
       </c>
       <c r="F32" t="n">
-        <v>2271.222890978223</v>
+        <v>2166.727355308263</v>
       </c>
       <c r="G32" t="n">
-        <v>2207.207021007167</v>
+        <v>2687.538431403325</v>
       </c>
       <c r="H32" t="n">
-        <v>0.98</v>
+        <v>0.62</v>
       </c>
       <c r="I32" t="n">
-        <v>79251</v>
+        <v>80620</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1513636</v>
+        <v>1480413</v>
       </c>
       <c r="E33" t="n">
-        <v>5642768</v>
+        <v>5518913</v>
       </c>
       <c r="F33" t="n">
-        <v>4193.633259028935</v>
+        <v>1327.830222755235</v>
       </c>
       <c r="G33" t="n">
-        <v>569.9806590771464</v>
+        <v>3619.925269033583</v>
       </c>
       <c r="H33" t="n">
-        <v>0.14</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>767229</v>
+        <v>776029</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4057116</v>
+        <v>4107881</v>
       </c>
       <c r="E34" t="n">
-        <v>11684956</v>
+        <v>11831165</v>
       </c>
       <c r="F34" t="n">
-        <v>2665.991226206126</v>
+        <v>2514.536715942491</v>
       </c>
       <c r="G34" t="n">
-        <v>4325.344182858881</v>
+        <v>5686.84594339573</v>
       </c>
       <c r="H34" t="n">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="I34" t="n">
-        <v>484291</v>
+        <v>458839</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14185972</v>
+        <v>14134841</v>
       </c>
       <c r="E35" t="n">
-        <v>68704928</v>
+        <v>68457292</v>
       </c>
       <c r="F35" t="n">
-        <v>2477.136557802376</v>
+        <v>2278.628782054045</v>
       </c>
       <c r="G35" t="n">
-        <v>1711.247983754866</v>
+        <v>531.4647068670149</v>
       </c>
       <c r="H35" t="n">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="I35" t="n">
-        <v>5658766</v>
+        <v>5602363</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1234706</v>
+        <v>1252325</v>
       </c>
       <c r="E36" t="n">
-        <v>8081115</v>
+        <v>8196436</v>
       </c>
       <c r="F36" t="n">
-        <v>1605.486799225953</v>
+        <v>11066.09531641625</v>
       </c>
       <c r="G36" t="n">
-        <v>603.9922771826899</v>
+        <v>10821.94924227427</v>
       </c>
       <c r="H36" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="I36" t="n">
-        <v>336263</v>
+        <v>344761</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1846155036</v>
+        <v>1852892481</v>
       </c>
       <c r="F37" t="n">
-        <v>73509.04297153369</v>
+        <v>77129.1978193359</v>
       </c>
       <c r="G37" t="n">
-        <v>73183.61258679636</v>
+        <v>79063.42659085366</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="I37" t="n">
-        <v>31519860</v>
+        <v>32021894</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1826128</v>
+        <v>1826901</v>
       </c>
       <c r="E38" t="n">
-        <v>13094979</v>
+        <v>13100523</v>
       </c>
       <c r="F38" t="n">
-        <v>89.09662946014151</v>
+        <v>5444.98790049721</v>
       </c>
       <c r="G38" t="n">
-        <v>257.9939818126767</v>
+        <v>5416.247960273403</v>
       </c>
       <c r="H38" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I38" t="n">
-        <v>2076738</v>
+        <v>2105808</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>192899985</v>
+        <v>194246905</v>
       </c>
       <c r="E39" t="n">
-        <v>1092318243</v>
+        <v>1099945327</v>
       </c>
       <c r="F39" t="n">
-        <v>34608.2588511614</v>
+        <v>36715.92529628207</v>
       </c>
       <c r="G39" t="n">
-        <v>63922.31197521141</v>
+        <v>61203.85752018147</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>86135258</v>
+        <v>85806992</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>123351147</v>
+        <v>131114099</v>
       </c>
       <c r="E40" t="n">
-        <v>913712201</v>
+        <v>971215548</v>
       </c>
       <c r="F40" t="n">
-        <v>6933.481299140437</v>
+        <v>4816.518719528804</v>
       </c>
       <c r="G40" t="n">
-        <v>7417.41422046824</v>
+        <v>10471.09477997341</v>
       </c>
       <c r="H40" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I40" t="n">
-        <v>35780556</v>
+        <v>36492929</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>320812327</v>
+        <v>323123300</v>
       </c>
       <c r="E41" t="n">
-        <v>2886226625</v>
+        <v>2907017572</v>
       </c>
       <c r="F41" t="n">
-        <v>58230.0352596516</v>
+        <v>59793.69484507949</v>
       </c>
       <c r="G41" t="n">
-        <v>88624.3448780149</v>
+        <v>85942.05973365005</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I41" t="n">
-        <v>69452528</v>
+        <v>71119584</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1524986</v>
+        <v>1538264</v>
       </c>
       <c r="E42" t="n">
-        <v>12708214</v>
+        <v>12818866</v>
       </c>
       <c r="F42" t="n">
-        <v>3376.293317800342</v>
+        <v>2467.177907952427</v>
       </c>
       <c r="G42" t="n">
-        <v>2425.467216318303</v>
+        <v>2440.389640316889</v>
       </c>
       <c r="H42" t="n">
-        <v>0.63</v>
+        <v>1.63</v>
       </c>
       <c r="I42" t="n">
-        <v>30886</v>
+        <v>30653</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19527992</v>
+        <v>19516173</v>
       </c>
       <c r="E43" t="n">
-        <v>58547976</v>
+        <v>58513657</v>
       </c>
       <c r="F43" t="n">
-        <v>1882.031460291357</v>
+        <v>2220.806901600878</v>
       </c>
       <c r="G43" t="n">
-        <v>2451.987531175164</v>
+        <v>3050.830402651127</v>
       </c>
       <c r="H43" t="n">
-        <v>0.19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>3672406</v>
+        <v>4384100</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>10008822</v>
+        <v>9206974</v>
       </c>
       <c r="F44" t="n">
-        <v>7450.783127616424</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1114.573587072335</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>5.28</v>
       </c>
       <c r="I44" t="n">
-        <v>897194</v>
+        <v>1100976</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12396689</v>
+        <v>12650874</v>
       </c>
       <c r="E45" t="n">
-        <v>12396689</v>
+        <v>12650874</v>
       </c>
       <c r="F45" t="n">
-        <v>146.4986014019828</v>
+        <v>15.81824161022876</v>
       </c>
       <c r="G45" t="n">
-        <v>171.1460739186624</v>
+        <v>126.1272711966958</v>
       </c>
       <c r="H45" t="n">
-        <v>2.07</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
-        <v>2708427</v>
+        <v>2533700</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>286594947</v>
+        <v>287276622</v>
       </c>
       <c r="E46" t="n">
-        <v>286594947</v>
+        <v>287276622</v>
       </c>
       <c r="F46" t="n">
-        <v>15462.17986183537</v>
+        <v>12836.22225341942</v>
       </c>
       <c r="G46" t="n">
-        <v>13231.12164548032</v>
+        <v>14399.07580558392</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>19932183</v>
+        <v>18806675</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12853256</v>
+        <v>13104771</v>
       </c>
       <c r="E47" t="n">
-        <v>40652872</v>
+        <v>41448372</v>
       </c>
       <c r="F47" t="n">
-        <v>5944.674410372315</v>
+        <v>5995.463925855659</v>
       </c>
       <c r="G47" t="n">
-        <v>2817.598900392175</v>
+        <v>2810.740066804652</v>
       </c>
       <c r="H47" t="n">
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
       <c r="I47" t="n">
-        <v>1075792</v>
+        <v>1190893</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31522788</v>
+        <v>31830863</v>
       </c>
       <c r="E48" t="n">
-        <v>87314996</v>
+        <v>88168333</v>
       </c>
       <c r="F48" t="n">
-        <v>4504.07733420183</v>
+        <v>5233.182661712133</v>
       </c>
       <c r="G48" t="n">
-        <v>1589.346400958893</v>
+        <v>1801.629206478846</v>
       </c>
       <c r="H48" t="n">
         <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>12478534</v>
+        <v>12733392</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27972769</v>
+        <v>28779681</v>
       </c>
       <c r="E49" t="n">
-        <v>66356595</v>
+        <v>68270740</v>
       </c>
       <c r="F49" t="n">
-        <v>4835.285964915603</v>
+        <v>2212.800432593123</v>
       </c>
       <c r="G49" t="n">
-        <v>8504.45589319393</v>
+        <v>7680.728911976622</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I49" t="n">
-        <v>464489</v>
+        <v>696308</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12138300</v>
+        <v>12111012</v>
       </c>
       <c r="E50" t="n">
-        <v>18477230</v>
+        <v>18413480</v>
       </c>
       <c r="F50" t="n">
-        <v>5525.926644713474</v>
+        <v>14209.57828648342</v>
       </c>
       <c r="G50" t="n">
-        <v>18590.41949817161</v>
+        <v>3522.789156734322</v>
       </c>
       <c r="H50" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="I50" t="n">
-        <v>673591</v>
+        <v>650590</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>288958357</v>
+        <v>307179706</v>
       </c>
       <c r="E51" t="n">
-        <v>288958357</v>
+        <v>307179706</v>
       </c>
       <c r="F51" t="n">
-        <v>37131.9010189641</v>
+        <v>39543.65208820917</v>
       </c>
       <c r="G51" t="n">
-        <v>47653.46882185785</v>
+        <v>57841.48928620862</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>93216193</v>
+        <v>110671012</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84171987</v>
+        <v>84230065</v>
       </c>
       <c r="E52" t="n">
-        <v>485035297</v>
+        <v>485369967</v>
       </c>
       <c r="F52" t="n">
-        <v>7404.570163540014</v>
+        <v>41142.2824226638</v>
       </c>
       <c r="G52" t="n">
-        <v>3440.430375735432</v>
+        <v>59654.67822683621</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>20901772</v>
+        <v>21316920</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29599391</v>
+        <v>30172320</v>
       </c>
       <c r="E53" t="n">
-        <v>132528616</v>
+        <v>135093854</v>
       </c>
       <c r="F53" t="n">
-        <v>7925.317036873204</v>
+        <v>11870.626825187</v>
       </c>
       <c r="G53" t="n">
-        <v>13287.0254120914</v>
+        <v>14688.47027197772</v>
       </c>
       <c r="H53" t="n">
         <v>0.3</v>
       </c>
       <c r="I53" t="n">
-        <v>15196607</v>
+        <v>16319376</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8092544</v>
+        <v>7724355</v>
       </c>
       <c r="F54" t="n">
-        <v>3656.39630938435</v>
+        <v>66.98917630227733</v>
       </c>
       <c r="G54" t="n">
-        <v>4908.316632136945</v>
+        <v>433.584497083429</v>
       </c>
       <c r="H54" t="n">
-        <v>0.51</v>
+        <v>2.38</v>
       </c>
       <c r="I54" t="n">
-        <v>307528</v>
+        <v>314862</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4422315</v>
+        <v>4402411</v>
       </c>
       <c r="F55" t="n">
-        <v>2117.112084320718</v>
+        <v>2145.638687049553</v>
       </c>
       <c r="G55" t="n">
-        <v>891.4239126625297</v>
+        <v>844.8075779919828</v>
       </c>
       <c r="H55" t="n">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="I55" t="n">
-        <v>214040</v>
+        <v>202081</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124318235</v>
+        <v>124142542</v>
       </c>
       <c r="E56" t="n">
-        <v>2058811783</v>
+        <v>2055902174</v>
       </c>
       <c r="F56" t="n">
-        <v>20302.99176616067</v>
+        <v>17612.28997651242</v>
       </c>
       <c r="G56" t="n">
-        <v>29001.61543534405</v>
+        <v>32039.54141685072</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>36702936</v>
+        <v>41249929</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94534430</v>
+        <v>94832764</v>
       </c>
       <c r="E57" t="n">
-        <v>95552024</v>
+        <v>95853569</v>
       </c>
       <c r="F57" t="n">
-        <v>17879.31353865529</v>
+        <v>19692.18861657691</v>
       </c>
       <c r="G57" t="n">
-        <v>20259.83378895375</v>
+        <v>21944.3266082789</v>
       </c>
       <c r="H57" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>78796376</v>
+        <v>67845309</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>241542330</v>
+        <v>245824126</v>
       </c>
       <c r="E58" t="n">
-        <v>241542330</v>
+        <v>245824126</v>
       </c>
       <c r="F58" t="n">
-        <v>48479.09053774975</v>
+        <v>47200.06499288438</v>
       </c>
       <c r="G58" t="n">
-        <v>58398.39626598835</v>
+        <v>57098.69938734594</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>93901885</v>
+        <v>93297931</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22959505</v>
+        <v>22991464</v>
       </c>
       <c r="E59" t="n">
-        <v>137371331</v>
+        <v>137562548</v>
       </c>
       <c r="F59" t="n">
-        <v>21024.69934281301</v>
+        <v>26587.63924089251</v>
       </c>
       <c r="G59" t="n">
-        <v>22284.38981905691</v>
+        <v>27432.97522567556</v>
       </c>
       <c r="H59" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>18416597</v>
+        <v>18595367</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2848390</v>
+        <v>2868200</v>
       </c>
       <c r="E60" t="n">
-        <v>5256867</v>
+        <v>5293427</v>
       </c>
       <c r="F60" t="n">
-        <v>31.17124309097162</v>
+        <v>64.52504929601076</v>
       </c>
       <c r="G60" t="n">
-        <v>94.0627776186503</v>
+        <v>43.42393802652823</v>
       </c>
       <c r="H60" t="n">
-        <v>0.09</v>
+        <v>3.63</v>
       </c>
       <c r="I60" t="n">
-        <v>424357</v>
+        <v>436613</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9138149</v>
+        <v>9587015</v>
       </c>
       <c r="E62" t="n">
-        <v>27090394</v>
+        <v>28421074</v>
       </c>
       <c r="F62" t="n">
-        <v>3440.648671818971</v>
+        <v>4625.561497492302</v>
       </c>
       <c r="G62" t="n">
-        <v>1628.447927881301</v>
+        <v>5935.919723064244</v>
       </c>
       <c r="H62" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>6614468</v>
+        <v>6890874</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14410460</v>
+        <v>14583258</v>
       </c>
       <c r="E63" t="n">
-        <v>29173096</v>
+        <v>29522915</v>
       </c>
       <c r="F63" t="n">
-        <v>8118.650082011047</v>
+        <v>6021.033204734414</v>
       </c>
       <c r="G63" t="n">
-        <v>8166.815634067298</v>
+        <v>17726.74729374029</v>
       </c>
       <c r="H63" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>562243</v>
+        <v>542838</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33814241</v>
+        <v>34063736</v>
       </c>
       <c r="E64" t="n">
-        <v>239737455</v>
+        <v>241506332</v>
       </c>
       <c r="F64" t="n">
-        <v>40861.29379416769</v>
+        <v>54193.62724104438</v>
       </c>
       <c r="G64" t="n">
-        <v>28239.2755778049</v>
+        <v>37530.6710240488</v>
       </c>
       <c r="H64" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I64" t="n">
-        <v>6398485</v>
+        <v>6475553</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1251716</v>
+        <v>1266741</v>
       </c>
       <c r="E65" t="n">
-        <v>7760755</v>
+        <v>7853914</v>
       </c>
       <c r="F65" t="n">
-        <v>85.29429670224584</v>
+        <v>339.9429786242563</v>
       </c>
       <c r="G65" t="n">
-        <v>98.22194561578389</v>
+        <v>140.6291025845728</v>
       </c>
       <c r="H65" t="n">
-        <v>0.71</v>
+        <v>1.56</v>
       </c>
       <c r="I65" t="n">
-        <v>775862</v>
+        <v>751553</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>579404414</v>
+        <v>583908283</v>
       </c>
       <c r="E66" t="n">
-        <v>2243947811</v>
+        <v>2261390631</v>
       </c>
       <c r="F66" t="n">
-        <v>58622.27064555837</v>
+        <v>52602.07679993309</v>
       </c>
       <c r="G66" t="n">
-        <v>40782.28820029832</v>
+        <v>46413.36937434328</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>61803846</v>
+        <v>62878942</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5485974</v>
+        <v>5452498</v>
       </c>
       <c r="E67" t="n">
-        <v>24556499</v>
+        <v>24406251</v>
       </c>
       <c r="F67" t="n">
-        <v>3781.048095090955</v>
+        <v>4107.515106908638</v>
       </c>
       <c r="G67" t="n">
-        <v>19228.52398784259</v>
+        <v>18772.91300309289</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="I67" t="n">
-        <v>191700</v>
+        <v>190603</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>109151351</v>
+        <v>109062077</v>
       </c>
       <c r="E68" t="n">
-        <v>1033359102</v>
+        <v>1031919496</v>
       </c>
       <c r="F68" t="n">
-        <v>3730.982653808968</v>
+        <v>4263.551476576239</v>
       </c>
       <c r="G68" t="n">
-        <v>3810.982565811257</v>
+        <v>3652.649850030823</v>
       </c>
       <c r="H68" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I68" t="n">
-        <v>17624431</v>
+        <v>18051429</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>99701373</v>
+        <v>98216558</v>
       </c>
       <c r="E69" t="n">
-        <v>152096782</v>
+        <v>149831661</v>
       </c>
       <c r="F69" t="n">
-        <v>3073.467150046148</v>
+        <v>4185.872939855027</v>
       </c>
       <c r="G69" t="n">
-        <v>18099.71398442572</v>
+        <v>18984.34789049928</v>
       </c>
       <c r="H69" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I69" t="n">
-        <v>13420993</v>
+        <v>12503993</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1065741</v>
+        <v>1075216</v>
       </c>
       <c r="E70" t="n">
-        <v>4126783</v>
+        <v>4163470</v>
       </c>
       <c r="F70" t="n">
-        <v>2481.921605514999</v>
+        <v>2969.738506413357</v>
       </c>
       <c r="G70" t="n">
-        <v>3933.075946613572</v>
+        <v>2233.692362612598</v>
       </c>
       <c r="H70" t="n">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="I70" t="n">
-        <v>297980</v>
+        <v>283821</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>120306802</v>
+        <v>122971126</v>
       </c>
       <c r="E71" t="n">
-        <v>461516257</v>
+        <v>471737032</v>
       </c>
       <c r="F71" t="n">
-        <v>15601.17373079034</v>
+        <v>12355.58562543061</v>
       </c>
       <c r="G71" t="n">
-        <v>10837.94359978846</v>
+        <v>12799.40336916322</v>
       </c>
       <c r="H71" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>32967816</v>
+        <v>32642394</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3082601</v>
+        <v>3151992</v>
       </c>
       <c r="E72" t="n">
-        <v>29208097</v>
+        <v>29865587</v>
       </c>
       <c r="F72" t="n">
-        <v>83.12680954611307</v>
+        <v>611.1093295551227</v>
       </c>
       <c r="G72" t="n">
-        <v>6.904600325631101</v>
+        <v>8.203863902540066</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9</v>
+        <v>0.41</v>
       </c>
       <c r="I72" t="n">
-        <v>223798</v>
+        <v>277310</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>38415458</v>
+        <v>40908844</v>
       </c>
       <c r="F73" t="n">
-        <v>2904.718179326498</v>
+        <v>2863.479558828416</v>
       </c>
       <c r="G73" t="n">
-        <v>1325.718390153521</v>
+        <v>1267.310854574092</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I73" t="n">
-        <v>8452780</v>
+        <v>9714076</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>90686086</v>
+        <v>91018173</v>
       </c>
       <c r="E74" t="n">
-        <v>335210175</v>
+        <v>336433776</v>
       </c>
       <c r="F74" t="n">
-        <v>265.2841978904635</v>
+        <v>166.3751163324957</v>
       </c>
       <c r="G74" t="n">
-        <v>315.6959883134432</v>
+        <v>201.3145340092249</v>
       </c>
       <c r="H74" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="I74" t="n">
-        <v>310292</v>
+        <v>329431</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21805484</v>
+        <v>22042507</v>
       </c>
       <c r="E75" t="n">
-        <v>21805484</v>
+        <v>22042507</v>
       </c>
       <c r="F75" t="n">
-        <v>2653.287958676275</v>
+        <v>4941.116277659112</v>
       </c>
       <c r="G75" t="n">
-        <v>746.2646324953728</v>
+        <v>647.7979291623484</v>
       </c>
       <c r="H75" t="n">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="I75" t="n">
-        <v>5893519</v>
+        <v>5613669</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>466989852</v>
+        <v>467721983</v>
       </c>
       <c r="E76" t="n">
-        <v>1625552809</v>
+        <v>1627276137</v>
       </c>
       <c r="F76" t="n">
-        <v>28236.61433099805</v>
+        <v>71094.35805983226</v>
       </c>
       <c r="G76" t="n">
-        <v>27830.55479503394</v>
+        <v>35531.52094994496</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>48135721</v>
+        <v>49269599</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5541631654</v>
+        <v>5597223763</v>
       </c>
       <c r="E77" t="n">
-        <v>5541631654</v>
+        <v>5597223763</v>
       </c>
       <c r="F77" t="n">
-        <v>1538.232169957211</v>
+        <v>1551.794994041608</v>
       </c>
       <c r="G77" t="n">
-        <v>1182.319706791517</v>
+        <v>1192.744397230266</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>34481339</v>
+        <v>35635501</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7092500</v>
+        <v>7097047</v>
       </c>
       <c r="E78" t="n">
-        <v>18425552</v>
+        <v>18437364</v>
       </c>
       <c r="F78" t="n">
-        <v>317.5342825310781</v>
+        <v>291.7689343319746</v>
       </c>
       <c r="G78" t="n">
-        <v>226.0874676994516</v>
+        <v>897.6341309614521</v>
       </c>
       <c r="H78" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I78" t="n">
-        <v>776018</v>
+        <v>788820</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106325608</v>
+        <v>109288924</v>
       </c>
       <c r="E79" t="n">
-        <v>161095580</v>
+        <v>165585347</v>
       </c>
       <c r="F79" t="n">
-        <v>38663.20247734868</v>
+        <v>40198.31968726335</v>
       </c>
       <c r="G79" t="n">
-        <v>41760.54947678665</v>
+        <v>44220.83989812434</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I79" t="n">
-        <v>9772238</v>
+        <v>10006673</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2315687</v>
+        <v>2296806</v>
       </c>
       <c r="E80" t="n">
-        <v>9262748</v>
+        <v>9187223</v>
       </c>
       <c r="F80" t="n">
-        <v>412.4958977216119</v>
+        <v>802.9777280955939</v>
       </c>
       <c r="G80" t="n">
-        <v>698.3937550915393</v>
+        <v>1545.075521029657</v>
       </c>
       <c r="H80" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="I80" t="n">
-        <v>7343527</v>
+        <v>7884418</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2236750</v>
+        <v>2292107</v>
       </c>
       <c r="F81" t="n">
-        <v>1613.974778014972</v>
+        <v>633.9761223842353</v>
       </c>
       <c r="G81" t="n">
-        <v>106.3283533084586</v>
+        <v>242.2795446145526</v>
       </c>
       <c r="H81" t="n">
-        <v>0.14</v>
+        <v>0.87</v>
       </c>
       <c r="I81" t="n">
-        <v>176873</v>
+        <v>176956</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>381392464</v>
+        <v>378990547</v>
       </c>
       <c r="E82" t="n">
-        <v>2179385508</v>
+        <v>2165660270</v>
       </c>
       <c r="F82" t="n">
-        <v>35580.19487060658</v>
+        <v>42107.50638024467</v>
       </c>
       <c r="G82" t="n">
-        <v>40031.98822405125</v>
+        <v>41434.90561573122</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>63508203</v>
+        <v>63538010</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3814430</v>
+        <v>3803826</v>
       </c>
       <c r="F2" t="n">
-        <v>216.8938363412096</v>
+        <v>296.5628058698238</v>
       </c>
       <c r="G2" t="n">
-        <v>469.05817099567</v>
+        <v>496.9026356521933</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I2" t="n">
-        <v>138527</v>
+        <v>136775</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1440902</v>
+        <v>1529116</v>
       </c>
       <c r="E3" t="n">
-        <v>4657585</v>
+        <v>4942730</v>
       </c>
       <c r="F3" t="n">
-        <v>230.6460170234104</v>
+        <v>8288.478477078525</v>
       </c>
       <c r="G3" t="n">
-        <v>254.930384991332</v>
+        <v>6202.253251015893</v>
       </c>
       <c r="H3" t="n">
-        <v>0.96</v>
+        <v>0.32</v>
       </c>
       <c r="I3" t="n">
-        <v>227845</v>
+        <v>252651</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252013767</v>
+        <v>251173663</v>
       </c>
       <c r="E4" t="n">
-        <v>1580342912</v>
+        <v>1575074737</v>
       </c>
       <c r="F4" t="n">
-        <v>8931.230074971756</v>
+        <v>18741.34070145092</v>
       </c>
       <c r="G4" t="n">
-        <v>25711.54059048764</v>
+        <v>28850.16077089851</v>
       </c>
       <c r="H4" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I4" t="n">
-        <v>29168331</v>
+        <v>29600187</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141372122</v>
+        <v>140283716</v>
       </c>
       <c r="E5" t="n">
-        <v>156662405</v>
+        <v>155456281</v>
       </c>
       <c r="F5" t="n">
-        <v>21308.53880055537</v>
+        <v>38470.26203666436</v>
       </c>
       <c r="G5" t="n">
-        <v>27655.81553315593</v>
+        <v>17960.09978041839</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>53657336</v>
+        <v>53460098</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117821003</v>
+        <v>117058612</v>
       </c>
       <c r="E6" t="n">
-        <v>461823052</v>
+        <v>458834709</v>
       </c>
       <c r="F6" t="n">
-        <v>6460.975359105594</v>
+        <v>13165.96594704733</v>
       </c>
       <c r="G6" t="n">
-        <v>11246.69736148214</v>
+        <v>11032.78769447256</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>26439554</v>
+        <v>26296441</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4367913</v>
+        <v>4362121</v>
       </c>
       <c r="E7" t="n">
-        <v>26818231</v>
+        <v>26782634</v>
       </c>
       <c r="F7" t="n">
-        <v>386.8368165551769</v>
+        <v>346.1659935400475</v>
       </c>
       <c r="G7" t="n">
-        <v>540.7626152917053</v>
+        <v>456.2317028936956</v>
       </c>
       <c r="H7" t="n">
         <v>0.19</v>
       </c>
       <c r="I7" t="n">
-        <v>426795</v>
+        <v>455368</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>195116</v>
+        <v>195100</v>
       </c>
       <c r="E8" t="n">
-        <v>2146487</v>
+        <v>2146315</v>
       </c>
       <c r="F8" t="n">
-        <v>2678.487760232005</v>
+        <v>2655.332037541589</v>
       </c>
       <c r="G8" t="n">
-        <v>4423.953516934678</v>
+        <v>4389.292094465231</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I8" t="n">
-        <v>38472</v>
+        <v>40742</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70000003</v>
+        <v>69683762</v>
       </c>
       <c r="E9" t="n">
-        <v>121168085</v>
+        <v>120617800</v>
       </c>
       <c r="F9" t="n">
-        <v>1081.517778153543</v>
+        <v>1067.650189090556</v>
       </c>
       <c r="G9" t="n">
-        <v>443.7732025596151</v>
+        <v>185.9835613053505</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>766457</v>
+        <v>605814</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8796666</v>
+        <v>8783926</v>
       </c>
       <c r="E10" t="n">
-        <v>12451028</v>
+        <v>12432995</v>
       </c>
       <c r="F10" t="n">
-        <v>3082.638837674675</v>
+        <v>3082.685471910504</v>
       </c>
       <c r="G10" t="n">
-        <v>3062.188944962792</v>
+        <v>3050.340377086051</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>17010.09</v>
+        <v>13224.19</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>484168283</v>
+        <v>484375098</v>
       </c>
       <c r="E11" t="n">
-        <v>484168283</v>
+        <v>484375100</v>
       </c>
       <c r="F11" t="n">
-        <v>10452.01054766998</v>
+        <v>14468.92008916902</v>
       </c>
       <c r="G11" t="n">
-        <v>31922.19871251004</v>
+        <v>31702.14803438304</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>75163974</v>
+        <v>81983753</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>295658</v>
+        <v>299453</v>
       </c>
       <c r="E12" t="n">
-        <v>1380163</v>
+        <v>1397877</v>
       </c>
       <c r="F12" t="n">
-        <v>160.1859124075435</v>
+        <v>36.53318673095932</v>
       </c>
       <c r="G12" t="n">
-        <v>321.087522974972</v>
+        <v>264.1884939026274</v>
       </c>
       <c r="H12" t="n">
-        <v>0.99</v>
+        <v>2.35</v>
       </c>
       <c r="I12" t="n">
-        <v>648690</v>
+        <v>654593</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1716052</v>
+        <v>1665470</v>
       </c>
       <c r="F13" t="n">
-        <v>4151.981131134547</v>
+        <v>4235.726760559278</v>
       </c>
       <c r="G13" t="n">
-        <v>377.4564771377112</v>
+        <v>243.993225094487</v>
       </c>
       <c r="H13" t="n">
         <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>1364317</v>
+        <v>1366849</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11896213</v>
+        <v>11916255</v>
       </c>
       <c r="E14" t="n">
-        <v>29607524</v>
+        <v>29657403</v>
       </c>
       <c r="F14" t="n">
-        <v>954.2859813638086</v>
+        <v>1567.804019793353</v>
       </c>
       <c r="G14" t="n">
-        <v>1366.020944849103</v>
+        <v>1362.492281635286</v>
       </c>
       <c r="H14" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="I14" t="n">
-        <v>1498518</v>
+        <v>1447730</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108738860</v>
+        <v>110818205</v>
       </c>
       <c r="E15" t="n">
-        <v>422564584</v>
+        <v>430620122</v>
       </c>
       <c r="F15" t="n">
-        <v>1949.572459633876</v>
+        <v>1823.813367532189</v>
       </c>
       <c r="G15" t="n">
-        <v>4021.540931926522</v>
+        <v>5331.894697860274</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="I15" t="n">
-        <v>12571005</v>
+        <v>12655262</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4815680</v>
+        <v>4752784</v>
       </c>
       <c r="E16" t="n">
-        <v>7088941</v>
+        <v>6996355</v>
       </c>
       <c r="F16" t="n">
-        <v>3561.351039244617</v>
+        <v>3683.708291413858</v>
       </c>
       <c r="G16" t="n">
-        <v>4150.808945074037</v>
+        <v>4296.752413012679</v>
       </c>
       <c r="H16" t="n">
         <v>0.57</v>
       </c>
       <c r="I16" t="n">
-        <v>605862</v>
+        <v>595437</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>438418</v>
+        <v>424373</v>
       </c>
       <c r="E17" t="n">
-        <v>1813464</v>
+        <v>1755369</v>
       </c>
       <c r="F17" t="n">
-        <v>381.4211357106302</v>
+        <v>524.1614338811863</v>
       </c>
       <c r="G17" t="n">
-        <v>27.71114123580809</v>
+        <v>1017.514720063113</v>
       </c>
       <c r="H17" t="n">
-        <v>0.61</v>
+        <v>1.68</v>
       </c>
       <c r="I17" t="n">
-        <v>81549</v>
+        <v>79752</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>138867255</v>
+        <v>139402856</v>
       </c>
       <c r="E18" t="n">
-        <v>138867255</v>
+        <v>139402856</v>
       </c>
       <c r="F18" t="n">
-        <v>97759.26356983752</v>
+        <v>96188.15773416711</v>
       </c>
       <c r="G18" t="n">
-        <v>101759.5826024612</v>
+        <v>97356.67269202047</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>96972725</v>
+        <v>96949590</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63661124</v>
+        <v>63432932</v>
       </c>
       <c r="E19" t="n">
-        <v>326467304</v>
+        <v>325297087</v>
       </c>
       <c r="F19" t="n">
-        <v>12075.89619712837</v>
+        <v>13155.07559179053</v>
       </c>
       <c r="G19" t="n">
-        <v>8078.481807189472</v>
+        <v>6241.77649705236</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>25741251</v>
+        <v>25419258</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251394517</v>
+        <v>250550414</v>
       </c>
       <c r="E20" t="n">
-        <v>251394517</v>
+        <v>250550414</v>
       </c>
       <c r="F20" t="n">
-        <v>56933.24302166336</v>
+        <v>69309.93530215957</v>
       </c>
       <c r="G20" t="n">
-        <v>55241.70998792313</v>
+        <v>41725.62587965711</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>26934548</v>
+        <v>26950270</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>177714455</v>
+        <v>182335503</v>
       </c>
       <c r="E21" t="n">
-        <v>233851439</v>
+        <v>239932197</v>
       </c>
       <c r="F21" t="n">
-        <v>9184.24222771285</v>
+        <v>38256.39445362125</v>
       </c>
       <c r="G21" t="n">
-        <v>11756.8577604012</v>
+        <v>13159.46360732168</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="I21" t="n">
-        <v>19030529</v>
+        <v>18999599</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82438123</v>
+        <v>81228998</v>
       </c>
       <c r="E22" t="n">
-        <v>230679334</v>
+        <v>227312070</v>
       </c>
       <c r="F22" t="n">
-        <v>18541.92345997117</v>
+        <v>34110.36045546855</v>
       </c>
       <c r="G22" t="n">
-        <v>27174.29034157984</v>
+        <v>22011.4589513807</v>
       </c>
       <c r="H22" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I22" t="n">
-        <v>58019544</v>
+        <v>63733358</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84667823</v>
+        <v>84615321</v>
       </c>
       <c r="E23" t="n">
-        <v>176525612</v>
+        <v>176416149</v>
       </c>
       <c r="F23" t="n">
-        <v>13349.71865171234</v>
+        <v>18956.91391220981</v>
       </c>
       <c r="G23" t="n">
-        <v>23098.87962926644</v>
+        <v>20800.86906505595</v>
       </c>
       <c r="H23" t="n">
         <v>0.13</v>
       </c>
       <c r="I23" t="n">
-        <v>80555533</v>
+        <v>83106322</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>645519447</v>
+        <v>640905254</v>
       </c>
       <c r="E24" t="n">
-        <v>645519447</v>
+        <v>640905254</v>
       </c>
       <c r="F24" t="n">
-        <v>116749.4886995073</v>
+        <v>171610.8812260063</v>
       </c>
       <c r="G24" t="n">
-        <v>101047.2940313899</v>
+        <v>134332.6251779509</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>555349818</v>
+        <v>554314086</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>195618902</v>
+        <v>195142834</v>
       </c>
       <c r="E25" t="n">
-        <v>679597746</v>
+        <v>677943842</v>
       </c>
       <c r="F25" t="n">
-        <v>76524.58530355824</v>
+        <v>64308.4216838338</v>
       </c>
       <c r="G25" t="n">
-        <v>93126.907896623</v>
+        <v>103448.8481329901</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>41210322</v>
+        <v>41258036</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5634505</v>
+        <v>5620918</v>
       </c>
       <c r="E26" t="n">
-        <v>7646427</v>
+        <v>7627881</v>
       </c>
       <c r="F26" t="n">
-        <v>694.814268322474</v>
+        <v>317.6909933327848</v>
       </c>
       <c r="G26" t="n">
-        <v>131.0369804627604</v>
+        <v>111.6968960659253</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>5627679</v>
+        <v>5612378</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14455455</v>
+        <v>14403154</v>
       </c>
       <c r="F27" t="n">
-        <v>2649.663358420337</v>
+        <v>2433.572510880437</v>
       </c>
       <c r="G27" t="n">
-        <v>2177.602586602879</v>
+        <v>2657.138390832343</v>
       </c>
       <c r="H27" t="n">
-        <v>0.41</v>
+        <v>1.14</v>
       </c>
       <c r="I27" t="n">
-        <v>233475</v>
+        <v>222416</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25583616</v>
+        <v>25102910</v>
       </c>
       <c r="E28" t="n">
-        <v>36153775</v>
+        <v>35474459</v>
       </c>
       <c r="F28" t="n">
-        <v>85.09099881197629</v>
+        <v>226.3310028391564</v>
       </c>
       <c r="G28" t="n">
-        <v>197.0889501644712</v>
+        <v>233.6853094124241</v>
       </c>
       <c r="H28" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="I28" t="n">
-        <v>187489</v>
+        <v>191387</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>260647281</v>
+        <v>260298834</v>
       </c>
       <c r="E29" t="n">
-        <v>1125098360</v>
+        <v>1123594269</v>
       </c>
       <c r="F29" t="n">
-        <v>82725.10731276468</v>
+        <v>150941.4604150301</v>
       </c>
       <c r="G29" t="n">
-        <v>112886.895429179</v>
+        <v>120515.8612109933</v>
       </c>
       <c r="H29" t="n">
         <v>0.18</v>
       </c>
       <c r="I29" t="n">
-        <v>140229939</v>
+        <v>142362917</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10356881</v>
+        <v>10434791</v>
       </c>
       <c r="E30" t="n">
-        <v>124690367</v>
+        <v>125628364</v>
       </c>
       <c r="F30" t="n">
-        <v>925.9329272631566</v>
+        <v>509.3055249276815</v>
       </c>
       <c r="G30" t="n">
-        <v>241.4201906823043</v>
+        <v>564.6468572435524</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>1.54</v>
       </c>
       <c r="I30" t="n">
-        <v>270049</v>
+        <v>350080</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15650943</v>
+        <v>15902617</v>
       </c>
       <c r="E31" t="n">
-        <v>39127357</v>
+        <v>39756542</v>
       </c>
       <c r="F31" t="n">
-        <v>6143.175762046969</v>
+        <v>4060.396602166403</v>
       </c>
       <c r="G31" t="n">
-        <v>3900.477592159583</v>
+        <v>9902.114716580903</v>
       </c>
       <c r="H31" t="n">
         <v>0.18</v>
       </c>
       <c r="I31" t="n">
-        <v>5199140</v>
+        <v>5255385</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19144112</v>
+        <v>19044623</v>
       </c>
       <c r="F32" t="n">
-        <v>2166.727355308263</v>
+        <v>1426.046080758719</v>
       </c>
       <c r="G32" t="n">
-        <v>2687.538431403325</v>
+        <v>1827.308928183192</v>
       </c>
       <c r="H32" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="I32" t="n">
-        <v>80620</v>
+        <v>77465</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1480413</v>
+        <v>1471398</v>
       </c>
       <c r="E33" t="n">
-        <v>5518913</v>
+        <v>5485304</v>
       </c>
       <c r="F33" t="n">
-        <v>1327.830222755235</v>
+        <v>1843.49875130452</v>
       </c>
       <c r="G33" t="n">
-        <v>3619.925269033583</v>
+        <v>1583.466833276442</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="I33" t="n">
-        <v>776029</v>
+        <v>771423</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4107881</v>
+        <v>4099339</v>
       </c>
       <c r="E34" t="n">
-        <v>11831165</v>
+        <v>11806564</v>
       </c>
       <c r="F34" t="n">
-        <v>2514.536715942491</v>
+        <v>4159.58516409818</v>
       </c>
       <c r="G34" t="n">
-        <v>5686.84594339573</v>
+        <v>3352.527862590322</v>
       </c>
       <c r="H34" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="I34" t="n">
-        <v>458839</v>
+        <v>448393</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14134841</v>
+        <v>14131269</v>
       </c>
       <c r="E35" t="n">
-        <v>68457292</v>
+        <v>68439991</v>
       </c>
       <c r="F35" t="n">
-        <v>2278.628782054045</v>
+        <v>2279.022690370495</v>
       </c>
       <c r="G35" t="n">
-        <v>531.4647068670149</v>
+        <v>2629.668936705402</v>
       </c>
       <c r="H35" t="n">
-        <v>0.51</v>
+        <v>0.29</v>
       </c>
       <c r="I35" t="n">
-        <v>5602363</v>
+        <v>5569848</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1252325</v>
+        <v>1251763</v>
       </c>
       <c r="E36" t="n">
-        <v>8196436</v>
+        <v>8192754</v>
       </c>
       <c r="F36" t="n">
-        <v>11066.09531641625</v>
+        <v>11207.69261009029</v>
       </c>
       <c r="G36" t="n">
-        <v>10821.94924227427</v>
+        <v>10486.46558180494</v>
       </c>
       <c r="H36" t="n">
         <v>0.48</v>
       </c>
       <c r="I36" t="n">
-        <v>344761</v>
+        <v>343454</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1852892481</v>
+        <v>1852627988</v>
       </c>
       <c r="F37" t="n">
-        <v>77129.1978193359</v>
+        <v>69724.14378785153</v>
       </c>
       <c r="G37" t="n">
-        <v>79063.42659085366</v>
+        <v>71159.20921765509</v>
       </c>
       <c r="H37" t="n">
-        <v>0.43</v>
+        <v>0.7</v>
       </c>
       <c r="I37" t="n">
-        <v>32021894</v>
+        <v>31870718</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1826901</v>
+        <v>1846226</v>
       </c>
       <c r="E38" t="n">
-        <v>13100523</v>
+        <v>13239100</v>
       </c>
       <c r="F38" t="n">
-        <v>5444.98790049721</v>
+        <v>5397.140501548215</v>
       </c>
       <c r="G38" t="n">
-        <v>5416.247960273403</v>
+        <v>2472.154335300133</v>
       </c>
       <c r="H38" t="n">
         <v>0.53</v>
       </c>
       <c r="I38" t="n">
-        <v>2105808</v>
+        <v>2119969</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194246905</v>
+        <v>192614082</v>
       </c>
       <c r="E39" t="n">
-        <v>1099945327</v>
+        <v>1090699281</v>
       </c>
       <c r="F39" t="n">
-        <v>36715.92529628207</v>
+        <v>39406.77864110814</v>
       </c>
       <c r="G39" t="n">
-        <v>61203.85752018147</v>
+        <v>42466.9649856769</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>85806992</v>
+        <v>85423305</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>131114099</v>
+        <v>131003667</v>
       </c>
       <c r="E40" t="n">
-        <v>971215548</v>
+        <v>970397531</v>
       </c>
       <c r="F40" t="n">
-        <v>4816.518719528804</v>
+        <v>12111.25518936364</v>
       </c>
       <c r="G40" t="n">
-        <v>10471.09477997341</v>
+        <v>10987.0511123173</v>
       </c>
       <c r="H40" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I40" t="n">
-        <v>36492929</v>
+        <v>36879191</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>323123300</v>
+        <v>321796123</v>
       </c>
       <c r="E41" t="n">
-        <v>2907017572</v>
+        <v>2895077460</v>
       </c>
       <c r="F41" t="n">
-        <v>59793.69484507949</v>
+        <v>67797.75171344266</v>
       </c>
       <c r="G41" t="n">
-        <v>85942.05973365005</v>
+        <v>43592.49142347721</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>71119584</v>
+        <v>70459918</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1538264</v>
+        <v>1535835</v>
       </c>
       <c r="E42" t="n">
-        <v>12818866</v>
+        <v>12798628</v>
       </c>
       <c r="F42" t="n">
-        <v>2467.177907952427</v>
+        <v>1172.186567489006</v>
       </c>
       <c r="G42" t="n">
-        <v>2440.389640316889</v>
+        <v>2459.8701864305</v>
       </c>
       <c r="H42" t="n">
-        <v>1.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>30653</v>
+        <v>29387</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19516173</v>
+        <v>19448537</v>
       </c>
       <c r="E43" t="n">
-        <v>58513657</v>
+        <v>58311176</v>
       </c>
       <c r="F43" t="n">
-        <v>2220.806901600878</v>
+        <v>2374.225882053596</v>
       </c>
       <c r="G43" t="n">
-        <v>3050.830402651127</v>
+        <v>2748.433891194675</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="I43" t="n">
-        <v>4384100</v>
+        <v>4295010</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9206974</v>
+        <v>8732866</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>15.98588387790231</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>484.0335462804281</v>
       </c>
       <c r="H44" t="n">
-        <v>5.28</v>
+        <v>0.23</v>
       </c>
       <c r="I44" t="n">
-        <v>1100976</v>
+        <v>1094126</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12650874</v>
+        <v>12615727</v>
       </c>
       <c r="E45" t="n">
-        <v>12650874</v>
+        <v>12615727</v>
       </c>
       <c r="F45" t="n">
-        <v>15.81824161022876</v>
+        <v>1.191642884638409</v>
       </c>
       <c r="G45" t="n">
-        <v>126.1272711966958</v>
+        <v>119.85895918662</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="I45" t="n">
-        <v>2533700</v>
+        <v>2513915</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>287276622</v>
+        <v>286127449</v>
       </c>
       <c r="E46" t="n">
-        <v>287276622</v>
+        <v>286127449</v>
       </c>
       <c r="F46" t="n">
-        <v>12836.22225341942</v>
+        <v>13523.72989330339</v>
       </c>
       <c r="G46" t="n">
-        <v>14399.07580558392</v>
+        <v>12064.85412047306</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>18806675</v>
+        <v>18690322</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13104771</v>
+        <v>12911407</v>
       </c>
       <c r="E47" t="n">
-        <v>41448372</v>
+        <v>40836790</v>
       </c>
       <c r="F47" t="n">
-        <v>5995.463925855659</v>
+        <v>6268.138257269484</v>
       </c>
       <c r="G47" t="n">
-        <v>2810.740066804652</v>
+        <v>6823.446699058918</v>
       </c>
       <c r="H47" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>1190893</v>
+        <v>1185605</v>
       </c>
     </row>
     <row r="48">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Polygon Ecosystem, Play To Earn, Gaming Platform</t>
+          <t>Gaming (GameFi), Polygon Ecosystem, Play To Earn, Gaming Platform, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31830863</v>
+        <v>31883492</v>
       </c>
       <c r="E48" t="n">
-        <v>88168333</v>
+        <v>88314108</v>
       </c>
       <c r="F48" t="n">
-        <v>5233.182661712133</v>
+        <v>5580.534391519653</v>
       </c>
       <c r="G48" t="n">
-        <v>1801.629206478846</v>
+        <v>1606.691099046381</v>
       </c>
       <c r="H48" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I48" t="n">
-        <v>12733392</v>
+        <v>12643029</v>
       </c>
     </row>
     <row r="49">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Gaming (GameFi), Arbitrum Ecosystem, Paradigm Portfolio, AI Agents, AI Framework</t>
+          <t>Artificial Intelligence (AI), Gaming (GameFi), NFT, Arbitrum Ecosystem, NFT Marketplace, Paradigm Portfolio, AI Agents, AI Framework, Action Games</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28779681</v>
+        <v>29092206</v>
       </c>
       <c r="E49" t="n">
-        <v>68270740</v>
+        <v>69012108</v>
       </c>
       <c r="F49" t="n">
-        <v>2212.800432593123</v>
+        <v>4492.335181567588</v>
       </c>
       <c r="G49" t="n">
-        <v>7680.728911976622</v>
+        <v>1774.723390241444</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>696308</v>
+        <v>737968</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12111012</v>
+        <v>11968069</v>
       </c>
       <c r="E50" t="n">
-        <v>18413480</v>
+        <v>18196150</v>
       </c>
       <c r="F50" t="n">
-        <v>14209.57828648342</v>
+        <v>5141.294780245816</v>
       </c>
       <c r="G50" t="n">
-        <v>3522.789156734322</v>
+        <v>3404.497393234355</v>
       </c>
       <c r="H50" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="I50" t="n">
-        <v>650590</v>
+        <v>581818</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>307179706</v>
+        <v>303815106</v>
       </c>
       <c r="E51" t="n">
-        <v>307179706</v>
+        <v>303815106</v>
       </c>
       <c r="F51" t="n">
-        <v>39543.65208820917</v>
+        <v>44370.3428216511</v>
       </c>
       <c r="G51" t="n">
-        <v>57841.48928620862</v>
+        <v>54853.99961076093</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>110671012</v>
+        <v>112437836</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84230065</v>
+        <v>83896235</v>
       </c>
       <c r="E52" t="n">
-        <v>485369967</v>
+        <v>483446293</v>
       </c>
       <c r="F52" t="n">
-        <v>41142.2824226638</v>
+        <v>38397.27244910911</v>
       </c>
       <c r="G52" t="n">
-        <v>59654.67822683621</v>
+        <v>56347.72706133218</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>21316920</v>
+        <v>21331599</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30172320</v>
+        <v>30810536</v>
       </c>
       <c r="E53" t="n">
-        <v>135093854</v>
+        <v>137951407</v>
       </c>
       <c r="F53" t="n">
-        <v>11870.626825187</v>
+        <v>9292.502943083095</v>
       </c>
       <c r="G53" t="n">
-        <v>14688.47027197772</v>
+        <v>14701.36109624192</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>16319376</v>
+        <v>16862430</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7724355</v>
+        <v>7706214</v>
       </c>
       <c r="F54" t="n">
-        <v>66.98917630227733</v>
+        <v>3316.470286845501</v>
       </c>
       <c r="G54" t="n">
-        <v>433.584497083429</v>
+        <v>4515.559828810877</v>
       </c>
       <c r="H54" t="n">
-        <v>2.38</v>
+        <v>0.77</v>
       </c>
       <c r="I54" t="n">
-        <v>314862</v>
+        <v>318946</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4402411</v>
+        <v>4404257</v>
       </c>
       <c r="F55" t="n">
-        <v>2145.638687049553</v>
+        <v>2034.567634062349</v>
       </c>
       <c r="G55" t="n">
-        <v>844.8075779919828</v>
+        <v>842.3125361275545</v>
       </c>
       <c r="H55" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="I55" t="n">
-        <v>202081</v>
+        <v>202945</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124142542</v>
+        <v>123642218</v>
       </c>
       <c r="E56" t="n">
-        <v>2055902174</v>
+        <v>2047616400</v>
       </c>
       <c r="F56" t="n">
-        <v>17612.28997651242</v>
+        <v>20452.57269124773</v>
       </c>
       <c r="G56" t="n">
-        <v>32039.54141685072</v>
+        <v>23670.95547723635</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>41249929</v>
+        <v>43199872</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94832764</v>
+        <v>92710779</v>
       </c>
       <c r="E57" t="n">
-        <v>95853569</v>
+        <v>93708742</v>
       </c>
       <c r="F57" t="n">
-        <v>19692.18861657691</v>
+        <v>16761.47128648376</v>
       </c>
       <c r="G57" t="n">
-        <v>21944.3266082789</v>
+        <v>18582.87284342286</v>
       </c>
       <c r="H57" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I57" t="n">
-        <v>67845309</v>
+        <v>65340967</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>245824126</v>
+        <v>236374260</v>
       </c>
       <c r="E58" t="n">
-        <v>245824126</v>
+        <v>236374260</v>
       </c>
       <c r="F58" t="n">
-        <v>47200.06499288438</v>
+        <v>71164.30874091394</v>
       </c>
       <c r="G58" t="n">
-        <v>57098.69938734594</v>
+        <v>81195.87561083147</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I58" t="n">
-        <v>93297931</v>
+        <v>91637084</v>
       </c>
     </row>
     <row r="59">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Solana Ecosystem, Ethereum Ecosystem, Gaming Platform</t>
+          <t>Gaming (GameFi), Solana Ecosystem, Ethereum Ecosystem, Gaming Platform, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22991464</v>
+        <v>22995425</v>
       </c>
       <c r="E59" t="n">
-        <v>137562548</v>
+        <v>137586251</v>
       </c>
       <c r="F59" t="n">
-        <v>26587.63924089251</v>
+        <v>26831.10454604769</v>
       </c>
       <c r="G59" t="n">
-        <v>27432.97522567556</v>
+        <v>28454.56492186852</v>
       </c>
       <c r="H59" t="n">
         <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>18595367</v>
+        <v>18439899</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2868200</v>
+        <v>2752744</v>
       </c>
       <c r="E60" t="n">
-        <v>5293427</v>
+        <v>5080346</v>
       </c>
       <c r="F60" t="n">
-        <v>64.52504929601076</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>43.42393802652823</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>3.63</v>
+        <v>13.31</v>
       </c>
       <c r="I60" t="n">
-        <v>436613</v>
+        <v>437425</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9587015</v>
+        <v>9470291</v>
       </c>
       <c r="E62" t="n">
-        <v>28421074</v>
+        <v>28075043</v>
       </c>
       <c r="F62" t="n">
-        <v>4625.561497492302</v>
+        <v>4343.848582138152</v>
       </c>
       <c r="G62" t="n">
-        <v>5935.919723064244</v>
+        <v>3430.465545071853</v>
       </c>
       <c r="H62" t="n">
         <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>6890874</v>
+        <v>6828184</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14583258</v>
+        <v>14482300</v>
       </c>
       <c r="E63" t="n">
-        <v>29522915</v>
+        <v>29318532</v>
       </c>
       <c r="F63" t="n">
-        <v>6021.033204734414</v>
+        <v>8067.276889531311</v>
       </c>
       <c r="G63" t="n">
-        <v>17726.74729374029</v>
+        <v>11357.29500236513</v>
       </c>
       <c r="H63" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>542838</v>
+        <v>502987</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>34063736</v>
+        <v>33926710</v>
       </c>
       <c r="E64" t="n">
-        <v>241506332</v>
+        <v>240534841</v>
       </c>
       <c r="F64" t="n">
-        <v>54193.62724104438</v>
+        <v>49277.24671162411</v>
       </c>
       <c r="G64" t="n">
-        <v>37530.6710240488</v>
+        <v>32388.54099204764</v>
       </c>
       <c r="H64" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I64" t="n">
-        <v>6475553</v>
+        <v>6455688</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1266741</v>
+        <v>1280143</v>
       </c>
       <c r="E65" t="n">
-        <v>7853914</v>
+        <v>7937004</v>
       </c>
       <c r="F65" t="n">
-        <v>339.9429786242563</v>
+        <v>121.8674817139331</v>
       </c>
       <c r="G65" t="n">
-        <v>140.6291025845728</v>
+        <v>23.17743670775178</v>
       </c>
       <c r="H65" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="I65" t="n">
-        <v>751553</v>
+        <v>757424</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>583908283</v>
+        <v>580553927</v>
       </c>
       <c r="E66" t="n">
-        <v>2261390631</v>
+        <v>2248399703</v>
       </c>
       <c r="F66" t="n">
-        <v>52602.07679993309</v>
+        <v>66744.66798943758</v>
       </c>
       <c r="G66" t="n">
-        <v>46413.36937434328</v>
+        <v>41426.47966236117</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>62878942</v>
+        <v>62496488</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5452498</v>
+        <v>5454721</v>
       </c>
       <c r="E67" t="n">
-        <v>24406251</v>
+        <v>24416201</v>
       </c>
       <c r="F67" t="n">
-        <v>4107.515106908638</v>
+        <v>4253.679642071422</v>
       </c>
       <c r="G67" t="n">
-        <v>18772.91300309289</v>
+        <v>18767.15092508934</v>
       </c>
       <c r="H67" t="n">
         <v>0.58</v>
       </c>
       <c r="I67" t="n">
-        <v>190603</v>
+        <v>188209</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>109062077</v>
+        <v>108569629</v>
       </c>
       <c r="E68" t="n">
-        <v>1031919496</v>
+        <v>1027260066</v>
       </c>
       <c r="F68" t="n">
-        <v>4263.551476576239</v>
+        <v>3274.429027124169</v>
       </c>
       <c r="G68" t="n">
-        <v>3652.649850030823</v>
+        <v>4829.444549496705</v>
       </c>
       <c r="H68" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I68" t="n">
-        <v>18051429</v>
+        <v>17934435</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>98216558</v>
+        <v>99123316</v>
       </c>
       <c r="E69" t="n">
-        <v>149831661</v>
+        <v>151214943</v>
       </c>
       <c r="F69" t="n">
-        <v>4185.872939855027</v>
+        <v>10813.93876683614</v>
       </c>
       <c r="G69" t="n">
-        <v>18984.34789049928</v>
+        <v>17856.18982896255</v>
       </c>
       <c r="H69" t="n">
-        <v>0.35</v>
+        <v>0.73</v>
       </c>
       <c r="I69" t="n">
-        <v>12503993</v>
+        <v>12516160</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1075216</v>
+        <v>1060441</v>
       </c>
       <c r="E70" t="n">
-        <v>4163470</v>
+        <v>4106260</v>
       </c>
       <c r="F70" t="n">
-        <v>2969.738506413357</v>
+        <v>2113.377097013728</v>
       </c>
       <c r="G70" t="n">
-        <v>2233.692362612598</v>
+        <v>3391.560054762873</v>
       </c>
       <c r="H70" t="n">
-        <v>0.86</v>
+        <v>0.44</v>
       </c>
       <c r="I70" t="n">
-        <v>283821</v>
+        <v>278808</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>122971126</v>
+        <v>121716146</v>
       </c>
       <c r="E71" t="n">
-        <v>471737032</v>
+        <v>466922725</v>
       </c>
       <c r="F71" t="n">
-        <v>12355.58562543061</v>
+        <v>11718.48800883552</v>
       </c>
       <c r="G71" t="n">
-        <v>12799.40336916322</v>
+        <v>10207.61672647947</v>
       </c>
       <c r="H71" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>32642394</v>
+        <v>32312274</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3151992</v>
+        <v>3124254</v>
       </c>
       <c r="E72" t="n">
-        <v>29865587</v>
+        <v>29602773</v>
       </c>
       <c r="F72" t="n">
-        <v>611.1093295551227</v>
+        <v>567.59744673071</v>
       </c>
       <c r="G72" t="n">
-        <v>8.203863902540066</v>
+        <v>8.252598974485789</v>
       </c>
       <c r="H72" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="I72" t="n">
-        <v>277310</v>
+        <v>228552</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>40908844</v>
+        <v>40999077</v>
       </c>
       <c r="F73" t="n">
-        <v>2863.479558828416</v>
+        <v>916.6535515727232</v>
       </c>
       <c r="G73" t="n">
-        <v>1267.310854574092</v>
+        <v>7927.207986023082</v>
       </c>
       <c r="H73" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I73" t="n">
-        <v>9714076</v>
+        <v>9063001</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>91018173</v>
+        <v>91232851</v>
       </c>
       <c r="E74" t="n">
-        <v>336433776</v>
+        <v>337227202</v>
       </c>
       <c r="F74" t="n">
-        <v>166.3751163324957</v>
+        <v>152.0223697375264</v>
       </c>
       <c r="G74" t="n">
-        <v>201.3145340092249</v>
+        <v>313.4613099350837</v>
       </c>
       <c r="H74" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="I74" t="n">
-        <v>329431</v>
+        <v>329311</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22042507</v>
+        <v>22179422</v>
       </c>
       <c r="E75" t="n">
-        <v>22042507</v>
+        <v>22179422</v>
       </c>
       <c r="F75" t="n">
-        <v>4941.116277659112</v>
+        <v>4210.22857815546</v>
       </c>
       <c r="G75" t="n">
-        <v>647.7979291623484</v>
+        <v>783.7650836415039</v>
       </c>
       <c r="H75" t="n">
-        <v>0.13</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>5613669</v>
+        <v>5598238</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>467721983</v>
+        <v>467340196</v>
       </c>
       <c r="E76" t="n">
-        <v>1627276137</v>
+        <v>1625947839</v>
       </c>
       <c r="F76" t="n">
-        <v>71094.35805983226</v>
+        <v>95258.02898787745</v>
       </c>
       <c r="G76" t="n">
-        <v>35531.52094994496</v>
+        <v>95931.54139304141</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>49269599</v>
+        <v>49734125</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5597223763</v>
+        <v>5592940142</v>
       </c>
       <c r="E77" t="n">
-        <v>5597223763</v>
+        <v>5592940142</v>
       </c>
       <c r="F77" t="n">
-        <v>1551.794994041608</v>
+        <v>1548.768740254686</v>
       </c>
       <c r="G77" t="n">
-        <v>1192.744397230266</v>
+        <v>1190.418350772578</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35635501</v>
+        <v>35527844</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7097047</v>
+        <v>7054891</v>
       </c>
       <c r="E78" t="n">
-        <v>18437364</v>
+        <v>18327847</v>
       </c>
       <c r="F78" t="n">
-        <v>291.7689343319746</v>
+        <v>355.5081854610432</v>
       </c>
       <c r="G78" t="n">
-        <v>897.6341309614521</v>
+        <v>892.9964940725399</v>
       </c>
       <c r="H78" t="n">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="I78" t="n">
-        <v>788820</v>
+        <v>792093</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109288924</v>
+        <v>108327534</v>
       </c>
       <c r="E79" t="n">
-        <v>165585347</v>
+        <v>164128730</v>
       </c>
       <c r="F79" t="n">
-        <v>40198.31968726335</v>
+        <v>40873.70920099533</v>
       </c>
       <c r="G79" t="n">
-        <v>44220.83989812434</v>
+        <v>42933.20906027473</v>
       </c>
       <c r="H79" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>10006673</v>
+        <v>9984551</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2296806</v>
+        <v>2298807</v>
       </c>
       <c r="E80" t="n">
-        <v>9187223</v>
+        <v>9195230</v>
       </c>
       <c r="F80" t="n">
-        <v>802.9777280955939</v>
+        <v>779.109894286377</v>
       </c>
       <c r="G80" t="n">
-        <v>1545.075521029657</v>
+        <v>1453.01054826476</v>
       </c>
       <c r="H80" t="n">
         <v>0.76</v>
       </c>
       <c r="I80" t="n">
-        <v>7884418</v>
+        <v>7949282</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2292107</v>
+        <v>2288267</v>
       </c>
       <c r="F81" t="n">
-        <v>633.9761223842353</v>
+        <v>549.3754874380384</v>
       </c>
       <c r="G81" t="n">
-        <v>242.2795446145526</v>
+        <v>34.71018939838431</v>
       </c>
       <c r="H81" t="n">
-        <v>0.87</v>
+        <v>1.38</v>
       </c>
       <c r="I81" t="n">
-        <v>176956</v>
+        <v>173144</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>378990547</v>
+        <v>380684700</v>
       </c>
       <c r="E82" t="n">
-        <v>2165660270</v>
+        <v>2175341141</v>
       </c>
       <c r="F82" t="n">
-        <v>42107.50638024467</v>
+        <v>39207.90570178069</v>
       </c>
       <c r="G82" t="n">
-        <v>41434.90561573122</v>
+        <v>54078.04221326636</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>63538010</v>
+        <v>63843369</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3803826</v>
+        <v>3796987</v>
       </c>
       <c r="F2" t="n">
-        <v>296.5628058698238</v>
+        <v>316.523961854012</v>
       </c>
       <c r="G2" t="n">
-        <v>496.9026356521933</v>
+        <v>338.1573810908875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="I2" t="n">
-        <v>136775</v>
+        <v>137166</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1529116</v>
+        <v>1526042</v>
       </c>
       <c r="E3" t="n">
-        <v>4942730</v>
+        <v>4932795</v>
       </c>
       <c r="F3" t="n">
-        <v>8288.478477078525</v>
+        <v>5694.085428992153</v>
       </c>
       <c r="G3" t="n">
-        <v>6202.253251015893</v>
+        <v>2915.114602184409</v>
       </c>
       <c r="H3" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="I3" t="n">
-        <v>252651</v>
+        <v>281550</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251173663</v>
+        <v>252315043</v>
       </c>
       <c r="E4" t="n">
-        <v>1575074737</v>
+        <v>1582232169</v>
       </c>
       <c r="F4" t="n">
-        <v>18741.34070145092</v>
+        <v>9509.214555143535</v>
       </c>
       <c r="G4" t="n">
-        <v>28850.16077089851</v>
+        <v>29274.94911228462</v>
       </c>
       <c r="H4" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I4" t="n">
-        <v>29600187</v>
+        <v>29893156</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140283716</v>
+        <v>140176298</v>
       </c>
       <c r="E5" t="n">
-        <v>155456281</v>
+        <v>155337245</v>
       </c>
       <c r="F5" t="n">
-        <v>38470.26203666436</v>
+        <v>33353.25475734033</v>
       </c>
       <c r="G5" t="n">
-        <v>17960.09978041839</v>
+        <v>27451.74926157435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>53460098</v>
+        <v>53446005</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117058612</v>
+        <v>117336795</v>
       </c>
       <c r="E6" t="n">
-        <v>458834709</v>
+        <v>459925104</v>
       </c>
       <c r="F6" t="n">
-        <v>13165.96594704733</v>
+        <v>7720.205844319</v>
       </c>
       <c r="G6" t="n">
-        <v>11032.78769447256</v>
+        <v>9993.309834957303</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>26296441</v>
+        <v>26171709</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4362121</v>
+        <v>4334830</v>
       </c>
       <c r="E7" t="n">
-        <v>26782634</v>
+        <v>26615076</v>
       </c>
       <c r="F7" t="n">
-        <v>346.1659935400475</v>
+        <v>235.5368536454309</v>
       </c>
       <c r="G7" t="n">
-        <v>456.2317028936956</v>
+        <v>1403.518205921614</v>
       </c>
       <c r="H7" t="n">
-        <v>0.19</v>
+        <v>0.6</v>
       </c>
       <c r="I7" t="n">
-        <v>455368</v>
+        <v>445750</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>195100</v>
+        <v>185401</v>
       </c>
       <c r="E8" t="n">
-        <v>2146315</v>
+        <v>2039619</v>
       </c>
       <c r="F8" t="n">
-        <v>2655.332037541589</v>
+        <v>2401.103369815509</v>
       </c>
       <c r="G8" t="n">
-        <v>4389.292094465231</v>
+        <v>2280.758798407314</v>
       </c>
       <c r="H8" t="n">
-        <v>0.14</v>
+        <v>0.35</v>
       </c>
       <c r="I8" t="n">
-        <v>40742</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69683762</v>
+        <v>69577026</v>
       </c>
       <c r="E9" t="n">
-        <v>120617800</v>
+        <v>120430170</v>
       </c>
       <c r="F9" t="n">
-        <v>1067.650189090556</v>
+        <v>1987.170316229795</v>
       </c>
       <c r="G9" t="n">
-        <v>185.9835613053505</v>
+        <v>1163.291385160847</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="I9" t="n">
-        <v>605814</v>
+        <v>702444</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8783926</v>
+        <v>8785340</v>
       </c>
       <c r="E10" t="n">
-        <v>12432995</v>
+        <v>12434996</v>
       </c>
       <c r="F10" t="n">
-        <v>3082.685471910504</v>
+        <v>3082.692254249362</v>
       </c>
       <c r="G10" t="n">
-        <v>3050.340377086051</v>
+        <v>3045.187548033886</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>13224.19</v>
+        <v>13185.01</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>484375098</v>
+        <v>475079724</v>
       </c>
       <c r="E11" t="n">
-        <v>484375100</v>
+        <v>475079724</v>
       </c>
       <c r="F11" t="n">
-        <v>14468.92008916902</v>
+        <v>13397.35066917466</v>
       </c>
       <c r="G11" t="n">
-        <v>31702.14803438304</v>
+        <v>27237.85309911034</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>81983753</v>
+        <v>74870501</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>299453</v>
+        <v>295578</v>
       </c>
       <c r="E12" t="n">
-        <v>1397877</v>
+        <v>1379788</v>
       </c>
       <c r="F12" t="n">
-        <v>36.53318673095932</v>
+        <v>339.5004379044011</v>
       </c>
       <c r="G12" t="n">
-        <v>264.1884939026274</v>
+        <v>113.3577741635085</v>
       </c>
       <c r="H12" t="n">
-        <v>2.35</v>
+        <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>654593</v>
+        <v>639512</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1665470</v>
+        <v>1705138</v>
       </c>
       <c r="F13" t="n">
-        <v>4235.726760559278</v>
+        <v>4166.057494902006</v>
       </c>
       <c r="G13" t="n">
-        <v>243.993225094487</v>
+        <v>200.7570359929457</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I13" t="n">
-        <v>1366849</v>
+        <v>1370041</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11916255</v>
+        <v>11879376</v>
       </c>
       <c r="E14" t="n">
-        <v>29657403</v>
+        <v>29565619</v>
       </c>
       <c r="F14" t="n">
-        <v>1567.804019793353</v>
+        <v>937.1828756823423</v>
       </c>
       <c r="G14" t="n">
-        <v>1362.492281635286</v>
+        <v>1461.766747557181</v>
       </c>
       <c r="H14" t="n">
         <v>0.54</v>
       </c>
       <c r="I14" t="n">
-        <v>1447730</v>
+        <v>1461135</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>110818205</v>
+        <v>113931895</v>
       </c>
       <c r="E15" t="n">
-        <v>430620122</v>
+        <v>442693923</v>
       </c>
       <c r="F15" t="n">
-        <v>1823.813367532189</v>
+        <v>4163.45730020108</v>
       </c>
       <c r="G15" t="n">
-        <v>5331.894697860274</v>
+        <v>10266.91175814128</v>
       </c>
       <c r="H15" t="n">
-        <v>0.53</v>
+        <v>0.29</v>
       </c>
       <c r="I15" t="n">
-        <v>12655262</v>
+        <v>13458142</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4752784</v>
+        <v>4921618</v>
       </c>
       <c r="E16" t="n">
-        <v>6996355</v>
+        <v>7244888</v>
       </c>
       <c r="F16" t="n">
-        <v>3683.708291413858</v>
+        <v>3082.245603965809</v>
       </c>
       <c r="G16" t="n">
-        <v>4296.752413012679</v>
+        <v>2243.392271647006</v>
       </c>
       <c r="H16" t="n">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>595437</v>
+        <v>661993</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>424373</v>
+        <v>434091</v>
       </c>
       <c r="E17" t="n">
-        <v>1755369</v>
+        <v>1795565</v>
       </c>
       <c r="F17" t="n">
-        <v>524.1614338811863</v>
+        <v>652.9117199803943</v>
       </c>
       <c r="G17" t="n">
-        <v>1017.514720063113</v>
+        <v>1083.165496698647</v>
       </c>
       <c r="H17" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="I17" t="n">
-        <v>79752</v>
+        <v>73718</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>139402856</v>
+        <v>138624087</v>
       </c>
       <c r="E18" t="n">
-        <v>139402856</v>
+        <v>138624087</v>
       </c>
       <c r="F18" t="n">
-        <v>96188.15773416711</v>
+        <v>76150.29743510732</v>
       </c>
       <c r="G18" t="n">
-        <v>97356.67269202047</v>
+        <v>65231.10902517335</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>96949590</v>
+        <v>92485335</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63432932</v>
+        <v>63342622</v>
       </c>
       <c r="E19" t="n">
-        <v>325297087</v>
+        <v>324833961</v>
       </c>
       <c r="F19" t="n">
-        <v>13155.07559179053</v>
+        <v>14239.26479603414</v>
       </c>
       <c r="G19" t="n">
-        <v>6241.77649705236</v>
+        <v>8441.034829526823</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>25419258</v>
+        <v>25005261</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>250550414</v>
+        <v>249989889</v>
       </c>
       <c r="E20" t="n">
-        <v>250550414</v>
+        <v>249989889</v>
       </c>
       <c r="F20" t="n">
-        <v>69309.93530215957</v>
+        <v>68558.17486650957</v>
       </c>
       <c r="G20" t="n">
-        <v>41725.62587965711</v>
+        <v>47064.95546682826</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>26950270</v>
+        <v>27692542</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>182335503</v>
+        <v>177499412</v>
       </c>
       <c r="E21" t="n">
-        <v>239932197</v>
+        <v>233568467</v>
       </c>
       <c r="F21" t="n">
-        <v>38256.39445362125</v>
+        <v>21557.92602775605</v>
       </c>
       <c r="G21" t="n">
-        <v>13159.46360732168</v>
+        <v>8096.301120016774</v>
       </c>
       <c r="H21" t="n">
         <v>0.33</v>
       </c>
       <c r="I21" t="n">
-        <v>18999599</v>
+        <v>18897967</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81228998</v>
+        <v>79374148</v>
       </c>
       <c r="E22" t="n">
-        <v>227312070</v>
+        <v>222135494</v>
       </c>
       <c r="F22" t="n">
-        <v>34110.36045546855</v>
+        <v>29009.28194259148</v>
       </c>
       <c r="G22" t="n">
-        <v>22011.4589513807</v>
+        <v>24532.82482883395</v>
       </c>
       <c r="H22" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I22" t="n">
-        <v>63733358</v>
+        <v>57875377</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84615321</v>
+        <v>84095959</v>
       </c>
       <c r="E23" t="n">
-        <v>176416149</v>
+        <v>175333321</v>
       </c>
       <c r="F23" t="n">
-        <v>18956.91391220981</v>
+        <v>20772.64575381171</v>
       </c>
       <c r="G23" t="n">
-        <v>20800.86906505595</v>
+        <v>21714.82800510713</v>
       </c>
       <c r="H23" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I23" t="n">
-        <v>83106322</v>
+        <v>84519231</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>640905254</v>
+        <v>638298225</v>
       </c>
       <c r="E24" t="n">
-        <v>640905254</v>
+        <v>638298225</v>
       </c>
       <c r="F24" t="n">
-        <v>171610.8812260063</v>
+        <v>163932.0217660764</v>
       </c>
       <c r="G24" t="n">
-        <v>134332.6251779509</v>
+        <v>97572.07153378798</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>554314086</v>
+        <v>557471811</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>195142834</v>
+        <v>195537529</v>
       </c>
       <c r="E25" t="n">
-        <v>677943842</v>
+        <v>679315048</v>
       </c>
       <c r="F25" t="n">
-        <v>64308.4216838338</v>
+        <v>65094.41471615815</v>
       </c>
       <c r="G25" t="n">
-        <v>103448.8481329901</v>
+        <v>104136.7036759473</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>41258036</v>
+        <v>41656172</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5620918</v>
+        <v>5622445</v>
       </c>
       <c r="E26" t="n">
-        <v>7627881</v>
+        <v>7629918</v>
       </c>
       <c r="F26" t="n">
-        <v>317.6909933327848</v>
+        <v>162.1711564383259</v>
       </c>
       <c r="G26" t="n">
-        <v>111.6968960659253</v>
+        <v>2451.754078921613</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>5612378</v>
+        <v>5669630</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14403154</v>
+        <v>14299664</v>
       </c>
       <c r="F27" t="n">
-        <v>2433.572510880437</v>
+        <v>2262.281782157819</v>
       </c>
       <c r="G27" t="n">
-        <v>2657.138390832343</v>
+        <v>2798.484733954125</v>
       </c>
       <c r="H27" t="n">
-        <v>1.14</v>
+        <v>0.21</v>
       </c>
       <c r="I27" t="n">
-        <v>222416</v>
+        <v>222037</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25102910</v>
+        <v>25054565</v>
       </c>
       <c r="E28" t="n">
-        <v>35474459</v>
+        <v>35406141</v>
       </c>
       <c r="F28" t="n">
-        <v>226.3310028391564</v>
+        <v>252.2388094081036</v>
       </c>
       <c r="G28" t="n">
-        <v>233.6853094124241</v>
+        <v>492.3253112377189</v>
       </c>
       <c r="H28" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="I28" t="n">
-        <v>191387</v>
+        <v>187720</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>260298834</v>
+        <v>260856089</v>
       </c>
       <c r="E29" t="n">
-        <v>1123594269</v>
+        <v>1125999693</v>
       </c>
       <c r="F29" t="n">
-        <v>150941.4604150301</v>
+        <v>137827.1939556177</v>
       </c>
       <c r="G29" t="n">
-        <v>120515.8612109933</v>
+        <v>118203.2533732289</v>
       </c>
       <c r="H29" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>142362917</v>
+        <v>141918559</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10434791</v>
+        <v>10354925</v>
       </c>
       <c r="E30" t="n">
-        <v>125628364</v>
+        <v>124657815</v>
       </c>
       <c r="F30" t="n">
-        <v>509.3055249276815</v>
+        <v>8319.505271299495</v>
       </c>
       <c r="G30" t="n">
-        <v>564.6468572435524</v>
+        <v>1013.083047598957</v>
       </c>
       <c r="H30" t="n">
-        <v>1.54</v>
+        <v>0.32</v>
       </c>
       <c r="I30" t="n">
-        <v>350080</v>
+        <v>260380</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15902617</v>
+        <v>15908970</v>
       </c>
       <c r="E31" t="n">
-        <v>39756542</v>
+        <v>39772426</v>
       </c>
       <c r="F31" t="n">
-        <v>4060.396602166403</v>
+        <v>5878.790331580124</v>
       </c>
       <c r="G31" t="n">
-        <v>9902.114716580903</v>
+        <v>9689.223993968937</v>
       </c>
       <c r="H31" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>5255385</v>
+        <v>5254771</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19044623</v>
+        <v>19113312</v>
       </c>
       <c r="F32" t="n">
-        <v>1426.046080758719</v>
+        <v>2029.983361874325</v>
       </c>
       <c r="G32" t="n">
-        <v>1827.308928183192</v>
+        <v>3625.676847268848</v>
       </c>
       <c r="H32" t="n">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>77465</v>
+        <v>79224</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1471398</v>
+        <v>1456326</v>
       </c>
       <c r="E33" t="n">
-        <v>5485304</v>
+        <v>5429116</v>
       </c>
       <c r="F33" t="n">
-        <v>1843.49875130452</v>
+        <v>1223.526516441588</v>
       </c>
       <c r="G33" t="n">
-        <v>1583.466833276442</v>
+        <v>1952.566304176248</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I33" t="n">
-        <v>771423</v>
+        <v>743006</v>
       </c>
     </row>
     <row r="34">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Arbitrum Ecosystem, Ethereum Ecosystem, Base Ecosystem, Gaming Governance Token, Gaming Utility Token, Gaming Platform, AI Agents, Virtuals Protocol Ecosystem</t>
+          <t>Gaming (GameFi), NFT, Arbitrum Ecosystem, Ethereum Ecosystem, NFT Marketplace, Base Ecosystem, Gaming Governance Token, Gaming Utility Token, Gaming Platform, AI Agents, Virtuals Protocol Ecosystem, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4099339</v>
+        <v>4148306</v>
       </c>
       <c r="E34" t="n">
-        <v>11806564</v>
+        <v>11947594</v>
       </c>
       <c r="F34" t="n">
-        <v>4159.58516409818</v>
+        <v>3526.640879871928</v>
       </c>
       <c r="G34" t="n">
-        <v>3352.527862590322</v>
+        <v>3110.033771701988</v>
       </c>
       <c r="H34" t="n">
-        <v>0.34</v>
+        <v>1.08</v>
       </c>
       <c r="I34" t="n">
-        <v>448393</v>
+        <v>450791</v>
       </c>
     </row>
     <row r="35">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio, Action Games</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14131269</v>
+        <v>14070728</v>
       </c>
       <c r="E35" t="n">
-        <v>68439991</v>
+        <v>68146781</v>
       </c>
       <c r="F35" t="n">
-        <v>2279.022690370495</v>
+        <v>2724.933568119201</v>
       </c>
       <c r="G35" t="n">
-        <v>2629.668936705402</v>
+        <v>3472.28801906836</v>
       </c>
       <c r="H35" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="I35" t="n">
-        <v>5569848</v>
+        <v>5571874</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1251763</v>
+        <v>1245958</v>
       </c>
       <c r="E36" t="n">
-        <v>8192754</v>
+        <v>8154764</v>
       </c>
       <c r="F36" t="n">
-        <v>11207.69261009029</v>
+        <v>3521.419779259452</v>
       </c>
       <c r="G36" t="n">
-        <v>10486.46558180494</v>
+        <v>2884.641756417726</v>
       </c>
       <c r="H36" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="I36" t="n">
-        <v>343454</v>
+        <v>344937</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1852627988</v>
+        <v>1853606529</v>
       </c>
       <c r="F37" t="n">
-        <v>69724.14378785153</v>
+        <v>76277.9072733893</v>
       </c>
       <c r="G37" t="n">
-        <v>71159.20921765509</v>
+        <v>67981.19976414688</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="I37" t="n">
-        <v>31870718</v>
+        <v>32006348</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1846226</v>
+        <v>1831493</v>
       </c>
       <c r="E38" t="n">
-        <v>13239100</v>
+        <v>13133450</v>
       </c>
       <c r="F38" t="n">
-        <v>5397.140501548215</v>
+        <v>5382.841097556462</v>
       </c>
       <c r="G38" t="n">
-        <v>2472.154335300133</v>
+        <v>5529.61521545602</v>
       </c>
       <c r="H38" t="n">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="I38" t="n">
-        <v>2119969</v>
+        <v>2144561</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>192614082</v>
+        <v>194037709</v>
       </c>
       <c r="E39" t="n">
-        <v>1090699281</v>
+        <v>1098760733</v>
       </c>
       <c r="F39" t="n">
-        <v>39406.77864110814</v>
+        <v>51430.34085387906</v>
       </c>
       <c r="G39" t="n">
-        <v>42466.9649856769</v>
+        <v>58867.60259905582</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>85423305</v>
+        <v>85398234</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>131003667</v>
+        <v>128679854</v>
       </c>
       <c r="E40" t="n">
-        <v>970397531</v>
+        <v>953184102</v>
       </c>
       <c r="F40" t="n">
-        <v>12111.25518936364</v>
+        <v>10605.50152837233</v>
       </c>
       <c r="G40" t="n">
-        <v>10987.0511123173</v>
+        <v>10310.45266646225</v>
       </c>
       <c r="H40" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>36879191</v>
+        <v>37422689</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>321796123</v>
+        <v>323777149</v>
       </c>
       <c r="E41" t="n">
-        <v>2895077460</v>
+        <v>2912899999</v>
       </c>
       <c r="F41" t="n">
-        <v>67797.75171344266</v>
+        <v>60630.55539026329</v>
       </c>
       <c r="G41" t="n">
-        <v>43592.49142347721</v>
+        <v>94658.78579386295</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>70459918</v>
+        <v>71109729</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1535835</v>
+        <v>1549794</v>
       </c>
       <c r="E42" t="n">
-        <v>12798628</v>
+        <v>12914948</v>
       </c>
       <c r="F42" t="n">
-        <v>1172.186567489006</v>
+        <v>2314.606524800087</v>
       </c>
       <c r="G42" t="n">
-        <v>2459.8701864305</v>
+        <v>2426.186473094624</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I42" t="n">
-        <v>29387</v>
+        <v>32902</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19448537</v>
+        <v>19568373</v>
       </c>
       <c r="E43" t="n">
-        <v>58311176</v>
+        <v>58670472</v>
       </c>
       <c r="F43" t="n">
-        <v>2374.225882053596</v>
+        <v>1470.487509183371</v>
       </c>
       <c r="G43" t="n">
-        <v>2748.433891194675</v>
+        <v>4225.663728128348</v>
       </c>
       <c r="H43" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="I43" t="n">
-        <v>4295010</v>
+        <v>4338892</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8732866</v>
+        <v>8081695</v>
       </c>
       <c r="F44" t="n">
-        <v>15.98588387790231</v>
+        <v>3324.006472382942</v>
       </c>
       <c r="G44" t="n">
-        <v>484.0335462804281</v>
+        <v>3477.554530395054</v>
       </c>
       <c r="H44" t="n">
-        <v>0.23</v>
+        <v>0.99</v>
       </c>
       <c r="I44" t="n">
-        <v>1094126</v>
+        <v>1111638</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12615727</v>
+        <v>12644141</v>
       </c>
       <c r="E45" t="n">
-        <v>12615727</v>
+        <v>12644141</v>
       </c>
       <c r="F45" t="n">
-        <v>1.191642884638409</v>
+        <v>1.191645506419292</v>
       </c>
       <c r="G45" t="n">
-        <v>119.85895918662</v>
+        <v>255.2646450555969</v>
       </c>
       <c r="H45" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I45" t="n">
-        <v>2513915</v>
+        <v>2454555</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>286127449</v>
+        <v>285033500</v>
       </c>
       <c r="E46" t="n">
-        <v>286127449</v>
+        <v>285033500</v>
       </c>
       <c r="F46" t="n">
-        <v>13523.72989330339</v>
+        <v>12593.2117441599</v>
       </c>
       <c r="G46" t="n">
-        <v>12064.85412047306</v>
+        <v>11879.80508540233</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>18690322</v>
+        <v>17339665</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12911407</v>
+        <v>13026835</v>
       </c>
       <c r="E47" t="n">
-        <v>40836790</v>
+        <v>41201873</v>
       </c>
       <c r="F47" t="n">
-        <v>6268.138257269484</v>
+        <v>6109.757803558649</v>
       </c>
       <c r="G47" t="n">
-        <v>6823.446699058918</v>
+        <v>3404.81183760326</v>
       </c>
       <c r="H47" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="I47" t="n">
-        <v>1185605</v>
+        <v>1209585</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31883492</v>
+        <v>31863806</v>
       </c>
       <c r="E48" t="n">
-        <v>88314108</v>
+        <v>88259580</v>
       </c>
       <c r="F48" t="n">
-        <v>5580.534391519653</v>
+        <v>7124.804956624646</v>
       </c>
       <c r="G48" t="n">
-        <v>1606.691099046381</v>
+        <v>1825.912372045967</v>
       </c>
       <c r="H48" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>12643029</v>
+        <v>12627971</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29092206</v>
+        <v>28841798</v>
       </c>
       <c r="E49" t="n">
-        <v>69012108</v>
+        <v>68418094</v>
       </c>
       <c r="F49" t="n">
-        <v>4492.335181567588</v>
+        <v>8129.575537879886</v>
       </c>
       <c r="G49" t="n">
-        <v>1774.723390241444</v>
+        <v>8037.11932615035</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>737968</v>
+        <v>746984</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11968069</v>
+        <v>12068990</v>
       </c>
       <c r="E50" t="n">
-        <v>18196150</v>
+        <v>18349589</v>
       </c>
       <c r="F50" t="n">
-        <v>5141.294780245816</v>
+        <v>2878.095616632037</v>
       </c>
       <c r="G50" t="n">
-        <v>3404.497393234355</v>
+        <v>2526.792090192774</v>
       </c>
       <c r="H50" t="n">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="I50" t="n">
-        <v>581818</v>
+        <v>643405</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>303815106</v>
+        <v>301016671</v>
       </c>
       <c r="E51" t="n">
-        <v>303815106</v>
+        <v>301016671</v>
       </c>
       <c r="F51" t="n">
-        <v>44370.3428216511</v>
+        <v>35263.78992808867</v>
       </c>
       <c r="G51" t="n">
-        <v>54853.99961076093</v>
+        <v>53297.52539279073</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>112437836</v>
+        <v>113134772</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>83896235</v>
+        <v>84247918</v>
       </c>
       <c r="E52" t="n">
-        <v>483446293</v>
+        <v>485472841</v>
       </c>
       <c r="F52" t="n">
-        <v>38397.27244910911</v>
+        <v>42741.79816253472</v>
       </c>
       <c r="G52" t="n">
-        <v>56347.72706133218</v>
+        <v>60420.03158544237</v>
       </c>
       <c r="H52" t="n">
         <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>21331599</v>
+        <v>21610378</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30810536</v>
+        <v>30621575</v>
       </c>
       <c r="E53" t="n">
-        <v>137951407</v>
+        <v>137105354</v>
       </c>
       <c r="F53" t="n">
-        <v>9292.502943083095</v>
+        <v>11895.03913118003</v>
       </c>
       <c r="G53" t="n">
-        <v>14701.36109624192</v>
+        <v>12368.69662583901</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>16862430</v>
+        <v>17494699</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7706214</v>
+        <v>7668828</v>
       </c>
       <c r="F54" t="n">
-        <v>3316.470286845501</v>
+        <v>2862.826238553177</v>
       </c>
       <c r="G54" t="n">
-        <v>4515.559828810877</v>
+        <v>4503.622445863884</v>
       </c>
       <c r="H54" t="n">
         <v>0.77</v>
       </c>
       <c r="I54" t="n">
-        <v>318946</v>
+        <v>318470</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4404257</v>
+        <v>4452760</v>
       </c>
       <c r="F55" t="n">
-        <v>2034.567634062349</v>
+        <v>2211.160473108075</v>
       </c>
       <c r="G55" t="n">
-        <v>842.3125361275545</v>
+        <v>1171.868735121893</v>
       </c>
       <c r="H55" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="I55" t="n">
-        <v>202945</v>
+        <v>239417</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123642218</v>
+        <v>124041426</v>
       </c>
       <c r="E56" t="n">
-        <v>2047616400</v>
+        <v>2054227610</v>
       </c>
       <c r="F56" t="n">
-        <v>20452.57269124773</v>
+        <v>18142.98410864238</v>
       </c>
       <c r="G56" t="n">
-        <v>23670.95547723635</v>
+        <v>26070.15794941782</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>43199872</v>
+        <v>45098619</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>92710779</v>
+        <v>92900582</v>
       </c>
       <c r="E57" t="n">
-        <v>93708742</v>
+        <v>93900589</v>
       </c>
       <c r="F57" t="n">
-        <v>16761.47128648376</v>
+        <v>17287.27699041983</v>
       </c>
       <c r="G57" t="n">
-        <v>18582.87284342286</v>
+        <v>21436.1879722616</v>
       </c>
       <c r="H57" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>65340967</v>
+        <v>63145842</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>236374260</v>
+        <v>231333064</v>
       </c>
       <c r="E58" t="n">
-        <v>236374260</v>
+        <v>231333064</v>
       </c>
       <c r="F58" t="n">
-        <v>71164.30874091394</v>
+        <v>51514.41055603333</v>
       </c>
       <c r="G58" t="n">
-        <v>81195.87561083147</v>
+        <v>70292.19000584816</v>
       </c>
       <c r="H58" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>91637084</v>
+        <v>93780931</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22995425</v>
+        <v>23065732</v>
       </c>
       <c r="E59" t="n">
-        <v>137586251</v>
+        <v>138006913</v>
       </c>
       <c r="F59" t="n">
-        <v>26831.10454604769</v>
+        <v>25851.76076978687</v>
       </c>
       <c r="G59" t="n">
-        <v>28454.56492186852</v>
+        <v>25079.7205140669</v>
       </c>
       <c r="H59" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>18439899</v>
+        <v>18129862</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2752744</v>
+        <v>2590495</v>
       </c>
       <c r="E60" t="n">
-        <v>5080346</v>
+        <v>4780906</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>13.31</v>
+        <v>14.04</v>
       </c>
       <c r="I60" t="n">
-        <v>437425</v>
+        <v>369107</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9470291</v>
+        <v>9403975</v>
       </c>
       <c r="E62" t="n">
-        <v>28075043</v>
+        <v>27878444</v>
       </c>
       <c r="F62" t="n">
-        <v>4343.848582138152</v>
+        <v>5648.442564740681</v>
       </c>
       <c r="G62" t="n">
-        <v>3430.465545071853</v>
+        <v>3392.899359297027</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I62" t="n">
-        <v>6828184</v>
+        <v>6795429</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14482300</v>
+        <v>14441299</v>
       </c>
       <c r="E63" t="n">
-        <v>29318532</v>
+        <v>29235528</v>
       </c>
       <c r="F63" t="n">
-        <v>8067.276889531311</v>
+        <v>7369.825458140329</v>
       </c>
       <c r="G63" t="n">
-        <v>11357.29500236513</v>
+        <v>15794.02189975902</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="I63" t="n">
-        <v>502987</v>
+        <v>467149</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33926710</v>
+        <v>34007642</v>
       </c>
       <c r="E64" t="n">
-        <v>240534841</v>
+        <v>241108633</v>
       </c>
       <c r="F64" t="n">
-        <v>49277.24671162411</v>
+        <v>55894.09437187447</v>
       </c>
       <c r="G64" t="n">
-        <v>32388.54099204764</v>
+        <v>58459.36076298775</v>
       </c>
       <c r="H64" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="I64" t="n">
-        <v>6455688</v>
+        <v>6360710</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1280143</v>
+        <v>1288505</v>
       </c>
       <c r="E65" t="n">
-        <v>7937004</v>
+        <v>7988848</v>
       </c>
       <c r="F65" t="n">
-        <v>121.8674817139331</v>
+        <v>144.2989684274769</v>
       </c>
       <c r="G65" t="n">
-        <v>23.17743670775178</v>
+        <v>129.3677081670602</v>
       </c>
       <c r="H65" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="I65" t="n">
-        <v>757424</v>
+        <v>775276</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>580553927</v>
+        <v>582299414</v>
       </c>
       <c r="E66" t="n">
-        <v>2248399703</v>
+        <v>2255159719</v>
       </c>
       <c r="F66" t="n">
-        <v>66744.66798943758</v>
+        <v>44928.41873302292</v>
       </c>
       <c r="G66" t="n">
-        <v>41426.47966236117</v>
+        <v>43804.35574682253</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>62496488</v>
+        <v>62329396</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5454721</v>
+        <v>5448372</v>
       </c>
       <c r="E67" t="n">
-        <v>24416201</v>
+        <v>24387782</v>
       </c>
       <c r="F67" t="n">
-        <v>4253.679642071422</v>
+        <v>2125.442891048148</v>
       </c>
       <c r="G67" t="n">
-        <v>18767.15092508934</v>
+        <v>18857.45030787423</v>
       </c>
       <c r="H67" t="n">
-        <v>0.58</v>
+        <v>0.12</v>
       </c>
       <c r="I67" t="n">
-        <v>188209</v>
+        <v>197837</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>108569629</v>
+        <v>109071012</v>
       </c>
       <c r="E68" t="n">
-        <v>1027260066</v>
+        <v>1032004033</v>
       </c>
       <c r="F68" t="n">
-        <v>3274.429027124169</v>
+        <v>3855.742420106832</v>
       </c>
       <c r="G68" t="n">
-        <v>4829.444549496705</v>
+        <v>5917.83589518626</v>
       </c>
       <c r="H68" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>17934435</v>
+        <v>17931029</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>99123316</v>
+        <v>98672572</v>
       </c>
       <c r="E69" t="n">
-        <v>151214943</v>
+        <v>150527322</v>
       </c>
       <c r="F69" t="n">
-        <v>10813.93876683614</v>
+        <v>1222.305448753775</v>
       </c>
       <c r="G69" t="n">
-        <v>17856.18982896255</v>
+        <v>18736.47070408524</v>
       </c>
       <c r="H69" t="n">
-        <v>0.73</v>
+        <v>0.42</v>
       </c>
       <c r="I69" t="n">
-        <v>12516160</v>
+        <v>12368371</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1060441</v>
+        <v>1063690</v>
       </c>
       <c r="E70" t="n">
-        <v>4106260</v>
+        <v>4118839</v>
       </c>
       <c r="F70" t="n">
-        <v>2113.377097013728</v>
+        <v>2173.327754864955</v>
       </c>
       <c r="G70" t="n">
-        <v>3391.560054762873</v>
+        <v>3633.73708083414</v>
       </c>
       <c r="H70" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="I70" t="n">
-        <v>278808</v>
+        <v>197256</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>121716146</v>
+        <v>122278087</v>
       </c>
       <c r="E71" t="n">
-        <v>466922725</v>
+        <v>469078424</v>
       </c>
       <c r="F71" t="n">
-        <v>11718.48800883552</v>
+        <v>13274.52554737892</v>
       </c>
       <c r="G71" t="n">
-        <v>10207.61672647947</v>
+        <v>12172.73344665684</v>
       </c>
       <c r="H71" t="n">
         <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>32312274</v>
+        <v>32654162</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3124254</v>
+        <v>3087661</v>
       </c>
       <c r="E72" t="n">
-        <v>29602773</v>
+        <v>29256045</v>
       </c>
       <c r="F72" t="n">
-        <v>567.59744673071</v>
+        <v>2.456726256663976</v>
       </c>
       <c r="G72" t="n">
-        <v>8.252598974485789</v>
+        <v>290.2655566027684</v>
       </c>
       <c r="H72" t="n">
-        <v>0.55</v>
+        <v>0.03</v>
       </c>
       <c r="I72" t="n">
-        <v>228552</v>
+        <v>228187</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>40999077</v>
+        <v>41955767</v>
       </c>
       <c r="F73" t="n">
-        <v>916.6535515727232</v>
+        <v>2796.152048468697</v>
       </c>
       <c r="G73" t="n">
-        <v>7927.207986023082</v>
+        <v>1022.374798264307</v>
       </c>
       <c r="H73" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="I73" t="n">
-        <v>9063001</v>
+        <v>10468302</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>91232851</v>
+        <v>91729722</v>
       </c>
       <c r="E74" t="n">
-        <v>337227202</v>
+        <v>339061868</v>
       </c>
       <c r="F74" t="n">
-        <v>152.0223697375264</v>
+        <v>33.81267107209737</v>
       </c>
       <c r="G74" t="n">
-        <v>313.4613099350837</v>
+        <v>315.6889138959208</v>
       </c>
       <c r="H74" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="I74" t="n">
-        <v>329311</v>
+        <v>320659</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22179422</v>
+        <v>22511866</v>
       </c>
       <c r="E75" t="n">
-        <v>22179422</v>
+        <v>22511866</v>
       </c>
       <c r="F75" t="n">
-        <v>4210.22857815546</v>
+        <v>5558.648386703385</v>
       </c>
       <c r="G75" t="n">
-        <v>783.7650836415039</v>
+        <v>1247.510066643217</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I75" t="n">
-        <v>5598238</v>
+        <v>5566771</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>467340196</v>
+        <v>468148337</v>
       </c>
       <c r="E76" t="n">
-        <v>1625947839</v>
+        <v>1628759485</v>
       </c>
       <c r="F76" t="n">
-        <v>95258.02898787745</v>
+        <v>85048.79889964635</v>
       </c>
       <c r="G76" t="n">
-        <v>95931.54139304141</v>
+        <v>95475.48301152626</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>49734125</v>
+        <v>50410187</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5592940142</v>
+        <v>5603602509</v>
       </c>
       <c r="E77" t="n">
-        <v>5592940142</v>
+        <v>5603602509</v>
       </c>
       <c r="F77" t="n">
-        <v>1548.768740254686</v>
+        <v>1552.869048706601</v>
       </c>
       <c r="G77" t="n">
-        <v>1190.418350772578</v>
+        <v>1193.56993970779</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35527844</v>
+        <v>35519410</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7054891</v>
+        <v>7032029</v>
       </c>
       <c r="E78" t="n">
-        <v>18327847</v>
+        <v>18268456</v>
       </c>
       <c r="F78" t="n">
-        <v>355.5081854610432</v>
+        <v>377.1835437426918</v>
       </c>
       <c r="G78" t="n">
-        <v>892.9964940725399</v>
+        <v>189.5059995886182</v>
       </c>
       <c r="H78" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="I78" t="n">
-        <v>792093</v>
+        <v>795691</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>108327534</v>
+        <v>108491290</v>
       </c>
       <c r="E79" t="n">
-        <v>164128730</v>
+        <v>164376839</v>
       </c>
       <c r="F79" t="n">
-        <v>40873.70920099533</v>
+        <v>37242.6055181292</v>
       </c>
       <c r="G79" t="n">
-        <v>42933.20906027473</v>
+        <v>42305.3395055694</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="I79" t="n">
-        <v>9984551</v>
+        <v>10031567</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2298807</v>
+        <v>2300322</v>
       </c>
       <c r="E80" t="n">
-        <v>9195230</v>
+        <v>9201289</v>
       </c>
       <c r="F80" t="n">
-        <v>779.109894286377</v>
+        <v>1767.57486209778</v>
       </c>
       <c r="G80" t="n">
-        <v>1453.01054826476</v>
+        <v>1361.951014971635</v>
       </c>
       <c r="H80" t="n">
         <v>0.76</v>
       </c>
       <c r="I80" t="n">
-        <v>7949282</v>
+        <v>8033123</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2288267</v>
+        <v>2285119</v>
       </c>
       <c r="F81" t="n">
-        <v>549.3754874380384</v>
+        <v>5.037128756546156</v>
       </c>
       <c r="G81" t="n">
-        <v>34.71018939838431</v>
+        <v>441.2649829979808</v>
       </c>
       <c r="H81" t="n">
-        <v>1.38</v>
+        <v>0.89</v>
       </c>
       <c r="I81" t="n">
-        <v>173144</v>
+        <v>167243</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>380684700</v>
+        <v>379663916</v>
       </c>
       <c r="E82" t="n">
-        <v>2175341141</v>
+        <v>2169508092</v>
       </c>
       <c r="F82" t="n">
-        <v>39207.90570178069</v>
+        <v>37564.21938941952</v>
       </c>
       <c r="G82" t="n">
-        <v>54078.04221326636</v>
+        <v>45234.70398602491</v>
       </c>
       <c r="H82" t="n">
         <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>63843369</v>
+        <v>63556728</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3796987</v>
+        <v>3793603</v>
       </c>
       <c r="F2" t="n">
-        <v>316.523961854012</v>
+        <v>237.8640739761628</v>
       </c>
       <c r="G2" t="n">
-        <v>338.1573810908875</v>
+        <v>429.2670208704134</v>
       </c>
       <c r="H2" t="n">
-        <v>0.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>137166</v>
+        <v>136732</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1526042</v>
+        <v>1517931</v>
       </c>
       <c r="E3" t="n">
-        <v>4932795</v>
+        <v>4906577</v>
       </c>
       <c r="F3" t="n">
-        <v>5694.085428992153</v>
+        <v>5661.640395558522</v>
       </c>
       <c r="G3" t="n">
-        <v>2915.114602184409</v>
+        <v>2953.245582119671</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="I3" t="n">
-        <v>281550</v>
+        <v>281698</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252315043</v>
+        <v>251839852</v>
       </c>
       <c r="E4" t="n">
-        <v>1582232169</v>
+        <v>1579252312</v>
       </c>
       <c r="F4" t="n">
-        <v>9509.214555143535</v>
+        <v>10427.52791441749</v>
       </c>
       <c r="G4" t="n">
-        <v>29274.94911228462</v>
+        <v>28762.39881808483</v>
       </c>
       <c r="H4" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I4" t="n">
-        <v>29893156</v>
+        <v>29916697</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140176298</v>
+        <v>140409653</v>
       </c>
       <c r="E5" t="n">
-        <v>155337245</v>
+        <v>155595839</v>
       </c>
       <c r="F5" t="n">
-        <v>33353.25475734033</v>
+        <v>23261.47059671053</v>
       </c>
       <c r="G5" t="n">
-        <v>27451.74926157435</v>
+        <v>33125.20154267144</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>53446005</v>
+        <v>52726564</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117336795</v>
+        <v>117243328</v>
       </c>
       <c r="E6" t="n">
-        <v>459925104</v>
+        <v>459558741</v>
       </c>
       <c r="F6" t="n">
-        <v>7720.205844319</v>
+        <v>10282.75883146071</v>
       </c>
       <c r="G6" t="n">
-        <v>9993.309834957303</v>
+        <v>11602.18861534614</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>26171709</v>
+        <v>25493687</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Play To Earn, Ronin Ecosystem, Gaming Utility Token, DeFiance Capital Portfolio</t>
+          <t>Gaming (GameFi), NFT, Play To Earn, Ronin Ecosystem, Gaming Utility Token, DeFiance Capital Portfolio, Action Games, MMO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4334830</v>
+        <v>4374743</v>
       </c>
       <c r="E7" t="n">
-        <v>26615076</v>
+        <v>26860130</v>
       </c>
       <c r="F7" t="n">
-        <v>235.5368536454309</v>
+        <v>293.8061348936405</v>
       </c>
       <c r="G7" t="n">
-        <v>1403.518205921614</v>
+        <v>1412.851356742121</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="I7" t="n">
-        <v>445750</v>
+        <v>428075</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>185401</v>
+        <v>174127</v>
       </c>
       <c r="E8" t="n">
-        <v>2039619</v>
+        <v>1915584</v>
       </c>
       <c r="F8" t="n">
-        <v>2401.103369815509</v>
+        <v>2166.933164245338</v>
       </c>
       <c r="G8" t="n">
-        <v>2280.758798407314</v>
+        <v>1539.909772209169</v>
       </c>
       <c r="H8" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="I8" t="n">
-        <v>50100</v>
+        <v>52081</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69577026</v>
+        <v>69503727</v>
       </c>
       <c r="E9" t="n">
-        <v>120430170</v>
+        <v>120300423</v>
       </c>
       <c r="F9" t="n">
-        <v>1987.170316229795</v>
+        <v>1932.358923067137</v>
       </c>
       <c r="G9" t="n">
-        <v>1163.291385160847</v>
+        <v>1453.604514887058</v>
       </c>
       <c r="H9" t="n">
         <v>0.42</v>
       </c>
       <c r="I9" t="n">
-        <v>702444</v>
+        <v>691973</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Metaverse, Solana Ecosystem, Play To Earn, Arbitrum Ecosystem, Animoca Brands Portfolio, DWF Labs Portfolio, Gaming Governance Token, Gaming Utility Token, Adventure Games</t>
+          <t>Gaming (GameFi), NFT, Metaverse, Solana Ecosystem, Play To Earn, Arbitrum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, DWF Labs Portfolio, Gaming Governance Token, Gaming Utility Token, Adventure Games</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8785340</v>
+        <v>8786172</v>
       </c>
       <c r="E10" t="n">
-        <v>12434996</v>
+        <v>12436174</v>
       </c>
       <c r="F10" t="n">
-        <v>3082.692254249362</v>
+        <v>3074.987610030238</v>
       </c>
       <c r="G10" t="n">
-        <v>3045.187548033886</v>
+        <v>2912.43284254422</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>13185.01</v>
+        <v>10729.25</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>475079724</v>
+        <v>472368129</v>
       </c>
       <c r="E11" t="n">
-        <v>475079724</v>
+        <v>472368131</v>
       </c>
       <c r="F11" t="n">
-        <v>13397.35066917466</v>
+        <v>15384.44662755568</v>
       </c>
       <c r="G11" t="n">
-        <v>27237.85309911034</v>
+        <v>28043.21248825048</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>74870501</v>
+        <v>73203581</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>295578</v>
+        <v>295874</v>
       </c>
       <c r="E12" t="n">
-        <v>1379788</v>
+        <v>1381168</v>
       </c>
       <c r="F12" t="n">
-        <v>339.5004379044011</v>
+        <v>74.12821179404055</v>
       </c>
       <c r="G12" t="n">
-        <v>113.3577741635085</v>
+        <v>251.4734314497765</v>
       </c>
       <c r="H12" t="n">
-        <v>2.74</v>
+        <v>1.47</v>
       </c>
       <c r="I12" t="n">
-        <v>639512</v>
+        <v>633921</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1705138</v>
+        <v>1716483</v>
       </c>
       <c r="F13" t="n">
-        <v>4166.057494902006</v>
+        <v>4111.702593274508</v>
       </c>
       <c r="G13" t="n">
-        <v>200.7570359929457</v>
+        <v>1045.609258518671</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>1370041</v>
+        <v>1205789</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11879376</v>
+        <v>11893956</v>
       </c>
       <c r="E14" t="n">
-        <v>29565619</v>
+        <v>29601905</v>
       </c>
       <c r="F14" t="n">
-        <v>937.1828756823423</v>
+        <v>936.1184265066388</v>
       </c>
       <c r="G14" t="n">
-        <v>1461.766747557181</v>
+        <v>1341.496816711765</v>
       </c>
       <c r="H14" t="n">
         <v>0.54</v>
       </c>
       <c r="I14" t="n">
-        <v>1461135</v>
+        <v>1516424</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>113931895</v>
+        <v>115141523</v>
       </c>
       <c r="E15" t="n">
-        <v>442693923</v>
+        <v>447368222</v>
       </c>
       <c r="F15" t="n">
-        <v>4163.45730020108</v>
+        <v>5500.746306600147</v>
       </c>
       <c r="G15" t="n">
-        <v>10266.91175814128</v>
+        <v>6759.008054022651</v>
       </c>
       <c r="H15" t="n">
-        <v>0.29</v>
+        <v>0.51</v>
       </c>
       <c r="I15" t="n">
-        <v>13458142</v>
+        <v>13407414</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4921618</v>
+        <v>4964412</v>
       </c>
       <c r="E16" t="n">
-        <v>7244888</v>
+        <v>7307884</v>
       </c>
       <c r="F16" t="n">
-        <v>3082.245603965809</v>
+        <v>4021.001527852466</v>
       </c>
       <c r="G16" t="n">
-        <v>2243.392271647006</v>
+        <v>1909.08128401206</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="I16" t="n">
-        <v>661993</v>
+        <v>164958</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>434091</v>
+        <v>432173</v>
       </c>
       <c r="E17" t="n">
-        <v>1795565</v>
+        <v>1787635</v>
       </c>
       <c r="F17" t="n">
-        <v>652.9117199803943</v>
+        <v>683.0896783494849</v>
       </c>
       <c r="G17" t="n">
-        <v>1083.165496698647</v>
+        <v>1000.93355837468</v>
       </c>
       <c r="H17" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="I17" t="n">
-        <v>73718</v>
+        <v>73176</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>138624087</v>
+        <v>139108432</v>
       </c>
       <c r="E18" t="n">
-        <v>138624087</v>
+        <v>139108432</v>
       </c>
       <c r="F18" t="n">
-        <v>76150.29743510732</v>
+        <v>68606.34801858506</v>
       </c>
       <c r="G18" t="n">
-        <v>65231.10902517335</v>
+        <v>69095.44499255629</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>92485335</v>
+        <v>95250791</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63342622</v>
+        <v>63483973</v>
       </c>
       <c r="E19" t="n">
-        <v>324833961</v>
+        <v>325558835</v>
       </c>
       <c r="F19" t="n">
-        <v>14239.26479603414</v>
+        <v>14061.42938302234</v>
       </c>
       <c r="G19" t="n">
-        <v>8441.034829526823</v>
+        <v>9160.908779038466</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>25005261</v>
+        <v>23461700</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>249989889</v>
+        <v>251162649</v>
       </c>
       <c r="E20" t="n">
-        <v>249989889</v>
+        <v>251162649</v>
       </c>
       <c r="F20" t="n">
-        <v>68558.17486650957</v>
+        <v>64700.40389188203</v>
       </c>
       <c r="G20" t="n">
-        <v>47064.95546682826</v>
+        <v>52859.01114470055</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>27692542</v>
+        <v>28189622</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>177499412</v>
+        <v>179025118</v>
       </c>
       <c r="E21" t="n">
-        <v>233568467</v>
+        <v>235576117</v>
       </c>
       <c r="F21" t="n">
-        <v>21557.92602775605</v>
+        <v>21385.18157878141</v>
       </c>
       <c r="G21" t="n">
-        <v>8096.301120016774</v>
+        <v>9615.564622073589</v>
       </c>
       <c r="H21" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I21" t="n">
-        <v>18897967</v>
+        <v>18970789</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79374148</v>
+        <v>79059733</v>
       </c>
       <c r="E22" t="n">
-        <v>222135494</v>
+        <v>221225880</v>
       </c>
       <c r="F22" t="n">
-        <v>29009.28194259148</v>
+        <v>24486.55699563048</v>
       </c>
       <c r="G22" t="n">
-        <v>24532.82482883395</v>
+        <v>27210.04001142138</v>
       </c>
       <c r="H22" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I22" t="n">
-        <v>57875377</v>
+        <v>57565054</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84095959</v>
+        <v>85471819</v>
       </c>
       <c r="E23" t="n">
-        <v>175333321</v>
+        <v>178201879</v>
       </c>
       <c r="F23" t="n">
-        <v>20772.64575381171</v>
+        <v>15732.01184161729</v>
       </c>
       <c r="G23" t="n">
-        <v>21714.82800510713</v>
+        <v>21370.96019085226</v>
       </c>
       <c r="H23" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>84519231</v>
+        <v>84836473</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>638298225</v>
+        <v>638277884</v>
       </c>
       <c r="E24" t="n">
-        <v>638298225</v>
+        <v>638277884</v>
       </c>
       <c r="F24" t="n">
-        <v>163932.0217660764</v>
+        <v>132309.1063337456</v>
       </c>
       <c r="G24" t="n">
-        <v>97572.07153378798</v>
+        <v>107954.5779048351</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>557471811</v>
+        <v>551798241</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>195537529</v>
+        <v>195310409</v>
       </c>
       <c r="E25" t="n">
-        <v>679315048</v>
+        <v>678526012</v>
       </c>
       <c r="F25" t="n">
-        <v>65094.41471615815</v>
+        <v>70324.07402724492</v>
       </c>
       <c r="G25" t="n">
-        <v>104136.7036759473</v>
+        <v>94223.06551147692</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>41656172</v>
+        <v>41343114</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5622445</v>
+        <v>5537125</v>
       </c>
       <c r="E26" t="n">
-        <v>7629918</v>
+        <v>7513712</v>
       </c>
       <c r="F26" t="n">
-        <v>162.1711564383259</v>
+        <v>260.3344885083142</v>
       </c>
       <c r="G26" t="n">
-        <v>2451.754078921613</v>
+        <v>200.4856691421123</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>5669630</v>
+        <v>5674308</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14299664</v>
+        <v>14414275</v>
       </c>
       <c r="F27" t="n">
-        <v>2262.281782157819</v>
+        <v>2292.437386935034</v>
       </c>
       <c r="G27" t="n">
-        <v>2798.484733954125</v>
+        <v>2368.780290774335</v>
       </c>
       <c r="H27" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I27" t="n">
-        <v>222037</v>
+        <v>222735</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25054565</v>
+        <v>25024399</v>
       </c>
       <c r="E28" t="n">
-        <v>35406141</v>
+        <v>35363510</v>
       </c>
       <c r="F28" t="n">
-        <v>252.2388094081036</v>
+        <v>318.959734653087</v>
       </c>
       <c r="G28" t="n">
-        <v>492.3253112377189</v>
+        <v>308.1610703682369</v>
       </c>
       <c r="H28" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="I28" t="n">
-        <v>187720</v>
+        <v>185364</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>260856089</v>
+        <v>261608320</v>
       </c>
       <c r="E29" t="n">
-        <v>1125999693</v>
+        <v>1129246740</v>
       </c>
       <c r="F29" t="n">
-        <v>137827.1939556177</v>
+        <v>135126.0573629019</v>
       </c>
       <c r="G29" t="n">
-        <v>118203.2533732289</v>
+        <v>124000.7333655925</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>141918559</v>
+        <v>141475784</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10354925</v>
+        <v>10402805</v>
       </c>
       <c r="E30" t="n">
-        <v>124657815</v>
+        <v>125202570</v>
       </c>
       <c r="F30" t="n">
-        <v>8319.505271299495</v>
+        <v>8561.690232847539</v>
       </c>
       <c r="G30" t="n">
-        <v>1013.083047598957</v>
+        <v>1030.068293872187</v>
       </c>
       <c r="H30" t="n">
-        <v>0.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>260380</v>
+        <v>513929</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15908970</v>
+        <v>15695711</v>
       </c>
       <c r="E31" t="n">
-        <v>39772426</v>
+        <v>39239278</v>
       </c>
       <c r="F31" t="n">
-        <v>5878.790331580124</v>
+        <v>6494.490097123324</v>
       </c>
       <c r="G31" t="n">
-        <v>9689.223993968937</v>
+        <v>6087.208880206481</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I31" t="n">
-        <v>5254771</v>
+        <v>5077736</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19113312</v>
+        <v>19033141</v>
       </c>
       <c r="F32" t="n">
-        <v>2029.983361874325</v>
+        <v>2295.152424249247</v>
       </c>
       <c r="G32" t="n">
-        <v>3625.676847268848</v>
+        <v>3224.412228152576</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>79224</v>
+        <v>77245</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1456326</v>
+        <v>1440789</v>
       </c>
       <c r="E33" t="n">
-        <v>5429116</v>
+        <v>5371197</v>
       </c>
       <c r="F33" t="n">
-        <v>1223.526516441588</v>
+        <v>2276.875708672162</v>
       </c>
       <c r="G33" t="n">
-        <v>1952.566304176248</v>
+        <v>1764.059268432638</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I33" t="n">
-        <v>743006</v>
+        <v>730537</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4148306</v>
+        <v>4235540</v>
       </c>
       <c r="E34" t="n">
-        <v>11947594</v>
+        <v>12198837</v>
       </c>
       <c r="F34" t="n">
-        <v>3526.640879871928</v>
+        <v>4092.041706954651</v>
       </c>
       <c r="G34" t="n">
-        <v>3110.033771701988</v>
+        <v>4181.063218555208</v>
       </c>
       <c r="H34" t="n">
-        <v>1.08</v>
+        <v>0.41</v>
       </c>
       <c r="I34" t="n">
-        <v>450791</v>
+        <v>435955</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14070728</v>
+        <v>14046752</v>
       </c>
       <c r="E35" t="n">
-        <v>68146781</v>
+        <v>68030662</v>
       </c>
       <c r="F35" t="n">
-        <v>2724.933568119201</v>
+        <v>2667.592388091246</v>
       </c>
       <c r="G35" t="n">
-        <v>3472.28801906836</v>
+        <v>3504.652246495461</v>
       </c>
       <c r="H35" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="I35" t="n">
-        <v>5571874</v>
+        <v>5530119</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1245958</v>
+        <v>1235772</v>
       </c>
       <c r="E36" t="n">
-        <v>8154764</v>
+        <v>8088097</v>
       </c>
       <c r="F36" t="n">
-        <v>3521.419779259452</v>
+        <v>3853.006308054128</v>
       </c>
       <c r="G36" t="n">
-        <v>2884.641756417726</v>
+        <v>3307.071242331514</v>
       </c>
       <c r="H36" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="I36" t="n">
-        <v>344937</v>
+        <v>291912</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1853606529</v>
+        <v>1854412311</v>
       </c>
       <c r="F37" t="n">
-        <v>76277.9072733893</v>
+        <v>68911.15370943681</v>
       </c>
       <c r="G37" t="n">
-        <v>67981.19976414688</v>
+        <v>75023.72121724444</v>
       </c>
       <c r="H37" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="I37" t="n">
-        <v>32006348</v>
+        <v>31853308</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1831493</v>
+        <v>1837609</v>
       </c>
       <c r="E38" t="n">
-        <v>13133450</v>
+        <v>13177312</v>
       </c>
       <c r="F38" t="n">
-        <v>5382.841097556462</v>
+        <v>5426.481046088638</v>
       </c>
       <c r="G38" t="n">
-        <v>5529.61521545602</v>
+        <v>5368.972065956144</v>
       </c>
       <c r="H38" t="n">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="I38" t="n">
-        <v>2144561</v>
+        <v>2150567</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194037709</v>
+        <v>194554015</v>
       </c>
       <c r="E39" t="n">
-        <v>1098760733</v>
+        <v>1101684377</v>
       </c>
       <c r="F39" t="n">
-        <v>51430.34085387906</v>
+        <v>45423.4632769297</v>
       </c>
       <c r="G39" t="n">
-        <v>58867.60259905582</v>
+        <v>60844.11126022148</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>85398234</v>
+        <v>84209281</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>128679854</v>
+        <v>129645994</v>
       </c>
       <c r="E40" t="n">
-        <v>953184102</v>
+        <v>960340693</v>
       </c>
       <c r="F40" t="n">
-        <v>10605.50152837233</v>
+        <v>3871.41436061529</v>
       </c>
       <c r="G40" t="n">
-        <v>10310.45266646225</v>
+        <v>11223.37145526266</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I40" t="n">
-        <v>37422689</v>
+        <v>37251186</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>323777149</v>
+        <v>324662213</v>
       </c>
       <c r="E41" t="n">
-        <v>2912899999</v>
+        <v>2920862587</v>
       </c>
       <c r="F41" t="n">
-        <v>60630.55539026329</v>
+        <v>63153.34016970138</v>
       </c>
       <c r="G41" t="n">
-        <v>94658.78579386295</v>
+        <v>93206.22509104924</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>71109729</v>
+        <v>70977711</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1549794</v>
+        <v>1553734</v>
       </c>
       <c r="E42" t="n">
-        <v>12914948</v>
+        <v>12947783</v>
       </c>
       <c r="F42" t="n">
-        <v>2314.606524800087</v>
+        <v>2346.533928302903</v>
       </c>
       <c r="G42" t="n">
-        <v>2426.186473094624</v>
+        <v>2220.079274156218</v>
       </c>
       <c r="H42" t="n">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="I42" t="n">
-        <v>32902</v>
+        <v>33143</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19568373</v>
+        <v>19415366</v>
       </c>
       <c r="E43" t="n">
-        <v>58670472</v>
+        <v>58213307</v>
       </c>
       <c r="F43" t="n">
-        <v>1470.487509183371</v>
+        <v>1698.980723284471</v>
       </c>
       <c r="G43" t="n">
-        <v>4225.663728128348</v>
+        <v>3533.242660681926</v>
       </c>
       <c r="H43" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I43" t="n">
-        <v>4338892</v>
+        <v>4166437</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8081695</v>
+        <v>8022112</v>
       </c>
       <c r="F44" t="n">
-        <v>3324.006472382942</v>
+        <v>2622.158089089939</v>
       </c>
       <c r="G44" t="n">
-        <v>3477.554530395054</v>
+        <v>2420.033893960985</v>
       </c>
       <c r="H44" t="n">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1111638</v>
+        <v>1103602</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12644141</v>
+        <v>12668717</v>
       </c>
       <c r="E45" t="n">
-        <v>12644141</v>
+        <v>12668717</v>
       </c>
       <c r="F45" t="n">
-        <v>1.191645506419292</v>
+        <v>116.9226343016898</v>
       </c>
       <c r="G45" t="n">
-        <v>255.2646450555969</v>
+        <v>49.9171646021169</v>
       </c>
       <c r="H45" t="n">
-        <v>0.32</v>
+        <v>1.63</v>
       </c>
       <c r="I45" t="n">
-        <v>2454555</v>
+        <v>2392823</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>285033500</v>
+        <v>283146471</v>
       </c>
       <c r="E46" t="n">
-        <v>285033500</v>
+        <v>283146471</v>
       </c>
       <c r="F46" t="n">
-        <v>12593.2117441599</v>
+        <v>10083.23639684588</v>
       </c>
       <c r="G46" t="n">
-        <v>11879.80508540233</v>
+        <v>14197.61307179606</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I46" t="n">
-        <v>17339665</v>
+        <v>17403556</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13026835</v>
+        <v>13297389</v>
       </c>
       <c r="E47" t="n">
-        <v>41201873</v>
+        <v>42057552</v>
       </c>
       <c r="F47" t="n">
-        <v>6109.757803558649</v>
+        <v>6111.667921738501</v>
       </c>
       <c r="G47" t="n">
-        <v>3404.81183760326</v>
+        <v>3409.903927040823</v>
       </c>
       <c r="H47" t="n">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="I47" t="n">
-        <v>1209585</v>
+        <v>1239231</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31863806</v>
+        <v>31791250</v>
       </c>
       <c r="E48" t="n">
-        <v>88259580</v>
+        <v>88058608</v>
       </c>
       <c r="F48" t="n">
-        <v>7124.804956624646</v>
+        <v>5337.521232716806</v>
       </c>
       <c r="G48" t="n">
-        <v>1825.912372045967</v>
+        <v>1928.831477682722</v>
       </c>
       <c r="H48" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I48" t="n">
-        <v>12627971</v>
+        <v>12564570</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28841798</v>
+        <v>28875429</v>
       </c>
       <c r="E49" t="n">
-        <v>68418094</v>
+        <v>68497871</v>
       </c>
       <c r="F49" t="n">
-        <v>8129.575537879886</v>
+        <v>10928.54036928155</v>
       </c>
       <c r="G49" t="n">
-        <v>8037.11932615035</v>
+        <v>2698.627106497523</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I49" t="n">
-        <v>746984</v>
+        <v>812560</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12068990</v>
+        <v>11958425</v>
       </c>
       <c r="E50" t="n">
-        <v>18349589</v>
+        <v>18181487</v>
       </c>
       <c r="F50" t="n">
-        <v>2878.095616632037</v>
+        <v>2887.929295613067</v>
       </c>
       <c r="G50" t="n">
-        <v>2526.792090192774</v>
+        <v>2500.048589417833</v>
       </c>
       <c r="H50" t="n">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="I50" t="n">
-        <v>643405</v>
+        <v>640229</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>301016671</v>
+        <v>300695292</v>
       </c>
       <c r="E51" t="n">
-        <v>301016671</v>
+        <v>300695292</v>
       </c>
       <c r="F51" t="n">
-        <v>35263.78992808867</v>
+        <v>33593.55552153293</v>
       </c>
       <c r="G51" t="n">
-        <v>53297.52539279073</v>
+        <v>52546.56969363496</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>113134772</v>
+        <v>112912151</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84247918</v>
+        <v>84497781</v>
       </c>
       <c r="E52" t="n">
-        <v>485472841</v>
+        <v>486912658</v>
       </c>
       <c r="F52" t="n">
-        <v>42741.79816253472</v>
+        <v>41729.29147175195</v>
       </c>
       <c r="G52" t="n">
-        <v>60420.03158544237</v>
+        <v>61080.35575185138</v>
       </c>
       <c r="H52" t="n">
         <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>21610378</v>
+        <v>21138249</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30621575</v>
+        <v>30959789</v>
       </c>
       <c r="E53" t="n">
-        <v>137105354</v>
+        <v>138619678</v>
       </c>
       <c r="F53" t="n">
-        <v>11895.03913118003</v>
+        <v>11430.65266382058</v>
       </c>
       <c r="G53" t="n">
-        <v>12368.69662583901</v>
+        <v>14049.01392799744</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I53" t="n">
-        <v>17494699</v>
+        <v>17825500</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7668828</v>
+        <v>7655079</v>
       </c>
       <c r="F54" t="n">
-        <v>2862.826238553177</v>
+        <v>2853.959135564754</v>
       </c>
       <c r="G54" t="n">
-        <v>4503.622445863884</v>
+        <v>4503.729404847941</v>
       </c>
       <c r="H54" t="n">
         <v>0.77</v>
       </c>
       <c r="I54" t="n">
-        <v>318470</v>
+        <v>319316</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4452760</v>
+        <v>4432584</v>
       </c>
       <c r="F55" t="n">
-        <v>2211.160473108075</v>
+        <v>3737.5471647668</v>
       </c>
       <c r="G55" t="n">
-        <v>1171.868735121893</v>
+        <v>984.8330616771592</v>
       </c>
       <c r="H55" t="n">
-        <v>0.27</v>
+        <v>0.64</v>
       </c>
       <c r="I55" t="n">
-        <v>239417</v>
+        <v>239051</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124041426</v>
+        <v>124143298</v>
       </c>
       <c r="E56" t="n">
-        <v>2054227610</v>
+        <v>2055914683</v>
       </c>
       <c r="F56" t="n">
-        <v>18142.98410864238</v>
+        <v>21800.6957692407</v>
       </c>
       <c r="G56" t="n">
-        <v>26070.15794941782</v>
+        <v>24747.66854735951</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I56" t="n">
-        <v>45098619</v>
+        <v>46892136</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>92900582</v>
+        <v>92398915</v>
       </c>
       <c r="E57" t="n">
-        <v>93900589</v>
+        <v>93393521</v>
       </c>
       <c r="F57" t="n">
-        <v>17287.27699041983</v>
+        <v>12954.05814926184</v>
       </c>
       <c r="G57" t="n">
-        <v>21436.1879722616</v>
+        <v>25213.19654200425</v>
       </c>
       <c r="H57" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>63145842</v>
+        <v>62005226</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>231333064</v>
+        <v>233092103</v>
       </c>
       <c r="E58" t="n">
-        <v>231333064</v>
+        <v>233092103</v>
       </c>
       <c r="F58" t="n">
-        <v>51514.41055603333</v>
+        <v>45968.97736871179</v>
       </c>
       <c r="G58" t="n">
-        <v>70292.19000584816</v>
+        <v>104792.9413354913</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>93780931</v>
+        <v>93324205</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23065732</v>
+        <v>23126907</v>
       </c>
       <c r="E59" t="n">
-        <v>138006913</v>
+        <v>138372934</v>
       </c>
       <c r="F59" t="n">
-        <v>25851.76076978687</v>
+        <v>26645.25952804756</v>
       </c>
       <c r="G59" t="n">
-        <v>25079.7205140669</v>
+        <v>24371.30669531077</v>
       </c>
       <c r="H59" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>18129862</v>
+        <v>18012503</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2590495</v>
+        <v>2599811</v>
       </c>
       <c r="E60" t="n">
-        <v>4780906</v>
+        <v>4798100</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>14.60986814471709</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>313.8948703069971</v>
       </c>
       <c r="H60" t="n">
-        <v>14.04</v>
+        <v>2.98</v>
       </c>
       <c r="I60" t="n">
-        <v>369107</v>
+        <v>454710</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9403975</v>
+        <v>9446764</v>
       </c>
       <c r="E62" t="n">
-        <v>27878444</v>
+        <v>28005296</v>
       </c>
       <c r="F62" t="n">
-        <v>5648.442564740681</v>
+        <v>4685.564933931039</v>
       </c>
       <c r="G62" t="n">
-        <v>3392.899359297027</v>
+        <v>4322.121254608439</v>
       </c>
       <c r="H62" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>6795429</v>
+        <v>6543797</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14441299</v>
+        <v>14453999</v>
       </c>
       <c r="E63" t="n">
-        <v>29235528</v>
+        <v>29261238</v>
       </c>
       <c r="F63" t="n">
-        <v>7369.825458140329</v>
+        <v>5866.045230406896</v>
       </c>
       <c r="G63" t="n">
-        <v>15794.02189975902</v>
+        <v>15914.95429890404</v>
       </c>
       <c r="H63" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="I63" t="n">
-        <v>467149</v>
+        <v>453365</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>34007642</v>
+        <v>33140220</v>
       </c>
       <c r="E64" t="n">
-        <v>241108633</v>
+        <v>234958751</v>
       </c>
       <c r="F64" t="n">
-        <v>55894.09437187447</v>
+        <v>62189.98959704373</v>
       </c>
       <c r="G64" t="n">
-        <v>58459.36076298775</v>
+        <v>51216.41651185867</v>
       </c>
       <c r="H64" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>6360710</v>
+        <v>6542389</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1288505</v>
+        <v>1289850</v>
       </c>
       <c r="E65" t="n">
-        <v>7988848</v>
+        <v>7997189</v>
       </c>
       <c r="F65" t="n">
-        <v>144.2989684274769</v>
+        <v>202.5198620950841</v>
       </c>
       <c r="G65" t="n">
-        <v>129.3677081670602</v>
+        <v>121.9161098123846</v>
       </c>
       <c r="H65" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="I65" t="n">
-        <v>775276</v>
+        <v>772591</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>582299414</v>
+        <v>583070583</v>
       </c>
       <c r="E66" t="n">
-        <v>2255159719</v>
+        <v>2258146344</v>
       </c>
       <c r="F66" t="n">
-        <v>44928.41873302292</v>
+        <v>49414.43399467346</v>
       </c>
       <c r="G66" t="n">
-        <v>43804.35574682253</v>
+        <v>45030.42134336785</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>62329396</v>
+        <v>61872769</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5448372</v>
+        <v>5432757</v>
       </c>
       <c r="E67" t="n">
-        <v>24387782</v>
+        <v>24317886</v>
       </c>
       <c r="F67" t="n">
-        <v>2125.442891048148</v>
+        <v>3877.878533811666</v>
       </c>
       <c r="G67" t="n">
-        <v>18857.45030787423</v>
+        <v>18720.40715769607</v>
       </c>
       <c r="H67" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>197837</v>
+        <v>192228</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>109071012</v>
+        <v>109540499</v>
       </c>
       <c r="E68" t="n">
-        <v>1032004033</v>
+        <v>1036446209</v>
       </c>
       <c r="F68" t="n">
-        <v>3855.742420106832</v>
+        <v>6089.120661810675</v>
       </c>
       <c r="G68" t="n">
-        <v>5917.83589518626</v>
+        <v>6975.705332844488</v>
       </c>
       <c r="H68" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I68" t="n">
-        <v>17931029</v>
+        <v>17789821</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>98672572</v>
+        <v>99048683</v>
       </c>
       <c r="E69" t="n">
-        <v>150527322</v>
+        <v>151101087</v>
       </c>
       <c r="F69" t="n">
-        <v>1222.305448753775</v>
+        <v>2006.333893051876</v>
       </c>
       <c r="G69" t="n">
-        <v>18736.47070408524</v>
+        <v>20801.88691358395</v>
       </c>
       <c r="H69" t="n">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="I69" t="n">
-        <v>12368371</v>
+        <v>12144233</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1063690</v>
+        <v>1068292</v>
       </c>
       <c r="E70" t="n">
-        <v>4118839</v>
+        <v>4136660</v>
       </c>
       <c r="F70" t="n">
-        <v>2173.327754864955</v>
+        <v>2456.573128811005</v>
       </c>
       <c r="G70" t="n">
-        <v>3633.73708083414</v>
+        <v>2404.478558932187</v>
       </c>
       <c r="H70" t="n">
-        <v>0.17</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>197256</v>
+        <v>275278</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>122278087</v>
+        <v>122972292</v>
       </c>
       <c r="E71" t="n">
-        <v>469078424</v>
+        <v>471741506</v>
       </c>
       <c r="F71" t="n">
-        <v>13274.52554737892</v>
+        <v>14339.44645892863</v>
       </c>
       <c r="G71" t="n">
-        <v>12172.73344665684</v>
+        <v>10259.69167380125</v>
       </c>
       <c r="H71" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>32654162</v>
+        <v>32484582</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3087661</v>
+        <v>3099506</v>
       </c>
       <c r="E72" t="n">
-        <v>29256045</v>
+        <v>29368274</v>
       </c>
       <c r="F72" t="n">
-        <v>2.456726256663976</v>
+        <v>35.46194277125905</v>
       </c>
       <c r="G72" t="n">
-        <v>290.2655566027684</v>
+        <v>235.5543109699352</v>
       </c>
       <c r="H72" t="n">
         <v>0.03</v>
       </c>
       <c r="I72" t="n">
-        <v>228187</v>
+        <v>275518</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>41955767</v>
+        <v>42216685</v>
       </c>
       <c r="F73" t="n">
-        <v>2796.152048468697</v>
+        <v>1209.219355467824</v>
       </c>
       <c r="G73" t="n">
-        <v>1022.374798264307</v>
+        <v>2432.35852699039</v>
       </c>
       <c r="H73" t="n">
         <v>0.08</v>
       </c>
       <c r="I73" t="n">
-        <v>10468302</v>
+        <v>10366775</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>91729722</v>
+        <v>91959375</v>
       </c>
       <c r="E74" t="n">
-        <v>339061868</v>
+        <v>339910115</v>
       </c>
       <c r="F74" t="n">
-        <v>33.81267107209737</v>
+        <v>33.89767846095157</v>
       </c>
       <c r="G74" t="n">
-        <v>315.6889138959208</v>
+        <v>353.6896887973012</v>
       </c>
       <c r="H74" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="I74" t="n">
-        <v>320659</v>
+        <v>322294</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22511866</v>
+        <v>23030805</v>
       </c>
       <c r="E75" t="n">
-        <v>22511866</v>
+        <v>23030805</v>
       </c>
       <c r="F75" t="n">
-        <v>5558.648386703385</v>
+        <v>4876.556926736424</v>
       </c>
       <c r="G75" t="n">
-        <v>1247.510066643217</v>
+        <v>1888.21990581005</v>
       </c>
       <c r="H75" t="n">
-        <v>0.42</v>
+        <v>0.06</v>
       </c>
       <c r="I75" t="n">
-        <v>5566771</v>
+        <v>5402863</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>468148337</v>
+        <v>470852582</v>
       </c>
       <c r="E76" t="n">
-        <v>1628759485</v>
+        <v>1638167968</v>
       </c>
       <c r="F76" t="n">
-        <v>85048.79889964635</v>
+        <v>95949.96191045651</v>
       </c>
       <c r="G76" t="n">
-        <v>95475.48301152626</v>
+        <v>99235.30487395117</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>50410187</v>
+        <v>49102942</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5603602509</v>
+        <v>5601108201</v>
       </c>
       <c r="E77" t="n">
-        <v>5603602509</v>
+        <v>5600994509</v>
       </c>
       <c r="F77" t="n">
-        <v>1552.869048706601</v>
+        <v>1552.77398655274</v>
       </c>
       <c r="G77" t="n">
-        <v>1193.56993970779</v>
+        <v>1193.496872806657</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35519410</v>
+        <v>35694730</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7032029</v>
+        <v>7108724</v>
       </c>
       <c r="E78" t="n">
-        <v>18268456</v>
+        <v>18467700</v>
       </c>
       <c r="F78" t="n">
-        <v>377.1835437426918</v>
+        <v>376.2584072891363</v>
       </c>
       <c r="G78" t="n">
-        <v>189.5059995886182</v>
+        <v>964.4394122674746</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="I78" t="n">
-        <v>795691</v>
+        <v>791780</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>108491290</v>
+        <v>107727067</v>
       </c>
       <c r="E79" t="n">
-        <v>164376839</v>
+        <v>163218953</v>
       </c>
       <c r="F79" t="n">
-        <v>37242.6055181292</v>
+        <v>40153.65220313917</v>
       </c>
       <c r="G79" t="n">
-        <v>42305.3395055694</v>
+        <v>45024.58724219377</v>
       </c>
       <c r="H79" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>10031567</v>
+        <v>10044892</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2300322</v>
+        <v>2296285</v>
       </c>
       <c r="E80" t="n">
-        <v>9201289</v>
+        <v>9185138</v>
       </c>
       <c r="F80" t="n">
-        <v>1767.57486209778</v>
+        <v>1256.542016210424</v>
       </c>
       <c r="G80" t="n">
-        <v>1361.951014971635</v>
+        <v>1774.350804959807</v>
       </c>
       <c r="H80" t="n">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="I80" t="n">
-        <v>8033123</v>
+        <v>7359690</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2285119</v>
+        <v>2233865</v>
       </c>
       <c r="F81" t="n">
-        <v>5.037128756546156</v>
+        <v>62.5333592291585</v>
       </c>
       <c r="G81" t="n">
-        <v>441.2649829979808</v>
+        <v>411.4374287748208</v>
       </c>
       <c r="H81" t="n">
-        <v>0.89</v>
+        <v>1.71</v>
       </c>
       <c r="I81" t="n">
-        <v>167243</v>
+        <v>160459</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>379663916</v>
+        <v>378777703</v>
       </c>
       <c r="E82" t="n">
-        <v>2169508092</v>
+        <v>2164444017</v>
       </c>
       <c r="F82" t="n">
-        <v>37564.21938941952</v>
+        <v>36349.67815565048</v>
       </c>
       <c r="G82" t="n">
-        <v>45234.70398602491</v>
+        <v>40319.88994182669</v>
       </c>
       <c r="H82" t="n">
         <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>63556728</v>
+        <v>64830084</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3793603</v>
+        <v>3830155</v>
       </c>
       <c r="F2" t="n">
-        <v>237.8640739761628</v>
+        <v>273.8385530910113</v>
       </c>
       <c r="G2" t="n">
-        <v>429.2670208704134</v>
+        <v>485.7081881763443</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="I2" t="n">
-        <v>136732</v>
+        <v>135142</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1517931</v>
+        <v>1541729</v>
       </c>
       <c r="E3" t="n">
-        <v>4906577</v>
+        <v>4983500</v>
       </c>
       <c r="F3" t="n">
-        <v>5661.640395558522</v>
+        <v>6619.160452828701</v>
       </c>
       <c r="G3" t="n">
-        <v>2953.245582119671</v>
+        <v>3725.620835740639</v>
       </c>
       <c r="H3" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="I3" t="n">
-        <v>281698</v>
+        <v>288281</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251839852</v>
+        <v>251938715</v>
       </c>
       <c r="E4" t="n">
-        <v>1579252312</v>
+        <v>1579872272</v>
       </c>
       <c r="F4" t="n">
-        <v>10427.52791441749</v>
+        <v>11287.03577951658</v>
       </c>
       <c r="G4" t="n">
-        <v>28762.39881808483</v>
+        <v>30165.77291964613</v>
       </c>
       <c r="H4" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>29916697</v>
+        <v>29687397</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140409653</v>
+        <v>140652894</v>
       </c>
       <c r="E5" t="n">
-        <v>155595839</v>
+        <v>155865388</v>
       </c>
       <c r="F5" t="n">
-        <v>23261.47059671053</v>
+        <v>28274.87783474939</v>
       </c>
       <c r="G5" t="n">
-        <v>33125.20154267144</v>
+        <v>24222.63280791921</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>52726564</v>
+        <v>52239144</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117243328</v>
+        <v>117114262</v>
       </c>
       <c r="E6" t="n">
-        <v>459558741</v>
+        <v>459052841</v>
       </c>
       <c r="F6" t="n">
-        <v>10282.75883146071</v>
+        <v>12965.30980554705</v>
       </c>
       <c r="G6" t="n">
-        <v>11602.18861534614</v>
+        <v>11556.01808296206</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>25493687</v>
+        <v>25126099</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4374743</v>
+        <v>4349571</v>
       </c>
       <c r="E7" t="n">
-        <v>26860130</v>
+        <v>26705579</v>
       </c>
       <c r="F7" t="n">
-        <v>293.8061348936405</v>
+        <v>285.2399204592899</v>
       </c>
       <c r="G7" t="n">
-        <v>1412.851356742121</v>
+        <v>305.2230419276474</v>
       </c>
       <c r="H7" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I7" t="n">
-        <v>428075</v>
+        <v>301315</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>174127</v>
+        <v>174443</v>
       </c>
       <c r="E8" t="n">
-        <v>1915584</v>
+        <v>1919068</v>
       </c>
       <c r="F8" t="n">
-        <v>2166.933164245338</v>
+        <v>2059.466704033674</v>
       </c>
       <c r="G8" t="n">
-        <v>1539.909772209169</v>
+        <v>1755.695647086218</v>
       </c>
       <c r="H8" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I8" t="n">
-        <v>52081</v>
+        <v>52710</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69503727</v>
+        <v>69656016</v>
       </c>
       <c r="E9" t="n">
-        <v>120300423</v>
+        <v>120561132</v>
       </c>
       <c r="F9" t="n">
-        <v>1932.358923067137</v>
+        <v>889.1195030207276</v>
       </c>
       <c r="G9" t="n">
-        <v>1453.604514887058</v>
+        <v>1033.642865667349</v>
       </c>
       <c r="H9" t="n">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>691973</v>
+        <v>670253</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8786172</v>
+        <v>8804579</v>
       </c>
       <c r="E10" t="n">
-        <v>12436174</v>
+        <v>12462228</v>
       </c>
       <c r="F10" t="n">
-        <v>3074.987610030238</v>
+        <v>3074.688901032505</v>
       </c>
       <c r="G10" t="n">
-        <v>2912.43284254422</v>
+        <v>2906.998983508121</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>10729.25</v>
+        <v>12944.93</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>472368129</v>
+        <v>472258018</v>
       </c>
       <c r="E11" t="n">
-        <v>472368131</v>
+        <v>472258018</v>
       </c>
       <c r="F11" t="n">
-        <v>15384.44662755568</v>
+        <v>15706.14257702757</v>
       </c>
       <c r="G11" t="n">
-        <v>28043.21248825048</v>
+        <v>27766.62975888443</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>73203581</v>
+        <v>69294281</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>295874</v>
+        <v>289723</v>
       </c>
       <c r="E12" t="n">
-        <v>1381168</v>
+        <v>1352457</v>
       </c>
       <c r="F12" t="n">
-        <v>74.12821179404055</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>251.4734314497765</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.47</v>
+        <v>4.55</v>
       </c>
       <c r="I12" t="n">
-        <v>633921</v>
+        <v>638676</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1716483</v>
+        <v>1840424</v>
       </c>
       <c r="F13" t="n">
-        <v>4111.702593274508</v>
+        <v>1493.524523087958</v>
       </c>
       <c r="G13" t="n">
-        <v>1045.609258518671</v>
+        <v>455.852803539853</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>1205789</v>
+        <v>742729</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11893956</v>
+        <v>11863952</v>
       </c>
       <c r="E14" t="n">
-        <v>29601905</v>
+        <v>29527231</v>
       </c>
       <c r="F14" t="n">
-        <v>936.1184265066388</v>
+        <v>1462.626598546131</v>
       </c>
       <c r="G14" t="n">
-        <v>1341.496816711765</v>
+        <v>1326.702486140422</v>
       </c>
       <c r="H14" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="I14" t="n">
-        <v>1516424</v>
+        <v>1565912</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115141523</v>
+        <v>115172760</v>
       </c>
       <c r="E15" t="n">
-        <v>447368222</v>
+        <v>447463811</v>
       </c>
       <c r="F15" t="n">
-        <v>5500.746306600147</v>
+        <v>8270.202950753652</v>
       </c>
       <c r="G15" t="n">
-        <v>6759.008054022651</v>
+        <v>7946.102014186679</v>
       </c>
       <c r="H15" t="n">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="I15" t="n">
-        <v>13407414</v>
+        <v>13044890</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4964412</v>
+        <v>4802877</v>
       </c>
       <c r="E16" t="n">
-        <v>7307884</v>
+        <v>7070094</v>
       </c>
       <c r="F16" t="n">
-        <v>4021.001527852466</v>
+        <v>50.00600713648458</v>
       </c>
       <c r="G16" t="n">
-        <v>1909.08128401206</v>
+        <v>191.5399631427066</v>
       </c>
       <c r="H16" t="n">
-        <v>0.83</v>
+        <v>1.55</v>
       </c>
       <c r="I16" t="n">
-        <v>164958</v>
+        <v>658351</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>432173</v>
+        <v>430920</v>
       </c>
       <c r="E17" t="n">
-        <v>1787635</v>
+        <v>1782450</v>
       </c>
       <c r="F17" t="n">
-        <v>683.0896783494849</v>
+        <v>550.5235992651465</v>
       </c>
       <c r="G17" t="n">
-        <v>1000.93355837468</v>
+        <v>802.8358703224665</v>
       </c>
       <c r="H17" t="n">
-        <v>1.51</v>
+        <v>1.97</v>
       </c>
       <c r="I17" t="n">
-        <v>73176</v>
+        <v>63100</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>139108432</v>
+        <v>139484243</v>
       </c>
       <c r="E18" t="n">
-        <v>139108432</v>
+        <v>139484243</v>
       </c>
       <c r="F18" t="n">
-        <v>68606.34801858506</v>
+        <v>57974.7200642772</v>
       </c>
       <c r="G18" t="n">
-        <v>69095.44499255629</v>
+        <v>60117.48319712759</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>95250791</v>
+        <v>94410276</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63483973</v>
+        <v>63222012</v>
       </c>
       <c r="E19" t="n">
-        <v>325558835</v>
+        <v>324215444</v>
       </c>
       <c r="F19" t="n">
-        <v>14061.42938302234</v>
+        <v>13248.08351595997</v>
       </c>
       <c r="G19" t="n">
-        <v>9160.908779038466</v>
+        <v>7407.105471003004</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>23461700</v>
+        <v>24011215</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251162649</v>
+        <v>250533914</v>
       </c>
       <c r="E20" t="n">
-        <v>251162649</v>
+        <v>250533914</v>
       </c>
       <c r="F20" t="n">
-        <v>64700.40389188203</v>
+        <v>75356.90702775575</v>
       </c>
       <c r="G20" t="n">
-        <v>52859.01114470055</v>
+        <v>48324.19638763472</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I20" t="n">
-        <v>28189622</v>
+        <v>28459482</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>179025118</v>
+        <v>180172517</v>
       </c>
       <c r="E21" t="n">
-        <v>235576117</v>
+        <v>237085961</v>
       </c>
       <c r="F21" t="n">
-        <v>21385.18157878141</v>
+        <v>16893.2551168553</v>
       </c>
       <c r="G21" t="n">
-        <v>9615.564622073589</v>
+        <v>9954.987104404849</v>
       </c>
       <c r="H21" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="I21" t="n">
-        <v>18970789</v>
+        <v>18996789</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79059733</v>
+        <v>78409631</v>
       </c>
       <c r="E22" t="n">
-        <v>221225880</v>
+        <v>219445091</v>
       </c>
       <c r="F22" t="n">
-        <v>24486.55699563048</v>
+        <v>30438.06978108763</v>
       </c>
       <c r="G22" t="n">
-        <v>27210.04001142138</v>
+        <v>22318.16674660485</v>
       </c>
       <c r="H22" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I22" t="n">
-        <v>57565054</v>
+        <v>60964146</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>85471819</v>
+        <v>85205464</v>
       </c>
       <c r="E23" t="n">
-        <v>178201879</v>
+        <v>177646549</v>
       </c>
       <c r="F23" t="n">
-        <v>15732.01184161729</v>
+        <v>22505.88261075057</v>
       </c>
       <c r="G23" t="n">
-        <v>21370.96019085226</v>
+        <v>18940.98983537655</v>
       </c>
       <c r="H23" t="n">
         <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>84836473</v>
+        <v>85765180</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>638277884</v>
+        <v>635993901</v>
       </c>
       <c r="E24" t="n">
-        <v>638277884</v>
+        <v>635993901</v>
       </c>
       <c r="F24" t="n">
-        <v>132309.1063337456</v>
+        <v>164538.2624789955</v>
       </c>
       <c r="G24" t="n">
-        <v>107954.5779048351</v>
+        <v>93203.6400475555</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>551798241</v>
+        <v>550880595</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>195310409</v>
+        <v>193289298</v>
       </c>
       <c r="E25" t="n">
-        <v>678526012</v>
+        <v>671504490</v>
       </c>
       <c r="F25" t="n">
-        <v>70324.07402724492</v>
+        <v>65204.58209567122</v>
       </c>
       <c r="G25" t="n">
-        <v>94223.06551147692</v>
+        <v>101977.9869332403</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>41343114</v>
+        <v>41842631</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5537125</v>
+        <v>5558694</v>
       </c>
       <c r="E26" t="n">
-        <v>7513712</v>
+        <v>7543157</v>
       </c>
       <c r="F26" t="n">
-        <v>260.3344885083142</v>
+        <v>242.1398897988471</v>
       </c>
       <c r="G26" t="n">
-        <v>200.4856691421123</v>
+        <v>2422.913675908457</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="I26" t="n">
-        <v>5674308</v>
+        <v>5691941</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14414275</v>
+        <v>14427480</v>
       </c>
       <c r="F27" t="n">
-        <v>2292.437386935034</v>
+        <v>2363.768922595407</v>
       </c>
       <c r="G27" t="n">
-        <v>2368.780290774335</v>
+        <v>2759.188431092531</v>
       </c>
       <c r="H27" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I27" t="n">
-        <v>222735</v>
+        <v>230311</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25024399</v>
+        <v>25120210</v>
       </c>
       <c r="E28" t="n">
-        <v>35363510</v>
+        <v>35498907</v>
       </c>
       <c r="F28" t="n">
-        <v>318.959734653087</v>
+        <v>287.5744307007307</v>
       </c>
       <c r="G28" t="n">
-        <v>308.1610703682369</v>
+        <v>589.3774287384972</v>
       </c>
       <c r="H28" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="I28" t="n">
-        <v>185364</v>
+        <v>186109</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>261608320</v>
+        <v>262285374</v>
       </c>
       <c r="E29" t="n">
-        <v>1129246740</v>
+        <v>1132169279</v>
       </c>
       <c r="F29" t="n">
-        <v>135126.0573629019</v>
+        <v>120939.0995082878</v>
       </c>
       <c r="G29" t="n">
-        <v>124000.7333655925</v>
+        <v>123560.7050921037</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>141475784</v>
+        <v>142059374</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10402805</v>
+        <v>10287442</v>
       </c>
       <c r="E30" t="n">
-        <v>125202570</v>
+        <v>123531632</v>
       </c>
       <c r="F30" t="n">
-        <v>8561.690232847539</v>
+        <v>6007.796122466699</v>
       </c>
       <c r="G30" t="n">
-        <v>1030.068293872187</v>
+        <v>1173.257107906886</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="I30" t="n">
-        <v>513929</v>
+        <v>472220</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15695711</v>
+        <v>15766178</v>
       </c>
       <c r="E31" t="n">
-        <v>39239278</v>
+        <v>39415444</v>
       </c>
       <c r="F31" t="n">
-        <v>6494.490097123324</v>
+        <v>5224.847125486091</v>
       </c>
       <c r="G31" t="n">
-        <v>6087.208880206481</v>
+        <v>9205.73441182022</v>
       </c>
       <c r="H31" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>5077736</v>
+        <v>5080190</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19033141</v>
+        <v>19083213</v>
       </c>
       <c r="F32" t="n">
-        <v>2295.152424249247</v>
+        <v>1654.505039040092</v>
       </c>
       <c r="G32" t="n">
-        <v>3224.412228152576</v>
+        <v>2666.924051161775</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.42</v>
       </c>
       <c r="I32" t="n">
-        <v>77245</v>
+        <v>76787</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1440789</v>
+        <v>1525383</v>
       </c>
       <c r="E33" t="n">
-        <v>5371197</v>
+        <v>5686559</v>
       </c>
       <c r="F33" t="n">
-        <v>2276.875708672162</v>
+        <v>2772.752499773363</v>
       </c>
       <c r="G33" t="n">
-        <v>1764.059268432638</v>
+        <v>2836.261326169823</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="I33" t="n">
-        <v>730537</v>
+        <v>777521</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4235540</v>
+        <v>4201788</v>
       </c>
       <c r="E34" t="n">
-        <v>12198837</v>
+        <v>12101628</v>
       </c>
       <c r="F34" t="n">
-        <v>4092.041706954651</v>
+        <v>4146.417587106229</v>
       </c>
       <c r="G34" t="n">
-        <v>4181.063218555208</v>
+        <v>5262.118237440126</v>
       </c>
       <c r="H34" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="I34" t="n">
-        <v>435955</v>
+        <v>420357</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14046752</v>
+        <v>14020818</v>
       </c>
       <c r="E35" t="n">
-        <v>68030662</v>
+        <v>67905057</v>
       </c>
       <c r="F35" t="n">
-        <v>2667.592388091246</v>
+        <v>4756.092597183113</v>
       </c>
       <c r="G35" t="n">
-        <v>3504.652246495461</v>
+        <v>4449.387342943996</v>
       </c>
       <c r="H35" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I35" t="n">
-        <v>5530119</v>
+        <v>5404748</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1235772</v>
+        <v>1216501</v>
       </c>
       <c r="E36" t="n">
-        <v>8088097</v>
+        <v>7961963</v>
       </c>
       <c r="F36" t="n">
-        <v>3853.006308054128</v>
+        <v>3735.332045907217</v>
       </c>
       <c r="G36" t="n">
-        <v>3307.071242331514</v>
+        <v>3336.396933943949</v>
       </c>
       <c r="H36" t="n">
-        <v>0.49</v>
+        <v>0.76</v>
       </c>
       <c r="I36" t="n">
-        <v>291912</v>
+        <v>234301</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1854412311</v>
+        <v>1849823873</v>
       </c>
       <c r="F37" t="n">
-        <v>68911.15370943681</v>
+        <v>702.9298397777428</v>
       </c>
       <c r="G37" t="n">
-        <v>75023.72121724444</v>
+        <v>187.4234920958891</v>
       </c>
       <c r="H37" t="n">
-        <v>0.48</v>
+        <v>1.29</v>
       </c>
       <c r="I37" t="n">
-        <v>31853308</v>
+        <v>32158453</v>
       </c>
     </row>
     <row r="38">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Platform</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Platform, Arcade Games</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1837609</v>
+        <v>1821418</v>
       </c>
       <c r="E38" t="n">
-        <v>13177312</v>
+        <v>13061209</v>
       </c>
       <c r="F38" t="n">
-        <v>5426.481046088638</v>
+        <v>4562.578142146238</v>
       </c>
       <c r="G38" t="n">
-        <v>5368.972065956144</v>
+        <v>5271.161413112169</v>
       </c>
       <c r="H38" t="n">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
       <c r="I38" t="n">
-        <v>2150567</v>
+        <v>2155978</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194554015</v>
+        <v>195719965</v>
       </c>
       <c r="E39" t="n">
-        <v>1101684377</v>
+        <v>1108286699</v>
       </c>
       <c r="F39" t="n">
-        <v>45423.4632769297</v>
+        <v>46342.7109759362</v>
       </c>
       <c r="G39" t="n">
-        <v>60844.11126022148</v>
+        <v>48433.95038166911</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>84209281</v>
+        <v>83047409</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>129645994</v>
+        <v>129235366</v>
       </c>
       <c r="E40" t="n">
-        <v>960340693</v>
+        <v>957299007</v>
       </c>
       <c r="F40" t="n">
-        <v>3871.41436061529</v>
+        <v>6193.585312075398</v>
       </c>
       <c r="G40" t="n">
-        <v>11223.37145526266</v>
+        <v>8219.987540299437</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I40" t="n">
-        <v>37251186</v>
+        <v>40143882</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>324662213</v>
+        <v>323572878</v>
       </c>
       <c r="E41" t="n">
-        <v>2920862587</v>
+        <v>2911062251</v>
       </c>
       <c r="F41" t="n">
-        <v>63153.34016970138</v>
+        <v>73833.52213655073</v>
       </c>
       <c r="G41" t="n">
-        <v>93206.22509104924</v>
+        <v>91249.19724723884</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>70977711</v>
+        <v>69825348</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1553734</v>
+        <v>1550521</v>
       </c>
       <c r="E42" t="n">
-        <v>12947783</v>
+        <v>12921007</v>
       </c>
       <c r="F42" t="n">
-        <v>2346.533928302903</v>
+        <v>2489.989239182572</v>
       </c>
       <c r="G42" t="n">
-        <v>2220.079274156218</v>
+        <v>1767.959393177429</v>
       </c>
       <c r="H42" t="n">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="I42" t="n">
-        <v>33143</v>
+        <v>33411</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19415366</v>
+        <v>19397825</v>
       </c>
       <c r="E43" t="n">
-        <v>58213307</v>
+        <v>58160385</v>
       </c>
       <c r="F43" t="n">
-        <v>1698.980723284471</v>
+        <v>2588.235885583633</v>
       </c>
       <c r="G43" t="n">
-        <v>3533.242660681926</v>
+        <v>4622.732802383845</v>
       </c>
       <c r="H43" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="I43" t="n">
-        <v>4166437</v>
+        <v>4126616</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8022112</v>
+        <v>7983464</v>
       </c>
       <c r="F44" t="n">
-        <v>2622.158089089939</v>
+        <v>2714.019901684128</v>
       </c>
       <c r="G44" t="n">
-        <v>2420.033893960985</v>
+        <v>1542.583665300973</v>
       </c>
       <c r="H44" t="n">
         <v>0.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1103602</v>
+        <v>1126914</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12668717</v>
+        <v>12674693</v>
       </c>
       <c r="E45" t="n">
-        <v>12668717</v>
+        <v>12674693</v>
       </c>
       <c r="F45" t="n">
-        <v>116.9226343016898</v>
+        <v>205.2199521319728</v>
       </c>
       <c r="G45" t="n">
-        <v>49.9171646021169</v>
+        <v>44.21406966466984</v>
       </c>
       <c r="H45" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="I45" t="n">
-        <v>2392823</v>
+        <v>2291336</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>283146471</v>
+        <v>290647042</v>
       </c>
       <c r="E46" t="n">
-        <v>283146471</v>
+        <v>290647042</v>
       </c>
       <c r="F46" t="n">
-        <v>10083.23639684588</v>
+        <v>5250.386463476683</v>
       </c>
       <c r="G46" t="n">
-        <v>14197.61307179606</v>
+        <v>13374.88532121427</v>
       </c>
       <c r="H46" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>17403556</v>
+        <v>18945897</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13297389</v>
+        <v>13351842</v>
       </c>
       <c r="E47" t="n">
-        <v>42057552</v>
+        <v>42229779</v>
       </c>
       <c r="F47" t="n">
-        <v>6111.667921738501</v>
+        <v>6347.284998868046</v>
       </c>
       <c r="G47" t="n">
-        <v>3409.903927040823</v>
+        <v>3378.304114973849</v>
       </c>
       <c r="H47" t="n">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>1239231</v>
+        <v>1238689</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31791250</v>
+        <v>31790460</v>
       </c>
       <c r="E48" t="n">
-        <v>88058608</v>
+        <v>88056419</v>
       </c>
       <c r="F48" t="n">
-        <v>5337.521232716806</v>
+        <v>7067.193793402981</v>
       </c>
       <c r="G48" t="n">
-        <v>1928.831477682722</v>
+        <v>1716.232875818004</v>
       </c>
       <c r="H48" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>12564570</v>
+        <v>12654135</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28875429</v>
+        <v>28864560</v>
       </c>
       <c r="E49" t="n">
-        <v>68497871</v>
+        <v>68472088</v>
       </c>
       <c r="F49" t="n">
-        <v>10928.54036928155</v>
+        <v>8114.784307290402</v>
       </c>
       <c r="G49" t="n">
-        <v>2698.627106497523</v>
+        <v>8669.536172001886</v>
       </c>
       <c r="H49" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>812560</v>
+        <v>812478</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11958425</v>
+        <v>11891021</v>
       </c>
       <c r="E50" t="n">
-        <v>18181487</v>
+        <v>18079008</v>
       </c>
       <c r="F50" t="n">
-        <v>2887.929295613067</v>
+        <v>2674.012777864484</v>
       </c>
       <c r="G50" t="n">
-        <v>2500.048589417833</v>
+        <v>2279.565853261812</v>
       </c>
       <c r="H50" t="n">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="I50" t="n">
-        <v>640229</v>
+        <v>664013</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>300695292</v>
+        <v>300326864</v>
       </c>
       <c r="E51" t="n">
-        <v>300695292</v>
+        <v>300326864</v>
       </c>
       <c r="F51" t="n">
-        <v>33593.55552153293</v>
+        <v>40292.39328783241</v>
       </c>
       <c r="G51" t="n">
-        <v>52546.56969363496</v>
+        <v>62902.57360478758</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>112912151</v>
+        <v>105099651</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84497781</v>
+        <v>84502382</v>
       </c>
       <c r="E52" t="n">
-        <v>486912658</v>
+        <v>486939171</v>
       </c>
       <c r="F52" t="n">
-        <v>41729.29147175195</v>
+        <v>43158.52906485425</v>
       </c>
       <c r="G52" t="n">
-        <v>61080.35575185138</v>
+        <v>57573.31221608794</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>21138249</v>
+        <v>21509279</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30959789</v>
+        <v>30584292</v>
       </c>
       <c r="E53" t="n">
-        <v>138619678</v>
+        <v>136938422</v>
       </c>
       <c r="F53" t="n">
-        <v>11430.65266382058</v>
+        <v>14411.99094635615</v>
       </c>
       <c r="G53" t="n">
-        <v>14049.01392799744</v>
+        <v>13463.53847996608</v>
       </c>
       <c r="H53" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>17825500</v>
+        <v>19471405</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7655079</v>
+        <v>7456664</v>
       </c>
       <c r="F54" t="n">
-        <v>2853.959135564754</v>
+        <v>4748.311164968825</v>
       </c>
       <c r="G54" t="n">
-        <v>4503.729404847941</v>
+        <v>4537.467782702252</v>
       </c>
       <c r="H54" t="n">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="I54" t="n">
-        <v>319316</v>
+        <v>319298</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4432584</v>
+        <v>4389714</v>
       </c>
       <c r="F55" t="n">
-        <v>3737.5471647668</v>
+        <v>1910.832505900486</v>
       </c>
       <c r="G55" t="n">
-        <v>984.8330616771592</v>
+        <v>1763.971498012193</v>
       </c>
       <c r="H55" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="I55" t="n">
-        <v>239051</v>
+        <v>205846</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124143298</v>
+        <v>123739416</v>
       </c>
       <c r="E56" t="n">
-        <v>2055914683</v>
+        <v>2049226077</v>
       </c>
       <c r="F56" t="n">
-        <v>21800.6957692407</v>
+        <v>25433.2495490984</v>
       </c>
       <c r="G56" t="n">
-        <v>24747.66854735951</v>
+        <v>24953.63064308233</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>46892136</v>
+        <v>53094471</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>92398915</v>
+        <v>93994248</v>
       </c>
       <c r="E57" t="n">
-        <v>93393521</v>
+        <v>95006027</v>
       </c>
       <c r="F57" t="n">
-        <v>12954.05814926184</v>
+        <v>10848.8201175161</v>
       </c>
       <c r="G57" t="n">
-        <v>25213.19654200425</v>
+        <v>22721.04891759329</v>
       </c>
       <c r="H57" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="I57" t="n">
-        <v>62005226</v>
+        <v>61249561</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>233092103</v>
+        <v>235452162</v>
       </c>
       <c r="E58" t="n">
-        <v>233092103</v>
+        <v>235452162</v>
       </c>
       <c r="F58" t="n">
-        <v>45968.97736871179</v>
+        <v>82651.21030593636</v>
       </c>
       <c r="G58" t="n">
-        <v>104792.9413354913</v>
+        <v>119044.6039814096</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>93324205</v>
+        <v>95950833</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23126907</v>
+        <v>23020168</v>
       </c>
       <c r="E59" t="n">
-        <v>138372934</v>
+        <v>137734293</v>
       </c>
       <c r="F59" t="n">
-        <v>26645.25952804756</v>
+        <v>16753.35734381513</v>
       </c>
       <c r="G59" t="n">
-        <v>24371.30669531077</v>
+        <v>23513.88662148463</v>
       </c>
       <c r="H59" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>18012503</v>
+        <v>17807705</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2599811</v>
+        <v>2496113</v>
       </c>
       <c r="E60" t="n">
-        <v>4798100</v>
+        <v>4606719</v>
       </c>
       <c r="F60" t="n">
-        <v>14.60986814471709</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>313.8948703069971</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2.98</v>
+        <v>7.42</v>
       </c>
       <c r="I60" t="n">
-        <v>454710</v>
+        <v>318062</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9446764</v>
+        <v>9765045</v>
       </c>
       <c r="E62" t="n">
-        <v>28005296</v>
+        <v>28948852</v>
       </c>
       <c r="F62" t="n">
-        <v>4685.564933931039</v>
+        <v>4958.095482667359</v>
       </c>
       <c r="G62" t="n">
-        <v>4322.121254608439</v>
+        <v>2054.026852013763</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>6543797</v>
+        <v>6649924</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14453999</v>
+        <v>14488932</v>
       </c>
       <c r="E63" t="n">
-        <v>29261238</v>
+        <v>29331959</v>
       </c>
       <c r="F63" t="n">
-        <v>5866.045230406896</v>
+        <v>7748.499593387438</v>
       </c>
       <c r="G63" t="n">
-        <v>15914.95429890404</v>
+        <v>9201.631293873352</v>
       </c>
       <c r="H63" t="n">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="I63" t="n">
-        <v>453365</v>
+        <v>443139</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33140220</v>
+        <v>33374455</v>
       </c>
       <c r="E64" t="n">
-        <v>234958751</v>
+        <v>236619441</v>
       </c>
       <c r="F64" t="n">
-        <v>62189.98959704373</v>
+        <v>63771.21819997862</v>
       </c>
       <c r="G64" t="n">
-        <v>51216.41651185867</v>
+        <v>59551.66964402751</v>
       </c>
       <c r="H64" t="n">
         <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>6542389</v>
+        <v>6580463</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1289850</v>
+        <v>1291097</v>
       </c>
       <c r="E65" t="n">
-        <v>7997189</v>
+        <v>8005725</v>
       </c>
       <c r="F65" t="n">
-        <v>202.5198620950841</v>
+        <v>218.0732491092701</v>
       </c>
       <c r="G65" t="n">
-        <v>121.9161098123846</v>
+        <v>99.99627608189049</v>
       </c>
       <c r="H65" t="n">
-        <v>1.31</v>
+        <v>0.23</v>
       </c>
       <c r="I65" t="n">
-        <v>772591</v>
+        <v>775819</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>583070583</v>
+        <v>582579619</v>
       </c>
       <c r="E66" t="n">
-        <v>2258146344</v>
+        <v>2256244912</v>
       </c>
       <c r="F66" t="n">
-        <v>49414.43399467346</v>
+        <v>46057.53831405478</v>
       </c>
       <c r="G66" t="n">
-        <v>45030.42134336785</v>
+        <v>39894.71218986909</v>
       </c>
       <c r="H66" t="n">
         <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>61872769</v>
+        <v>62007762</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5432757</v>
+        <v>5453147</v>
       </c>
       <c r="E67" t="n">
-        <v>24317886</v>
+        <v>24403293</v>
       </c>
       <c r="F67" t="n">
-        <v>3877.878533811666</v>
+        <v>3889.701626238042</v>
       </c>
       <c r="G67" t="n">
-        <v>18720.40715769607</v>
+        <v>18251.76402621921</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="I67" t="n">
-        <v>192228</v>
+        <v>195772</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>109540499</v>
+        <v>109192441</v>
       </c>
       <c r="E68" t="n">
-        <v>1036446209</v>
+        <v>1033152963</v>
       </c>
       <c r="F68" t="n">
-        <v>6089.120661810675</v>
+        <v>6421.96228970427</v>
       </c>
       <c r="G68" t="n">
-        <v>6975.705332844488</v>
+        <v>6942.338635327546</v>
       </c>
       <c r="H68" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I68" t="n">
-        <v>17789821</v>
+        <v>17942636</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>99048683</v>
+        <v>99445974</v>
       </c>
       <c r="E69" t="n">
-        <v>151101087</v>
+        <v>151707165</v>
       </c>
       <c r="F69" t="n">
-        <v>2006.333893051876</v>
+        <v>2209.491827390962</v>
       </c>
       <c r="G69" t="n">
-        <v>20801.88691358395</v>
+        <v>20688.68664649614</v>
       </c>
       <c r="H69" t="n">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="I69" t="n">
-        <v>12144233</v>
+        <v>11882602</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1068292</v>
+        <v>1058243</v>
       </c>
       <c r="E70" t="n">
-        <v>4136660</v>
+        <v>4097749</v>
       </c>
       <c r="F70" t="n">
-        <v>2456.573128811005</v>
+        <v>2916.445513319014</v>
       </c>
       <c r="G70" t="n">
-        <v>2404.478558932187</v>
+        <v>3727.917899881592</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="I70" t="n">
-        <v>275278</v>
+        <v>188042</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>122972292</v>
+        <v>120940316</v>
       </c>
       <c r="E71" t="n">
-        <v>471741506</v>
+        <v>463946517</v>
       </c>
       <c r="F71" t="n">
-        <v>14339.44645892863</v>
+        <v>12647.30362495774</v>
       </c>
       <c r="G71" t="n">
-        <v>10259.69167380125</v>
+        <v>10511.58198341015</v>
       </c>
       <c r="H71" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>32484582</v>
+        <v>32379238</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3099506</v>
+        <v>3108749</v>
       </c>
       <c r="E72" t="n">
-        <v>29368274</v>
+        <v>29455855</v>
       </c>
       <c r="F72" t="n">
-        <v>35.46194277125905</v>
+        <v>647.9792547229133</v>
       </c>
       <c r="G72" t="n">
-        <v>235.5543109699352</v>
+        <v>62.87825496271107</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03</v>
+        <v>0.84</v>
       </c>
       <c r="I72" t="n">
-        <v>275518</v>
+        <v>228105</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>42216685</v>
+        <v>42560209</v>
       </c>
       <c r="F73" t="n">
-        <v>1209.219355467824</v>
+        <v>3514.376899968751</v>
       </c>
       <c r="G73" t="n">
-        <v>2432.35852699039</v>
+        <v>1533.596771776647</v>
       </c>
       <c r="H73" t="n">
-        <v>0.08</v>
+        <v>0.49</v>
       </c>
       <c r="I73" t="n">
-        <v>10366775</v>
+        <v>10904297</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>91959375</v>
+        <v>91903864</v>
       </c>
       <c r="E74" t="n">
-        <v>339910115</v>
+        <v>339703867</v>
       </c>
       <c r="F74" t="n">
-        <v>33.89767846095157</v>
+        <v>42.42747327692972</v>
       </c>
       <c r="G74" t="n">
-        <v>353.6896887973012</v>
+        <v>1029.296071416412</v>
       </c>
       <c r="H74" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="I74" t="n">
-        <v>322294</v>
+        <v>312241</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23030805</v>
+        <v>22678613</v>
       </c>
       <c r="E75" t="n">
-        <v>23030805</v>
+        <v>22678613</v>
       </c>
       <c r="F75" t="n">
-        <v>4876.556926736424</v>
+        <v>3855.09506034882</v>
       </c>
       <c r="G75" t="n">
-        <v>1888.21990581005</v>
+        <v>2606.872420200539</v>
       </c>
       <c r="H75" t="n">
-        <v>0.06</v>
+        <v>0.67</v>
       </c>
       <c r="I75" t="n">
-        <v>5402863</v>
+        <v>5728310</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>470852582</v>
+        <v>465565582</v>
       </c>
       <c r="E76" t="n">
-        <v>1638167968</v>
+        <v>1619773687</v>
       </c>
       <c r="F76" t="n">
-        <v>95949.96191045651</v>
+        <v>117070.6778300531</v>
       </c>
       <c r="G76" t="n">
-        <v>99235.30487395117</v>
+        <v>98102.78075056495</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>49102942</v>
+        <v>48771053</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5601108201</v>
+        <v>5615361304</v>
       </c>
       <c r="E77" t="n">
-        <v>5600994509</v>
+        <v>5615361304</v>
       </c>
       <c r="F77" t="n">
-        <v>1552.77398655274</v>
+        <v>1554.436292664534</v>
       </c>
       <c r="G77" t="n">
-        <v>1193.496872806657</v>
+        <v>1194.774558524769</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35694730</v>
+        <v>35851652</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7108724</v>
+        <v>7396477</v>
       </c>
       <c r="E78" t="n">
-        <v>18467700</v>
+        <v>19215251</v>
       </c>
       <c r="F78" t="n">
-        <v>376.2584072891363</v>
+        <v>61.04259662623635</v>
       </c>
       <c r="G78" t="n">
-        <v>964.4394122674746</v>
+        <v>119.0973199676317</v>
       </c>
       <c r="H78" t="n">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="I78" t="n">
-        <v>791780</v>
+        <v>800484</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>107727067</v>
+        <v>107133486</v>
       </c>
       <c r="E79" t="n">
-        <v>163218953</v>
+        <v>162319610</v>
       </c>
       <c r="F79" t="n">
-        <v>40153.65220313917</v>
+        <v>38809.70149006243</v>
       </c>
       <c r="G79" t="n">
-        <v>45024.58724219377</v>
+        <v>39609.1895068867</v>
       </c>
       <c r="H79" t="n">
         <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>10044892</v>
+        <v>9481571</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2296285</v>
+        <v>2288951</v>
       </c>
       <c r="E80" t="n">
-        <v>9185138</v>
+        <v>9155803</v>
       </c>
       <c r="F80" t="n">
-        <v>1256.542016210424</v>
+        <v>1324.828365934389</v>
       </c>
       <c r="G80" t="n">
-        <v>1774.350804959807</v>
+        <v>1639.514253355946</v>
       </c>
       <c r="H80" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="I80" t="n">
-        <v>7359690</v>
+        <v>8168177</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2233865</v>
+        <v>2200859</v>
       </c>
       <c r="F81" t="n">
-        <v>62.5333592291585</v>
+        <v>516.9008168785782</v>
       </c>
       <c r="G81" t="n">
-        <v>411.4374287748208</v>
+        <v>6.832674761516554</v>
       </c>
       <c r="H81" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="I81" t="n">
-        <v>160459</v>
+        <v>152659</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>378777703</v>
+        <v>378926118</v>
       </c>
       <c r="E82" t="n">
-        <v>2164444017</v>
+        <v>2165292106</v>
       </c>
       <c r="F82" t="n">
-        <v>36349.67815565048</v>
+        <v>33592.4425592258</v>
       </c>
       <c r="G82" t="n">
-        <v>40319.88994182669</v>
+        <v>44369.12277470502</v>
       </c>
       <c r="H82" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>64830084</v>
+        <v>64541990</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3830155</v>
+        <v>3848344</v>
       </c>
       <c r="F2" t="n">
-        <v>273.8385530910113</v>
+        <v>213.8410810267016</v>
       </c>
       <c r="G2" t="n">
-        <v>485.7081881763443</v>
+        <v>446.8321277772259</v>
       </c>
       <c r="H2" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="I2" t="n">
-        <v>135142</v>
+        <v>130593</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1541729</v>
+        <v>1578637</v>
       </c>
       <c r="E3" t="n">
-        <v>4983500</v>
+        <v>5102802</v>
       </c>
       <c r="F3" t="n">
-        <v>6619.160452828701</v>
+        <v>6703.462116971411</v>
       </c>
       <c r="G3" t="n">
-        <v>3725.620835740639</v>
+        <v>3097.696773936091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="I3" t="n">
-        <v>288281</v>
+        <v>298606</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251938715</v>
+        <v>253085681</v>
       </c>
       <c r="E4" t="n">
-        <v>1579872272</v>
+        <v>1587064734</v>
       </c>
       <c r="F4" t="n">
-        <v>11287.03577951658</v>
+        <v>9772.586294576617</v>
       </c>
       <c r="G4" t="n">
-        <v>30165.77291964613</v>
+        <v>32109.40014545301</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>29687397</v>
+        <v>29641484</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140652894</v>
+        <v>141431940</v>
       </c>
       <c r="E5" t="n">
-        <v>155865388</v>
+        <v>156728693</v>
       </c>
       <c r="F5" t="n">
-        <v>28274.87783474939</v>
+        <v>27801.05290572712</v>
       </c>
       <c r="G5" t="n">
-        <v>24222.63280791921</v>
+        <v>39944.20467448699</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>52239144</v>
+        <v>51791959</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117114262</v>
+        <v>117680666</v>
       </c>
       <c r="E6" t="n">
-        <v>459052841</v>
+        <v>461272974</v>
       </c>
       <c r="F6" t="n">
-        <v>12965.30980554705</v>
+        <v>11553.15678152613</v>
       </c>
       <c r="G6" t="n">
-        <v>11556.01808296206</v>
+        <v>12964.9917023822</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>25126099</v>
+        <v>25493382</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4349571</v>
+        <v>4389054</v>
       </c>
       <c r="E7" t="n">
-        <v>26705579</v>
+        <v>26947986</v>
       </c>
       <c r="F7" t="n">
-        <v>285.2399204592899</v>
+        <v>386.211184709023</v>
       </c>
       <c r="G7" t="n">
-        <v>305.2230419276474</v>
+        <v>429.7745804411624</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I7" t="n">
-        <v>301315</v>
+        <v>397610</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>174443</v>
+        <v>181549</v>
       </c>
       <c r="E8" t="n">
-        <v>1919068</v>
+        <v>1997243</v>
       </c>
       <c r="F8" t="n">
-        <v>2059.466704033674</v>
+        <v>1955.744563444717</v>
       </c>
       <c r="G8" t="n">
-        <v>1755.695647086218</v>
+        <v>338.0928250028888</v>
       </c>
       <c r="H8" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I8" t="n">
-        <v>52710</v>
+        <v>55116</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69656016</v>
+        <v>69479181</v>
       </c>
       <c r="E9" t="n">
-        <v>120561132</v>
+        <v>120252192</v>
       </c>
       <c r="F9" t="n">
-        <v>889.1195030207276</v>
+        <v>744.7694100141975</v>
       </c>
       <c r="G9" t="n">
-        <v>1033.642865667349</v>
+        <v>1927.690582241847</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="I9" t="n">
-        <v>670253</v>
+        <v>680176</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8804579</v>
+        <v>8817221</v>
       </c>
       <c r="E10" t="n">
-        <v>12462228</v>
+        <v>12480121</v>
       </c>
       <c r="F10" t="n">
-        <v>3074.688901032505</v>
+        <v>3087.240661614204</v>
       </c>
       <c r="G10" t="n">
-        <v>2906.998983508121</v>
+        <v>3064.830308691643</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>12944.93</v>
+        <v>12975.32</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>472258018</v>
+        <v>476280996</v>
       </c>
       <c r="E11" t="n">
-        <v>472258018</v>
+        <v>476280999</v>
       </c>
       <c r="F11" t="n">
-        <v>15706.14257702757</v>
+        <v>15413.5935229831</v>
       </c>
       <c r="G11" t="n">
-        <v>27766.62975888443</v>
+        <v>43958.73372454658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>69294281</v>
+        <v>73790590</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>289723</v>
+        <v>303833</v>
       </c>
       <c r="E12" t="n">
-        <v>1352457</v>
+        <v>1418325</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4.55</v>
+        <v>3.93</v>
       </c>
       <c r="I12" t="n">
-        <v>638676</v>
+        <v>653629</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1840424</v>
+        <v>1744372</v>
       </c>
       <c r="F13" t="n">
-        <v>1493.524523087958</v>
+        <v>4174.361608272749</v>
       </c>
       <c r="G13" t="n">
-        <v>455.852803539853</v>
+        <v>244.3232942764441</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="I13" t="n">
-        <v>742729</v>
+        <v>1431641</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11863952</v>
+        <v>11873744</v>
       </c>
       <c r="E14" t="n">
-        <v>29527231</v>
+        <v>29551601</v>
       </c>
       <c r="F14" t="n">
-        <v>1462.626598546131</v>
+        <v>950.7740693006298</v>
       </c>
       <c r="G14" t="n">
-        <v>1326.702486140422</v>
+        <v>1426.547194723141</v>
       </c>
       <c r="H14" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="I14" t="n">
-        <v>1565912</v>
+        <v>1591204</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115172760</v>
+        <v>115316272</v>
       </c>
       <c r="E15" t="n">
-        <v>447463811</v>
+        <v>448004763</v>
       </c>
       <c r="F15" t="n">
-        <v>8270.202950753652</v>
+        <v>12024.63044764614</v>
       </c>
       <c r="G15" t="n">
-        <v>7946.102014186679</v>
+        <v>8914.758959351619</v>
       </c>
       <c r="H15" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I15" t="n">
-        <v>13044890</v>
+        <v>12650913</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4802877</v>
+        <v>4925416</v>
       </c>
       <c r="E16" t="n">
-        <v>7070094</v>
+        <v>7250479</v>
       </c>
       <c r="F16" t="n">
-        <v>50.00600713648458</v>
+        <v>17.83108843252787</v>
       </c>
       <c r="G16" t="n">
-        <v>191.5399631427066</v>
+        <v>499.1384342474915</v>
       </c>
       <c r="H16" t="n">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="I16" t="n">
-        <v>658351</v>
+        <v>682442</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>430920</v>
+        <v>429177</v>
       </c>
       <c r="E17" t="n">
-        <v>1782450</v>
+        <v>1775240</v>
       </c>
       <c r="F17" t="n">
-        <v>550.5235992651465</v>
+        <v>553.5803852113138</v>
       </c>
       <c r="G17" t="n">
-        <v>802.8358703224665</v>
+        <v>846.4187961965788</v>
       </c>
       <c r="H17" t="n">
-        <v>1.97</v>
+        <v>0.28</v>
       </c>
       <c r="I17" t="n">
-        <v>63100</v>
+        <v>60791</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>139484243</v>
+        <v>140218857</v>
       </c>
       <c r="E18" t="n">
-        <v>139484243</v>
+        <v>140218857</v>
       </c>
       <c r="F18" t="n">
-        <v>57974.7200642772</v>
+        <v>54554.14931876396</v>
       </c>
       <c r="G18" t="n">
-        <v>60117.48319712759</v>
+        <v>100539.5498501771</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>94410276</v>
+        <v>93605199</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63222012</v>
+        <v>63158677</v>
       </c>
       <c r="E19" t="n">
-        <v>324215444</v>
+        <v>323890650</v>
       </c>
       <c r="F19" t="n">
-        <v>13248.08351595997</v>
+        <v>22281.71823256991</v>
       </c>
       <c r="G19" t="n">
-        <v>7407.105471003004</v>
+        <v>8878.308569992134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>24011215</v>
+        <v>23622559</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>250533914</v>
+        <v>251522906</v>
       </c>
       <c r="E20" t="n">
-        <v>250533914</v>
+        <v>251522906</v>
       </c>
       <c r="F20" t="n">
-        <v>75356.90702775575</v>
+        <v>54224.49449600329</v>
       </c>
       <c r="G20" t="n">
-        <v>48324.19638763472</v>
+        <v>62076.7767406819</v>
       </c>
       <c r="H20" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>28459482</v>
+        <v>28609325</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>180172517</v>
+        <v>176799530</v>
       </c>
       <c r="E21" t="n">
-        <v>237085961</v>
+        <v>232647504</v>
       </c>
       <c r="F21" t="n">
-        <v>16893.2551168553</v>
+        <v>16363.71275406683</v>
       </c>
       <c r="G21" t="n">
-        <v>9954.987104404849</v>
+        <v>12150.90739375884</v>
       </c>
       <c r="H21" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="I21" t="n">
-        <v>18996789</v>
+        <v>15888878</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78409631</v>
+        <v>78730306</v>
       </c>
       <c r="E22" t="n">
-        <v>219445091</v>
+        <v>220330795</v>
       </c>
       <c r="F22" t="n">
-        <v>30438.06978108763</v>
+        <v>25692.48312340231</v>
       </c>
       <c r="G22" t="n">
-        <v>22318.16674660485</v>
+        <v>25971.92359613436</v>
       </c>
       <c r="H22" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="I22" t="n">
-        <v>60964146</v>
+        <v>52775044</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>85205464</v>
+        <v>84377531</v>
       </c>
       <c r="E23" t="n">
-        <v>177646549</v>
+        <v>175920374</v>
       </c>
       <c r="F23" t="n">
-        <v>22505.88261075057</v>
+        <v>20388.56515091626</v>
       </c>
       <c r="G23" t="n">
-        <v>18940.98983537655</v>
+        <v>20342.83353041523</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I23" t="n">
-        <v>85765180</v>
+        <v>85475651</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>635993901</v>
+        <v>642648148</v>
       </c>
       <c r="E24" t="n">
-        <v>635993901</v>
+        <v>642648148</v>
       </c>
       <c r="F24" t="n">
-        <v>164538.2624789955</v>
+        <v>129141.6599757473</v>
       </c>
       <c r="G24" t="n">
-        <v>93203.6400475555</v>
+        <v>94798.95797180435</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>550880595</v>
+        <v>553007160</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>193289298</v>
+        <v>193782521</v>
       </c>
       <c r="E25" t="n">
-        <v>671504490</v>
+        <v>673217993</v>
       </c>
       <c r="F25" t="n">
-        <v>65204.58209567122</v>
+        <v>62287.8201596144</v>
       </c>
       <c r="G25" t="n">
-        <v>101977.9869332403</v>
+        <v>107802.1621432017</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I25" t="n">
-        <v>41842631</v>
+        <v>42100124</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5558694</v>
+        <v>5545683</v>
       </c>
       <c r="E26" t="n">
-        <v>7543157</v>
+        <v>7525119</v>
       </c>
       <c r="F26" t="n">
-        <v>242.1398897988471</v>
+        <v>224.1986551778199</v>
       </c>
       <c r="G26" t="n">
-        <v>2422.913675908457</v>
+        <v>2426.84086330323</v>
       </c>
       <c r="H26" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="I26" t="n">
-        <v>5691941</v>
+        <v>5751670</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14427480</v>
+        <v>14433383</v>
       </c>
       <c r="F27" t="n">
-        <v>2363.768922595407</v>
+        <v>2764.897536886874</v>
       </c>
       <c r="G27" t="n">
-        <v>2759.188431092531</v>
+        <v>1870.562855308801</v>
       </c>
       <c r="H27" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="I27" t="n">
-        <v>230311</v>
+        <v>224068</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25120210</v>
+        <v>25051340</v>
       </c>
       <c r="E28" t="n">
-        <v>35498907</v>
+        <v>35401582</v>
       </c>
       <c r="F28" t="n">
-        <v>287.5744307007307</v>
+        <v>311.9761227638877</v>
       </c>
       <c r="G28" t="n">
-        <v>589.3774287384972</v>
+        <v>526.882072561105</v>
       </c>
       <c r="H28" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I28" t="n">
-        <v>186109</v>
+        <v>179872</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>262285374</v>
+        <v>264280651</v>
       </c>
       <c r="E29" t="n">
-        <v>1132169279</v>
+        <v>1140782004</v>
       </c>
       <c r="F29" t="n">
-        <v>120939.0995082878</v>
+        <v>144058.6384197283</v>
       </c>
       <c r="G29" t="n">
-        <v>123560.7050921037</v>
+        <v>139423.521363227</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>142059374</v>
+        <v>141476030</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10287442</v>
+        <v>10267058</v>
       </c>
       <c r="E30" t="n">
-        <v>123531632</v>
+        <v>123286859</v>
       </c>
       <c r="F30" t="n">
-        <v>6007.796122466699</v>
+        <v>4795.574848777264</v>
       </c>
       <c r="G30" t="n">
-        <v>1173.257107906886</v>
+        <v>1375.462863769674</v>
       </c>
       <c r="H30" t="n">
-        <v>1.13</v>
+        <v>1.37</v>
       </c>
       <c r="I30" t="n">
-        <v>472220</v>
+        <v>442993</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15766178</v>
+        <v>15716678</v>
       </c>
       <c r="E31" t="n">
-        <v>39415444</v>
+        <v>39291696</v>
       </c>
       <c r="F31" t="n">
-        <v>5224.847125486091</v>
+        <v>4560.292736052088</v>
       </c>
       <c r="G31" t="n">
-        <v>9205.73441182022</v>
+        <v>10959.29606707851</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="I31" t="n">
-        <v>5080190</v>
+        <v>5182272</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19083213</v>
+        <v>19102660</v>
       </c>
       <c r="F32" t="n">
-        <v>1654.505039040092</v>
+        <v>1247.770628548489</v>
       </c>
       <c r="G32" t="n">
-        <v>2666.924051161775</v>
+        <v>3519.249046956014</v>
       </c>
       <c r="H32" t="n">
-        <v>0.42</v>
+        <v>0.84</v>
       </c>
       <c r="I32" t="n">
-        <v>76787</v>
+        <v>77327</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1525383</v>
+        <v>1540511</v>
       </c>
       <c r="E33" t="n">
-        <v>5686559</v>
+        <v>5742956</v>
       </c>
       <c r="F33" t="n">
-        <v>2772.752499773363</v>
+        <v>2058.230078351504</v>
       </c>
       <c r="G33" t="n">
-        <v>2836.261326169823</v>
+        <v>2435.298079559804</v>
       </c>
       <c r="H33" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I33" t="n">
-        <v>777521</v>
+        <v>748891</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4201788</v>
+        <v>4207935</v>
       </c>
       <c r="E34" t="n">
-        <v>12101628</v>
+        <v>12119332</v>
       </c>
       <c r="F34" t="n">
-        <v>4146.417587106229</v>
+        <v>153.1259949514972</v>
       </c>
       <c r="G34" t="n">
-        <v>5262.118237440126</v>
+        <v>51.50334350635335</v>
       </c>
       <c r="H34" t="n">
-        <v>0.49</v>
+        <v>1.47</v>
       </c>
       <c r="I34" t="n">
-        <v>420357</v>
+        <v>413762</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14020818</v>
+        <v>14117255</v>
       </c>
       <c r="E35" t="n">
-        <v>67905057</v>
+        <v>68372120</v>
       </c>
       <c r="F35" t="n">
-        <v>4756.092597183113</v>
+        <v>2851.979754978854</v>
       </c>
       <c r="G35" t="n">
-        <v>4449.387342943996</v>
+        <v>2537.711636766087</v>
       </c>
       <c r="H35" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="I35" t="n">
-        <v>5404748</v>
+        <v>5411201</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1216501</v>
+        <v>1213789</v>
       </c>
       <c r="E36" t="n">
-        <v>7961963</v>
+        <v>7944214</v>
       </c>
       <c r="F36" t="n">
-        <v>3735.332045907217</v>
+        <v>3111.352216951564</v>
       </c>
       <c r="G36" t="n">
-        <v>3336.396933943949</v>
+        <v>2963.458670494333</v>
       </c>
       <c r="H36" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="I36" t="n">
-        <v>234301</v>
+        <v>200945</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1849823873</v>
+        <v>1842954641</v>
       </c>
       <c r="F37" t="n">
-        <v>702.9298397777428</v>
+        <v>654.8684119671657</v>
       </c>
       <c r="G37" t="n">
-        <v>187.4234920958891</v>
+        <v>360.7679491738253</v>
       </c>
       <c r="H37" t="n">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="I37" t="n">
-        <v>32158453</v>
+        <v>32212141</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1821418</v>
+        <v>1826184</v>
       </c>
       <c r="E38" t="n">
-        <v>13061209</v>
+        <v>13095386</v>
       </c>
       <c r="F38" t="n">
-        <v>4562.578142146238</v>
+        <v>5591.507586711152</v>
       </c>
       <c r="G38" t="n">
-        <v>5271.161413112169</v>
+        <v>5341.566528506261</v>
       </c>
       <c r="H38" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I38" t="n">
-        <v>2155978</v>
+        <v>2192703</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195719965</v>
+        <v>196070379</v>
       </c>
       <c r="E39" t="n">
-        <v>1108286699</v>
+        <v>1110270959</v>
       </c>
       <c r="F39" t="n">
-        <v>46342.7109759362</v>
+        <v>39209.17735930799</v>
       </c>
       <c r="G39" t="n">
-        <v>48433.95038166911</v>
+        <v>48772.45496759559</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>83047409</v>
+        <v>82899562</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>129235366</v>
+        <v>130636136</v>
       </c>
       <c r="E40" t="n">
-        <v>957299007</v>
+        <v>967675085</v>
       </c>
       <c r="F40" t="n">
-        <v>6193.585312075398</v>
+        <v>14028.94216455708</v>
       </c>
       <c r="G40" t="n">
-        <v>8219.987540299437</v>
+        <v>19196.64695905164</v>
       </c>
       <c r="H40" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>40143882</v>
+        <v>40311053</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>323572878</v>
+        <v>322191400</v>
       </c>
       <c r="E41" t="n">
-        <v>2911062251</v>
+        <v>2898633619</v>
       </c>
       <c r="F41" t="n">
-        <v>73833.52213655073</v>
+        <v>59524.18300013628</v>
       </c>
       <c r="G41" t="n">
-        <v>91249.19724723884</v>
+        <v>93949.98261083305</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>69825348</v>
+        <v>70815550</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1550521</v>
+        <v>1549810</v>
       </c>
       <c r="E42" t="n">
-        <v>12921007</v>
+        <v>12915084</v>
       </c>
       <c r="F42" t="n">
-        <v>2489.989239182572</v>
+        <v>2385.220905255343</v>
       </c>
       <c r="G42" t="n">
-        <v>1767.959393177429</v>
+        <v>1762.761230913446</v>
       </c>
       <c r="H42" t="n">
         <v>0.85</v>
       </c>
       <c r="I42" t="n">
-        <v>33411</v>
+        <v>33458</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19397825</v>
+        <v>19519719</v>
       </c>
       <c r="E43" t="n">
-        <v>58160385</v>
+        <v>58525859</v>
       </c>
       <c r="F43" t="n">
-        <v>2588.235885583633</v>
+        <v>2186.436296333341</v>
       </c>
       <c r="G43" t="n">
-        <v>4622.732802383845</v>
+        <v>4797.149631066295</v>
       </c>
       <c r="H43" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="I43" t="n">
-        <v>4126616</v>
+        <v>4136186</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7983464</v>
+        <v>7885482</v>
       </c>
       <c r="F44" t="n">
-        <v>2714.019901684128</v>
+        <v>3283.942195462049</v>
       </c>
       <c r="G44" t="n">
-        <v>1542.583665300973</v>
+        <v>3564.725566758237</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="I44" t="n">
-        <v>1126914</v>
+        <v>1128377</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12674693</v>
+        <v>12685477</v>
       </c>
       <c r="E45" t="n">
-        <v>12674693</v>
+        <v>12685477</v>
       </c>
       <c r="F45" t="n">
-        <v>205.2199521319728</v>
+        <v>350.5137157606563</v>
       </c>
       <c r="G45" t="n">
-        <v>44.21406966466984</v>
+        <v>97.93244710489992</v>
       </c>
       <c r="H45" t="n">
-        <v>1.32</v>
+        <v>2.57</v>
       </c>
       <c r="I45" t="n">
-        <v>2291336</v>
+        <v>2184681</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>290647042</v>
+        <v>293271986</v>
       </c>
       <c r="E46" t="n">
-        <v>290647042</v>
+        <v>293271986</v>
       </c>
       <c r="F46" t="n">
-        <v>5250.386463476683</v>
+        <v>7905.085602930769</v>
       </c>
       <c r="G46" t="n">
-        <v>13374.88532121427</v>
+        <v>15600.39420791081</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>18945897</v>
+        <v>19030547</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13351842</v>
+        <v>13252522</v>
       </c>
       <c r="E47" t="n">
-        <v>42229779</v>
+        <v>41913804</v>
       </c>
       <c r="F47" t="n">
-        <v>6347.284998868046</v>
+        <v>6206.351422832133</v>
       </c>
       <c r="G47" t="n">
-        <v>3378.304114973849</v>
+        <v>3754.356476890398</v>
       </c>
       <c r="H47" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I47" t="n">
-        <v>1238689</v>
+        <v>1269661</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31790460</v>
+        <v>31768629</v>
       </c>
       <c r="E48" t="n">
-        <v>88056419</v>
+        <v>87995949</v>
       </c>
       <c r="F48" t="n">
-        <v>7067.193793402981</v>
+        <v>5365.32478466394</v>
       </c>
       <c r="G48" t="n">
-        <v>1716.232875818004</v>
+        <v>1969.46291814371</v>
       </c>
       <c r="H48" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I48" t="n">
-        <v>12654135</v>
+        <v>12612698</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28864560</v>
+        <v>28861733</v>
       </c>
       <c r="E49" t="n">
-        <v>68472088</v>
+        <v>68465382</v>
       </c>
       <c r="F49" t="n">
-        <v>8114.784307290402</v>
+        <v>8304.27244667891</v>
       </c>
       <c r="G49" t="n">
-        <v>8669.536172001886</v>
+        <v>2588.705199578912</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I49" t="n">
-        <v>812478</v>
+        <v>815573</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11891021</v>
+        <v>11841549</v>
       </c>
       <c r="E50" t="n">
-        <v>18079008</v>
+        <v>18003790</v>
       </c>
       <c r="F50" t="n">
-        <v>2674.012777864484</v>
+        <v>2821.91448229668</v>
       </c>
       <c r="G50" t="n">
-        <v>2279.565853261812</v>
+        <v>2272.233055328277</v>
       </c>
       <c r="H50" t="n">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="I50" t="n">
-        <v>664013</v>
+        <v>652977</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>300326864</v>
+        <v>301450664</v>
       </c>
       <c r="E51" t="n">
-        <v>300326864</v>
+        <v>301450664</v>
       </c>
       <c r="F51" t="n">
-        <v>40292.39328783241</v>
+        <v>42611.98841860171</v>
       </c>
       <c r="G51" t="n">
-        <v>62902.57360478758</v>
+        <v>56893.80494566759</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>105099651</v>
+        <v>91472513</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84502382</v>
+        <v>84956922</v>
       </c>
       <c r="E52" t="n">
-        <v>486939171</v>
+        <v>489558431</v>
       </c>
       <c r="F52" t="n">
-        <v>43158.52906485425</v>
+        <v>44794.92816774944</v>
       </c>
       <c r="G52" t="n">
-        <v>57573.31221608794</v>
+        <v>59582.87942008742</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>21509279</v>
+        <v>21553363</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30584292</v>
+        <v>30638311</v>
       </c>
       <c r="E53" t="n">
-        <v>136938422</v>
+        <v>137180286</v>
       </c>
       <c r="F53" t="n">
-        <v>14411.99094635615</v>
+        <v>12253.0314522435</v>
       </c>
       <c r="G53" t="n">
-        <v>13463.53847996608</v>
+        <v>15733.67261158424</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>19471405</v>
+        <v>19724474</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7456664</v>
+        <v>7458942</v>
       </c>
       <c r="F54" t="n">
-        <v>4748.311164968825</v>
+        <v>3341.759911868921</v>
       </c>
       <c r="G54" t="n">
-        <v>4537.467782702252</v>
+        <v>4508.254139660445</v>
       </c>
       <c r="H54" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="I54" t="n">
-        <v>319298</v>
+        <v>319428</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4389714</v>
+        <v>4423146</v>
       </c>
       <c r="F55" t="n">
-        <v>1910.832505900486</v>
+        <v>1598.622141798228</v>
       </c>
       <c r="G55" t="n">
-        <v>1763.971498012193</v>
+        <v>1264.323121257106</v>
       </c>
       <c r="H55" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="I55" t="n">
-        <v>205846</v>
+        <v>217990</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123739416</v>
+        <v>123050355</v>
       </c>
       <c r="E56" t="n">
-        <v>2049226077</v>
+        <v>2037814664</v>
       </c>
       <c r="F56" t="n">
-        <v>25433.2495490984</v>
+        <v>25624.89339346556</v>
       </c>
       <c r="G56" t="n">
-        <v>24953.63064308233</v>
+        <v>24872.72830433095</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>53094471</v>
+        <v>60381675</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>93994248</v>
+        <v>93478160</v>
       </c>
       <c r="E57" t="n">
-        <v>95006027</v>
+        <v>94484384</v>
       </c>
       <c r="F57" t="n">
-        <v>10848.8201175161</v>
+        <v>17518.62701463044</v>
       </c>
       <c r="G57" t="n">
-        <v>22721.04891759329</v>
+        <v>24578.53349995061</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I57" t="n">
-        <v>61249561</v>
+        <v>60507976</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>235452162</v>
+        <v>238331077</v>
       </c>
       <c r="E58" t="n">
-        <v>235452162</v>
+        <v>238331077</v>
       </c>
       <c r="F58" t="n">
-        <v>82651.21030593636</v>
+        <v>76838.37171948064</v>
       </c>
       <c r="G58" t="n">
-        <v>119044.6039814096</v>
+        <v>72662.53053485863</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>95950833</v>
+        <v>96491327</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23020168</v>
+        <v>23059702</v>
       </c>
       <c r="E59" t="n">
-        <v>137734293</v>
+        <v>137970832</v>
       </c>
       <c r="F59" t="n">
-        <v>16753.35734381513</v>
+        <v>26835.95538551939</v>
       </c>
       <c r="G59" t="n">
-        <v>23513.88662148463</v>
+        <v>24415.05605526779</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>17807705</v>
+        <v>17824156</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2496113</v>
+        <v>2563831</v>
       </c>
       <c r="E60" t="n">
-        <v>4606719</v>
+        <v>4731697</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>7.42</v>
       </c>
       <c r="I60" t="n">
-        <v>318062</v>
+        <v>463574</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9765045</v>
+        <v>9848253</v>
       </c>
       <c r="E62" t="n">
-        <v>28948852</v>
+        <v>29195523</v>
       </c>
       <c r="F62" t="n">
-        <v>4958.095482667359</v>
+        <v>3057.781922347881</v>
       </c>
       <c r="G62" t="n">
-        <v>2054.026852013763</v>
+        <v>2494.370573802193</v>
       </c>
       <c r="H62" t="n">
         <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>6649924</v>
+        <v>6761648</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14488932</v>
+        <v>14471310</v>
       </c>
       <c r="E63" t="n">
-        <v>29331959</v>
+        <v>29296283</v>
       </c>
       <c r="F63" t="n">
-        <v>7748.499593387438</v>
+        <v>7371.475502597858</v>
       </c>
       <c r="G63" t="n">
-        <v>9201.631293873352</v>
+        <v>11310.82396630213</v>
       </c>
       <c r="H63" t="n">
         <v>0.2</v>
       </c>
       <c r="I63" t="n">
-        <v>443139</v>
+        <v>434081</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33374455</v>
+        <v>33550926</v>
       </c>
       <c r="E64" t="n">
-        <v>236619441</v>
+        <v>237870591</v>
       </c>
       <c r="F64" t="n">
-        <v>63771.21819997862</v>
+        <v>43410.44581406881</v>
       </c>
       <c r="G64" t="n">
-        <v>59551.66964402751</v>
+        <v>54499.00048689719</v>
       </c>
       <c r="H64" t="n">
         <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>6580463</v>
+        <v>6599625</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1291097</v>
+        <v>1291570</v>
       </c>
       <c r="E65" t="n">
-        <v>8005725</v>
+        <v>8008658</v>
       </c>
       <c r="F65" t="n">
-        <v>218.0732491092701</v>
+        <v>118.5481155075631</v>
       </c>
       <c r="G65" t="n">
-        <v>99.99627608189049</v>
+        <v>165.4531433188717</v>
       </c>
       <c r="H65" t="n">
-        <v>0.23</v>
+        <v>1.08</v>
       </c>
       <c r="I65" t="n">
-        <v>775819</v>
+        <v>778349</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>582579619</v>
+        <v>584363722</v>
       </c>
       <c r="E66" t="n">
-        <v>2256244912</v>
+        <v>2263154478</v>
       </c>
       <c r="F66" t="n">
-        <v>46057.53831405478</v>
+        <v>74885.260201745</v>
       </c>
       <c r="G66" t="n">
-        <v>39894.71218986909</v>
+        <v>37239.949826551</v>
       </c>
       <c r="H66" t="n">
         <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>62007762</v>
+        <v>62112175</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5453147</v>
+        <v>5437921</v>
       </c>
       <c r="E67" t="n">
-        <v>24403293</v>
+        <v>24335155</v>
       </c>
       <c r="F67" t="n">
-        <v>3889.701626238042</v>
+        <v>3813.652787732115</v>
       </c>
       <c r="G67" t="n">
-        <v>18251.76402621921</v>
+        <v>18162.94412454103</v>
       </c>
       <c r="H67" t="n">
-        <v>0.54</v>
+        <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>195772</v>
+        <v>195751</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>109192441</v>
+        <v>109174531</v>
       </c>
       <c r="E68" t="n">
-        <v>1033152963</v>
+        <v>1032983508</v>
       </c>
       <c r="F68" t="n">
-        <v>6421.96228970427</v>
+        <v>6029.954628011305</v>
       </c>
       <c r="G68" t="n">
-        <v>6942.338635327546</v>
+        <v>6578.207357887083</v>
       </c>
       <c r="H68" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I68" t="n">
-        <v>17942636</v>
+        <v>17945698</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>99445974</v>
+        <v>100002480</v>
       </c>
       <c r="E69" t="n">
-        <v>151707165</v>
+        <v>152556127</v>
       </c>
       <c r="F69" t="n">
-        <v>2209.491827390962</v>
+        <v>1505.31510614686</v>
       </c>
       <c r="G69" t="n">
-        <v>20688.68664649614</v>
+        <v>20175.62426630236</v>
       </c>
       <c r="H69" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="I69" t="n">
-        <v>11882602</v>
+        <v>11781775</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1058243</v>
+        <v>1059380</v>
       </c>
       <c r="E70" t="n">
-        <v>4097749</v>
+        <v>4102151</v>
       </c>
       <c r="F70" t="n">
-        <v>2916.445513319014</v>
+        <v>2179.957445287449</v>
       </c>
       <c r="G70" t="n">
-        <v>3727.917899881592</v>
+        <v>3575.041487932443</v>
       </c>
       <c r="H70" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="I70" t="n">
-        <v>188042</v>
+        <v>260726</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>120940316</v>
+        <v>122024172</v>
       </c>
       <c r="E71" t="n">
-        <v>463946517</v>
+        <v>468104365</v>
       </c>
       <c r="F71" t="n">
-        <v>12647.30362495774</v>
+        <v>14058.06730745056</v>
       </c>
       <c r="G71" t="n">
-        <v>10511.58198341015</v>
+        <v>10085.94136513392</v>
       </c>
       <c r="H71" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>32379238</v>
+        <v>32267749</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3108749</v>
+        <v>3133626</v>
       </c>
       <c r="E72" t="n">
-        <v>29455855</v>
+        <v>29691567</v>
       </c>
       <c r="F72" t="n">
-        <v>647.9792547229133</v>
+        <v>623.8806746723482</v>
       </c>
       <c r="G72" t="n">
-        <v>62.87825496271107</v>
+        <v>136.2193450675986</v>
       </c>
       <c r="H72" t="n">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>228105</v>
+        <v>229126</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>42560209</v>
+        <v>44060439</v>
       </c>
       <c r="F73" t="n">
-        <v>3514.376899968751</v>
+        <v>3981.908518155767</v>
       </c>
       <c r="G73" t="n">
-        <v>1533.596771776647</v>
+        <v>513.6937043582965</v>
       </c>
       <c r="H73" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="I73" t="n">
-        <v>10904297</v>
+        <v>12003081</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>91903864</v>
+        <v>92200737</v>
       </c>
       <c r="E74" t="n">
-        <v>339703867</v>
+        <v>340800403</v>
       </c>
       <c r="F74" t="n">
-        <v>42.42747327692972</v>
+        <v>256.3368743315196</v>
       </c>
       <c r="G74" t="n">
-        <v>1029.296071416412</v>
+        <v>280.3715449385419</v>
       </c>
       <c r="H74" t="n">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="I74" t="n">
-        <v>312241</v>
+        <v>340027</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22678613</v>
+        <v>22894775</v>
       </c>
       <c r="E75" t="n">
-        <v>22678613</v>
+        <v>22894775</v>
       </c>
       <c r="F75" t="n">
-        <v>3855.09506034882</v>
+        <v>4295.198219551155</v>
       </c>
       <c r="G75" t="n">
-        <v>2606.872420200539</v>
+        <v>1639.229354144307</v>
       </c>
       <c r="H75" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="I75" t="n">
-        <v>5728310</v>
+        <v>5552391</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>465565582</v>
+        <v>468541628</v>
       </c>
       <c r="E76" t="n">
-        <v>1619773687</v>
+        <v>1630127804</v>
       </c>
       <c r="F76" t="n">
-        <v>117070.6778300531</v>
+        <v>99350.47838510924</v>
       </c>
       <c r="G76" t="n">
-        <v>98102.78075056495</v>
+        <v>97122.92764117956</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>48771053</v>
+        <v>48984351</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5615361304</v>
+        <v>5628664639</v>
       </c>
       <c r="E77" t="n">
-        <v>5615361304</v>
+        <v>5628664639</v>
       </c>
       <c r="F77" t="n">
-        <v>1554.436292664534</v>
+        <v>1559.158089560756</v>
       </c>
       <c r="G77" t="n">
-        <v>1194.774558524769</v>
+        <v>1198.403837401459</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35851652</v>
+        <v>35433208</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7396477</v>
+        <v>7229852</v>
       </c>
       <c r="E78" t="n">
-        <v>19215251</v>
+        <v>18782379</v>
       </c>
       <c r="F78" t="n">
-        <v>61.04259662623635</v>
+        <v>77.01282196303919</v>
       </c>
       <c r="G78" t="n">
-        <v>119.0973199676317</v>
+        <v>86.36558907923958</v>
       </c>
       <c r="H78" t="n">
-        <v>0.26</v>
+        <v>1.58</v>
       </c>
       <c r="I78" t="n">
-        <v>800484</v>
+        <v>813112</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>107133486</v>
+        <v>108075344</v>
       </c>
       <c r="E79" t="n">
-        <v>162319610</v>
+        <v>163746633</v>
       </c>
       <c r="F79" t="n">
-        <v>38809.70149006243</v>
+        <v>39117.07248161581</v>
       </c>
       <c r="G79" t="n">
-        <v>39609.1895068867</v>
+        <v>39231.00618302344</v>
       </c>
       <c r="H79" t="n">
         <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>9481571</v>
+        <v>9522410</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2288951</v>
+        <v>2285731</v>
       </c>
       <c r="E80" t="n">
-        <v>9155803</v>
+        <v>9142925</v>
       </c>
       <c r="F80" t="n">
-        <v>1324.828365934389</v>
+        <v>1024.773922466437</v>
       </c>
       <c r="G80" t="n">
-        <v>1639.514253355946</v>
+        <v>1290.923860085878</v>
       </c>
       <c r="H80" t="n">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
       <c r="I80" t="n">
-        <v>8168177</v>
+        <v>8225585</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2200859</v>
+        <v>2258928</v>
       </c>
       <c r="F81" t="n">
-        <v>516.9008168785782</v>
+        <v>424.9866016515997</v>
       </c>
       <c r="G81" t="n">
-        <v>6.832674761516554</v>
+        <v>13.39042910575727</v>
       </c>
       <c r="H81" t="n">
-        <v>1.13</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>152659</v>
+        <v>154684</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>378926118</v>
+        <v>381741442</v>
       </c>
       <c r="E82" t="n">
-        <v>2165292106</v>
+        <v>2181379670</v>
       </c>
       <c r="F82" t="n">
-        <v>33592.4425592258</v>
+        <v>27499.74972632634</v>
       </c>
       <c r="G82" t="n">
-        <v>44369.12277470502</v>
+        <v>41391.41935721204</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>64541990</v>
+        <v>64826641</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3848344</v>
+        <v>3854832</v>
       </c>
       <c r="F2" t="n">
-        <v>213.8410810267016</v>
+        <v>207.3995438266704</v>
       </c>
       <c r="G2" t="n">
-        <v>446.8321277772259</v>
+        <v>417.7171725086298</v>
       </c>
       <c r="H2" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="I2" t="n">
-        <v>130593</v>
+        <v>130490</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1578637</v>
+        <v>1638423</v>
       </c>
       <c r="E3" t="n">
-        <v>5102802</v>
+        <v>5296057</v>
       </c>
       <c r="F3" t="n">
-        <v>6703.462116971411</v>
+        <v>7751.160341347779</v>
       </c>
       <c r="G3" t="n">
-        <v>3097.696773936091</v>
+        <v>3606.709179756967</v>
       </c>
       <c r="H3" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="I3" t="n">
-        <v>298606</v>
+        <v>323413</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253085681</v>
+        <v>253109004</v>
       </c>
       <c r="E4" t="n">
-        <v>1587064734</v>
+        <v>1587210990</v>
       </c>
       <c r="F4" t="n">
-        <v>9772.586294576617</v>
+        <v>11477.01652879167</v>
       </c>
       <c r="G4" t="n">
-        <v>32109.40014545301</v>
+        <v>30238.47734583086</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I4" t="n">
-        <v>29641484</v>
+        <v>29531190</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141431940</v>
+        <v>141163607</v>
       </c>
       <c r="E5" t="n">
-        <v>156728693</v>
+        <v>156431337</v>
       </c>
       <c r="F5" t="n">
-        <v>27801.05290572712</v>
+        <v>27791.01765420593</v>
       </c>
       <c r="G5" t="n">
-        <v>39944.20467448699</v>
+        <v>42774.42718622115</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>51791959</v>
+        <v>51716142</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117680666</v>
+        <v>117179000</v>
       </c>
       <c r="E6" t="n">
-        <v>461272974</v>
+        <v>459306595</v>
       </c>
       <c r="F6" t="n">
-        <v>11553.15678152613</v>
+        <v>12578.40518089103</v>
       </c>
       <c r="G6" t="n">
-        <v>12964.9917023822</v>
+        <v>12819.19508887863</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>25493382</v>
+        <v>25408439</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4389054</v>
+        <v>4363905</v>
       </c>
       <c r="E7" t="n">
-        <v>26947986</v>
+        <v>26793578</v>
       </c>
       <c r="F7" t="n">
-        <v>386.211184709023</v>
+        <v>484.5957524692821</v>
       </c>
       <c r="G7" t="n">
-        <v>429.7745804411624</v>
+        <v>431.4495646979037</v>
       </c>
       <c r="H7" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="I7" t="n">
-        <v>397610</v>
+        <v>395681</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>181549</v>
+        <v>188647</v>
       </c>
       <c r="E8" t="n">
-        <v>1997243</v>
+        <v>2075324</v>
       </c>
       <c r="F8" t="n">
-        <v>1955.744563444717</v>
+        <v>2043.425359463723</v>
       </c>
       <c r="G8" t="n">
-        <v>338.0928250028888</v>
+        <v>2039.957323937769</v>
       </c>
       <c r="H8" t="n">
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
       <c r="I8" t="n">
-        <v>55116</v>
+        <v>51858</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69479181</v>
+        <v>69577489</v>
       </c>
       <c r="E9" t="n">
-        <v>120252192</v>
+        <v>120422340</v>
       </c>
       <c r="F9" t="n">
-        <v>744.7694100141975</v>
+        <v>953.1328066618981</v>
       </c>
       <c r="G9" t="n">
-        <v>1927.690582241847</v>
+        <v>1135.446302937597</v>
       </c>
       <c r="H9" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="I9" t="n">
-        <v>680176</v>
+        <v>650338</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8817221</v>
+        <v>8805629</v>
       </c>
       <c r="E10" t="n">
-        <v>12480121</v>
+        <v>12463714</v>
       </c>
       <c r="F10" t="n">
-        <v>3087.240661614204</v>
+        <v>3087.252445280535</v>
       </c>
       <c r="G10" t="n">
-        <v>3064.830308691643</v>
+        <v>3064.842006820063</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>12975.32</v>
+        <v>12967.66</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>476280996</v>
+        <v>474443449</v>
       </c>
       <c r="E11" t="n">
-        <v>476280999</v>
+        <v>474443449</v>
       </c>
       <c r="F11" t="n">
-        <v>15413.5935229831</v>
+        <v>13399.81396921864</v>
       </c>
       <c r="G11" t="n">
-        <v>43958.73372454658</v>
+        <v>32620.82171974691</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>73790590</v>
+        <v>73335879</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>303833</v>
+        <v>291700</v>
       </c>
       <c r="E12" t="n">
-        <v>1418325</v>
+        <v>1361686</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>6.844684423929865</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>207.0435146855186</v>
       </c>
       <c r="H12" t="n">
-        <v>3.93</v>
+        <v>2.54</v>
       </c>
       <c r="I12" t="n">
-        <v>653629</v>
+        <v>639697</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1744372</v>
+        <v>1878958</v>
       </c>
       <c r="F13" t="n">
-        <v>4174.361608272749</v>
+        <v>3385.601416535754</v>
       </c>
       <c r="G13" t="n">
-        <v>244.3232942764441</v>
+        <v>564.1422525264474</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17</v>
+        <v>0.54</v>
       </c>
       <c r="I13" t="n">
-        <v>1431641</v>
+        <v>1461746</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11873744</v>
+        <v>11887155</v>
       </c>
       <c r="E14" t="n">
-        <v>29551601</v>
+        <v>29584980</v>
       </c>
       <c r="F14" t="n">
-        <v>950.7740693006298</v>
+        <v>793.8961793642486</v>
       </c>
       <c r="G14" t="n">
-        <v>1426.547194723141</v>
+        <v>1398.563183460027</v>
       </c>
       <c r="H14" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1591204</v>
+        <v>1590180</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115316272</v>
+        <v>114350062</v>
       </c>
       <c r="E15" t="n">
-        <v>448004763</v>
+        <v>444241884</v>
       </c>
       <c r="F15" t="n">
-        <v>12024.63044764614</v>
+        <v>11507.31166555886</v>
       </c>
       <c r="G15" t="n">
-        <v>8914.758959351619</v>
+        <v>8682.341628913679</v>
       </c>
       <c r="H15" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I15" t="n">
-        <v>12650913</v>
+        <v>13543850</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4925416</v>
+        <v>4965254</v>
       </c>
       <c r="E16" t="n">
-        <v>7250479</v>
+        <v>7309122</v>
       </c>
       <c r="F16" t="n">
-        <v>17.83108843252787</v>
+        <v>19.32760652597303</v>
       </c>
       <c r="G16" t="n">
-        <v>499.1384342474915</v>
+        <v>8.553747125335773</v>
       </c>
       <c r="H16" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>682442</v>
+        <v>680900</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>429177</v>
+        <v>429985</v>
       </c>
       <c r="E17" t="n">
-        <v>1775240</v>
+        <v>1778583</v>
       </c>
       <c r="F17" t="n">
-        <v>553.5803852113138</v>
+        <v>199.7831381951137</v>
       </c>
       <c r="G17" t="n">
-        <v>846.4187961965788</v>
+        <v>1483.350005293532</v>
       </c>
       <c r="H17" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="I17" t="n">
-        <v>60791</v>
+        <v>58760</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>140218857</v>
+        <v>140553605</v>
       </c>
       <c r="E18" t="n">
-        <v>140218857</v>
+        <v>140553605</v>
       </c>
       <c r="F18" t="n">
-        <v>54554.14931876396</v>
+        <v>53790.28599538154</v>
       </c>
       <c r="G18" t="n">
-        <v>100539.5498501771</v>
+        <v>115937.6875074733</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>93605199</v>
+        <v>93514973</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63158677</v>
+        <v>63037806</v>
       </c>
       <c r="E19" t="n">
-        <v>323890650</v>
+        <v>323270798</v>
       </c>
       <c r="F19" t="n">
-        <v>22281.71823256991</v>
+        <v>12488.70200011282</v>
       </c>
       <c r="G19" t="n">
-        <v>8878.308569992134</v>
+        <v>8900.200584287504</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>23622559</v>
+        <v>23894710</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251522906</v>
+        <v>251601601</v>
       </c>
       <c r="E20" t="n">
-        <v>251522906</v>
+        <v>251601601</v>
       </c>
       <c r="F20" t="n">
-        <v>54224.49449600329</v>
+        <v>55816.73293656782</v>
       </c>
       <c r="G20" t="n">
-        <v>62076.7767406819</v>
+        <v>59006.51208237795</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>28609325</v>
+        <v>28768506</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>176799530</v>
+        <v>177077903</v>
       </c>
       <c r="E21" t="n">
-        <v>232647504</v>
+        <v>233013811</v>
       </c>
       <c r="F21" t="n">
-        <v>16363.71275406683</v>
+        <v>19512.35735773599</v>
       </c>
       <c r="G21" t="n">
-        <v>12150.90739375884</v>
+        <v>11469.40096870159</v>
       </c>
       <c r="H21" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I21" t="n">
-        <v>15888878</v>
+        <v>18885284</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78730306</v>
+        <v>78302902</v>
       </c>
       <c r="E22" t="n">
-        <v>220330795</v>
+        <v>219142094</v>
       </c>
       <c r="F22" t="n">
-        <v>25692.48312340231</v>
+        <v>19098.27562013799</v>
       </c>
       <c r="G22" t="n">
-        <v>25971.92359613436</v>
+        <v>30638.67819582783</v>
       </c>
       <c r="H22" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I22" t="n">
-        <v>52775044</v>
+        <v>52301797</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84377531</v>
+        <v>84075409</v>
       </c>
       <c r="E23" t="n">
-        <v>175920374</v>
+        <v>175290475</v>
       </c>
       <c r="F23" t="n">
-        <v>20388.56515091626</v>
+        <v>15560.76683476494</v>
       </c>
       <c r="G23" t="n">
-        <v>20342.83353041523</v>
+        <v>20743.35272311125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I23" t="n">
-        <v>85475651</v>
+        <v>85307367</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>642648148</v>
+        <v>640974067</v>
       </c>
       <c r="E24" t="n">
-        <v>642648148</v>
+        <v>640974067</v>
       </c>
       <c r="F24" t="n">
-        <v>129141.6599757473</v>
+        <v>146974.0829007591</v>
       </c>
       <c r="G24" t="n">
-        <v>94798.95797180435</v>
+        <v>107705.1562145418</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>553007160</v>
+        <v>554132729</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>193782521</v>
+        <v>193272945</v>
       </c>
       <c r="E25" t="n">
-        <v>673217993</v>
+        <v>671447677</v>
       </c>
       <c r="F25" t="n">
-        <v>62287.8201596144</v>
+        <v>61431.35882498005</v>
       </c>
       <c r="G25" t="n">
-        <v>107802.1621432017</v>
+        <v>105892.03173875</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>42100124</v>
+        <v>42056169</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5545683</v>
+        <v>5536323</v>
       </c>
       <c r="E26" t="n">
-        <v>7525119</v>
+        <v>7512679</v>
       </c>
       <c r="F26" t="n">
-        <v>224.1986551778199</v>
+        <v>263.0825140527463</v>
       </c>
       <c r="G26" t="n">
-        <v>2426.84086330323</v>
+        <v>234.7537256054267</v>
       </c>
       <c r="H26" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I26" t="n">
-        <v>5751670</v>
+        <v>5755998</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14433383</v>
+        <v>14428032</v>
       </c>
       <c r="F27" t="n">
-        <v>2764.897536886874</v>
+        <v>2557.872201469197</v>
       </c>
       <c r="G27" t="n">
-        <v>1870.562855308801</v>
+        <v>2410.93108226794</v>
       </c>
       <c r="H27" t="n">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="I27" t="n">
-        <v>224068</v>
+        <v>219726</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25051340</v>
+        <v>25054267</v>
       </c>
       <c r="E28" t="n">
-        <v>35401582</v>
+        <v>35405720</v>
       </c>
       <c r="F28" t="n">
-        <v>311.9761227638877</v>
+        <v>318.3923420513358</v>
       </c>
       <c r="G28" t="n">
-        <v>526.882072561105</v>
+        <v>529.0852020885163</v>
       </c>
       <c r="H28" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I28" t="n">
-        <v>179872</v>
+        <v>179796</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>264280651</v>
+        <v>262887412</v>
       </c>
       <c r="E29" t="n">
-        <v>1140782004</v>
+        <v>1134768010</v>
       </c>
       <c r="F29" t="n">
-        <v>144058.6384197283</v>
+        <v>149156.5568324132</v>
       </c>
       <c r="G29" t="n">
-        <v>139423.521363227</v>
+        <v>131007.5784798199</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>141476030</v>
+        <v>141055761</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10267058</v>
+        <v>10308182</v>
       </c>
       <c r="E30" t="n">
-        <v>123286859</v>
+        <v>123780685</v>
       </c>
       <c r="F30" t="n">
-        <v>4795.574848777264</v>
+        <v>4827.70889739588</v>
       </c>
       <c r="G30" t="n">
-        <v>1375.462863769674</v>
+        <v>1511.358728577661</v>
       </c>
       <c r="H30" t="n">
-        <v>1.37</v>
+        <v>0.89</v>
       </c>
       <c r="I30" t="n">
-        <v>442993</v>
+        <v>467972</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15716678</v>
+        <v>15753463</v>
       </c>
       <c r="E31" t="n">
-        <v>39291696</v>
+        <v>39383658</v>
       </c>
       <c r="F31" t="n">
-        <v>4560.292736052088</v>
+        <v>5561.703704211943</v>
       </c>
       <c r="G31" t="n">
-        <v>10959.29606707851</v>
+        <v>11418.41105908356</v>
       </c>
       <c r="H31" t="n">
         <v>0.23</v>
       </c>
       <c r="I31" t="n">
-        <v>5182272</v>
+        <v>5047010</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19102660</v>
+        <v>19111258</v>
       </c>
       <c r="F32" t="n">
-        <v>1247.770628548489</v>
+        <v>2990.446127396125</v>
       </c>
       <c r="G32" t="n">
-        <v>3519.249046956014</v>
+        <v>2753.362613450809</v>
       </c>
       <c r="H32" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="I32" t="n">
-        <v>77327</v>
+        <v>76694</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1540511</v>
+        <v>1527798</v>
       </c>
       <c r="E33" t="n">
-        <v>5742956</v>
+        <v>5695563</v>
       </c>
       <c r="F33" t="n">
-        <v>2058.230078351504</v>
+        <v>898.1794927680079</v>
       </c>
       <c r="G33" t="n">
-        <v>2435.298079559804</v>
+        <v>3907.398125988179</v>
       </c>
       <c r="H33" t="n">
-        <v>0.21</v>
+        <v>0.85</v>
       </c>
       <c r="I33" t="n">
-        <v>748891</v>
+        <v>735825</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4207935</v>
+        <v>4189336</v>
       </c>
       <c r="E34" t="n">
-        <v>12119332</v>
+        <v>12065764</v>
       </c>
       <c r="F34" t="n">
-        <v>153.1259949514972</v>
+        <v>36.4686378822046</v>
       </c>
       <c r="G34" t="n">
-        <v>51.50334350635335</v>
+        <v>33.48081248262528</v>
       </c>
       <c r="H34" t="n">
-        <v>1.47</v>
+        <v>0.74</v>
       </c>
       <c r="I34" t="n">
-        <v>413762</v>
+        <v>414678</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14117255</v>
+        <v>14110835</v>
       </c>
       <c r="E35" t="n">
-        <v>68372120</v>
+        <v>68341026</v>
       </c>
       <c r="F35" t="n">
-        <v>2851.979754978854</v>
+        <v>3535.784680496025</v>
       </c>
       <c r="G35" t="n">
-        <v>2537.711636766087</v>
+        <v>3017.483863583689</v>
       </c>
       <c r="H35" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5411201</v>
+        <v>5406471</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1213789</v>
+        <v>1206688</v>
       </c>
       <c r="E36" t="n">
-        <v>7944214</v>
+        <v>7897739</v>
       </c>
       <c r="F36" t="n">
-        <v>3111.352216951564</v>
+        <v>3115.063122240924</v>
       </c>
       <c r="G36" t="n">
-        <v>2963.458670494333</v>
+        <v>2988.492914639229</v>
       </c>
       <c r="H36" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="I36" t="n">
-        <v>200945</v>
+        <v>189308</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1842954641</v>
+        <v>1842939448</v>
       </c>
       <c r="F37" t="n">
-        <v>654.8684119671657</v>
+        <v>672.2528188803994</v>
       </c>
       <c r="G37" t="n">
-        <v>360.7679491738253</v>
+        <v>274.2195294707072</v>
       </c>
       <c r="H37" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="I37" t="n">
-        <v>32212141</v>
+        <v>32185851</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1826184</v>
+        <v>1806014</v>
       </c>
       <c r="E38" t="n">
-        <v>13095386</v>
+        <v>12950743</v>
       </c>
       <c r="F38" t="n">
-        <v>5591.507586711152</v>
+        <v>5460.45470512603</v>
       </c>
       <c r="G38" t="n">
-        <v>5341.566528506261</v>
+        <v>2276.708616333342</v>
       </c>
       <c r="H38" t="n">
-        <v>0.68</v>
+        <v>1.14</v>
       </c>
       <c r="I38" t="n">
-        <v>2192703</v>
+        <v>2183444</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>196070379</v>
+        <v>195205496</v>
       </c>
       <c r="E39" t="n">
-        <v>1110270959</v>
+        <v>1105373459</v>
       </c>
       <c r="F39" t="n">
-        <v>39209.17735930799</v>
+        <v>57039.30723924127</v>
       </c>
       <c r="G39" t="n">
-        <v>48772.45496759559</v>
+        <v>58601.33588748478</v>
       </c>
       <c r="H39" t="n">
         <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>82899562</v>
+        <v>81984907</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>130636136</v>
+        <v>130838898</v>
       </c>
       <c r="E40" t="n">
-        <v>967675085</v>
+        <v>969177023</v>
       </c>
       <c r="F40" t="n">
-        <v>14028.94216455708</v>
+        <v>13268.69848701512</v>
       </c>
       <c r="G40" t="n">
-        <v>19196.64695905164</v>
+        <v>19966.33355760016</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I40" t="n">
-        <v>40311053</v>
+        <v>39946826</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>322191400</v>
+        <v>319135549</v>
       </c>
       <c r="E41" t="n">
-        <v>2898633619</v>
+        <v>2871141288</v>
       </c>
       <c r="F41" t="n">
-        <v>59524.18300013628</v>
+        <v>60304.23837513238</v>
       </c>
       <c r="G41" t="n">
-        <v>93949.98261083305</v>
+        <v>89652.45772744829</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>70815550</v>
+        <v>75077756</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1549810</v>
+        <v>1550059</v>
       </c>
       <c r="E42" t="n">
-        <v>12915084</v>
+        <v>12917160</v>
       </c>
       <c r="F42" t="n">
-        <v>2385.220905255343</v>
+        <v>2385.184035924581</v>
       </c>
       <c r="G42" t="n">
-        <v>1762.761230913446</v>
+        <v>2571.236983960055</v>
       </c>
       <c r="H42" t="n">
         <v>0.85</v>
       </c>
       <c r="I42" t="n">
-        <v>33458</v>
+        <v>33448</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19519719</v>
+        <v>19609103</v>
       </c>
       <c r="E43" t="n">
-        <v>58525859</v>
+        <v>58793859</v>
       </c>
       <c r="F43" t="n">
-        <v>2186.436296333341</v>
+        <v>2466.054970904535</v>
       </c>
       <c r="G43" t="n">
-        <v>4797.149631066295</v>
+        <v>6905.448945191655</v>
       </c>
       <c r="H43" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I43" t="n">
-        <v>4136186</v>
+        <v>4229939</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7885482</v>
+        <v>7872212</v>
       </c>
       <c r="F44" t="n">
-        <v>3283.942195462049</v>
+        <v>1459.711836177328</v>
       </c>
       <c r="G44" t="n">
-        <v>3564.725566758237</v>
+        <v>893.3092250609943</v>
       </c>
       <c r="H44" t="n">
         <v>0.38</v>
       </c>
       <c r="I44" t="n">
-        <v>1128377</v>
+        <v>1128421</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12685477</v>
+        <v>12707775</v>
       </c>
       <c r="E45" t="n">
-        <v>12685477</v>
+        <v>12707775</v>
       </c>
       <c r="F45" t="n">
-        <v>350.5137157606563</v>
+        <v>16.27335190963776</v>
       </c>
       <c r="G45" t="n">
-        <v>97.93244710489992</v>
+        <v>955.9772552531741</v>
       </c>
       <c r="H45" t="n">
-        <v>2.57</v>
+        <v>1.96</v>
       </c>
       <c r="I45" t="n">
-        <v>2184681</v>
+        <v>2122843</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>293271986</v>
+        <v>292731934</v>
       </c>
       <c r="E46" t="n">
-        <v>293271986</v>
+        <v>292731934</v>
       </c>
       <c r="F46" t="n">
-        <v>7905.085602930769</v>
+        <v>9005.49443303614</v>
       </c>
       <c r="G46" t="n">
-        <v>15600.39420791081</v>
+        <v>14501.87296981166</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>19030547</v>
+        <v>18988479</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13252522</v>
+        <v>13095743</v>
       </c>
       <c r="E47" t="n">
-        <v>41913804</v>
+        <v>41417958</v>
       </c>
       <c r="F47" t="n">
-        <v>6206.351422832133</v>
+        <v>6166.597786308282</v>
       </c>
       <c r="G47" t="n">
-        <v>3754.356476890398</v>
+        <v>6281.041884041032</v>
       </c>
       <c r="H47" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I47" t="n">
-        <v>1269661</v>
+        <v>1271883</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31768629</v>
+        <v>31871545</v>
       </c>
       <c r="E48" t="n">
-        <v>87995949</v>
+        <v>88281016</v>
       </c>
       <c r="F48" t="n">
-        <v>5365.32478466394</v>
+        <v>6813.625867319523</v>
       </c>
       <c r="G48" t="n">
-        <v>1969.46291814371</v>
+        <v>1883.812214905535</v>
       </c>
       <c r="H48" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I48" t="n">
-        <v>12612698</v>
+        <v>12608076</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28861733</v>
+        <v>28849344</v>
       </c>
       <c r="E49" t="n">
-        <v>68465382</v>
+        <v>68435993</v>
       </c>
       <c r="F49" t="n">
-        <v>8304.27244667891</v>
+        <v>2362.695562448667</v>
       </c>
       <c r="G49" t="n">
-        <v>2588.705199578912</v>
+        <v>8619.518174973313</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>815573</v>
+        <v>768518</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11841549</v>
+        <v>11879422</v>
       </c>
       <c r="E50" t="n">
-        <v>18003790</v>
+        <v>18061372</v>
       </c>
       <c r="F50" t="n">
-        <v>2821.91448229668</v>
+        <v>2837.849619767631</v>
       </c>
       <c r="G50" t="n">
-        <v>2272.233055328277</v>
+        <v>2249.275558936852</v>
       </c>
       <c r="H50" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="I50" t="n">
-        <v>652977</v>
+        <v>660417</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>301450664</v>
+        <v>299943949</v>
       </c>
       <c r="E51" t="n">
-        <v>301450664</v>
+        <v>299943949</v>
       </c>
       <c r="F51" t="n">
-        <v>42611.98841860171</v>
+        <v>35687.44750822306</v>
       </c>
       <c r="G51" t="n">
-        <v>56893.80494566759</v>
+        <v>62767.2670430912</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>91472513</v>
+        <v>91346545</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84956922</v>
+        <v>84498037</v>
       </c>
       <c r="E52" t="n">
-        <v>489558431</v>
+        <v>486914137</v>
       </c>
       <c r="F52" t="n">
-        <v>44794.92816774944</v>
+        <v>52010.17950561873</v>
       </c>
       <c r="G52" t="n">
-        <v>59582.87942008742</v>
+        <v>69067.59298114352</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I52" t="n">
-        <v>21553363</v>
+        <v>21418938</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30638311</v>
+        <v>30543385</v>
       </c>
       <c r="E53" t="n">
-        <v>137180286</v>
+        <v>136755263</v>
       </c>
       <c r="F53" t="n">
-        <v>12253.0314522435</v>
+        <v>12290.5813345782</v>
       </c>
       <c r="G53" t="n">
-        <v>15733.67261158424</v>
+        <v>16346.56927231521</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>19724474</v>
+        <v>19744476</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7458942</v>
+        <v>7506244</v>
       </c>
       <c r="F54" t="n">
-        <v>3341.759911868921</v>
+        <v>3316.998492009408</v>
       </c>
       <c r="G54" t="n">
-        <v>4508.254139660445</v>
+        <v>4503.272096627888</v>
       </c>
       <c r="H54" t="n">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="I54" t="n">
-        <v>319428</v>
+        <v>321724</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4423146</v>
+        <v>4421028</v>
       </c>
       <c r="F55" t="n">
-        <v>1598.622141798228</v>
+        <v>1837.614882091556</v>
       </c>
       <c r="G55" t="n">
-        <v>1264.323121257106</v>
+        <v>1168.940284165253</v>
       </c>
       <c r="H55" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="I55" t="n">
-        <v>217990</v>
+        <v>239881</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123050355</v>
+        <v>122816822</v>
       </c>
       <c r="E56" t="n">
-        <v>2037814664</v>
+        <v>2033947169</v>
       </c>
       <c r="F56" t="n">
-        <v>25624.89339346556</v>
+        <v>20066.10854599754</v>
       </c>
       <c r="G56" t="n">
-        <v>24872.72830433095</v>
+        <v>21958.55103299122</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>60381675</v>
+        <v>61452966</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>93478160</v>
+        <v>92701716</v>
       </c>
       <c r="E57" t="n">
-        <v>94484384</v>
+        <v>93699581</v>
       </c>
       <c r="F57" t="n">
-        <v>17518.62701463044</v>
+        <v>13094.20729989709</v>
       </c>
       <c r="G57" t="n">
-        <v>24578.53349995061</v>
+        <v>28652.99986758262</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>60507976</v>
+        <v>59930321</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>238331077</v>
+        <v>237817109</v>
       </c>
       <c r="E58" t="n">
-        <v>238331077</v>
+        <v>237817109</v>
       </c>
       <c r="F58" t="n">
-        <v>76838.37171948064</v>
+        <v>85781.43682325394</v>
       </c>
       <c r="G58" t="n">
-        <v>72662.53053485863</v>
+        <v>82629.39712017124</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I58" t="n">
-        <v>96491327</v>
+        <v>96410508</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23059702</v>
+        <v>23031539</v>
       </c>
       <c r="E59" t="n">
-        <v>137970832</v>
+        <v>137802330</v>
       </c>
       <c r="F59" t="n">
-        <v>26835.95538551939</v>
+        <v>25764.91772159347</v>
       </c>
       <c r="G59" t="n">
-        <v>24415.05605526779</v>
+        <v>5851.821291366011</v>
       </c>
       <c r="H59" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>17824156</v>
+        <v>17845707</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2563831</v>
+        <v>2561840</v>
       </c>
       <c r="E60" t="n">
-        <v>4731697</v>
+        <v>4728022</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>7.42</v>
       </c>
       <c r="I60" t="n">
-        <v>463574</v>
+        <v>463196</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9848253</v>
+        <v>9832823</v>
       </c>
       <c r="E62" t="n">
-        <v>29195523</v>
+        <v>29149781</v>
       </c>
       <c r="F62" t="n">
-        <v>3057.781922347881</v>
+        <v>3959.107788773271</v>
       </c>
       <c r="G62" t="n">
-        <v>2494.370573802193</v>
+        <v>2433.266487896346</v>
       </c>
       <c r="H62" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="I62" t="n">
-        <v>6761648</v>
+        <v>6732382</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14471310</v>
+        <v>14559435</v>
       </c>
       <c r="E63" t="n">
-        <v>29296283</v>
+        <v>29474687</v>
       </c>
       <c r="F63" t="n">
-        <v>7371.475502597858</v>
+        <v>7203.703870760171</v>
       </c>
       <c r="G63" t="n">
-        <v>11310.82396630213</v>
+        <v>11365.63668687121</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I63" t="n">
-        <v>434081</v>
+        <v>432723</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33550926</v>
+        <v>33448021</v>
       </c>
       <c r="E64" t="n">
-        <v>237870591</v>
+        <v>237141015</v>
       </c>
       <c r="F64" t="n">
-        <v>43410.44581406881</v>
+        <v>42820.29051044738</v>
       </c>
       <c r="G64" t="n">
-        <v>54499.00048689719</v>
+        <v>41317.49735555427</v>
       </c>
       <c r="H64" t="n">
         <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>6599625</v>
+        <v>6596216</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1291570</v>
+        <v>1288521</v>
       </c>
       <c r="E65" t="n">
-        <v>8008658</v>
+        <v>7989749</v>
       </c>
       <c r="F65" t="n">
-        <v>118.5481155075631</v>
+        <v>182.9545502511459</v>
       </c>
       <c r="G65" t="n">
-        <v>165.4531433188717</v>
+        <v>50.73209467638616</v>
       </c>
       <c r="H65" t="n">
-        <v>1.08</v>
+        <v>1.91</v>
       </c>
       <c r="I65" t="n">
-        <v>778349</v>
+        <v>779459</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>584363722</v>
+        <v>582045747</v>
       </c>
       <c r="E66" t="n">
-        <v>2263154478</v>
+        <v>2254177302</v>
       </c>
       <c r="F66" t="n">
-        <v>74885.260201745</v>
+        <v>50985.54926449862</v>
       </c>
       <c r="G66" t="n">
-        <v>37239.949826551</v>
+        <v>44277.4600499334</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>62112175</v>
+        <v>61983627</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5437921</v>
+        <v>5434276</v>
       </c>
       <c r="E67" t="n">
-        <v>24335155</v>
+        <v>24318842</v>
       </c>
       <c r="F67" t="n">
-        <v>3813.652787732115</v>
+        <v>1061.006811595931</v>
       </c>
       <c r="G67" t="n">
-        <v>18162.94412454103</v>
+        <v>15498.17748352578</v>
       </c>
       <c r="H67" t="n">
         <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>195751</v>
+        <v>195724</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>109174531</v>
+        <v>108483193</v>
       </c>
       <c r="E68" t="n">
-        <v>1032983508</v>
+        <v>1026442231</v>
       </c>
       <c r="F68" t="n">
-        <v>6029.954628011305</v>
+        <v>6600.800679824656</v>
       </c>
       <c r="G68" t="n">
-        <v>6578.207357887083</v>
+        <v>5193.825241955308</v>
       </c>
       <c r="H68" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I68" t="n">
-        <v>17945698</v>
+        <v>17968266</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>100002480</v>
+        <v>100365546</v>
       </c>
       <c r="E69" t="n">
-        <v>152556127</v>
+        <v>153109993</v>
       </c>
       <c r="F69" t="n">
-        <v>1505.31510614686</v>
+        <v>1533.675102552141</v>
       </c>
       <c r="G69" t="n">
-        <v>20175.62426630236</v>
+        <v>20937.75933949547</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>11781775</v>
+        <v>11781848</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1059380</v>
+        <v>1059597</v>
       </c>
       <c r="E70" t="n">
-        <v>4102151</v>
+        <v>4102991</v>
       </c>
       <c r="F70" t="n">
-        <v>2179.957445287449</v>
+        <v>2396.912450668848</v>
       </c>
       <c r="G70" t="n">
-        <v>3575.041487932443</v>
+        <v>3444.013138528205</v>
       </c>
       <c r="H70" t="n">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="I70" t="n">
-        <v>260726</v>
+        <v>267725</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>122024172</v>
+        <v>121765076</v>
       </c>
       <c r="E71" t="n">
-        <v>468104365</v>
+        <v>467110431</v>
       </c>
       <c r="F71" t="n">
-        <v>14058.06730745056</v>
+        <v>13352.32580821172</v>
       </c>
       <c r="G71" t="n">
-        <v>10085.94136513392</v>
+        <v>14236.06247116152</v>
       </c>
       <c r="H71" t="n">
         <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>32267749</v>
+        <v>32104912</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3133626</v>
+        <v>3172784</v>
       </c>
       <c r="E72" t="n">
-        <v>29691567</v>
+        <v>30062596</v>
       </c>
       <c r="F72" t="n">
-        <v>623.8806746723482</v>
+        <v>613.5016495723746</v>
       </c>
       <c r="G72" t="n">
-        <v>136.2193450675986</v>
+        <v>177.7823169967394</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="I72" t="n">
-        <v>229126</v>
+        <v>230433</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>44060439</v>
+        <v>42820343</v>
       </c>
       <c r="F73" t="n">
-        <v>3981.908518155767</v>
+        <v>4287.220922501785</v>
       </c>
       <c r="G73" t="n">
-        <v>513.6937043582965</v>
+        <v>981.9645750672622</v>
       </c>
       <c r="H73" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I73" t="n">
-        <v>12003081</v>
+        <v>12012468</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>92200737</v>
+        <v>92178480</v>
       </c>
       <c r="E74" t="n">
-        <v>340800403</v>
+        <v>340716827</v>
       </c>
       <c r="F74" t="n">
-        <v>256.3368743315196</v>
+        <v>248.360890621406</v>
       </c>
       <c r="G74" t="n">
-        <v>280.3715449385419</v>
+        <v>763.9259170439586</v>
       </c>
       <c r="H74" t="n">
         <v>1.95</v>
       </c>
       <c r="I74" t="n">
-        <v>340027</v>
+        <v>340198</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22894775</v>
+        <v>22859720</v>
       </c>
       <c r="E75" t="n">
-        <v>22894775</v>
+        <v>22859720</v>
       </c>
       <c r="F75" t="n">
-        <v>4295.198219551155</v>
+        <v>4439.945165153204</v>
       </c>
       <c r="G75" t="n">
-        <v>1639.229354144307</v>
+        <v>1853.850494388637</v>
       </c>
       <c r="H75" t="n">
-        <v>0.29</v>
+        <v>0.7</v>
       </c>
       <c r="I75" t="n">
-        <v>5552391</v>
+        <v>5536709</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>468541628</v>
+        <v>465194440</v>
       </c>
       <c r="E76" t="n">
-        <v>1630127804</v>
+        <v>1618482427</v>
       </c>
       <c r="F76" t="n">
-        <v>99350.47838510924</v>
+        <v>87587.09615707619</v>
       </c>
       <c r="G76" t="n">
-        <v>97122.92764117956</v>
+        <v>98973.36035343815</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>48984351</v>
+        <v>49007469</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5628664639</v>
+        <v>5621211135</v>
       </c>
       <c r="E77" t="n">
-        <v>5628664639</v>
+        <v>5621211135</v>
       </c>
       <c r="F77" t="n">
-        <v>1559.158089560756</v>
+        <v>1557.745259025425</v>
       </c>
       <c r="G77" t="n">
-        <v>1198.403837401459</v>
+        <v>1197.317904200409</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35433208</v>
+        <v>35467149</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7229852</v>
+        <v>7254170</v>
       </c>
       <c r="E78" t="n">
-        <v>18782379</v>
+        <v>18845554</v>
       </c>
       <c r="F78" t="n">
-        <v>77.01282196303919</v>
+        <v>96.93107132105372</v>
       </c>
       <c r="G78" t="n">
-        <v>86.36558907923958</v>
+        <v>85.01804235244224</v>
       </c>
       <c r="H78" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="I78" t="n">
-        <v>813112</v>
+        <v>815297</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>108075344</v>
+        <v>108384769</v>
       </c>
       <c r="E79" t="n">
-        <v>163746633</v>
+        <v>164215447</v>
       </c>
       <c r="F79" t="n">
-        <v>39117.07248161581</v>
+        <v>37879.5878610959</v>
       </c>
       <c r="G79" t="n">
-        <v>39231.00618302344</v>
+        <v>41509.11719255707</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="I79" t="n">
-        <v>9522410</v>
+        <v>9520927</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2285731</v>
+        <v>2281576</v>
       </c>
       <c r="E80" t="n">
-        <v>9142925</v>
+        <v>9126305</v>
       </c>
       <c r="F80" t="n">
-        <v>1024.773922466437</v>
+        <v>823.7295994790051</v>
       </c>
       <c r="G80" t="n">
-        <v>1290.923860085878</v>
+        <v>1537.450173283012</v>
       </c>
       <c r="H80" t="n">
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
       <c r="I80" t="n">
-        <v>8225585</v>
+        <v>8239799</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2258928</v>
+        <v>2233848</v>
       </c>
       <c r="F81" t="n">
-        <v>424.9866016515997</v>
+        <v>442.4117350481856</v>
       </c>
       <c r="G81" t="n">
-        <v>13.39042910575727</v>
+        <v>40.13682551698914</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="I81" t="n">
-        <v>154684</v>
+        <v>153619</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>381741442</v>
+        <v>381174562</v>
       </c>
       <c r="E82" t="n">
-        <v>2181379670</v>
+        <v>2178140356</v>
       </c>
       <c r="F82" t="n">
-        <v>27499.74972632634</v>
+        <v>30523.50499231091</v>
       </c>
       <c r="G82" t="n">
-        <v>41391.41935721204</v>
+        <v>42111.84426737598</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I82" t="n">
-        <v>64826641</v>
+        <v>64687889</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3854832</v>
+        <v>3802083</v>
       </c>
       <c r="F2" t="n">
-        <v>207.3995438266704</v>
+        <v>271.6755204835071</v>
       </c>
       <c r="G2" t="n">
-        <v>417.7171725086298</v>
+        <v>480.3730660260644</v>
       </c>
       <c r="H2" t="n">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="I2" t="n">
-        <v>130490</v>
+        <v>129155</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1638423</v>
+        <v>1773520</v>
       </c>
       <c r="E3" t="n">
-        <v>5296057</v>
+        <v>5732744</v>
       </c>
       <c r="F3" t="n">
-        <v>7751.160341347779</v>
+        <v>361.702703062286</v>
       </c>
       <c r="G3" t="n">
-        <v>3606.709179756967</v>
+        <v>426.580832537011</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45</v>
+        <v>1.42</v>
       </c>
       <c r="I3" t="n">
-        <v>323413</v>
+        <v>592858</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253109004</v>
+        <v>252209509</v>
       </c>
       <c r="E4" t="n">
-        <v>1587210990</v>
+        <v>1581570379</v>
       </c>
       <c r="F4" t="n">
-        <v>11477.01652879167</v>
+        <v>10074.12928927598</v>
       </c>
       <c r="G4" t="n">
-        <v>30238.47734583086</v>
+        <v>35221.97051112325</v>
       </c>
       <c r="H4" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>29531190</v>
+        <v>29775811</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141163607</v>
+        <v>142017043</v>
       </c>
       <c r="E5" t="n">
-        <v>156431337</v>
+        <v>157377079</v>
       </c>
       <c r="F5" t="n">
-        <v>27791.01765420593</v>
+        <v>27082.46245415762</v>
       </c>
       <c r="G5" t="n">
-        <v>42774.42718622115</v>
+        <v>30756.59478601867</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>51716142</v>
+        <v>52061039</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117179000</v>
+        <v>117489727</v>
       </c>
       <c r="E6" t="n">
-        <v>459306595</v>
+        <v>460524553</v>
       </c>
       <c r="F6" t="n">
-        <v>12578.40518089103</v>
+        <v>12406.68665412537</v>
       </c>
       <c r="G6" t="n">
-        <v>12819.19508887863</v>
+        <v>11784.1865392074</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>25408439</v>
+        <v>25549880</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4363905</v>
+        <v>4371437</v>
       </c>
       <c r="E7" t="n">
-        <v>26793578</v>
+        <v>26839823</v>
       </c>
       <c r="F7" t="n">
-        <v>484.5957524692821</v>
+        <v>433.6666378225596</v>
       </c>
       <c r="G7" t="n">
-        <v>431.4495646979037</v>
+        <v>261.0262485794242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="I7" t="n">
-        <v>395681</v>
+        <v>376728</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>188647</v>
+        <v>186567</v>
       </c>
       <c r="E8" t="n">
-        <v>2075324</v>
+        <v>2052442</v>
       </c>
       <c r="F8" t="n">
-        <v>2043.425359463723</v>
+        <v>2400.23722364461</v>
       </c>
       <c r="G8" t="n">
-        <v>2039.957323937769</v>
+        <v>2043.233441305742</v>
       </c>
       <c r="H8" t="n">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
       <c r="I8" t="n">
-        <v>51858</v>
+        <v>53914</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69577489</v>
+        <v>69112085</v>
       </c>
       <c r="E9" t="n">
-        <v>120422340</v>
+        <v>119613978</v>
       </c>
       <c r="F9" t="n">
-        <v>953.1328066618981</v>
+        <v>1135.888926898744</v>
       </c>
       <c r="G9" t="n">
-        <v>1135.446302937597</v>
+        <v>1583.249611012596</v>
       </c>
       <c r="H9" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I9" t="n">
-        <v>650338</v>
+        <v>705527</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8805629</v>
+        <v>8786906</v>
       </c>
       <c r="E10" t="n">
-        <v>12463714</v>
+        <v>12437213</v>
       </c>
       <c r="F10" t="n">
-        <v>3087.252445280535</v>
+        <v>3087.154848925558</v>
       </c>
       <c r="G10" t="n">
-        <v>3064.842006820063</v>
+        <v>3064.745118919333</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>12967.66</v>
+        <v>12911.78</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>474443449</v>
+        <v>478075077</v>
       </c>
       <c r="E11" t="n">
-        <v>474443449</v>
+        <v>478075079</v>
       </c>
       <c r="F11" t="n">
-        <v>13399.81396921864</v>
+        <v>14553.77511453181</v>
       </c>
       <c r="G11" t="n">
-        <v>32620.82171974691</v>
+        <v>34869.44425847878</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>73335879</v>
+        <v>73585039</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>291700</v>
+        <v>291993</v>
       </c>
       <c r="E12" t="n">
-        <v>1361686</v>
+        <v>1363054</v>
       </c>
       <c r="F12" t="n">
-        <v>6.844684423929865</v>
+        <v>1533.383019344739</v>
       </c>
       <c r="G12" t="n">
-        <v>207.0435146855186</v>
+        <v>1.159723331451564</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.97</v>
       </c>
       <c r="I12" t="n">
-        <v>639697</v>
+        <v>626807</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1878958</v>
+        <v>2010480</v>
       </c>
       <c r="F13" t="n">
-        <v>3385.601416535754</v>
+        <v>3787.366843494885</v>
       </c>
       <c r="G13" t="n">
-        <v>564.1422525264474</v>
+        <v>286.1570773824279</v>
       </c>
       <c r="H13" t="n">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="I13" t="n">
-        <v>1461746</v>
+        <v>1463765</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11887155</v>
+        <v>11920580</v>
       </c>
       <c r="E14" t="n">
-        <v>29584980</v>
+        <v>29668168</v>
       </c>
       <c r="F14" t="n">
-        <v>793.8961793642486</v>
+        <v>827.0226773732167</v>
       </c>
       <c r="G14" t="n">
-        <v>1398.563183460027</v>
+        <v>1340.545728516873</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I14" t="n">
-        <v>1590180</v>
+        <v>1605058</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>114350062</v>
+        <v>113081031</v>
       </c>
       <c r="E15" t="n">
-        <v>444241884</v>
+        <v>439286465</v>
       </c>
       <c r="F15" t="n">
-        <v>11507.31166555886</v>
+        <v>8316.752484137061</v>
       </c>
       <c r="G15" t="n">
-        <v>8682.341628913679</v>
+        <v>10189.98016129078</v>
       </c>
       <c r="H15" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I15" t="n">
-        <v>13543850</v>
+        <v>12538385</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4965254</v>
+        <v>4927319</v>
       </c>
       <c r="E16" t="n">
-        <v>7309122</v>
+        <v>7253280</v>
       </c>
       <c r="F16" t="n">
-        <v>19.32760652597303</v>
+        <v>152.846237520728</v>
       </c>
       <c r="G16" t="n">
-        <v>8.553747125335773</v>
+        <v>12.80752756185452</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>680900</v>
+        <v>637605</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>429985</v>
+        <v>411151</v>
       </c>
       <c r="E17" t="n">
-        <v>1778583</v>
+        <v>1705277</v>
       </c>
       <c r="F17" t="n">
-        <v>199.7831381951137</v>
+        <v>213.740122678146</v>
       </c>
       <c r="G17" t="n">
-        <v>1483.350005293532</v>
+        <v>441.2575215802493</v>
       </c>
       <c r="H17" t="n">
-        <v>0.51</v>
+        <v>1.47</v>
       </c>
       <c r="I17" t="n">
-        <v>58760</v>
+        <v>57343</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>140553605</v>
+        <v>142464512</v>
       </c>
       <c r="E18" t="n">
-        <v>140553605</v>
+        <v>142464512</v>
       </c>
       <c r="F18" t="n">
-        <v>53790.28599538154</v>
+        <v>56013.24200021624</v>
       </c>
       <c r="G18" t="n">
-        <v>115937.6875074733</v>
+        <v>69236.91513973396</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>93514973</v>
+        <v>94306298</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63037806</v>
+        <v>63333586</v>
       </c>
       <c r="E19" t="n">
-        <v>323270798</v>
+        <v>324787620</v>
       </c>
       <c r="F19" t="n">
-        <v>12488.70200011282</v>
+        <v>17085.78047102403</v>
       </c>
       <c r="G19" t="n">
-        <v>8900.200584287504</v>
+        <v>9089.659974072745</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>23894710</v>
+        <v>22761614</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251601601</v>
+        <v>252919340</v>
       </c>
       <c r="E20" t="n">
-        <v>251601601</v>
+        <v>252919340</v>
       </c>
       <c r="F20" t="n">
-        <v>55816.73293656782</v>
+        <v>53812.0179199658</v>
       </c>
       <c r="G20" t="n">
-        <v>59006.51208237795</v>
+        <v>64759.55644322758</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>28768506</v>
+        <v>28908356</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>177077903</v>
+        <v>176525922</v>
       </c>
       <c r="E21" t="n">
-        <v>233013811</v>
+        <v>232287467</v>
       </c>
       <c r="F21" t="n">
-        <v>19512.35735773599</v>
+        <v>18417.34516448903</v>
       </c>
       <c r="G21" t="n">
-        <v>11469.40096870159</v>
+        <v>10904.85313959296</v>
       </c>
       <c r="H21" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>18885284</v>
+        <v>17849764</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78302902</v>
+        <v>78115975</v>
       </c>
       <c r="E22" t="n">
-        <v>219142094</v>
+        <v>218634754</v>
       </c>
       <c r="F22" t="n">
-        <v>19098.27562013799</v>
+        <v>19668.2579243178</v>
       </c>
       <c r="G22" t="n">
-        <v>30638.67819582783</v>
+        <v>31283.03555278786</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>52301797</v>
+        <v>49881826</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84075409</v>
+        <v>84109199</v>
       </c>
       <c r="E23" t="n">
-        <v>175290475</v>
+        <v>175360926</v>
       </c>
       <c r="F23" t="n">
-        <v>15560.76683476494</v>
+        <v>13426.47901502033</v>
       </c>
       <c r="G23" t="n">
-        <v>20743.35272311125</v>
+        <v>20177.56606552789</v>
       </c>
       <c r="H23" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>85307367</v>
+        <v>85154686</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>640974067</v>
+        <v>642475880</v>
       </c>
       <c r="E24" t="n">
-        <v>640974067</v>
+        <v>642475880</v>
       </c>
       <c r="F24" t="n">
-        <v>146974.0829007591</v>
+        <v>111549.9504022404</v>
       </c>
       <c r="G24" t="n">
-        <v>107705.1562145418</v>
+        <v>116409.2284437355</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>554132729</v>
+        <v>555351276</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>193272945</v>
+        <v>192831633</v>
       </c>
       <c r="E25" t="n">
-        <v>671447677</v>
+        <v>669914521</v>
       </c>
       <c r="F25" t="n">
-        <v>61431.35882498005</v>
+        <v>87967.66549250046</v>
       </c>
       <c r="G25" t="n">
-        <v>105892.03173875</v>
+        <v>76389.05198773302</v>
       </c>
       <c r="H25" t="n">
         <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>42056169</v>
+        <v>41124554</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5536323</v>
+        <v>5359187</v>
       </c>
       <c r="E26" t="n">
-        <v>7512679</v>
+        <v>7271966</v>
       </c>
       <c r="F26" t="n">
-        <v>263.0825140527463</v>
+        <v>255.2010364202716</v>
       </c>
       <c r="G26" t="n">
-        <v>234.7537256054267</v>
+        <v>2323.749649682049</v>
       </c>
       <c r="H26" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I26" t="n">
-        <v>5755998</v>
+        <v>5746378</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14428032</v>
+        <v>14646383</v>
       </c>
       <c r="F27" t="n">
-        <v>2557.872201469197</v>
+        <v>2850.59590806769</v>
       </c>
       <c r="G27" t="n">
-        <v>2410.93108226794</v>
+        <v>1455.33849953808</v>
       </c>
       <c r="H27" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>219726</v>
+        <v>217123</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25054267</v>
+        <v>25142320</v>
       </c>
       <c r="E28" t="n">
-        <v>35405720</v>
+        <v>35530153</v>
       </c>
       <c r="F28" t="n">
-        <v>318.3923420513358</v>
+        <v>320.2302345285507</v>
       </c>
       <c r="G28" t="n">
-        <v>529.0852020885163</v>
+        <v>483.0272794586225</v>
       </c>
       <c r="H28" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I28" t="n">
-        <v>179796</v>
+        <v>177862</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>262887412</v>
+        <v>262048519</v>
       </c>
       <c r="E29" t="n">
-        <v>1134768010</v>
+        <v>1131146882</v>
       </c>
       <c r="F29" t="n">
-        <v>149156.5568324132</v>
+        <v>139736.4629432152</v>
       </c>
       <c r="G29" t="n">
-        <v>131007.5784798199</v>
+        <v>128857.9485047089</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>141055761</v>
+        <v>139186777</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10308182</v>
+        <v>10350438</v>
       </c>
       <c r="E30" t="n">
-        <v>123780685</v>
+        <v>124288093</v>
       </c>
       <c r="F30" t="n">
-        <v>4827.70889739588</v>
+        <v>2448.742232014654</v>
       </c>
       <c r="G30" t="n">
-        <v>1511.358728577661</v>
+        <v>1292.620335660665</v>
       </c>
       <c r="H30" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="I30" t="n">
-        <v>467972</v>
+        <v>435343</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15753463</v>
+        <v>15697323</v>
       </c>
       <c r="E31" t="n">
-        <v>39383658</v>
+        <v>39243307</v>
       </c>
       <c r="F31" t="n">
-        <v>5561.703704211943</v>
+        <v>4814.541962775755</v>
       </c>
       <c r="G31" t="n">
-        <v>11418.41105908356</v>
+        <v>13268.6129770823</v>
       </c>
       <c r="H31" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>5047010</v>
+        <v>5202572</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19111258</v>
+        <v>18989384</v>
       </c>
       <c r="F32" t="n">
-        <v>2990.446127396125</v>
+        <v>3291.609630579598</v>
       </c>
       <c r="G32" t="n">
-        <v>2753.362613450809</v>
+        <v>4260.562815802773</v>
       </c>
       <c r="H32" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="I32" t="n">
-        <v>76694</v>
+        <v>75427</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1527798</v>
+        <v>1553735</v>
       </c>
       <c r="E33" t="n">
-        <v>5695563</v>
+        <v>5792228</v>
       </c>
       <c r="F33" t="n">
-        <v>898.1794927680079</v>
+        <v>3873.46846993072</v>
       </c>
       <c r="G33" t="n">
-        <v>3907.398125988179</v>
+        <v>1817.981156276915</v>
       </c>
       <c r="H33" t="n">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="I33" t="n">
-        <v>735825</v>
+        <v>728149</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189336</v>
+        <v>4091450</v>
       </c>
       <c r="E34" t="n">
-        <v>12065764</v>
+        <v>11783841</v>
       </c>
       <c r="F34" t="n">
-        <v>36.4686378822046</v>
+        <v>2256.275365467164</v>
       </c>
       <c r="G34" t="n">
-        <v>33.48081248262528</v>
+        <v>2148.962078606757</v>
       </c>
       <c r="H34" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="I34" t="n">
-        <v>414678</v>
+        <v>409013</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14110835</v>
+        <v>14110053</v>
       </c>
       <c r="E35" t="n">
-        <v>68341026</v>
+        <v>68337241</v>
       </c>
       <c r="F35" t="n">
-        <v>3535.784680496025</v>
+        <v>3202.862970613792</v>
       </c>
       <c r="G35" t="n">
-        <v>3017.483863583689</v>
+        <v>2494.823836797213</v>
       </c>
       <c r="H35" t="n">
         <v>0.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5406471</v>
+        <v>5269040</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1206688</v>
+        <v>1206350</v>
       </c>
       <c r="E36" t="n">
-        <v>7897739</v>
+        <v>7895529</v>
       </c>
       <c r="F36" t="n">
-        <v>3115.063122240924</v>
+        <v>3120.982344522371</v>
       </c>
       <c r="G36" t="n">
-        <v>2988.492914639229</v>
+        <v>2984.078013807371</v>
       </c>
       <c r="H36" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="I36" t="n">
-        <v>189308</v>
+        <v>175409</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1842939448</v>
+        <v>1844070531</v>
       </c>
       <c r="F37" t="n">
-        <v>672.2528188803994</v>
+        <v>741.4962819316651</v>
       </c>
       <c r="G37" t="n">
-        <v>274.2195294707072</v>
+        <v>404.6533970517518</v>
       </c>
       <c r="H37" t="n">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>32185851</v>
+        <v>32118895</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1806014</v>
+        <v>1808312</v>
       </c>
       <c r="E38" t="n">
-        <v>12950743</v>
+        <v>12967226</v>
       </c>
       <c r="F38" t="n">
-        <v>5460.45470512603</v>
+        <v>4539.499023517224</v>
       </c>
       <c r="G38" t="n">
-        <v>2276.708616333342</v>
+        <v>5185.517576361092</v>
       </c>
       <c r="H38" t="n">
-        <v>1.14</v>
+        <v>0.84</v>
       </c>
       <c r="I38" t="n">
-        <v>2183444</v>
+        <v>2183455</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195205496</v>
+        <v>194830695</v>
       </c>
       <c r="E39" t="n">
-        <v>1105373459</v>
+        <v>1103251106</v>
       </c>
       <c r="F39" t="n">
-        <v>57039.30723924127</v>
+        <v>66154.31451998682</v>
       </c>
       <c r="G39" t="n">
-        <v>58601.33588748478</v>
+        <v>55887.27107859925</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>81984907</v>
+        <v>80748252</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>130838898</v>
+        <v>130410728</v>
       </c>
       <c r="E40" t="n">
-        <v>969177023</v>
+        <v>966005389</v>
       </c>
       <c r="F40" t="n">
-        <v>13268.69848701512</v>
+        <v>13869.2674956074</v>
       </c>
       <c r="G40" t="n">
-        <v>19966.33355760016</v>
+        <v>19272.98661094113</v>
       </c>
       <c r="H40" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I40" t="n">
-        <v>39946826</v>
+        <v>40362080</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>319135549</v>
+        <v>316359939</v>
       </c>
       <c r="E41" t="n">
-        <v>2871141288</v>
+        <v>2846170181</v>
       </c>
       <c r="F41" t="n">
-        <v>60304.23837513238</v>
+        <v>73737.29904637038</v>
       </c>
       <c r="G41" t="n">
-        <v>89652.45772744829</v>
+        <v>98229.60175491583</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>75077756</v>
+        <v>70985735</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1550059</v>
+        <v>1531363</v>
       </c>
       <c r="E42" t="n">
-        <v>12917160</v>
+        <v>12761355</v>
       </c>
       <c r="F42" t="n">
-        <v>2385.184035924581</v>
+        <v>494.4861458341468</v>
       </c>
       <c r="G42" t="n">
-        <v>2571.236983960055</v>
+        <v>2474.744631045683</v>
       </c>
       <c r="H42" t="n">
-        <v>0.85</v>
+        <v>0.55</v>
       </c>
       <c r="I42" t="n">
-        <v>33448</v>
+        <v>32677</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19609103</v>
+        <v>19851987</v>
       </c>
       <c r="E43" t="n">
-        <v>58793859</v>
+        <v>59522096</v>
       </c>
       <c r="F43" t="n">
-        <v>2466.054970904535</v>
+        <v>1092.778535565911</v>
       </c>
       <c r="G43" t="n">
-        <v>6905.448945191655</v>
+        <v>6526.384543521563</v>
       </c>
       <c r="H43" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="I43" t="n">
-        <v>4229939</v>
+        <v>4295445</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7872212</v>
+        <v>7878208</v>
       </c>
       <c r="F44" t="n">
-        <v>1459.711836177328</v>
+        <v>4638.863879207785</v>
       </c>
       <c r="G44" t="n">
-        <v>893.3092250609943</v>
+        <v>3684.409003183156</v>
       </c>
       <c r="H44" t="n">
         <v>0.38</v>
       </c>
       <c r="I44" t="n">
-        <v>1128421</v>
+        <v>1107562</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12707775</v>
+        <v>12682586</v>
       </c>
       <c r="E45" t="n">
-        <v>12707775</v>
+        <v>12682586</v>
       </c>
       <c r="F45" t="n">
-        <v>16.27335190963776</v>
+        <v>193.9744133942026</v>
       </c>
       <c r="G45" t="n">
-        <v>955.9772552531741</v>
+        <v>11.28610072070216</v>
       </c>
       <c r="H45" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="I45" t="n">
-        <v>2122843</v>
+        <v>2127166</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>292731934</v>
+        <v>293931329</v>
       </c>
       <c r="E46" t="n">
-        <v>292731934</v>
+        <v>293931329</v>
       </c>
       <c r="F46" t="n">
-        <v>9005.49443303614</v>
+        <v>7960.781387142744</v>
       </c>
       <c r="G46" t="n">
-        <v>14501.87296981166</v>
+        <v>16183.44232502187</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>18988479</v>
+        <v>18757657</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13095743</v>
+        <v>13145203</v>
       </c>
       <c r="E47" t="n">
-        <v>41417958</v>
+        <v>41574201</v>
       </c>
       <c r="F47" t="n">
-        <v>6166.597786308282</v>
+        <v>3593.005921941286</v>
       </c>
       <c r="G47" t="n">
-        <v>6281.041884041032</v>
+        <v>3739.775989651711</v>
       </c>
       <c r="H47" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I47" t="n">
-        <v>1271883</v>
+        <v>1291867</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31871545</v>
+        <v>31820829</v>
       </c>
       <c r="E48" t="n">
-        <v>88281016</v>
+        <v>88140540</v>
       </c>
       <c r="F48" t="n">
-        <v>6813.625867319523</v>
+        <v>6971.758698690429</v>
       </c>
       <c r="G48" t="n">
-        <v>1883.812214905535</v>
+        <v>1839.212494023894</v>
       </c>
       <c r="H48" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I48" t="n">
-        <v>12608076</v>
+        <v>12657662</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28849344</v>
+        <v>28762710</v>
       </c>
       <c r="E49" t="n">
-        <v>68435993</v>
+        <v>68230481</v>
       </c>
       <c r="F49" t="n">
-        <v>2362.695562448667</v>
+        <v>8228.626876616539</v>
       </c>
       <c r="G49" t="n">
-        <v>8619.518174973313</v>
+        <v>8727.71438053708</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I49" t="n">
-        <v>768518</v>
+        <v>832398</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11879422</v>
+        <v>11911548</v>
       </c>
       <c r="E50" t="n">
-        <v>18061372</v>
+        <v>18110217</v>
       </c>
       <c r="F50" t="n">
-        <v>2837.849619767631</v>
+        <v>13193.51496342153</v>
       </c>
       <c r="G50" t="n">
-        <v>2249.275558936852</v>
+        <v>3353.246081169324</v>
       </c>
       <c r="H50" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="I50" t="n">
-        <v>660417</v>
+        <v>680464</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>299943949</v>
+        <v>302405729</v>
       </c>
       <c r="E51" t="n">
-        <v>299943949</v>
+        <v>302405729</v>
       </c>
       <c r="F51" t="n">
-        <v>35687.44750822306</v>
+        <v>42500.34420816891</v>
       </c>
       <c r="G51" t="n">
-        <v>62767.2670430912</v>
+        <v>39306.13467832271</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>91346545</v>
+        <v>91341883</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84498037</v>
+        <v>84365157</v>
       </c>
       <c r="E52" t="n">
-        <v>486914137</v>
+        <v>486148425</v>
       </c>
       <c r="F52" t="n">
-        <v>52010.17950561873</v>
+        <v>52875.33736713458</v>
       </c>
       <c r="G52" t="n">
-        <v>69067.59298114352</v>
+        <v>68982.65218198614</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I52" t="n">
-        <v>21418938</v>
+        <v>21010846</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30543385</v>
+        <v>30105325</v>
       </c>
       <c r="E53" t="n">
-        <v>136755263</v>
+        <v>134793890</v>
       </c>
       <c r="F53" t="n">
-        <v>12290.5813345782</v>
+        <v>10535.4644454527</v>
       </c>
       <c r="G53" t="n">
-        <v>16346.56927231521</v>
+        <v>14546.76426981225</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>19744476</v>
+        <v>20037227</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7506244</v>
+        <v>7586458</v>
       </c>
       <c r="F54" t="n">
-        <v>3316.998492009408</v>
+        <v>3299.067401797992</v>
       </c>
       <c r="G54" t="n">
-        <v>4503.272096627888</v>
+        <v>4503.125234283704</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="I54" t="n">
-        <v>321724</v>
+        <v>331510</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4421028</v>
+        <v>4433305</v>
       </c>
       <c r="F55" t="n">
-        <v>1837.614882091556</v>
+        <v>1077.574008114273</v>
       </c>
       <c r="G55" t="n">
-        <v>1168.940284165253</v>
+        <v>1224.044354439051</v>
       </c>
       <c r="H55" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="I55" t="n">
-        <v>239881</v>
+        <v>224083</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122816822</v>
+        <v>122917866</v>
       </c>
       <c r="E56" t="n">
-        <v>2033947169</v>
+        <v>2035620537</v>
       </c>
       <c r="F56" t="n">
-        <v>20066.10854599754</v>
+        <v>21979.41102003501</v>
       </c>
       <c r="G56" t="n">
-        <v>21958.55103299122</v>
+        <v>25111.15711155391</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>61452966</v>
+        <v>77232284</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>92701716</v>
+        <v>94264587</v>
       </c>
       <c r="E57" t="n">
-        <v>93699581</v>
+        <v>95279276</v>
       </c>
       <c r="F57" t="n">
-        <v>13094.20729989709</v>
+        <v>16676.43032695646</v>
       </c>
       <c r="G57" t="n">
-        <v>28652.99986758262</v>
+        <v>21752.01993920076</v>
       </c>
       <c r="H57" t="n">
         <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>59930321</v>
+        <v>59759773</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>237817109</v>
+        <v>242970125</v>
       </c>
       <c r="E58" t="n">
-        <v>237817109</v>
+        <v>242970125</v>
       </c>
       <c r="F58" t="n">
-        <v>85781.43682325394</v>
+        <v>103837.2131535135</v>
       </c>
       <c r="G58" t="n">
-        <v>82629.39712017124</v>
+        <v>76705.42176416653</v>
       </c>
       <c r="H58" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>96410508</v>
+        <v>97817269</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23031539</v>
+        <v>23078417</v>
       </c>
       <c r="E59" t="n">
-        <v>137802330</v>
+        <v>138082808</v>
       </c>
       <c r="F59" t="n">
-        <v>25764.91772159347</v>
+        <v>25697.34811971553</v>
       </c>
       <c r="G59" t="n">
-        <v>5851.821291366011</v>
+        <v>25710.7969155798</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>17845707</v>
+        <v>17519222</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2561840</v>
+        <v>2697267</v>
       </c>
       <c r="E60" t="n">
-        <v>4728022</v>
+        <v>4977961</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>7.42</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I60" t="n">
-        <v>463196</v>
+        <v>477325</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9832823</v>
+        <v>9753127</v>
       </c>
       <c r="E62" t="n">
-        <v>29149781</v>
+        <v>28913518</v>
       </c>
       <c r="F62" t="n">
-        <v>3959.107788773271</v>
+        <v>3669.747573446613</v>
       </c>
       <c r="G62" t="n">
-        <v>2433.266487896346</v>
+        <v>2765.018168432069</v>
       </c>
       <c r="H62" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>6732382</v>
+        <v>6592195</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14559435</v>
+        <v>14495157</v>
       </c>
       <c r="E63" t="n">
-        <v>29474687</v>
+        <v>29344560</v>
       </c>
       <c r="F63" t="n">
-        <v>7203.703870760171</v>
+        <v>5834.810297719028</v>
       </c>
       <c r="G63" t="n">
-        <v>11365.63668687121</v>
+        <v>21112.95674581979</v>
       </c>
       <c r="H63" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>432723</v>
+        <v>428375</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33448021</v>
+        <v>33004602</v>
       </c>
       <c r="E64" t="n">
-        <v>237141015</v>
+        <v>233997247</v>
       </c>
       <c r="F64" t="n">
-        <v>42820.29051044738</v>
+        <v>53678.00511640325</v>
       </c>
       <c r="G64" t="n">
-        <v>41317.49735555427</v>
+        <v>45633.28936725506</v>
       </c>
       <c r="H64" t="n">
         <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>6596216</v>
+        <v>6538181</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1288521</v>
+        <v>1296777</v>
       </c>
       <c r="E65" t="n">
-        <v>7989749</v>
+        <v>8040833</v>
       </c>
       <c r="F65" t="n">
-        <v>182.9545502511459</v>
+        <v>158.6378140591304</v>
       </c>
       <c r="G65" t="n">
-        <v>50.73209467638616</v>
+        <v>51.62930213234515</v>
       </c>
       <c r="H65" t="n">
         <v>1.91</v>
       </c>
       <c r="I65" t="n">
-        <v>779459</v>
+        <v>781296</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>582045747</v>
+        <v>583016929</v>
       </c>
       <c r="E66" t="n">
-        <v>2254177302</v>
+        <v>2257938549</v>
       </c>
       <c r="F66" t="n">
-        <v>50985.54926449862</v>
+        <v>47591.19191132132</v>
       </c>
       <c r="G66" t="n">
-        <v>44277.4600499334</v>
+        <v>48087.43325724608</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>61983627</v>
+        <v>61984336</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5434276</v>
+        <v>5435513</v>
       </c>
       <c r="E67" t="n">
-        <v>24318842</v>
+        <v>24324378</v>
       </c>
       <c r="F67" t="n">
-        <v>1061.006811595931</v>
+        <v>3842.541371754065</v>
       </c>
       <c r="G67" t="n">
-        <v>15498.17748352578</v>
+        <v>17990.38856305195</v>
       </c>
       <c r="H67" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>195724</v>
+        <v>194027</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>108483193</v>
+        <v>107762078</v>
       </c>
       <c r="E68" t="n">
-        <v>1026442231</v>
+        <v>1019619216</v>
       </c>
       <c r="F68" t="n">
-        <v>6600.800679824656</v>
+        <v>5492.677998907767</v>
       </c>
       <c r="G68" t="n">
-        <v>5193.825241955308</v>
+        <v>7446.989104532755</v>
       </c>
       <c r="H68" t="n">
         <v>0.25</v>
       </c>
       <c r="I68" t="n">
-        <v>17968266</v>
+        <v>17985157</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>100365546</v>
+        <v>100154398</v>
       </c>
       <c r="E69" t="n">
-        <v>153109993</v>
+        <v>152787881</v>
       </c>
       <c r="F69" t="n">
-        <v>1533.675102552141</v>
+        <v>2118.831060206412</v>
       </c>
       <c r="G69" t="n">
-        <v>20937.75933949547</v>
+        <v>21506.17175335726</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="I69" t="n">
-        <v>11781848</v>
+        <v>11636687</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1059597</v>
+        <v>1062210</v>
       </c>
       <c r="E70" t="n">
-        <v>4102991</v>
+        <v>4113107</v>
       </c>
       <c r="F70" t="n">
-        <v>2396.912450668848</v>
+        <v>3143.118819364178</v>
       </c>
       <c r="G70" t="n">
-        <v>3444.013138528205</v>
+        <v>3673.414235437367</v>
       </c>
       <c r="H70" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="I70" t="n">
-        <v>267725</v>
+        <v>270122</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>121765076</v>
+        <v>123143156</v>
       </c>
       <c r="E71" t="n">
-        <v>467110431</v>
+        <v>472396969</v>
       </c>
       <c r="F71" t="n">
-        <v>13352.32580821172</v>
+        <v>13153.97215835033</v>
       </c>
       <c r="G71" t="n">
-        <v>14236.06247116152</v>
+        <v>13103.25454714188</v>
       </c>
       <c r="H71" t="n">
         <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>32104912</v>
+        <v>31154557</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3172784</v>
+        <v>3166705</v>
       </c>
       <c r="E72" t="n">
-        <v>30062596</v>
+        <v>30004994</v>
       </c>
       <c r="F72" t="n">
-        <v>613.5016495723746</v>
+        <v>543.3319364829838</v>
       </c>
       <c r="G72" t="n">
-        <v>177.7823169967394</v>
+        <v>84.172190904858</v>
       </c>
       <c r="H72" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="I72" t="n">
-        <v>230433</v>
+        <v>244639</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>42820343</v>
+        <v>42266064</v>
       </c>
       <c r="F73" t="n">
-        <v>4287.220922501785</v>
+        <v>5070.853778356926</v>
       </c>
       <c r="G73" t="n">
-        <v>981.9645750672622</v>
+        <v>1357.35815147703</v>
       </c>
       <c r="H73" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I73" t="n">
-        <v>12012468</v>
+        <v>12062155</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>92178480</v>
+        <v>92110282</v>
       </c>
       <c r="E74" t="n">
-        <v>340716827</v>
+        <v>340464387</v>
       </c>
       <c r="F74" t="n">
-        <v>248.360890621406</v>
+        <v>347.208786054159</v>
       </c>
       <c r="G74" t="n">
-        <v>763.9259170439586</v>
+        <v>258.0567214013344</v>
       </c>
       <c r="H74" t="n">
-        <v>1.95</v>
+        <v>1.15</v>
       </c>
       <c r="I74" t="n">
-        <v>340198</v>
+        <v>333844</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22859720</v>
+        <v>22590420</v>
       </c>
       <c r="E75" t="n">
-        <v>22859720</v>
+        <v>22590420</v>
       </c>
       <c r="F75" t="n">
-        <v>4439.945165153204</v>
+        <v>3929.959722943478</v>
       </c>
       <c r="G75" t="n">
-        <v>1853.850494388637</v>
+        <v>1612.88191301206</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="I75" t="n">
-        <v>5536709</v>
+        <v>5616393</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>465194440</v>
+        <v>467838418</v>
       </c>
       <c r="E76" t="n">
-        <v>1618482427</v>
+        <v>1627681230</v>
       </c>
       <c r="F76" t="n">
-        <v>87587.09615707619</v>
+        <v>109453.5848976048</v>
       </c>
       <c r="G76" t="n">
-        <v>98973.36035343815</v>
+        <v>104905.0685608543</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>49007469</v>
+        <v>49212481</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5621211135</v>
+        <v>5607114511</v>
       </c>
       <c r="E77" t="n">
-        <v>5621211135</v>
+        <v>5607114511</v>
       </c>
       <c r="F77" t="n">
-        <v>1557.745259025425</v>
+        <v>1551.634502331133</v>
       </c>
       <c r="G77" t="n">
-        <v>1197.317904200409</v>
+        <v>1192.621039706104</v>
       </c>
       <c r="H77" t="n">
         <v>1.7</v>
       </c>
       <c r="I77" t="n">
-        <v>35467149</v>
+        <v>35098748</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7254170</v>
+        <v>7294748</v>
       </c>
       <c r="E78" t="n">
-        <v>18845554</v>
+        <v>18950970</v>
       </c>
       <c r="F78" t="n">
-        <v>96.93107132105372</v>
+        <v>175.233810148286</v>
       </c>
       <c r="G78" t="n">
-        <v>85.01804235244224</v>
+        <v>249.1691663153736</v>
       </c>
       <c r="H78" t="n">
-        <v>1.62</v>
+        <v>0.84</v>
       </c>
       <c r="I78" t="n">
-        <v>815297</v>
+        <v>820184</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>108384769</v>
+        <v>109079127</v>
       </c>
       <c r="E79" t="n">
-        <v>164215447</v>
+        <v>165267480</v>
       </c>
       <c r="F79" t="n">
-        <v>37879.5878610959</v>
+        <v>37926.63953086507</v>
       </c>
       <c r="G79" t="n">
-        <v>41509.11719255707</v>
+        <v>38327.48123679246</v>
       </c>
       <c r="H79" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="I79" t="n">
-        <v>9520927</v>
+        <v>9149135</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2281576</v>
+        <v>2267246</v>
       </c>
       <c r="E80" t="n">
-        <v>9126305</v>
+        <v>9068984</v>
       </c>
       <c r="F80" t="n">
-        <v>823.7295994790051</v>
+        <v>1531.319203658835</v>
       </c>
       <c r="G80" t="n">
-        <v>1537.450173283012</v>
+        <v>1440.439135273106</v>
       </c>
       <c r="H80" t="n">
-        <v>0.66</v>
+        <v>0.55</v>
       </c>
       <c r="I80" t="n">
-        <v>8239799</v>
+        <v>8258911</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2233848</v>
+        <v>2221461</v>
       </c>
       <c r="F81" t="n">
-        <v>442.4117350481856</v>
+        <v>244.4778070097593</v>
       </c>
       <c r="G81" t="n">
-        <v>40.13682551698914</v>
+        <v>18.09292344361422</v>
       </c>
       <c r="H81" t="n">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="I81" t="n">
-        <v>153619</v>
+        <v>156269</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>381174562</v>
+        <v>381616952</v>
       </c>
       <c r="E82" t="n">
-        <v>2178140356</v>
+        <v>2180668295</v>
       </c>
       <c r="F82" t="n">
-        <v>30523.50499231091</v>
+        <v>28805.17817240418</v>
       </c>
       <c r="G82" t="n">
-        <v>42111.84426737598</v>
+        <v>41649.17015665317</v>
       </c>
       <c r="H82" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>64687889</v>
+        <v>63982173</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3802083</v>
+        <v>4053555</v>
       </c>
       <c r="F2" t="n">
-        <v>271.6755204835071</v>
+        <v>1926.222482662485</v>
       </c>
       <c r="G2" t="n">
-        <v>480.3730660260644</v>
+        <v>3274.977341128739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="I2" t="n">
-        <v>129155</v>
+        <v>137122</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1773520</v>
+        <v>1427322</v>
       </c>
       <c r="E3" t="n">
-        <v>5732744</v>
+        <v>4613691</v>
       </c>
       <c r="F3" t="n">
-        <v>361.702703062286</v>
+        <v>608.7333056916085</v>
       </c>
       <c r="G3" t="n">
-        <v>426.580832537011</v>
+        <v>2798.271315632256</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>0.19</v>
       </c>
       <c r="I3" t="n">
-        <v>592858</v>
+        <v>574840</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252209509</v>
+        <v>265992746</v>
       </c>
       <c r="E4" t="n">
-        <v>1581570379</v>
+        <v>1668003122</v>
       </c>
       <c r="F4" t="n">
-        <v>10074.12928927598</v>
+        <v>12674.93774832565</v>
       </c>
       <c r="G4" t="n">
-        <v>35221.97051112325</v>
+        <v>32073.94177043459</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>29775811</v>
+        <v>31932768</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142017043</v>
+        <v>148758722</v>
       </c>
       <c r="E5" t="n">
-        <v>157377079</v>
+        <v>164847912</v>
       </c>
       <c r="F5" t="n">
-        <v>27082.46245415762</v>
+        <v>30277.95797815507</v>
       </c>
       <c r="G5" t="n">
-        <v>30756.59478601867</v>
+        <v>41742.42301071351</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>52061039</v>
+        <v>39913770</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117489727</v>
+        <v>124027281</v>
       </c>
       <c r="E6" t="n">
-        <v>460524553</v>
+        <v>486149804</v>
       </c>
       <c r="F6" t="n">
-        <v>12406.68665412537</v>
+        <v>10925.80611000457</v>
       </c>
       <c r="G6" t="n">
-        <v>11784.1865392074</v>
+        <v>9187.134044192928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>25549880</v>
+        <v>21364020</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4371437</v>
+        <v>4250877</v>
       </c>
       <c r="E7" t="n">
-        <v>26839823</v>
+        <v>26096113</v>
       </c>
       <c r="F7" t="n">
-        <v>433.6666378225596</v>
+        <v>1979.047011148527</v>
       </c>
       <c r="G7" t="n">
-        <v>261.0262485794242</v>
+        <v>2169.042805658316</v>
       </c>
       <c r="H7" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="I7" t="n">
-        <v>376728</v>
+        <v>202322</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>186567</v>
+        <v>182070</v>
       </c>
       <c r="E8" t="n">
-        <v>2052442</v>
+        <v>2002973</v>
       </c>
       <c r="F8" t="n">
-        <v>2400.23722364461</v>
+        <v>2296.523619458933</v>
       </c>
       <c r="G8" t="n">
-        <v>2043.233441305742</v>
+        <v>2300.230385111477</v>
       </c>
       <c r="H8" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>53914</v>
+        <v>63538</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69112085</v>
+        <v>71402130</v>
       </c>
       <c r="E9" t="n">
-        <v>119613978</v>
+        <v>123553803</v>
       </c>
       <c r="F9" t="n">
-        <v>1135.888926898744</v>
+        <v>554.7671369815782</v>
       </c>
       <c r="G9" t="n">
-        <v>1583.249611012596</v>
+        <v>1105.874975098779</v>
       </c>
       <c r="H9" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="I9" t="n">
-        <v>705527</v>
+        <v>552228</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8786906</v>
+        <v>8778169</v>
       </c>
       <c r="E10" t="n">
-        <v>12437213</v>
+        <v>12424846</v>
       </c>
       <c r="F10" t="n">
-        <v>3087.154848925558</v>
+        <v>3231.4677716604</v>
       </c>
       <c r="G10" t="n">
-        <v>3064.745118919333</v>
+        <v>2937.521006917102</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>12911.78</v>
+        <v>9896.49</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>478075077</v>
+        <v>516277564</v>
       </c>
       <c r="E11" t="n">
-        <v>478075079</v>
+        <v>516277568</v>
       </c>
       <c r="F11" t="n">
-        <v>14553.77511453181</v>
+        <v>14338.40142374423</v>
       </c>
       <c r="G11" t="n">
-        <v>34869.44425847878</v>
+        <v>36200.48557684621</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I11" t="n">
-        <v>73585039</v>
+        <v>52663105</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>291993</v>
+        <v>308632</v>
       </c>
       <c r="E12" t="n">
-        <v>1363054</v>
+        <v>1440724</v>
       </c>
       <c r="F12" t="n">
-        <v>1533.383019344739</v>
+        <v>26.17396982344555</v>
       </c>
       <c r="G12" t="n">
-        <v>1.159723331451564</v>
+        <v>1765.081668520124</v>
       </c>
       <c r="H12" t="n">
-        <v>2.97</v>
+        <v>1.9</v>
       </c>
       <c r="I12" t="n">
-        <v>626807</v>
+        <v>658724</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2010480</v>
+        <v>1792243</v>
       </c>
       <c r="F13" t="n">
-        <v>3787.366843494885</v>
+        <v>658.5906153818007</v>
       </c>
       <c r="G13" t="n">
-        <v>286.1570773824279</v>
+        <v>5303.667390909019</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1463765</v>
+        <v>1077396</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11920580</v>
+        <v>12015294</v>
       </c>
       <c r="E14" t="n">
-        <v>29668168</v>
+        <v>29903895</v>
       </c>
       <c r="F14" t="n">
-        <v>827.0226773732167</v>
+        <v>983.6946310096446</v>
       </c>
       <c r="G14" t="n">
-        <v>1340.545728516873</v>
+        <v>1498.572286987421</v>
       </c>
       <c r="H14" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1605058</v>
+        <v>1407189</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>113081031</v>
+        <v>118015963</v>
       </c>
       <c r="E15" t="n">
-        <v>439286465</v>
+        <v>458245860</v>
       </c>
       <c r="F15" t="n">
-        <v>8316.752484137061</v>
+        <v>9688.747513653203</v>
       </c>
       <c r="G15" t="n">
-        <v>10189.98016129078</v>
+        <v>7434.645246921928</v>
       </c>
       <c r="H15" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>12538385</v>
+        <v>9769901</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4927319</v>
+        <v>4812480</v>
       </c>
       <c r="E16" t="n">
-        <v>7253280</v>
+        <v>7084232</v>
       </c>
       <c r="F16" t="n">
-        <v>152.846237520728</v>
+        <v>622.4092979437725</v>
       </c>
       <c r="G16" t="n">
-        <v>12.80752756185452</v>
+        <v>607.0056984174098</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>0.57</v>
       </c>
       <c r="I16" t="n">
-        <v>637605</v>
+        <v>700162</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>411151</v>
+        <v>434542</v>
       </c>
       <c r="E17" t="n">
-        <v>1705277</v>
+        <v>1797432</v>
       </c>
       <c r="F17" t="n">
-        <v>213.740122678146</v>
+        <v>396.1952601438757</v>
       </c>
       <c r="G17" t="n">
-        <v>441.2575215802493</v>
+        <v>407.2319069192333</v>
       </c>
       <c r="H17" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="I17" t="n">
-        <v>57343</v>
+        <v>40501</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>142464512</v>
+        <v>154051203</v>
       </c>
       <c r="E18" t="n">
-        <v>142464512</v>
+        <v>154051203</v>
       </c>
       <c r="F18" t="n">
-        <v>56013.24200021624</v>
+        <v>52492.91917826903</v>
       </c>
       <c r="G18" t="n">
-        <v>69236.91513973396</v>
+        <v>102152.3962107667</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>94306298</v>
+        <v>101472436</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63333586</v>
+        <v>68824545</v>
       </c>
       <c r="E19" t="n">
-        <v>324787620</v>
+        <v>352946385</v>
       </c>
       <c r="F19" t="n">
-        <v>17085.78047102403</v>
+        <v>9556.052881600082</v>
       </c>
       <c r="G19" t="n">
-        <v>9089.659974072745</v>
+        <v>10190.11756516231</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>22761614</v>
+        <v>17731526</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>252919340</v>
+        <v>264743592</v>
       </c>
       <c r="E20" t="n">
-        <v>252919340</v>
+        <v>264743592</v>
       </c>
       <c r="F20" t="n">
-        <v>53812.0179199658</v>
+        <v>138824.7834934587</v>
       </c>
       <c r="G20" t="n">
-        <v>64759.55644322758</v>
+        <v>79200.94881047137</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>28908356</v>
+        <v>22752662</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>176525922</v>
+        <v>175412489</v>
       </c>
       <c r="E21" t="n">
-        <v>232287467</v>
+        <v>230822321</v>
       </c>
       <c r="F21" t="n">
-        <v>18417.34516448903</v>
+        <v>23238.52244975044</v>
       </c>
       <c r="G21" t="n">
-        <v>10904.85313959296</v>
+        <v>14466.92390772263</v>
       </c>
       <c r="H21" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I21" t="n">
-        <v>17849764</v>
+        <v>8504596</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78115975</v>
+        <v>86298501</v>
       </c>
       <c r="E22" t="n">
-        <v>218634754</v>
+        <v>241460506</v>
       </c>
       <c r="F22" t="n">
-        <v>19668.2579243178</v>
+        <v>23574.02563797179</v>
       </c>
       <c r="G22" t="n">
-        <v>31283.03555278786</v>
+        <v>23896.97858815465</v>
       </c>
       <c r="H22" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>49881826</v>
+        <v>44795872</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84109199</v>
+        <v>92849220</v>
       </c>
       <c r="E23" t="n">
-        <v>175360926</v>
+        <v>193583167</v>
       </c>
       <c r="F23" t="n">
-        <v>13426.47901502033</v>
+        <v>14844.7325001486</v>
       </c>
       <c r="G23" t="n">
-        <v>20177.56606552789</v>
+        <v>30790.02888424543</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>85154686</v>
+        <v>50440311</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>642475880</v>
+        <v>702835368</v>
       </c>
       <c r="E24" t="n">
-        <v>642475880</v>
+        <v>702835368</v>
       </c>
       <c r="F24" t="n">
-        <v>111549.9504022404</v>
+        <v>79637.9065723332</v>
       </c>
       <c r="G24" t="n">
-        <v>116409.2284437355</v>
+        <v>149319.1681501001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>555351276</v>
+        <v>481122450</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>192831633</v>
+        <v>197493138</v>
       </c>
       <c r="E25" t="n">
-        <v>669914521</v>
+        <v>686109009</v>
       </c>
       <c r="F25" t="n">
-        <v>87967.66549250046</v>
+        <v>57160.68666851682</v>
       </c>
       <c r="G25" t="n">
-        <v>76389.05198773302</v>
+        <v>114451.1783939959</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>41124554</v>
+        <v>31819419</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5359187</v>
+        <v>5559414</v>
       </c>
       <c r="E26" t="n">
-        <v>7271966</v>
+        <v>7542722</v>
       </c>
       <c r="F26" t="n">
-        <v>255.2010364202716</v>
+        <v>931.5907776886887</v>
       </c>
       <c r="G26" t="n">
-        <v>2323.749649682049</v>
+        <v>1681.911329284316</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="I26" t="n">
-        <v>5746378</v>
+        <v>5634352</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14646383</v>
+        <v>15037748</v>
       </c>
       <c r="F27" t="n">
-        <v>2850.59590806769</v>
+        <v>2074.894330818401</v>
       </c>
       <c r="G27" t="n">
-        <v>1455.33849953808</v>
+        <v>2619.121410408766</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.44</v>
       </c>
       <c r="I27" t="n">
-        <v>217123</v>
+        <v>202076</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25142320</v>
+        <v>25332876</v>
       </c>
       <c r="E28" t="n">
-        <v>35530153</v>
+        <v>35791906</v>
       </c>
       <c r="F28" t="n">
-        <v>320.2302345285507</v>
+        <v>178.3482272961933</v>
       </c>
       <c r="G28" t="n">
-        <v>483.0272794586225</v>
+        <v>376.8710308181716</v>
       </c>
       <c r="H28" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="I28" t="n">
-        <v>177862</v>
+        <v>177062</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>262048519</v>
+        <v>273872879</v>
       </c>
       <c r="E29" t="n">
-        <v>1131146882</v>
+        <v>1182187382</v>
       </c>
       <c r="F29" t="n">
-        <v>139736.4629432152</v>
+        <v>140037.7141976088</v>
       </c>
       <c r="G29" t="n">
-        <v>128857.9485047089</v>
+        <v>142683.94101465</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I29" t="n">
-        <v>139186777</v>
+        <v>93180913</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10350438</v>
+        <v>10606594</v>
       </c>
       <c r="E30" t="n">
-        <v>124288093</v>
+        <v>127324264</v>
       </c>
       <c r="F30" t="n">
-        <v>2448.742232014654</v>
+        <v>16691.66817179517</v>
       </c>
       <c r="G30" t="n">
-        <v>1292.620335660665</v>
+        <v>1297.711550420557</v>
       </c>
       <c r="H30" t="n">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="I30" t="n">
-        <v>435343</v>
+        <v>262921</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15697323</v>
+        <v>16108383</v>
       </c>
       <c r="E31" t="n">
-        <v>39243307</v>
+        <v>40270957</v>
       </c>
       <c r="F31" t="n">
-        <v>4814.541962775755</v>
+        <v>6594.37383012996</v>
       </c>
       <c r="G31" t="n">
-        <v>13268.6129770823</v>
+        <v>5103.80188690592</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>5202572</v>
+        <v>4669670</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18989384</v>
+        <v>18749593</v>
       </c>
       <c r="F32" t="n">
-        <v>3291.609630579598</v>
+        <v>1354.8692826806</v>
       </c>
       <c r="G32" t="n">
-        <v>4260.562815802773</v>
+        <v>2384.917386903478</v>
       </c>
       <c r="H32" t="n">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="I32" t="n">
-        <v>75427</v>
+        <v>66040</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1553735</v>
+        <v>1699488</v>
       </c>
       <c r="E33" t="n">
-        <v>5792228</v>
+        <v>6335173</v>
       </c>
       <c r="F33" t="n">
-        <v>3873.46846993072</v>
+        <v>1425.227924387806</v>
       </c>
       <c r="G33" t="n">
-        <v>1817.981156276915</v>
+        <v>1115.094885051508</v>
       </c>
       <c r="H33" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>728149</v>
+        <v>922365</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4091450</v>
+        <v>4081982</v>
       </c>
       <c r="E34" t="n">
-        <v>11783841</v>
+        <v>11755163</v>
       </c>
       <c r="F34" t="n">
-        <v>2256.275365467164</v>
+        <v>4174.807327642047</v>
       </c>
       <c r="G34" t="n">
-        <v>2148.962078606757</v>
+        <v>5006.991754441462</v>
       </c>
       <c r="H34" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="I34" t="n">
-        <v>409013</v>
+        <v>374950</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14110053</v>
+        <v>15337856</v>
       </c>
       <c r="E35" t="n">
-        <v>68337241</v>
+        <v>74283686</v>
       </c>
       <c r="F35" t="n">
-        <v>3202.862970613792</v>
+        <v>3393.97359019493</v>
       </c>
       <c r="G35" t="n">
-        <v>2494.823836797213</v>
+        <v>4012.874080193413</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5269040</v>
+        <v>4255935</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1206350</v>
+        <v>1225360</v>
       </c>
       <c r="E36" t="n">
-        <v>7895529</v>
+        <v>8019952</v>
       </c>
       <c r="F36" t="n">
-        <v>3120.982344522371</v>
+        <v>465.4012286635779</v>
       </c>
       <c r="G36" t="n">
-        <v>2984.078013807371</v>
+        <v>695.7128912413964</v>
       </c>
       <c r="H36" t="n">
-        <v>0.63</v>
+        <v>0.99</v>
       </c>
       <c r="I36" t="n">
-        <v>175409</v>
+        <v>209568</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1844070531</v>
+        <v>1843679732</v>
       </c>
       <c r="F37" t="n">
-        <v>741.4962819316651</v>
+        <v>881.1341356775952</v>
       </c>
       <c r="G37" t="n">
-        <v>404.6533970517518</v>
+        <v>111.7698441113236</v>
       </c>
       <c r="H37" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>32118895</v>
+        <v>30523599</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1808312</v>
+        <v>1860810</v>
       </c>
       <c r="E38" t="n">
-        <v>12967226</v>
+        <v>13343682</v>
       </c>
       <c r="F38" t="n">
-        <v>4539.499023517224</v>
+        <v>6635.153942073149</v>
       </c>
       <c r="G38" t="n">
-        <v>5185.517576361092</v>
+        <v>6980.335707575894</v>
       </c>
       <c r="H38" t="n">
-        <v>0.84</v>
+        <v>0.15</v>
       </c>
       <c r="I38" t="n">
-        <v>2183455</v>
+        <v>2281823</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194830695</v>
+        <v>200595538</v>
       </c>
       <c r="E39" t="n">
-        <v>1103251106</v>
+        <v>1135895190</v>
       </c>
       <c r="F39" t="n">
-        <v>66154.31451998682</v>
+        <v>62294.99285553966</v>
       </c>
       <c r="G39" t="n">
-        <v>55887.27107859925</v>
+        <v>60367.27943018909</v>
       </c>
       <c r="H39" t="n">
         <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>80748252</v>
+        <v>55241117</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>130410728</v>
+        <v>134083280</v>
       </c>
       <c r="E40" t="n">
-        <v>966005389</v>
+        <v>993209481</v>
       </c>
       <c r="F40" t="n">
-        <v>13869.2674956074</v>
+        <v>9166.637277529579</v>
       </c>
       <c r="G40" t="n">
-        <v>19272.98661094113</v>
+        <v>19891.96817981387</v>
       </c>
       <c r="H40" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>40362080</v>
+        <v>29586322</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>316359939</v>
+        <v>329577245</v>
       </c>
       <c r="E41" t="n">
-        <v>2846170181</v>
+        <v>2965081263</v>
       </c>
       <c r="F41" t="n">
-        <v>73737.29904637038</v>
+        <v>57031.22398463023</v>
       </c>
       <c r="G41" t="n">
-        <v>98229.60175491583</v>
+        <v>103958.2996838262</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>70985735</v>
+        <v>57120106</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1531363</v>
+        <v>1560652</v>
       </c>
       <c r="E42" t="n">
-        <v>12761355</v>
+        <v>13005433</v>
       </c>
       <c r="F42" t="n">
-        <v>494.4861458341468</v>
+        <v>2396.794946896031</v>
       </c>
       <c r="G42" t="n">
-        <v>2474.744631045683</v>
+        <v>1751.286500726742</v>
       </c>
       <c r="H42" t="n">
-        <v>0.55</v>
+        <v>0.85</v>
       </c>
       <c r="I42" t="n">
-        <v>32677</v>
+        <v>50652</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19851987</v>
+        <v>20390850</v>
       </c>
       <c r="E43" t="n">
-        <v>59522096</v>
+        <v>61137307</v>
       </c>
       <c r="F43" t="n">
-        <v>1092.778535565911</v>
+        <v>2554.808365615083</v>
       </c>
       <c r="G43" t="n">
-        <v>6526.384543521563</v>
+        <v>3913.579522484035</v>
       </c>
       <c r="H43" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="I43" t="n">
-        <v>4295445</v>
+        <v>3886722</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7878208</v>
+        <v>7678723</v>
       </c>
       <c r="F44" t="n">
-        <v>4638.863879207785</v>
+        <v>2275.350409030796</v>
       </c>
       <c r="G44" t="n">
-        <v>3684.409003183156</v>
+        <v>2065.108538194293</v>
       </c>
       <c r="H44" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="I44" t="n">
-        <v>1107562</v>
+        <v>1179655</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12682586</v>
+        <v>12871235</v>
       </c>
       <c r="E45" t="n">
-        <v>12682586</v>
+        <v>12871235</v>
       </c>
       <c r="F45" t="n">
-        <v>193.9744133942026</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>11.28610072070216</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.72</v>
+        <v>5.11</v>
       </c>
       <c r="I45" t="n">
-        <v>2127166</v>
+        <v>1800100</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>293931329</v>
+        <v>317019233</v>
       </c>
       <c r="E46" t="n">
-        <v>293931329</v>
+        <v>317019233</v>
       </c>
       <c r="F46" t="n">
-        <v>7960.781387142744</v>
+        <v>13124.95954441168</v>
       </c>
       <c r="G46" t="n">
-        <v>16183.44232502187</v>
+        <v>21784.29603254199</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="n">
-        <v>18757657</v>
+        <v>16093861</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13145203</v>
+        <v>13003127</v>
       </c>
       <c r="E47" t="n">
-        <v>41574201</v>
+        <v>41121692</v>
       </c>
       <c r="F47" t="n">
-        <v>3593.005921941286</v>
+        <v>8127.638185219385</v>
       </c>
       <c r="G47" t="n">
-        <v>3739.775989651711</v>
+        <v>6413.503366946164</v>
       </c>
       <c r="H47" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>1291867</v>
+        <v>1733947</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31820829</v>
+        <v>32586624</v>
       </c>
       <c r="E48" t="n">
-        <v>88140540</v>
+        <v>90261714</v>
       </c>
       <c r="F48" t="n">
-        <v>6971.758698690429</v>
+        <v>7336.671204494147</v>
       </c>
       <c r="G48" t="n">
-        <v>1839.212494023894</v>
+        <v>2125.615776694138</v>
       </c>
       <c r="H48" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I48" t="n">
-        <v>12657662</v>
+        <v>12439329</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28762710</v>
+        <v>29172315</v>
       </c>
       <c r="E49" t="n">
-        <v>68230481</v>
+        <v>69202141</v>
       </c>
       <c r="F49" t="n">
-        <v>8228.626876616539</v>
+        <v>14263.57002656999</v>
       </c>
       <c r="G49" t="n">
-        <v>8727.71438053708</v>
+        <v>13074.09341026671</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>832398</v>
+        <v>632119</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11911548</v>
+        <v>11745498</v>
       </c>
       <c r="E50" t="n">
-        <v>18110217</v>
+        <v>17857756</v>
       </c>
       <c r="F50" t="n">
-        <v>13193.51496342153</v>
+        <v>4479.492009637504</v>
       </c>
       <c r="G50" t="n">
-        <v>3353.246081169324</v>
+        <v>3648.679239259151</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I50" t="n">
-        <v>680464</v>
+        <v>760490</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>302405729</v>
+        <v>314868019</v>
       </c>
       <c r="E51" t="n">
-        <v>302405729</v>
+        <v>314868019</v>
       </c>
       <c r="F51" t="n">
-        <v>42500.34420816891</v>
+        <v>145522.7544061111</v>
       </c>
       <c r="G51" t="n">
-        <v>39306.13467832271</v>
+        <v>41532.82359251496</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>91341883</v>
+        <v>81943182</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84365157</v>
+        <v>89627812</v>
       </c>
       <c r="E52" t="n">
-        <v>486148425</v>
+        <v>516474112</v>
       </c>
       <c r="F52" t="n">
-        <v>52875.33736713458</v>
+        <v>56734.05506452073</v>
       </c>
       <c r="G52" t="n">
-        <v>68982.65218198614</v>
+        <v>75059.51129311552</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>21010846</v>
+        <v>30664830</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30105325</v>
+        <v>31792631</v>
       </c>
       <c r="E53" t="n">
-        <v>134793890</v>
+        <v>142348650</v>
       </c>
       <c r="F53" t="n">
-        <v>10535.4644454527</v>
+        <v>9788.450239784548</v>
       </c>
       <c r="G53" t="n">
-        <v>14546.76426981225</v>
+        <v>13659.14853000101</v>
       </c>
       <c r="H53" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>20037227</v>
+        <v>17246804</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7586458</v>
+        <v>7537064</v>
       </c>
       <c r="F54" t="n">
-        <v>3299.067401797992</v>
+        <v>4884.343375320276</v>
       </c>
       <c r="G54" t="n">
-        <v>4503.125234283704</v>
+        <v>4755.462512870383</v>
       </c>
       <c r="H54" t="n">
-        <v>1.03</v>
+        <v>0.38</v>
       </c>
       <c r="I54" t="n">
-        <v>331510</v>
+        <v>337878</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4433305</v>
+        <v>4748635</v>
       </c>
       <c r="F55" t="n">
-        <v>1077.574008114273</v>
+        <v>13.20211583062211</v>
       </c>
       <c r="G55" t="n">
-        <v>1224.044354439051</v>
+        <v>126.4231612261609</v>
       </c>
       <c r="H55" t="n">
-        <v>0.27</v>
+        <v>3.05</v>
       </c>
       <c r="I55" t="n">
-        <v>224083</v>
+        <v>285431</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122917866</v>
+        <v>124004577</v>
       </c>
       <c r="E56" t="n">
-        <v>2035620537</v>
+        <v>2053617358</v>
       </c>
       <c r="F56" t="n">
-        <v>21979.41102003501</v>
+        <v>25897.3814124382</v>
       </c>
       <c r="G56" t="n">
-        <v>25111.15711155391</v>
+        <v>28952.76189425381</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>77232284</v>
+        <v>117806311</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94264587</v>
+        <v>96484615</v>
       </c>
       <c r="E57" t="n">
-        <v>95279276</v>
+        <v>97523201</v>
       </c>
       <c r="F57" t="n">
-        <v>16676.43032695646</v>
+        <v>12919.94499584682</v>
       </c>
       <c r="G57" t="n">
-        <v>21752.01993920076</v>
+        <v>25629.88190233207</v>
       </c>
       <c r="H57" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>59759773</v>
+        <v>29887583</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>242970125</v>
+        <v>257417217</v>
       </c>
       <c r="E58" t="n">
-        <v>242970125</v>
+        <v>257417217</v>
       </c>
       <c r="F58" t="n">
-        <v>103837.2131535135</v>
+        <v>59000.56620252698</v>
       </c>
       <c r="G58" t="n">
-        <v>76705.42176416653</v>
+        <v>99171.88572514826</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>97817269</v>
+        <v>76064325</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23078417</v>
+        <v>24260647</v>
       </c>
       <c r="E59" t="n">
-        <v>138082808</v>
+        <v>145156326</v>
       </c>
       <c r="F59" t="n">
-        <v>25697.34811971553</v>
+        <v>31080.82313663357</v>
       </c>
       <c r="G59" t="n">
-        <v>25710.7969155798</v>
+        <v>28678.07520745789</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>17519222</v>
+        <v>15879481</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2697267</v>
+        <v>2547532</v>
       </c>
       <c r="E60" t="n">
-        <v>4977961</v>
+        <v>4701616</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>9.710000000000001</v>
+        <v>11.73</v>
       </c>
       <c r="I60" t="n">
-        <v>477325</v>
+        <v>645549</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9753127</v>
+        <v>10240649</v>
       </c>
       <c r="E62" t="n">
-        <v>28913518</v>
+        <v>30353330</v>
       </c>
       <c r="F62" t="n">
-        <v>3669.747573446613</v>
+        <v>3919.771493742043</v>
       </c>
       <c r="G62" t="n">
-        <v>2765.018168432069</v>
+        <v>3646.979080438795</v>
       </c>
       <c r="H62" t="n">
         <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>6592195</v>
+        <v>6022186</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14495157</v>
+        <v>14610218</v>
       </c>
       <c r="E63" t="n">
-        <v>29344560</v>
+        <v>29577495</v>
       </c>
       <c r="F63" t="n">
-        <v>5834.810297719028</v>
+        <v>7480.476593345035</v>
       </c>
       <c r="G63" t="n">
-        <v>21112.95674581979</v>
+        <v>13143.70563614052</v>
       </c>
       <c r="H63" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>428375</v>
+        <v>411443</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33004602</v>
+        <v>34347606</v>
       </c>
       <c r="E64" t="n">
-        <v>233997247</v>
+        <v>243518925</v>
       </c>
       <c r="F64" t="n">
-        <v>53678.00511640325</v>
+        <v>48665.18215805879</v>
       </c>
       <c r="G64" t="n">
-        <v>45633.28936725506</v>
+        <v>45111.31749362481</v>
       </c>
       <c r="H64" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I64" t="n">
-        <v>6538181</v>
+        <v>4318869</v>
       </c>
     </row>
     <row r="65">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Arbitrum Ecosystem, Ethereum Ecosystem, Shooting Games</t>
+          <t>Gaming (GameFi), Arbitrum Ecosystem, Ethereum Ecosystem, Shooting Games, Action Games</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1296777</v>
+        <v>1304637</v>
       </c>
       <c r="E65" t="n">
-        <v>8040833</v>
+        <v>8088356</v>
       </c>
       <c r="F65" t="n">
-        <v>158.6378140591304</v>
+        <v>151.4480887550396</v>
       </c>
       <c r="G65" t="n">
-        <v>51.62930213234515</v>
+        <v>119.3702433682035</v>
       </c>
       <c r="H65" t="n">
-        <v>1.91</v>
+        <v>2.79</v>
       </c>
       <c r="I65" t="n">
-        <v>781296</v>
+        <v>780314</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>583016929</v>
+        <v>603652203</v>
       </c>
       <c r="E66" t="n">
-        <v>2257938549</v>
+        <v>2337855921</v>
       </c>
       <c r="F66" t="n">
-        <v>47591.19191132132</v>
+        <v>42693.16397599786</v>
       </c>
       <c r="G66" t="n">
-        <v>48087.43325724608</v>
+        <v>53487.76365844076</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>61984336</v>
+        <v>41207848</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5435513</v>
+        <v>5451150</v>
       </c>
       <c r="E67" t="n">
-        <v>24324378</v>
+        <v>24362868</v>
       </c>
       <c r="F67" t="n">
-        <v>3842.541371754065</v>
+        <v>3496.818083577059</v>
       </c>
       <c r="G67" t="n">
-        <v>17990.38856305195</v>
+        <v>15276.04873090375</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I67" t="n">
-        <v>194027</v>
+        <v>166009</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>107762078</v>
+        <v>110837199</v>
       </c>
       <c r="E68" t="n">
-        <v>1019619216</v>
+        <v>1048715275</v>
       </c>
       <c r="F68" t="n">
-        <v>5492.677998907767</v>
+        <v>4582.021140344323</v>
       </c>
       <c r="G68" t="n">
-        <v>7446.989104532755</v>
+        <v>10446.36740293463</v>
       </c>
       <c r="H68" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I68" t="n">
-        <v>17985157</v>
+        <v>14887925</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>100154398</v>
+        <v>105636926</v>
       </c>
       <c r="E69" t="n">
-        <v>152787881</v>
+        <v>161151608</v>
       </c>
       <c r="F69" t="n">
-        <v>2118.831060206412</v>
+        <v>14264.02201150792</v>
       </c>
       <c r="G69" t="n">
-        <v>21506.17175335726</v>
+        <v>22225.43866405802</v>
       </c>
       <c r="H69" t="n">
-        <v>0.51</v>
+        <v>0.23</v>
       </c>
       <c r="I69" t="n">
-        <v>11636687</v>
+        <v>7582627</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1062210</v>
+        <v>1069925</v>
       </c>
       <c r="E70" t="n">
-        <v>4113107</v>
+        <v>4142985</v>
       </c>
       <c r="F70" t="n">
-        <v>3143.118819364178</v>
+        <v>2862.965307345496</v>
       </c>
       <c r="G70" t="n">
-        <v>3673.414235437367</v>
+        <v>2350.211177276304</v>
       </c>
       <c r="H70" t="n">
-        <v>0.22</v>
+        <v>0.58</v>
       </c>
       <c r="I70" t="n">
-        <v>270122</v>
+        <v>140322</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>123143156</v>
+        <v>128546775</v>
       </c>
       <c r="E71" t="n">
-        <v>472396969</v>
+        <v>493126118</v>
       </c>
       <c r="F71" t="n">
-        <v>13153.97215835033</v>
+        <v>15536.97818942411</v>
       </c>
       <c r="G71" t="n">
-        <v>13103.25454714188</v>
+        <v>11889.99526913026</v>
       </c>
       <c r="H71" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I71" t="n">
-        <v>31154557</v>
+        <v>22606332</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3166705</v>
+        <v>3846567</v>
       </c>
       <c r="E72" t="n">
-        <v>30004994</v>
+        <v>36446787</v>
       </c>
       <c r="F72" t="n">
-        <v>543.3319364829838</v>
+        <v>826.5213388164836</v>
       </c>
       <c r="G72" t="n">
-        <v>84.172190904858</v>
+        <v>771.3632960287523</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="I72" t="n">
-        <v>244639</v>
+        <v>657639</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>42266064</v>
+        <v>35831869</v>
       </c>
       <c r="F73" t="n">
-        <v>5070.853778356926</v>
+        <v>2547.018694468977</v>
       </c>
       <c r="G73" t="n">
-        <v>1357.35815147703</v>
+        <v>862.8722759575028</v>
       </c>
       <c r="H73" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I73" t="n">
-        <v>12062155</v>
+        <v>15509469</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>92110282</v>
+        <v>98130126</v>
       </c>
       <c r="E74" t="n">
-        <v>340464387</v>
+        <v>362692557</v>
       </c>
       <c r="F74" t="n">
-        <v>347.208786054159</v>
+        <v>255.3358340752369</v>
       </c>
       <c r="G74" t="n">
-        <v>258.0567214013344</v>
+        <v>81.00425335382835</v>
       </c>
       <c r="H74" t="n">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="I74" t="n">
-        <v>333844</v>
+        <v>838885</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22590420</v>
+        <v>23276418</v>
       </c>
       <c r="E75" t="n">
-        <v>22590420</v>
+        <v>23276418</v>
       </c>
       <c r="F75" t="n">
-        <v>3929.959722943478</v>
+        <v>2969.704704016921</v>
       </c>
       <c r="G75" t="n">
-        <v>1612.88191301206</v>
+        <v>3423.483337525627</v>
       </c>
       <c r="H75" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="I75" t="n">
-        <v>5616393</v>
+        <v>4202945</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>467838418</v>
+        <v>479100467</v>
       </c>
       <c r="E76" t="n">
-        <v>1627681230</v>
+        <v>1666863618</v>
       </c>
       <c r="F76" t="n">
-        <v>109453.5848976048</v>
+        <v>84571.74638680228</v>
       </c>
       <c r="G76" t="n">
-        <v>104905.0685608543</v>
+        <v>98376.20010364796</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>49212481</v>
+        <v>39293390</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5607114511</v>
+        <v>5798840958</v>
       </c>
       <c r="E77" t="n">
-        <v>5607114511</v>
+        <v>5798852375</v>
       </c>
       <c r="F77" t="n">
-        <v>1551.634502331133</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1192.621039706104</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1.7</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>35098748</v>
+        <v>18172100</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7294748</v>
+        <v>7469102</v>
       </c>
       <c r="E78" t="n">
-        <v>18950970</v>
+        <v>19403924</v>
       </c>
       <c r="F78" t="n">
-        <v>175.233810148286</v>
+        <v>176.5187615570707</v>
       </c>
       <c r="G78" t="n">
-        <v>249.1691663153736</v>
+        <v>114.2693811216984</v>
       </c>
       <c r="H78" t="n">
-        <v>0.84</v>
+        <v>0.31</v>
       </c>
       <c r="I78" t="n">
-        <v>820184</v>
+        <v>840417</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109079127</v>
+        <v>108550751</v>
       </c>
       <c r="E79" t="n">
-        <v>165267480</v>
+        <v>164466930</v>
       </c>
       <c r="F79" t="n">
-        <v>37926.63953086507</v>
+        <v>39135.18193229165</v>
       </c>
       <c r="G79" t="n">
-        <v>38327.48123679246</v>
+        <v>41278.09576919777</v>
       </c>
       <c r="H79" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="I79" t="n">
-        <v>9149135</v>
+        <v>8287428</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2267246</v>
+        <v>2304253</v>
       </c>
       <c r="E80" t="n">
-        <v>9068984</v>
+        <v>9217013</v>
       </c>
       <c r="F80" t="n">
-        <v>1531.319203658835</v>
+        <v>1744.31290095559</v>
       </c>
       <c r="G80" t="n">
-        <v>1440.439135273106</v>
+        <v>2356.979550054612</v>
       </c>
       <c r="H80" t="n">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
       <c r="I80" t="n">
-        <v>8258911</v>
+        <v>8333508</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2221461</v>
+        <v>2377058</v>
       </c>
       <c r="F81" t="n">
-        <v>244.4778070097593</v>
+        <v>1972.521882366951</v>
       </c>
       <c r="G81" t="n">
-        <v>18.09292344361422</v>
+        <v>1382.070651931534</v>
       </c>
       <c r="H81" t="n">
-        <v>1.06</v>
+        <v>0.68</v>
       </c>
       <c r="I81" t="n">
-        <v>156269</v>
+        <v>222723</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>381616952</v>
+        <v>394854668</v>
       </c>
       <c r="E82" t="n">
-        <v>2180668295</v>
+        <v>2256312388</v>
       </c>
       <c r="F82" t="n">
-        <v>28805.17817240418</v>
+        <v>53279.81872619662</v>
       </c>
       <c r="G82" t="n">
-        <v>41649.17015665317</v>
+        <v>43207.93602776208</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>63982173</v>
+        <v>55331531</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4053555</v>
+        <v>4071615</v>
       </c>
       <c r="F2" t="n">
-        <v>1926.222482662485</v>
+        <v>5536.035249151169</v>
       </c>
       <c r="G2" t="n">
-        <v>3274.977341128739</v>
+        <v>3534.10843426891</v>
       </c>
       <c r="H2" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="I2" t="n">
-        <v>137122</v>
+        <v>138545</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1427322</v>
+        <v>1394266</v>
       </c>
       <c r="E3" t="n">
-        <v>4613691</v>
+        <v>4506839</v>
       </c>
       <c r="F3" t="n">
-        <v>608.7333056916085</v>
+        <v>6015.356197047603</v>
       </c>
       <c r="G3" t="n">
-        <v>2798.271315632256</v>
+        <v>6271.087614602518</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="I3" t="n">
-        <v>574840</v>
+        <v>565065</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>265992746</v>
+        <v>262051311</v>
       </c>
       <c r="E4" t="n">
-        <v>1668003122</v>
+        <v>1643286938</v>
       </c>
       <c r="F4" t="n">
-        <v>12674.93774832565</v>
+        <v>21155.38682936169</v>
       </c>
       <c r="G4" t="n">
-        <v>32073.94177043459</v>
+        <v>25908.71224470405</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>31932768</v>
+        <v>26610454</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148758722</v>
+        <v>148902015</v>
       </c>
       <c r="E5" t="n">
-        <v>164847912</v>
+        <v>165006703</v>
       </c>
       <c r="F5" t="n">
-        <v>30277.95797815507</v>
+        <v>37053.57130178218</v>
       </c>
       <c r="G5" t="n">
-        <v>41742.42301071351</v>
+        <v>31154.73618705283</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>39913770</v>
+        <v>32536384</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124027281</v>
+        <v>124606784</v>
       </c>
       <c r="E6" t="n">
-        <v>486149804</v>
+        <v>488421284</v>
       </c>
       <c r="F6" t="n">
-        <v>10925.80611000457</v>
+        <v>12941.81107160474</v>
       </c>
       <c r="G6" t="n">
-        <v>9187.134044192928</v>
+        <v>3870.974359776081</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>21364020</v>
+        <v>20385970</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4250877</v>
+        <v>4247129</v>
       </c>
       <c r="E7" t="n">
-        <v>26096113</v>
+        <v>26066455</v>
       </c>
       <c r="F7" t="n">
-        <v>1979.047011148527</v>
+        <v>1317.812240344367</v>
       </c>
       <c r="G7" t="n">
-        <v>2169.042805658316</v>
+        <v>876.2728945137758</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15</v>
+        <v>0.61</v>
       </c>
       <c r="I7" t="n">
-        <v>202322</v>
+        <v>272605</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>182070</v>
+        <v>184522</v>
       </c>
       <c r="E8" t="n">
-        <v>2002973</v>
+        <v>2029946</v>
       </c>
       <c r="F8" t="n">
-        <v>2296.523619458933</v>
+        <v>2220.396113205869</v>
       </c>
       <c r="G8" t="n">
-        <v>2300.230385111477</v>
+        <v>6554.212786576673</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>63538</v>
+        <v>71846</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71402130</v>
+        <v>71820312</v>
       </c>
       <c r="E9" t="n">
-        <v>123553803</v>
+        <v>124246264</v>
       </c>
       <c r="F9" t="n">
-        <v>554.7671369815782</v>
+        <v>809.0573108902845</v>
       </c>
       <c r="G9" t="n">
-        <v>1105.874975098779</v>
+        <v>1295.470858210791</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>552228</v>
+        <v>448266</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8778169</v>
+        <v>8793514</v>
       </c>
       <c r="E10" t="n">
-        <v>12424846</v>
+        <v>12446566</v>
       </c>
       <c r="F10" t="n">
-        <v>3231.4677716604</v>
+        <v>2976.325872964061</v>
       </c>
       <c r="G10" t="n">
-        <v>2937.521006917102</v>
+        <v>2847.313252833344</v>
       </c>
       <c r="H10" t="n">
         <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>9896.49</v>
+        <v>8832.360000000001</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>516277564</v>
+        <v>499906897</v>
       </c>
       <c r="E11" t="n">
-        <v>516277568</v>
+        <v>499906901</v>
       </c>
       <c r="F11" t="n">
-        <v>14338.40142374423</v>
+        <v>13080.52741691135</v>
       </c>
       <c r="G11" t="n">
-        <v>36200.48557684621</v>
+        <v>36501.75612624062</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>52663105</v>
+        <v>33950897</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>308632</v>
+        <v>324794</v>
       </c>
       <c r="E12" t="n">
-        <v>1440724</v>
+        <v>1516173</v>
       </c>
       <c r="F12" t="n">
-        <v>26.17396982344555</v>
+        <v>19.9937264652024</v>
       </c>
       <c r="G12" t="n">
-        <v>1765.081668520124</v>
+        <v>69.98126664235009</v>
       </c>
       <c r="H12" t="n">
-        <v>1.9</v>
+        <v>1.27</v>
       </c>
       <c r="I12" t="n">
-        <v>658724</v>
+        <v>714434</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1792243</v>
+        <v>1785853</v>
       </c>
       <c r="F13" t="n">
-        <v>658.5906153818007</v>
+        <v>632.4074270018594</v>
       </c>
       <c r="G13" t="n">
-        <v>5303.667390909019</v>
+        <v>3753.93070186149</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1077396</v>
+        <v>932600</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12015294</v>
+        <v>12033836</v>
       </c>
       <c r="E14" t="n">
-        <v>29903895</v>
+        <v>29950041</v>
       </c>
       <c r="F14" t="n">
-        <v>983.6946310096446</v>
+        <v>1363.341224985166</v>
       </c>
       <c r="G14" t="n">
-        <v>1498.572286987421</v>
+        <v>1432.110829652472</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I14" t="n">
-        <v>1407189</v>
+        <v>1516725</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>118015963</v>
+        <v>115656348</v>
       </c>
       <c r="E15" t="n">
-        <v>458245860</v>
+        <v>448814283</v>
       </c>
       <c r="F15" t="n">
-        <v>9688.747513653203</v>
+        <v>5720.039172602105</v>
       </c>
       <c r="G15" t="n">
-        <v>7434.645246921928</v>
+        <v>6907.958321493787</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>9769901</v>
+        <v>7163604</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4812480</v>
+        <v>4998496</v>
       </c>
       <c r="E16" t="n">
-        <v>7084232</v>
+        <v>7358057</v>
       </c>
       <c r="F16" t="n">
-        <v>622.4092979437725</v>
+        <v>312.1317145812354</v>
       </c>
       <c r="G16" t="n">
-        <v>607.0056984174098</v>
+        <v>293.5457567829765</v>
       </c>
       <c r="H16" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="I16" t="n">
-        <v>700162</v>
+        <v>751431</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>434542</v>
+        <v>513196</v>
       </c>
       <c r="E17" t="n">
-        <v>1797432</v>
+        <v>2122774</v>
       </c>
       <c r="F17" t="n">
-        <v>396.1952601438757</v>
+        <v>445.944225550634</v>
       </c>
       <c r="G17" t="n">
-        <v>407.2319069192333</v>
+        <v>71.06347019078673</v>
       </c>
       <c r="H17" t="n">
-        <v>1.72</v>
+        <v>0.23</v>
       </c>
       <c r="I17" t="n">
-        <v>40501</v>
+        <v>82145</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>154051203</v>
+        <v>150757716</v>
       </c>
       <c r="E18" t="n">
-        <v>154051203</v>
+        <v>150757716</v>
       </c>
       <c r="F18" t="n">
-        <v>52492.91917826903</v>
+        <v>52252.66302169865</v>
       </c>
       <c r="G18" t="n">
-        <v>102152.3962107667</v>
+        <v>105016.1800725009</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>101472436</v>
+        <v>97921648</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68824545</v>
+        <v>73039589</v>
       </c>
       <c r="E19" t="n">
-        <v>352946385</v>
+        <v>374561997</v>
       </c>
       <c r="F19" t="n">
-        <v>9556.052881600082</v>
+        <v>7224.647696723309</v>
       </c>
       <c r="G19" t="n">
-        <v>10190.11756516231</v>
+        <v>6366.773056392016</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>17731526</v>
+        <v>41421456</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>264743592</v>
+        <v>260663634</v>
       </c>
       <c r="E20" t="n">
-        <v>264743592</v>
+        <v>260663634</v>
       </c>
       <c r="F20" t="n">
-        <v>138824.7834934587</v>
+        <v>63545.15361425377</v>
       </c>
       <c r="G20" t="n">
-        <v>79200.94881047137</v>
+        <v>51085.4063937209</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>22752662</v>
+        <v>14831903</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>175412489</v>
+        <v>173691989</v>
       </c>
       <c r="E21" t="n">
-        <v>230822321</v>
+        <v>228558344</v>
       </c>
       <c r="F21" t="n">
-        <v>23238.52244975044</v>
+        <v>17247.14796714686</v>
       </c>
       <c r="G21" t="n">
-        <v>14466.92390772263</v>
+        <v>13543.05271371731</v>
       </c>
       <c r="H21" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>8504596</v>
+        <v>6044877</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>86298501</v>
+        <v>80015411</v>
       </c>
       <c r="E22" t="n">
-        <v>241460506</v>
+        <v>223899735</v>
       </c>
       <c r="F22" t="n">
-        <v>23574.02563797179</v>
+        <v>25963.1408077972</v>
       </c>
       <c r="G22" t="n">
-        <v>23896.97858815465</v>
+        <v>30424.92478880783</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I22" t="n">
-        <v>44795872</v>
+        <v>27301050</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>92849220</v>
+        <v>88159478</v>
       </c>
       <c r="E23" t="n">
-        <v>193583167</v>
+        <v>187180025</v>
       </c>
       <c r="F23" t="n">
-        <v>14844.7325001486</v>
+        <v>24323.77341638343</v>
       </c>
       <c r="G23" t="n">
-        <v>30790.02888424543</v>
+        <v>21589.18524866692</v>
       </c>
       <c r="H23" t="n">
         <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>50440311</v>
+        <v>37383149</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>702835368</v>
+        <v>687331690</v>
       </c>
       <c r="E24" t="n">
-        <v>702835368</v>
+        <v>687331690</v>
       </c>
       <c r="F24" t="n">
-        <v>79637.9065723332</v>
+        <v>116152.9963869561</v>
       </c>
       <c r="G24" t="n">
-        <v>149319.1681501001</v>
+        <v>136001.5387389594</v>
       </c>
       <c r="H24" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>481122450</v>
+        <v>420611025</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>197493138</v>
+        <v>202387211</v>
       </c>
       <c r="E25" t="n">
-        <v>686109009</v>
+        <v>703111463</v>
       </c>
       <c r="F25" t="n">
-        <v>57160.68666851682</v>
+        <v>69927.5968990315</v>
       </c>
       <c r="G25" t="n">
-        <v>114451.1783939959</v>
+        <v>105393.0819828785</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>31819419</v>
+        <v>29379839</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5559414</v>
+        <v>5536107</v>
       </c>
       <c r="E26" t="n">
-        <v>7542722</v>
+        <v>7509914</v>
       </c>
       <c r="F26" t="n">
-        <v>931.5907776886887</v>
+        <v>894.3573050733653</v>
       </c>
       <c r="G26" t="n">
-        <v>1681.911329284316</v>
+        <v>1597.08200981933</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="I26" t="n">
-        <v>5634352</v>
+        <v>5105039</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>15037748</v>
+        <v>14756437</v>
       </c>
       <c r="F27" t="n">
-        <v>2074.894330818401</v>
+        <v>2792.573375018441</v>
       </c>
       <c r="G27" t="n">
-        <v>2619.121410408766</v>
+        <v>1886.651835458259</v>
       </c>
       <c r="H27" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
       <c r="I27" t="n">
-        <v>202076</v>
+        <v>210689</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25332876</v>
+        <v>24650699</v>
       </c>
       <c r="E28" t="n">
-        <v>35791906</v>
+        <v>34828083</v>
       </c>
       <c r="F28" t="n">
-        <v>178.3482272961933</v>
+        <v>481.3767300636893</v>
       </c>
       <c r="G28" t="n">
-        <v>376.8710308181716</v>
+        <v>482.5020343091896</v>
       </c>
       <c r="H28" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="I28" t="n">
-        <v>177062</v>
+        <v>67801</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>273872879</v>
+        <v>268569452</v>
       </c>
       <c r="E29" t="n">
-        <v>1182187382</v>
+        <v>1159294848</v>
       </c>
       <c r="F29" t="n">
-        <v>140037.7141976088</v>
+        <v>143628.3341395464</v>
       </c>
       <c r="G29" t="n">
-        <v>142683.94101465</v>
+        <v>154065.3168042368</v>
       </c>
       <c r="H29" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>93180913</v>
+        <v>70577706</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10606594</v>
+        <v>10906507</v>
       </c>
       <c r="E30" t="n">
-        <v>127324264</v>
+        <v>130879958</v>
       </c>
       <c r="F30" t="n">
-        <v>16691.66817179517</v>
+        <v>4482.334532201189</v>
       </c>
       <c r="G30" t="n">
-        <v>1297.711550420557</v>
+        <v>1531.20436140966</v>
       </c>
       <c r="H30" t="n">
-        <v>0.71</v>
+        <v>1.37</v>
       </c>
       <c r="I30" t="n">
-        <v>262921</v>
+        <v>214472</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16108383</v>
+        <v>16229538</v>
       </c>
       <c r="E31" t="n">
-        <v>40270957</v>
+        <v>40573844</v>
       </c>
       <c r="F31" t="n">
-        <v>6594.37383012996</v>
+        <v>6170.363622824502</v>
       </c>
       <c r="G31" t="n">
-        <v>5103.80188690592</v>
+        <v>5103.485236564742</v>
       </c>
       <c r="H31" t="n">
         <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>4669670</v>
+        <v>2372107</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18749593</v>
+        <v>18585212</v>
       </c>
       <c r="F32" t="n">
-        <v>1354.8692826806</v>
+        <v>1916.535242094857</v>
       </c>
       <c r="G32" t="n">
-        <v>2384.917386903478</v>
+        <v>3102.436309630461</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="I32" t="n">
-        <v>66040</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1699488</v>
+        <v>1660666</v>
       </c>
       <c r="E33" t="n">
-        <v>6335173</v>
+        <v>6190227</v>
       </c>
       <c r="F33" t="n">
-        <v>1425.227924387806</v>
+        <v>4390.956232534117</v>
       </c>
       <c r="G33" t="n">
-        <v>1115.094885051508</v>
+        <v>1243.111826265134</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="I33" t="n">
-        <v>922365</v>
+        <v>824298</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4081982</v>
+        <v>4436307</v>
       </c>
       <c r="E34" t="n">
-        <v>11755163</v>
+        <v>12775683</v>
       </c>
       <c r="F34" t="n">
-        <v>4174.807327642047</v>
+        <v>1236.153269998027</v>
       </c>
       <c r="G34" t="n">
-        <v>5006.991754441462</v>
+        <v>5754.931285771439</v>
       </c>
       <c r="H34" t="n">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="I34" t="n">
-        <v>374950</v>
+        <v>452092</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15337856</v>
+        <v>14511082</v>
       </c>
       <c r="E35" t="n">
-        <v>74283686</v>
+        <v>70279487</v>
       </c>
       <c r="F35" t="n">
-        <v>3393.97359019493</v>
+        <v>3060.641440504714</v>
       </c>
       <c r="G35" t="n">
-        <v>4012.874080193413</v>
+        <v>2844.386258979496</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="I35" t="n">
-        <v>4255935</v>
+        <v>3455042</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1225360</v>
+        <v>1332635</v>
       </c>
       <c r="E36" t="n">
-        <v>8019952</v>
+        <v>8722063</v>
       </c>
       <c r="F36" t="n">
-        <v>465.4012286635779</v>
+        <v>4010.39209874125</v>
       </c>
       <c r="G36" t="n">
-        <v>695.7128912413964</v>
+        <v>2998.366988432007</v>
       </c>
       <c r="H36" t="n">
-        <v>0.99</v>
+        <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>209568</v>
+        <v>715429</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1843679732</v>
+        <v>1872573617</v>
       </c>
       <c r="F37" t="n">
-        <v>881.1341356775952</v>
+        <v>283.2128050255634</v>
       </c>
       <c r="G37" t="n">
-        <v>111.7698441113236</v>
+        <v>100.9525269146126</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I37" t="n">
-        <v>30523599</v>
+        <v>26546659</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1860810</v>
+        <v>1846205</v>
       </c>
       <c r="E38" t="n">
-        <v>13343682</v>
+        <v>13238955</v>
       </c>
       <c r="F38" t="n">
-        <v>6635.153942073149</v>
+        <v>6606.910382799168</v>
       </c>
       <c r="G38" t="n">
-        <v>6980.335707575894</v>
+        <v>6791.291186741167</v>
       </c>
       <c r="H38" t="n">
-        <v>0.15</v>
+        <v>0.58</v>
       </c>
       <c r="I38" t="n">
-        <v>2281823</v>
+        <v>1946873</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>200595538</v>
+        <v>199433877</v>
       </c>
       <c r="E39" t="n">
-        <v>1135895190</v>
+        <v>1129317153</v>
       </c>
       <c r="F39" t="n">
-        <v>62294.99285553966</v>
+        <v>52388.46879833171</v>
       </c>
       <c r="G39" t="n">
-        <v>60367.27943018909</v>
+        <v>70352.16493986483</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>55241117</v>
+        <v>38015359</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>134083280</v>
+        <v>131905021</v>
       </c>
       <c r="E40" t="n">
-        <v>993209481</v>
+        <v>977074232</v>
       </c>
       <c r="F40" t="n">
-        <v>9166.637277529579</v>
+        <v>6846.855498137744</v>
       </c>
       <c r="G40" t="n">
-        <v>19891.96817981387</v>
+        <v>15814.11804217315</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I40" t="n">
-        <v>29586322</v>
+        <v>8080357</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>329577245</v>
+        <v>327468625</v>
       </c>
       <c r="E41" t="n">
-        <v>2965081263</v>
+        <v>2946110807</v>
       </c>
       <c r="F41" t="n">
-        <v>57031.22398463023</v>
+        <v>65719.73937972647</v>
       </c>
       <c r="G41" t="n">
-        <v>103958.2996838262</v>
+        <v>89449.58197022781</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>57120106</v>
+        <v>37408144</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1560652</v>
+        <v>1556307</v>
       </c>
       <c r="E42" t="n">
-        <v>13005433</v>
+        <v>12969221</v>
       </c>
       <c r="F42" t="n">
-        <v>2396.794946896031</v>
+        <v>5081.417747409113</v>
       </c>
       <c r="G42" t="n">
-        <v>1751.286500726742</v>
+        <v>4157.658624457084</v>
       </c>
       <c r="H42" t="n">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
       <c r="I42" t="n">
-        <v>50652</v>
+        <v>49341</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20390850</v>
+        <v>20597487</v>
       </c>
       <c r="E43" t="n">
-        <v>61137307</v>
+        <v>60599660</v>
       </c>
       <c r="F43" t="n">
-        <v>2554.808365615083</v>
+        <v>3648.352612011095</v>
       </c>
       <c r="G43" t="n">
-        <v>3913.579522484035</v>
+        <v>3707.608630414195</v>
       </c>
       <c r="H43" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="I43" t="n">
-        <v>3886722</v>
+        <v>2542591</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7678723</v>
+        <v>8125105</v>
       </c>
       <c r="F44" t="n">
-        <v>2275.350409030796</v>
+        <v>2480.481908400488</v>
       </c>
       <c r="G44" t="n">
-        <v>2065.108538194293</v>
+        <v>3156.684531738803</v>
       </c>
       <c r="H44" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I44" t="n">
-        <v>1179655</v>
+        <v>229861</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12871235</v>
+        <v>12790005</v>
       </c>
       <c r="E45" t="n">
-        <v>12871235</v>
+        <v>12790005</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>104.4816349240512</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>286.3607723894852</v>
       </c>
       <c r="H45" t="n">
-        <v>5.11</v>
+        <v>1.08</v>
       </c>
       <c r="I45" t="n">
-        <v>1800100</v>
+        <v>2188105</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>317019233</v>
+        <v>321107449</v>
       </c>
       <c r="E46" t="n">
-        <v>317019233</v>
+        <v>321107449</v>
       </c>
       <c r="F46" t="n">
-        <v>13124.95954441168</v>
+        <v>11524.33245528316</v>
       </c>
       <c r="G46" t="n">
-        <v>21784.29603254199</v>
+        <v>16980.05694160823</v>
       </c>
       <c r="H46" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I46" t="n">
-        <v>16093861</v>
+        <v>13410205</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13003127</v>
+        <v>12597923</v>
       </c>
       <c r="E47" t="n">
-        <v>41121692</v>
+        <v>39839747</v>
       </c>
       <c r="F47" t="n">
-        <v>8127.638185219385</v>
+        <v>4701.16736798663</v>
       </c>
       <c r="G47" t="n">
-        <v>6413.503366946164</v>
+        <v>6016.683646766753</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="I47" t="n">
-        <v>1733947</v>
+        <v>1582666</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32586624</v>
+        <v>34034198</v>
       </c>
       <c r="E48" t="n">
-        <v>90261714</v>
+        <v>94271350</v>
       </c>
       <c r="F48" t="n">
-        <v>7336.671204494147</v>
+        <v>2201.547657972285</v>
       </c>
       <c r="G48" t="n">
-        <v>2125.615776694138</v>
+        <v>4838.253731500169</v>
       </c>
       <c r="H48" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>12439329</v>
+        <v>12246484</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29172315</v>
+        <v>28301899</v>
       </c>
       <c r="E49" t="n">
-        <v>69202141</v>
+        <v>67137352</v>
       </c>
       <c r="F49" t="n">
-        <v>14263.57002656999</v>
+        <v>10901.63609087537</v>
       </c>
       <c r="G49" t="n">
-        <v>13074.09341026671</v>
+        <v>11724.48113549621</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>632119</v>
+        <v>474408</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11745498</v>
+        <v>11873724</v>
       </c>
       <c r="E50" t="n">
-        <v>17857756</v>
+        <v>18031009</v>
       </c>
       <c r="F50" t="n">
-        <v>4479.492009637504</v>
+        <v>5076.919291475988</v>
       </c>
       <c r="G50" t="n">
-        <v>3648.679239259151</v>
+        <v>4482.693037684952</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="I50" t="n">
-        <v>760490</v>
+        <v>724991</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>314868019</v>
+        <v>306209061</v>
       </c>
       <c r="E51" t="n">
-        <v>314868019</v>
+        <v>306209061</v>
       </c>
       <c r="F51" t="n">
-        <v>145522.7544061111</v>
+        <v>36904.63454788022</v>
       </c>
       <c r="G51" t="n">
-        <v>41532.82359251496</v>
+        <v>65372.96322206066</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>81943182</v>
+        <v>71200186</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89627812</v>
+        <v>90478171</v>
       </c>
       <c r="E52" t="n">
-        <v>516474112</v>
+        <v>521374246</v>
       </c>
       <c r="F52" t="n">
-        <v>56734.05506452073</v>
+        <v>56990.6657250725</v>
       </c>
       <c r="G52" t="n">
-        <v>75059.51129311552</v>
+        <v>71591.42915332217</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I52" t="n">
-        <v>30664830</v>
+        <v>28573407</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31792631</v>
+        <v>35210659</v>
       </c>
       <c r="E53" t="n">
-        <v>142348650</v>
+        <v>157652564</v>
       </c>
       <c r="F53" t="n">
-        <v>9788.450239784548</v>
+        <v>12855.64308860902</v>
       </c>
       <c r="G53" t="n">
-        <v>13659.14853000101</v>
+        <v>17867.27148436623</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I53" t="n">
-        <v>17246804</v>
+        <v>24925678</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7537064</v>
+        <v>7796110</v>
       </c>
       <c r="F54" t="n">
-        <v>4884.343375320276</v>
+        <v>2294.162612079532</v>
       </c>
       <c r="G54" t="n">
-        <v>4755.462512870383</v>
+        <v>4543.444711943188</v>
       </c>
       <c r="H54" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="I54" t="n">
-        <v>337878</v>
+        <v>366979</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4748635</v>
+        <v>4707973</v>
       </c>
       <c r="F55" t="n">
-        <v>13.20211583062211</v>
+        <v>2744.598298226031</v>
       </c>
       <c r="G55" t="n">
-        <v>126.4231612261609</v>
+        <v>1795.971154474025</v>
       </c>
       <c r="H55" t="n">
-        <v>3.05</v>
+        <v>0.42</v>
       </c>
       <c r="I55" t="n">
-        <v>285431</v>
+        <v>257725</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124004577</v>
+        <v>123570947</v>
       </c>
       <c r="E56" t="n">
-        <v>2053617358</v>
+        <v>2046436089</v>
       </c>
       <c r="F56" t="n">
-        <v>25897.3814124382</v>
+        <v>23715.35732457004</v>
       </c>
       <c r="G56" t="n">
-        <v>28952.76189425381</v>
+        <v>28369.68359419996</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>117806311</v>
+        <v>90800965</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>96484615</v>
+        <v>87552685</v>
       </c>
       <c r="E57" t="n">
-        <v>97523201</v>
+        <v>88495106</v>
       </c>
       <c r="F57" t="n">
-        <v>12919.94499584682</v>
+        <v>18090.77414054424</v>
       </c>
       <c r="G57" t="n">
-        <v>25629.88190233207</v>
+        <v>25324.64457424716</v>
       </c>
       <c r="H57" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I57" t="n">
-        <v>29887583</v>
+        <v>17591785</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>257417217</v>
+        <v>249200240</v>
       </c>
       <c r="E58" t="n">
-        <v>257417217</v>
+        <v>249200240</v>
       </c>
       <c r="F58" t="n">
-        <v>59000.56620252698</v>
+        <v>55987.3893051551</v>
       </c>
       <c r="G58" t="n">
-        <v>99171.88572514826</v>
+        <v>80944.59198881031</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I58" t="n">
-        <v>76064325</v>
+        <v>42008972</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24260647</v>
+        <v>24305825</v>
       </c>
       <c r="E59" t="n">
-        <v>145156326</v>
+        <v>145426636</v>
       </c>
       <c r="F59" t="n">
-        <v>31080.82313663357</v>
+        <v>30304.06683411578</v>
       </c>
       <c r="G59" t="n">
-        <v>28678.07520745789</v>
+        <v>26901.96571405774</v>
       </c>
       <c r="H59" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I59" t="n">
-        <v>15879481</v>
+        <v>13682149</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2547532</v>
+        <v>2501394</v>
       </c>
       <c r="E60" t="n">
-        <v>4701616</v>
+        <v>4616466</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>11.73</v>
+        <v>3.93</v>
       </c>
       <c r="I60" t="n">
-        <v>645549</v>
+        <v>331284</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10240649</v>
+        <v>10614174</v>
       </c>
       <c r="E62" t="n">
-        <v>30353330</v>
+        <v>31460458</v>
       </c>
       <c r="F62" t="n">
-        <v>3919.771493742043</v>
+        <v>6857.317902355327</v>
       </c>
       <c r="G62" t="n">
-        <v>3646.979080438795</v>
+        <v>2268.274494038005</v>
       </c>
       <c r="H62" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I62" t="n">
-        <v>6022186</v>
+        <v>4844017</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14610218</v>
+        <v>14519088</v>
       </c>
       <c r="E63" t="n">
-        <v>29577495</v>
+        <v>29393007</v>
       </c>
       <c r="F63" t="n">
-        <v>7480.476593345035</v>
+        <v>7451.313584861407</v>
       </c>
       <c r="G63" t="n">
-        <v>13143.70563614052</v>
+        <v>10752.17262104299</v>
       </c>
       <c r="H63" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>411443</v>
+        <v>417829</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>34347606</v>
+        <v>33936624</v>
       </c>
       <c r="E64" t="n">
-        <v>243518925</v>
+        <v>240605130</v>
       </c>
       <c r="F64" t="n">
-        <v>48665.18215805879</v>
+        <v>40206.43103060649</v>
       </c>
       <c r="G64" t="n">
-        <v>45111.31749362481</v>
+        <v>38746.28254805346</v>
       </c>
       <c r="H64" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>4318869</v>
+        <v>1871445</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1304637</v>
+        <v>1301569</v>
       </c>
       <c r="E65" t="n">
-        <v>8088356</v>
+        <v>8066661</v>
       </c>
       <c r="F65" t="n">
-        <v>151.4480887550396</v>
+        <v>120.5648279371875</v>
       </c>
       <c r="G65" t="n">
-        <v>119.3702433682035</v>
+        <v>220.9698315059295</v>
       </c>
       <c r="H65" t="n">
-        <v>2.79</v>
+        <v>2.05</v>
       </c>
       <c r="I65" t="n">
-        <v>780314</v>
+        <v>761807</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>603652203</v>
+        <v>597851219</v>
       </c>
       <c r="E66" t="n">
-        <v>2337855921</v>
+        <v>2315389565</v>
       </c>
       <c r="F66" t="n">
-        <v>42693.16397599786</v>
+        <v>48534.85975570917</v>
       </c>
       <c r="G66" t="n">
-        <v>53487.76365844076</v>
+        <v>41559.72448628305</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>41207848</v>
+        <v>25136737</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5451150</v>
+        <v>5517371</v>
       </c>
       <c r="E67" t="n">
-        <v>24362868</v>
+        <v>24632551</v>
       </c>
       <c r="F67" t="n">
-        <v>3496.818083577059</v>
+        <v>4089.251035054141</v>
       </c>
       <c r="G67" t="n">
-        <v>15276.04873090375</v>
+        <v>19017.11129567793</v>
       </c>
       <c r="H67" t="n">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="I67" t="n">
-        <v>166009</v>
+        <v>152698</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>110837199</v>
+        <v>111743993</v>
       </c>
       <c r="E68" t="n">
-        <v>1048715275</v>
+        <v>1057295143</v>
       </c>
       <c r="F68" t="n">
-        <v>4582.021140344323</v>
+        <v>6770.555201973872</v>
       </c>
       <c r="G68" t="n">
-        <v>10446.36740293463</v>
+        <v>3659.797120793594</v>
       </c>
       <c r="H68" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="I68" t="n">
-        <v>14887925</v>
+        <v>9405432</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>105636926</v>
+        <v>103016518</v>
       </c>
       <c r="E69" t="n">
-        <v>161151608</v>
+        <v>157154114</v>
       </c>
       <c r="F69" t="n">
-        <v>14264.02201150792</v>
+        <v>11881.99771113629</v>
       </c>
       <c r="G69" t="n">
-        <v>22225.43866405802</v>
+        <v>17178.56149395201</v>
       </c>
       <c r="H69" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="I69" t="n">
-        <v>7582627</v>
+        <v>3679067</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1069925</v>
+        <v>1203158</v>
       </c>
       <c r="E70" t="n">
-        <v>4142985</v>
+        <v>4658889</v>
       </c>
       <c r="F70" t="n">
-        <v>2862.965307345496</v>
+        <v>2347.190340823073</v>
       </c>
       <c r="G70" t="n">
-        <v>2350.211177276304</v>
+        <v>2388.904478017888</v>
       </c>
       <c r="H70" t="n">
-        <v>0.58</v>
+        <v>0.38</v>
       </c>
       <c r="I70" t="n">
-        <v>140322</v>
+        <v>296624</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>128546775</v>
+        <v>127535334</v>
       </c>
       <c r="E71" t="n">
-        <v>493126118</v>
+        <v>489246069</v>
       </c>
       <c r="F71" t="n">
-        <v>15536.97818942411</v>
+        <v>16704.48860280451</v>
       </c>
       <c r="G71" t="n">
-        <v>11889.99526913026</v>
+        <v>8805.740512711349</v>
       </c>
       <c r="H71" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>22606332</v>
+        <v>19311955</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3846567</v>
+        <v>3650460</v>
       </c>
       <c r="E72" t="n">
-        <v>36446787</v>
+        <v>34588647</v>
       </c>
       <c r="F72" t="n">
-        <v>826.5213388164836</v>
+        <v>775.5978438223236</v>
       </c>
       <c r="G72" t="n">
-        <v>771.3632960287523</v>
+        <v>154.4324994386803</v>
       </c>
       <c r="H72" t="n">
-        <v>0.17</v>
+        <v>0.78</v>
       </c>
       <c r="I72" t="n">
-        <v>657639</v>
+        <v>581813</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35831869</v>
+        <v>37879507</v>
       </c>
       <c r="F73" t="n">
-        <v>2547.018694468977</v>
+        <v>3380.850614452894</v>
       </c>
       <c r="G73" t="n">
-        <v>862.8722759575028</v>
+        <v>1111.345756209344</v>
       </c>
       <c r="H73" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I73" t="n">
-        <v>15509469</v>
+        <v>14231800</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>98130126</v>
+        <v>99613726</v>
       </c>
       <c r="E74" t="n">
-        <v>362692557</v>
+        <v>366898764</v>
       </c>
       <c r="F74" t="n">
-        <v>255.3358340752369</v>
+        <v>395.9464513997056</v>
       </c>
       <c r="G74" t="n">
-        <v>81.00425335382835</v>
+        <v>194.45388089499</v>
       </c>
       <c r="H74" t="n">
-        <v>1.75</v>
+        <v>0.6</v>
       </c>
       <c r="I74" t="n">
-        <v>838885</v>
+        <v>863829</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23276418</v>
+        <v>23433027</v>
       </c>
       <c r="E75" t="n">
-        <v>23276418</v>
+        <v>23433027</v>
       </c>
       <c r="F75" t="n">
-        <v>2969.704704016921</v>
+        <v>3037.362493365205</v>
       </c>
       <c r="G75" t="n">
-        <v>3423.483337525627</v>
+        <v>2521.575791765198</v>
       </c>
       <c r="H75" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="I75" t="n">
-        <v>4202945</v>
+        <v>3057533</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>479100467</v>
+        <v>478698754</v>
       </c>
       <c r="E76" t="n">
-        <v>1666863618</v>
+        <v>1664622325</v>
       </c>
       <c r="F76" t="n">
-        <v>84571.74638680228</v>
+        <v>86942.87373300144</v>
       </c>
       <c r="G76" t="n">
-        <v>98376.20010364796</v>
+        <v>95468.77419092412</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>39293390</v>
+        <v>28004969</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5798840958</v>
+        <v>5747759488</v>
       </c>
       <c r="E77" t="n">
-        <v>5798852375</v>
+        <v>5747759488</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>18172100</v>
+        <v>17933599</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7469102</v>
+        <v>7519942</v>
       </c>
       <c r="E78" t="n">
-        <v>19403924</v>
+        <v>19536000</v>
       </c>
       <c r="F78" t="n">
-        <v>176.5187615570707</v>
+        <v>124.24136564757</v>
       </c>
       <c r="G78" t="n">
-        <v>114.2693811216984</v>
+        <v>250.2165257654858</v>
       </c>
       <c r="H78" t="n">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="I78" t="n">
-        <v>840417</v>
+        <v>712433</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>108550751</v>
+        <v>110145790</v>
       </c>
       <c r="E79" t="n">
-        <v>164466930</v>
+        <v>166883599</v>
       </c>
       <c r="F79" t="n">
-        <v>39135.18193229165</v>
+        <v>40431.9629282249</v>
       </c>
       <c r="G79" t="n">
-        <v>41278.09576919777</v>
+        <v>39369.66256386332</v>
       </c>
       <c r="H79" t="n">
         <v>0.41</v>
       </c>
       <c r="I79" t="n">
-        <v>8287428</v>
+        <v>7488948</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2304253</v>
+        <v>2250420</v>
       </c>
       <c r="E80" t="n">
-        <v>9217013</v>
+        <v>9001679</v>
       </c>
       <c r="F80" t="n">
-        <v>1744.31290095559</v>
+        <v>1906.197266099239</v>
       </c>
       <c r="G80" t="n">
-        <v>2356.979550054612</v>
+        <v>2189.346636129258</v>
       </c>
       <c r="H80" t="n">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="I80" t="n">
-        <v>8333508</v>
+        <v>6763269</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2377058</v>
+        <v>2486767</v>
       </c>
       <c r="F81" t="n">
-        <v>1972.521882366951</v>
+        <v>12.79014939672831</v>
       </c>
       <c r="G81" t="n">
-        <v>1382.070651931534</v>
+        <v>2262.600916399889</v>
       </c>
       <c r="H81" t="n">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
       <c r="I81" t="n">
-        <v>222723</v>
+        <v>261635</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>394854668</v>
+        <v>387713160</v>
       </c>
       <c r="E82" t="n">
-        <v>2256312388</v>
+        <v>2215503772</v>
       </c>
       <c r="F82" t="n">
-        <v>53279.81872619662</v>
+        <v>20842.86859860089</v>
       </c>
       <c r="G82" t="n">
-        <v>43207.93602776208</v>
+        <v>41956.36436632579</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>55331531</v>
+        <v>42029638</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4071615</v>
+        <v>4291128</v>
       </c>
       <c r="F2" t="n">
-        <v>5536.035249151169</v>
+        <v>2239.475458640734</v>
       </c>
       <c r="G2" t="n">
-        <v>3534.10843426891</v>
+        <v>212.0710490630417</v>
       </c>
       <c r="H2" t="n">
-        <v>0.93</v>
+        <v>0.41</v>
       </c>
       <c r="I2" t="n">
-        <v>138545</v>
+        <v>156668</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1394266</v>
+        <v>1407924</v>
       </c>
       <c r="E3" t="n">
-        <v>4506839</v>
+        <v>4550989</v>
       </c>
       <c r="F3" t="n">
-        <v>6015.356197047603</v>
+        <v>5558.776264291842</v>
       </c>
       <c r="G3" t="n">
-        <v>6271.087614602518</v>
+        <v>5473.028169470632</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="I3" t="n">
-        <v>565065</v>
+        <v>217234</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>262051311</v>
+        <v>258492768</v>
       </c>
       <c r="E4" t="n">
-        <v>1643286938</v>
+        <v>1620971814</v>
       </c>
       <c r="F4" t="n">
-        <v>21155.38682936169</v>
+        <v>27246.934436879</v>
       </c>
       <c r="G4" t="n">
-        <v>25908.71224470405</v>
+        <v>33918.03961396059</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I4" t="n">
-        <v>26610454</v>
+        <v>20617207</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148902015</v>
+        <v>149815560</v>
       </c>
       <c r="E5" t="n">
-        <v>165006703</v>
+        <v>166019054</v>
       </c>
       <c r="F5" t="n">
-        <v>37053.57130178218</v>
+        <v>35086.75216772579</v>
       </c>
       <c r="G5" t="n">
-        <v>31154.73618705283</v>
+        <v>36413.71541159802</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I5" t="n">
-        <v>32536384</v>
+        <v>30560470</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124606784</v>
+        <v>123869849</v>
       </c>
       <c r="E6" t="n">
-        <v>488421284</v>
+        <v>485532719</v>
       </c>
       <c r="F6" t="n">
-        <v>12941.81107160474</v>
+        <v>6672.813641001032</v>
       </c>
       <c r="G6" t="n">
-        <v>3870.974359776081</v>
+        <v>11489.62235664514</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>20385970</v>
+        <v>20961836</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4247129</v>
+        <v>4179783</v>
       </c>
       <c r="E7" t="n">
-        <v>26066455</v>
+        <v>25653125</v>
       </c>
       <c r="F7" t="n">
-        <v>1317.812240344367</v>
+        <v>1988.108798927876</v>
       </c>
       <c r="G7" t="n">
-        <v>876.2728945137758</v>
+        <v>2808.218726435759</v>
       </c>
       <c r="H7" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="I7" t="n">
-        <v>272605</v>
+        <v>322775</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>184522</v>
+        <v>184516</v>
       </c>
       <c r="E8" t="n">
-        <v>2029946</v>
+        <v>2029884</v>
       </c>
       <c r="F8" t="n">
-        <v>2220.396113205869</v>
+        <v>2190.490452710679</v>
       </c>
       <c r="G8" t="n">
-        <v>6554.212786576673</v>
+        <v>6432.118502345161</v>
       </c>
       <c r="H8" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>71846</v>
+        <v>60957</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71820312</v>
+        <v>72089251</v>
       </c>
       <c r="E9" t="n">
-        <v>124246264</v>
+        <v>124695143</v>
       </c>
       <c r="F9" t="n">
-        <v>809.0573108902845</v>
+        <v>898.3036975728332</v>
       </c>
       <c r="G9" t="n">
-        <v>1295.470858210791</v>
+        <v>452.0886202250017</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I9" t="n">
-        <v>448266</v>
+        <v>394669</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8793514</v>
+        <v>8817243</v>
       </c>
       <c r="E10" t="n">
-        <v>12446566</v>
+        <v>12480152</v>
       </c>
       <c r="F10" t="n">
-        <v>2976.325872964061</v>
+        <v>3032.842315077869</v>
       </c>
       <c r="G10" t="n">
-        <v>2847.313252833344</v>
+        <v>3100.732111098909</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>8832.360000000001</v>
+        <v>8599.389999999999</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>499906897</v>
+        <v>494669772</v>
       </c>
       <c r="E11" t="n">
-        <v>499906901</v>
+        <v>494669785</v>
       </c>
       <c r="F11" t="n">
-        <v>13080.52741691135</v>
+        <v>14177.39636736963</v>
       </c>
       <c r="G11" t="n">
-        <v>36501.75612624062</v>
+        <v>40498.3252722664</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>33950897</v>
+        <v>31688061</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>324794</v>
+        <v>384697</v>
       </c>
       <c r="E12" t="n">
-        <v>1516173</v>
+        <v>1795804</v>
       </c>
       <c r="F12" t="n">
-        <v>19.9937264652024</v>
+        <v>196.2114760909382</v>
       </c>
       <c r="G12" t="n">
-        <v>69.98126664235009</v>
+        <v>1.729248088367644</v>
       </c>
       <c r="H12" t="n">
-        <v>1.27</v>
+        <v>3.34</v>
       </c>
       <c r="I12" t="n">
-        <v>714434</v>
+        <v>853747</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1785853</v>
+        <v>1817714</v>
       </c>
       <c r="F13" t="n">
-        <v>632.4074270018594</v>
+        <v>2178.004734351911</v>
       </c>
       <c r="G13" t="n">
-        <v>3753.93070186149</v>
+        <v>3705.118306551558</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="I13" t="n">
-        <v>932600</v>
+        <v>853900</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12033836</v>
+        <v>12265134</v>
       </c>
       <c r="E14" t="n">
-        <v>29950041</v>
+        <v>30525699</v>
       </c>
       <c r="F14" t="n">
-        <v>1363.341224985166</v>
+        <v>1049.093478560443</v>
       </c>
       <c r="G14" t="n">
-        <v>1432.110829652472</v>
+        <v>1519.040162017317</v>
       </c>
       <c r="H14" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1516725</v>
+        <v>963808</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115656348</v>
+        <v>115674080</v>
       </c>
       <c r="E15" t="n">
-        <v>448814283</v>
+        <v>448738815</v>
       </c>
       <c r="F15" t="n">
-        <v>5720.039172602105</v>
+        <v>3881.809707288984</v>
       </c>
       <c r="G15" t="n">
-        <v>6907.958321493787</v>
+        <v>6745.638591442987</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I15" t="n">
-        <v>7163604</v>
+        <v>6154483</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4998496</v>
+        <v>4882018</v>
       </c>
       <c r="E16" t="n">
-        <v>7358057</v>
+        <v>7186596</v>
       </c>
       <c r="F16" t="n">
-        <v>312.1317145812354</v>
+        <v>630.7429206201382</v>
       </c>
       <c r="G16" t="n">
-        <v>293.5457567829765</v>
+        <v>203.2682219444995</v>
       </c>
       <c r="H16" t="n">
-        <v>0.83</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>751431</v>
+        <v>731692</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>513196</v>
+        <v>679107</v>
       </c>
       <c r="E17" t="n">
-        <v>2122774</v>
+        <v>2809211</v>
       </c>
       <c r="F17" t="n">
-        <v>445.944225550634</v>
+        <v>60.26829207328403</v>
       </c>
       <c r="G17" t="n">
-        <v>71.06347019078673</v>
+        <v>623.7885055227546</v>
       </c>
       <c r="H17" t="n">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="I17" t="n">
-        <v>82145</v>
+        <v>215563</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>150757716</v>
+        <v>148691451</v>
       </c>
       <c r="E18" t="n">
-        <v>150757716</v>
+        <v>148691451</v>
       </c>
       <c r="F18" t="n">
-        <v>52252.66302169865</v>
+        <v>59250.25047119805</v>
       </c>
       <c r="G18" t="n">
-        <v>105016.1800725009</v>
+        <v>67160.20395359673</v>
       </c>
       <c r="H18" t="n">
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>97921648</v>
+        <v>98749046</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73039589</v>
+        <v>72796131</v>
       </c>
       <c r="E19" t="n">
-        <v>374561997</v>
+        <v>373313494</v>
       </c>
       <c r="F19" t="n">
-        <v>7224.647696723309</v>
+        <v>4437.158978497083</v>
       </c>
       <c r="G19" t="n">
-        <v>6366.773056392016</v>
+        <v>13371.10018959903</v>
       </c>
       <c r="H19" t="n">
         <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>41421456</v>
+        <v>48571894</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>260663634</v>
+        <v>262525271</v>
       </c>
       <c r="E20" t="n">
-        <v>260663634</v>
+        <v>262525271</v>
       </c>
       <c r="F20" t="n">
-        <v>63545.15361425377</v>
+        <v>132302.7492863141</v>
       </c>
       <c r="G20" t="n">
-        <v>51085.4063937209</v>
+        <v>62047.98485186642</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>14831903</v>
+        <v>13052315</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>173691989</v>
+        <v>177439714</v>
       </c>
       <c r="E21" t="n">
-        <v>228558344</v>
+        <v>233489912</v>
       </c>
       <c r="F21" t="n">
-        <v>17247.14796714686</v>
+        <v>28312.61649703838</v>
       </c>
       <c r="G21" t="n">
-        <v>13543.05271371731</v>
+        <v>17050.35284799077</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>6044877</v>
+        <v>5427554</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80015411</v>
+        <v>79641087</v>
       </c>
       <c r="E22" t="n">
-        <v>223899735</v>
+        <v>222890339</v>
       </c>
       <c r="F22" t="n">
-        <v>25963.1408077972</v>
+        <v>24800.24983763836</v>
       </c>
       <c r="G22" t="n">
-        <v>30424.92478880783</v>
+        <v>27511.72057720179</v>
       </c>
       <c r="H22" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>27301050</v>
+        <v>26147932</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>88159478</v>
+        <v>88316277</v>
       </c>
       <c r="E23" t="n">
-        <v>187180025</v>
+        <v>184132345</v>
       </c>
       <c r="F23" t="n">
-        <v>24323.77341638343</v>
+        <v>16803.74392715592</v>
       </c>
       <c r="G23" t="n">
-        <v>21589.18524866692</v>
+        <v>29099.89795463638</v>
       </c>
       <c r="H23" t="n">
         <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>37383149</v>
+        <v>29727586</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>687331690</v>
+        <v>679244050</v>
       </c>
       <c r="E24" t="n">
-        <v>687331690</v>
+        <v>679244050</v>
       </c>
       <c r="F24" t="n">
-        <v>116152.9963869561</v>
+        <v>122377.3313516377</v>
       </c>
       <c r="G24" t="n">
-        <v>136001.5387389594</v>
+        <v>134912.8505436566</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>420611025</v>
+        <v>403099445</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>202387211</v>
+        <v>202733504</v>
       </c>
       <c r="E25" t="n">
-        <v>703111463</v>
+        <v>704314516</v>
       </c>
       <c r="F25" t="n">
-        <v>69927.5968990315</v>
+        <v>74791.07051621763</v>
       </c>
       <c r="G25" t="n">
-        <v>105393.0819828785</v>
+        <v>94722.43233564399</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>29379839</v>
+        <v>27739660</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5536107</v>
+        <v>5488731</v>
       </c>
       <c r="E26" t="n">
-        <v>7509914</v>
+        <v>7445164</v>
       </c>
       <c r="F26" t="n">
-        <v>894.3573050733653</v>
+        <v>1025.946443086571</v>
       </c>
       <c r="G26" t="n">
-        <v>1597.08200981933</v>
+        <v>1708.590283974556</v>
       </c>
       <c r="H26" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="I26" t="n">
-        <v>5105039</v>
+        <v>5023198</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14756437</v>
+        <v>14850367</v>
       </c>
       <c r="F27" t="n">
-        <v>2792.573375018441</v>
+        <v>2960.202889767219</v>
       </c>
       <c r="G27" t="n">
-        <v>1886.651835458259</v>
+        <v>1859.589246679382</v>
       </c>
       <c r="H27" t="n">
-        <v>0.29</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>210689</v>
+        <v>220463</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24650699</v>
+        <v>25746242</v>
       </c>
       <c r="E28" t="n">
-        <v>34828083</v>
+        <v>36375937</v>
       </c>
       <c r="F28" t="n">
-        <v>481.3767300636893</v>
+        <v>313.7000448336998</v>
       </c>
       <c r="G28" t="n">
-        <v>482.5020343091896</v>
+        <v>685.2815957146603</v>
       </c>
       <c r="H28" t="n">
-        <v>0.29</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>67801</v>
+        <v>75851</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>268569452</v>
+        <v>272439202</v>
       </c>
       <c r="E29" t="n">
-        <v>1159294848</v>
+        <v>1175998839</v>
       </c>
       <c r="F29" t="n">
-        <v>143628.3341395464</v>
+        <v>150439.6088292093</v>
       </c>
       <c r="G29" t="n">
-        <v>154065.3168042368</v>
+        <v>148255.1930230397</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I29" t="n">
-        <v>70577706</v>
+        <v>69971291</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10906507</v>
+        <v>10971185</v>
       </c>
       <c r="E30" t="n">
-        <v>130879958</v>
+        <v>131644723</v>
       </c>
       <c r="F30" t="n">
-        <v>4482.334532201189</v>
+        <v>6657.293184499978</v>
       </c>
       <c r="G30" t="n">
-        <v>1531.20436140966</v>
+        <v>1569.427146860737</v>
       </c>
       <c r="H30" t="n">
-        <v>1.37</v>
+        <v>0.46</v>
       </c>
       <c r="I30" t="n">
-        <v>214472</v>
+        <v>189300</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16229538</v>
+        <v>15871977</v>
       </c>
       <c r="E31" t="n">
-        <v>40573844</v>
+        <v>39679942</v>
       </c>
       <c r="F31" t="n">
-        <v>6170.363622824502</v>
+        <v>5482.567465628867</v>
       </c>
       <c r="G31" t="n">
-        <v>5103.485236564742</v>
+        <v>7281.101491861969</v>
       </c>
       <c r="H31" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2372107</v>
+        <v>2366881</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18585212</v>
+        <v>18617198</v>
       </c>
       <c r="F32" t="n">
-        <v>1916.535242094857</v>
+        <v>2497.535400333884</v>
       </c>
       <c r="G32" t="n">
-        <v>3102.436309630461</v>
+        <v>2269.098115831302</v>
       </c>
       <c r="H32" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="I32" t="n">
-        <v>43875</v>
+        <v>43654</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1660666</v>
+        <v>1697376</v>
       </c>
       <c r="E33" t="n">
-        <v>6190227</v>
+        <v>6326627</v>
       </c>
       <c r="F33" t="n">
-        <v>4390.956232534117</v>
+        <v>4732.580988437024</v>
       </c>
       <c r="G33" t="n">
-        <v>1243.111826265134</v>
+        <v>692.7766655796983</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>824298</v>
+        <v>867557</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4436307</v>
+        <v>4513217</v>
       </c>
       <c r="E34" t="n">
-        <v>12775683</v>
+        <v>12997305</v>
       </c>
       <c r="F34" t="n">
-        <v>1236.153269998027</v>
+        <v>2086.190939196993</v>
       </c>
       <c r="G34" t="n">
-        <v>5754.931285771439</v>
+        <v>3765.610121849595</v>
       </c>
       <c r="H34" t="n">
-        <v>0.31</v>
+        <v>0.84</v>
       </c>
       <c r="I34" t="n">
-        <v>452092</v>
+        <v>482102</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14511082</v>
+        <v>14986721</v>
       </c>
       <c r="E35" t="n">
-        <v>70279487</v>
+        <v>72583082</v>
       </c>
       <c r="F35" t="n">
-        <v>3060.641440504714</v>
+        <v>2114.889033020885</v>
       </c>
       <c r="G35" t="n">
-        <v>2844.386258979496</v>
+        <v>6114.545091528259</v>
       </c>
       <c r="H35" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="I35" t="n">
-        <v>3455042</v>
+        <v>3416755</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1332635</v>
+        <v>1380482</v>
       </c>
       <c r="E36" t="n">
-        <v>8722063</v>
+        <v>9035220</v>
       </c>
       <c r="F36" t="n">
-        <v>4010.39209874125</v>
+        <v>1000.968639910024</v>
       </c>
       <c r="G36" t="n">
-        <v>2998.366988432007</v>
+        <v>393.1156572867503</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11</v>
+        <v>0.88</v>
       </c>
       <c r="I36" t="n">
-        <v>715429</v>
+        <v>1275031</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1872573617</v>
+        <v>1885898749</v>
       </c>
       <c r="F37" t="n">
-        <v>283.2128050255634</v>
+        <v>734.1112859470874</v>
       </c>
       <c r="G37" t="n">
-        <v>100.9525269146126</v>
+        <v>240.3485779264921</v>
       </c>
       <c r="H37" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="I37" t="n">
-        <v>26546659</v>
+        <v>26391486</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1846205</v>
+        <v>1835073</v>
       </c>
       <c r="E38" t="n">
-        <v>13238955</v>
+        <v>13159128</v>
       </c>
       <c r="F38" t="n">
-        <v>6606.910382799168</v>
+        <v>3712.419104337279</v>
       </c>
       <c r="G38" t="n">
-        <v>6791.291186741167</v>
+        <v>6729.99942145237</v>
       </c>
       <c r="H38" t="n">
-        <v>0.58</v>
+        <v>0.37</v>
       </c>
       <c r="I38" t="n">
-        <v>1946873</v>
+        <v>1717561</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>199433877</v>
+        <v>199033885</v>
       </c>
       <c r="E39" t="n">
-        <v>1129317153</v>
+        <v>1127052152</v>
       </c>
       <c r="F39" t="n">
-        <v>52388.46879833171</v>
+        <v>61013.69600254311</v>
       </c>
       <c r="G39" t="n">
-        <v>70352.16493986483</v>
+        <v>71610.76910533033</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>38015359</v>
+        <v>35412902</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>131905021</v>
+        <v>132254577</v>
       </c>
       <c r="E40" t="n">
-        <v>977074232</v>
+        <v>979663532</v>
       </c>
       <c r="F40" t="n">
-        <v>6846.855498137744</v>
+        <v>6577.525954933616</v>
       </c>
       <c r="G40" t="n">
-        <v>15814.11804217315</v>
+        <v>18015.51283136419</v>
       </c>
       <c r="H40" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I40" t="n">
-        <v>8080357</v>
+        <v>5687772</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>327468625</v>
+        <v>332907947</v>
       </c>
       <c r="E41" t="n">
-        <v>2946110807</v>
+        <v>2995046320</v>
       </c>
       <c r="F41" t="n">
-        <v>65719.73937972647</v>
+        <v>73221.8907585756</v>
       </c>
       <c r="G41" t="n">
-        <v>89449.58197022781</v>
+        <v>102449.2066074711</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>37408144</v>
+        <v>31166213</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1556307</v>
+        <v>1568499</v>
       </c>
       <c r="E42" t="n">
-        <v>12969221</v>
+        <v>13070822</v>
       </c>
       <c r="F42" t="n">
-        <v>5081.417747409113</v>
+        <v>2965.985931461376</v>
       </c>
       <c r="G42" t="n">
-        <v>4157.658624457084</v>
+        <v>2263.524523979951</v>
       </c>
       <c r="H42" t="n">
-        <v>0.46</v>
+        <v>0.76</v>
       </c>
       <c r="I42" t="n">
-        <v>49341</v>
+        <v>60707</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20597487</v>
+        <v>20073276</v>
       </c>
       <c r="E43" t="n">
-        <v>60599660</v>
+        <v>59057383</v>
       </c>
       <c r="F43" t="n">
-        <v>3648.352612011095</v>
+        <v>15338.87287553202</v>
       </c>
       <c r="G43" t="n">
-        <v>3707.608630414195</v>
+        <v>11067.92051497791</v>
       </c>
       <c r="H43" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="I43" t="n">
-        <v>2542591</v>
+        <v>2475435</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8125105</v>
+        <v>8086186</v>
       </c>
       <c r="F44" t="n">
-        <v>2480.481908400488</v>
+        <v>2354.653226310544</v>
       </c>
       <c r="G44" t="n">
-        <v>3156.684531738803</v>
+        <v>1497.087951689283</v>
       </c>
       <c r="H44" t="n">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="I44" t="n">
-        <v>229861</v>
+        <v>203494</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12790005</v>
+        <v>13040247</v>
       </c>
       <c r="E45" t="n">
-        <v>12790005</v>
+        <v>13040247</v>
       </c>
       <c r="F45" t="n">
-        <v>104.4816349240512</v>
+        <v>602.8762573217329</v>
       </c>
       <c r="G45" t="n">
-        <v>286.3607723894852</v>
+        <v>92.62578038532762</v>
       </c>
       <c r="H45" t="n">
-        <v>1.08</v>
+        <v>0.38</v>
       </c>
       <c r="I45" t="n">
-        <v>2188105</v>
+        <v>2532735</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>321107449</v>
+        <v>318519477</v>
       </c>
       <c r="E46" t="n">
-        <v>321107449</v>
+        <v>318519477</v>
       </c>
       <c r="F46" t="n">
-        <v>11524.33245528316</v>
+        <v>17054.864465632</v>
       </c>
       <c r="G46" t="n">
-        <v>16980.05694160823</v>
+        <v>26585.32809499775</v>
       </c>
       <c r="H46" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>13410205</v>
+        <v>12332129</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12597923</v>
+        <v>12687029</v>
       </c>
       <c r="E47" t="n">
-        <v>39839747</v>
+        <v>40121538</v>
       </c>
       <c r="F47" t="n">
-        <v>4701.16736798663</v>
+        <v>6676.863857865171</v>
       </c>
       <c r="G47" t="n">
-        <v>6016.683646766753</v>
+        <v>4013.70714788878</v>
       </c>
       <c r="H47" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I47" t="n">
-        <v>1582666</v>
+        <v>1508531</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>34034198</v>
+        <v>34019446</v>
       </c>
       <c r="E48" t="n">
-        <v>94271350</v>
+        <v>94230491</v>
       </c>
       <c r="F48" t="n">
-        <v>2201.547657972285</v>
+        <v>2649.367835309352</v>
       </c>
       <c r="G48" t="n">
-        <v>4838.253731500169</v>
+        <v>2258.350114616585</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="I48" t="n">
-        <v>12246484</v>
+        <v>12214402</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28301899</v>
+        <v>28239193</v>
       </c>
       <c r="E49" t="n">
-        <v>67137352</v>
+        <v>66988602</v>
       </c>
       <c r="F49" t="n">
-        <v>10901.63609087537</v>
+        <v>16208.30735109057</v>
       </c>
       <c r="G49" t="n">
-        <v>11724.48113549621</v>
+        <v>15825.95869301509</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>474408</v>
+        <v>360765</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11873724</v>
+        <v>11947960</v>
       </c>
       <c r="E50" t="n">
-        <v>18031009</v>
+        <v>18143741</v>
       </c>
       <c r="F50" t="n">
-        <v>5076.919291475988</v>
+        <v>5018.229271726445</v>
       </c>
       <c r="G50" t="n">
-        <v>4482.693037684952</v>
+        <v>3936.162272004789</v>
       </c>
       <c r="H50" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="I50" t="n">
-        <v>724991</v>
+        <v>711692</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>306209061</v>
+        <v>310575702</v>
       </c>
       <c r="E51" t="n">
-        <v>306209061</v>
+        <v>310575702</v>
       </c>
       <c r="F51" t="n">
-        <v>36904.63454788022</v>
+        <v>42013.7034565625</v>
       </c>
       <c r="G51" t="n">
-        <v>65372.96322206066</v>
+        <v>40085.15000847639</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>71200186</v>
+        <v>62752694</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90478171</v>
+        <v>90337310</v>
       </c>
       <c r="E52" t="n">
-        <v>521374246</v>
+        <v>520562547</v>
       </c>
       <c r="F52" t="n">
-        <v>56990.6657250725</v>
+        <v>55236.1928424786</v>
       </c>
       <c r="G52" t="n">
-        <v>71591.42915332217</v>
+        <v>73896.40843283737</v>
       </c>
       <c r="H52" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>28573407</v>
+        <v>28113486</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>35210659</v>
+        <v>33584380</v>
       </c>
       <c r="E53" t="n">
-        <v>157652564</v>
+        <v>150371048</v>
       </c>
       <c r="F53" t="n">
-        <v>12855.64308860902</v>
+        <v>12018.83975626493</v>
       </c>
       <c r="G53" t="n">
-        <v>17867.27148436623</v>
+        <v>22720.50897447366</v>
       </c>
       <c r="H53" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I53" t="n">
-        <v>24925678</v>
+        <v>26059789</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7796110</v>
+        <v>7911495</v>
       </c>
       <c r="F54" t="n">
-        <v>2294.162612079532</v>
+        <v>2225.761804392429</v>
       </c>
       <c r="G54" t="n">
-        <v>4543.444711943188</v>
+        <v>4688.920497627409</v>
       </c>
       <c r="H54" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="I54" t="n">
-        <v>366979</v>
+        <v>82843</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4707973</v>
+        <v>4740390</v>
       </c>
       <c r="F55" t="n">
-        <v>2744.598298226031</v>
+        <v>2858.757385143784</v>
       </c>
       <c r="G55" t="n">
-        <v>1795.971154474025</v>
+        <v>3368.845188729695</v>
       </c>
       <c r="H55" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="I55" t="n">
-        <v>257725</v>
+        <v>282477</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123570947</v>
+        <v>123732381</v>
       </c>
       <c r="E56" t="n">
-        <v>2046436089</v>
+        <v>2049109567</v>
       </c>
       <c r="F56" t="n">
-        <v>23715.35732457004</v>
+        <v>33940.97298184199</v>
       </c>
       <c r="G56" t="n">
-        <v>28369.68359419996</v>
+        <v>22136.32936456448</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>90800965</v>
+        <v>58274987</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>87552685</v>
+        <v>85562476</v>
       </c>
       <c r="E57" t="n">
-        <v>88495106</v>
+        <v>86483472</v>
       </c>
       <c r="F57" t="n">
-        <v>18090.77414054424</v>
+        <v>19130.61125924934</v>
       </c>
       <c r="G57" t="n">
-        <v>25324.64457424716</v>
+        <v>36513.10779164852</v>
       </c>
       <c r="H57" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="I57" t="n">
-        <v>17591785</v>
+        <v>16332550</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>249200240</v>
+        <v>251285294</v>
       </c>
       <c r="E58" t="n">
-        <v>249200240</v>
+        <v>251285294</v>
       </c>
       <c r="F58" t="n">
-        <v>55987.3893051551</v>
+        <v>50974.41721530043</v>
       </c>
       <c r="G58" t="n">
-        <v>80944.59198881031</v>
+        <v>87287.92852687542</v>
       </c>
       <c r="H58" t="n">
         <v>0.12</v>
       </c>
       <c r="I58" t="n">
-        <v>42008972</v>
+        <v>37984599</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24305825</v>
+        <v>24135111</v>
       </c>
       <c r="E59" t="n">
-        <v>145426636</v>
+        <v>144405218</v>
       </c>
       <c r="F59" t="n">
-        <v>30304.06683411578</v>
+        <v>29501.40704880459</v>
       </c>
       <c r="G59" t="n">
-        <v>26901.96571405774</v>
+        <v>32583.9737110355</v>
       </c>
       <c r="H59" t="n">
         <v>0.21</v>
       </c>
       <c r="I59" t="n">
-        <v>13682149</v>
+        <v>13396664</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2501394</v>
+        <v>2615880</v>
       </c>
       <c r="E60" t="n">
-        <v>4616466</v>
+        <v>4827756</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>3.93</v>
+        <v>7.34</v>
       </c>
       <c r="I60" t="n">
-        <v>331284</v>
+        <v>320362</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10614174</v>
+        <v>10461139</v>
       </c>
       <c r="E62" t="n">
-        <v>31460458</v>
+        <v>31006863</v>
       </c>
       <c r="F62" t="n">
-        <v>6857.317902355327</v>
+        <v>9525.402085324029</v>
       </c>
       <c r="G62" t="n">
-        <v>2268.274494038005</v>
+        <v>2292.464277800764</v>
       </c>
       <c r="H62" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I62" t="n">
-        <v>4844017</v>
+        <v>4290042</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14519088</v>
+        <v>14435840</v>
       </c>
       <c r="E63" t="n">
-        <v>29393007</v>
+        <v>29224476</v>
       </c>
       <c r="F63" t="n">
-        <v>7451.313584861407</v>
+        <v>7113.180124331315</v>
       </c>
       <c r="G63" t="n">
-        <v>10752.17262104299</v>
+        <v>16788.0395391598</v>
       </c>
       <c r="H63" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>417829</v>
+        <v>521637</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33936624</v>
+        <v>36314371</v>
       </c>
       <c r="E64" t="n">
-        <v>240605130</v>
+        <v>257462968</v>
       </c>
       <c r="F64" t="n">
-        <v>40206.43103060649</v>
+        <v>30856.79607169545</v>
       </c>
       <c r="G64" t="n">
-        <v>38746.28254805346</v>
+        <v>43585.85246703491</v>
       </c>
       <c r="H64" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="I64" t="n">
-        <v>1871445</v>
+        <v>2149698</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1301569</v>
+        <v>1304042</v>
       </c>
       <c r="E65" t="n">
-        <v>8066661</v>
+        <v>8082005</v>
       </c>
       <c r="F65" t="n">
-        <v>120.5648279371875</v>
+        <v>233.7583212463293</v>
       </c>
       <c r="G65" t="n">
-        <v>220.9698315059295</v>
+        <v>145.3941501160485</v>
       </c>
       <c r="H65" t="n">
-        <v>2.05</v>
+        <v>0.61</v>
       </c>
       <c r="I65" t="n">
-        <v>761807</v>
+        <v>776202</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>597851219</v>
+        <v>604383332</v>
       </c>
       <c r="E66" t="n">
-        <v>2315389565</v>
+        <v>2340687476</v>
       </c>
       <c r="F66" t="n">
-        <v>48534.85975570917</v>
+        <v>76055.81761217085</v>
       </c>
       <c r="G66" t="n">
-        <v>41559.72448628305</v>
+        <v>60132.98576345106</v>
       </c>
       <c r="H66" t="n">
         <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>25136737</v>
+        <v>24933006</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5517371</v>
+        <v>5502475</v>
       </c>
       <c r="E67" t="n">
-        <v>24632551</v>
+        <v>24565650</v>
       </c>
       <c r="F67" t="n">
-        <v>4089.251035054141</v>
+        <v>4021.151584438621</v>
       </c>
       <c r="G67" t="n">
-        <v>19017.11129567793</v>
+        <v>18970.86510572774</v>
       </c>
       <c r="H67" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="I67" t="n">
-        <v>152698</v>
+        <v>147672</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>111743993</v>
+        <v>112426934</v>
       </c>
       <c r="E68" t="n">
-        <v>1057295143</v>
+        <v>1063756972</v>
       </c>
       <c r="F68" t="n">
-        <v>6770.555201973872</v>
+        <v>7374.684775189988</v>
       </c>
       <c r="G68" t="n">
-        <v>3659.797120793594</v>
+        <v>5312.270277448843</v>
       </c>
       <c r="H68" t="n">
         <v>0.13</v>
       </c>
       <c r="I68" t="n">
-        <v>9405432</v>
+        <v>9042565</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>103016518</v>
+        <v>105832173</v>
       </c>
       <c r="E69" t="n">
-        <v>157154114</v>
+        <v>161449460</v>
       </c>
       <c r="F69" t="n">
-        <v>11881.99771113629</v>
+        <v>4295.689287670149</v>
       </c>
       <c r="G69" t="n">
-        <v>17178.56149395201</v>
+        <v>18665.34205775386</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I69" t="n">
-        <v>3679067</v>
+        <v>3655630</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1203158</v>
+        <v>1161449</v>
       </c>
       <c r="E70" t="n">
-        <v>4658889</v>
+        <v>4497386</v>
       </c>
       <c r="F70" t="n">
-        <v>2347.190340823073</v>
+        <v>3146.638898597741</v>
       </c>
       <c r="G70" t="n">
-        <v>2388.904478017888</v>
+        <v>2797.836155483808</v>
       </c>
       <c r="H70" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I70" t="n">
-        <v>296624</v>
+        <v>329691</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>127535334</v>
+        <v>127878273</v>
       </c>
       <c r="E71" t="n">
-        <v>489246069</v>
+        <v>490561639</v>
       </c>
       <c r="F71" t="n">
-        <v>16704.48860280451</v>
+        <v>15930.64752529891</v>
       </c>
       <c r="G71" t="n">
-        <v>8805.740512711349</v>
+        <v>15087.43726741347</v>
       </c>
       <c r="H71" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I71" t="n">
-        <v>19311955</v>
+        <v>19072652</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3650460</v>
+        <v>3661250</v>
       </c>
       <c r="E72" t="n">
-        <v>34588647</v>
+        <v>34690888</v>
       </c>
       <c r="F72" t="n">
-        <v>775.5978438223236</v>
+        <v>492.1663082935888</v>
       </c>
       <c r="G72" t="n">
-        <v>154.4324994386803</v>
+        <v>641.1247894357973</v>
       </c>
       <c r="H72" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="I72" t="n">
-        <v>581813</v>
+        <v>503841</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>37879507</v>
+        <v>37900729</v>
       </c>
       <c r="F73" t="n">
-        <v>3380.850614452894</v>
+        <v>3006.221995359266</v>
       </c>
       <c r="G73" t="n">
-        <v>1111.345756209344</v>
+        <v>1960.520073134493</v>
       </c>
       <c r="H73" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>14231800</v>
+        <v>12346754</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>99613726</v>
+        <v>101992737</v>
       </c>
       <c r="E74" t="n">
-        <v>366898764</v>
+        <v>375653697</v>
       </c>
       <c r="F74" t="n">
-        <v>395.9464513997056</v>
+        <v>443.8927230718808</v>
       </c>
       <c r="G74" t="n">
-        <v>194.45388089499</v>
+        <v>68.13986947476641</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I74" t="n">
-        <v>863829</v>
+        <v>936458</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23433027</v>
+        <v>23370896</v>
       </c>
       <c r="E75" t="n">
-        <v>23433027</v>
+        <v>23370896</v>
       </c>
       <c r="F75" t="n">
-        <v>3037.362493365205</v>
+        <v>3345.636723353031</v>
       </c>
       <c r="G75" t="n">
-        <v>2521.575791765198</v>
+        <v>3218.125935199144</v>
       </c>
       <c r="H75" t="n">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="I75" t="n">
-        <v>3057533</v>
+        <v>2992455</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>478698754</v>
+        <v>478436160</v>
       </c>
       <c r="E76" t="n">
-        <v>1664622325</v>
+        <v>1663709184</v>
       </c>
       <c r="F76" t="n">
-        <v>86942.87373300144</v>
+        <v>86331.72506256908</v>
       </c>
       <c r="G76" t="n">
-        <v>95468.77419092412</v>
+        <v>97892.2009173282</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>28004969</v>
+        <v>24614515</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5747759488</v>
+        <v>5875056572</v>
       </c>
       <c r="E77" t="n">
-        <v>5747759488</v>
+        <v>5875056572</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>76.54000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="I77" t="n">
-        <v>17933599</v>
+        <v>19459159</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7519942</v>
+        <v>7614965</v>
       </c>
       <c r="E78" t="n">
-        <v>19536000</v>
+        <v>19782861</v>
       </c>
       <c r="F78" t="n">
-        <v>124.24136564757</v>
+        <v>215.575287205094</v>
       </c>
       <c r="G78" t="n">
-        <v>250.2165257654858</v>
+        <v>112.2076252325511</v>
       </c>
       <c r="H78" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="I78" t="n">
-        <v>712433</v>
+        <v>629139</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>110145790</v>
+        <v>110532377</v>
       </c>
       <c r="E79" t="n">
-        <v>166883599</v>
+        <v>167469321</v>
       </c>
       <c r="F79" t="n">
-        <v>40431.9629282249</v>
+        <v>41870.34577540703</v>
       </c>
       <c r="G79" t="n">
-        <v>39369.66256386332</v>
+        <v>40679.40202722119</v>
       </c>
       <c r="H79" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="I79" t="n">
-        <v>7488948</v>
+        <v>6778654</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2250420</v>
+        <v>2236651</v>
       </c>
       <c r="E80" t="n">
-        <v>9001679</v>
+        <v>8946603</v>
       </c>
       <c r="F80" t="n">
-        <v>1906.197266099239</v>
+        <v>2377.220080987172</v>
       </c>
       <c r="G80" t="n">
-        <v>2189.346636129258</v>
+        <v>2372.768099577082</v>
       </c>
       <c r="H80" t="n">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>6763269</v>
+        <v>6053282</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2486767</v>
+        <v>2528546</v>
       </c>
       <c r="F81" t="n">
-        <v>12.79014939672831</v>
+        <v>1518.784840561586</v>
       </c>
       <c r="G81" t="n">
-        <v>2262.600916399889</v>
+        <v>705.7001180814506</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="I81" t="n">
-        <v>261635</v>
+        <v>301173</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>387713160</v>
+        <v>396908511</v>
       </c>
       <c r="E82" t="n">
-        <v>2215503772</v>
+        <v>2268048634</v>
       </c>
       <c r="F82" t="n">
-        <v>20842.86859860089</v>
+        <v>38267.02354544433</v>
       </c>
       <c r="G82" t="n">
-        <v>41956.36436632579</v>
+        <v>50569.3200412005</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>42029638</v>
+        <v>41415854</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4291128</v>
+        <v>4006751</v>
       </c>
       <c r="F2" t="n">
-        <v>2239.475458640734</v>
+        <v>225.6275948719481</v>
       </c>
       <c r="G2" t="n">
-        <v>212.0710490630417</v>
+        <v>859.64995439043</v>
       </c>
       <c r="H2" t="n">
-        <v>0.41</v>
+        <v>0.96</v>
       </c>
       <c r="I2" t="n">
-        <v>156668</v>
+        <v>193306</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1407924</v>
+        <v>1444627</v>
       </c>
       <c r="E3" t="n">
-        <v>4550989</v>
+        <v>4669627</v>
       </c>
       <c r="F3" t="n">
-        <v>5558.776264291842</v>
+        <v>5255.92433221826</v>
       </c>
       <c r="G3" t="n">
-        <v>5473.028169470632</v>
+        <v>1332.161879877656</v>
       </c>
       <c r="H3" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I3" t="n">
-        <v>217234</v>
+        <v>143169</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>258492768</v>
+        <v>250450367</v>
       </c>
       <c r="E4" t="n">
-        <v>1620971814</v>
+        <v>1570539048</v>
       </c>
       <c r="F4" t="n">
-        <v>27246.934436879</v>
+        <v>4133.347773958277</v>
       </c>
       <c r="G4" t="n">
-        <v>33918.03961396059</v>
+        <v>29039.55076828779</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="I4" t="n">
-        <v>20617207</v>
+        <v>16405345</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149815560</v>
+        <v>142690521</v>
       </c>
       <c r="E5" t="n">
-        <v>166019054</v>
+        <v>158123396</v>
       </c>
       <c r="F5" t="n">
-        <v>35086.75216772579</v>
+        <v>33559.06528483723</v>
       </c>
       <c r="G5" t="n">
-        <v>36413.71541159802</v>
+        <v>35462.72621956181</v>
       </c>
       <c r="H5" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>30560470</v>
+        <v>30271178</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>123869849</v>
+        <v>118718691</v>
       </c>
       <c r="E6" t="n">
-        <v>485532719</v>
+        <v>465341721</v>
       </c>
       <c r="F6" t="n">
-        <v>6672.813641001032</v>
+        <v>18162.32617346073</v>
       </c>
       <c r="G6" t="n">
-        <v>11489.62235664514</v>
+        <v>7232.963654607503</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>20961836</v>
+        <v>19925626</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4179783</v>
+        <v>4148999</v>
       </c>
       <c r="E7" t="n">
-        <v>25653125</v>
+        <v>25457235</v>
       </c>
       <c r="F7" t="n">
-        <v>1988.108798927876</v>
+        <v>1683.170228973117</v>
       </c>
       <c r="G7" t="n">
-        <v>2808.218726435759</v>
+        <v>1690.197434300275</v>
       </c>
       <c r="H7" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>322775</v>
+        <v>401117</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>184516</v>
+        <v>185082</v>
       </c>
       <c r="E8" t="n">
-        <v>2029884</v>
+        <v>2036106</v>
       </c>
       <c r="F8" t="n">
-        <v>2190.490452710679</v>
+        <v>2137.73959822331</v>
       </c>
       <c r="G8" t="n">
-        <v>6432.118502345161</v>
+        <v>6641.315443254272</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>60957</v>
+        <v>49726</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72089251</v>
+        <v>70750944</v>
       </c>
       <c r="E9" t="n">
-        <v>124695143</v>
+        <v>122356860</v>
       </c>
       <c r="F9" t="n">
-        <v>898.3036975728332</v>
+        <v>1039.751399193729</v>
       </c>
       <c r="G9" t="n">
-        <v>452.0886202250017</v>
+        <v>1357.42365778133</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08</v>
+        <v>0.49</v>
       </c>
       <c r="I9" t="n">
-        <v>394669</v>
+        <v>342814</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8817243</v>
+        <v>8792630</v>
       </c>
       <c r="E10" t="n">
-        <v>12480152</v>
+        <v>12445314</v>
       </c>
       <c r="F10" t="n">
-        <v>3032.842315077869</v>
+        <v>3141.267251541617</v>
       </c>
       <c r="G10" t="n">
-        <v>3100.732111098909</v>
+        <v>2989.190006381489</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>8599.389999999999</v>
+        <v>7792.96</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>494669772</v>
+        <v>464306613</v>
       </c>
       <c r="E11" t="n">
-        <v>494669785</v>
+        <v>464306613</v>
       </c>
       <c r="F11" t="n">
-        <v>14177.39636736963</v>
+        <v>14134.72402370059</v>
       </c>
       <c r="G11" t="n">
-        <v>40498.3252722664</v>
+        <v>46502.06389067544</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>31688061</v>
+        <v>30710403</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>384697</v>
+        <v>316398</v>
       </c>
       <c r="E12" t="n">
-        <v>1795804</v>
+        <v>1476979</v>
       </c>
       <c r="F12" t="n">
-        <v>196.2114760909382</v>
+        <v>28.60372666006867</v>
       </c>
       <c r="G12" t="n">
-        <v>1.729248088367644</v>
+        <v>5.927290386961062</v>
       </c>
       <c r="H12" t="n">
-        <v>3.34</v>
+        <v>2.55</v>
       </c>
       <c r="I12" t="n">
-        <v>853747</v>
+        <v>787566</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1817714</v>
+        <v>1696331</v>
       </c>
       <c r="F13" t="n">
-        <v>2178.004734351911</v>
+        <v>1170.103881974462</v>
       </c>
       <c r="G13" t="n">
-        <v>3705.118306551558</v>
+        <v>3872.726651984836</v>
       </c>
       <c r="H13" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="I13" t="n">
-        <v>853900</v>
+        <v>517749</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12265134</v>
+        <v>12229249</v>
       </c>
       <c r="E14" t="n">
-        <v>30525699</v>
+        <v>30436388</v>
       </c>
       <c r="F14" t="n">
-        <v>1049.093478560443</v>
+        <v>1582.003846726893</v>
       </c>
       <c r="G14" t="n">
-        <v>1519.040162017317</v>
+        <v>1489.791402405134</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I14" t="n">
-        <v>963808</v>
+        <v>1390287</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115674080</v>
+        <v>113073321</v>
       </c>
       <c r="E15" t="n">
-        <v>448738815</v>
+        <v>438447604</v>
       </c>
       <c r="F15" t="n">
-        <v>3881.809707288984</v>
+        <v>9045.776965742609</v>
       </c>
       <c r="G15" t="n">
-        <v>6745.638591442987</v>
+        <v>5039.048519596367</v>
       </c>
       <c r="H15" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I15" t="n">
-        <v>6154483</v>
+        <v>5754402</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4882018</v>
+        <v>4813997</v>
       </c>
       <c r="E16" t="n">
-        <v>7186596</v>
+        <v>7086464</v>
       </c>
       <c r="F16" t="n">
-        <v>630.7429206201382</v>
+        <v>3762.39194193967</v>
       </c>
       <c r="G16" t="n">
-        <v>203.2682219444995</v>
+        <v>4013.014514940432</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I16" t="n">
-        <v>731692</v>
+        <v>806026</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>679107</v>
+        <v>561407</v>
       </c>
       <c r="E17" t="n">
-        <v>2809211</v>
+        <v>2322331</v>
       </c>
       <c r="F17" t="n">
-        <v>60.26829207328403</v>
+        <v>1571.954436790235</v>
       </c>
       <c r="G17" t="n">
-        <v>623.7885055227546</v>
+        <v>3921.750337488532</v>
       </c>
       <c r="H17" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>215563</v>
+        <v>506852</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>148691451</v>
+        <v>143160373</v>
       </c>
       <c r="E18" t="n">
-        <v>148691451</v>
+        <v>143160373</v>
       </c>
       <c r="F18" t="n">
-        <v>59250.25047119805</v>
+        <v>65542.6631265293</v>
       </c>
       <c r="G18" t="n">
-        <v>67160.20395359673</v>
+        <v>108114.7207528192</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>98749046</v>
+        <v>77046474</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72796131</v>
+        <v>70068922</v>
       </c>
       <c r="E19" t="n">
-        <v>373313494</v>
+        <v>359327807</v>
       </c>
       <c r="F19" t="n">
-        <v>4437.158978497083</v>
+        <v>3638.539407400514</v>
       </c>
       <c r="G19" t="n">
-        <v>13371.10018959903</v>
+        <v>6391.202148286629</v>
       </c>
       <c r="H19" t="n">
         <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>48571894</v>
+        <v>51740894</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>262525271</v>
+        <v>251104483</v>
       </c>
       <c r="E20" t="n">
-        <v>262525271</v>
+        <v>251104483</v>
       </c>
       <c r="F20" t="n">
-        <v>132302.7492863141</v>
+        <v>46770.74614312555</v>
       </c>
       <c r="G20" t="n">
-        <v>62047.98485186642</v>
+        <v>58798.17211587663</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>13052315</v>
+        <v>11624953</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>177439714</v>
+        <v>171626044</v>
       </c>
       <c r="E21" t="n">
-        <v>233489912</v>
+        <v>225839802</v>
       </c>
       <c r="F21" t="n">
-        <v>28312.61649703838</v>
+        <v>13370.56787982114</v>
       </c>
       <c r="G21" t="n">
-        <v>17050.35284799077</v>
+        <v>17457.43440689817</v>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5427554</v>
+        <v>3475459</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79641087</v>
+        <v>75289871</v>
       </c>
       <c r="E22" t="n">
-        <v>222890339</v>
+        <v>210778664</v>
       </c>
       <c r="F22" t="n">
-        <v>24800.24983763836</v>
+        <v>23249.24209291345</v>
       </c>
       <c r="G22" t="n">
-        <v>27511.72057720179</v>
+        <v>19454.11566771413</v>
       </c>
       <c r="H22" t="n">
         <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>26147932</v>
+        <v>25590316</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>88316277</v>
+        <v>83046583</v>
       </c>
       <c r="E23" t="n">
-        <v>184132345</v>
+        <v>173145455</v>
       </c>
       <c r="F23" t="n">
-        <v>16803.74392715592</v>
+        <v>8433.910175202858</v>
       </c>
       <c r="G23" t="n">
-        <v>29099.89795463638</v>
+        <v>28525.8002106633</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I23" t="n">
-        <v>29727586</v>
+        <v>23276165</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>679244050</v>
+        <v>659437342</v>
       </c>
       <c r="E24" t="n">
-        <v>679244050</v>
+        <v>659437342</v>
       </c>
       <c r="F24" t="n">
-        <v>122377.3313516377</v>
+        <v>117091.4658638741</v>
       </c>
       <c r="G24" t="n">
-        <v>134912.8505436566</v>
+        <v>111426.1826911046</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>403099445</v>
+        <v>291876287</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>202733504</v>
+        <v>194967677</v>
       </c>
       <c r="E25" t="n">
-        <v>704314516</v>
+        <v>677335332</v>
       </c>
       <c r="F25" t="n">
-        <v>74791.07051621763</v>
+        <v>66838.25456816776</v>
       </c>
       <c r="G25" t="n">
-        <v>94722.43233564399</v>
+        <v>104623.0823001842</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I25" t="n">
-        <v>27739660</v>
+        <v>27826834</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5488731</v>
+        <v>5444917</v>
       </c>
       <c r="E26" t="n">
-        <v>7445164</v>
+        <v>7384510</v>
       </c>
       <c r="F26" t="n">
-        <v>1025.946443086571</v>
+        <v>736.7722062602172</v>
       </c>
       <c r="G26" t="n">
-        <v>1708.590283974556</v>
+        <v>165.8793522592764</v>
       </c>
       <c r="H26" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5023198</v>
+        <v>4845169</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14850367</v>
+        <v>14466749</v>
       </c>
       <c r="F27" t="n">
-        <v>2960.202889767219</v>
+        <v>2516.64736430311</v>
       </c>
       <c r="G27" t="n">
-        <v>1859.589246679382</v>
+        <v>2394.523682214002</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I27" t="n">
-        <v>220463</v>
+        <v>202999</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25746242</v>
+        <v>25971255</v>
       </c>
       <c r="E28" t="n">
-        <v>36375937</v>
+        <v>36686851</v>
       </c>
       <c r="F28" t="n">
-        <v>313.7000448336998</v>
+        <v>72.08578164357749</v>
       </c>
       <c r="G28" t="n">
-        <v>685.2815957146603</v>
+        <v>420.1735841693562</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.65</v>
       </c>
       <c r="I28" t="n">
-        <v>75851</v>
+        <v>54296</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>272439202</v>
+        <v>266626282</v>
       </c>
       <c r="E29" t="n">
-        <v>1175998839</v>
+        <v>1150907049</v>
       </c>
       <c r="F29" t="n">
-        <v>150439.6088292093</v>
+        <v>133458.2302227599</v>
       </c>
       <c r="G29" t="n">
-        <v>148255.1930230397</v>
+        <v>139129.0035014165</v>
       </c>
       <c r="H29" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>69971291</v>
+        <v>67300111</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10971185</v>
+        <v>10601050</v>
       </c>
       <c r="E30" t="n">
-        <v>131644723</v>
+        <v>127156161</v>
       </c>
       <c r="F30" t="n">
-        <v>6657.293184499978</v>
+        <v>6783.836974200763</v>
       </c>
       <c r="G30" t="n">
-        <v>1569.427146860737</v>
+        <v>1297.034861175788</v>
       </c>
       <c r="H30" t="n">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="I30" t="n">
-        <v>189300</v>
+        <v>177161</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15871977</v>
+        <v>14360513</v>
       </c>
       <c r="E31" t="n">
-        <v>39679942</v>
+        <v>35901284</v>
       </c>
       <c r="F31" t="n">
-        <v>5482.567465628867</v>
+        <v>5732.469270588987</v>
       </c>
       <c r="G31" t="n">
-        <v>7281.101491861969</v>
+        <v>4067.653867367605</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>2366881</v>
+        <v>2293820</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18617198</v>
+        <v>18395018</v>
       </c>
       <c r="F32" t="n">
-        <v>2497.535400333884</v>
+        <v>845.8945812467335</v>
       </c>
       <c r="G32" t="n">
-        <v>2269.098115831302</v>
+        <v>1515.868338643123</v>
       </c>
       <c r="H32" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I32" t="n">
-        <v>43654</v>
+        <v>16993.69</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1697376</v>
+        <v>1708448</v>
       </c>
       <c r="E33" t="n">
-        <v>6326627</v>
+        <v>6367869</v>
       </c>
       <c r="F33" t="n">
-        <v>4732.580988437024</v>
+        <v>4045.398985389068</v>
       </c>
       <c r="G33" t="n">
-        <v>692.7766655796983</v>
+        <v>2119.813221349079</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="I33" t="n">
-        <v>867557</v>
+        <v>666526</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4513217</v>
+        <v>4021936</v>
       </c>
       <c r="E34" t="n">
-        <v>12997305</v>
+        <v>11582420</v>
       </c>
       <c r="F34" t="n">
-        <v>2086.190939196993</v>
+        <v>691.1968440114687</v>
       </c>
       <c r="G34" t="n">
-        <v>3765.610121849595</v>
+        <v>4817.68890254914</v>
       </c>
       <c r="H34" t="n">
-        <v>0.84</v>
+        <v>0.35</v>
       </c>
       <c r="I34" t="n">
-        <v>482102</v>
+        <v>454066</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14986721</v>
+        <v>14459914</v>
       </c>
       <c r="E35" t="n">
-        <v>72583082</v>
+        <v>70031672</v>
       </c>
       <c r="F35" t="n">
-        <v>2114.889033020885</v>
+        <v>2885.935359066878</v>
       </c>
       <c r="G35" t="n">
-        <v>6114.545091528259</v>
+        <v>5638.027097938716</v>
       </c>
       <c r="H35" t="n">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>3416755</v>
+        <v>3087249</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1380482</v>
+        <v>1440675</v>
       </c>
       <c r="E36" t="n">
-        <v>9035220</v>
+        <v>9429176</v>
       </c>
       <c r="F36" t="n">
-        <v>1000.968639910024</v>
+        <v>576.5686158329723</v>
       </c>
       <c r="G36" t="n">
-        <v>393.1156572867503</v>
+        <v>4186.449519712596</v>
       </c>
       <c r="H36" t="n">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="I36" t="n">
-        <v>1275031</v>
+        <v>1196098</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1885898749</v>
+        <v>1891339728</v>
       </c>
       <c r="F37" t="n">
-        <v>734.1112859470874</v>
+        <v>502.261528138452</v>
       </c>
       <c r="G37" t="n">
-        <v>240.3485779264921</v>
+        <v>59.62510438763649</v>
       </c>
       <c r="H37" t="n">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>26391486</v>
+        <v>26757211</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1835073</v>
+        <v>1866545</v>
       </c>
       <c r="E38" t="n">
-        <v>13159128</v>
+        <v>13384806</v>
       </c>
       <c r="F38" t="n">
-        <v>3712.419104337279</v>
+        <v>6668.964364810651</v>
       </c>
       <c r="G38" t="n">
-        <v>6729.99942145237</v>
+        <v>6826.79346286529</v>
       </c>
       <c r="H38" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="I38" t="n">
-        <v>1717561</v>
+        <v>1511672</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>199033885</v>
+        <v>194304235</v>
       </c>
       <c r="E39" t="n">
-        <v>1127052152</v>
+        <v>1100269968</v>
       </c>
       <c r="F39" t="n">
-        <v>61013.69600254311</v>
+        <v>58190.22643380638</v>
       </c>
       <c r="G39" t="n">
-        <v>71610.76910533033</v>
+        <v>74534.82355173682</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>35412902</v>
+        <v>33077091</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>132254577</v>
+        <v>127490026</v>
       </c>
       <c r="E40" t="n">
-        <v>979663532</v>
+        <v>944370562</v>
       </c>
       <c r="F40" t="n">
-        <v>6577.525954933616</v>
+        <v>10226.84281725592</v>
       </c>
       <c r="G40" t="n">
-        <v>18015.51283136419</v>
+        <v>16321.95956448789</v>
       </c>
       <c r="H40" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>5687772</v>
+        <v>3878589</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>332907947</v>
+        <v>326492944</v>
       </c>
       <c r="E41" t="n">
-        <v>2995046320</v>
+        <v>2937332979</v>
       </c>
       <c r="F41" t="n">
-        <v>73221.8907585756</v>
+        <v>69400.06616343869</v>
       </c>
       <c r="G41" t="n">
-        <v>102449.2066074711</v>
+        <v>95147.106304449</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>31166213</v>
+        <v>26325542</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1568499</v>
+        <v>1561181</v>
       </c>
       <c r="E42" t="n">
-        <v>13070822</v>
+        <v>13009840</v>
       </c>
       <c r="F42" t="n">
-        <v>2965.985931461376</v>
+        <v>3040.307795509048</v>
       </c>
       <c r="G42" t="n">
-        <v>2263.524523979951</v>
+        <v>3932.477520260712</v>
       </c>
       <c r="H42" t="n">
         <v>0.76</v>
       </c>
       <c r="I42" t="n">
-        <v>60707</v>
+        <v>32572</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20073276</v>
+        <v>18848531</v>
       </c>
       <c r="E43" t="n">
-        <v>59057383</v>
+        <v>55453707</v>
       </c>
       <c r="F43" t="n">
-        <v>15338.87287553202</v>
+        <v>6858.271588403591</v>
       </c>
       <c r="G43" t="n">
-        <v>11067.92051497791</v>
+        <v>19066.60364207719</v>
       </c>
       <c r="H43" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="I43" t="n">
-        <v>2475435</v>
+        <v>2230440</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8086186</v>
+        <v>7814146</v>
       </c>
       <c r="F44" t="n">
-        <v>2354.653226310544</v>
+        <v>1622.711209315479</v>
       </c>
       <c r="G44" t="n">
-        <v>1497.087951689283</v>
+        <v>1369.822696328843</v>
       </c>
       <c r="H44" t="n">
-        <v>0.62</v>
+        <v>0.38</v>
       </c>
       <c r="I44" t="n">
-        <v>203494</v>
+        <v>154500</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13040247</v>
+        <v>13075893</v>
       </c>
       <c r="E45" t="n">
-        <v>13040247</v>
+        <v>13075893</v>
       </c>
       <c r="F45" t="n">
-        <v>602.8762573217329</v>
+        <v>764.554617309837</v>
       </c>
       <c r="G45" t="n">
-        <v>92.62578038532762</v>
+        <v>66.94828811391343</v>
       </c>
       <c r="H45" t="n">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="I45" t="n">
-        <v>2532735</v>
+        <v>2161578</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>318519477</v>
+        <v>297620934</v>
       </c>
       <c r="E46" t="n">
-        <v>318519477</v>
+        <v>297620934</v>
       </c>
       <c r="F46" t="n">
-        <v>17054.864465632</v>
+        <v>16144.22218020297</v>
       </c>
       <c r="G46" t="n">
-        <v>26585.32809499775</v>
+        <v>17602.83755913438</v>
       </c>
       <c r="H46" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I46" t="n">
-        <v>12332129</v>
+        <v>11959967</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12687029</v>
+        <v>12338860</v>
       </c>
       <c r="E47" t="n">
-        <v>40121538</v>
+        <v>39019846</v>
       </c>
       <c r="F47" t="n">
-        <v>6676.863857865171</v>
+        <v>7115.191088892438</v>
       </c>
       <c r="G47" t="n">
-        <v>4013.70714788878</v>
+        <v>3384.841457943474</v>
       </c>
       <c r="H47" t="n">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="I47" t="n">
-        <v>1508531</v>
+        <v>934750</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>34019446</v>
+        <v>32695314</v>
       </c>
       <c r="E48" t="n">
-        <v>94230491</v>
+        <v>90562774</v>
       </c>
       <c r="F48" t="n">
-        <v>2649.367835309352</v>
+        <v>2881.63444226694</v>
       </c>
       <c r="G48" t="n">
-        <v>2258.350114616585</v>
+        <v>2045.878144723961</v>
       </c>
       <c r="H48" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>12214402</v>
+        <v>11364614</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28239193</v>
+        <v>27926029</v>
       </c>
       <c r="E49" t="n">
-        <v>66988602</v>
+        <v>66245719</v>
       </c>
       <c r="F49" t="n">
-        <v>16208.30735109057</v>
+        <v>6542.495207513179</v>
       </c>
       <c r="G49" t="n">
-        <v>15825.95869301509</v>
+        <v>16755.64669835113</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>360765</v>
+        <v>312995</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11947960</v>
+        <v>11962708</v>
       </c>
       <c r="E50" t="n">
-        <v>18143741</v>
+        <v>18166136</v>
       </c>
       <c r="F50" t="n">
-        <v>5018.229271726445</v>
+        <v>5436.895099083949</v>
       </c>
       <c r="G50" t="n">
-        <v>3936.162272004789</v>
+        <v>4379.408298321652</v>
       </c>
       <c r="H50" t="n">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="I50" t="n">
-        <v>711692</v>
+        <v>742482</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>310575702</v>
+        <v>299106489</v>
       </c>
       <c r="E51" t="n">
-        <v>310575702</v>
+        <v>299106489</v>
       </c>
       <c r="F51" t="n">
-        <v>42013.7034565625</v>
+        <v>34004.21788906095</v>
       </c>
       <c r="G51" t="n">
-        <v>40085.15000847639</v>
+        <v>71827.88000239297</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>62752694</v>
+        <v>73796710</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90337310</v>
+        <v>88805430</v>
       </c>
       <c r="E52" t="n">
-        <v>520562547</v>
+        <v>511735191</v>
       </c>
       <c r="F52" t="n">
-        <v>55236.1928424786</v>
+        <v>54035.25420748813</v>
       </c>
       <c r="G52" t="n">
-        <v>73896.40843283737</v>
+        <v>69115.23772289816</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>28113486</v>
+        <v>16949789</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>33584380</v>
+        <v>30865577</v>
       </c>
       <c r="E53" t="n">
-        <v>150371048</v>
+        <v>138197849</v>
       </c>
       <c r="F53" t="n">
-        <v>12018.83975626493</v>
+        <v>12032.76166920893</v>
       </c>
       <c r="G53" t="n">
-        <v>22720.50897447366</v>
+        <v>13586.88301859826</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>26059789</v>
+        <v>25165967</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7911495</v>
+        <v>7804999</v>
       </c>
       <c r="F54" t="n">
-        <v>2225.761804392429</v>
+        <v>3755.612978104363</v>
       </c>
       <c r="G54" t="n">
-        <v>4688.920497627409</v>
+        <v>4504.301814740767</v>
       </c>
       <c r="H54" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="I54" t="n">
-        <v>82843</v>
+        <v>384080</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4740390</v>
+        <v>4674907</v>
       </c>
       <c r="F55" t="n">
-        <v>2858.757385143784</v>
+        <v>25.98582408879142</v>
       </c>
       <c r="G55" t="n">
-        <v>3368.845188729695</v>
+        <v>59.13861746471278</v>
       </c>
       <c r="H55" t="n">
         <v>0.51</v>
       </c>
       <c r="I55" t="n">
-        <v>282477</v>
+        <v>277849</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123732381</v>
+        <v>123425121</v>
       </c>
       <c r="E56" t="n">
-        <v>2049109567</v>
+        <v>2044021094</v>
       </c>
       <c r="F56" t="n">
-        <v>33940.97298184199</v>
+        <v>29211.70234810403</v>
       </c>
       <c r="G56" t="n">
-        <v>22136.32936456448</v>
+        <v>24585.46955508586</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>58274987</v>
+        <v>13031734</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>85562476</v>
+        <v>80373388</v>
       </c>
       <c r="E57" t="n">
-        <v>86483472</v>
+        <v>81238496</v>
       </c>
       <c r="F57" t="n">
-        <v>19130.61125924934</v>
+        <v>15640.01163532228</v>
       </c>
       <c r="G57" t="n">
-        <v>36513.10779164852</v>
+        <v>26822.704234286</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I57" t="n">
-        <v>16332550</v>
+        <v>12134582</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>251285294</v>
+        <v>232090860</v>
       </c>
       <c r="E58" t="n">
-        <v>251285294</v>
+        <v>232090860</v>
       </c>
       <c r="F58" t="n">
-        <v>50974.41721530043</v>
+        <v>77440.33234962006</v>
       </c>
       <c r="G58" t="n">
-        <v>87287.92852687542</v>
+        <v>79383.50152640218</v>
       </c>
       <c r="H58" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>37984599</v>
+        <v>37289659</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24135111</v>
+        <v>23013000</v>
       </c>
       <c r="E59" t="n">
-        <v>144405218</v>
+        <v>137691408</v>
       </c>
       <c r="F59" t="n">
-        <v>29501.40704880459</v>
+        <v>30528.82027345497</v>
       </c>
       <c r="G59" t="n">
-        <v>32583.9737110355</v>
+        <v>27593.65199813416</v>
       </c>
       <c r="H59" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I59" t="n">
-        <v>13396664</v>
+        <v>12277312</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2615880</v>
+        <v>2618033</v>
       </c>
       <c r="E60" t="n">
-        <v>4827756</v>
+        <v>4831730</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>7.34</v>
+        <v>7.48</v>
       </c>
       <c r="I60" t="n">
-        <v>320362</v>
+        <v>255214</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10461139</v>
+        <v>11013246</v>
       </c>
       <c r="E62" t="n">
-        <v>31006863</v>
+        <v>32642258</v>
       </c>
       <c r="F62" t="n">
-        <v>9525.402085324029</v>
+        <v>2640.141968391459</v>
       </c>
       <c r="G62" t="n">
-        <v>2292.464277800764</v>
+        <v>2201.506147667949</v>
       </c>
       <c r="H62" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I62" t="n">
-        <v>4290042</v>
+        <v>4559194</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14435840</v>
+        <v>14527364</v>
       </c>
       <c r="E63" t="n">
-        <v>29224476</v>
+        <v>29409761</v>
       </c>
       <c r="F63" t="n">
-        <v>7113.180124331315</v>
+        <v>6631.651394521255</v>
       </c>
       <c r="G63" t="n">
-        <v>16788.0395391598</v>
+        <v>16796.79330394857</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="I63" t="n">
-        <v>521637</v>
+        <v>567301</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>36314371</v>
+        <v>35433024</v>
       </c>
       <c r="E64" t="n">
-        <v>257462968</v>
+        <v>251214363</v>
       </c>
       <c r="F64" t="n">
-        <v>30856.79607169545</v>
+        <v>51696.34509614987</v>
       </c>
       <c r="G64" t="n">
-        <v>43585.85246703491</v>
+        <v>38522.556210151</v>
       </c>
       <c r="H64" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I64" t="n">
-        <v>2149698</v>
+        <v>2371780</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1304042</v>
+        <v>1295825</v>
       </c>
       <c r="E65" t="n">
-        <v>8082005</v>
+        <v>8029981</v>
       </c>
       <c r="F65" t="n">
-        <v>233.7583212463293</v>
+        <v>321.9268637648107</v>
       </c>
       <c r="G65" t="n">
-        <v>145.3941501160485</v>
+        <v>201.4974512159851</v>
       </c>
       <c r="H65" t="n">
-        <v>0.61</v>
+        <v>1.07</v>
       </c>
       <c r="I65" t="n">
-        <v>776202</v>
+        <v>781877</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>604383332</v>
+        <v>596642943</v>
       </c>
       <c r="E66" t="n">
-        <v>2340687476</v>
+        <v>2310710089</v>
       </c>
       <c r="F66" t="n">
-        <v>76055.81761217085</v>
+        <v>53536.59918581778</v>
       </c>
       <c r="G66" t="n">
-        <v>60132.98576345106</v>
+        <v>43982.41133002193</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>24933006</v>
+        <v>26499132</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5502475</v>
+        <v>5517860</v>
       </c>
       <c r="E67" t="n">
-        <v>24565650</v>
+        <v>24599817</v>
       </c>
       <c r="F67" t="n">
-        <v>4021.151584438621</v>
+        <v>3891.862303656265</v>
       </c>
       <c r="G67" t="n">
-        <v>18970.86510572774</v>
+        <v>19279.82657993673</v>
       </c>
       <c r="H67" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I67" t="n">
-        <v>147672</v>
+        <v>141968</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>112426934</v>
+        <v>108253316</v>
       </c>
       <c r="E68" t="n">
-        <v>1063756972</v>
+        <v>1024267189</v>
       </c>
       <c r="F68" t="n">
-        <v>7374.684775189988</v>
+        <v>6154.325172722012</v>
       </c>
       <c r="G68" t="n">
-        <v>5312.270277448843</v>
+        <v>5035.462479888808</v>
       </c>
       <c r="H68" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I68" t="n">
-        <v>9042565</v>
+        <v>8933363</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>105832173</v>
+        <v>99624582</v>
       </c>
       <c r="E69" t="n">
-        <v>161449460</v>
+        <v>151979636</v>
       </c>
       <c r="F69" t="n">
-        <v>4295.689287670149</v>
+        <v>3562.511197142235</v>
       </c>
       <c r="G69" t="n">
-        <v>18665.34205775386</v>
+        <v>13118.0010686803</v>
       </c>
       <c r="H69" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I69" t="n">
-        <v>3655630</v>
+        <v>3034129</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1161449</v>
+        <v>1153214</v>
       </c>
       <c r="E70" t="n">
-        <v>4497386</v>
+        <v>4465496</v>
       </c>
       <c r="F70" t="n">
-        <v>3146.638898597741</v>
+        <v>2395.255543719152</v>
       </c>
       <c r="G70" t="n">
-        <v>2797.836155483808</v>
+        <v>2484.724617039853</v>
       </c>
       <c r="H70" t="n">
-        <v>0.41</v>
+        <v>0.8</v>
       </c>
       <c r="I70" t="n">
-        <v>329691</v>
+        <v>415957</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>127878273</v>
+        <v>125768732</v>
       </c>
       <c r="E71" t="n">
-        <v>490561639</v>
+        <v>482469099</v>
       </c>
       <c r="F71" t="n">
-        <v>15930.64752529891</v>
+        <v>17792.76138743262</v>
       </c>
       <c r="G71" t="n">
-        <v>15087.43726741347</v>
+        <v>10536.40114423275</v>
       </c>
       <c r="H71" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I71" t="n">
-        <v>19072652</v>
+        <v>16571544</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3661250</v>
+        <v>3753591</v>
       </c>
       <c r="E72" t="n">
-        <v>34690888</v>
+        <v>35565831</v>
       </c>
       <c r="F72" t="n">
-        <v>492.1663082935888</v>
+        <v>339.1555178790695</v>
       </c>
       <c r="G72" t="n">
-        <v>641.1247894357973</v>
+        <v>675.9519888821681</v>
       </c>
       <c r="H72" t="n">
-        <v>0.52</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I72" t="n">
-        <v>503841</v>
+        <v>221177</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>37900729</v>
+        <v>37954941</v>
       </c>
       <c r="F73" t="n">
-        <v>3006.221995359266</v>
+        <v>4529.041590455074</v>
       </c>
       <c r="G73" t="n">
-        <v>1960.520073134493</v>
+        <v>1594.631362717426</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I73" t="n">
-        <v>12346754</v>
+        <v>5235563</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>101992737</v>
+        <v>101914236</v>
       </c>
       <c r="E74" t="n">
-        <v>375653697</v>
+        <v>375352689</v>
       </c>
       <c r="F74" t="n">
-        <v>443.8927230718808</v>
+        <v>241.7724639516936</v>
       </c>
       <c r="G74" t="n">
-        <v>68.13986947476641</v>
+        <v>251.586989872713</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I74" t="n">
-        <v>936458</v>
+        <v>374064</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23370896</v>
+        <v>22920142</v>
       </c>
       <c r="E75" t="n">
-        <v>23370896</v>
+        <v>22920142</v>
       </c>
       <c r="F75" t="n">
-        <v>3345.636723353031</v>
+        <v>3498.434139541751</v>
       </c>
       <c r="G75" t="n">
-        <v>3218.125935199144</v>
+        <v>4215.719578020246</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="I75" t="n">
-        <v>2992455</v>
+        <v>2640659</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>478436160</v>
+        <v>463539996</v>
       </c>
       <c r="E76" t="n">
-        <v>1663709184</v>
+        <v>1611909409</v>
       </c>
       <c r="F76" t="n">
-        <v>86331.72506256908</v>
+        <v>88463.73998532401</v>
       </c>
       <c r="G76" t="n">
-        <v>97892.2009173282</v>
+        <v>89056.27634426598</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>24614515</v>
+        <v>24634752</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5875056572</v>
+        <v>5859114434</v>
       </c>
       <c r="E77" t="n">
-        <v>5875056572</v>
+        <v>5859305591</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>6.02</v>
+        <v>12</v>
       </c>
       <c r="I77" t="n">
-        <v>19459159</v>
+        <v>8922938</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7614965</v>
+        <v>7338576</v>
       </c>
       <c r="E78" t="n">
-        <v>19782861</v>
+        <v>19064830</v>
       </c>
       <c r="F78" t="n">
-        <v>215.575287205094</v>
+        <v>5407.52714086309</v>
       </c>
       <c r="G78" t="n">
-        <v>112.2076252325511</v>
+        <v>2384.192985610059</v>
       </c>
       <c r="H78" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="I78" t="n">
-        <v>629139</v>
+        <v>529838</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>110532377</v>
+        <v>109221212</v>
       </c>
       <c r="E79" t="n">
-        <v>167469321</v>
+        <v>165482755</v>
       </c>
       <c r="F79" t="n">
-        <v>41870.34577540703</v>
+        <v>38012.56360118342</v>
       </c>
       <c r="G79" t="n">
-        <v>40679.40202722119</v>
+        <v>38611.92015274896</v>
       </c>
       <c r="H79" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I79" t="n">
-        <v>6778654</v>
+        <v>5581690</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2236651</v>
+        <v>2234667</v>
       </c>
       <c r="E80" t="n">
-        <v>8946603</v>
+        <v>8938669</v>
       </c>
       <c r="F80" t="n">
-        <v>2377.220080987172</v>
+        <v>1807.812010537056</v>
       </c>
       <c r="G80" t="n">
-        <v>2372.768099577082</v>
+        <v>2206.968890271087</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="I80" t="n">
-        <v>6053282</v>
+        <v>5221060</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2528546</v>
+        <v>2515322</v>
       </c>
       <c r="F81" t="n">
-        <v>1518.784840561586</v>
+        <v>2536.374994785012</v>
       </c>
       <c r="G81" t="n">
-        <v>705.7001180814506</v>
+        <v>2653.874705028013</v>
       </c>
       <c r="H81" t="n">
-        <v>0.95</v>
+        <v>0.63</v>
       </c>
       <c r="I81" t="n">
-        <v>301173</v>
+        <v>262105</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>396908511</v>
+        <v>389116453</v>
       </c>
       <c r="E82" t="n">
-        <v>2268048634</v>
+        <v>2223522586</v>
       </c>
       <c r="F82" t="n">
-        <v>38267.02354544433</v>
+        <v>46175.77064532709</v>
       </c>
       <c r="G82" t="n">
-        <v>50569.3200412005</v>
+        <v>39802.15825973423</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>41415854</v>
+        <v>34497944</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4006751</v>
+        <v>3964863</v>
       </c>
       <c r="F2" t="n">
-        <v>225.6275948719481</v>
+        <v>144.799202026098</v>
       </c>
       <c r="G2" t="n">
-        <v>859.64995439043</v>
+        <v>1829.520345038711</v>
       </c>
       <c r="H2" t="n">
-        <v>0.96</v>
+        <v>1.29</v>
       </c>
       <c r="I2" t="n">
-        <v>193306</v>
+        <v>78335</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1444627</v>
+        <v>1397378</v>
       </c>
       <c r="E3" t="n">
-        <v>4669627</v>
+        <v>4516898</v>
       </c>
       <c r="F3" t="n">
-        <v>5255.92433221826</v>
+        <v>4409.473029010604</v>
       </c>
       <c r="G3" t="n">
-        <v>1332.161879877656</v>
+        <v>2052.987961884825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>143169</v>
+        <v>141646</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>250450367</v>
+        <v>247322285</v>
       </c>
       <c r="E4" t="n">
-        <v>1570539048</v>
+        <v>1550923283</v>
       </c>
       <c r="F4" t="n">
-        <v>4133.347773958277</v>
+        <v>9822.263962718054</v>
       </c>
       <c r="G4" t="n">
-        <v>29039.55076828779</v>
+        <v>22707.133917021</v>
       </c>
       <c r="H4" t="n">
         <v>0.28</v>
       </c>
       <c r="I4" t="n">
-        <v>16405345</v>
+        <v>13431763</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142690521</v>
+        <v>140285380</v>
       </c>
       <c r="E5" t="n">
-        <v>158123396</v>
+        <v>155458124</v>
       </c>
       <c r="F5" t="n">
-        <v>33559.06528483723</v>
+        <v>34118.65347162528</v>
       </c>
       <c r="G5" t="n">
-        <v>35462.72621956181</v>
+        <v>18672.08180191458</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>30271178</v>
+        <v>30250545</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>118718691</v>
+        <v>116502811</v>
       </c>
       <c r="E6" t="n">
-        <v>465341721</v>
+        <v>456656136</v>
       </c>
       <c r="F6" t="n">
-        <v>18162.32617346073</v>
+        <v>16430.26459469866</v>
       </c>
       <c r="G6" t="n">
-        <v>7232.963654607503</v>
+        <v>7410.194292335466</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>19925626</v>
+        <v>17854829</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4148999</v>
+        <v>3966093</v>
       </c>
       <c r="E7" t="n">
-        <v>25457235</v>
+        <v>24334952</v>
       </c>
       <c r="F7" t="n">
-        <v>1683.170228973117</v>
+        <v>69.31136506274431</v>
       </c>
       <c r="G7" t="n">
-        <v>1690.197434300275</v>
+        <v>508.2164192615164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>401117</v>
+        <v>422013</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>185082</v>
+        <v>184440</v>
       </c>
       <c r="E8" t="n">
-        <v>2036106</v>
+        <v>2029047</v>
       </c>
       <c r="F8" t="n">
-        <v>2137.73959822331</v>
+        <v>2293.604189256264</v>
       </c>
       <c r="G8" t="n">
-        <v>6641.315443254272</v>
+        <v>2204.13354355916</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I8" t="n">
-        <v>49726</v>
+        <v>55667</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70750944</v>
+        <v>71291737</v>
       </c>
       <c r="E9" t="n">
-        <v>122356860</v>
+        <v>123261215</v>
       </c>
       <c r="F9" t="n">
-        <v>1039.751399193729</v>
+        <v>1006.041993697042</v>
       </c>
       <c r="G9" t="n">
-        <v>1357.42365778133</v>
+        <v>1292.217017510548</v>
       </c>
       <c r="H9" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="I9" t="n">
-        <v>342814</v>
+        <v>387344</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Metaverse, Solana Ecosystem, Play To Earn, Arbitrum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, DWF Labs Portfolio, Gaming Governance Token, Gaming Utility Token, Adventure Games</t>
+          <t>Gaming (GameFi), NFT, Metaverse, Solana Ecosystem, Play To Earn, Arbitrum Ecosystem, Animoca Brands Portfolio, DWF Labs Portfolio, Gaming Governance Token, Gaming Utility Token, Adventure Games</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8792630</v>
+        <v>8924141</v>
       </c>
       <c r="E10" t="n">
-        <v>12445314</v>
+        <v>12631458</v>
       </c>
       <c r="F10" t="n">
-        <v>3141.267251541617</v>
+        <v>3256.48854223032</v>
       </c>
       <c r="G10" t="n">
-        <v>2989.190006381489</v>
+        <v>3344.18907226287</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>7792.96</v>
+        <v>3986.74</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>464306613</v>
+        <v>474713570</v>
       </c>
       <c r="E11" t="n">
-        <v>464306613</v>
+        <v>474713572</v>
       </c>
       <c r="F11" t="n">
-        <v>14134.72402370059</v>
+        <v>16937.40335536026</v>
       </c>
       <c r="G11" t="n">
-        <v>46502.06389067544</v>
+        <v>41043.56896938304</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>30710403</v>
+        <v>30467717</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>316398</v>
+        <v>294036</v>
       </c>
       <c r="E12" t="n">
-        <v>1476979</v>
+        <v>1372589</v>
       </c>
       <c r="F12" t="n">
-        <v>28.60372666006867</v>
+        <v>26.14963611807459</v>
       </c>
       <c r="G12" t="n">
-        <v>5.927290386961062</v>
+        <v>135.882174882691</v>
       </c>
       <c r="H12" t="n">
-        <v>2.55</v>
+        <v>1.49</v>
       </c>
       <c r="I12" t="n">
-        <v>787566</v>
+        <v>763574</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1696331</v>
+        <v>1669616</v>
       </c>
       <c r="F13" t="n">
-        <v>1170.103881974462</v>
+        <v>1126.049537813615</v>
       </c>
       <c r="G13" t="n">
-        <v>3872.726651984836</v>
+        <v>3379.13088105153</v>
       </c>
       <c r="H13" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>517749</v>
+        <v>474236</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12229249</v>
+        <v>12242403</v>
       </c>
       <c r="E14" t="n">
-        <v>30436388</v>
+        <v>30469127</v>
       </c>
       <c r="F14" t="n">
-        <v>1582.003846726893</v>
+        <v>1091.795893235305</v>
       </c>
       <c r="G14" t="n">
-        <v>1489.791402405134</v>
+        <v>1523.614143487522</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1390287</v>
+        <v>1419660</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>113073321</v>
+        <v>109324109</v>
       </c>
       <c r="E15" t="n">
-        <v>438447604</v>
+        <v>423655953</v>
       </c>
       <c r="F15" t="n">
-        <v>9045.776965742609</v>
+        <v>7628.074859690585</v>
       </c>
       <c r="G15" t="n">
-        <v>5039.048519596367</v>
+        <v>6309.432769410171</v>
       </c>
       <c r="H15" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="I15" t="n">
-        <v>5754402</v>
+        <v>7590814</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4813997</v>
+        <v>4698525</v>
       </c>
       <c r="E16" t="n">
-        <v>7086464</v>
+        <v>6916484</v>
       </c>
       <c r="F16" t="n">
-        <v>3762.39194193967</v>
+        <v>3849.190222341447</v>
       </c>
       <c r="G16" t="n">
-        <v>4013.014514940432</v>
+        <v>3845.221141126988</v>
       </c>
       <c r="H16" t="n">
         <v>0.57</v>
       </c>
       <c r="I16" t="n">
-        <v>806026</v>
+        <v>723509</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>561407</v>
+        <v>505347</v>
       </c>
       <c r="E17" t="n">
-        <v>2322331</v>
+        <v>2093712</v>
       </c>
       <c r="F17" t="n">
-        <v>1571.954436790235</v>
+        <v>546.3525727076686</v>
       </c>
       <c r="G17" t="n">
-        <v>3921.750337488532</v>
+        <v>324.3077127802709</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I17" t="n">
-        <v>506852</v>
+        <v>530254</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>143160373</v>
+        <v>142030387</v>
       </c>
       <c r="E18" t="n">
-        <v>143160373</v>
+        <v>142030387</v>
       </c>
       <c r="F18" t="n">
-        <v>65542.6631265293</v>
+        <v>63971.24187478915</v>
       </c>
       <c r="G18" t="n">
-        <v>108114.7207528192</v>
+        <v>120547.6736164969</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>77046474</v>
+        <v>63984514</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70068922</v>
+        <v>68825640</v>
       </c>
       <c r="E19" t="n">
-        <v>359327807</v>
+        <v>352952002</v>
       </c>
       <c r="F19" t="n">
-        <v>3638.539407400514</v>
+        <v>6461.460752004212</v>
       </c>
       <c r="G19" t="n">
-        <v>6391.202148286629</v>
+        <v>6582.315639731259</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>51740894</v>
+        <v>27775165</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251104483</v>
+        <v>244069883</v>
       </c>
       <c r="E20" t="n">
-        <v>251104483</v>
+        <v>244069883</v>
       </c>
       <c r="F20" t="n">
-        <v>46770.74614312555</v>
+        <v>67291.86771825515</v>
       </c>
       <c r="G20" t="n">
-        <v>58798.17211587663</v>
+        <v>52170.85104855783</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>11624953</v>
+        <v>11369642</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>171626044</v>
+        <v>170100485</v>
       </c>
       <c r="E21" t="n">
-        <v>225839802</v>
+        <v>223832345</v>
       </c>
       <c r="F21" t="n">
-        <v>13370.56787982114</v>
+        <v>13820.13607914692</v>
       </c>
       <c r="G21" t="n">
-        <v>17457.43440689817</v>
+        <v>18230.01454598064</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>3475459</v>
+        <v>3120324</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75289871</v>
+        <v>75026702</v>
       </c>
       <c r="E22" t="n">
-        <v>210778664</v>
+        <v>210045386</v>
       </c>
       <c r="F22" t="n">
-        <v>23249.24209291345</v>
+        <v>25056.6895910608</v>
       </c>
       <c r="G22" t="n">
-        <v>19454.11566771413</v>
+        <v>19449.20449853377</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I22" t="n">
-        <v>25590316</v>
+        <v>22931031</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83046583</v>
+        <v>84389165</v>
       </c>
       <c r="E23" t="n">
-        <v>173145455</v>
+        <v>175944630</v>
       </c>
       <c r="F23" t="n">
-        <v>8433.910175202858</v>
+        <v>14519.41238353949</v>
       </c>
       <c r="G23" t="n">
-        <v>28525.8002106633</v>
+        <v>24143.89013751521</v>
       </c>
       <c r="H23" t="n">
         <v>0.11</v>
       </c>
       <c r="I23" t="n">
-        <v>23276165</v>
+        <v>16542773</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>659437342</v>
+        <v>646059723</v>
       </c>
       <c r="E24" t="n">
-        <v>659437342</v>
+        <v>646059723</v>
       </c>
       <c r="F24" t="n">
-        <v>117091.4658638741</v>
+        <v>102391.4216000152</v>
       </c>
       <c r="G24" t="n">
-        <v>111426.1826911046</v>
+        <v>138578.8392728708</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>291876287</v>
+        <v>227585925</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>194967677</v>
+        <v>194997849</v>
       </c>
       <c r="E25" t="n">
-        <v>677335332</v>
+        <v>677440152</v>
       </c>
       <c r="F25" t="n">
-        <v>66838.25456816776</v>
+        <v>63911.86855602702</v>
       </c>
       <c r="G25" t="n">
-        <v>104623.0823001842</v>
+        <v>105666.4572705945</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>27826834</v>
+        <v>24442834</v>
       </c>
     </row>
     <row r="26">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SocialFi, NFT, BNB Chain Ecosystem, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, NFTFi, Blast Ecosystem</t>
+          <t>SocialFi, NFT, BNB Chain Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, NFTFi, Blast Ecosystem</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5444917</v>
+        <v>5448690</v>
       </c>
       <c r="E26" t="n">
-        <v>7384510</v>
+        <v>7388388</v>
       </c>
       <c r="F26" t="n">
-        <v>736.7722062602172</v>
+        <v>1405.551793454861</v>
       </c>
       <c r="G26" t="n">
-        <v>165.8793522592764</v>
+        <v>495.4623532706521</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>4845169</v>
+        <v>4598749</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14466749</v>
+        <v>14176932</v>
       </c>
       <c r="F27" t="n">
-        <v>2516.64736430311</v>
+        <v>2393.896719678109</v>
       </c>
       <c r="G27" t="n">
-        <v>2394.523682214002</v>
+        <v>1932.904419137131</v>
       </c>
       <c r="H27" t="n">
-        <v>0.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>202999</v>
+        <v>143695</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25971255</v>
+        <v>26204336</v>
       </c>
       <c r="E28" t="n">
-        <v>36686851</v>
+        <v>37016099</v>
       </c>
       <c r="F28" t="n">
-        <v>72.08578164357749</v>
+        <v>340.953966404133</v>
       </c>
       <c r="G28" t="n">
-        <v>420.1735841693562</v>
+        <v>446.472180315857</v>
       </c>
       <c r="H28" t="n">
-        <v>0.65</v>
+        <v>0.32</v>
       </c>
       <c r="I28" t="n">
-        <v>54296</v>
+        <v>63318</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>266626282</v>
+        <v>261416708</v>
       </c>
       <c r="E29" t="n">
-        <v>1150907049</v>
+        <v>1128419634</v>
       </c>
       <c r="F29" t="n">
-        <v>133458.2302227599</v>
+        <v>141417.4768442585</v>
       </c>
       <c r="G29" t="n">
-        <v>139129.0035014165</v>
+        <v>133647.1139938095</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>67300111</v>
+        <v>70623879</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10601050</v>
+        <v>10512362</v>
       </c>
       <c r="E30" t="n">
-        <v>127156161</v>
+        <v>126051193</v>
       </c>
       <c r="F30" t="n">
-        <v>6783.836974200763</v>
+        <v>422.090374353994</v>
       </c>
       <c r="G30" t="n">
-        <v>1297.034861175788</v>
+        <v>1180.896766476016</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="I30" t="n">
-        <v>177161</v>
+        <v>154026</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14360513</v>
+        <v>14601954</v>
       </c>
       <c r="E31" t="n">
-        <v>35901284</v>
+        <v>36504885</v>
       </c>
       <c r="F31" t="n">
-        <v>5732.469270588987</v>
+        <v>4441.177249568671</v>
       </c>
       <c r="G31" t="n">
-        <v>4067.653867367605</v>
+        <v>5249.518638095821</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="I31" t="n">
-        <v>2293820</v>
+        <v>2626440</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18395018</v>
+        <v>18142672</v>
       </c>
       <c r="F32" t="n">
-        <v>845.8945812467335</v>
+        <v>1526.08607652437</v>
       </c>
       <c r="G32" t="n">
-        <v>1515.868338643123</v>
+        <v>5172.442199025477</v>
       </c>
       <c r="H32" t="n">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="I32" t="n">
-        <v>16993.69</v>
+        <v>21584</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1708448</v>
+        <v>1726547</v>
       </c>
       <c r="E33" t="n">
-        <v>6367869</v>
+        <v>6434728</v>
       </c>
       <c r="F33" t="n">
-        <v>4045.398985389068</v>
+        <v>4554.291994563035</v>
       </c>
       <c r="G33" t="n">
-        <v>2119.813221349079</v>
+        <v>3067.489846291276</v>
       </c>
       <c r="H33" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="I33" t="n">
-        <v>666526</v>
+        <v>703505</v>
       </c>
     </row>
     <row r="34">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Arbitrum Ecosystem, Ethereum Ecosystem, NFT Marketplace, Base Ecosystem, Gaming Governance Token, Gaming Utility Token, Gaming Platform, AI Agents, Virtuals Protocol Ecosystem, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Arbitrum Ecosystem, Ethereum Ecosystem, Base Ecosystem, Gaming Governance Token, Gaming Utility Token, Gaming Platform, AI Agents, Virtuals Protocol Ecosystem, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4021936</v>
+        <v>3959297</v>
       </c>
       <c r="E34" t="n">
-        <v>11582420</v>
+        <v>11402011</v>
       </c>
       <c r="F34" t="n">
-        <v>691.1968440114687</v>
+        <v>4187.643159045139</v>
       </c>
       <c r="G34" t="n">
-        <v>4817.68890254914</v>
+        <v>4204.99018255406</v>
       </c>
       <c r="H34" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="I34" t="n">
-        <v>454066</v>
+        <v>399072</v>
       </c>
     </row>
     <row r="35">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio, Action Games</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio, Action Games</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14459914</v>
+        <v>14259543</v>
       </c>
       <c r="E35" t="n">
-        <v>70031672</v>
+        <v>69061244</v>
       </c>
       <c r="F35" t="n">
-        <v>2885.935359066878</v>
+        <v>1712.252065442104</v>
       </c>
       <c r="G35" t="n">
-        <v>5638.027097938716</v>
+        <v>4330.411092704498</v>
       </c>
       <c r="H35" t="n">
         <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>3087249</v>
+        <v>2768874</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1440675</v>
+        <v>1407936</v>
       </c>
       <c r="E36" t="n">
-        <v>9429176</v>
+        <v>9214903</v>
       </c>
       <c r="F36" t="n">
-        <v>576.5686158329723</v>
+        <v>4276.193909951149</v>
       </c>
       <c r="G36" t="n">
-        <v>4186.449519712596</v>
+        <v>3677.955693624545</v>
       </c>
       <c r="H36" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>1196098</v>
+        <v>989559</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1891339728</v>
+        <v>1888207738</v>
       </c>
       <c r="F37" t="n">
-        <v>502.261528138452</v>
+        <v>67.79952620765769</v>
       </c>
       <c r="G37" t="n">
-        <v>59.62510438763649</v>
+        <v>510.7881833388917</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="I37" t="n">
-        <v>26757211</v>
+        <v>26158565</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1866545</v>
+        <v>1833017</v>
       </c>
       <c r="E38" t="n">
-        <v>13384806</v>
+        <v>13144380</v>
       </c>
       <c r="F38" t="n">
-        <v>6668.964364810651</v>
+        <v>3791.861376019738</v>
       </c>
       <c r="G38" t="n">
-        <v>6826.79346286529</v>
+        <v>6664.407063960767</v>
       </c>
       <c r="H38" t="n">
-        <v>0.29</v>
+        <v>0.66</v>
       </c>
       <c r="I38" t="n">
-        <v>1511672</v>
+        <v>1498404</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194304235</v>
+        <v>192625132</v>
       </c>
       <c r="E39" t="n">
-        <v>1100269968</v>
+        <v>1090761857</v>
       </c>
       <c r="F39" t="n">
-        <v>58190.22643380638</v>
+        <v>48501.09287779158</v>
       </c>
       <c r="G39" t="n">
-        <v>74534.82355173682</v>
+        <v>72461.17745640638</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>33077091</v>
+        <v>34811018</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>127490026</v>
+        <v>127588541</v>
       </c>
       <c r="E40" t="n">
-        <v>944370562</v>
+        <v>945100307</v>
       </c>
       <c r="F40" t="n">
-        <v>10226.84281725592</v>
+        <v>3230.257688126871</v>
       </c>
       <c r="G40" t="n">
-        <v>16321.95956448789</v>
+        <v>16895.9943481495</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I40" t="n">
-        <v>3878589</v>
+        <v>4961107</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>326492944</v>
+        <v>320779046</v>
       </c>
       <c r="E41" t="n">
-        <v>2937332979</v>
+        <v>2885927202</v>
       </c>
       <c r="F41" t="n">
-        <v>69400.06616343869</v>
+        <v>72312.98107696837</v>
       </c>
       <c r="G41" t="n">
-        <v>95147.106304449</v>
+        <v>94779.47583322045</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>26325542</v>
+        <v>28047230</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1561181</v>
+        <v>1569002</v>
       </c>
       <c r="E42" t="n">
-        <v>13009840</v>
+        <v>13075018</v>
       </c>
       <c r="F42" t="n">
-        <v>3040.307795509048</v>
+        <v>3770.034946072305</v>
       </c>
       <c r="G42" t="n">
-        <v>3932.477520260712</v>
+        <v>3577.972397594502</v>
       </c>
       <c r="H42" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="I42" t="n">
-        <v>32572</v>
+        <v>31181</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>18848531</v>
+        <v>19410609</v>
       </c>
       <c r="E43" t="n">
-        <v>55453707</v>
+        <v>57108904</v>
       </c>
       <c r="F43" t="n">
-        <v>6858.271588403591</v>
+        <v>4592.0283653459</v>
       </c>
       <c r="G43" t="n">
-        <v>19066.60364207719</v>
+        <v>19467.26318279167</v>
       </c>
       <c r="H43" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="I43" t="n">
-        <v>2230440</v>
+        <v>2254282</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7814146</v>
+        <v>7539349</v>
       </c>
       <c r="F44" t="n">
-        <v>1622.711209315479</v>
+        <v>2266.422744962349</v>
       </c>
       <c r="G44" t="n">
-        <v>1369.822696328843</v>
+        <v>2671.36453818254</v>
       </c>
       <c r="H44" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I44" t="n">
-        <v>154500</v>
+        <v>108048</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13075893</v>
+        <v>13224712</v>
       </c>
       <c r="E45" t="n">
-        <v>13075893</v>
+        <v>13224712</v>
       </c>
       <c r="F45" t="n">
-        <v>764.554617309837</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>66.94828811391343</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.84</v>
+        <v>4.17</v>
       </c>
       <c r="I45" t="n">
-        <v>2161578</v>
+        <v>1924179</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>297620934</v>
+        <v>302128090</v>
       </c>
       <c r="E46" t="n">
-        <v>297620934</v>
+        <v>302128090</v>
       </c>
       <c r="F46" t="n">
-        <v>16144.22218020297</v>
+        <v>9397.084550382029</v>
       </c>
       <c r="G46" t="n">
-        <v>17602.83755913438</v>
+        <v>21243.08981388465</v>
       </c>
       <c r="H46" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>11959967</v>
+        <v>11004706</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12338860</v>
+        <v>11683778</v>
       </c>
       <c r="E47" t="n">
-        <v>39019846</v>
+        <v>36947326</v>
       </c>
       <c r="F47" t="n">
-        <v>7115.191088892438</v>
+        <v>6321.619323175904</v>
       </c>
       <c r="G47" t="n">
-        <v>3384.841457943474</v>
+        <v>6941.613588965721</v>
       </c>
       <c r="H47" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="I47" t="n">
-        <v>934750</v>
+        <v>1386675</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32695314</v>
+        <v>32359589</v>
       </c>
       <c r="E48" t="n">
-        <v>90562774</v>
+        <v>89632851</v>
       </c>
       <c r="F48" t="n">
-        <v>2881.63444226694</v>
+        <v>1982.519244565712</v>
       </c>
       <c r="G48" t="n">
-        <v>2045.878144723961</v>
+        <v>4878.712537122502</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="I48" t="n">
-        <v>11364614</v>
+        <v>11724488</v>
       </c>
     </row>
     <row r="49">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Gaming (GameFi), NFT, Arbitrum Ecosystem, NFT Marketplace, Paradigm Portfolio, AI Agents, AI Framework, Action Games</t>
+          <t>Artificial Intelligence (AI), Gaming (GameFi), NFT, Arbitrum Ecosystem, Paradigm Portfolio, AI Agents, AI Framework, Action Games</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27926029</v>
+        <v>28226127</v>
       </c>
       <c r="E49" t="n">
-        <v>66245719</v>
+        <v>66957607</v>
       </c>
       <c r="F49" t="n">
-        <v>6542.495207513179</v>
+        <v>17320.1767388257</v>
       </c>
       <c r="G49" t="n">
-        <v>16755.64669835113</v>
+        <v>16212.43613509163</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I49" t="n">
-        <v>312995</v>
+        <v>219747</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11962708</v>
+        <v>11886635</v>
       </c>
       <c r="E50" t="n">
-        <v>18166136</v>
+        <v>18028967</v>
       </c>
       <c r="F50" t="n">
-        <v>5436.895099083949</v>
+        <v>5096.411851542553</v>
       </c>
       <c r="G50" t="n">
-        <v>4379.408298321652</v>
+        <v>4049.871300176786</v>
       </c>
       <c r="H50" t="n">
-        <v>0.15</v>
+        <v>0.49</v>
       </c>
       <c r="I50" t="n">
-        <v>742482</v>
+        <v>735769</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>299106489</v>
+        <v>306033221</v>
       </c>
       <c r="E51" t="n">
-        <v>299106489</v>
+        <v>306033221</v>
       </c>
       <c r="F51" t="n">
-        <v>34004.21788906095</v>
+        <v>24164.44124636799</v>
       </c>
       <c r="G51" t="n">
-        <v>71827.88000239297</v>
+        <v>50252.81259969351</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>73796710</v>
+        <v>47017195</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88805430</v>
+        <v>86041889</v>
       </c>
       <c r="E52" t="n">
-        <v>511735191</v>
+        <v>495810479</v>
       </c>
       <c r="F52" t="n">
-        <v>54035.25420748813</v>
+        <v>49180.11488977019</v>
       </c>
       <c r="G52" t="n">
-        <v>69115.23772289816</v>
+        <v>67260.96643546227</v>
       </c>
       <c r="H52" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I52" t="n">
-        <v>16949789</v>
+        <v>16283144</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30865577</v>
+        <v>30479701</v>
       </c>
       <c r="E53" t="n">
-        <v>138197849</v>
+        <v>136470125</v>
       </c>
       <c r="F53" t="n">
-        <v>12032.76166920893</v>
+        <v>9822.964991826537</v>
       </c>
       <c r="G53" t="n">
-        <v>13586.88301859826</v>
+        <v>10154.97570695941</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>25165967</v>
+        <v>14023027</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7804999</v>
+        <v>7759170</v>
       </c>
       <c r="F54" t="n">
-        <v>3755.612978104363</v>
+        <v>2330.757542144133</v>
       </c>
       <c r="G54" t="n">
-        <v>4504.301814740767</v>
+        <v>4509.243319031441</v>
       </c>
       <c r="H54" t="n">
         <v>0.76</v>
       </c>
       <c r="I54" t="n">
-        <v>384080</v>
+        <v>322668</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4674907</v>
+        <v>4654434</v>
       </c>
       <c r="F55" t="n">
-        <v>25.98582408879142</v>
+        <v>3939.593652527059</v>
       </c>
       <c r="G55" t="n">
-        <v>59.13861746471278</v>
+        <v>1895.104028406386</v>
       </c>
       <c r="H55" t="n">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="I55" t="n">
-        <v>277849</v>
+        <v>237316</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123425121</v>
+        <v>123659921</v>
       </c>
       <c r="E56" t="n">
-        <v>2044021094</v>
+        <v>2047909570</v>
       </c>
       <c r="F56" t="n">
-        <v>29211.70234810403</v>
+        <v>25276.69248405749</v>
       </c>
       <c r="G56" t="n">
-        <v>24585.46955508586</v>
+        <v>25908.13785757248</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>13031734</v>
+        <v>10700935</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>80373388</v>
+        <v>81350990</v>
       </c>
       <c r="E57" t="n">
-        <v>81238496</v>
+        <v>82226621</v>
       </c>
       <c r="F57" t="n">
-        <v>15640.01163532228</v>
+        <v>18201.86664631478</v>
       </c>
       <c r="G57" t="n">
-        <v>26822.704234286</v>
+        <v>22198.9102152324</v>
       </c>
       <c r="H57" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>12134582</v>
+        <v>10092881</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>232090860</v>
+        <v>230647867</v>
       </c>
       <c r="E58" t="n">
-        <v>232090860</v>
+        <v>230647867</v>
       </c>
       <c r="F58" t="n">
-        <v>77440.33234962006</v>
+        <v>71631.17104462927</v>
       </c>
       <c r="G58" t="n">
-        <v>79383.50152640218</v>
+        <v>89212.64954135938</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>37289659</v>
+        <v>40347695</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23013000</v>
+        <v>22637331</v>
       </c>
       <c r="E59" t="n">
-        <v>137691408</v>
+        <v>135443702</v>
       </c>
       <c r="F59" t="n">
-        <v>30528.82027345497</v>
+        <v>20830.73895469854</v>
       </c>
       <c r="G59" t="n">
-        <v>27593.65199813416</v>
+        <v>26925.96601854371</v>
       </c>
       <c r="H59" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>12277312</v>
+        <v>11600090</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2618033</v>
+        <v>2353827</v>
       </c>
       <c r="E60" t="n">
-        <v>4831730</v>
+        <v>4344123</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>7.48</v>
+        <v>14.55</v>
       </c>
       <c r="I60" t="n">
-        <v>255214</v>
+        <v>239253</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11013246</v>
+        <v>11009606</v>
       </c>
       <c r="E62" t="n">
-        <v>32642258</v>
+        <v>32626456</v>
       </c>
       <c r="F62" t="n">
-        <v>2640.141968391459</v>
+        <v>4659.158990892462</v>
       </c>
       <c r="G62" t="n">
-        <v>2201.506147667949</v>
+        <v>3606.935498970571</v>
       </c>
       <c r="H62" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>4559194</v>
+        <v>4520845</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14527364</v>
+        <v>14607434</v>
       </c>
       <c r="E63" t="n">
-        <v>29409761</v>
+        <v>29571859</v>
       </c>
       <c r="F63" t="n">
-        <v>6631.651394521255</v>
+        <v>7295.845505136817</v>
       </c>
       <c r="G63" t="n">
-        <v>16796.79330394857</v>
+        <v>9671.044457596052</v>
       </c>
       <c r="H63" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="I63" t="n">
-        <v>567301</v>
+        <v>565808</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35433024</v>
+        <v>35513664</v>
       </c>
       <c r="E64" t="n">
-        <v>251214363</v>
+        <v>251786087</v>
       </c>
       <c r="F64" t="n">
-        <v>51696.34509614987</v>
+        <v>50586.72941265195</v>
       </c>
       <c r="G64" t="n">
-        <v>38522.556210151</v>
+        <v>47001.80904959977</v>
       </c>
       <c r="H64" t="n">
         <v>0.12</v>
       </c>
       <c r="I64" t="n">
-        <v>2371780</v>
+        <v>2400178</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1295825</v>
+        <v>1288527</v>
       </c>
       <c r="E65" t="n">
-        <v>8029981</v>
+        <v>7979232</v>
       </c>
       <c r="F65" t="n">
-        <v>321.9268637648107</v>
+        <v>406.7019011565555</v>
       </c>
       <c r="G65" t="n">
-        <v>201.4974512159851</v>
+        <v>264.5194481127093</v>
       </c>
       <c r="H65" t="n">
-        <v>1.07</v>
+        <v>0.77</v>
       </c>
       <c r="I65" t="n">
-        <v>781877</v>
+        <v>768264</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>596642943</v>
+        <v>585388464</v>
       </c>
       <c r="E66" t="n">
-        <v>2310710089</v>
+        <v>2267123153</v>
       </c>
       <c r="F66" t="n">
-        <v>53536.59918581778</v>
+        <v>36680.83301633447</v>
       </c>
       <c r="G66" t="n">
-        <v>43982.41133002193</v>
+        <v>53848.71513551997</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>26499132</v>
+        <v>26301190</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5517860</v>
+        <v>5482576</v>
       </c>
       <c r="E67" t="n">
-        <v>24599817</v>
+        <v>24441426</v>
       </c>
       <c r="F67" t="n">
-        <v>3891.862303656265</v>
+        <v>3631.427825375055</v>
       </c>
       <c r="G67" t="n">
-        <v>19279.82657993673</v>
+        <v>15499.1379575926</v>
       </c>
       <c r="H67" t="n">
         <v>0.33</v>
       </c>
       <c r="I67" t="n">
-        <v>141968</v>
+        <v>148343</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>108253316</v>
+        <v>106314901</v>
       </c>
       <c r="E68" t="n">
-        <v>1024267189</v>
+        <v>1005926362</v>
       </c>
       <c r="F68" t="n">
-        <v>6154.325172722012</v>
+        <v>4754.5747674116</v>
       </c>
       <c r="G68" t="n">
-        <v>5035.462479888808</v>
+        <v>4896.731754136828</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>8933363</v>
+        <v>9018025</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>99624582</v>
+        <v>100226731</v>
       </c>
       <c r="E69" t="n">
-        <v>151979636</v>
+        <v>152898227</v>
       </c>
       <c r="F69" t="n">
-        <v>3562.511197142235</v>
+        <v>4349.068221749175</v>
       </c>
       <c r="G69" t="n">
-        <v>13118.0010686803</v>
+        <v>17865.20612732041</v>
       </c>
       <c r="H69" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I69" t="n">
-        <v>3034129</v>
+        <v>2513608</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1153214</v>
+        <v>1115369</v>
       </c>
       <c r="E70" t="n">
-        <v>4465496</v>
+        <v>4318952</v>
       </c>
       <c r="F70" t="n">
-        <v>2395.255543719152</v>
+        <v>2367.042581941751</v>
       </c>
       <c r="G70" t="n">
-        <v>2484.724617039853</v>
+        <v>2378.358535128788</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="I70" t="n">
-        <v>415957</v>
+        <v>281689</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>125768732</v>
+        <v>128816868</v>
       </c>
       <c r="E71" t="n">
-        <v>482469099</v>
+        <v>494162240</v>
       </c>
       <c r="F71" t="n">
-        <v>17792.76138743262</v>
+        <v>15358.6422308255</v>
       </c>
       <c r="G71" t="n">
-        <v>10536.40114423275</v>
+        <v>10505.94930696864</v>
       </c>
       <c r="H71" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>16571544</v>
+        <v>15193222</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3753591</v>
+        <v>3502868</v>
       </c>
       <c r="E72" t="n">
-        <v>35565831</v>
+        <v>33190195</v>
       </c>
       <c r="F72" t="n">
-        <v>339.1555178790695</v>
+        <v>580.8865969897164</v>
       </c>
       <c r="G72" t="n">
-        <v>675.9519888821681</v>
+        <v>68.29702612144088</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I72" t="n">
-        <v>221177</v>
+        <v>120364</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>37954941</v>
+        <v>37096220</v>
       </c>
       <c r="F73" t="n">
-        <v>4529.041590455074</v>
+        <v>3539.267901270209</v>
       </c>
       <c r="G73" t="n">
-        <v>1594.631362717426</v>
+        <v>973.2428446748389</v>
       </c>
       <c r="H73" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I73" t="n">
-        <v>5235563</v>
+        <v>9587235</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>101914236</v>
+        <v>102318824</v>
       </c>
       <c r="E74" t="n">
-        <v>375352689</v>
+        <v>376826958</v>
       </c>
       <c r="F74" t="n">
-        <v>241.7724639516936</v>
+        <v>132.5791729970533</v>
       </c>
       <c r="G74" t="n">
-        <v>251.586989872713</v>
+        <v>103.6497653656077</v>
       </c>
       <c r="H74" t="n">
-        <v>0.84</v>
+        <v>1.11</v>
       </c>
       <c r="I74" t="n">
-        <v>374064</v>
+        <v>232984</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22920142</v>
+        <v>21682157</v>
       </c>
       <c r="E75" t="n">
-        <v>22920142</v>
+        <v>21682157</v>
       </c>
       <c r="F75" t="n">
-        <v>3498.434139541751</v>
+        <v>3673.508180375726</v>
       </c>
       <c r="G75" t="n">
-        <v>4215.719578020246</v>
+        <v>2752.940877127022</v>
       </c>
       <c r="H75" t="n">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="I75" t="n">
-        <v>2640659</v>
+        <v>1682580</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>463539996</v>
+        <v>454593553</v>
       </c>
       <c r="E76" t="n">
-        <v>1611909409</v>
+        <v>1579998762</v>
       </c>
       <c r="F76" t="n">
-        <v>88463.73998532401</v>
+        <v>81034.62031841454</v>
       </c>
       <c r="G76" t="n">
-        <v>89056.27634426598</v>
+        <v>88194.37099206759</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I76" t="n">
-        <v>24634752</v>
+        <v>26396188</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5859114434</v>
+        <v>5803217529</v>
       </c>
       <c r="E77" t="n">
-        <v>5859305591</v>
+        <v>5803217529</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>12</v>
+        <v>28.94</v>
       </c>
       <c r="I77" t="n">
-        <v>8922938</v>
+        <v>9788831</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7338576</v>
+        <v>7271512</v>
       </c>
       <c r="E78" t="n">
-        <v>19064830</v>
+        <v>18890606</v>
       </c>
       <c r="F78" t="n">
-        <v>5407.52714086309</v>
+        <v>5147.93269433252</v>
       </c>
       <c r="G78" t="n">
-        <v>2384.192985610059</v>
+        <v>2321.707392837814</v>
       </c>
       <c r="H78" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I78" t="n">
-        <v>529838</v>
+        <v>477113</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109221212</v>
+        <v>109023657</v>
       </c>
       <c r="E79" t="n">
-        <v>165482755</v>
+        <v>165183438</v>
       </c>
       <c r="F79" t="n">
-        <v>38012.56360118342</v>
+        <v>38919.06702053205</v>
       </c>
       <c r="G79" t="n">
-        <v>38611.92015274896</v>
+        <v>35812.65520369537</v>
       </c>
       <c r="H79" t="n">
         <v>0.18</v>
       </c>
       <c r="I79" t="n">
-        <v>5581690</v>
+        <v>4613091</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2234667</v>
+        <v>2132268</v>
       </c>
       <c r="E80" t="n">
-        <v>8938669</v>
+        <v>8529072</v>
       </c>
       <c r="F80" t="n">
-        <v>1807.812010537056</v>
+        <v>2253.596415576864</v>
       </c>
       <c r="G80" t="n">
-        <v>2206.968890271087</v>
+        <v>2009.895929509439</v>
       </c>
       <c r="H80" t="n">
-        <v>0.45</v>
+        <v>0.12</v>
       </c>
       <c r="I80" t="n">
-        <v>5221060</v>
+        <v>5036237</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2515322</v>
+        <v>3079800</v>
       </c>
       <c r="F81" t="n">
-        <v>2536.374994785012</v>
+        <v>10855.43647446708</v>
       </c>
       <c r="G81" t="n">
-        <v>2653.874705028013</v>
+        <v>2631.366858250266</v>
       </c>
       <c r="H81" t="n">
         <v>0.63</v>
       </c>
       <c r="I81" t="n">
-        <v>262105</v>
+        <v>401110</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>389116453</v>
+        <v>382744658</v>
       </c>
       <c r="E82" t="n">
-        <v>2223522586</v>
+        <v>2187112331</v>
       </c>
       <c r="F82" t="n">
-        <v>46175.77064532709</v>
+        <v>32515.58600712056</v>
       </c>
       <c r="G82" t="n">
-        <v>39802.15825973423</v>
+        <v>71212.18313811677</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>34497944</v>
+        <v>37645885</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3964863</v>
+        <v>4217326</v>
       </c>
       <c r="F2" t="n">
-        <v>144.799202026098</v>
+        <v>2209.822981830703</v>
       </c>
       <c r="G2" t="n">
-        <v>1829.520345038711</v>
+        <v>2426.860755718902</v>
       </c>
       <c r="H2" t="n">
-        <v>1.29</v>
+        <v>0.26</v>
       </c>
       <c r="I2" t="n">
-        <v>78335</v>
+        <v>207934</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1397378</v>
+        <v>1380759</v>
       </c>
       <c r="E3" t="n">
-        <v>4516898</v>
+        <v>4346868</v>
       </c>
       <c r="F3" t="n">
-        <v>4409.473029010604</v>
+        <v>4094.692702341478</v>
       </c>
       <c r="G3" t="n">
-        <v>2052.987961884825</v>
+        <v>1813.667473841577</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="I3" t="n">
-        <v>141646</v>
+        <v>134785</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>247322285</v>
+        <v>233061923</v>
       </c>
       <c r="E4" t="n">
-        <v>1550923283</v>
+        <v>1461498559</v>
       </c>
       <c r="F4" t="n">
-        <v>9822.263962718054</v>
+        <v>13526.2129458262</v>
       </c>
       <c r="G4" t="n">
-        <v>22707.133917021</v>
+        <v>23315.72230000964</v>
       </c>
       <c r="H4" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>13431763</v>
+        <v>14957636</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140285380</v>
+        <v>135095845</v>
       </c>
       <c r="E5" t="n">
-        <v>155458124</v>
+        <v>149707309</v>
       </c>
       <c r="F5" t="n">
-        <v>34118.65347162528</v>
+        <v>28253.2438833558</v>
       </c>
       <c r="G5" t="n">
-        <v>18672.08180191458</v>
+        <v>34108.67440941228</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>30250545</v>
+        <v>32076546</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>116502811</v>
+        <v>111421804</v>
       </c>
       <c r="E6" t="n">
-        <v>456656136</v>
+        <v>436740110</v>
       </c>
       <c r="F6" t="n">
-        <v>16430.26459469866</v>
+        <v>8462.133865596592</v>
       </c>
       <c r="G6" t="n">
-        <v>7410.194292335466</v>
+        <v>17846.28215793907</v>
       </c>
       <c r="H6" t="n">
         <v>0.11</v>
       </c>
       <c r="I6" t="n">
-        <v>17854829</v>
+        <v>18207719</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3966093</v>
+        <v>3962355</v>
       </c>
       <c r="E7" t="n">
-        <v>24334952</v>
+        <v>24310921</v>
       </c>
       <c r="F7" t="n">
-        <v>69.31136506274431</v>
+        <v>1448.33400804443</v>
       </c>
       <c r="G7" t="n">
-        <v>508.2164192615164</v>
+        <v>1732.340394295815</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="I7" t="n">
-        <v>422013</v>
+        <v>378233</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>184440</v>
+        <v>186675</v>
       </c>
       <c r="E8" t="n">
-        <v>2029047</v>
+        <v>2053628</v>
       </c>
       <c r="F8" t="n">
-        <v>2293.604189256264</v>
+        <v>2101.658641590193</v>
       </c>
       <c r="G8" t="n">
-        <v>2204.13354355916</v>
+        <v>2027.622480343339</v>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>55667</v>
+        <v>57313</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71291737</v>
+        <v>72214558</v>
       </c>
       <c r="E9" t="n">
-        <v>123261215</v>
+        <v>124840360</v>
       </c>
       <c r="F9" t="n">
-        <v>1006.041993697042</v>
+        <v>2368.316245527369</v>
       </c>
       <c r="G9" t="n">
-        <v>1292.217017510548</v>
+        <v>2331.18790095604</v>
       </c>
       <c r="H9" t="n">
-        <v>0.57</v>
+        <v>0.08</v>
       </c>
       <c r="I9" t="n">
-        <v>387344</v>
+        <v>546700</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8924141</v>
+        <v>8789150</v>
       </c>
       <c r="E10" t="n">
-        <v>12631458</v>
+        <v>12440388</v>
       </c>
       <c r="F10" t="n">
-        <v>3256.48854223032</v>
+        <v>3149.192167876865</v>
       </c>
       <c r="G10" t="n">
-        <v>3344.18907226287</v>
+        <v>3154.21509725521</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>3986.74</v>
+        <v>6559.93</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>474713570</v>
+        <v>444572919</v>
       </c>
       <c r="E11" t="n">
-        <v>474713572</v>
+        <v>444572919</v>
       </c>
       <c r="F11" t="n">
-        <v>16937.40335536026</v>
+        <v>10280.818019396</v>
       </c>
       <c r="G11" t="n">
-        <v>41043.56896938304</v>
+        <v>40483.17969262911</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>30467717</v>
+        <v>33448333</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>294036</v>
+        <v>295922</v>
       </c>
       <c r="E12" t="n">
-        <v>1372589</v>
+        <v>1381392</v>
       </c>
       <c r="F12" t="n">
-        <v>26.14963611807459</v>
+        <v>383.2677395534351</v>
       </c>
       <c r="G12" t="n">
-        <v>135.882174882691</v>
+        <v>2771.754426642425</v>
       </c>
       <c r="H12" t="n">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>763574</v>
+        <v>745622</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1669616</v>
+        <v>1631869</v>
       </c>
       <c r="F13" t="n">
-        <v>1126.049537813615</v>
+        <v>1450.902359957584</v>
       </c>
       <c r="G13" t="n">
-        <v>3379.13088105153</v>
+        <v>5642.05834825197</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>474236</v>
+        <v>364835</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12242403</v>
+        <v>11627464</v>
       </c>
       <c r="E14" t="n">
-        <v>30469127</v>
+        <v>28938655</v>
       </c>
       <c r="F14" t="n">
-        <v>1091.795893235305</v>
+        <v>885.7139021901318</v>
       </c>
       <c r="G14" t="n">
-        <v>1523.614143487522</v>
+        <v>1383.591543109043</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.77</v>
       </c>
       <c r="I14" t="n">
-        <v>1419660</v>
+        <v>1420078</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109324109</v>
+        <v>105740668</v>
       </c>
       <c r="E15" t="n">
-        <v>423655953</v>
+        <v>409637799</v>
       </c>
       <c r="F15" t="n">
-        <v>7628.074859690585</v>
+        <v>7363.792982164018</v>
       </c>
       <c r="G15" t="n">
-        <v>6309.432769410171</v>
+        <v>7025.852421008116</v>
       </c>
       <c r="H15" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I15" t="n">
-        <v>7590814</v>
+        <v>4938154</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4698525</v>
+        <v>4826371</v>
       </c>
       <c r="E16" t="n">
-        <v>6916484</v>
+        <v>7104680</v>
       </c>
       <c r="F16" t="n">
-        <v>3849.190222341447</v>
+        <v>441.0177122894939</v>
       </c>
       <c r="G16" t="n">
-        <v>3845.221141126988</v>
+        <v>444.3660458388746</v>
       </c>
       <c r="H16" t="n">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="I16" t="n">
-        <v>723509</v>
+        <v>734471</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>505347</v>
+        <v>471109</v>
       </c>
       <c r="E17" t="n">
-        <v>2093712</v>
+        <v>1960794</v>
       </c>
       <c r="F17" t="n">
-        <v>546.3525727076686</v>
+        <v>376.0302859675758</v>
       </c>
       <c r="G17" t="n">
-        <v>324.3077127802709</v>
+        <v>198.6091357770073</v>
       </c>
       <c r="H17" t="n">
-        <v>0.29</v>
+        <v>0.82</v>
       </c>
       <c r="I17" t="n">
-        <v>530254</v>
+        <v>398726</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>142030387</v>
+        <v>134916070</v>
       </c>
       <c r="E18" t="n">
-        <v>142030387</v>
+        <v>134916070</v>
       </c>
       <c r="F18" t="n">
-        <v>63971.24187478915</v>
+        <v>91482.37310635991</v>
       </c>
       <c r="G18" t="n">
-        <v>120547.6736164969</v>
+        <v>75487.99684541379</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>63984514</v>
+        <v>65986739</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68825640</v>
+        <v>66120124</v>
       </c>
       <c r="E19" t="n">
-        <v>352952002</v>
+        <v>339077558</v>
       </c>
       <c r="F19" t="n">
-        <v>6461.460752004212</v>
+        <v>7338.344215077568</v>
       </c>
       <c r="G19" t="n">
-        <v>6582.315639731259</v>
+        <v>13754.27519196136</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>27775165</v>
+        <v>21007097</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>244069883</v>
+        <v>234561127</v>
       </c>
       <c r="E20" t="n">
-        <v>244069883</v>
+        <v>234561127</v>
       </c>
       <c r="F20" t="n">
-        <v>67291.86771825515</v>
+        <v>33302.89229368951</v>
       </c>
       <c r="G20" t="n">
-        <v>52170.85104855783</v>
+        <v>56857.29661383876</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>11369642</v>
+        <v>14433589</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>170100485</v>
+        <v>158012297</v>
       </c>
       <c r="E21" t="n">
-        <v>223832345</v>
+        <v>207925703</v>
       </c>
       <c r="F21" t="n">
-        <v>13820.13607914692</v>
+        <v>14913.0371661246</v>
       </c>
       <c r="G21" t="n">
-        <v>18230.01454598064</v>
+        <v>19189.22059631022</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>3120324</v>
+        <v>4351400</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75026702</v>
+        <v>71136776</v>
       </c>
       <c r="E22" t="n">
-        <v>210045386</v>
+        <v>199190995</v>
       </c>
       <c r="F22" t="n">
-        <v>25056.6895910608</v>
+        <v>18541.11622697478</v>
       </c>
       <c r="G22" t="n">
-        <v>19449.20449853377</v>
+        <v>18749.53418612456</v>
       </c>
       <c r="H22" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>22931031</v>
+        <v>21128674</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84389165</v>
+        <v>76675992</v>
       </c>
       <c r="E23" t="n">
-        <v>175944630</v>
+        <v>159863285</v>
       </c>
       <c r="F23" t="n">
-        <v>14519.41238353949</v>
+        <v>11447.99584630737</v>
       </c>
       <c r="G23" t="n">
-        <v>24143.89013751521</v>
+        <v>26637.85744591812</v>
       </c>
       <c r="H23" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I23" t="n">
-        <v>16542773</v>
+        <v>17064612</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>646059723</v>
+        <v>611981762</v>
       </c>
       <c r="E24" t="n">
-        <v>646059723</v>
+        <v>611981762</v>
       </c>
       <c r="F24" t="n">
-        <v>102391.4216000152</v>
+        <v>76747.87177623871</v>
       </c>
       <c r="G24" t="n">
-        <v>138578.8392728708</v>
+        <v>173728.7116134243</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>227585925</v>
+        <v>265896417</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>194997849</v>
+        <v>184015294</v>
       </c>
       <c r="E25" t="n">
-        <v>677440152</v>
+        <v>639285764</v>
       </c>
       <c r="F25" t="n">
-        <v>63911.86855602702</v>
+        <v>63409.73360376929</v>
       </c>
       <c r="G25" t="n">
-        <v>105666.4572705945</v>
+        <v>106585.8419654612</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>24442834</v>
+        <v>27180056</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5448690</v>
+        <v>5375176</v>
       </c>
       <c r="E26" t="n">
-        <v>7388388</v>
+        <v>7288503</v>
       </c>
       <c r="F26" t="n">
-        <v>1405.551793454861</v>
+        <v>858.5453340864635</v>
       </c>
       <c r="G26" t="n">
-        <v>495.4623532706521</v>
+        <v>1645.97070541228</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I26" t="n">
-        <v>4598749</v>
+        <v>4069444</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14176932</v>
+        <v>13991711</v>
       </c>
       <c r="F27" t="n">
-        <v>2393.896719678109</v>
+        <v>1979.7750074397</v>
       </c>
       <c r="G27" t="n">
-        <v>1932.904419137131</v>
+        <v>2658.290946514164</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="I27" t="n">
-        <v>143695</v>
+        <v>180942</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26204336</v>
+        <v>24996924</v>
       </c>
       <c r="E28" t="n">
-        <v>37016099</v>
+        <v>35310193</v>
       </c>
       <c r="F28" t="n">
-        <v>340.953966404133</v>
+        <v>102.2582299136825</v>
       </c>
       <c r="G28" t="n">
-        <v>446.472180315857</v>
+        <v>180.3535747292993</v>
       </c>
       <c r="H28" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="I28" t="n">
-        <v>63318</v>
+        <v>63996</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>261416708</v>
+        <v>251272504</v>
       </c>
       <c r="E29" t="n">
-        <v>1128419634</v>
+        <v>1084631618</v>
       </c>
       <c r="F29" t="n">
-        <v>141417.4768442585</v>
+        <v>152678.2619046656</v>
       </c>
       <c r="G29" t="n">
-        <v>133647.1139938095</v>
+        <v>131003.3653161393</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>70623879</v>
+        <v>72319916</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10512362</v>
+        <v>10307402</v>
       </c>
       <c r="E30" t="n">
-        <v>126051193</v>
+        <v>123585402</v>
       </c>
       <c r="F30" t="n">
-        <v>422.090374353994</v>
+        <v>3793.175309895279</v>
       </c>
       <c r="G30" t="n">
-        <v>1180.896766476016</v>
+        <v>1220.002572928051</v>
       </c>
       <c r="H30" t="n">
-        <v>0.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>154026</v>
+        <v>167710</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14601954</v>
+        <v>13673236</v>
       </c>
       <c r="E31" t="n">
-        <v>36504885</v>
+        <v>34183091</v>
       </c>
       <c r="F31" t="n">
-        <v>4441.177249568671</v>
+        <v>6071.872659058741</v>
       </c>
       <c r="G31" t="n">
-        <v>5249.518638095821</v>
+        <v>5956.147835060486</v>
       </c>
       <c r="H31" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2626440</v>
+        <v>3287651</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18142672</v>
+        <v>17841555</v>
       </c>
       <c r="F32" t="n">
-        <v>1526.08607652437</v>
+        <v>4201.363318091448</v>
       </c>
       <c r="G32" t="n">
-        <v>5172.442199025477</v>
+        <v>3225.195737283148</v>
       </c>
       <c r="H32" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="I32" t="n">
-        <v>21584</v>
+        <v>26466</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1726547</v>
+        <v>1629067</v>
       </c>
       <c r="E33" t="n">
-        <v>6434728</v>
+        <v>6071424</v>
       </c>
       <c r="F33" t="n">
-        <v>4554.291994563035</v>
+        <v>10883.45112972633</v>
       </c>
       <c r="G33" t="n">
-        <v>3067.489846291276</v>
+        <v>2143.39529877968</v>
       </c>
       <c r="H33" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I33" t="n">
-        <v>703505</v>
+        <v>636872</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3959297</v>
+        <v>4089238</v>
       </c>
       <c r="E34" t="n">
-        <v>11402011</v>
+        <v>11776215</v>
       </c>
       <c r="F34" t="n">
-        <v>4187.643159045139</v>
+        <v>4030.713962783973</v>
       </c>
       <c r="G34" t="n">
-        <v>4204.99018255406</v>
+        <v>3809.657318896499</v>
       </c>
       <c r="H34" t="n">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="I34" t="n">
-        <v>399072</v>
+        <v>387904</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14259543</v>
+        <v>14152066</v>
       </c>
       <c r="E35" t="n">
-        <v>69061244</v>
+        <v>68540717</v>
       </c>
       <c r="F35" t="n">
-        <v>1712.252065442104</v>
+        <v>2284.646137628886</v>
       </c>
       <c r="G35" t="n">
-        <v>4330.411092704498</v>
+        <v>6639.665118262856</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>2768874</v>
+        <v>2933387</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1407936</v>
+        <v>1357712</v>
       </c>
       <c r="E36" t="n">
-        <v>9214903</v>
+        <v>8886188</v>
       </c>
       <c r="F36" t="n">
-        <v>4276.193909951149</v>
+        <v>4073.104022418978</v>
       </c>
       <c r="G36" t="n">
-        <v>3677.955693624545</v>
+        <v>4483.557527851524</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="I36" t="n">
-        <v>989559</v>
+        <v>434813</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1888207738</v>
+        <v>1880377071</v>
       </c>
       <c r="F37" t="n">
-        <v>67.79952620765769</v>
+        <v>689.5004716854127</v>
       </c>
       <c r="G37" t="n">
-        <v>510.7881833388917</v>
+        <v>73.87817744304139</v>
       </c>
       <c r="H37" t="n">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="I37" t="n">
-        <v>26158565</v>
+        <v>27214177</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1833017</v>
+        <v>1878456</v>
       </c>
       <c r="E38" t="n">
-        <v>13144380</v>
+        <v>13470220</v>
       </c>
       <c r="F38" t="n">
-        <v>3791.861376019738</v>
+        <v>4178.960873872365</v>
       </c>
       <c r="G38" t="n">
-        <v>6664.407063960767</v>
+        <v>6430.59579556848</v>
       </c>
       <c r="H38" t="n">
-        <v>0.66</v>
+        <v>0.15</v>
       </c>
       <c r="I38" t="n">
-        <v>1498404</v>
+        <v>1667514</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>192625132</v>
+        <v>187681905</v>
       </c>
       <c r="E39" t="n">
-        <v>1090761857</v>
+        <v>1062770266</v>
       </c>
       <c r="F39" t="n">
-        <v>48501.09287779158</v>
+        <v>57838.12193554267</v>
       </c>
       <c r="G39" t="n">
-        <v>72461.17745640638</v>
+        <v>63887.53254522153</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>34811018</v>
+        <v>37802782</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>127588541</v>
+        <v>128936966</v>
       </c>
       <c r="E40" t="n">
-        <v>945100307</v>
+        <v>955088635</v>
       </c>
       <c r="F40" t="n">
-        <v>3230.257688126871</v>
+        <v>3990.88182069422</v>
       </c>
       <c r="G40" t="n">
-        <v>16895.9943481495</v>
+        <v>19113.92033095979</v>
       </c>
       <c r="H40" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I40" t="n">
-        <v>4961107</v>
+        <v>6969020</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>320779046</v>
+        <v>309271427</v>
       </c>
       <c r="E41" t="n">
-        <v>2885927202</v>
+        <v>2782397534</v>
       </c>
       <c r="F41" t="n">
-        <v>72312.98107696837</v>
+        <v>146423.0053303829</v>
       </c>
       <c r="G41" t="n">
-        <v>94779.47583322045</v>
+        <v>186277.6854841009</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>28047230</v>
+        <v>33717074</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1569002</v>
+        <v>1573659</v>
       </c>
       <c r="E42" t="n">
-        <v>13075018</v>
+        <v>13113823</v>
       </c>
       <c r="F42" t="n">
-        <v>3770.034946072305</v>
+        <v>2909.060809622415</v>
       </c>
       <c r="G42" t="n">
-        <v>3577.972397594502</v>
+        <v>1845.453980664064</v>
       </c>
       <c r="H42" t="n">
-        <v>0.61</v>
+        <v>1.44</v>
       </c>
       <c r="I42" t="n">
-        <v>31181</v>
+        <v>17855.04</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19410609</v>
+        <v>17800161</v>
       </c>
       <c r="E43" t="n">
-        <v>57108904</v>
+        <v>52370725</v>
       </c>
       <c r="F43" t="n">
-        <v>4592.0283653459</v>
+        <v>10744.38065651873</v>
       </c>
       <c r="G43" t="n">
-        <v>19467.26318279167</v>
+        <v>20516.30026411705</v>
       </c>
       <c r="H43" t="n">
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="I43" t="n">
-        <v>2254282</v>
+        <v>2244603</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7539349</v>
+        <v>7477605</v>
       </c>
       <c r="F44" t="n">
-        <v>2266.422744962349</v>
+        <v>2773.932908040685</v>
       </c>
       <c r="G44" t="n">
-        <v>2671.36453818254</v>
+        <v>2137.739090437349</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>108048</v>
+        <v>106574</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13224712</v>
+        <v>12507399</v>
       </c>
       <c r="E45" t="n">
-        <v>13224712</v>
+        <v>12507399</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>36.8430111906934</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>15.00163476622168</v>
       </c>
       <c r="H45" t="n">
-        <v>4.17</v>
+        <v>3.69</v>
       </c>
       <c r="I45" t="n">
-        <v>1924179</v>
+        <v>1300373</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>302128090</v>
+        <v>287816519</v>
       </c>
       <c r="E46" t="n">
-        <v>302128090</v>
+        <v>287816519</v>
       </c>
       <c r="F46" t="n">
-        <v>9397.084550382029</v>
+        <v>5817.012625975117</v>
       </c>
       <c r="G46" t="n">
-        <v>21243.08981388465</v>
+        <v>16842.30630634605</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>11004706</v>
+        <v>10416856</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11683778</v>
+        <v>11385555</v>
       </c>
       <c r="E47" t="n">
-        <v>36947326</v>
+        <v>36002409</v>
       </c>
       <c r="F47" t="n">
-        <v>6321.619323175904</v>
+        <v>6028.737773675785</v>
       </c>
       <c r="G47" t="n">
-        <v>6941.613588965721</v>
+        <v>6371.844109107782</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>1386675</v>
+        <v>1417874</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32359589</v>
+        <v>31967024</v>
       </c>
       <c r="E48" t="n">
-        <v>89632851</v>
+        <v>88545483</v>
       </c>
       <c r="F48" t="n">
-        <v>1982.519244565712</v>
+        <v>3605.808705063484</v>
       </c>
       <c r="G48" t="n">
-        <v>4878.712537122502</v>
+        <v>3885.935800204496</v>
       </c>
       <c r="H48" t="n">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="I48" t="n">
-        <v>11724488</v>
+        <v>11311109</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28226127</v>
+        <v>28322590</v>
       </c>
       <c r="E49" t="n">
-        <v>66957607</v>
+        <v>67186434</v>
       </c>
       <c r="F49" t="n">
-        <v>17320.1767388257</v>
+        <v>12875.57841668179</v>
       </c>
       <c r="G49" t="n">
-        <v>16212.43613509163</v>
+        <v>17332.62671362719</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I49" t="n">
-        <v>219747</v>
+        <v>246395</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11886635</v>
+        <v>11775925</v>
       </c>
       <c r="E50" t="n">
-        <v>18028967</v>
+        <v>17861047</v>
       </c>
       <c r="F50" t="n">
-        <v>5096.411851542553</v>
+        <v>4878.491407213247</v>
       </c>
       <c r="G50" t="n">
-        <v>4049.871300176786</v>
+        <v>3580.574126360369</v>
       </c>
       <c r="H50" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="I50" t="n">
-        <v>735769</v>
+        <v>715887</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>306033221</v>
+        <v>294766046</v>
       </c>
       <c r="E51" t="n">
-        <v>306033221</v>
+        <v>294766046</v>
       </c>
       <c r="F51" t="n">
-        <v>24164.44124636799</v>
+        <v>38242.00598484487</v>
       </c>
       <c r="G51" t="n">
-        <v>50252.81259969351</v>
+        <v>70197.6526165057</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>47017195</v>
+        <v>79599192</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>86041889</v>
+        <v>83048144</v>
       </c>
       <c r="E52" t="n">
-        <v>495810479</v>
+        <v>478559229</v>
       </c>
       <c r="F52" t="n">
-        <v>49180.11488977019</v>
+        <v>50417.7184166158</v>
       </c>
       <c r="G52" t="n">
-        <v>67260.96643546227</v>
+        <v>75523.763843521</v>
       </c>
       <c r="H52" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>16283144</v>
+        <v>16800147</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30479701</v>
+        <v>31333885</v>
       </c>
       <c r="E53" t="n">
-        <v>136470125</v>
+        <v>140294658</v>
       </c>
       <c r="F53" t="n">
-        <v>9822.964991826537</v>
+        <v>6784.619690738551</v>
       </c>
       <c r="G53" t="n">
-        <v>10154.97570695941</v>
+        <v>11900.63776586254</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>14023027</v>
+        <v>16138609</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7759170</v>
+        <v>7840086</v>
       </c>
       <c r="F54" t="n">
-        <v>2330.757542144133</v>
+        <v>2355.921858374358</v>
       </c>
       <c r="G54" t="n">
-        <v>4509.243319031441</v>
+        <v>4504.558801037745</v>
       </c>
       <c r="H54" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I54" t="n">
-        <v>322668</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4654434</v>
+        <v>4593948</v>
       </c>
       <c r="F55" t="n">
-        <v>3939.593652527059</v>
+        <v>21.56027376242426</v>
       </c>
       <c r="G55" t="n">
-        <v>1895.104028406386</v>
+        <v>12.34988105864077</v>
       </c>
       <c r="H55" t="n">
-        <v>0.26</v>
+        <v>1.21</v>
       </c>
       <c r="I55" t="n">
-        <v>237316</v>
+        <v>235230</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123659921</v>
+        <v>122867116</v>
       </c>
       <c r="E56" t="n">
-        <v>2047909570</v>
+        <v>2034780072</v>
       </c>
       <c r="F56" t="n">
-        <v>25276.69248405749</v>
+        <v>28286.66371286209</v>
       </c>
       <c r="G56" t="n">
-        <v>25908.13785757248</v>
+        <v>39679.75999030207</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>10700935</v>
+        <v>10661163</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>81350990</v>
+        <v>76781705</v>
       </c>
       <c r="E57" t="n">
-        <v>82226621</v>
+        <v>77608154</v>
       </c>
       <c r="F57" t="n">
-        <v>18201.86664631478</v>
+        <v>15776.87972703866</v>
       </c>
       <c r="G57" t="n">
-        <v>22198.9102152324</v>
+        <v>26291.23440072872</v>
       </c>
       <c r="H57" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>10092881</v>
+        <v>9397275</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>230647867</v>
+        <v>217031668</v>
       </c>
       <c r="E58" t="n">
-        <v>230647867</v>
+        <v>217031668</v>
       </c>
       <c r="F58" t="n">
-        <v>71631.17104462927</v>
+        <v>49391.1407187427</v>
       </c>
       <c r="G58" t="n">
-        <v>89212.64954135938</v>
+        <v>81354.72631525998</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I58" t="n">
-        <v>40347695</v>
+        <v>42291449</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22637331</v>
+        <v>22056264</v>
       </c>
       <c r="E59" t="n">
-        <v>135443702</v>
+        <v>131967058</v>
       </c>
       <c r="F59" t="n">
-        <v>20830.73895469854</v>
+        <v>29196.59193897676</v>
       </c>
       <c r="G59" t="n">
-        <v>26925.96601854371</v>
+        <v>34197.97864231739</v>
       </c>
       <c r="H59" t="n">
         <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>11600090</v>
+        <v>12968102</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2353827</v>
+        <v>2698730</v>
       </c>
       <c r="E60" t="n">
-        <v>4344123</v>
+        <v>4980660</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>14.55</v>
+        <v>7.93</v>
       </c>
       <c r="I60" t="n">
-        <v>239253</v>
+        <v>400131</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11009606</v>
+        <v>10868744</v>
       </c>
       <c r="E62" t="n">
-        <v>32626456</v>
+        <v>31980954</v>
       </c>
       <c r="F62" t="n">
-        <v>4659.158990892462</v>
+        <v>1552.629266386863</v>
       </c>
       <c r="G62" t="n">
-        <v>3606.935498970571</v>
+        <v>2786.958929997058</v>
       </c>
       <c r="H62" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I62" t="n">
-        <v>4520845</v>
+        <v>5355402</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14607434</v>
+        <v>14540125</v>
       </c>
       <c r="E63" t="n">
-        <v>29571859</v>
+        <v>29435595</v>
       </c>
       <c r="F63" t="n">
-        <v>7295.845505136817</v>
+        <v>8820.43306254141</v>
       </c>
       <c r="G63" t="n">
-        <v>9671.044457596052</v>
+        <v>15225.43343671281</v>
       </c>
       <c r="H63" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>565808</v>
+        <v>496875</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35513664</v>
+        <v>32499337</v>
       </c>
       <c r="E64" t="n">
-        <v>251786087</v>
+        <v>230414997</v>
       </c>
       <c r="F64" t="n">
-        <v>50586.72941265195</v>
+        <v>42611.49307901994</v>
       </c>
       <c r="G64" t="n">
-        <v>47001.80904959977</v>
+        <v>20204.64083183032</v>
       </c>
       <c r="H64" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>2400178</v>
+        <v>2200702</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1288527</v>
+        <v>1278726</v>
       </c>
       <c r="E65" t="n">
-        <v>7979232</v>
+        <v>7918156</v>
       </c>
       <c r="F65" t="n">
-        <v>406.7019011565555</v>
+        <v>561.5790588629228</v>
       </c>
       <c r="G65" t="n">
-        <v>264.5194481127093</v>
+        <v>1172.477122746367</v>
       </c>
       <c r="H65" t="n">
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
       <c r="I65" t="n">
-        <v>768264</v>
+        <v>766659</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>585388464</v>
+        <v>564725120</v>
       </c>
       <c r="E66" t="n">
-        <v>2267123153</v>
+        <v>2187097069</v>
       </c>
       <c r="F66" t="n">
-        <v>36680.83301633447</v>
+        <v>36206.9441640044</v>
       </c>
       <c r="G66" t="n">
-        <v>53848.71513551997</v>
+        <v>56782.69733066297</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I66" t="n">
-        <v>26301190</v>
+        <v>28352050</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5482576</v>
+        <v>5476278</v>
       </c>
       <c r="E67" t="n">
-        <v>24441426</v>
+        <v>24412005</v>
       </c>
       <c r="F67" t="n">
-        <v>3631.427825375055</v>
+        <v>3741.122912283183</v>
       </c>
       <c r="G67" t="n">
-        <v>15499.1379575926</v>
+        <v>14902.1641724116</v>
       </c>
       <c r="H67" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="I67" t="n">
-        <v>148343</v>
+        <v>146577</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>106314901</v>
+        <v>101794983</v>
       </c>
       <c r="E68" t="n">
-        <v>1005926362</v>
+        <v>963159979</v>
       </c>
       <c r="F68" t="n">
-        <v>4754.5747674116</v>
+        <v>5408.881543631055</v>
       </c>
       <c r="G68" t="n">
-        <v>4896.731754136828</v>
+        <v>4608.694735290336</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I68" t="n">
-        <v>9018025</v>
+        <v>7817977</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>100226731</v>
+        <v>95907577</v>
       </c>
       <c r="E69" t="n">
-        <v>152898227</v>
+        <v>146309257</v>
       </c>
       <c r="F69" t="n">
-        <v>4349.068221749175</v>
+        <v>1712.953892468076</v>
       </c>
       <c r="G69" t="n">
-        <v>17865.20612732041</v>
+        <v>18524.73804337836</v>
       </c>
       <c r="H69" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="I69" t="n">
-        <v>2513608</v>
+        <v>3039159</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1115369</v>
+        <v>1095390</v>
       </c>
       <c r="E70" t="n">
-        <v>4318952</v>
+        <v>4241591</v>
       </c>
       <c r="F70" t="n">
-        <v>2367.042581941751</v>
+        <v>6151.39597037442</v>
       </c>
       <c r="G70" t="n">
-        <v>2378.358535128788</v>
+        <v>2598.355500449025</v>
       </c>
       <c r="H70" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I70" t="n">
-        <v>281689</v>
+        <v>241349</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>128816868</v>
+        <v>123926421</v>
       </c>
       <c r="E71" t="n">
-        <v>494162240</v>
+        <v>475401696</v>
       </c>
       <c r="F71" t="n">
-        <v>15358.6422308255</v>
+        <v>11208.17289915301</v>
       </c>
       <c r="G71" t="n">
-        <v>10505.94930696864</v>
+        <v>18449.82925956135</v>
       </c>
       <c r="H71" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>15193222</v>
+        <v>17000117</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3502868</v>
+        <v>3302647</v>
       </c>
       <c r="E72" t="n">
-        <v>33190195</v>
+        <v>31293071</v>
       </c>
       <c r="F72" t="n">
-        <v>580.8865969897164</v>
+        <v>4433.295160947127</v>
       </c>
       <c r="G72" t="n">
-        <v>68.29702612144088</v>
+        <v>2590.489034719061</v>
       </c>
       <c r="H72" t="n">
-        <v>0.18</v>
+        <v>0.41</v>
       </c>
       <c r="I72" t="n">
-        <v>120364</v>
+        <v>177877</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>37096220</v>
+        <v>35130601</v>
       </c>
       <c r="F73" t="n">
-        <v>3539.267901270209</v>
+        <v>2381.634969783176</v>
       </c>
       <c r="G73" t="n">
-        <v>973.2428446748389</v>
+        <v>3046.123026534209</v>
       </c>
       <c r="H73" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I73" t="n">
-        <v>9587235</v>
+        <v>9889219</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>102318824</v>
+        <v>103134157</v>
       </c>
       <c r="E74" t="n">
-        <v>376826958</v>
+        <v>379815343</v>
       </c>
       <c r="F74" t="n">
-        <v>132.5791729970533</v>
+        <v>108.4947509246289</v>
       </c>
       <c r="G74" t="n">
-        <v>103.6497653656077</v>
+        <v>72.71152210494235</v>
       </c>
       <c r="H74" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="I74" t="n">
-        <v>232984</v>
+        <v>199846</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21682157</v>
+        <v>20006803</v>
       </c>
       <c r="E75" t="n">
-        <v>21682157</v>
+        <v>20006803</v>
       </c>
       <c r="F75" t="n">
-        <v>3673.508180375726</v>
+        <v>2030.849540736065</v>
       </c>
       <c r="G75" t="n">
-        <v>2752.940877127022</v>
+        <v>3042.02077773901</v>
       </c>
       <c r="H75" t="n">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="I75" t="n">
-        <v>1682580</v>
+        <v>2961750</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>454593553</v>
+        <v>432792731</v>
       </c>
       <c r="E76" t="n">
-        <v>1579998762</v>
+        <v>1504227180</v>
       </c>
       <c r="F76" t="n">
-        <v>81034.62031841454</v>
+        <v>90015.34941566973</v>
       </c>
       <c r="G76" t="n">
-        <v>88194.37099206759</v>
+        <v>98007.84265442897</v>
       </c>
       <c r="H76" t="n">
         <v>0.13</v>
       </c>
       <c r="I76" t="n">
-        <v>26396188</v>
+        <v>31972495</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5803217529</v>
+        <v>5595928094</v>
       </c>
       <c r="E77" t="n">
-        <v>5803217529</v>
+        <v>5595405293</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>28.94</v>
+        <v>7.71</v>
       </c>
       <c r="I77" t="n">
-        <v>9788831</v>
+        <v>12139751</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7271512</v>
+        <v>7304050</v>
       </c>
       <c r="E78" t="n">
-        <v>18890606</v>
+        <v>18975135</v>
       </c>
       <c r="F78" t="n">
-        <v>5147.93269433252</v>
+        <v>5108.291308151138</v>
       </c>
       <c r="G78" t="n">
-        <v>2321.707392837814</v>
+        <v>2429.250553403092</v>
       </c>
       <c r="H78" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="I78" t="n">
-        <v>477113</v>
+        <v>425226</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109023657</v>
+        <v>106892539</v>
       </c>
       <c r="E79" t="n">
-        <v>165183438</v>
+        <v>161954546</v>
       </c>
       <c r="F79" t="n">
-        <v>38919.06702053205</v>
+        <v>42265.45230572556</v>
       </c>
       <c r="G79" t="n">
-        <v>35812.65520369537</v>
+        <v>39913.928085755</v>
       </c>
       <c r="H79" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="I79" t="n">
-        <v>4613091</v>
+        <v>5119174</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2132268</v>
+        <v>2040752</v>
       </c>
       <c r="E80" t="n">
-        <v>8529072</v>
+        <v>8163009</v>
       </c>
       <c r="F80" t="n">
-        <v>2253.596415576864</v>
+        <v>2132.744769391355</v>
       </c>
       <c r="G80" t="n">
-        <v>2009.895929509439</v>
+        <v>1812.714123987483</v>
       </c>
       <c r="H80" t="n">
-        <v>0.12</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>5036237</v>
+        <v>5041144</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3079800</v>
+        <v>2519660</v>
       </c>
       <c r="F81" t="n">
-        <v>10855.43647446708</v>
+        <v>1322.120647867308</v>
       </c>
       <c r="G81" t="n">
-        <v>2631.366858250266</v>
+        <v>850.6476643351348</v>
       </c>
       <c r="H81" t="n">
-        <v>0.63</v>
+        <v>0.27</v>
       </c>
       <c r="I81" t="n">
-        <v>401110</v>
+        <v>533591</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>382744658</v>
+        <v>374174083</v>
       </c>
       <c r="E82" t="n">
-        <v>2187112331</v>
+        <v>2138137616</v>
       </c>
       <c r="F82" t="n">
-        <v>32515.58600712056</v>
+        <v>20749.78515845469</v>
       </c>
       <c r="G82" t="n">
-        <v>71212.18313811677</v>
+        <v>66598.87020163779</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>37645885</v>
+        <v>45117295</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4217326</v>
+        <v>4242888</v>
       </c>
       <c r="F2" t="n">
-        <v>2209.822981830703</v>
+        <v>2249.71875811817</v>
       </c>
       <c r="G2" t="n">
-        <v>2426.860755718902</v>
+        <v>2706.940292404113</v>
       </c>
       <c r="H2" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="I2" t="n">
-        <v>207934</v>
+        <v>167483</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1380759</v>
+        <v>1405831</v>
       </c>
       <c r="E3" t="n">
-        <v>4346868</v>
+        <v>4425801</v>
       </c>
       <c r="F3" t="n">
-        <v>4094.692702341478</v>
+        <v>4568.339602645962</v>
       </c>
       <c r="G3" t="n">
-        <v>1813.667473841577</v>
+        <v>4291.198968380043</v>
       </c>
       <c r="H3" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>134785</v>
+        <v>102329</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>233061923</v>
+        <v>235628698</v>
       </c>
       <c r="E4" t="n">
-        <v>1461498559</v>
+        <v>1477594445</v>
       </c>
       <c r="F4" t="n">
-        <v>13526.2129458262</v>
+        <v>81581.2391638929</v>
       </c>
       <c r="G4" t="n">
-        <v>23315.72230000964</v>
+        <v>97374.67183962891</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>14957636</v>
+        <v>17289559</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135095845</v>
+        <v>132248735</v>
       </c>
       <c r="E5" t="n">
-        <v>149707309</v>
+        <v>146552266</v>
       </c>
       <c r="F5" t="n">
-        <v>28253.2438833558</v>
+        <v>34916.6506037681</v>
       </c>
       <c r="G5" t="n">
-        <v>34108.67440941228</v>
+        <v>23630.69481199362</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>32076546</v>
+        <v>34945772</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>111421804</v>
+        <v>111067391</v>
       </c>
       <c r="E6" t="n">
-        <v>436740110</v>
+        <v>435350916</v>
       </c>
       <c r="F6" t="n">
-        <v>8462.133865596592</v>
+        <v>15016.85285156362</v>
       </c>
       <c r="G6" t="n">
-        <v>17846.28215793907</v>
+        <v>13765.79939122294</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>18207719</v>
+        <v>18872314</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3962355</v>
+        <v>3878600</v>
       </c>
       <c r="E7" t="n">
-        <v>24310921</v>
+        <v>23783703</v>
       </c>
       <c r="F7" t="n">
-        <v>1448.33400804443</v>
+        <v>2797.768203445956</v>
       </c>
       <c r="G7" t="n">
-        <v>1732.340394295815</v>
+        <v>2878.587658853777</v>
       </c>
       <c r="H7" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="I7" t="n">
-        <v>378233</v>
+        <v>345617</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>186675</v>
+        <v>186735</v>
       </c>
       <c r="E8" t="n">
-        <v>2053628</v>
+        <v>2054288</v>
       </c>
       <c r="F8" t="n">
-        <v>2101.658641590193</v>
+        <v>2083.825350141101</v>
       </c>
       <c r="G8" t="n">
-        <v>2027.622480343339</v>
+        <v>2186.127728156636</v>
       </c>
       <c r="H8" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I8" t="n">
-        <v>57313</v>
+        <v>66143</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72214558</v>
+        <v>70178331</v>
       </c>
       <c r="E9" t="n">
-        <v>124840360</v>
+        <v>121297094</v>
       </c>
       <c r="F9" t="n">
-        <v>2368.316245527369</v>
+        <v>9306.831188784172</v>
       </c>
       <c r="G9" t="n">
-        <v>2331.18790095604</v>
+        <v>8785.020583933312</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>546700</v>
+        <v>558548</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8789150</v>
+        <v>8887619</v>
       </c>
       <c r="E10" t="n">
-        <v>12440388</v>
+        <v>12579764</v>
       </c>
       <c r="F10" t="n">
-        <v>3149.192167876865</v>
+        <v>3160.206100755494</v>
       </c>
       <c r="G10" t="n">
-        <v>3154.21509725521</v>
+        <v>3145.978864720117</v>
       </c>
       <c r="H10" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>6559.93</v>
+        <v>7055.62</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>444572919</v>
+        <v>433881284</v>
       </c>
       <c r="E11" t="n">
-        <v>444572919</v>
+        <v>433881284</v>
       </c>
       <c r="F11" t="n">
-        <v>10280.818019396</v>
+        <v>15828.54230396815</v>
       </c>
       <c r="G11" t="n">
-        <v>40483.17969262911</v>
+        <v>40596.95412760937</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>33448333</v>
+        <v>31866722</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>295922</v>
+        <v>292279</v>
       </c>
       <c r="E12" t="n">
-        <v>1381392</v>
+        <v>1364389</v>
       </c>
       <c r="F12" t="n">
-        <v>383.2677395534351</v>
+        <v>1693.877026919637</v>
       </c>
       <c r="G12" t="n">
-        <v>2771.754426642425</v>
+        <v>272.4067976011858</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I12" t="n">
-        <v>745622</v>
+        <v>690300</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1631869</v>
+        <v>1596515</v>
       </c>
       <c r="F13" t="n">
-        <v>1450.902359957584</v>
+        <v>1218.237800410949</v>
       </c>
       <c r="G13" t="n">
-        <v>5642.05834825197</v>
+        <v>3246.852877651384</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>364835</v>
+        <v>221288</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11627464</v>
+        <v>11044127</v>
       </c>
       <c r="E14" t="n">
-        <v>28938655</v>
+        <v>27486835</v>
       </c>
       <c r="F14" t="n">
-        <v>885.7139021901318</v>
+        <v>1068.21577116542</v>
       </c>
       <c r="G14" t="n">
-        <v>1383.591543109043</v>
+        <v>1051.321574689656</v>
       </c>
       <c r="H14" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="I14" t="n">
-        <v>1420078</v>
+        <v>1367473</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>105740668</v>
+        <v>106729246</v>
       </c>
       <c r="E15" t="n">
-        <v>409637799</v>
+        <v>413277405</v>
       </c>
       <c r="F15" t="n">
-        <v>7363.792982164018</v>
+        <v>2754.281280960281</v>
       </c>
       <c r="G15" t="n">
-        <v>7025.852421008116</v>
+        <v>8583.396420368925</v>
       </c>
       <c r="H15" t="n">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="I15" t="n">
-        <v>4938154</v>
+        <v>7663489</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4826371</v>
+        <v>4757266</v>
       </c>
       <c r="E16" t="n">
-        <v>7104680</v>
+        <v>7002953</v>
       </c>
       <c r="F16" t="n">
-        <v>441.0177122894939</v>
+        <v>2597.818616336752</v>
       </c>
       <c r="G16" t="n">
-        <v>444.3660458388746</v>
+        <v>1275.780879098975</v>
       </c>
       <c r="H16" t="n">
-        <v>0.99</v>
+        <v>1.54</v>
       </c>
       <c r="I16" t="n">
-        <v>734471</v>
+        <v>630138</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>471109</v>
+        <v>491594</v>
       </c>
       <c r="E17" t="n">
-        <v>1960794</v>
+        <v>2027173</v>
       </c>
       <c r="F17" t="n">
-        <v>376.0302859675758</v>
+        <v>449.9485099209729</v>
       </c>
       <c r="G17" t="n">
-        <v>198.6091357770073</v>
+        <v>204.9728965654174</v>
       </c>
       <c r="H17" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="I17" t="n">
-        <v>398726</v>
+        <v>125396</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>134916070</v>
+        <v>131144603</v>
       </c>
       <c r="E18" t="n">
-        <v>134916070</v>
+        <v>131144603</v>
       </c>
       <c r="F18" t="n">
-        <v>91482.37310635991</v>
+        <v>73922.7287478615</v>
       </c>
       <c r="G18" t="n">
-        <v>75487.99684541379</v>
+        <v>120763.6414539915</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>65986739</v>
+        <v>70865491</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66120124</v>
+        <v>66903570</v>
       </c>
       <c r="E19" t="n">
-        <v>339077558</v>
+        <v>343095231</v>
       </c>
       <c r="F19" t="n">
-        <v>7338.344215077568</v>
+        <v>8576.949247330993</v>
       </c>
       <c r="G19" t="n">
-        <v>13754.27519196136</v>
+        <v>10028.93179857339</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>21007097</v>
+        <v>19423118</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>234561127</v>
+        <v>230496942</v>
       </c>
       <c r="E20" t="n">
-        <v>234561127</v>
+        <v>230496942</v>
       </c>
       <c r="F20" t="n">
-        <v>33302.89229368951</v>
+        <v>28305.99218082009</v>
       </c>
       <c r="G20" t="n">
-        <v>56857.29661383876</v>
+        <v>65396.49649756817</v>
       </c>
       <c r="H20" t="n">
         <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>14433589</v>
+        <v>18319175</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>158012297</v>
+        <v>154851087</v>
       </c>
       <c r="E21" t="n">
-        <v>207925703</v>
+        <v>203765921</v>
       </c>
       <c r="F21" t="n">
-        <v>14913.0371661246</v>
+        <v>14950.12148220543</v>
       </c>
       <c r="G21" t="n">
-        <v>19189.22059631022</v>
+        <v>17640.8920605478</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.46</v>
       </c>
       <c r="I21" t="n">
-        <v>4351400</v>
+        <v>5135464</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71136776</v>
+        <v>70694055</v>
       </c>
       <c r="E22" t="n">
-        <v>199190995</v>
+        <v>197941720</v>
       </c>
       <c r="F22" t="n">
-        <v>18541.11622697478</v>
+        <v>16027.90509842479</v>
       </c>
       <c r="G22" t="n">
-        <v>18749.53418612456</v>
+        <v>24402.9202104692</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I22" t="n">
-        <v>21128674</v>
+        <v>20835892</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76675992</v>
+        <v>76553211</v>
       </c>
       <c r="E23" t="n">
-        <v>159863285</v>
+        <v>159607296</v>
       </c>
       <c r="F23" t="n">
-        <v>11447.99584630737</v>
+        <v>14210.85160791514</v>
       </c>
       <c r="G23" t="n">
-        <v>26637.85744591812</v>
+        <v>23865.57920783119</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I23" t="n">
-        <v>17064612</v>
+        <v>17962102</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>611981762</v>
+        <v>603009291</v>
       </c>
       <c r="E24" t="n">
-        <v>611981762</v>
+        <v>603009291</v>
       </c>
       <c r="F24" t="n">
-        <v>76747.87177623871</v>
+        <v>101617.7491055207</v>
       </c>
       <c r="G24" t="n">
-        <v>173728.7116134243</v>
+        <v>164461.2058884411</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>265896417</v>
+        <v>352944584</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>184015294</v>
+        <v>185708003</v>
       </c>
       <c r="E25" t="n">
-        <v>639285764</v>
+        <v>645166387</v>
       </c>
       <c r="F25" t="n">
-        <v>63409.73360376929</v>
+        <v>72849.71351294417</v>
       </c>
       <c r="G25" t="n">
-        <v>106585.8419654612</v>
+        <v>129133.7909944677</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I25" t="n">
-        <v>27180056</v>
+        <v>27376001</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5375176</v>
+        <v>5278227</v>
       </c>
       <c r="E26" t="n">
-        <v>7288503</v>
+        <v>7153579</v>
       </c>
       <c r="F26" t="n">
-        <v>858.5453340864635</v>
+        <v>364.0814932477011</v>
       </c>
       <c r="G26" t="n">
-        <v>1645.97070541228</v>
+        <v>512.1305849721623</v>
       </c>
       <c r="H26" t="n">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="I26" t="n">
-        <v>4069444</v>
+        <v>4589001</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>13991711</v>
+        <v>13680957</v>
       </c>
       <c r="F27" t="n">
-        <v>1979.7750074397</v>
+        <v>2452.872678036091</v>
       </c>
       <c r="G27" t="n">
-        <v>2658.290946514164</v>
+        <v>2447.690041499258</v>
       </c>
       <c r="H27" t="n">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="I27" t="n">
-        <v>180942</v>
+        <v>214363</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24996924</v>
+        <v>24197237</v>
       </c>
       <c r="E28" t="n">
-        <v>35310193</v>
+        <v>34173983</v>
       </c>
       <c r="F28" t="n">
-        <v>102.2582299136825</v>
+        <v>222.3268501795411</v>
       </c>
       <c r="G28" t="n">
-        <v>180.3535747292993</v>
+        <v>428.7680211838249</v>
       </c>
       <c r="H28" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="I28" t="n">
-        <v>63996</v>
+        <v>95996</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>251272504</v>
+        <v>247948422</v>
       </c>
       <c r="E29" t="n">
-        <v>1084631618</v>
+        <v>1070283034</v>
       </c>
       <c r="F29" t="n">
-        <v>152678.2619046656</v>
+        <v>79182.40797776394</v>
       </c>
       <c r="G29" t="n">
-        <v>131003.3653161393</v>
+        <v>137287.9518318477</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>72319916</v>
+        <v>77178953</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10307402</v>
+        <v>9296118</v>
       </c>
       <c r="E30" t="n">
-        <v>123585402</v>
+        <v>111238111</v>
       </c>
       <c r="F30" t="n">
-        <v>3793.175309895279</v>
+        <v>1137.505870075607</v>
       </c>
       <c r="G30" t="n">
-        <v>1220.002572928051</v>
+        <v>3368.623353151838</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="I30" t="n">
-        <v>167710</v>
+        <v>309190</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13673236</v>
+        <v>13109407</v>
       </c>
       <c r="E31" t="n">
-        <v>34183091</v>
+        <v>32773518</v>
       </c>
       <c r="F31" t="n">
-        <v>6071.872659058741</v>
+        <v>3494.830121973549</v>
       </c>
       <c r="G31" t="n">
-        <v>5956.147835060486</v>
+        <v>7544.827857076996</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I31" t="n">
-        <v>3287651</v>
+        <v>3839571</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17841555</v>
+        <v>17710173</v>
       </c>
       <c r="F32" t="n">
-        <v>4201.363318091448</v>
+        <v>2166.505669218245</v>
       </c>
       <c r="G32" t="n">
-        <v>3225.195737283148</v>
+        <v>3958.006281282665</v>
       </c>
       <c r="H32" t="n">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="I32" t="n">
-        <v>26466</v>
+        <v>38646</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1629067</v>
+        <v>1658526</v>
       </c>
       <c r="E33" t="n">
-        <v>6071424</v>
+        <v>6180606</v>
       </c>
       <c r="F33" t="n">
-        <v>10883.45112972633</v>
+        <v>3915.031324555397</v>
       </c>
       <c r="G33" t="n">
-        <v>2143.39529877968</v>
+        <v>3255.245172113897</v>
       </c>
       <c r="H33" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I33" t="n">
-        <v>636872</v>
+        <v>660446</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4089238</v>
+        <v>3852430</v>
       </c>
       <c r="E34" t="n">
-        <v>11776215</v>
+        <v>11094237</v>
       </c>
       <c r="F34" t="n">
-        <v>4030.713962783973</v>
+        <v>4118.047277347538</v>
       </c>
       <c r="G34" t="n">
-        <v>3809.657318896499</v>
+        <v>5464.073722733722</v>
       </c>
       <c r="H34" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I34" t="n">
-        <v>387904</v>
+        <v>373582</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14152066</v>
+        <v>13639981</v>
       </c>
       <c r="E35" t="n">
-        <v>68540717</v>
+        <v>66060605</v>
       </c>
       <c r="F35" t="n">
-        <v>2284.646137628886</v>
+        <v>3231.97884382029</v>
       </c>
       <c r="G35" t="n">
-        <v>6639.665118262856</v>
+        <v>2635.010409500659</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>2933387</v>
+        <v>3390207</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1357712</v>
+        <v>1345612</v>
       </c>
       <c r="E36" t="n">
-        <v>8886188</v>
+        <v>8806993</v>
       </c>
       <c r="F36" t="n">
-        <v>4073.104022418978</v>
+        <v>4304.932301402661</v>
       </c>
       <c r="G36" t="n">
-        <v>4483.557527851524</v>
+        <v>3377.260324540464</v>
       </c>
       <c r="H36" t="n">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="I36" t="n">
-        <v>434813</v>
+        <v>416550</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1880377071</v>
+        <v>1904495021</v>
       </c>
       <c r="F37" t="n">
-        <v>689.5004716854127</v>
+        <v>538.0417963094372</v>
       </c>
       <c r="G37" t="n">
-        <v>73.87817744304139</v>
+        <v>244.5747751561335</v>
       </c>
       <c r="H37" t="n">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="I37" t="n">
-        <v>27214177</v>
+        <v>29043194</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1878456</v>
+        <v>1836596</v>
       </c>
       <c r="E38" t="n">
-        <v>13470220</v>
+        <v>13170044</v>
       </c>
       <c r="F38" t="n">
-        <v>4178.960873872365</v>
+        <v>4733.134474779614</v>
       </c>
       <c r="G38" t="n">
-        <v>6430.59579556848</v>
+        <v>6391.949237697313</v>
       </c>
       <c r="H38" t="n">
-        <v>0.15</v>
+        <v>0.52</v>
       </c>
       <c r="I38" t="n">
-        <v>1667514</v>
+        <v>1664271</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>187681905</v>
+        <v>183616507</v>
       </c>
       <c r="E39" t="n">
-        <v>1062770266</v>
+        <v>1039749484</v>
       </c>
       <c r="F39" t="n">
-        <v>57838.12193554267</v>
+        <v>25178.82184235852</v>
       </c>
       <c r="G39" t="n">
-        <v>63887.53254522153</v>
+        <v>41666.97669125247</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>37802782</v>
+        <v>42626689</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>128936966</v>
+        <v>124473155</v>
       </c>
       <c r="E40" t="n">
-        <v>955088635</v>
+        <v>922023369</v>
       </c>
       <c r="F40" t="n">
-        <v>3990.88182069422</v>
+        <v>91336.27248573444</v>
       </c>
       <c r="G40" t="n">
-        <v>19113.92033095979</v>
+        <v>101688.5351884071</v>
       </c>
       <c r="H40" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I40" t="n">
-        <v>6969020</v>
+        <v>11524094</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>309271427</v>
+        <v>300723081</v>
       </c>
       <c r="E41" t="n">
-        <v>2782397534</v>
+        <v>2705491305</v>
       </c>
       <c r="F41" t="n">
-        <v>146423.0053303829</v>
+        <v>83068.34742504143</v>
       </c>
       <c r="G41" t="n">
-        <v>186277.6854841009</v>
+        <v>158028.0109984579</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>33717074</v>
+        <v>42889273</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1573659</v>
+        <v>1594880</v>
       </c>
       <c r="E42" t="n">
-        <v>13113823</v>
+        <v>13290664</v>
       </c>
       <c r="F42" t="n">
-        <v>2909.060809622415</v>
+        <v>1168.835530848947</v>
       </c>
       <c r="G42" t="n">
-        <v>1845.453980664064</v>
+        <v>2068.826858022145</v>
       </c>
       <c r="H42" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="I42" t="n">
-        <v>17855.04</v>
+        <v>39946</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>17800161</v>
+        <v>17035037</v>
       </c>
       <c r="E43" t="n">
-        <v>52370725</v>
+        <v>50122991</v>
       </c>
       <c r="F43" t="n">
-        <v>10744.38065651873</v>
+        <v>7099.242393422294</v>
       </c>
       <c r="G43" t="n">
-        <v>20516.30026411705</v>
+        <v>21016.99625462607</v>
       </c>
       <c r="H43" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="I43" t="n">
-        <v>2244603</v>
+        <v>2322889</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7477605</v>
+        <v>7433225</v>
       </c>
       <c r="F44" t="n">
-        <v>2773.932908040685</v>
+        <v>2684.480560040581</v>
       </c>
       <c r="G44" t="n">
-        <v>2137.739090437349</v>
+        <v>2187.237144059307</v>
       </c>
       <c r="H44" t="n">
         <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>106574</v>
+        <v>100292</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12507399</v>
+        <v>12366956</v>
       </c>
       <c r="E45" t="n">
-        <v>12507399</v>
+        <v>12366956</v>
       </c>
       <c r="F45" t="n">
-        <v>36.8430111906934</v>
+        <v>609.3669597654059</v>
       </c>
       <c r="G45" t="n">
-        <v>15.00163476622168</v>
+        <v>131.8128737330798</v>
       </c>
       <c r="H45" t="n">
-        <v>3.69</v>
+        <v>1.21</v>
       </c>
       <c r="I45" t="n">
-        <v>1300373</v>
+        <v>2477900</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>287816519</v>
+        <v>285621228</v>
       </c>
       <c r="E46" t="n">
-        <v>287816519</v>
+        <v>285621228</v>
       </c>
       <c r="F46" t="n">
-        <v>5817.012625975117</v>
+        <v>12801.98906497612</v>
       </c>
       <c r="G46" t="n">
-        <v>16842.30630634605</v>
+        <v>17210.02163260246</v>
       </c>
       <c r="H46" t="n">
         <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>10416856</v>
+        <v>11903698</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11385555</v>
+        <v>12052149</v>
       </c>
       <c r="E47" t="n">
-        <v>36002409</v>
+        <v>38109820</v>
       </c>
       <c r="F47" t="n">
-        <v>6028.737773675785</v>
+        <v>9171.957615663712</v>
       </c>
       <c r="G47" t="n">
-        <v>6371.844109107782</v>
+        <v>8843.783253355299</v>
       </c>
       <c r="H47" t="n">
-        <v>0.91</v>
+        <v>0.52</v>
       </c>
       <c r="I47" t="n">
-        <v>1417874</v>
+        <v>1699949</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31967024</v>
+        <v>31527768</v>
       </c>
       <c r="E48" t="n">
-        <v>88545483</v>
+        <v>87328789</v>
       </c>
       <c r="F48" t="n">
-        <v>3605.808705063484</v>
+        <v>5604.286374367102</v>
       </c>
       <c r="G48" t="n">
-        <v>3885.935800204496</v>
+        <v>4669.327241497816</v>
       </c>
       <c r="H48" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I48" t="n">
-        <v>11311109</v>
+        <v>10367129</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28322590</v>
+        <v>28480477</v>
       </c>
       <c r="E49" t="n">
-        <v>67186434</v>
+        <v>67560972</v>
       </c>
       <c r="F49" t="n">
-        <v>12875.57841668179</v>
+        <v>12126.35183302701</v>
       </c>
       <c r="G49" t="n">
-        <v>17332.62671362719</v>
+        <v>17000.57819870365</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>246395</v>
+        <v>314931</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11775925</v>
+        <v>11686107</v>
       </c>
       <c r="E50" t="n">
-        <v>17861047</v>
+        <v>17724817</v>
       </c>
       <c r="F50" t="n">
-        <v>4878.491407213247</v>
+        <v>5650.663147779041</v>
       </c>
       <c r="G50" t="n">
-        <v>3580.574126360369</v>
+        <v>3380.695956555198</v>
       </c>
       <c r="H50" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="I50" t="n">
-        <v>715887</v>
+        <v>710808</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>294766046</v>
+        <v>292900810</v>
       </c>
       <c r="E51" t="n">
-        <v>294766046</v>
+        <v>292900810</v>
       </c>
       <c r="F51" t="n">
-        <v>38242.00598484487</v>
+        <v>19731.20487316747</v>
       </c>
       <c r="G51" t="n">
-        <v>70197.6526165057</v>
+        <v>51370.06494712898</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>79599192</v>
+        <v>67492730</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>83048144</v>
+        <v>82491487</v>
       </c>
       <c r="E52" t="n">
-        <v>478559229</v>
+        <v>475351526</v>
       </c>
       <c r="F52" t="n">
-        <v>50417.7184166158</v>
+        <v>54152.50712047765</v>
       </c>
       <c r="G52" t="n">
-        <v>75523.763843521</v>
+        <v>69719.40429700207</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>16800147</v>
+        <v>16629013</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31333885</v>
+        <v>31276627</v>
       </c>
       <c r="E53" t="n">
-        <v>140294658</v>
+        <v>140038288</v>
       </c>
       <c r="F53" t="n">
-        <v>6784.619690738551</v>
+        <v>8016.806183053872</v>
       </c>
       <c r="G53" t="n">
-        <v>11900.63776586254</v>
+        <v>11987.17250438565</v>
       </c>
       <c r="H53" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>16138609</v>
+        <v>22346045</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7840086</v>
+        <v>8002503</v>
       </c>
       <c r="F54" t="n">
-        <v>2355.921858374358</v>
+        <v>5045.580954893051</v>
       </c>
       <c r="G54" t="n">
-        <v>4504.558801037745</v>
+        <v>4927.18525149456</v>
       </c>
       <c r="H54" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="I54" t="n">
-        <v>44664</v>
+        <v>304211</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4593948</v>
+        <v>4325523</v>
       </c>
       <c r="F55" t="n">
-        <v>21.56027376242426</v>
+        <v>3843.090522253719</v>
       </c>
       <c r="G55" t="n">
-        <v>12.34988105864077</v>
+        <v>751.7336618926456</v>
       </c>
       <c r="H55" t="n">
-        <v>1.21</v>
+        <v>0.65</v>
       </c>
       <c r="I55" t="n">
-        <v>235230</v>
+        <v>202950</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122867116</v>
+        <v>124062840</v>
       </c>
       <c r="E56" t="n">
-        <v>2034780072</v>
+        <v>2054582248</v>
       </c>
       <c r="F56" t="n">
-        <v>28286.66371286209</v>
+        <v>172610.4129174027</v>
       </c>
       <c r="G56" t="n">
-        <v>39679.75999030207</v>
+        <v>178626.3839554915</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>10661163</v>
+        <v>11046736</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>76781705</v>
+        <v>77833999</v>
       </c>
       <c r="E57" t="n">
-        <v>77608154</v>
+        <v>78671775</v>
       </c>
       <c r="F57" t="n">
-        <v>15776.87972703866</v>
+        <v>23881.10971822438</v>
       </c>
       <c r="G57" t="n">
-        <v>26291.23440072872</v>
+        <v>24543.38822170145</v>
       </c>
       <c r="H57" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I57" t="n">
-        <v>9397275</v>
+        <v>9602609</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>217031668</v>
+        <v>220496060</v>
       </c>
       <c r="E58" t="n">
-        <v>217031668</v>
+        <v>220496060</v>
       </c>
       <c r="F58" t="n">
-        <v>49391.1407187427</v>
+        <v>78218.63628407303</v>
       </c>
       <c r="G58" t="n">
-        <v>81354.72631525998</v>
+        <v>92983.86921863648</v>
       </c>
       <c r="H58" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>42291449</v>
+        <v>48208608</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22056264</v>
+        <v>21814453</v>
       </c>
       <c r="E59" t="n">
-        <v>131967058</v>
+        <v>130520258</v>
       </c>
       <c r="F59" t="n">
-        <v>29196.59193897676</v>
+        <v>16079.21785324326</v>
       </c>
       <c r="G59" t="n">
-        <v>34197.97864231739</v>
+        <v>12607.76488763</v>
       </c>
       <c r="H59" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I59" t="n">
-        <v>12968102</v>
+        <v>14723597</v>
       </c>
     </row>
     <row r="60">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2698730</v>
+        <v>2578190</v>
       </c>
       <c r="E60" t="n">
-        <v>4980660</v>
+        <v>4758196</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>7.93</v>
+        <v>7.1</v>
       </c>
       <c r="I60" t="n">
-        <v>400131</v>
+        <v>385696</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10868744</v>
+        <v>10656495</v>
       </c>
       <c r="E62" t="n">
-        <v>31980954</v>
+        <v>31193076</v>
       </c>
       <c r="F62" t="n">
-        <v>1552.629266386863</v>
+        <v>3415.019185514033</v>
       </c>
       <c r="G62" t="n">
-        <v>2786.958929997058</v>
+        <v>3325.777308910318</v>
       </c>
       <c r="H62" t="n">
         <v>0.16</v>
       </c>
       <c r="I62" t="n">
-        <v>5355402</v>
+        <v>4902119</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14540125</v>
+        <v>13953698</v>
       </c>
       <c r="E63" t="n">
-        <v>29435595</v>
+        <v>28248409</v>
       </c>
       <c r="F63" t="n">
-        <v>8820.43306254141</v>
+        <v>3629.253372509892</v>
       </c>
       <c r="G63" t="n">
-        <v>15225.43343671281</v>
+        <v>14061.58916990393</v>
       </c>
       <c r="H63" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I63" t="n">
-        <v>496875</v>
+        <v>409582</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32499337</v>
+        <v>32118592</v>
       </c>
       <c r="E64" t="n">
-        <v>230414997</v>
+        <v>227715580</v>
       </c>
       <c r="F64" t="n">
-        <v>42611.49307901994</v>
+        <v>60712.40756060344</v>
       </c>
       <c r="G64" t="n">
-        <v>20204.64083183032</v>
+        <v>54954.06837476797</v>
       </c>
       <c r="H64" t="n">
         <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>2200702</v>
+        <v>2157102</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1278726</v>
+        <v>1277548</v>
       </c>
       <c r="E65" t="n">
-        <v>7918156</v>
+        <v>7910061</v>
       </c>
       <c r="F65" t="n">
-        <v>561.5790588629228</v>
+        <v>382.6846344900594</v>
       </c>
       <c r="G65" t="n">
-        <v>1172.477122746367</v>
+        <v>666.8529487522895</v>
       </c>
       <c r="H65" t="n">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="I65" t="n">
-        <v>766659</v>
+        <v>770136</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>564725120</v>
+        <v>558891123</v>
       </c>
       <c r="E66" t="n">
-        <v>2187097069</v>
+        <v>2164502863</v>
       </c>
       <c r="F66" t="n">
-        <v>36206.9441640044</v>
+        <v>37257.50681089246</v>
       </c>
       <c r="G66" t="n">
-        <v>56782.69733066297</v>
+        <v>73726.82374954228</v>
       </c>
       <c r="H66" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>28352050</v>
+        <v>30352990</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5476278</v>
+        <v>5465208</v>
       </c>
       <c r="E67" t="n">
-        <v>24412005</v>
+        <v>24343002</v>
       </c>
       <c r="F67" t="n">
-        <v>3741.122912283183</v>
+        <v>3518.316735942167</v>
       </c>
       <c r="G67" t="n">
-        <v>14902.1641724116</v>
+        <v>14788.04340649078</v>
       </c>
       <c r="H67" t="n">
-        <v>0.66</v>
+        <v>0.37</v>
       </c>
       <c r="I67" t="n">
-        <v>146577</v>
+        <v>145877</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>101794983</v>
+        <v>103502376</v>
       </c>
       <c r="E68" t="n">
-        <v>963159979</v>
+        <v>979314920</v>
       </c>
       <c r="F68" t="n">
-        <v>5408.881543631055</v>
+        <v>18041.50347479228</v>
       </c>
       <c r="G68" t="n">
-        <v>4608.694735290336</v>
+        <v>18430.73430837793</v>
       </c>
       <c r="H68" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>7817977</v>
+        <v>9215300</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>95907577</v>
+        <v>93724827</v>
       </c>
       <c r="E69" t="n">
-        <v>146309257</v>
+        <v>142979420</v>
       </c>
       <c r="F69" t="n">
-        <v>1712.953892468076</v>
+        <v>14815.99937448477</v>
       </c>
       <c r="G69" t="n">
-        <v>18524.73804337836</v>
+        <v>17076.29938966811</v>
       </c>
       <c r="H69" t="n">
         <v>0.23</v>
       </c>
       <c r="I69" t="n">
-        <v>3039159</v>
+        <v>3810549</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1095390</v>
+        <v>1073022</v>
       </c>
       <c r="E70" t="n">
-        <v>4241591</v>
+        <v>4154975</v>
       </c>
       <c r="F70" t="n">
-        <v>6151.39597037442</v>
+        <v>2260.83857987108</v>
       </c>
       <c r="G70" t="n">
-        <v>2598.355500449025</v>
+        <v>4328.303068906061</v>
       </c>
       <c r="H70" t="n">
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="I70" t="n">
-        <v>241349</v>
+        <v>146034</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>123926421</v>
+        <v>123222025</v>
       </c>
       <c r="E71" t="n">
-        <v>475401696</v>
+        <v>472699520</v>
       </c>
       <c r="F71" t="n">
-        <v>11208.17289915301</v>
+        <v>14412.63749747685</v>
       </c>
       <c r="G71" t="n">
-        <v>18449.82925956135</v>
+        <v>13836.56890938027</v>
       </c>
       <c r="H71" t="n">
         <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>17000117</v>
+        <v>21816148</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3302647</v>
+        <v>3291008</v>
       </c>
       <c r="E72" t="n">
-        <v>31293071</v>
+        <v>31182785</v>
       </c>
       <c r="F72" t="n">
-        <v>4433.295160947127</v>
+        <v>1431.057461851517</v>
       </c>
       <c r="G72" t="n">
-        <v>2590.489034719061</v>
+        <v>1390.731576627167</v>
       </c>
       <c r="H72" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="I72" t="n">
-        <v>177877</v>
+        <v>209050</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35130601</v>
+        <v>32526469</v>
       </c>
       <c r="F73" t="n">
-        <v>2381.634969783176</v>
+        <v>1149.52415797596</v>
       </c>
       <c r="G73" t="n">
-        <v>3046.123026534209</v>
+        <v>4019.258670489327</v>
       </c>
       <c r="H73" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>9889219</v>
+        <v>12217671</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>103134157</v>
+        <v>105891007</v>
       </c>
       <c r="E74" t="n">
-        <v>379815343</v>
+        <v>386046467</v>
       </c>
       <c r="F74" t="n">
-        <v>108.4947509246289</v>
+        <v>414.6932344228503</v>
       </c>
       <c r="G74" t="n">
-        <v>72.71152210494235</v>
+        <v>940.4676868252523</v>
       </c>
       <c r="H74" t="n">
-        <v>1.13</v>
+        <v>0.47</v>
       </c>
       <c r="I74" t="n">
-        <v>199846</v>
+        <v>354879</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20006803</v>
+        <v>19551362</v>
       </c>
       <c r="E75" t="n">
-        <v>20006803</v>
+        <v>19551362</v>
       </c>
       <c r="F75" t="n">
-        <v>2030.849540736065</v>
+        <v>4500.661451713527</v>
       </c>
       <c r="G75" t="n">
-        <v>3042.02077773901</v>
+        <v>6818.61516675666</v>
       </c>
       <c r="H75" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="I75" t="n">
-        <v>2961750</v>
+        <v>4626361</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>432792731</v>
+        <v>424342451</v>
       </c>
       <c r="E76" t="n">
-        <v>1504227180</v>
+        <v>1474857138</v>
       </c>
       <c r="F76" t="n">
-        <v>90015.34941566973</v>
+        <v>167393.7386296439</v>
       </c>
       <c r="G76" t="n">
-        <v>98007.84265442897</v>
+        <v>183135.8041402489</v>
       </c>
       <c r="H76" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>31972495</v>
+        <v>36259095</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5595928094</v>
+        <v>5557752055</v>
       </c>
       <c r="E77" t="n">
-        <v>5595405293</v>
+        <v>5557752055</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>7.71</v>
+        <v>51.28</v>
       </c>
       <c r="I77" t="n">
-        <v>12139751</v>
+        <v>15866792</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7304050</v>
+        <v>7535695</v>
       </c>
       <c r="E78" t="n">
-        <v>18975135</v>
+        <v>19576925</v>
       </c>
       <c r="F78" t="n">
-        <v>5108.291308151138</v>
+        <v>2923.501548145689</v>
       </c>
       <c r="G78" t="n">
-        <v>2429.250553403092</v>
+        <v>2541.061647475186</v>
       </c>
       <c r="H78" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="I78" t="n">
-        <v>425226</v>
+        <v>445003</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106892539</v>
+        <v>109279652</v>
       </c>
       <c r="E79" t="n">
-        <v>161954546</v>
+        <v>165571299</v>
       </c>
       <c r="F79" t="n">
-        <v>42265.45230572556</v>
+        <v>39020.23544924754</v>
       </c>
       <c r="G79" t="n">
-        <v>39913.928085755</v>
+        <v>44749.58606868049</v>
       </c>
       <c r="H79" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="I79" t="n">
-        <v>5119174</v>
+        <v>5742606</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2040752</v>
+        <v>2002675</v>
       </c>
       <c r="E80" t="n">
-        <v>8163009</v>
+        <v>8010700</v>
       </c>
       <c r="F80" t="n">
-        <v>2132.744769391355</v>
+        <v>2133.139328790708</v>
       </c>
       <c r="G80" t="n">
-        <v>1812.714123987483</v>
+        <v>2484.50408068509</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="I80" t="n">
-        <v>5041144</v>
+        <v>5133201</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2519660</v>
+        <v>2671493</v>
       </c>
       <c r="F81" t="n">
-        <v>1322.120647867308</v>
+        <v>2586.215227751376</v>
       </c>
       <c r="G81" t="n">
-        <v>850.6476643351348</v>
+        <v>1268.603902073484</v>
       </c>
       <c r="H81" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I81" t="n">
-        <v>533591</v>
+        <v>874156</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>374174083</v>
+        <v>374151871</v>
       </c>
       <c r="E82" t="n">
-        <v>2138137616</v>
+        <v>2138010690</v>
       </c>
       <c r="F82" t="n">
-        <v>20749.78515845469</v>
+        <v>23250.10862531461</v>
       </c>
       <c r="G82" t="n">
-        <v>66598.87020163779</v>
+        <v>54736.15513921185</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>45117295</v>
+        <v>55106440</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4242888</v>
+        <v>4225255</v>
       </c>
       <c r="F2" t="n">
-        <v>2249.71875811817</v>
+        <v>2809.106422558694</v>
       </c>
       <c r="G2" t="n">
-        <v>2706.940292404113</v>
+        <v>2351.408126338466</v>
       </c>
       <c r="H2" t="n">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
       <c r="I2" t="n">
-        <v>167483</v>
+        <v>172849</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1405831</v>
+        <v>1336992</v>
       </c>
       <c r="E3" t="n">
-        <v>4425801</v>
+        <v>4209083</v>
       </c>
       <c r="F3" t="n">
-        <v>4568.339602645962</v>
+        <v>4867.671851683334</v>
       </c>
       <c r="G3" t="n">
-        <v>4291.198968380043</v>
+        <v>5206.930939492575</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>102329</v>
+        <v>95575</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>235628698</v>
+        <v>223445282</v>
       </c>
       <c r="E4" t="n">
-        <v>1477594445</v>
+        <v>1401193957</v>
       </c>
       <c r="F4" t="n">
-        <v>81581.2391638929</v>
+        <v>87361.57711357012</v>
       </c>
       <c r="G4" t="n">
-        <v>97374.67183962891</v>
+        <v>94420.28254935899</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>17289559</v>
+        <v>26756838</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>132248735</v>
+        <v>118935895</v>
       </c>
       <c r="E5" t="n">
-        <v>146552266</v>
+        <v>131799559</v>
       </c>
       <c r="F5" t="n">
-        <v>34916.6506037681</v>
+        <v>36814.76329640127</v>
       </c>
       <c r="G5" t="n">
-        <v>23630.69481199362</v>
+        <v>33413.04123077582</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I5" t="n">
-        <v>34945772</v>
+        <v>33443508</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>111067391</v>
+        <v>98056526</v>
       </c>
       <c r="E6" t="n">
-        <v>435350916</v>
+        <v>384352222</v>
       </c>
       <c r="F6" t="n">
-        <v>15016.85285156362</v>
+        <v>13460.01689854308</v>
       </c>
       <c r="G6" t="n">
-        <v>13765.79939122294</v>
+        <v>12130.47280672953</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>18872314</v>
+        <v>25146210</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3878600</v>
+        <v>3509494</v>
       </c>
       <c r="E7" t="n">
-        <v>23783703</v>
+        <v>21519929</v>
       </c>
       <c r="F7" t="n">
-        <v>2797.768203445956</v>
+        <v>3079.956893531783</v>
       </c>
       <c r="G7" t="n">
-        <v>2878.587658853777</v>
+        <v>2686.888855720875</v>
       </c>
       <c r="H7" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I7" t="n">
-        <v>345617</v>
+        <v>356343</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>186735</v>
+        <v>182593</v>
       </c>
       <c r="E8" t="n">
-        <v>2054288</v>
+        <v>2008722</v>
       </c>
       <c r="F8" t="n">
-        <v>2083.825350141101</v>
+        <v>2322.19431822175</v>
       </c>
       <c r="G8" t="n">
-        <v>2186.127728156636</v>
+        <v>2141.076835852229</v>
       </c>
       <c r="H8" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>66143</v>
+        <v>70424</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70178331</v>
+        <v>66514181</v>
       </c>
       <c r="E9" t="n">
-        <v>121297094</v>
+        <v>114935142</v>
       </c>
       <c r="F9" t="n">
-        <v>9306.831188784172</v>
+        <v>9983.895454278319</v>
       </c>
       <c r="G9" t="n">
-        <v>8785.020583933312</v>
+        <v>9185.217978542481</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="I9" t="n">
-        <v>558548</v>
+        <v>703870</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8887619</v>
+        <v>8731895</v>
       </c>
       <c r="E10" t="n">
-        <v>12579764</v>
+        <v>12359349</v>
       </c>
       <c r="F10" t="n">
-        <v>3160.206100755494</v>
+        <v>3052.492566266089</v>
       </c>
       <c r="G10" t="n">
-        <v>3145.978864720117</v>
+        <v>2912.654741325486</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>7055.62</v>
+        <v>17575.8</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>433881284</v>
+        <v>397091169</v>
       </c>
       <c r="E11" t="n">
-        <v>433881284</v>
+        <v>397091169</v>
       </c>
       <c r="F11" t="n">
-        <v>15828.54230396815</v>
+        <v>41823.92022124287</v>
       </c>
       <c r="G11" t="n">
-        <v>40596.95412760937</v>
+        <v>40466.77280377819</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>31866722</v>
+        <v>38482250</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>292279</v>
+        <v>284704</v>
       </c>
       <c r="E12" t="n">
-        <v>1364389</v>
+        <v>1329028</v>
       </c>
       <c r="F12" t="n">
-        <v>1693.877026919637</v>
+        <v>337.3669528893503</v>
       </c>
       <c r="G12" t="n">
-        <v>272.4067976011858</v>
+        <v>1080.667244130561</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="I12" t="n">
-        <v>690300</v>
+        <v>685232</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1596515</v>
+        <v>1631593</v>
       </c>
       <c r="F13" t="n">
-        <v>1218.237800410949</v>
+        <v>1143.179730368252</v>
       </c>
       <c r="G13" t="n">
-        <v>3246.852877651384</v>
+        <v>3295.305363396544</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>221288</v>
+        <v>169917</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11044127</v>
+        <v>10820944</v>
       </c>
       <c r="E14" t="n">
-        <v>27486835</v>
+        <v>26931374</v>
       </c>
       <c r="F14" t="n">
-        <v>1068.21577116542</v>
+        <v>1260.878080742806</v>
       </c>
       <c r="G14" t="n">
-        <v>1051.321574689656</v>
+        <v>1115.326058135737</v>
       </c>
       <c r="H14" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="I14" t="n">
-        <v>1367473</v>
+        <v>1343955</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>106729246</v>
+        <v>100355218</v>
       </c>
       <c r="E15" t="n">
-        <v>413277405</v>
+        <v>388363458</v>
       </c>
       <c r="F15" t="n">
-        <v>2754.281280960281</v>
+        <v>3369.883482621733</v>
       </c>
       <c r="G15" t="n">
-        <v>8583.396420368925</v>
+        <v>7420.173737763444</v>
       </c>
       <c r="H15" t="n">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="I15" t="n">
-        <v>7663489</v>
+        <v>7661067</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4757266</v>
+        <v>4511556</v>
       </c>
       <c r="E16" t="n">
-        <v>7002953</v>
+        <v>6641255</v>
       </c>
       <c r="F16" t="n">
-        <v>2597.818616336752</v>
+        <v>332.2517592406516</v>
       </c>
       <c r="G16" t="n">
-        <v>1275.780879098975</v>
+        <v>639.0506809396163</v>
       </c>
       <c r="H16" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="I16" t="n">
-        <v>630138</v>
+        <v>663660</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>491594</v>
+        <v>451452</v>
       </c>
       <c r="E17" t="n">
-        <v>2027173</v>
+        <v>1861641</v>
       </c>
       <c r="F17" t="n">
-        <v>449.9485099209729</v>
+        <v>409.3086282129422</v>
       </c>
       <c r="G17" t="n">
-        <v>204.9728965654174</v>
+        <v>409.7324536391208</v>
       </c>
       <c r="H17" t="n">
-        <v>0.74</v>
+        <v>1.57</v>
       </c>
       <c r="I17" t="n">
-        <v>125396</v>
+        <v>74421</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>131144603</v>
+        <v>116208547</v>
       </c>
       <c r="E18" t="n">
-        <v>131144603</v>
+        <v>116208547</v>
       </c>
       <c r="F18" t="n">
-        <v>73922.7287478615</v>
+        <v>53584.62468494277</v>
       </c>
       <c r="G18" t="n">
-        <v>120763.6414539915</v>
+        <v>95831.89388526882</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I18" t="n">
-        <v>70865491</v>
+        <v>119466159</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66903570</v>
+        <v>61592010</v>
       </c>
       <c r="E19" t="n">
-        <v>343095231</v>
+        <v>315856460</v>
       </c>
       <c r="F19" t="n">
-        <v>8576.949247330993</v>
+        <v>8449.365582280108</v>
       </c>
       <c r="G19" t="n">
-        <v>10028.93179857339</v>
+        <v>7450.032909378479</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="I19" t="n">
-        <v>19423118</v>
+        <v>27575530</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>230496942</v>
+        <v>218061756</v>
       </c>
       <c r="E20" t="n">
-        <v>230496942</v>
+        <v>218061756</v>
       </c>
       <c r="F20" t="n">
-        <v>28305.99218082009</v>
+        <v>49809.75570317252</v>
       </c>
       <c r="G20" t="n">
-        <v>65396.49649756817</v>
+        <v>48210.54302098497</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I20" t="n">
-        <v>18319175</v>
+        <v>46013929</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>154851087</v>
+        <v>140655782</v>
       </c>
       <c r="E21" t="n">
-        <v>203765921</v>
+        <v>185086559</v>
       </c>
       <c r="F21" t="n">
-        <v>14950.12148220543</v>
+        <v>10523.13539764821</v>
       </c>
       <c r="G21" t="n">
-        <v>17640.8920605478</v>
+        <v>19437.25222150843</v>
       </c>
       <c r="H21" t="n">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>5135464</v>
+        <v>8966763</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70694055</v>
+        <v>65608767</v>
       </c>
       <c r="E22" t="n">
-        <v>197941720</v>
+        <v>183729469</v>
       </c>
       <c r="F22" t="n">
-        <v>16027.90509842479</v>
+        <v>16163.28380390892</v>
       </c>
       <c r="G22" t="n">
-        <v>24402.9202104692</v>
+        <v>16004.32784545971</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I22" t="n">
-        <v>20835892</v>
+        <v>24345242</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76553211</v>
+        <v>73515929</v>
       </c>
       <c r="E23" t="n">
-        <v>159607296</v>
+        <v>153274807</v>
       </c>
       <c r="F23" t="n">
-        <v>14210.85160791514</v>
+        <v>16045.33350981772</v>
       </c>
       <c r="G23" t="n">
-        <v>23865.57920783119</v>
+        <v>23390.44725326691</v>
       </c>
       <c r="H23" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>17962102</v>
+        <v>24125599</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>603009291</v>
+        <v>550701268</v>
       </c>
       <c r="E24" t="n">
-        <v>603009291</v>
+        <v>550701268</v>
       </c>
       <c r="F24" t="n">
-        <v>101617.7491055207</v>
+        <v>92105.96633233574</v>
       </c>
       <c r="G24" t="n">
-        <v>164461.2058884411</v>
+        <v>143090.7627484403</v>
       </c>
       <c r="H24" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>352944584</v>
+        <v>497326338</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>185708003</v>
+        <v>174498349</v>
       </c>
       <c r="E25" t="n">
-        <v>645166387</v>
+        <v>606223035</v>
       </c>
       <c r="F25" t="n">
-        <v>72849.71351294417</v>
+        <v>74455.81923846902</v>
       </c>
       <c r="G25" t="n">
-        <v>129133.7909944677</v>
+        <v>117498.3840036478</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>27376001</v>
+        <v>39858354</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5278227</v>
+        <v>4891141</v>
       </c>
       <c r="E26" t="n">
-        <v>7153579</v>
+        <v>6624499</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0814932477011</v>
+        <v>2353.385842670954</v>
       </c>
       <c r="G26" t="n">
-        <v>512.1305849721623</v>
+        <v>248.3795219433436</v>
       </c>
       <c r="H26" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="I26" t="n">
-        <v>4589001</v>
+        <v>5605362</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>13680957</v>
+        <v>12733739</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.872678036091</v>
+        <v>2352.64625674841</v>
       </c>
       <c r="G27" t="n">
-        <v>2447.690041499258</v>
+        <v>1898.016916271091</v>
       </c>
       <c r="H27" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I27" t="n">
-        <v>214363</v>
+        <v>235727</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24197237</v>
+        <v>22651002</v>
       </c>
       <c r="E28" t="n">
-        <v>34173983</v>
+        <v>31990221</v>
       </c>
       <c r="F28" t="n">
-        <v>222.3268501795411</v>
+        <v>882.3640725311554</v>
       </c>
       <c r="G28" t="n">
-        <v>428.7680211838249</v>
+        <v>181.9000985521611</v>
       </c>
       <c r="H28" t="n">
-        <v>0.71</v>
+        <v>0.45</v>
       </c>
       <c r="I28" t="n">
-        <v>95996</v>
+        <v>105522</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>247948422</v>
+        <v>219333320</v>
       </c>
       <c r="E29" t="n">
-        <v>1070283034</v>
+        <v>946764369</v>
       </c>
       <c r="F29" t="n">
-        <v>79182.40797776394</v>
+        <v>118002.1276247055</v>
       </c>
       <c r="G29" t="n">
-        <v>137287.9518318477</v>
+        <v>127609.6488568626</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="I29" t="n">
-        <v>77178953</v>
+        <v>121084542</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9296118</v>
+        <v>8171294</v>
       </c>
       <c r="E30" t="n">
-        <v>111238111</v>
+        <v>97739734</v>
       </c>
       <c r="F30" t="n">
-        <v>1137.505870075607</v>
+        <v>2258.276509460703</v>
       </c>
       <c r="G30" t="n">
-        <v>3368.623353151838</v>
+        <v>1831.536120697763</v>
       </c>
       <c r="H30" t="n">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="I30" t="n">
-        <v>309190</v>
+        <v>433393</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13109407</v>
+        <v>12107323</v>
       </c>
       <c r="E31" t="n">
-        <v>32773518</v>
+        <v>30268307</v>
       </c>
       <c r="F31" t="n">
-        <v>3494.830121973549</v>
+        <v>3173.470496801561</v>
       </c>
       <c r="G31" t="n">
-        <v>7544.827857076996</v>
+        <v>1465.410415305312</v>
       </c>
       <c r="H31" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>3839571</v>
+        <v>4931255</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17710173</v>
+        <v>17262691</v>
       </c>
       <c r="F32" t="n">
-        <v>2166.505669218245</v>
+        <v>2581.947317914203</v>
       </c>
       <c r="G32" t="n">
-        <v>3958.006281282665</v>
+        <v>2482.422267362596</v>
       </c>
       <c r="H32" t="n">
-        <v>0.39</v>
+        <v>0.86</v>
       </c>
       <c r="I32" t="n">
-        <v>38646</v>
+        <v>36021</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1658526</v>
+        <v>1693453</v>
       </c>
       <c r="E33" t="n">
-        <v>6180606</v>
+        <v>6310410</v>
       </c>
       <c r="F33" t="n">
-        <v>3915.031324555397</v>
+        <v>2641.115097658505</v>
       </c>
       <c r="G33" t="n">
-        <v>3255.245172113897</v>
+        <v>2517.754935740734</v>
       </c>
       <c r="H33" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I33" t="n">
-        <v>660446</v>
+        <v>575307</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3852430</v>
+        <v>3705553</v>
       </c>
       <c r="E34" t="n">
-        <v>11094237</v>
+        <v>10671246</v>
       </c>
       <c r="F34" t="n">
-        <v>4118.047277347538</v>
+        <v>179.858134186145</v>
       </c>
       <c r="G34" t="n">
-        <v>5464.073722733722</v>
+        <v>81.89521894735846</v>
       </c>
       <c r="H34" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="I34" t="n">
-        <v>373582</v>
+        <v>351349</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13639981</v>
+        <v>11697983</v>
       </c>
       <c r="E35" t="n">
-        <v>66060605</v>
+        <v>56655200</v>
       </c>
       <c r="F35" t="n">
-        <v>3231.97884382029</v>
+        <v>5636.923091822373</v>
       </c>
       <c r="G35" t="n">
-        <v>2635.010409500659</v>
+        <v>3271.275440334349</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>3390207</v>
+        <v>5087971</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1345612</v>
+        <v>1254432</v>
       </c>
       <c r="E36" t="n">
-        <v>8806993</v>
+        <v>8210226</v>
       </c>
       <c r="F36" t="n">
-        <v>4304.932301402661</v>
+        <v>1815.537560437002</v>
       </c>
       <c r="G36" t="n">
-        <v>3377.260324540464</v>
+        <v>3569.798544428291</v>
       </c>
       <c r="H36" t="n">
-        <v>0.57</v>
+        <v>0.72</v>
       </c>
       <c r="I36" t="n">
-        <v>416550</v>
+        <v>82575</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1904495021</v>
+        <v>1829751312</v>
       </c>
       <c r="F37" t="n">
-        <v>538.0417963094372</v>
+        <v>115.2488377636152</v>
       </c>
       <c r="G37" t="n">
-        <v>244.5747751561335</v>
+        <v>709.0899001721851</v>
       </c>
       <c r="H37" t="n">
-        <v>0.74</v>
+        <v>2.06</v>
       </c>
       <c r="I37" t="n">
-        <v>29043194</v>
+        <v>35600339</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1836596</v>
+        <v>1770382</v>
       </c>
       <c r="E38" t="n">
-        <v>13170044</v>
+        <v>12695232</v>
       </c>
       <c r="F38" t="n">
-        <v>4733.134474779614</v>
+        <v>489.5346891248918</v>
       </c>
       <c r="G38" t="n">
-        <v>6391.949237697313</v>
+        <v>163.148536127467</v>
       </c>
       <c r="H38" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="I38" t="n">
-        <v>1664271</v>
+        <v>1792491</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>183616507</v>
+        <v>165803520</v>
       </c>
       <c r="E39" t="n">
-        <v>1039749484</v>
+        <v>938881409</v>
       </c>
       <c r="F39" t="n">
-        <v>25178.82184235852</v>
+        <v>25957.51001766064</v>
       </c>
       <c r="G39" t="n">
-        <v>41666.97669125247</v>
+        <v>37460.5809347351</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I39" t="n">
-        <v>42626689</v>
+        <v>65626039</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>124473155</v>
+        <v>110954173</v>
       </c>
       <c r="E40" t="n">
-        <v>922023369</v>
+        <v>821882763</v>
       </c>
       <c r="F40" t="n">
-        <v>91336.27248573444</v>
+        <v>123791.6497369526</v>
       </c>
       <c r="G40" t="n">
-        <v>101688.5351884071</v>
+        <v>132382.7727058211</v>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>11524094</v>
+        <v>15474180</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>300723081</v>
+        <v>276322068</v>
       </c>
       <c r="E41" t="n">
-        <v>2705491305</v>
+        <v>2485964662</v>
       </c>
       <c r="F41" t="n">
-        <v>83068.34742504143</v>
+        <v>51067.94210267494</v>
       </c>
       <c r="G41" t="n">
-        <v>158028.0109984579</v>
+        <v>124035.4310232316</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>42889273</v>
+        <v>64120964</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1594880</v>
+        <v>1485907</v>
       </c>
       <c r="E42" t="n">
-        <v>13290664</v>
+        <v>12382560</v>
       </c>
       <c r="F42" t="n">
-        <v>1168.835530848947</v>
+        <v>818.9927815083959</v>
       </c>
       <c r="G42" t="n">
-        <v>2068.826858022145</v>
+        <v>1738.477897735092</v>
       </c>
       <c r="H42" t="n">
-        <v>1.85</v>
+        <v>0.89</v>
       </c>
       <c r="I42" t="n">
-        <v>39946</v>
+        <v>74437</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>17035037</v>
+        <v>16412497</v>
       </c>
       <c r="E43" t="n">
-        <v>50122991</v>
+        <v>48663900</v>
       </c>
       <c r="F43" t="n">
-        <v>7099.242393422294</v>
+        <v>13465.33403062953</v>
       </c>
       <c r="G43" t="n">
-        <v>21016.99625462607</v>
+        <v>19825.80610776264</v>
       </c>
       <c r="H43" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I43" t="n">
-        <v>2322889</v>
+        <v>2916407</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7433225</v>
+        <v>7405566</v>
       </c>
       <c r="F44" t="n">
-        <v>2684.480560040581</v>
+        <v>1574.30094932307</v>
       </c>
       <c r="G44" t="n">
-        <v>2187.237144059307</v>
+        <v>2048.449938906334</v>
       </c>
       <c r="H44" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="I44" t="n">
-        <v>100292</v>
+        <v>89383</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12366956</v>
+        <v>11430623</v>
       </c>
       <c r="E45" t="n">
-        <v>12366956</v>
+        <v>11430623</v>
       </c>
       <c r="F45" t="n">
-        <v>609.3669597654059</v>
+        <v>517.1365693656538</v>
       </c>
       <c r="G45" t="n">
-        <v>131.8128737330798</v>
+        <v>260.5520403002554</v>
       </c>
       <c r="H45" t="n">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="I45" t="n">
-        <v>2477900</v>
+        <v>3609372</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>285621228</v>
+        <v>268691461</v>
       </c>
       <c r="E46" t="n">
-        <v>285621228</v>
+        <v>268691461</v>
       </c>
       <c r="F46" t="n">
-        <v>12801.98906497612</v>
+        <v>12067.42073370259</v>
       </c>
       <c r="G46" t="n">
-        <v>17210.02163260246</v>
+        <v>16384.72473676794</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="I46" t="n">
-        <v>11903698</v>
+        <v>20078665</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12052149</v>
+        <v>11571570</v>
       </c>
       <c r="E47" t="n">
-        <v>38109820</v>
+        <v>36588837</v>
       </c>
       <c r="F47" t="n">
-        <v>9171.957615663712</v>
+        <v>6702.762047231838</v>
       </c>
       <c r="G47" t="n">
-        <v>8843.783253355299</v>
+        <v>8676.263754834561</v>
       </c>
       <c r="H47" t="n">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="I47" t="n">
-        <v>1699949</v>
+        <v>1374527</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31527768</v>
+        <v>29270266</v>
       </c>
       <c r="E48" t="n">
-        <v>87328789</v>
+        <v>81075733</v>
       </c>
       <c r="F48" t="n">
-        <v>5604.286374367102</v>
+        <v>5176.309528198383</v>
       </c>
       <c r="G48" t="n">
-        <v>4669.327241497816</v>
+        <v>2899.372576189384</v>
       </c>
       <c r="H48" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I48" t="n">
-        <v>10367129</v>
+        <v>9602733</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28480477</v>
+        <v>26795000</v>
       </c>
       <c r="E49" t="n">
-        <v>67560972</v>
+        <v>63562707</v>
       </c>
       <c r="F49" t="n">
-        <v>12126.35183302701</v>
+        <v>11518.93660400922</v>
       </c>
       <c r="G49" t="n">
-        <v>17000.57819870365</v>
+        <v>11760.71430851372</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>314931</v>
+        <v>437852</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11686107</v>
+        <v>11377402</v>
       </c>
       <c r="E50" t="n">
-        <v>17724817</v>
+        <v>17235943</v>
       </c>
       <c r="F50" t="n">
-        <v>5650.663147779041</v>
+        <v>2519.260424194727</v>
       </c>
       <c r="G50" t="n">
-        <v>3380.695956555198</v>
+        <v>2457.688923019623</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="I50" t="n">
-        <v>710808</v>
+        <v>751993</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>292900810</v>
+        <v>258888551</v>
       </c>
       <c r="E51" t="n">
-        <v>292900810</v>
+        <v>258888551</v>
       </c>
       <c r="F51" t="n">
-        <v>19731.20487316747</v>
+        <v>26172.70507282793</v>
       </c>
       <c r="G51" t="n">
-        <v>51370.06494712898</v>
+        <v>34589.02822540422</v>
       </c>
       <c r="H51" t="n">
         <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>67492730</v>
+        <v>94703300</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>82491487</v>
+        <v>76289763</v>
       </c>
       <c r="E52" t="n">
-        <v>475351526</v>
+        <v>439614523</v>
       </c>
       <c r="F52" t="n">
-        <v>54152.50712047765</v>
+        <v>51758.27723405436</v>
       </c>
       <c r="G52" t="n">
-        <v>69719.40429700207</v>
+        <v>66826.90479912788</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>16629013</v>
+        <v>20861482</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31276627</v>
+        <v>27975951</v>
       </c>
       <c r="E53" t="n">
-        <v>140038288</v>
+        <v>125259808</v>
       </c>
       <c r="F53" t="n">
-        <v>8016.806183053872</v>
+        <v>9805.289134514811</v>
       </c>
       <c r="G53" t="n">
-        <v>11987.17250438565</v>
+        <v>9923.159618817921</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I53" t="n">
-        <v>22346045</v>
+        <v>32244175</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8002503</v>
+        <v>7805570</v>
       </c>
       <c r="F54" t="n">
-        <v>5045.580954893051</v>
+        <v>4990.45568541939</v>
       </c>
       <c r="G54" t="n">
-        <v>4927.18525149456</v>
+        <v>4733.240610071545</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I54" t="n">
-        <v>304211</v>
+        <v>299694</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4325523</v>
+        <v>4129227</v>
       </c>
       <c r="F55" t="n">
-        <v>3843.090522253719</v>
+        <v>4404.746823327044</v>
       </c>
       <c r="G55" t="n">
-        <v>751.7336618926456</v>
+        <v>680.1626763427921</v>
       </c>
       <c r="H55" t="n">
-        <v>0.65</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>202950</v>
+        <v>232852</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124062840</v>
+        <v>124345128</v>
       </c>
       <c r="E56" t="n">
-        <v>2054582248</v>
+        <v>2059257163</v>
       </c>
       <c r="F56" t="n">
-        <v>172610.4129174027</v>
+        <v>164441.1355095732</v>
       </c>
       <c r="G56" t="n">
-        <v>178626.3839554915</v>
+        <v>178884.1767549489</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>11046736</v>
+        <v>11128278</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>77833999</v>
+        <v>74615030</v>
       </c>
       <c r="E57" t="n">
-        <v>78671775</v>
+        <v>75418157</v>
       </c>
       <c r="F57" t="n">
-        <v>23881.10971822438</v>
+        <v>16258.85666374495</v>
       </c>
       <c r="G57" t="n">
-        <v>24543.38822170145</v>
+        <v>28768.4892218516</v>
       </c>
       <c r="H57" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I57" t="n">
-        <v>9602609</v>
+        <v>13174634</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>220496060</v>
+        <v>205001283</v>
       </c>
       <c r="E58" t="n">
-        <v>220496060</v>
+        <v>205001283</v>
       </c>
       <c r="F58" t="n">
-        <v>78218.63628407303</v>
+        <v>43219.15976976638</v>
       </c>
       <c r="G58" t="n">
-        <v>92983.86921863648</v>
+        <v>67908.37985181314</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I58" t="n">
-        <v>48208608</v>
+        <v>60556050</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>21814453</v>
+        <v>19967141</v>
       </c>
       <c r="E59" t="n">
-        <v>130520258</v>
+        <v>119467419</v>
       </c>
       <c r="F59" t="n">
-        <v>16079.21785324326</v>
+        <v>27737.86656348639</v>
       </c>
       <c r="G59" t="n">
-        <v>12607.76488763</v>
+        <v>29256.47204469841</v>
       </c>
       <c r="H59" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I59" t="n">
-        <v>14723597</v>
+        <v>19879481</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2578190</v>
+        <v>2452578</v>
       </c>
       <c r="E60" t="n">
-        <v>4758196</v>
+        <v>4526373</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1252.23584752566</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>4.634496054660017</v>
       </c>
       <c r="H60" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>385696</v>
+        <v>281151</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10656495</v>
+        <v>10509133</v>
       </c>
       <c r="E62" t="n">
-        <v>31193076</v>
+        <v>30760123</v>
       </c>
       <c r="F62" t="n">
-        <v>3415.019185514033</v>
+        <v>4314.129352398553</v>
       </c>
       <c r="G62" t="n">
-        <v>3325.777308910318</v>
+        <v>3643.397606296137</v>
       </c>
       <c r="H62" t="n">
         <v>0.16</v>
       </c>
       <c r="I62" t="n">
-        <v>4902119</v>
+        <v>5987406</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13953698</v>
+        <v>14175639</v>
       </c>
       <c r="E63" t="n">
-        <v>28248409</v>
+        <v>28697716</v>
       </c>
       <c r="F63" t="n">
-        <v>3629.253372509892</v>
+        <v>4385.594930982591</v>
       </c>
       <c r="G63" t="n">
-        <v>14061.58916990393</v>
+        <v>7276.806811349254</v>
       </c>
       <c r="H63" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I63" t="n">
-        <v>409582</v>
+        <v>445775</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32118592</v>
+        <v>29797344</v>
       </c>
       <c r="E64" t="n">
-        <v>227715580</v>
+        <v>211258309</v>
       </c>
       <c r="F64" t="n">
-        <v>60712.40756060344</v>
+        <v>22421.2413043956</v>
       </c>
       <c r="G64" t="n">
-        <v>54954.06837476797</v>
+        <v>19958.03036568718</v>
       </c>
       <c r="H64" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I64" t="n">
-        <v>2157102</v>
+        <v>3117579</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1277548</v>
+        <v>1254536</v>
       </c>
       <c r="E65" t="n">
-        <v>7910061</v>
+        <v>7765991</v>
       </c>
       <c r="F65" t="n">
-        <v>382.6846344900594</v>
+        <v>2057.832443840186</v>
       </c>
       <c r="G65" t="n">
-        <v>666.8529487522895</v>
+        <v>2257.749606672254</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>770136</v>
+        <v>764030</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>558891123</v>
+        <v>510362682</v>
       </c>
       <c r="E66" t="n">
-        <v>2164502863</v>
+        <v>1976559367</v>
       </c>
       <c r="F66" t="n">
-        <v>37257.50681089246</v>
+        <v>33417.1394526595</v>
       </c>
       <c r="G66" t="n">
-        <v>73726.82374954228</v>
+        <v>52203.23686650332</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I66" t="n">
-        <v>30352990</v>
+        <v>61982853</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5465208</v>
+        <v>5420100</v>
       </c>
       <c r="E67" t="n">
-        <v>24343002</v>
+        <v>24094817</v>
       </c>
       <c r="F67" t="n">
-        <v>3518.316735942167</v>
+        <v>2521.718151983194</v>
       </c>
       <c r="G67" t="n">
-        <v>14788.04340649078</v>
+        <v>1153.445774485357</v>
       </c>
       <c r="H67" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I67" t="n">
-        <v>145877</v>
+        <v>161005</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>103502376</v>
+        <v>97362743</v>
       </c>
       <c r="E68" t="n">
-        <v>979314920</v>
+        <v>921223176</v>
       </c>
       <c r="F68" t="n">
-        <v>18041.50347479228</v>
+        <v>15675.73175222382</v>
       </c>
       <c r="G68" t="n">
-        <v>18430.73430837793</v>
+        <v>6810.003491609246</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I68" t="n">
-        <v>9215300</v>
+        <v>12362120</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>93724827</v>
+        <v>83860882</v>
       </c>
       <c r="E69" t="n">
-        <v>142979420</v>
+        <v>127931741</v>
       </c>
       <c r="F69" t="n">
-        <v>14815.99937448477</v>
+        <v>12156.09715679248</v>
       </c>
       <c r="G69" t="n">
-        <v>17076.29938966811</v>
+        <v>13729.85336642877</v>
       </c>
       <c r="H69" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="I69" t="n">
-        <v>3810549</v>
+        <v>5691003</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1073022</v>
+        <v>1050141</v>
       </c>
       <c r="E70" t="n">
-        <v>4154975</v>
+        <v>4066374</v>
       </c>
       <c r="F70" t="n">
-        <v>2260.83857987108</v>
+        <v>3158.035548238242</v>
       </c>
       <c r="G70" t="n">
-        <v>4328.303068906061</v>
+        <v>2711.920494945527</v>
       </c>
       <c r="H70" t="n">
-        <v>0.84</v>
+        <v>0.47</v>
       </c>
       <c r="I70" t="n">
-        <v>146034</v>
+        <v>132623</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>123222025</v>
+        <v>118960145</v>
       </c>
       <c r="E71" t="n">
-        <v>472699520</v>
+        <v>456350263</v>
       </c>
       <c r="F71" t="n">
-        <v>14412.63749747685</v>
+        <v>18060.5518460782</v>
       </c>
       <c r="G71" t="n">
-        <v>13836.56890938027</v>
+        <v>9497.931059693183</v>
       </c>
       <c r="H71" t="n">
         <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>21816148</v>
+        <v>30478841</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3291008</v>
+        <v>2943518</v>
       </c>
       <c r="E72" t="n">
-        <v>31182785</v>
+        <v>27890272</v>
       </c>
       <c r="F72" t="n">
-        <v>1431.057461851517</v>
+        <v>4280.536741595321</v>
       </c>
       <c r="G72" t="n">
-        <v>1390.731576627167</v>
+        <v>1200.262028169287</v>
       </c>
       <c r="H72" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I72" t="n">
-        <v>209050</v>
+        <v>197275</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>32526469</v>
+        <v>34125066</v>
       </c>
       <c r="F73" t="n">
-        <v>1149.52415797596</v>
+        <v>3066.986415222865</v>
       </c>
       <c r="G73" t="n">
-        <v>4019.258670489327</v>
+        <v>865.5718117223638</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I73" t="n">
-        <v>12217671</v>
+        <v>10243293</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>105891007</v>
+        <v>102307639</v>
       </c>
       <c r="E74" t="n">
-        <v>386046467</v>
+        <v>372970104</v>
       </c>
       <c r="F74" t="n">
-        <v>414.6932344228503</v>
+        <v>517.3972597805251</v>
       </c>
       <c r="G74" t="n">
-        <v>940.4676868252523</v>
+        <v>312.708439730271</v>
       </c>
       <c r="H74" t="n">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="I74" t="n">
-        <v>354879</v>
+        <v>511241</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>19551362</v>
+        <v>17636803</v>
       </c>
       <c r="E75" t="n">
-        <v>19551362</v>
+        <v>17636803</v>
       </c>
       <c r="F75" t="n">
-        <v>4500.661451713527</v>
+        <v>3851.667470360173</v>
       </c>
       <c r="G75" t="n">
-        <v>6818.61516675666</v>
+        <v>5493.830067118452</v>
       </c>
       <c r="H75" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>4626361</v>
+        <v>8483832</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>424342451</v>
+        <v>391102168</v>
       </c>
       <c r="E76" t="n">
-        <v>1474857138</v>
+        <v>1358638338</v>
       </c>
       <c r="F76" t="n">
-        <v>167393.7386296439</v>
+        <v>164976.48777258</v>
       </c>
       <c r="G76" t="n">
-        <v>183135.8041402489</v>
+        <v>168279.1130497883</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I76" t="n">
-        <v>36259095</v>
+        <v>66245448</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5557752055</v>
+        <v>5219455874</v>
       </c>
       <c r="E77" t="n">
-        <v>5557752055</v>
+        <v>5219455874</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>51.28</v>
+        <v>31.61</v>
       </c>
       <c r="I77" t="n">
-        <v>15866792</v>
+        <v>25815711</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7535695</v>
+        <v>7157057</v>
       </c>
       <c r="E78" t="n">
-        <v>19576925</v>
+        <v>18593264</v>
       </c>
       <c r="F78" t="n">
-        <v>2923.501548145689</v>
+        <v>5219.827445048448</v>
       </c>
       <c r="G78" t="n">
-        <v>2541.061647475186</v>
+        <v>427.1622450743987</v>
       </c>
       <c r="H78" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="I78" t="n">
-        <v>445003</v>
+        <v>528937</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109279652</v>
+        <v>99029898</v>
       </c>
       <c r="E79" t="n">
-        <v>165571299</v>
+        <v>150041737</v>
       </c>
       <c r="F79" t="n">
-        <v>39020.23544924754</v>
+        <v>37314.08091240242</v>
       </c>
       <c r="G79" t="n">
-        <v>44749.58606868049</v>
+        <v>27824.8521675163</v>
       </c>
       <c r="H79" t="n">
-        <v>0.23</v>
+        <v>0.39</v>
       </c>
       <c r="I79" t="n">
-        <v>5742606</v>
+        <v>7398183</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2002675</v>
+        <v>1890456</v>
       </c>
       <c r="E80" t="n">
-        <v>8010700</v>
+        <v>7561823</v>
       </c>
       <c r="F80" t="n">
-        <v>2133.139328790708</v>
+        <v>2637.576124729015</v>
       </c>
       <c r="G80" t="n">
-        <v>2484.50408068509</v>
+        <v>1584.710244712535</v>
       </c>
       <c r="H80" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I80" t="n">
-        <v>5133201</v>
+        <v>5638114</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2671493</v>
+        <v>3085341</v>
       </c>
       <c r="F81" t="n">
-        <v>2586.215227751376</v>
+        <v>2542.730900254605</v>
       </c>
       <c r="G81" t="n">
-        <v>1268.603902073484</v>
+        <v>3143.340091215521</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I81" t="n">
-        <v>874156</v>
+        <v>1272868</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>374151871</v>
+        <v>346403271</v>
       </c>
       <c r="E82" t="n">
-        <v>2138010690</v>
+        <v>1979447262</v>
       </c>
       <c r="F82" t="n">
-        <v>23250.10862531461</v>
+        <v>31214.28827110374</v>
       </c>
       <c r="G82" t="n">
-        <v>54736.15513921185</v>
+        <v>39146.69246904786</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="I82" t="n">
-        <v>55106440</v>
+        <v>76238160</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4225255</v>
+        <v>4609757</v>
       </c>
       <c r="F2" t="n">
-        <v>2809.106422558694</v>
+        <v>2146.32073345347</v>
       </c>
       <c r="G2" t="n">
-        <v>2351.408126338466</v>
+        <v>2189.543263303095</v>
       </c>
       <c r="H2" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="I2" t="n">
-        <v>172849</v>
+        <v>187771</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1336992</v>
+        <v>1377415</v>
       </c>
       <c r="E3" t="n">
-        <v>4209083</v>
+        <v>4336341</v>
       </c>
       <c r="F3" t="n">
-        <v>4867.671851683334</v>
+        <v>4900.496229481044</v>
       </c>
       <c r="G3" t="n">
-        <v>5206.930939492575</v>
+        <v>3210.453520720488</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I3" t="n">
-        <v>95575</v>
+        <v>99611</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>223445282</v>
+        <v>213699813</v>
       </c>
       <c r="E4" t="n">
-        <v>1401193957</v>
+        <v>1340081489</v>
       </c>
       <c r="F4" t="n">
-        <v>87361.57711357012</v>
+        <v>89600.06269947077</v>
       </c>
       <c r="G4" t="n">
-        <v>94420.28254935899</v>
+        <v>91996.8339475518</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>26756838</v>
+        <v>28251087</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>118935895</v>
+        <v>116451653</v>
       </c>
       <c r="E5" t="n">
-        <v>131799559</v>
+        <v>129046631</v>
       </c>
       <c r="F5" t="n">
-        <v>36814.76329640127</v>
+        <v>18631.98469038578</v>
       </c>
       <c r="G5" t="n">
-        <v>33413.04123077582</v>
+        <v>24616.61229983336</v>
       </c>
       <c r="H5" t="n">
         <v>0.15</v>
       </c>
       <c r="I5" t="n">
-        <v>33443508</v>
+        <v>50373730</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>98056526</v>
+        <v>96854372</v>
       </c>
       <c r="E6" t="n">
-        <v>384352222</v>
+        <v>379640137</v>
       </c>
       <c r="F6" t="n">
-        <v>13460.01689854308</v>
+        <v>10871.90582694124</v>
       </c>
       <c r="G6" t="n">
-        <v>12130.47280672953</v>
+        <v>10996.1949707743</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>25146210</v>
+        <v>28961378</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3509494</v>
+        <v>3479536</v>
       </c>
       <c r="E7" t="n">
-        <v>21519929</v>
+        <v>21336231</v>
       </c>
       <c r="F7" t="n">
-        <v>3079.956893531783</v>
+        <v>1546.885145471598</v>
       </c>
       <c r="G7" t="n">
-        <v>2686.888855720875</v>
+        <v>2385.350512801376</v>
       </c>
       <c r="H7" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="I7" t="n">
-        <v>356343</v>
+        <v>381494</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>182593</v>
+        <v>177445</v>
       </c>
       <c r="E8" t="n">
-        <v>2008722</v>
+        <v>1952094</v>
       </c>
       <c r="F8" t="n">
-        <v>2322.19431822175</v>
+        <v>2058.366945374078</v>
       </c>
       <c r="G8" t="n">
-        <v>2141.076835852229</v>
+        <v>1879.528614195179</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I8" t="n">
-        <v>70424</v>
+        <v>68336</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66514181</v>
+        <v>64395188</v>
       </c>
       <c r="E9" t="n">
-        <v>114935142</v>
+        <v>111258971</v>
       </c>
       <c r="F9" t="n">
-        <v>9983.895454278319</v>
+        <v>1573.5327207843</v>
       </c>
       <c r="G9" t="n">
-        <v>9185.217978542481</v>
+        <v>1256.013693928242</v>
       </c>
       <c r="H9" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I9" t="n">
-        <v>703870</v>
+        <v>659120</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8731895</v>
+        <v>8659654</v>
       </c>
       <c r="E10" t="n">
-        <v>12359349</v>
+        <v>12257097</v>
       </c>
       <c r="F10" t="n">
-        <v>3052.492566266089</v>
+        <v>2935.184501576864</v>
       </c>
       <c r="G10" t="n">
-        <v>2912.654741325486</v>
+        <v>2918.609059134767</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>17575.8</v>
+        <v>21375</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>397091169</v>
+        <v>383780862</v>
       </c>
       <c r="E11" t="n">
-        <v>397091169</v>
+        <v>383780869</v>
       </c>
       <c r="F11" t="n">
-        <v>41823.92022124287</v>
+        <v>24772.6985692878</v>
       </c>
       <c r="G11" t="n">
-        <v>40466.77280377819</v>
+        <v>41179.37052466143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>38482250</v>
+        <v>41662037</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>284704</v>
+        <v>292917</v>
       </c>
       <c r="E12" t="n">
-        <v>1329028</v>
+        <v>1367368</v>
       </c>
       <c r="F12" t="n">
-        <v>337.3669528893503</v>
+        <v>1227.402735061168</v>
       </c>
       <c r="G12" t="n">
-        <v>1080.667244130561</v>
+        <v>444.4049398621655</v>
       </c>
       <c r="H12" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="I12" t="n">
-        <v>685232</v>
+        <v>731702</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1631593</v>
+        <v>1554805</v>
       </c>
       <c r="F13" t="n">
-        <v>1143.179730368252</v>
+        <v>1146.021052982599</v>
       </c>
       <c r="G13" t="n">
-        <v>3295.305363396544</v>
+        <v>3356.917087642592</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I13" t="n">
-        <v>169917</v>
+        <v>86839</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10820944</v>
+        <v>10422916</v>
       </c>
       <c r="E14" t="n">
-        <v>26931374</v>
+        <v>25940753</v>
       </c>
       <c r="F14" t="n">
-        <v>1260.878080742806</v>
+        <v>857.340581946046</v>
       </c>
       <c r="G14" t="n">
-        <v>1115.326058135737</v>
+        <v>922.5721910479238</v>
       </c>
       <c r="H14" t="n">
-        <v>0.41</v>
+        <v>0.72</v>
       </c>
       <c r="I14" t="n">
-        <v>1343955</v>
+        <v>1337831</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100355218</v>
+        <v>97302140</v>
       </c>
       <c r="E15" t="n">
-        <v>388363458</v>
+        <v>376427668</v>
       </c>
       <c r="F15" t="n">
-        <v>3369.883482621733</v>
+        <v>7278.461907874034</v>
       </c>
       <c r="G15" t="n">
-        <v>7420.173737763444</v>
+        <v>10942.20152268933</v>
       </c>
       <c r="H15" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>7661067</v>
+        <v>13192395</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4511556</v>
+        <v>4288532</v>
       </c>
       <c r="E16" t="n">
-        <v>6641255</v>
+        <v>6312952</v>
       </c>
       <c r="F16" t="n">
-        <v>332.2517592406516</v>
+        <v>473.9935398627662</v>
       </c>
       <c r="G16" t="n">
-        <v>639.0506809396163</v>
+        <v>286.1131290029996</v>
       </c>
       <c r="H16" t="n">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="I16" t="n">
-        <v>663660</v>
+        <v>664630</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>451452</v>
+        <v>460508</v>
       </c>
       <c r="E17" t="n">
-        <v>1861641</v>
+        <v>1898984</v>
       </c>
       <c r="F17" t="n">
-        <v>409.3086282129422</v>
+        <v>609.193571663543</v>
       </c>
       <c r="G17" t="n">
-        <v>409.7324536391208</v>
+        <v>530.6208004193018</v>
       </c>
       <c r="H17" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="I17" t="n">
-        <v>74421</v>
+        <v>62808</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>116208547</v>
+        <v>116038000</v>
       </c>
       <c r="E18" t="n">
-        <v>116208547</v>
+        <v>116038000</v>
       </c>
       <c r="F18" t="n">
-        <v>53584.62468494277</v>
+        <v>76195.19423061013</v>
       </c>
       <c r="G18" t="n">
-        <v>95831.89388526882</v>
+        <v>105953.916063336</v>
       </c>
       <c r="H18" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I18" t="n">
-        <v>119466159</v>
+        <v>143032863</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61592010</v>
+        <v>59825301</v>
       </c>
       <c r="E19" t="n">
-        <v>315856460</v>
+        <v>306796417</v>
       </c>
       <c r="F19" t="n">
-        <v>8449.365582280108</v>
+        <v>7251.502850567911</v>
       </c>
       <c r="G19" t="n">
-        <v>7450.032909378479</v>
+        <v>7506.859193627196</v>
       </c>
       <c r="H19" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I19" t="n">
-        <v>27575530</v>
+        <v>33640250</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>218061756</v>
+        <v>207587664</v>
       </c>
       <c r="E20" t="n">
-        <v>218061756</v>
+        <v>207587664</v>
       </c>
       <c r="F20" t="n">
-        <v>49809.75570317252</v>
+        <v>46398.56978167126</v>
       </c>
       <c r="G20" t="n">
-        <v>48210.54302098497</v>
+        <v>52489.82501033024</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>46013929</v>
+        <v>52595301</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>140655782</v>
+        <v>146627284</v>
       </c>
       <c r="E21" t="n">
-        <v>185086559</v>
+        <v>192944357</v>
       </c>
       <c r="F21" t="n">
-        <v>10523.13539764821</v>
+        <v>12985.56441710103</v>
       </c>
       <c r="G21" t="n">
-        <v>19437.25222150843</v>
+        <v>18433.40034633986</v>
       </c>
       <c r="H21" t="n">
-        <v>0.17</v>
+        <v>0.63</v>
       </c>
       <c r="I21" t="n">
-        <v>8966763</v>
+        <v>12585710</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65608767</v>
+        <v>63822467</v>
       </c>
       <c r="E22" t="n">
-        <v>183729469</v>
+        <v>178767905</v>
       </c>
       <c r="F22" t="n">
-        <v>16163.28380390892</v>
+        <v>19905.480483921</v>
       </c>
       <c r="G22" t="n">
-        <v>16004.32784545971</v>
+        <v>24765.6879199851</v>
       </c>
       <c r="H22" t="n">
         <v>0.11</v>
       </c>
       <c r="I22" t="n">
-        <v>24345242</v>
+        <v>27011789</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73515929</v>
+        <v>70384453</v>
       </c>
       <c r="E23" t="n">
-        <v>153274807</v>
+        <v>146745931</v>
       </c>
       <c r="F23" t="n">
-        <v>16045.33350981772</v>
+        <v>17483.70919936854</v>
       </c>
       <c r="G23" t="n">
-        <v>23390.44725326691</v>
+        <v>17931.70946255568</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I23" t="n">
-        <v>24125599</v>
+        <v>24571581</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>550701268</v>
+        <v>531983195</v>
       </c>
       <c r="E24" t="n">
-        <v>550701268</v>
+        <v>531983195</v>
       </c>
       <c r="F24" t="n">
-        <v>92105.96633233574</v>
+        <v>88328.59895618776</v>
       </c>
       <c r="G24" t="n">
-        <v>143090.7627484403</v>
+        <v>132832.9922938614</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I24" t="n">
-        <v>497326338</v>
+        <v>609672049</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>174498349</v>
+        <v>173314927</v>
       </c>
       <c r="E25" t="n">
-        <v>606223035</v>
+        <v>602111721</v>
       </c>
       <c r="F25" t="n">
-        <v>74455.81923846902</v>
+        <v>66767.69493167364</v>
       </c>
       <c r="G25" t="n">
-        <v>117498.3840036478</v>
+        <v>109058.9081124466</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>39858354</v>
+        <v>46533564</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4891141</v>
+        <v>4890941</v>
       </c>
       <c r="E26" t="n">
-        <v>6624499</v>
+        <v>6624044</v>
       </c>
       <c r="F26" t="n">
-        <v>2353.385842670954</v>
+        <v>103.6397432938857</v>
       </c>
       <c r="G26" t="n">
-        <v>248.3795219433436</v>
+        <v>1136.932464334085</v>
       </c>
       <c r="H26" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
       <c r="I26" t="n">
-        <v>5605362</v>
+        <v>6019544</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12733739</v>
+        <v>12529137</v>
       </c>
       <c r="F27" t="n">
-        <v>2352.64625674841</v>
+        <v>602.6733586604128</v>
       </c>
       <c r="G27" t="n">
-        <v>1898.016916271091</v>
+        <v>3297.924796795188</v>
       </c>
       <c r="H27" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I27" t="n">
-        <v>235727</v>
+        <v>270911</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22651002</v>
+        <v>21481527</v>
       </c>
       <c r="E28" t="n">
-        <v>31990221</v>
+        <v>30338561</v>
       </c>
       <c r="F28" t="n">
-        <v>882.3640725311554</v>
+        <v>189.5675174982488</v>
       </c>
       <c r="G28" t="n">
-        <v>181.9000985521611</v>
+        <v>112.1811228314111</v>
       </c>
       <c r="H28" t="n">
-        <v>0.45</v>
+        <v>1.07</v>
       </c>
       <c r="I28" t="n">
-        <v>105522</v>
+        <v>126187</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>219333320</v>
+        <v>217091866</v>
       </c>
       <c r="E29" t="n">
-        <v>946764369</v>
+        <v>937089011</v>
       </c>
       <c r="F29" t="n">
-        <v>118002.1276247055</v>
+        <v>98724.42975635371</v>
       </c>
       <c r="G29" t="n">
-        <v>127609.6488568626</v>
+        <v>138820.7365362289</v>
       </c>
       <c r="H29" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>121084542</v>
+        <v>147040265</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8171294</v>
+        <v>7962249</v>
       </c>
       <c r="E30" t="n">
-        <v>97739734</v>
+        <v>95234893</v>
       </c>
       <c r="F30" t="n">
-        <v>2258.276509460703</v>
+        <v>2242.18521532307</v>
       </c>
       <c r="G30" t="n">
-        <v>1831.536120697763</v>
+        <v>603.204144228471</v>
       </c>
       <c r="H30" t="n">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>433393</v>
+        <v>529645</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12107323</v>
+        <v>11967336</v>
       </c>
       <c r="E31" t="n">
-        <v>30268307</v>
+        <v>29918340</v>
       </c>
       <c r="F31" t="n">
-        <v>3173.470496801561</v>
+        <v>2167.699138652673</v>
       </c>
       <c r="G31" t="n">
-        <v>1465.410415305312</v>
+        <v>3578.710422883474</v>
       </c>
       <c r="H31" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I31" t="n">
-        <v>4931255</v>
+        <v>4716753</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17262691</v>
+        <v>17418749</v>
       </c>
       <c r="F32" t="n">
-        <v>2581.947317914203</v>
+        <v>2619.873916677046</v>
       </c>
       <c r="G32" t="n">
-        <v>2482.422267362596</v>
+        <v>3551.687310679657</v>
       </c>
       <c r="H32" t="n">
-        <v>0.86</v>
+        <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>36021</v>
+        <v>38920</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1693453</v>
+        <v>1718941</v>
       </c>
       <c r="E33" t="n">
-        <v>6310410</v>
+        <v>6404849</v>
       </c>
       <c r="F33" t="n">
-        <v>2641.115097658505</v>
+        <v>993.0132238485415</v>
       </c>
       <c r="G33" t="n">
-        <v>2517.754935740734</v>
+        <v>657.0450122876749</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="I33" t="n">
-        <v>575307</v>
+        <v>586029</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3705553</v>
+        <v>3610422</v>
       </c>
       <c r="E34" t="n">
-        <v>10671246</v>
+        <v>10397290</v>
       </c>
       <c r="F34" t="n">
-        <v>179.858134186145</v>
+        <v>2840.642680730601</v>
       </c>
       <c r="G34" t="n">
-        <v>81.89521894735846</v>
+        <v>5266.711741393366</v>
       </c>
       <c r="H34" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="I34" t="n">
-        <v>351349</v>
+        <v>371858</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11697983</v>
+        <v>11170954</v>
       </c>
       <c r="E35" t="n">
-        <v>56655200</v>
+        <v>54102714</v>
       </c>
       <c r="F35" t="n">
-        <v>5636.923091822373</v>
+        <v>3736.988553207264</v>
       </c>
       <c r="G35" t="n">
-        <v>3271.275440334349</v>
+        <v>3506.594817290472</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="I35" t="n">
-        <v>5087971</v>
+        <v>5859175</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1254432</v>
+        <v>1166528</v>
       </c>
       <c r="E36" t="n">
-        <v>8210226</v>
+        <v>7634896</v>
       </c>
       <c r="F36" t="n">
-        <v>1815.537560437002</v>
+        <v>4480.003163011313</v>
       </c>
       <c r="G36" t="n">
-        <v>3569.798544428291</v>
+        <v>3020.3290350657</v>
       </c>
       <c r="H36" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>82575</v>
+        <v>79292</v>
       </c>
     </row>
     <row r="37">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Ethereum Ecosystem, Tron Ecosystem</t>
+          <t>BNB Chain Ecosystem, Centralized Exchange (CEX) Token, Ethereum Ecosystem, Tron Ecosystem</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1829751312</v>
+        <v>1765821671</v>
       </c>
       <c r="F37" t="n">
-        <v>115.2488377636152</v>
+        <v>235.8462230992585</v>
       </c>
       <c r="G37" t="n">
-        <v>709.0899001721851</v>
+        <v>151.4969210478432</v>
       </c>
       <c r="H37" t="n">
-        <v>2.06</v>
+        <v>0.73</v>
       </c>
       <c r="I37" t="n">
-        <v>35600339</v>
+        <v>36662189</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1770382</v>
+        <v>1735979</v>
       </c>
       <c r="E38" t="n">
-        <v>12695232</v>
+        <v>12448535</v>
       </c>
       <c r="F38" t="n">
-        <v>489.5346891248918</v>
+        <v>8.457797158644894</v>
       </c>
       <c r="G38" t="n">
-        <v>163.148536127467</v>
+        <v>426.9618678066548</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I38" t="n">
-        <v>1792491</v>
+        <v>1850509</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>165803520</v>
+        <v>161681746</v>
       </c>
       <c r="E39" t="n">
-        <v>938881409</v>
+        <v>915541389</v>
       </c>
       <c r="F39" t="n">
-        <v>25957.51001766064</v>
+        <v>87780.26376536203</v>
       </c>
       <c r="G39" t="n">
-        <v>37460.5809347351</v>
+        <v>97993.39361272918</v>
       </c>
       <c r="H39" t="n">
         <v>0.17</v>
       </c>
       <c r="I39" t="n">
-        <v>65626039</v>
+        <v>83261765</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>110954173</v>
+        <v>104672980</v>
       </c>
       <c r="E40" t="n">
-        <v>821882763</v>
+        <v>775355407</v>
       </c>
       <c r="F40" t="n">
-        <v>123791.6497369526</v>
+        <v>130084.0699561581</v>
       </c>
       <c r="G40" t="n">
-        <v>132382.7727058211</v>
+        <v>118007.5053055524</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>15474180</v>
+        <v>18398363</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>276322068</v>
+        <v>268252674</v>
       </c>
       <c r="E41" t="n">
-        <v>2485964662</v>
+        <v>2413367389</v>
       </c>
       <c r="F41" t="n">
-        <v>51067.94210267494</v>
+        <v>55163.85087043067</v>
       </c>
       <c r="G41" t="n">
-        <v>124035.4310232316</v>
+        <v>148309.3330481809</v>
       </c>
       <c r="H41" t="n">
         <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>64120964</v>
+        <v>79766153</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1485907</v>
+        <v>1467481</v>
       </c>
       <c r="E42" t="n">
-        <v>12382560</v>
+        <v>12229012</v>
       </c>
       <c r="F42" t="n">
-        <v>818.9927815083959</v>
+        <v>3291.535355082164</v>
       </c>
       <c r="G42" t="n">
-        <v>1738.477897735092</v>
+        <v>1714.235387405016</v>
       </c>
       <c r="H42" t="n">
-        <v>0.89</v>
+        <v>0.33</v>
       </c>
       <c r="I42" t="n">
-        <v>74437</v>
+        <v>75282</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16412497</v>
+        <v>15199976</v>
       </c>
       <c r="E43" t="n">
-        <v>48663900</v>
+        <v>45067294</v>
       </c>
       <c r="F43" t="n">
-        <v>13465.33403062953</v>
+        <v>7829.547094474662</v>
       </c>
       <c r="G43" t="n">
-        <v>19825.80610776264</v>
+        <v>2538.193640670364</v>
       </c>
       <c r="H43" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="I43" t="n">
-        <v>2916407</v>
+        <v>3020004</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7405566</v>
+        <v>7349260</v>
       </c>
       <c r="F44" t="n">
-        <v>1574.30094932307</v>
+        <v>2808.499397344108</v>
       </c>
       <c r="G44" t="n">
-        <v>2048.449938906334</v>
+        <v>2063.809118846554</v>
       </c>
       <c r="H44" t="n">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="I44" t="n">
-        <v>89383</v>
+        <v>88767</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11430623</v>
+        <v>10747539</v>
       </c>
       <c r="E45" t="n">
-        <v>11430623</v>
+        <v>10747539</v>
       </c>
       <c r="F45" t="n">
-        <v>517.1365693656538</v>
+        <v>665.8205147140908</v>
       </c>
       <c r="G45" t="n">
-        <v>260.5520403002554</v>
+        <v>149.8225447078913</v>
       </c>
       <c r="H45" t="n">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="I45" t="n">
-        <v>3609372</v>
+        <v>3903706</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>268691461</v>
+        <v>247194550</v>
       </c>
       <c r="E46" t="n">
-        <v>268691461</v>
+        <v>247194550</v>
       </c>
       <c r="F46" t="n">
-        <v>12067.42073370259</v>
+        <v>14582.6809119498</v>
       </c>
       <c r="G46" t="n">
-        <v>16384.72473676794</v>
+        <v>14829.89332929407</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>20078665</v>
+        <v>23277910</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11571570</v>
+        <v>10853424</v>
       </c>
       <c r="E47" t="n">
-        <v>36588837</v>
+        <v>34318086</v>
       </c>
       <c r="F47" t="n">
-        <v>6702.762047231838</v>
+        <v>8680.808816549181</v>
       </c>
       <c r="G47" t="n">
-        <v>8676.263754834561</v>
+        <v>5190.709876318132</v>
       </c>
       <c r="H47" t="n">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>1374527</v>
+        <v>1744825</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>29270266</v>
+        <v>28013968</v>
       </c>
       <c r="E48" t="n">
-        <v>81075733</v>
+        <v>77595912</v>
       </c>
       <c r="F48" t="n">
-        <v>5176.309528198383</v>
+        <v>4699.058837316421</v>
       </c>
       <c r="G48" t="n">
-        <v>2899.372576189384</v>
+        <v>4968.812361554077</v>
       </c>
       <c r="H48" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="I48" t="n">
-        <v>9602733</v>
+        <v>9261728</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>26795000</v>
+        <v>25026208</v>
       </c>
       <c r="E49" t="n">
-        <v>63562707</v>
+        <v>59366806</v>
       </c>
       <c r="F49" t="n">
-        <v>11518.93660400922</v>
+        <v>2404.438239245923</v>
       </c>
       <c r="G49" t="n">
-        <v>11760.71430851372</v>
+        <v>2899.346077844291</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="I49" t="n">
-        <v>437852</v>
+        <v>585687</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11377402</v>
+        <v>11249595</v>
       </c>
       <c r="E50" t="n">
-        <v>17235943</v>
+        <v>17042323</v>
       </c>
       <c r="F50" t="n">
-        <v>2519.260424194727</v>
+        <v>3018.36627175442</v>
       </c>
       <c r="G50" t="n">
-        <v>2457.688923019623</v>
+        <v>17505.19944437681</v>
       </c>
       <c r="H50" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="I50" t="n">
-        <v>751993</v>
+        <v>761976</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>258888551</v>
+        <v>248781462</v>
       </c>
       <c r="E51" t="n">
-        <v>258888551</v>
+        <v>248781462</v>
       </c>
       <c r="F51" t="n">
-        <v>26172.70507282793</v>
+        <v>15456.18161851296</v>
       </c>
       <c r="G51" t="n">
-        <v>34589.02822540422</v>
+        <v>40177.00989593699</v>
       </c>
       <c r="H51" t="n">
         <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>94703300</v>
+        <v>104923864</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>76289763</v>
+        <v>74442475</v>
       </c>
       <c r="E52" t="n">
-        <v>439614523</v>
+        <v>428969652</v>
       </c>
       <c r="F52" t="n">
-        <v>51758.27723405436</v>
+        <v>49066.4654099453</v>
       </c>
       <c r="G52" t="n">
-        <v>66826.90479912788</v>
+        <v>55079.66908688154</v>
       </c>
       <c r="H52" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I52" t="n">
-        <v>20861482</v>
+        <v>19067538</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>27975951</v>
+        <v>27557270</v>
       </c>
       <c r="E53" t="n">
-        <v>125259808</v>
+        <v>123385201</v>
       </c>
       <c r="F53" t="n">
-        <v>9805.289134514811</v>
+        <v>5166.218553233643</v>
       </c>
       <c r="G53" t="n">
-        <v>9923.159618817921</v>
+        <v>9630.082630722312</v>
       </c>
       <c r="H53" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I53" t="n">
-        <v>32244175</v>
+        <v>32551113</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7805570</v>
+        <v>7803117</v>
       </c>
       <c r="F54" t="n">
-        <v>4990.45568541939</v>
+        <v>3104.518032719242</v>
       </c>
       <c r="G54" t="n">
-        <v>4733.240610071545</v>
+        <v>2868.104290779958</v>
       </c>
       <c r="H54" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="I54" t="n">
-        <v>299694</v>
+        <v>299495</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4129227</v>
+        <v>4096241</v>
       </c>
       <c r="F55" t="n">
-        <v>4404.746823327044</v>
+        <v>4256.040441853484</v>
       </c>
       <c r="G55" t="n">
-        <v>680.1626763427921</v>
+        <v>753.0808543399726</v>
       </c>
       <c r="H55" t="n">
         <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>232852</v>
+        <v>237426</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124345128</v>
+        <v>123618085</v>
       </c>
       <c r="E56" t="n">
-        <v>2059257163</v>
+        <v>2047216738</v>
       </c>
       <c r="F56" t="n">
-        <v>164441.1355095732</v>
+        <v>174648.112240336</v>
       </c>
       <c r="G56" t="n">
-        <v>178884.1767549489</v>
+        <v>175553.1291222466</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>11128278</v>
+        <v>12717216</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>74615030</v>
+        <v>72174777</v>
       </c>
       <c r="E57" t="n">
-        <v>75418157</v>
+        <v>72951639</v>
       </c>
       <c r="F57" t="n">
-        <v>16258.85666374495</v>
+        <v>12875.19085346858</v>
       </c>
       <c r="G57" t="n">
-        <v>28768.4892218516</v>
+        <v>27932.12396000537</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I57" t="n">
-        <v>13174634</v>
+        <v>13621085</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>205001283</v>
+        <v>205738095</v>
       </c>
       <c r="E58" t="n">
-        <v>205001283</v>
+        <v>205738095</v>
       </c>
       <c r="F58" t="n">
-        <v>43219.15976976638</v>
+        <v>42982.02256764314</v>
       </c>
       <c r="G58" t="n">
-        <v>67908.37985181314</v>
+        <v>74962.37558314044</v>
       </c>
       <c r="H58" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I58" t="n">
-        <v>60556050</v>
+        <v>66202772</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>19967141</v>
+        <v>19794972</v>
       </c>
       <c r="E59" t="n">
-        <v>119467419</v>
+        <v>118437299</v>
       </c>
       <c r="F59" t="n">
-        <v>27737.86656348639</v>
+        <v>17716.93785574761</v>
       </c>
       <c r="G59" t="n">
-        <v>29256.47204469841</v>
+        <v>32433.63271812407</v>
       </c>
       <c r="H59" t="n">
         <v>0.17</v>
       </c>
       <c r="I59" t="n">
-        <v>19879481</v>
+        <v>22310560</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2452578</v>
+        <v>2327187</v>
       </c>
       <c r="E60" t="n">
-        <v>4526373</v>
+        <v>4294957</v>
       </c>
       <c r="F60" t="n">
-        <v>1252.23584752566</v>
+        <v>17.60183481169356</v>
       </c>
       <c r="G60" t="n">
-        <v>4.634496054660017</v>
+        <v>1290.961370457726</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="I60" t="n">
-        <v>281151</v>
+        <v>210076</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10509133</v>
+        <v>10323000</v>
       </c>
       <c r="E62" t="n">
-        <v>30760123</v>
+        <v>30214744</v>
       </c>
       <c r="F62" t="n">
-        <v>4314.129352398553</v>
+        <v>3285.242388602964</v>
       </c>
       <c r="G62" t="n">
-        <v>3643.397606296137</v>
+        <v>4169.738946412693</v>
       </c>
       <c r="H62" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>5987406</v>
+        <v>5873543</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14175639</v>
+        <v>14204783</v>
       </c>
       <c r="E63" t="n">
-        <v>28697716</v>
+        <v>28756716</v>
       </c>
       <c r="F63" t="n">
-        <v>4385.594930982591</v>
+        <v>5416.185192272322</v>
       </c>
       <c r="G63" t="n">
-        <v>7276.806811349254</v>
+        <v>16179.29690306159</v>
       </c>
       <c r="H63" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I63" t="n">
-        <v>445775</v>
+        <v>470537</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>29797344</v>
+        <v>28545353</v>
       </c>
       <c r="E64" t="n">
-        <v>211258309</v>
+        <v>202381894</v>
       </c>
       <c r="F64" t="n">
-        <v>22421.2413043956</v>
+        <v>17313.28827072322</v>
       </c>
       <c r="G64" t="n">
-        <v>19958.03036568718</v>
+        <v>43856.32766920638</v>
       </c>
       <c r="H64" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I64" t="n">
-        <v>3117579</v>
+        <v>2985548</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1254536</v>
+        <v>1233413</v>
       </c>
       <c r="E65" t="n">
-        <v>7765991</v>
+        <v>7635236</v>
       </c>
       <c r="F65" t="n">
-        <v>2057.832443840186</v>
+        <v>2018.328024064288</v>
       </c>
       <c r="G65" t="n">
-        <v>2257.749606672254</v>
+        <v>2396.853812136556</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>764030</v>
+        <v>758645</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>510362682</v>
+        <v>495760125</v>
       </c>
       <c r="E66" t="n">
-        <v>1976559367</v>
+        <v>1920005821</v>
       </c>
       <c r="F66" t="n">
-        <v>33417.1394526595</v>
+        <v>24477.27703775525</v>
       </c>
       <c r="G66" t="n">
-        <v>52203.23686650332</v>
+        <v>58175.33714150178</v>
       </c>
       <c r="H66" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I66" t="n">
-        <v>61982853</v>
+        <v>81839279</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5420100</v>
+        <v>5264153</v>
       </c>
       <c r="E67" t="n">
-        <v>24094817</v>
+        <v>23396253</v>
       </c>
       <c r="F67" t="n">
-        <v>2521.718151983194</v>
+        <v>4796.276090696632</v>
       </c>
       <c r="G67" t="n">
-        <v>1153.445774485357</v>
+        <v>4486.1345136331</v>
       </c>
       <c r="H67" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="I67" t="n">
-        <v>161005</v>
+        <v>165768</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>97362743</v>
+        <v>94264348</v>
       </c>
       <c r="E68" t="n">
-        <v>921223176</v>
+        <v>891906896</v>
       </c>
       <c r="F68" t="n">
-        <v>15675.73175222382</v>
+        <v>15644.91921216621</v>
       </c>
       <c r="G68" t="n">
-        <v>6810.003491609246</v>
+        <v>15441.00045201538</v>
       </c>
       <c r="H68" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I68" t="n">
-        <v>12362120</v>
+        <v>17384177</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>83860882</v>
+        <v>74665046</v>
       </c>
       <c r="E69" t="n">
-        <v>127931741</v>
+        <v>113903278</v>
       </c>
       <c r="F69" t="n">
-        <v>12156.09715679248</v>
+        <v>14301.19143712738</v>
       </c>
       <c r="G69" t="n">
-        <v>13729.85336642877</v>
+        <v>6548.866594133284</v>
       </c>
       <c r="H69" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I69" t="n">
-        <v>5691003</v>
+        <v>7310123</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1050141</v>
+        <v>995766</v>
       </c>
       <c r="E70" t="n">
-        <v>4066374</v>
+        <v>3855823</v>
       </c>
       <c r="F70" t="n">
-        <v>3158.035548238242</v>
+        <v>2637.981183316235</v>
       </c>
       <c r="G70" t="n">
-        <v>2711.920494945527</v>
+        <v>2270.813509699105</v>
       </c>
       <c r="H70" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="I70" t="n">
-        <v>132623</v>
+        <v>161463</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>118960145</v>
+        <v>123200346</v>
       </c>
       <c r="E71" t="n">
-        <v>456350263</v>
+        <v>472616357</v>
       </c>
       <c r="F71" t="n">
-        <v>18060.5518460782</v>
+        <v>14032.83980756806</v>
       </c>
       <c r="G71" t="n">
-        <v>9497.931059693183</v>
+        <v>12914.14812333088</v>
       </c>
       <c r="H71" t="n">
         <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>30478841</v>
+        <v>34760378</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2943518</v>
+        <v>2814818</v>
       </c>
       <c r="E72" t="n">
-        <v>27890272</v>
+        <v>26670812</v>
       </c>
       <c r="F72" t="n">
-        <v>4280.536741595321</v>
+        <v>688.6011774214061</v>
       </c>
       <c r="G72" t="n">
-        <v>1200.262028169287</v>
+        <v>1024.490011086418</v>
       </c>
       <c r="H72" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="I72" t="n">
-        <v>197275</v>
+        <v>169374</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>34125066</v>
+        <v>35756939</v>
       </c>
       <c r="F73" t="n">
-        <v>3066.986415222865</v>
+        <v>3001.081654225403</v>
       </c>
       <c r="G73" t="n">
-        <v>865.5718117223638</v>
+        <v>1220.171443745053</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="I73" t="n">
-        <v>10243293</v>
+        <v>11430520</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>102307639</v>
+        <v>100768862</v>
       </c>
       <c r="E74" t="n">
-        <v>372970104</v>
+        <v>367352307</v>
       </c>
       <c r="F74" t="n">
-        <v>517.3972597805251</v>
+        <v>529.908970753141</v>
       </c>
       <c r="G74" t="n">
-        <v>312.708439730271</v>
+        <v>685.5225389008862</v>
       </c>
       <c r="H74" t="n">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="I74" t="n">
-        <v>511241</v>
+        <v>540656</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>17636803</v>
+        <v>18271706</v>
       </c>
       <c r="E75" t="n">
-        <v>17636803</v>
+        <v>18271706</v>
       </c>
       <c r="F75" t="n">
-        <v>3851.667470360173</v>
+        <v>3515.259468720263</v>
       </c>
       <c r="G75" t="n">
-        <v>5493.830067118452</v>
+        <v>5086.304873075479</v>
       </c>
       <c r="H75" t="n">
         <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>8483832</v>
+        <v>10262918</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>391102168</v>
+        <v>381207251</v>
       </c>
       <c r="E76" t="n">
-        <v>1358638338</v>
+        <v>1324264676</v>
       </c>
       <c r="F76" t="n">
-        <v>164976.48777258</v>
+        <v>42251.39500711854</v>
       </c>
       <c r="G76" t="n">
-        <v>168279.1130497883</v>
+        <v>71223.37363520102</v>
       </c>
       <c r="H76" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I76" t="n">
-        <v>66245448</v>
+        <v>77217498</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5219455874</v>
+        <v>5007559546</v>
       </c>
       <c r="E77" t="n">
-        <v>5219455874</v>
+        <v>5007559546</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>31.61</v>
+        <v>29.57</v>
       </c>
       <c r="I77" t="n">
-        <v>25815711</v>
+        <v>22864751</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7157057</v>
+        <v>6967555</v>
       </c>
       <c r="E78" t="n">
-        <v>18593264</v>
+        <v>18100959</v>
       </c>
       <c r="F78" t="n">
-        <v>5219.827445048448</v>
+        <v>5150.587688855545</v>
       </c>
       <c r="G78" t="n">
-        <v>427.1622450743987</v>
+        <v>725.6185384439966</v>
       </c>
       <c r="H78" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="I78" t="n">
-        <v>528937</v>
+        <v>611102</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>99029898</v>
+        <v>98224385</v>
       </c>
       <c r="E79" t="n">
-        <v>150041737</v>
+        <v>148821292</v>
       </c>
       <c r="F79" t="n">
-        <v>37314.08091240242</v>
+        <v>26500.52268251258</v>
       </c>
       <c r="G79" t="n">
-        <v>27824.8521675163</v>
+        <v>37051.82785915299</v>
       </c>
       <c r="H79" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="I79" t="n">
-        <v>7398183</v>
+        <v>9235757</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1890456</v>
+        <v>1806194</v>
       </c>
       <c r="E80" t="n">
-        <v>7561823</v>
+        <v>7224777</v>
       </c>
       <c r="F80" t="n">
-        <v>2637.576124729015</v>
+        <v>2389.183296632834</v>
       </c>
       <c r="G80" t="n">
-        <v>1584.710244712535</v>
+        <v>1679.474076491182</v>
       </c>
       <c r="H80" t="n">
-        <v>0.39</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>5638114</v>
+        <v>5954177</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3085341</v>
+        <v>3217590</v>
       </c>
       <c r="F81" t="n">
-        <v>2542.730900254605</v>
+        <v>83.83654645851648</v>
       </c>
       <c r="G81" t="n">
-        <v>3143.340091215521</v>
+        <v>67.31571428638522</v>
       </c>
       <c r="H81" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>1272868</v>
+        <v>1241982</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>346403271</v>
+        <v>339616554</v>
       </c>
       <c r="E82" t="n">
-        <v>1979447262</v>
+        <v>1940666022</v>
       </c>
       <c r="F82" t="n">
-        <v>31214.28827110374</v>
+        <v>14365.7003421855</v>
       </c>
       <c r="G82" t="n">
-        <v>39146.69246904786</v>
+        <v>44011.78211758794</v>
       </c>
       <c r="H82" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I82" t="n">
-        <v>76238160</v>
+        <v>90056129</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4609757</v>
+        <v>4466504</v>
       </c>
       <c r="F2" t="n">
-        <v>2146.32073345347</v>
+        <v>2351.187816875201</v>
       </c>
       <c r="G2" t="n">
-        <v>2189.543263303095</v>
+        <v>1862.995029181058</v>
       </c>
       <c r="H2" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="I2" t="n">
-        <v>187771</v>
+        <v>195408</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1377415</v>
+        <v>1367630</v>
       </c>
       <c r="E3" t="n">
-        <v>4336341</v>
+        <v>4305537</v>
       </c>
       <c r="F3" t="n">
-        <v>4900.496229481044</v>
+        <v>626.5924046306176</v>
       </c>
       <c r="G3" t="n">
-        <v>3210.453520720488</v>
+        <v>484.9572357531795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I3" t="n">
-        <v>99611</v>
+        <v>86608</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>213699813</v>
+        <v>211006370</v>
       </c>
       <c r="E4" t="n">
-        <v>1340081489</v>
+        <v>1323191287</v>
       </c>
       <c r="F4" t="n">
-        <v>89600.06269947077</v>
+        <v>140845.1425169713</v>
       </c>
       <c r="G4" t="n">
-        <v>91996.8339475518</v>
+        <v>158624.6134499751</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>28251087</v>
+        <v>31249161</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>116451653</v>
+        <v>121766076</v>
       </c>
       <c r="E5" t="n">
-        <v>129046631</v>
+        <v>134935841</v>
       </c>
       <c r="F5" t="n">
-        <v>18631.98469038578</v>
+        <v>29279.86597184572</v>
       </c>
       <c r="G5" t="n">
-        <v>24616.61229983336</v>
+        <v>44524.04553418879</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>50373730</v>
+        <v>57837019</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>96854372</v>
+        <v>100110745</v>
       </c>
       <c r="E6" t="n">
-        <v>379640137</v>
+        <v>392404146</v>
       </c>
       <c r="F6" t="n">
-        <v>10871.90582694124</v>
+        <v>8737.168359083164</v>
       </c>
       <c r="G6" t="n">
-        <v>10996.1949707743</v>
+        <v>7154.474373250703</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>28961378</v>
+        <v>31601064</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3479536</v>
+        <v>3541230</v>
       </c>
       <c r="E7" t="n">
-        <v>21336231</v>
+        <v>21685763</v>
       </c>
       <c r="F7" t="n">
-        <v>1546.885145471598</v>
+        <v>2411.424952604818</v>
       </c>
       <c r="G7" t="n">
-        <v>2385.350512801376</v>
+        <v>1702.567251146344</v>
       </c>
       <c r="H7" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I7" t="n">
-        <v>381494</v>
+        <v>274112</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>177445</v>
+        <v>172256</v>
       </c>
       <c r="E8" t="n">
-        <v>1952094</v>
+        <v>1895009</v>
       </c>
       <c r="F8" t="n">
-        <v>2058.366945374078</v>
+        <v>1906.401231931348</v>
       </c>
       <c r="G8" t="n">
-        <v>1879.528614195179</v>
+        <v>2589.065727216626</v>
       </c>
       <c r="H8" t="n">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
       <c r="I8" t="n">
-        <v>68336</v>
+        <v>87954</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64395188</v>
+        <v>66339508</v>
       </c>
       <c r="E9" t="n">
-        <v>111258971</v>
+        <v>114596412</v>
       </c>
       <c r="F9" t="n">
-        <v>1573.5327207843</v>
+        <v>8942.901764948116</v>
       </c>
       <c r="G9" t="n">
-        <v>1256.013693928242</v>
+        <v>8821.198638723572</v>
       </c>
       <c r="H9" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="I9" t="n">
-        <v>659120</v>
+        <v>848839</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8659654</v>
+        <v>8652884</v>
       </c>
       <c r="E10" t="n">
-        <v>12257097</v>
+        <v>12247515</v>
       </c>
       <c r="F10" t="n">
-        <v>2935.184501576864</v>
+        <v>2905.957678994121</v>
       </c>
       <c r="G10" t="n">
-        <v>2918.609059134767</v>
+        <v>3076.152210741529</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>21375</v>
+        <v>23085</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>383780862</v>
+        <v>387059822</v>
       </c>
       <c r="E11" t="n">
-        <v>383780869</v>
+        <v>387059822</v>
       </c>
       <c r="F11" t="n">
-        <v>24772.6985692878</v>
+        <v>38927.23700718767</v>
       </c>
       <c r="G11" t="n">
-        <v>41179.37052466143</v>
+        <v>14122.91939564726</v>
       </c>
       <c r="H11" t="n">
         <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41662037</v>
+        <v>49034589</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>292917</v>
+        <v>289865</v>
       </c>
       <c r="E12" t="n">
-        <v>1367368</v>
+        <v>1353118</v>
       </c>
       <c r="F12" t="n">
-        <v>1227.402735061168</v>
+        <v>154.9809162383272</v>
       </c>
       <c r="G12" t="n">
-        <v>444.4049398621655</v>
+        <v>2279.32790524084</v>
       </c>
       <c r="H12" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="I12" t="n">
-        <v>731702</v>
+        <v>715766</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1554805</v>
+        <v>1503704</v>
       </c>
       <c r="F13" t="n">
-        <v>1146.021052982599</v>
+        <v>2279.773698357915</v>
       </c>
       <c r="G13" t="n">
-        <v>3356.917087642592</v>
+        <v>3508.934078483226</v>
       </c>
       <c r="H13" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>86839</v>
+        <v>154076</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10422916</v>
+        <v>10384707</v>
       </c>
       <c r="E14" t="n">
-        <v>25940753</v>
+        <v>25845659</v>
       </c>
       <c r="F14" t="n">
-        <v>857.340581946046</v>
+        <v>1016.569279595974</v>
       </c>
       <c r="G14" t="n">
-        <v>922.5721910479238</v>
+        <v>928.5315547709251</v>
       </c>
       <c r="H14" t="n">
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1337831</v>
+        <v>824412</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>97302140</v>
+        <v>96655997</v>
       </c>
       <c r="E15" t="n">
-        <v>376427668</v>
+        <v>373756274</v>
       </c>
       <c r="F15" t="n">
-        <v>7278.461907874034</v>
+        <v>8609.89322825435</v>
       </c>
       <c r="G15" t="n">
-        <v>10942.20152268933</v>
+        <v>10221.47159353661</v>
       </c>
       <c r="H15" t="n">
         <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>13192395</v>
+        <v>14086499</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4288532</v>
+        <v>4267721</v>
       </c>
       <c r="E16" t="n">
-        <v>6312952</v>
+        <v>6282317</v>
       </c>
       <c r="F16" t="n">
-        <v>473.9935398627662</v>
+        <v>2957.285084189923</v>
       </c>
       <c r="G16" t="n">
-        <v>286.1131290029996</v>
+        <v>2156.869677578456</v>
       </c>
       <c r="H16" t="n">
-        <v>1.06</v>
+        <v>0.58</v>
       </c>
       <c r="I16" t="n">
-        <v>664630</v>
+        <v>747609</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>460508</v>
+        <v>435435</v>
       </c>
       <c r="E17" t="n">
-        <v>1898984</v>
+        <v>1795591</v>
       </c>
       <c r="F17" t="n">
-        <v>609.193571663543</v>
+        <v>14.80988784754603</v>
       </c>
       <c r="G17" t="n">
-        <v>530.6208004193018</v>
+        <v>583.0516621198312</v>
       </c>
       <c r="H17" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="I17" t="n">
-        <v>62808</v>
+        <v>46855</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>116038000</v>
+        <v>124718324</v>
       </c>
       <c r="E18" t="n">
-        <v>116038000</v>
+        <v>124718324</v>
       </c>
       <c r="F18" t="n">
-        <v>76195.19423061013</v>
+        <v>33137.53453829011</v>
       </c>
       <c r="G18" t="n">
-        <v>105953.916063336</v>
+        <v>49330.54173699715</v>
       </c>
       <c r="H18" t="n">
         <v>0.06</v>
       </c>
       <c r="I18" t="n">
-        <v>143032863</v>
+        <v>164957201</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59825301</v>
+        <v>62518763</v>
       </c>
       <c r="E19" t="n">
-        <v>306796417</v>
+        <v>320609041</v>
       </c>
       <c r="F19" t="n">
-        <v>7251.502850567911</v>
+        <v>5762.189394758161</v>
       </c>
       <c r="G19" t="n">
-        <v>7506.859193627196</v>
+        <v>6330.490708739535</v>
       </c>
       <c r="H19" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>33640250</v>
+        <v>39520487</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>207587664</v>
+        <v>208978646</v>
       </c>
       <c r="E20" t="n">
-        <v>207587664</v>
+        <v>208978646</v>
       </c>
       <c r="F20" t="n">
-        <v>46398.56978167126</v>
+        <v>26570.81744856773</v>
       </c>
       <c r="G20" t="n">
-        <v>52489.82501033024</v>
+        <v>68650.74912160133</v>
       </c>
       <c r="H20" t="n">
         <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>52595301</v>
+        <v>60268014</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>146627284</v>
+        <v>129201675</v>
       </c>
       <c r="E21" t="n">
-        <v>192944357</v>
+        <v>170014293</v>
       </c>
       <c r="F21" t="n">
-        <v>12985.56441710103</v>
+        <v>22898.29631217204</v>
       </c>
       <c r="G21" t="n">
-        <v>18433.40034633986</v>
+        <v>10059.79366390248</v>
       </c>
       <c r="H21" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I21" t="n">
-        <v>12585710</v>
+        <v>14484380</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>63822467</v>
+        <v>68310895</v>
       </c>
       <c r="E22" t="n">
-        <v>178767905</v>
+        <v>191320592</v>
       </c>
       <c r="F22" t="n">
-        <v>19905.480483921</v>
+        <v>12719.6091550628</v>
       </c>
       <c r="G22" t="n">
-        <v>24765.6879199851</v>
+        <v>32250.3321650956</v>
       </c>
       <c r="H22" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>27011789</v>
+        <v>32452321</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70384453</v>
+        <v>73627114</v>
       </c>
       <c r="E23" t="n">
-        <v>146745931</v>
+        <v>153506620</v>
       </c>
       <c r="F23" t="n">
-        <v>17483.70919936854</v>
+        <v>9367.484939911272</v>
       </c>
       <c r="G23" t="n">
-        <v>17931.70946255568</v>
+        <v>22806.01195625751</v>
       </c>
       <c r="H23" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I23" t="n">
-        <v>24571581</v>
+        <v>26340215</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>531983195</v>
+        <v>536160334</v>
       </c>
       <c r="E24" t="n">
-        <v>531983195</v>
+        <v>536160334</v>
       </c>
       <c r="F24" t="n">
-        <v>88328.59895618776</v>
+        <v>100459.7140753832</v>
       </c>
       <c r="G24" t="n">
-        <v>132832.9922938614</v>
+        <v>157856.1908287883</v>
       </c>
       <c r="H24" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>609672049</v>
+        <v>718305877</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>173314927</v>
+        <v>181267652</v>
       </c>
       <c r="E25" t="n">
-        <v>602111721</v>
+        <v>629740205</v>
       </c>
       <c r="F25" t="n">
-        <v>66767.69493167364</v>
+        <v>75072.39856635664</v>
       </c>
       <c r="G25" t="n">
-        <v>109058.9081124466</v>
+        <v>132374.6247286557</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>46533564</v>
+        <v>53750076</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4890941</v>
+        <v>4846470</v>
       </c>
       <c r="E26" t="n">
-        <v>6624044</v>
+        <v>6554663</v>
       </c>
       <c r="F26" t="n">
-        <v>103.6397432938857</v>
+        <v>584.806811612995</v>
       </c>
       <c r="G26" t="n">
-        <v>1136.932464334085</v>
+        <v>1837.829436321142</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="I26" t="n">
-        <v>6019544</v>
+        <v>5411735</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12529137</v>
+        <v>12508421</v>
       </c>
       <c r="F27" t="n">
-        <v>602.6733586604128</v>
+        <v>2205.955612282855</v>
       </c>
       <c r="G27" t="n">
-        <v>3297.924796795188</v>
+        <v>2017.787409053361</v>
       </c>
       <c r="H27" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>270911</v>
+        <v>256618</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21481527</v>
+        <v>21893691</v>
       </c>
       <c r="E28" t="n">
-        <v>30338561</v>
+        <v>30914597</v>
       </c>
       <c r="F28" t="n">
-        <v>189.5675174982488</v>
+        <v>646.3745679758563</v>
       </c>
       <c r="G28" t="n">
-        <v>112.1811228314111</v>
+        <v>856.9371807944162</v>
       </c>
       <c r="H28" t="n">
-        <v>1.07</v>
+        <v>0.41</v>
       </c>
       <c r="I28" t="n">
-        <v>126187</v>
+        <v>119166</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>217091866</v>
+        <v>218167587</v>
       </c>
       <c r="E29" t="n">
-        <v>937089011</v>
+        <v>941732419</v>
       </c>
       <c r="F29" t="n">
-        <v>98724.42975635371</v>
+        <v>133653.1539689316</v>
       </c>
       <c r="G29" t="n">
-        <v>138820.7365362289</v>
+        <v>137865.219454203</v>
       </c>
       <c r="H29" t="n">
         <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>147040265</v>
+        <v>172869651</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7962249</v>
+        <v>7786662</v>
       </c>
       <c r="E30" t="n">
-        <v>95234893</v>
+        <v>93081547</v>
       </c>
       <c r="F30" t="n">
-        <v>2242.18521532307</v>
+        <v>249.2197148341147</v>
       </c>
       <c r="G30" t="n">
-        <v>603.204144228471</v>
+        <v>354.4854073152294</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>0.86</v>
       </c>
       <c r="I30" t="n">
-        <v>529645</v>
+        <v>410806</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11967336</v>
+        <v>12278154</v>
       </c>
       <c r="E31" t="n">
-        <v>29918340</v>
+        <v>30695386</v>
       </c>
       <c r="F31" t="n">
-        <v>2167.699138652673</v>
+        <v>4232.858156759901</v>
       </c>
       <c r="G31" t="n">
-        <v>3578.710422883474</v>
+        <v>6592.253971539365</v>
       </c>
       <c r="H31" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>4716753</v>
+        <v>4629166</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17418749</v>
+        <v>17930300</v>
       </c>
       <c r="F32" t="n">
-        <v>2619.873916677046</v>
+        <v>926.9774039458996</v>
       </c>
       <c r="G32" t="n">
-        <v>3551.687310679657</v>
+        <v>4188.337212200498</v>
       </c>
       <c r="H32" t="n">
-        <v>0.51</v>
+        <v>0.72</v>
       </c>
       <c r="I32" t="n">
-        <v>38920</v>
+        <v>54565</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1718941</v>
+        <v>1375795</v>
       </c>
       <c r="E33" t="n">
-        <v>6404849</v>
+        <v>5126109</v>
       </c>
       <c r="F33" t="n">
-        <v>993.0132238485415</v>
+        <v>2022.461063390876</v>
       </c>
       <c r="G33" t="n">
-        <v>657.0450122876749</v>
+        <v>249.5344265140007</v>
       </c>
       <c r="H33" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I33" t="n">
-        <v>586029</v>
+        <v>534409</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3610422</v>
+        <v>3963847</v>
       </c>
       <c r="E34" t="n">
-        <v>10397290</v>
+        <v>11415081</v>
       </c>
       <c r="F34" t="n">
-        <v>2840.642680730601</v>
+        <v>2948.941481592071</v>
       </c>
       <c r="G34" t="n">
-        <v>5266.711741393366</v>
+        <v>5821.296728383669</v>
       </c>
       <c r="H34" t="n">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
       <c r="I34" t="n">
-        <v>371858</v>
+        <v>414931</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11170954</v>
+        <v>11065659</v>
       </c>
       <c r="E35" t="n">
-        <v>54102714</v>
+        <v>53592753</v>
       </c>
       <c r="F35" t="n">
-        <v>3736.988553207264</v>
+        <v>4224.459834863064</v>
       </c>
       <c r="G35" t="n">
-        <v>3506.594817290472</v>
+        <v>6147.63580537347</v>
       </c>
       <c r="H35" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>5859175</v>
+        <v>6726580</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1166528</v>
+        <v>1176022</v>
       </c>
       <c r="E36" t="n">
-        <v>7634896</v>
+        <v>7697032</v>
       </c>
       <c r="F36" t="n">
-        <v>4480.003163011313</v>
+        <v>941.7817989845819</v>
       </c>
       <c r="G36" t="n">
-        <v>3020.3290350657</v>
+        <v>1445.976492081129</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="I36" t="n">
-        <v>79292</v>
+        <v>76615</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1765821671</v>
+        <v>1699908734</v>
       </c>
       <c r="F37" t="n">
-        <v>235.8462230992585</v>
+        <v>49.15889329540607</v>
       </c>
       <c r="G37" t="n">
-        <v>151.4969210478432</v>
+        <v>677.4721177188135</v>
       </c>
       <c r="H37" t="n">
-        <v>0.73</v>
+        <v>1.45</v>
       </c>
       <c r="I37" t="n">
-        <v>36662189</v>
+        <v>38038891</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1735979</v>
+        <v>1766018</v>
       </c>
       <c r="E38" t="n">
-        <v>12448535</v>
+        <v>12663941</v>
       </c>
       <c r="F38" t="n">
-        <v>8.457797158644894</v>
+        <v>1300.450654538508</v>
       </c>
       <c r="G38" t="n">
-        <v>426.9618678066548</v>
+        <v>5430.861714538388</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="I38" t="n">
-        <v>1850509</v>
+        <v>1969670</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>161681746</v>
+        <v>166910720</v>
       </c>
       <c r="E39" t="n">
-        <v>915541389</v>
+        <v>945151055</v>
       </c>
       <c r="F39" t="n">
-        <v>87780.26376536203</v>
+        <v>54366.88443715909</v>
       </c>
       <c r="G39" t="n">
-        <v>97993.39361272918</v>
+        <v>99689.36497021141</v>
       </c>
       <c r="H39" t="n">
         <v>0.17</v>
       </c>
       <c r="I39" t="n">
-        <v>83261765</v>
+        <v>98968135</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>104672980</v>
+        <v>105175327</v>
       </c>
       <c r="E40" t="n">
-        <v>775355407</v>
+        <v>779076495</v>
       </c>
       <c r="F40" t="n">
-        <v>130084.0699561581</v>
+        <v>96280.66207638811</v>
       </c>
       <c r="G40" t="n">
-        <v>118007.5053055524</v>
+        <v>100350.7011687881</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I40" t="n">
-        <v>18398363</v>
+        <v>18124680</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>268252674</v>
+        <v>276381822</v>
       </c>
       <c r="E41" t="n">
-        <v>2413367389</v>
+        <v>2486502252</v>
       </c>
       <c r="F41" t="n">
-        <v>55163.85087043067</v>
+        <v>120420.9929027299</v>
       </c>
       <c r="G41" t="n">
-        <v>148309.3330481809</v>
+        <v>213165.9752644781</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>79766153</v>
+        <v>87762931</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1467481</v>
+        <v>1441899</v>
       </c>
       <c r="E42" t="n">
-        <v>12229012</v>
+        <v>12015826</v>
       </c>
       <c r="F42" t="n">
-        <v>3291.535355082164</v>
+        <v>1742.649963687792</v>
       </c>
       <c r="G42" t="n">
-        <v>1714.235387405016</v>
+        <v>2503.894225495197</v>
       </c>
       <c r="H42" t="n">
-        <v>0.33</v>
+        <v>1.48</v>
       </c>
       <c r="I42" t="n">
-        <v>75282</v>
+        <v>54898</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15199976</v>
+        <v>15817896</v>
       </c>
       <c r="E43" t="n">
-        <v>45067294</v>
+        <v>46897688</v>
       </c>
       <c r="F43" t="n">
-        <v>7829.547094474662</v>
+        <v>4721.159592080429</v>
       </c>
       <c r="G43" t="n">
-        <v>2538.193640670364</v>
+        <v>4571.276147084205</v>
       </c>
       <c r="H43" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="I43" t="n">
-        <v>3020004</v>
+        <v>8020068</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7349260</v>
+        <v>7310002</v>
       </c>
       <c r="F44" t="n">
-        <v>2808.499397344108</v>
+        <v>1844.53392632213</v>
       </c>
       <c r="G44" t="n">
-        <v>2063.809118846554</v>
+        <v>1219.874081171753</v>
       </c>
       <c r="H44" t="n">
         <v>0.27</v>
       </c>
       <c r="I44" t="n">
-        <v>88767</v>
+        <v>89449</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10747539</v>
+        <v>9193585</v>
       </c>
       <c r="E45" t="n">
-        <v>10747539</v>
+        <v>9193585</v>
       </c>
       <c r="F45" t="n">
-        <v>665.8205147140908</v>
+        <v>340.5135349476873</v>
       </c>
       <c r="G45" t="n">
-        <v>149.8225447078913</v>
+        <v>1010.308483385252</v>
       </c>
       <c r="H45" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="I45" t="n">
-        <v>3903706</v>
+        <v>4954714</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>247194550</v>
+        <v>247677551</v>
       </c>
       <c r="E46" t="n">
-        <v>247194550</v>
+        <v>247677551</v>
       </c>
       <c r="F46" t="n">
-        <v>14582.6809119498</v>
+        <v>22856.27431830724</v>
       </c>
       <c r="G46" t="n">
-        <v>14829.89332929407</v>
+        <v>18357.37555325067</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="I46" t="n">
-        <v>23277910</v>
+        <v>26650709</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10853424</v>
+        <v>10946445</v>
       </c>
       <c r="E47" t="n">
-        <v>34318086</v>
+        <v>34609715</v>
       </c>
       <c r="F47" t="n">
-        <v>8680.808816549181</v>
+        <v>7994.421302256544</v>
       </c>
       <c r="G47" t="n">
-        <v>5190.709876318132</v>
+        <v>6195.648419889286</v>
       </c>
       <c r="H47" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="I47" t="n">
-        <v>1744825</v>
+        <v>1933783</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>28013968</v>
+        <v>27601927</v>
       </c>
       <c r="E48" t="n">
-        <v>77595912</v>
+        <v>76454598</v>
       </c>
       <c r="F48" t="n">
-        <v>4699.058837316421</v>
+        <v>4779.216781178639</v>
       </c>
       <c r="G48" t="n">
-        <v>4968.812361554077</v>
+        <v>6212.216194447942</v>
       </c>
       <c r="H48" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I48" t="n">
-        <v>9261728</v>
+        <v>9734887</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25026208</v>
+        <v>24488296</v>
       </c>
       <c r="E49" t="n">
-        <v>59366806</v>
+        <v>58090779</v>
       </c>
       <c r="F49" t="n">
-        <v>2404.438239245923</v>
+        <v>12243.33517867303</v>
       </c>
       <c r="G49" t="n">
-        <v>2899.346077844291</v>
+        <v>9560.263439248776</v>
       </c>
       <c r="H49" t="n">
-        <v>0.76</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>585687</v>
+        <v>788657</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11249595</v>
+        <v>11295179</v>
       </c>
       <c r="E50" t="n">
-        <v>17042323</v>
+        <v>17111381</v>
       </c>
       <c r="F50" t="n">
-        <v>3018.36627175442</v>
+        <v>5593.076728602999</v>
       </c>
       <c r="G50" t="n">
-        <v>17505.19944437681</v>
+        <v>19035.47627876895</v>
       </c>
       <c r="H50" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="I50" t="n">
-        <v>761976</v>
+        <v>734897</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>248781462</v>
+        <v>259417774</v>
       </c>
       <c r="E51" t="n">
-        <v>248781462</v>
+        <v>259417774</v>
       </c>
       <c r="F51" t="n">
-        <v>15456.18161851296</v>
+        <v>16978.99202060866</v>
       </c>
       <c r="G51" t="n">
-        <v>40177.00989593699</v>
+        <v>43485.34138849886</v>
       </c>
       <c r="H51" t="n">
         <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>104923864</v>
+        <v>121792153</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>74442475</v>
+        <v>76289846</v>
       </c>
       <c r="E52" t="n">
-        <v>428969652</v>
+        <v>439614995</v>
       </c>
       <c r="F52" t="n">
-        <v>49066.4654099453</v>
+        <v>19413.27886508928</v>
       </c>
       <c r="G52" t="n">
-        <v>55079.66908688154</v>
+        <v>70455.20069887617</v>
       </c>
       <c r="H52" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="I52" t="n">
-        <v>19067538</v>
+        <v>26366838</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>27557270</v>
+        <v>27659575</v>
       </c>
       <c r="E53" t="n">
-        <v>123385201</v>
+        <v>123843264</v>
       </c>
       <c r="F53" t="n">
-        <v>5166.218553233643</v>
+        <v>5510.666307775646</v>
       </c>
       <c r="G53" t="n">
-        <v>9630.082630722312</v>
+        <v>9636.936163044875</v>
       </c>
       <c r="H53" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I53" t="n">
-        <v>32551113</v>
+        <v>34248915</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7803117</v>
+        <v>7835373</v>
       </c>
       <c r="F54" t="n">
-        <v>3104.518032719242</v>
+        <v>2720.41924400875</v>
       </c>
       <c r="G54" t="n">
-        <v>2868.104290779958</v>
+        <v>4611.151559588153</v>
       </c>
       <c r="H54" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="I54" t="n">
-        <v>299495</v>
+        <v>60629</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4096241</v>
+        <v>4227701</v>
       </c>
       <c r="F55" t="n">
-        <v>4256.040441853484</v>
+        <v>5181.176128206122</v>
       </c>
       <c r="G55" t="n">
-        <v>753.0808543399726</v>
+        <v>621.7029240379377</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I55" t="n">
-        <v>237426</v>
+        <v>250180</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123618085</v>
+        <v>123617309</v>
       </c>
       <c r="E56" t="n">
-        <v>2047216738</v>
+        <v>2047203887</v>
       </c>
       <c r="F56" t="n">
-        <v>174648.112240336</v>
+        <v>183709.6923578391</v>
       </c>
       <c r="G56" t="n">
-        <v>175553.1291222466</v>
+        <v>188977.3235681333</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>12717216</v>
+        <v>22970553</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>72174777</v>
+        <v>72505197</v>
       </c>
       <c r="E57" t="n">
-        <v>72951639</v>
+        <v>73285611</v>
       </c>
       <c r="F57" t="n">
-        <v>12875.19085346858</v>
+        <v>13850.46632589901</v>
       </c>
       <c r="G57" t="n">
-        <v>27932.12396000537</v>
+        <v>29876.28307267558</v>
       </c>
       <c r="H57" t="n">
         <v>0.19</v>
       </c>
       <c r="I57" t="n">
-        <v>13621085</v>
+        <v>14314895</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>205738095</v>
+        <v>221357711</v>
       </c>
       <c r="E58" t="n">
-        <v>205738095</v>
+        <v>221357711</v>
       </c>
       <c r="F58" t="n">
-        <v>42982.02256764314</v>
+        <v>71067.29371754285</v>
       </c>
       <c r="G58" t="n">
-        <v>74962.37558314044</v>
+        <v>58617.59846301168</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>66202772</v>
+        <v>69880566</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>19794972</v>
+        <v>20377334</v>
       </c>
       <c r="E59" t="n">
-        <v>118437299</v>
+        <v>121921685</v>
       </c>
       <c r="F59" t="n">
-        <v>17716.93785574761</v>
+        <v>27504.04704131005</v>
       </c>
       <c r="G59" t="n">
-        <v>32433.63271812407</v>
+        <v>12389.34668230915</v>
       </c>
       <c r="H59" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I59" t="n">
-        <v>22310560</v>
+        <v>25685772</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2327187</v>
+        <v>2277705</v>
       </c>
       <c r="E60" t="n">
-        <v>4294957</v>
+        <v>4203634</v>
       </c>
       <c r="F60" t="n">
-        <v>17.60183481169356</v>
+        <v>25.43918014788392</v>
       </c>
       <c r="G60" t="n">
-        <v>1290.961370457726</v>
+        <v>21.14225429618515</v>
       </c>
       <c r="H60" t="n">
-        <v>0.59</v>
+        <v>1.2</v>
       </c>
       <c r="I60" t="n">
-        <v>210076</v>
+        <v>47831</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10323000</v>
+        <v>10202459</v>
       </c>
       <c r="E62" t="n">
-        <v>30214744</v>
+        <v>29861648</v>
       </c>
       <c r="F62" t="n">
-        <v>3285.242388602964</v>
+        <v>3618.07331982997</v>
       </c>
       <c r="G62" t="n">
-        <v>4169.738946412693</v>
+        <v>3467.082496931961</v>
       </c>
       <c r="H62" t="n">
         <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>5873543</v>
+        <v>7485030</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14204783</v>
+        <v>14031339</v>
       </c>
       <c r="E63" t="n">
-        <v>28756716</v>
+        <v>28405589</v>
       </c>
       <c r="F63" t="n">
-        <v>5416.185192272322</v>
+        <v>5497.19380698808</v>
       </c>
       <c r="G63" t="n">
-        <v>16179.29690306159</v>
+        <v>19803.54506698803</v>
       </c>
       <c r="H63" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="I63" t="n">
-        <v>470537</v>
+        <v>519148</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>28545353</v>
+        <v>28633979</v>
       </c>
       <c r="E64" t="n">
-        <v>202381894</v>
+        <v>203010239</v>
       </c>
       <c r="F64" t="n">
-        <v>17313.28827072322</v>
+        <v>37252.43188114689</v>
       </c>
       <c r="G64" t="n">
-        <v>43856.32766920638</v>
+        <v>26977.11045507357</v>
       </c>
       <c r="H64" t="n">
         <v>0.15</v>
       </c>
       <c r="I64" t="n">
-        <v>2985548</v>
+        <v>4557539</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1233413</v>
+        <v>1226853</v>
       </c>
       <c r="E65" t="n">
-        <v>7635236</v>
+        <v>7594340</v>
       </c>
       <c r="F65" t="n">
-        <v>2018.328024064288</v>
+        <v>2925.374479549109</v>
       </c>
       <c r="G65" t="n">
-        <v>2396.853812136556</v>
+        <v>2552.589910683194</v>
       </c>
       <c r="H65" t="n">
         <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>758645</v>
+        <v>754995</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>495760125</v>
+        <v>518704559</v>
       </c>
       <c r="E66" t="n">
-        <v>1920005821</v>
+        <v>2008866228</v>
       </c>
       <c r="F66" t="n">
-        <v>24477.27703775525</v>
+        <v>19576.78368518807</v>
       </c>
       <c r="G66" t="n">
-        <v>58175.33714150178</v>
+        <v>57167.32428624455</v>
       </c>
       <c r="H66" t="n">
         <v>0.1</v>
       </c>
       <c r="I66" t="n">
-        <v>81839279</v>
+        <v>98934666</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5264153</v>
+        <v>5098366</v>
       </c>
       <c r="E67" t="n">
-        <v>23396253</v>
+        <v>22627104</v>
       </c>
       <c r="F67" t="n">
-        <v>4796.276090696632</v>
+        <v>6357.21516525306</v>
       </c>
       <c r="G67" t="n">
-        <v>4486.1345136331</v>
+        <v>2220.403467770209</v>
       </c>
       <c r="H67" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="I67" t="n">
-        <v>165768</v>
+        <v>174131</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>94264348</v>
+        <v>93868169</v>
       </c>
       <c r="E68" t="n">
-        <v>891906896</v>
+        <v>888158342</v>
       </c>
       <c r="F68" t="n">
-        <v>15644.91921216621</v>
+        <v>16285.67454403207</v>
       </c>
       <c r="G68" t="n">
-        <v>15441.00045201538</v>
+        <v>16342.49510691959</v>
       </c>
       <c r="H68" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I68" t="n">
-        <v>17384177</v>
+        <v>16823777</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>74665046</v>
+        <v>78001827</v>
       </c>
       <c r="E69" t="n">
-        <v>113903278</v>
+        <v>118993615</v>
       </c>
       <c r="F69" t="n">
-        <v>14301.19143712738</v>
+        <v>58593.73416179769</v>
       </c>
       <c r="G69" t="n">
-        <v>6548.866594133284</v>
+        <v>55531.04215538128</v>
       </c>
       <c r="H69" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="I69" t="n">
-        <v>7310123</v>
+        <v>9373165</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>995766</v>
+        <v>1031081</v>
       </c>
       <c r="E70" t="n">
-        <v>3855823</v>
+        <v>3992572</v>
       </c>
       <c r="F70" t="n">
-        <v>2637.981183316235</v>
+        <v>2875.850967950843</v>
       </c>
       <c r="G70" t="n">
-        <v>2270.813509699105</v>
+        <v>1995.367238145357</v>
       </c>
       <c r="H70" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="I70" t="n">
-        <v>161463</v>
+        <v>140730</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>123200346</v>
+        <v>123419984</v>
       </c>
       <c r="E71" t="n">
-        <v>472616357</v>
+        <v>473458925</v>
       </c>
       <c r="F71" t="n">
-        <v>14032.83980756806</v>
+        <v>7878.233182226443</v>
       </c>
       <c r="G71" t="n">
-        <v>12914.14812333088</v>
+        <v>11909.2383387651</v>
       </c>
       <c r="H71" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>34760378</v>
+        <v>38213088</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2814818</v>
+        <v>2781596</v>
       </c>
       <c r="E72" t="n">
-        <v>26670812</v>
+        <v>26356031</v>
       </c>
       <c r="F72" t="n">
-        <v>688.6011774214061</v>
+        <v>3820.83169277124</v>
       </c>
       <c r="G72" t="n">
-        <v>1024.490011086418</v>
+        <v>1084.439869327715</v>
       </c>
       <c r="H72" t="n">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
       <c r="I72" t="n">
-        <v>169374</v>
+        <v>198455</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35756939</v>
+        <v>34139571</v>
       </c>
       <c r="F73" t="n">
-        <v>3001.081654225403</v>
+        <v>2278.345697469429</v>
       </c>
       <c r="G73" t="n">
-        <v>1220.171443745053</v>
+        <v>1333.871859941363</v>
       </c>
       <c r="H73" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I73" t="n">
-        <v>11430520</v>
+        <v>12180210</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>100768862</v>
+        <v>101327099</v>
       </c>
       <c r="E74" t="n">
-        <v>367352307</v>
+        <v>369375634</v>
       </c>
       <c r="F74" t="n">
-        <v>529.908970753141</v>
+        <v>537.7833346477177</v>
       </c>
       <c r="G74" t="n">
-        <v>685.5225389008862</v>
+        <v>620.2576524197902</v>
       </c>
       <c r="H74" t="n">
-        <v>0.73</v>
+        <v>0.16</v>
       </c>
       <c r="I74" t="n">
-        <v>540656</v>
+        <v>440044</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>18271706</v>
+        <v>20115102</v>
       </c>
       <c r="E75" t="n">
-        <v>18271706</v>
+        <v>20115102</v>
       </c>
       <c r="F75" t="n">
-        <v>3515.259468720263</v>
+        <v>5744.258583262137</v>
       </c>
       <c r="G75" t="n">
-        <v>5086.304873075479</v>
+        <v>9147.939802200712</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I75" t="n">
-        <v>10262918</v>
+        <v>12950960</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>381207251</v>
+        <v>399679180</v>
       </c>
       <c r="E76" t="n">
-        <v>1324264676</v>
+        <v>1388433768</v>
       </c>
       <c r="F76" t="n">
-        <v>42251.39500711854</v>
+        <v>166361.6922826772</v>
       </c>
       <c r="G76" t="n">
-        <v>71223.37363520102</v>
+        <v>174870.3344017091</v>
       </c>
       <c r="H76" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I76" t="n">
-        <v>77217498</v>
+        <v>85231003</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5007559546</v>
+        <v>4967336680</v>
       </c>
       <c r="E77" t="n">
-        <v>5007559546</v>
+        <v>4967336680</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>29.57</v>
+        <v>29.9</v>
       </c>
       <c r="I77" t="n">
-        <v>22864751</v>
+        <v>33061934</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6967555</v>
+        <v>6859635</v>
       </c>
       <c r="E78" t="n">
-        <v>18100959</v>
+        <v>17820595</v>
       </c>
       <c r="F78" t="n">
-        <v>5150.587688855545</v>
+        <v>1634.396141459828</v>
       </c>
       <c r="G78" t="n">
-        <v>725.6185384439966</v>
+        <v>2659.059183270962</v>
       </c>
       <c r="H78" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="I78" t="n">
-        <v>611102</v>
+        <v>672334</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>98224385</v>
+        <v>97194928</v>
       </c>
       <c r="E79" t="n">
-        <v>148821292</v>
+        <v>147261546</v>
       </c>
       <c r="F79" t="n">
-        <v>26500.52268251258</v>
+        <v>38669.85711735845</v>
       </c>
       <c r="G79" t="n">
-        <v>37051.82785915299</v>
+        <v>38956.58020164406</v>
       </c>
       <c r="H79" t="n">
         <v>0.26</v>
       </c>
       <c r="I79" t="n">
-        <v>9235757</v>
+        <v>10243863</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1806194</v>
+        <v>1877091</v>
       </c>
       <c r="E80" t="n">
-        <v>7224777</v>
+        <v>7508363</v>
       </c>
       <c r="F80" t="n">
-        <v>2389.183296632834</v>
+        <v>2424.91936676584</v>
       </c>
       <c r="G80" t="n">
-        <v>1679.474076491182</v>
+        <v>2010.493544331036</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="I80" t="n">
-        <v>5954177</v>
+        <v>6678503</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3217590</v>
+        <v>3414936</v>
       </c>
       <c r="F81" t="n">
-        <v>83.83654645851648</v>
+        <v>1647.793061376924</v>
       </c>
       <c r="G81" t="n">
-        <v>67.31571428638522</v>
+        <v>1701.75911580899</v>
       </c>
       <c r="H81" t="n">
-        <v>0.17</v>
+        <v>0.76</v>
       </c>
       <c r="I81" t="n">
-        <v>1241982</v>
+        <v>1194650</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>339616554</v>
+        <v>347413699</v>
       </c>
       <c r="E82" t="n">
-        <v>1940666022</v>
+        <v>1985221135</v>
       </c>
       <c r="F82" t="n">
-        <v>14365.7003421855</v>
+        <v>19910.29952720558</v>
       </c>
       <c r="G82" t="n">
-        <v>44011.78211758794</v>
+        <v>44975.07236355042</v>
       </c>
       <c r="H82" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>90056129</v>
+        <v>98677399</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4466504</v>
+        <v>4519260</v>
       </c>
       <c r="F2" t="n">
-        <v>2351.187816875201</v>
+        <v>1437.896597248663</v>
       </c>
       <c r="G2" t="n">
-        <v>1862.995029181058</v>
+        <v>1693.682075610483</v>
       </c>
       <c r="H2" t="n">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="I2" t="n">
-        <v>195408</v>
+        <v>311854</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1367630</v>
+        <v>1421558</v>
       </c>
       <c r="E3" t="n">
-        <v>4305537</v>
+        <v>4475311</v>
       </c>
       <c r="F3" t="n">
-        <v>626.5924046306176</v>
+        <v>5014.696377152918</v>
       </c>
       <c r="G3" t="n">
-        <v>484.9572357531795</v>
+        <v>5545.190781931726</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I3" t="n">
-        <v>86608</v>
+        <v>89549</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>211006370</v>
+        <v>219438998</v>
       </c>
       <c r="E4" t="n">
-        <v>1323191287</v>
+        <v>1376071113</v>
       </c>
       <c r="F4" t="n">
-        <v>140845.1425169713</v>
+        <v>142515.7644441694</v>
       </c>
       <c r="G4" t="n">
-        <v>158624.6134499751</v>
+        <v>157609.3051100517</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>31249161</v>
+        <v>26401574</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>121766076</v>
+        <v>128243401</v>
       </c>
       <c r="E5" t="n">
-        <v>134935841</v>
+        <v>142113729</v>
       </c>
       <c r="F5" t="n">
-        <v>29279.86597184572</v>
+        <v>35251.72733081848</v>
       </c>
       <c r="G5" t="n">
-        <v>44524.04553418879</v>
+        <v>38903.71812298977</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I5" t="n">
-        <v>57837019</v>
+        <v>46898377</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>100110745</v>
+        <v>114363671</v>
       </c>
       <c r="E6" t="n">
-        <v>392404146</v>
+        <v>409609965</v>
       </c>
       <c r="F6" t="n">
-        <v>8737.168359083164</v>
+        <v>11282.22883070671</v>
       </c>
       <c r="G6" t="n">
-        <v>7154.474373250703</v>
+        <v>4408.656653713375</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>31601064</v>
+        <v>24329878</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3541230</v>
+        <v>3624677</v>
       </c>
       <c r="E7" t="n">
-        <v>21685763</v>
+        <v>22179653</v>
       </c>
       <c r="F7" t="n">
-        <v>2411.424952604818</v>
+        <v>1962.462403486227</v>
       </c>
       <c r="G7" t="n">
-        <v>1702.567251146344</v>
+        <v>1920.639910703402</v>
       </c>
       <c r="H7" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>274112</v>
+        <v>310698</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>172256</v>
+        <v>168886</v>
       </c>
       <c r="E8" t="n">
-        <v>1895009</v>
+        <v>1857931</v>
       </c>
       <c r="F8" t="n">
-        <v>1906.401231931348</v>
+        <v>3365.526400819035</v>
       </c>
       <c r="G8" t="n">
-        <v>2589.065727216626</v>
+        <v>3197.710969819269</v>
       </c>
       <c r="H8" t="n">
-        <v>0.68</v>
+        <v>0.21</v>
       </c>
       <c r="I8" t="n">
-        <v>87954</v>
+        <v>90963</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66339508</v>
+        <v>66545307</v>
       </c>
       <c r="E9" t="n">
-        <v>114596412</v>
+        <v>114923145</v>
       </c>
       <c r="F9" t="n">
-        <v>8942.901764948116</v>
+        <v>9362.851507629477</v>
       </c>
       <c r="G9" t="n">
-        <v>8821.198638723572</v>
+        <v>8819.152911236442</v>
       </c>
       <c r="H9" t="n">
         <v>0.35</v>
       </c>
       <c r="I9" t="n">
-        <v>848839</v>
+        <v>771896</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8652884</v>
+        <v>8738592</v>
       </c>
       <c r="E10" t="n">
-        <v>12247515</v>
+        <v>12368828</v>
       </c>
       <c r="F10" t="n">
-        <v>2905.957678994121</v>
+        <v>2882.064065913313</v>
       </c>
       <c r="G10" t="n">
-        <v>3076.152210741529</v>
+        <v>2960.565245089483</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="I10" t="n">
-        <v>23085</v>
+        <v>17467.32</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>387059822</v>
+        <v>393001614</v>
       </c>
       <c r="E11" t="n">
-        <v>387059822</v>
+        <v>393001614</v>
       </c>
       <c r="F11" t="n">
-        <v>38927.23700718767</v>
+        <v>22684.32649101256</v>
       </c>
       <c r="G11" t="n">
-        <v>14122.91939564726</v>
+        <v>23728.77954856033</v>
       </c>
       <c r="H11" t="n">
         <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>49034589</v>
+        <v>44654691</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>289865</v>
+        <v>288226</v>
       </c>
       <c r="E12" t="n">
-        <v>1353118</v>
+        <v>1345467</v>
       </c>
       <c r="F12" t="n">
-        <v>154.9809162383272</v>
+        <v>23.56958750665273</v>
       </c>
       <c r="G12" t="n">
-        <v>2279.32790524084</v>
+        <v>52.90869401702481</v>
       </c>
       <c r="H12" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="I12" t="n">
-        <v>715766</v>
+        <v>699068</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1503704</v>
+        <v>1789690</v>
       </c>
       <c r="F13" t="n">
-        <v>2279.773698357915</v>
+        <v>1036.743418074587</v>
       </c>
       <c r="G13" t="n">
-        <v>3508.934078483226</v>
+        <v>402.6684076773259</v>
       </c>
       <c r="H13" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>154076</v>
+        <v>256920</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10384707</v>
+        <v>10867492</v>
       </c>
       <c r="E14" t="n">
-        <v>25845659</v>
+        <v>27047223</v>
       </c>
       <c r="F14" t="n">
-        <v>1016.569279595974</v>
+        <v>870.7322882028574</v>
       </c>
       <c r="G14" t="n">
-        <v>928.5315547709251</v>
+        <v>1539.843562200803</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I14" t="n">
-        <v>824412</v>
+        <v>1243451</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>96655997</v>
+        <v>100328198</v>
       </c>
       <c r="E15" t="n">
-        <v>373756274</v>
+        <v>387724463</v>
       </c>
       <c r="F15" t="n">
-        <v>8609.89322825435</v>
+        <v>10654.55526855069</v>
       </c>
       <c r="G15" t="n">
-        <v>10221.47159353661</v>
+        <v>14623.83984457072</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>14086499</v>
+        <v>10549809</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4267721</v>
+        <v>4280455</v>
       </c>
       <c r="E16" t="n">
-        <v>6282317</v>
+        <v>6301061</v>
       </c>
       <c r="F16" t="n">
-        <v>2957.285084189923</v>
+        <v>3146.526140484185</v>
       </c>
       <c r="G16" t="n">
-        <v>2156.869677578456</v>
+        <v>3964.864123233589</v>
       </c>
       <c r="H16" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
       <c r="I16" t="n">
-        <v>747609</v>
+        <v>699311</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>435435</v>
+        <v>478502</v>
       </c>
       <c r="E17" t="n">
-        <v>1795591</v>
+        <v>1973185</v>
       </c>
       <c r="F17" t="n">
-        <v>14.80988784754603</v>
+        <v>562.0913441431068</v>
       </c>
       <c r="G17" t="n">
-        <v>583.0516621198312</v>
+        <v>1267.912904642477</v>
       </c>
       <c r="H17" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="I17" t="n">
-        <v>46855</v>
+        <v>43172</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>124718324</v>
+        <v>128851486</v>
       </c>
       <c r="E18" t="n">
-        <v>124718324</v>
+        <v>128851486</v>
       </c>
       <c r="F18" t="n">
-        <v>33137.53453829011</v>
+        <v>40635.0101067661</v>
       </c>
       <c r="G18" t="n">
-        <v>49330.54173699715</v>
+        <v>83851.34062175061</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>164957201</v>
+        <v>125321847</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62518763</v>
+        <v>63942885</v>
       </c>
       <c r="E19" t="n">
-        <v>320609041</v>
+        <v>327912230</v>
       </c>
       <c r="F19" t="n">
-        <v>5762.189394758161</v>
+        <v>3419.333565981439</v>
       </c>
       <c r="G19" t="n">
-        <v>6330.490708739535</v>
+        <v>8457.14404887202</v>
       </c>
       <c r="H19" t="n">
         <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>39520487</v>
+        <v>33542420</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>208978646</v>
+        <v>215817769</v>
       </c>
       <c r="E20" t="n">
-        <v>208978646</v>
+        <v>215817769</v>
       </c>
       <c r="F20" t="n">
-        <v>26570.81744856773</v>
+        <v>46911.49138063074</v>
       </c>
       <c r="G20" t="n">
-        <v>68650.74912160133</v>
+        <v>44824.66744861567</v>
       </c>
       <c r="H20" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>60268014</v>
+        <v>41559021</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>129201675</v>
+        <v>142800765</v>
       </c>
       <c r="E21" t="n">
-        <v>170014293</v>
+        <v>187909105</v>
       </c>
       <c r="F21" t="n">
-        <v>22898.29631217204</v>
+        <v>13526.2678570275</v>
       </c>
       <c r="G21" t="n">
-        <v>10059.79366390248</v>
+        <v>19446.90526565188</v>
       </c>
       <c r="H21" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I21" t="n">
-        <v>14484380</v>
+        <v>10270802</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68310895</v>
+        <v>68136086</v>
       </c>
       <c r="E22" t="n">
-        <v>191320592</v>
+        <v>190862661</v>
       </c>
       <c r="F22" t="n">
-        <v>12719.6091550628</v>
+        <v>49562.54914755339</v>
       </c>
       <c r="G22" t="n">
-        <v>32250.3321650956</v>
+        <v>23867.57343532279</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I22" t="n">
-        <v>32452321</v>
+        <v>34170328</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73627114</v>
+        <v>75260070</v>
       </c>
       <c r="E23" t="n">
-        <v>153506620</v>
+        <v>156911201</v>
       </c>
       <c r="F23" t="n">
-        <v>9367.484939911272</v>
+        <v>13359.51478693745</v>
       </c>
       <c r="G23" t="n">
-        <v>22806.01195625751</v>
+        <v>19283.79042633347</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I23" t="n">
-        <v>26340215</v>
+        <v>21503411</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>536160334</v>
+        <v>574720654</v>
       </c>
       <c r="E24" t="n">
-        <v>536160334</v>
+        <v>574720654</v>
       </c>
       <c r="F24" t="n">
-        <v>100459.7140753832</v>
+        <v>130218.6956425363</v>
       </c>
       <c r="G24" t="n">
-        <v>157856.1908287883</v>
+        <v>121945.0956509729</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>718305877</v>
+        <v>616451640</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>181267652</v>
+        <v>184782344</v>
       </c>
       <c r="E25" t="n">
-        <v>629740205</v>
+        <v>641950563</v>
       </c>
       <c r="F25" t="n">
-        <v>75072.39856635664</v>
+        <v>73067.83811677013</v>
       </c>
       <c r="G25" t="n">
-        <v>132374.6247286557</v>
+        <v>133428.8126606478</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>53750076</v>
+        <v>47367788</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4846470</v>
+        <v>5024448</v>
       </c>
       <c r="E26" t="n">
-        <v>6554663</v>
+        <v>6794396</v>
       </c>
       <c r="F26" t="n">
-        <v>584.806811612995</v>
+        <v>2373.053534514672</v>
       </c>
       <c r="G26" t="n">
-        <v>1837.829436321142</v>
+        <v>2770.10226933328</v>
       </c>
       <c r="H26" t="n">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="I26" t="n">
-        <v>5411735</v>
+        <v>4530889</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12508421</v>
+        <v>12574505</v>
       </c>
       <c r="F27" t="n">
-        <v>2205.955612282855</v>
+        <v>2334.266752859252</v>
       </c>
       <c r="G27" t="n">
-        <v>2017.787409053361</v>
+        <v>2568.291832129255</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="I27" t="n">
-        <v>256618</v>
+        <v>231200</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21893691</v>
+        <v>23257066</v>
       </c>
       <c r="E28" t="n">
-        <v>30914597</v>
+        <v>32839442</v>
       </c>
       <c r="F28" t="n">
-        <v>646.3745679758563</v>
+        <v>184.1974159729425</v>
       </c>
       <c r="G28" t="n">
-        <v>856.9371807944162</v>
+        <v>6662.365986547748</v>
       </c>
       <c r="H28" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="I28" t="n">
-        <v>119166</v>
+        <v>105975</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>218167587</v>
+        <v>225703055</v>
       </c>
       <c r="E29" t="n">
-        <v>941732419</v>
+        <v>974259684</v>
       </c>
       <c r="F29" t="n">
-        <v>133653.1539689316</v>
+        <v>141128.2201693896</v>
       </c>
       <c r="G29" t="n">
-        <v>137865.219454203</v>
+        <v>145892.6533885774</v>
       </c>
       <c r="H29" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>172869651</v>
+        <v>136730294</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7786662</v>
+        <v>7773425</v>
       </c>
       <c r="E30" t="n">
-        <v>93081547</v>
+        <v>92904167</v>
       </c>
       <c r="F30" t="n">
-        <v>249.2197148341147</v>
+        <v>3211.656420220352</v>
       </c>
       <c r="G30" t="n">
-        <v>354.4854073152294</v>
+        <v>2198.998796209696</v>
       </c>
       <c r="H30" t="n">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="I30" t="n">
-        <v>410806</v>
+        <v>275798</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12278154</v>
+        <v>12190494</v>
       </c>
       <c r="E31" t="n">
-        <v>30695386</v>
+        <v>30476235</v>
       </c>
       <c r="F31" t="n">
-        <v>4232.858156759901</v>
+        <v>5404.419893064017</v>
       </c>
       <c r="G31" t="n">
-        <v>6592.253971539365</v>
+        <v>9258.403794158772</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>4629166</v>
+        <v>3929926</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17930300</v>
+        <v>18168185</v>
       </c>
       <c r="F32" t="n">
-        <v>926.9774039458996</v>
+        <v>3046.731583485901</v>
       </c>
       <c r="G32" t="n">
-        <v>4188.337212200498</v>
+        <v>5180.796965519344</v>
       </c>
       <c r="H32" t="n">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="I32" t="n">
-        <v>54565</v>
+        <v>50668</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1375795</v>
+        <v>1436820</v>
       </c>
       <c r="E33" t="n">
-        <v>5126109</v>
+        <v>5353324</v>
       </c>
       <c r="F33" t="n">
-        <v>2022.461063390876</v>
+        <v>3168.369950439617</v>
       </c>
       <c r="G33" t="n">
-        <v>249.5344265140007</v>
+        <v>716.7452985068578</v>
       </c>
       <c r="H33" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I33" t="n">
-        <v>534409</v>
+        <v>637856</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3963847</v>
+        <v>4178743</v>
       </c>
       <c r="E34" t="n">
-        <v>11415081</v>
+        <v>12033934</v>
       </c>
       <c r="F34" t="n">
-        <v>2948.941481592071</v>
+        <v>3598.142614106435</v>
       </c>
       <c r="G34" t="n">
-        <v>5821.296728383669</v>
+        <v>5629.715628542692</v>
       </c>
       <c r="H34" t="n">
-        <v>0.53</v>
+        <v>0.99</v>
       </c>
       <c r="I34" t="n">
-        <v>414931</v>
+        <v>451876</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11065659</v>
+        <v>11586124</v>
       </c>
       <c r="E35" t="n">
-        <v>53592753</v>
+        <v>56113447</v>
       </c>
       <c r="F35" t="n">
-        <v>4224.459834863064</v>
+        <v>4068.238175680539</v>
       </c>
       <c r="G35" t="n">
-        <v>6147.63580537347</v>
+        <v>2654.368593781958</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>6726580</v>
+        <v>5361006</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1176022</v>
+        <v>1197175</v>
       </c>
       <c r="E36" t="n">
-        <v>7697032</v>
+        <v>7835479</v>
       </c>
       <c r="F36" t="n">
-        <v>941.7817989845819</v>
+        <v>4052.615719104974</v>
       </c>
       <c r="G36" t="n">
-        <v>1445.976492081129</v>
+        <v>3114.259450732655</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="I36" t="n">
-        <v>76615</v>
+        <v>88381</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1699908734</v>
+        <v>1737549496</v>
       </c>
       <c r="F37" t="n">
-        <v>49.15889329540607</v>
+        <v>87.45072295662426</v>
       </c>
       <c r="G37" t="n">
-        <v>677.4721177188135</v>
+        <v>756.9414472213938</v>
       </c>
       <c r="H37" t="n">
-        <v>1.45</v>
+        <v>0.92</v>
       </c>
       <c r="I37" t="n">
-        <v>38038891</v>
+        <v>36219929</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1766018</v>
+        <v>1760186</v>
       </c>
       <c r="E38" t="n">
-        <v>12663941</v>
+        <v>12622118</v>
       </c>
       <c r="F38" t="n">
-        <v>1300.450654538508</v>
+        <v>5158.657162609091</v>
       </c>
       <c r="G38" t="n">
-        <v>5430.861714538388</v>
+        <v>4705.548756452797</v>
       </c>
       <c r="H38" t="n">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
       <c r="I38" t="n">
-        <v>1969670</v>
+        <v>2089393</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>166910720</v>
+        <v>172960354</v>
       </c>
       <c r="E39" t="n">
-        <v>945151055</v>
+        <v>979407801</v>
       </c>
       <c r="F39" t="n">
-        <v>54366.88443715909</v>
+        <v>85189.38142897138</v>
       </c>
       <c r="G39" t="n">
-        <v>99689.36497021141</v>
+        <v>97948.9674853467</v>
       </c>
       <c r="H39" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>98968135</v>
+        <v>88017926</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>105175327</v>
+        <v>107087479</v>
       </c>
       <c r="E40" t="n">
-        <v>779076495</v>
+        <v>793240586</v>
       </c>
       <c r="F40" t="n">
-        <v>96280.66207638811</v>
+        <v>109727.6582607863</v>
       </c>
       <c r="G40" t="n">
-        <v>100350.7011687881</v>
+        <v>117657.9045711595</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I40" t="n">
-        <v>18124680</v>
+        <v>15228844</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>276381822</v>
+        <v>291805452</v>
       </c>
       <c r="E41" t="n">
-        <v>2486502252</v>
+        <v>2625262790</v>
       </c>
       <c r="F41" t="n">
-        <v>120420.9929027299</v>
+        <v>96042.75093544131</v>
       </c>
       <c r="G41" t="n">
-        <v>213165.9752644781</v>
+        <v>186215.4606757688</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>87762931</v>
+        <v>72547379</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1441899</v>
+        <v>1458383</v>
       </c>
       <c r="E42" t="n">
-        <v>12015826</v>
+        <v>12153194</v>
       </c>
       <c r="F42" t="n">
-        <v>1742.649963687792</v>
+        <v>1755.591115918626</v>
       </c>
       <c r="G42" t="n">
-        <v>2503.894225495197</v>
+        <v>3978.643733891081</v>
       </c>
       <c r="H42" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="I42" t="n">
-        <v>54898</v>
+        <v>19641.57</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15817896</v>
+        <v>16330951</v>
       </c>
       <c r="E43" t="n">
-        <v>46897688</v>
+        <v>48420291</v>
       </c>
       <c r="F43" t="n">
-        <v>4721.159592080429</v>
+        <v>12545.1552748365</v>
       </c>
       <c r="G43" t="n">
-        <v>4571.276147084205</v>
+        <v>17487.55129705167</v>
       </c>
       <c r="H43" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I43" t="n">
-        <v>8020068</v>
+        <v>7857557</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7310002</v>
+        <v>7542396</v>
       </c>
       <c r="F44" t="n">
-        <v>1844.53392632213</v>
+        <v>3096.963825455494</v>
       </c>
       <c r="G44" t="n">
-        <v>1219.874081171753</v>
+        <v>2727.924172273609</v>
       </c>
       <c r="H44" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I44" t="n">
-        <v>89449</v>
+        <v>86142</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9193585</v>
+        <v>10100272</v>
       </c>
       <c r="E45" t="n">
-        <v>9193585</v>
+        <v>10100272</v>
       </c>
       <c r="F45" t="n">
-        <v>340.5135349476873</v>
+        <v>48.59827479504823</v>
       </c>
       <c r="G45" t="n">
-        <v>1010.308483385252</v>
+        <v>688.3127473741013</v>
       </c>
       <c r="H45" t="n">
-        <v>0.43</v>
+        <v>1.98</v>
       </c>
       <c r="I45" t="n">
-        <v>4954714</v>
+        <v>4565379</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>247677551</v>
+        <v>265484087</v>
       </c>
       <c r="E46" t="n">
-        <v>247677551</v>
+        <v>265484087</v>
       </c>
       <c r="F46" t="n">
-        <v>22856.27431830724</v>
+        <v>9817.112015283315</v>
       </c>
       <c r="G46" t="n">
-        <v>18357.37555325067</v>
+        <v>20520.00376607243</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="I46" t="n">
-        <v>26650709</v>
+        <v>21262655</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10946445</v>
+        <v>10929639</v>
       </c>
       <c r="E47" t="n">
-        <v>34609715</v>
+        <v>34555725</v>
       </c>
       <c r="F47" t="n">
-        <v>7994.421302256544</v>
+        <v>2945.808693667583</v>
       </c>
       <c r="G47" t="n">
-        <v>6195.648419889286</v>
+        <v>8725.883368616755</v>
       </c>
       <c r="H47" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="I47" t="n">
-        <v>1933783</v>
+        <v>1864149</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>27601927</v>
+        <v>28994203</v>
       </c>
       <c r="E48" t="n">
-        <v>76454598</v>
+        <v>80311065</v>
       </c>
       <c r="F48" t="n">
-        <v>4779.216781178639</v>
+        <v>2723.54882901929</v>
       </c>
       <c r="G48" t="n">
-        <v>6212.216194447942</v>
+        <v>5386.009217437054</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I48" t="n">
-        <v>9734887</v>
+        <v>9964510</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>24488296</v>
+        <v>25538799</v>
       </c>
       <c r="E49" t="n">
-        <v>58090779</v>
+        <v>60575581</v>
       </c>
       <c r="F49" t="n">
-        <v>12243.33517867303</v>
+        <v>18294.09160147346</v>
       </c>
       <c r="G49" t="n">
-        <v>9560.263439248776</v>
+        <v>15917.71918123831</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I49" t="n">
-        <v>788657</v>
+        <v>721016</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11295179</v>
+        <v>11398426</v>
       </c>
       <c r="E50" t="n">
-        <v>17111381</v>
+        <v>17247177</v>
       </c>
       <c r="F50" t="n">
-        <v>5593.076728602999</v>
+        <v>13577.96912746752</v>
       </c>
       <c r="G50" t="n">
-        <v>19035.47627876895</v>
+        <v>18864.25548072534</v>
       </c>
       <c r="H50" t="n">
-        <v>0.63</v>
+        <v>0.41</v>
       </c>
       <c r="I50" t="n">
-        <v>734897</v>
+        <v>644224</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>259417774</v>
+        <v>267968847</v>
       </c>
       <c r="E51" t="n">
-        <v>259417774</v>
+        <v>267968847</v>
       </c>
       <c r="F51" t="n">
-        <v>16978.99202060866</v>
+        <v>23719.5060279902</v>
       </c>
       <c r="G51" t="n">
-        <v>43485.34138849886</v>
+        <v>36432.82890764803</v>
       </c>
       <c r="H51" t="n">
         <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>121792153</v>
+        <v>93081122</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>76289846</v>
+        <v>78980196</v>
       </c>
       <c r="E52" t="n">
-        <v>439614995</v>
+        <v>455117955</v>
       </c>
       <c r="F52" t="n">
-        <v>19413.27886508928</v>
+        <v>53634.78959494027</v>
       </c>
       <c r="G52" t="n">
-        <v>70455.20069887617</v>
+        <v>69781.59745527981</v>
       </c>
       <c r="H52" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I52" t="n">
-        <v>26366838</v>
+        <v>23101751</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>27659575</v>
+        <v>29712996</v>
       </c>
       <c r="E53" t="n">
-        <v>123843264</v>
+        <v>133037274</v>
       </c>
       <c r="F53" t="n">
-        <v>5510.666307775646</v>
+        <v>6100.384030969729</v>
       </c>
       <c r="G53" t="n">
-        <v>9636.936163044875</v>
+        <v>11757.39577438064</v>
       </c>
       <c r="H53" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>34248915</v>
+        <v>28904198</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7835373</v>
+        <v>7929276</v>
       </c>
       <c r="F54" t="n">
-        <v>2720.41924400875</v>
+        <v>3157.48920864065</v>
       </c>
       <c r="G54" t="n">
-        <v>4611.151559588153</v>
+        <v>4656.253728926022</v>
       </c>
       <c r="H54" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="I54" t="n">
-        <v>60629</v>
+        <v>295795</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4227701</v>
+        <v>4041025</v>
       </c>
       <c r="F55" t="n">
-        <v>5181.176128206122</v>
+        <v>5197.514118803171</v>
       </c>
       <c r="G55" t="n">
-        <v>621.7029240379377</v>
+        <v>1250.842103739251</v>
       </c>
       <c r="H55" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="I55" t="n">
-        <v>250180</v>
+        <v>266455</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123617309</v>
+        <v>122510064</v>
       </c>
       <c r="E56" t="n">
-        <v>2047203887</v>
+        <v>2028867002</v>
       </c>
       <c r="F56" t="n">
-        <v>183709.6923578391</v>
+        <v>173168.2606907631</v>
       </c>
       <c r="G56" t="n">
-        <v>188977.3235681333</v>
+        <v>176611.6325318619</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>22970553</v>
+        <v>25455550</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>72505197</v>
+        <v>74462391</v>
       </c>
       <c r="E57" t="n">
-        <v>73285611</v>
+        <v>75263871</v>
       </c>
       <c r="F57" t="n">
-        <v>13850.46632589901</v>
+        <v>15625.44875763831</v>
       </c>
       <c r="G57" t="n">
-        <v>29876.28307267558</v>
+        <v>27025.09037051093</v>
       </c>
       <c r="H57" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I57" t="n">
-        <v>14314895</v>
+        <v>10518200</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>221357711</v>
+        <v>230544014</v>
       </c>
       <c r="E58" t="n">
-        <v>221357711</v>
+        <v>230544014</v>
       </c>
       <c r="F58" t="n">
-        <v>71067.29371754285</v>
+        <v>66883.95333834024</v>
       </c>
       <c r="G58" t="n">
-        <v>58617.59846301168</v>
+        <v>82379.27052366934</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>69880566</v>
+        <v>58927858</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>20377334</v>
+        <v>21125193</v>
       </c>
       <c r="E59" t="n">
-        <v>121921685</v>
+        <v>126396276</v>
       </c>
       <c r="F59" t="n">
-        <v>27504.04704131005</v>
+        <v>20744.30204956973</v>
       </c>
       <c r="G59" t="n">
-        <v>12389.34668230915</v>
+        <v>27600.12754163621</v>
       </c>
       <c r="H59" t="n">
         <v>0.16</v>
       </c>
       <c r="I59" t="n">
-        <v>25685772</v>
+        <v>21180685</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2277705</v>
+        <v>2220637</v>
       </c>
       <c r="E60" t="n">
-        <v>4203634</v>
+        <v>4098312</v>
       </c>
       <c r="F60" t="n">
-        <v>25.43918014788392</v>
+        <v>4085.049129482455</v>
       </c>
       <c r="G60" t="n">
-        <v>21.14225429618515</v>
+        <v>1876.308790166399</v>
       </c>
       <c r="H60" t="n">
-        <v>1.2</v>
+        <v>0.36</v>
       </c>
       <c r="I60" t="n">
-        <v>47831</v>
+        <v>77402</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10202459</v>
+        <v>10504632</v>
       </c>
       <c r="E62" t="n">
-        <v>29861648</v>
+        <v>30744985</v>
       </c>
       <c r="F62" t="n">
-        <v>3618.07331982997</v>
+        <v>6549.286660552782</v>
       </c>
       <c r="G62" t="n">
-        <v>3467.082496931961</v>
+        <v>2882.376423346802</v>
       </c>
       <c r="H62" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I62" t="n">
-        <v>7485030</v>
+        <v>7279635</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14031339</v>
+        <v>14072039</v>
       </c>
       <c r="E63" t="n">
-        <v>28405589</v>
+        <v>28487984</v>
       </c>
       <c r="F63" t="n">
-        <v>5497.19380698808</v>
+        <v>5246.865342888486</v>
       </c>
       <c r="G63" t="n">
-        <v>19803.54506698803</v>
+        <v>13793.96161534857</v>
       </c>
       <c r="H63" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I63" t="n">
-        <v>519148</v>
+        <v>515519</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>28633979</v>
+        <v>30587421</v>
       </c>
       <c r="E64" t="n">
-        <v>203010239</v>
+        <v>216859827</v>
       </c>
       <c r="F64" t="n">
-        <v>37252.43188114689</v>
+        <v>42452.01472746093</v>
       </c>
       <c r="G64" t="n">
-        <v>26977.11045507357</v>
+        <v>41722.43348590376</v>
       </c>
       <c r="H64" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I64" t="n">
-        <v>4557539</v>
+        <v>3523086</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1226853</v>
+        <v>1226449</v>
       </c>
       <c r="E65" t="n">
-        <v>7594340</v>
+        <v>7591714</v>
       </c>
       <c r="F65" t="n">
-        <v>2925.374479549109</v>
+        <v>3225.984877449802</v>
       </c>
       <c r="G65" t="n">
-        <v>2552.589910683194</v>
+        <v>3039.312138863241</v>
       </c>
       <c r="H65" t="n">
         <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>754995</v>
+        <v>663375</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>518704559</v>
+        <v>541886356</v>
       </c>
       <c r="E66" t="n">
-        <v>2008866228</v>
+        <v>2098645909</v>
       </c>
       <c r="F66" t="n">
-        <v>19576.78368518807</v>
+        <v>38631.60214789666</v>
       </c>
       <c r="G66" t="n">
-        <v>57167.32428624455</v>
+        <v>62395.17018935997</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>98934666</v>
+        <v>68596588</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5098366</v>
+        <v>5080374</v>
       </c>
       <c r="E67" t="n">
-        <v>22627104</v>
+        <v>22545825</v>
       </c>
       <c r="F67" t="n">
-        <v>6357.21516525306</v>
+        <v>2948.44178751715</v>
       </c>
       <c r="G67" t="n">
-        <v>2220.403467770209</v>
+        <v>1301.968449450336</v>
       </c>
       <c r="H67" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="I67" t="n">
-        <v>174131</v>
+        <v>172796</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>93868169</v>
+        <v>96717512</v>
       </c>
       <c r="E68" t="n">
-        <v>888158342</v>
+        <v>915118147</v>
       </c>
       <c r="F68" t="n">
-        <v>16285.67454403207</v>
+        <v>5899.973151205113</v>
       </c>
       <c r="G68" t="n">
-        <v>16342.49510691959</v>
+        <v>20371.92212206689</v>
       </c>
       <c r="H68" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="I68" t="n">
-        <v>16823777</v>
+        <v>18198650</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>78001827</v>
+        <v>75548710</v>
       </c>
       <c r="E69" t="n">
-        <v>118993615</v>
+        <v>115251328</v>
       </c>
       <c r="F69" t="n">
-        <v>58593.73416179769</v>
+        <v>56788.28380468013</v>
       </c>
       <c r="G69" t="n">
-        <v>55531.04215538128</v>
+        <v>61996.83191524577</v>
       </c>
       <c r="H69" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I69" t="n">
-        <v>9373165</v>
+        <v>9333942</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1031081</v>
+        <v>1007049</v>
       </c>
       <c r="E70" t="n">
-        <v>3992572</v>
+        <v>3899515</v>
       </c>
       <c r="F70" t="n">
-        <v>2875.850967950843</v>
+        <v>2657.753580782809</v>
       </c>
       <c r="G70" t="n">
-        <v>1995.367238145357</v>
+        <v>2501.785050665807</v>
       </c>
       <c r="H70" t="n">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="I70" t="n">
-        <v>140730</v>
+        <v>121561</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>123419984</v>
+        <v>127410954</v>
       </c>
       <c r="E71" t="n">
-        <v>473458925</v>
+        <v>488768927</v>
       </c>
       <c r="F71" t="n">
-        <v>7878.233182226443</v>
+        <v>12984.22647672875</v>
       </c>
       <c r="G71" t="n">
-        <v>11909.2383387651</v>
+        <v>11981.77636333252</v>
       </c>
       <c r="H71" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I71" t="n">
-        <v>38213088</v>
+        <v>33126015</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2781596</v>
+        <v>2857519</v>
       </c>
       <c r="E72" t="n">
-        <v>26356031</v>
+        <v>27075418</v>
       </c>
       <c r="F72" t="n">
-        <v>3820.83169277124</v>
+        <v>3866.901532004622</v>
       </c>
       <c r="G72" t="n">
-        <v>1084.439869327715</v>
+        <v>3984.26458871198</v>
       </c>
       <c r="H72" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="I72" t="n">
-        <v>198455</v>
+        <v>458503</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>34139571</v>
+        <v>35079241</v>
       </c>
       <c r="F73" t="n">
-        <v>2278.345697469429</v>
+        <v>1945.23903822898</v>
       </c>
       <c r="G73" t="n">
-        <v>1333.871859941363</v>
+        <v>1690.400444444982</v>
       </c>
       <c r="H73" t="n">
         <v>0.18</v>
       </c>
       <c r="I73" t="n">
-        <v>12180210</v>
+        <v>9801672</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>101327099</v>
+        <v>104188791</v>
       </c>
       <c r="E74" t="n">
-        <v>369375634</v>
+        <v>379795800</v>
       </c>
       <c r="F74" t="n">
-        <v>537.7833346477177</v>
+        <v>1268.427200907187</v>
       </c>
       <c r="G74" t="n">
-        <v>620.2576524197902</v>
+        <v>886.7426788689961</v>
       </c>
       <c r="H74" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="I74" t="n">
-        <v>440044</v>
+        <v>351774</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20115102</v>
+        <v>20446660</v>
       </c>
       <c r="E75" t="n">
-        <v>20115102</v>
+        <v>20446660</v>
       </c>
       <c r="F75" t="n">
-        <v>5744.258583262137</v>
+        <v>6787.204447078514</v>
       </c>
       <c r="G75" t="n">
-        <v>9147.939802200712</v>
+        <v>8998.274141523027</v>
       </c>
       <c r="H75" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I75" t="n">
-        <v>12950960</v>
+        <v>11247579</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>399679180</v>
+        <v>402140596</v>
       </c>
       <c r="E76" t="n">
-        <v>1388433768</v>
+        <v>1396277813</v>
       </c>
       <c r="F76" t="n">
-        <v>166361.6922826772</v>
+        <v>122085.7557636917</v>
       </c>
       <c r="G76" t="n">
-        <v>174870.3344017091</v>
+        <v>174177.1684125634</v>
       </c>
       <c r="H76" t="n">
         <v>0.14</v>
       </c>
       <c r="I76" t="n">
-        <v>85231003</v>
+        <v>63762586</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4967336680</v>
+        <v>5152849456</v>
       </c>
       <c r="E77" t="n">
-        <v>4967336680</v>
+        <v>5152849456</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>29.9</v>
       </c>
       <c r="I77" t="n">
-        <v>33061934</v>
+        <v>22534776</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6859635</v>
+        <v>6947467</v>
       </c>
       <c r="E78" t="n">
-        <v>17820595</v>
+        <v>18048772</v>
       </c>
       <c r="F78" t="n">
-        <v>1634.396141459828</v>
+        <v>6395.805500993416</v>
       </c>
       <c r="G78" t="n">
-        <v>2659.059183270962</v>
+        <v>6108.920242350793</v>
       </c>
       <c r="H78" t="n">
-        <v>0.45</v>
+        <v>0.17</v>
       </c>
       <c r="I78" t="n">
-        <v>672334</v>
+        <v>122647</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>97194928</v>
+        <v>93983666</v>
       </c>
       <c r="E79" t="n">
-        <v>147261546</v>
+        <v>142396113</v>
       </c>
       <c r="F79" t="n">
-        <v>38669.85711735845</v>
+        <v>39884.77051718744</v>
       </c>
       <c r="G79" t="n">
-        <v>38956.58020164406</v>
+        <v>40630.639852008</v>
       </c>
       <c r="H79" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="I79" t="n">
-        <v>10243863</v>
+        <v>9668768</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1877091</v>
+        <v>1902568</v>
       </c>
       <c r="E80" t="n">
-        <v>7508363</v>
+        <v>7610272</v>
       </c>
       <c r="F80" t="n">
-        <v>2424.91936676584</v>
+        <v>1849.76175501988</v>
       </c>
       <c r="G80" t="n">
-        <v>2010.493544331036</v>
+        <v>3555.752282183869</v>
       </c>
       <c r="H80" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="I80" t="n">
-        <v>6678503</v>
+        <v>7118604</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3414936</v>
+        <v>2851900</v>
       </c>
       <c r="F81" t="n">
-        <v>1647.793061376924</v>
+        <v>1951.206347641456</v>
       </c>
       <c r="G81" t="n">
-        <v>1701.75911580899</v>
+        <v>305.6778248826322</v>
       </c>
       <c r="H81" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I81" t="n">
-        <v>1194650</v>
+        <v>880398</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>347413699</v>
+        <v>364148579</v>
       </c>
       <c r="E82" t="n">
-        <v>1985221135</v>
+        <v>2080849022</v>
       </c>
       <c r="F82" t="n">
-        <v>19910.29952720558</v>
+        <v>19191.62451427671</v>
       </c>
       <c r="G82" t="n">
-        <v>44975.07236355042</v>
+        <v>44063.82726966541</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>98677399</v>
+        <v>71103119</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4519260</v>
+        <v>4449608</v>
       </c>
       <c r="F2" t="n">
-        <v>1437.896597248663</v>
+        <v>1799.007324276936</v>
       </c>
       <c r="G2" t="n">
-        <v>1693.682075610483</v>
+        <v>883.0796548643434</v>
       </c>
       <c r="H2" t="n">
-        <v>0.35</v>
+        <v>0.72</v>
       </c>
       <c r="I2" t="n">
-        <v>311854</v>
+        <v>306901</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1421558</v>
+        <v>1405851</v>
       </c>
       <c r="E3" t="n">
-        <v>4475311</v>
+        <v>4425864</v>
       </c>
       <c r="F3" t="n">
-        <v>5014.696377152918</v>
+        <v>480.236673178503</v>
       </c>
       <c r="G3" t="n">
-        <v>5545.190781931726</v>
+        <v>408.8021657705499</v>
       </c>
       <c r="H3" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="I3" t="n">
-        <v>89549</v>
+        <v>89724</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>219438998</v>
+        <v>219261815</v>
       </c>
       <c r="E4" t="n">
-        <v>1376071113</v>
+        <v>1374960025</v>
       </c>
       <c r="F4" t="n">
-        <v>142515.7644441694</v>
+        <v>158533.9314114954</v>
       </c>
       <c r="G4" t="n">
-        <v>157609.3051100517</v>
+        <v>158137.5757392105</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>26401574</v>
+        <v>21912674</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>128243401</v>
+        <v>127994804</v>
       </c>
       <c r="E5" t="n">
-        <v>142113729</v>
+        <v>141838244</v>
       </c>
       <c r="F5" t="n">
-        <v>35251.72733081848</v>
+        <v>47699.57910111407</v>
       </c>
       <c r="G5" t="n">
-        <v>38903.71812298977</v>
+        <v>52847.54516482133</v>
       </c>
       <c r="H5" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>46898377</v>
+        <v>32722847</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>114363671</v>
+        <v>113198819</v>
       </c>
       <c r="E6" t="n">
-        <v>409609965</v>
+        <v>405437880</v>
       </c>
       <c r="F6" t="n">
-        <v>11282.22883070671</v>
+        <v>11597.61905671342</v>
       </c>
       <c r="G6" t="n">
-        <v>4408.656653713375</v>
+        <v>31099.08480290436</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I6" t="n">
-        <v>24329878</v>
+        <v>18670585</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3624677</v>
+        <v>3721617</v>
       </c>
       <c r="E7" t="n">
-        <v>22179653</v>
+        <v>22772802</v>
       </c>
       <c r="F7" t="n">
-        <v>1962.462403486227</v>
+        <v>2550.859580355985</v>
       </c>
       <c r="G7" t="n">
-        <v>1920.639910703402</v>
+        <v>2791.883281958588</v>
       </c>
       <c r="H7" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I7" t="n">
-        <v>310698</v>
+        <v>322473</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>168886</v>
+        <v>168056</v>
       </c>
       <c r="E8" t="n">
-        <v>1857931</v>
+        <v>1848802</v>
       </c>
       <c r="F8" t="n">
-        <v>3365.526400819035</v>
+        <v>3326.157903943722</v>
       </c>
       <c r="G8" t="n">
-        <v>3197.710969819269</v>
+        <v>2468.66029278454</v>
       </c>
       <c r="H8" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="I8" t="n">
-        <v>90963</v>
+        <v>87070</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66545307</v>
+        <v>65737676</v>
       </c>
       <c r="E9" t="n">
-        <v>114923145</v>
+        <v>113513493</v>
       </c>
       <c r="F9" t="n">
-        <v>9362.851507629477</v>
+        <v>10064.34478882718</v>
       </c>
       <c r="G9" t="n">
-        <v>8819.152911236442</v>
+        <v>9822.793559001459</v>
       </c>
       <c r="H9" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="I9" t="n">
-        <v>771896</v>
+        <v>691369</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8738592</v>
+        <v>8717909</v>
       </c>
       <c r="E10" t="n">
-        <v>12368828</v>
+        <v>12339553</v>
       </c>
       <c r="F10" t="n">
-        <v>2882.064065913313</v>
+        <v>2883.332305635333</v>
       </c>
       <c r="G10" t="n">
-        <v>2960.565245089483</v>
+        <v>3028.336301476013</v>
       </c>
       <c r="H10" t="n">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="I10" t="n">
-        <v>17467.32</v>
+        <v>13200.72</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>393001614</v>
+        <v>377934290</v>
       </c>
       <c r="E11" t="n">
-        <v>393001614</v>
+        <v>377934290</v>
       </c>
       <c r="F11" t="n">
-        <v>22684.32649101256</v>
+        <v>45632.72069643604</v>
       </c>
       <c r="G11" t="n">
-        <v>23728.77954856033</v>
+        <v>81340.12509144809</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I11" t="n">
-        <v>44654691</v>
+        <v>36782932</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>288226</v>
+        <v>282748</v>
       </c>
       <c r="E12" t="n">
-        <v>1345467</v>
+        <v>1319896</v>
       </c>
       <c r="F12" t="n">
-        <v>23.56958750665273</v>
+        <v>1473.750277257049</v>
       </c>
       <c r="G12" t="n">
-        <v>52.90869401702481</v>
+        <v>1247.029330782195</v>
       </c>
       <c r="H12" t="n">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
       <c r="I12" t="n">
-        <v>699068</v>
+        <v>630485</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1789690</v>
+        <v>1638714</v>
       </c>
       <c r="F13" t="n">
-        <v>1036.743418074587</v>
+        <v>267.0105134573779</v>
       </c>
       <c r="G13" t="n">
-        <v>402.6684076773259</v>
+        <v>1052.145040651905</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>256920</v>
+        <v>271152</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10867492</v>
+        <v>10869785</v>
       </c>
       <c r="E14" t="n">
-        <v>27047223</v>
+        <v>27052930</v>
       </c>
       <c r="F14" t="n">
-        <v>870.7322882028574</v>
+        <v>936.7804240732061</v>
       </c>
       <c r="G14" t="n">
-        <v>1539.843562200803</v>
+        <v>1560.606403455099</v>
       </c>
       <c r="H14" t="n">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1243451</v>
+        <v>1160705</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100328198</v>
+        <v>98542662</v>
       </c>
       <c r="E15" t="n">
-        <v>387724463</v>
+        <v>380702247</v>
       </c>
       <c r="F15" t="n">
-        <v>10654.55526855069</v>
+        <v>11110.52756394495</v>
       </c>
       <c r="G15" t="n">
-        <v>14623.83984457072</v>
+        <v>15168.80658369177</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>10549809</v>
+        <v>6319327</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4280455</v>
+        <v>4190244</v>
       </c>
       <c r="E16" t="n">
-        <v>6301061</v>
+        <v>6168267</v>
       </c>
       <c r="F16" t="n">
-        <v>3146.526140484185</v>
+        <v>3752.546520323938</v>
       </c>
       <c r="G16" t="n">
-        <v>3964.864123233589</v>
+        <v>4155.402405022056</v>
       </c>
       <c r="H16" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="I16" t="n">
-        <v>699311</v>
+        <v>625282</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>478502</v>
+        <v>456317</v>
       </c>
       <c r="E17" t="n">
-        <v>1973185</v>
+        <v>1881701</v>
       </c>
       <c r="F17" t="n">
-        <v>562.0913441431068</v>
+        <v>358.2424514728907</v>
       </c>
       <c r="G17" t="n">
-        <v>1267.912904642477</v>
+        <v>498.5803272584136</v>
       </c>
       <c r="H17" t="n">
-        <v>1.2</v>
+        <v>0.48</v>
       </c>
       <c r="I17" t="n">
-        <v>43172</v>
+        <v>55678</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>128851486</v>
+        <v>125581701</v>
       </c>
       <c r="E18" t="n">
-        <v>128851486</v>
+        <v>125581701</v>
       </c>
       <c r="F18" t="n">
-        <v>40635.0101067661</v>
+        <v>48737.90657228234</v>
       </c>
       <c r="G18" t="n">
-        <v>83851.34062175061</v>
+        <v>102582.6031223612</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I18" t="n">
-        <v>125321847</v>
+        <v>94866300</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63942885</v>
+        <v>64633154</v>
       </c>
       <c r="E19" t="n">
-        <v>327912230</v>
+        <v>331452073</v>
       </c>
       <c r="F19" t="n">
-        <v>3419.333565981439</v>
+        <v>5598.349768720423</v>
       </c>
       <c r="G19" t="n">
-        <v>8457.14404887202</v>
+        <v>17592.34473173103</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>33542420</v>
+        <v>27369878</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>215817769</v>
+        <v>211375627</v>
       </c>
       <c r="E20" t="n">
-        <v>215817769</v>
+        <v>211375627</v>
       </c>
       <c r="F20" t="n">
-        <v>46911.49138063074</v>
+        <v>55536.67866998956</v>
       </c>
       <c r="G20" t="n">
-        <v>44824.66744861567</v>
+        <v>49990.08483872453</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>41559021</v>
+        <v>25295516</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>142800765</v>
+        <v>145156068</v>
       </c>
       <c r="E21" t="n">
-        <v>187909105</v>
+        <v>191008409</v>
       </c>
       <c r="F21" t="n">
-        <v>13526.2678570275</v>
+        <v>13762.28102039054</v>
       </c>
       <c r="G21" t="n">
-        <v>19446.90526565188</v>
+        <v>22114.74221091517</v>
       </c>
       <c r="H21" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>10270802</v>
+        <v>7499399</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68136086</v>
+        <v>66089043</v>
       </c>
       <c r="E22" t="n">
-        <v>190862661</v>
+        <v>185128828</v>
       </c>
       <c r="F22" t="n">
-        <v>49562.54914755339</v>
+        <v>22252.55109709331</v>
       </c>
       <c r="G22" t="n">
-        <v>23867.57343532279</v>
+        <v>18633.04525996697</v>
       </c>
       <c r="H22" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I22" t="n">
-        <v>34170328</v>
+        <v>30791788</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75260070</v>
+        <v>73263264</v>
       </c>
       <c r="E23" t="n">
-        <v>156911201</v>
+        <v>152748021</v>
       </c>
       <c r="F23" t="n">
-        <v>13359.51478693745</v>
+        <v>14656.00337428267</v>
       </c>
       <c r="G23" t="n">
-        <v>19283.79042633347</v>
+        <v>15318.90470719394</v>
       </c>
       <c r="H23" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I23" t="n">
-        <v>21503411</v>
+        <v>17863556</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>574720654</v>
+        <v>554148030</v>
       </c>
       <c r="E24" t="n">
-        <v>574720654</v>
+        <v>554148030</v>
       </c>
       <c r="F24" t="n">
-        <v>130218.6956425363</v>
+        <v>114697.180254293</v>
       </c>
       <c r="G24" t="n">
-        <v>121945.0956509729</v>
+        <v>161062.3589538079</v>
       </c>
       <c r="H24" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>616451640</v>
+        <v>478311635</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>184782344</v>
+        <v>183368928</v>
       </c>
       <c r="E25" t="n">
-        <v>641950563</v>
+        <v>637040228</v>
       </c>
       <c r="F25" t="n">
-        <v>73067.83811677013</v>
+        <v>78954.86153277307</v>
       </c>
       <c r="G25" t="n">
-        <v>133428.8126606478</v>
+        <v>124905.6776054045</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I25" t="n">
-        <v>47367788</v>
+        <v>39014374</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5024448</v>
+        <v>5098861</v>
       </c>
       <c r="E26" t="n">
-        <v>6794396</v>
+        <v>6894795</v>
       </c>
       <c r="F26" t="n">
-        <v>2373.053534514672</v>
+        <v>2553.745731246042</v>
       </c>
       <c r="G26" t="n">
-        <v>2770.10226933328</v>
+        <v>4166.22413249596</v>
       </c>
       <c r="H26" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I26" t="n">
-        <v>4530889</v>
+        <v>4012044</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12574505</v>
+        <v>12325348</v>
       </c>
       <c r="F27" t="n">
-        <v>2334.266752859252</v>
+        <v>2092.963259359588</v>
       </c>
       <c r="G27" t="n">
-        <v>2568.291832129255</v>
+        <v>2729.956083321833</v>
       </c>
       <c r="H27" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="I27" t="n">
-        <v>231200</v>
+        <v>203061</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23257066</v>
+        <v>23297257</v>
       </c>
       <c r="E28" t="n">
-        <v>32839442</v>
+        <v>32896192</v>
       </c>
       <c r="F28" t="n">
-        <v>184.1974159729425</v>
+        <v>204.3176770811503</v>
       </c>
       <c r="G28" t="n">
-        <v>6662.365986547748</v>
+        <v>6030.33976104357</v>
       </c>
       <c r="H28" t="n">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="I28" t="n">
-        <v>105975</v>
+        <v>105546</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>225703055</v>
+        <v>220223316</v>
       </c>
       <c r="E29" t="n">
-        <v>974259684</v>
+        <v>950606089</v>
       </c>
       <c r="F29" t="n">
-        <v>141128.2201693896</v>
+        <v>132290.2259034202</v>
       </c>
       <c r="G29" t="n">
-        <v>145892.6533885774</v>
+        <v>157862.8260231398</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>136730294</v>
+        <v>104375159</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7773425</v>
+        <v>7868283</v>
       </c>
       <c r="E30" t="n">
-        <v>92904167</v>
+        <v>94020697</v>
       </c>
       <c r="F30" t="n">
-        <v>3211.656420220352</v>
+        <v>2995.258212972522</v>
       </c>
       <c r="G30" t="n">
-        <v>2198.998796209696</v>
+        <v>1488.767435968639</v>
       </c>
       <c r="H30" t="n">
         <v>0.43</v>
       </c>
       <c r="I30" t="n">
-        <v>275798</v>
+        <v>148326</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12190494</v>
+        <v>11730401</v>
       </c>
       <c r="E31" t="n">
-        <v>30476235</v>
+        <v>29326004</v>
       </c>
       <c r="F31" t="n">
-        <v>5404.419893064017</v>
+        <v>7740.990858795479</v>
       </c>
       <c r="G31" t="n">
-        <v>9258.403794158772</v>
+        <v>6605.679680037621</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>3929926</v>
+        <v>3347471</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18168185</v>
+        <v>18439781</v>
       </c>
       <c r="F32" t="n">
-        <v>3046.731583485901</v>
+        <v>842.9910420171381</v>
       </c>
       <c r="G32" t="n">
-        <v>5180.796965519344</v>
+        <v>3073.132611858633</v>
       </c>
       <c r="H32" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>50668</v>
+        <v>48493</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1436820</v>
+        <v>1481392</v>
       </c>
       <c r="E33" t="n">
-        <v>5353324</v>
+        <v>5519295</v>
       </c>
       <c r="F33" t="n">
-        <v>3168.369950439617</v>
+        <v>455.6429121546299</v>
       </c>
       <c r="G33" t="n">
-        <v>716.7452985068578</v>
+        <v>1033.304998586656</v>
       </c>
       <c r="H33" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="I33" t="n">
-        <v>637856</v>
+        <v>627982</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4178743</v>
+        <v>4177052</v>
       </c>
       <c r="E34" t="n">
-        <v>12033934</v>
+        <v>12029063</v>
       </c>
       <c r="F34" t="n">
-        <v>3598.142614106435</v>
+        <v>1268.16007376061</v>
       </c>
       <c r="G34" t="n">
-        <v>5629.715628542692</v>
+        <v>2396.600697735801</v>
       </c>
       <c r="H34" t="n">
-        <v>0.99</v>
+        <v>0.58</v>
       </c>
       <c r="I34" t="n">
-        <v>451876</v>
+        <v>468654</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11586124</v>
+        <v>11323256</v>
       </c>
       <c r="E35" t="n">
-        <v>56113447</v>
+        <v>54840336</v>
       </c>
       <c r="F35" t="n">
-        <v>4068.238175680539</v>
+        <v>5245.973025390649</v>
       </c>
       <c r="G35" t="n">
-        <v>2654.368593781958</v>
+        <v>3356.03543934691</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I35" t="n">
-        <v>5361006</v>
+        <v>4502599</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1197175</v>
+        <v>1196808</v>
       </c>
       <c r="E36" t="n">
-        <v>7835479</v>
+        <v>7833079</v>
       </c>
       <c r="F36" t="n">
-        <v>4052.615719104974</v>
+        <v>3804.862941437186</v>
       </c>
       <c r="G36" t="n">
-        <v>3114.259450732655</v>
+        <v>3202.72881033294</v>
       </c>
       <c r="H36" t="n">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="I36" t="n">
-        <v>88381</v>
+        <v>85729</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1737549496</v>
+        <v>1737688579</v>
       </c>
       <c r="F37" t="n">
-        <v>87.45072295662426</v>
+        <v>124.0479556851323</v>
       </c>
       <c r="G37" t="n">
-        <v>756.9414472213938</v>
+        <v>646.5599484516933</v>
       </c>
       <c r="H37" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="I37" t="n">
-        <v>36219929</v>
+        <v>34897962</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1760186</v>
+        <v>1832785</v>
       </c>
       <c r="E38" t="n">
-        <v>12622118</v>
+        <v>13142720</v>
       </c>
       <c r="F38" t="n">
-        <v>5158.657162609091</v>
+        <v>4334.940713356839</v>
       </c>
       <c r="G38" t="n">
-        <v>4705.548756452797</v>
+        <v>5492.982507774703</v>
       </c>
       <c r="H38" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="I38" t="n">
-        <v>2089393</v>
+        <v>2059740</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>172960354</v>
+        <v>170343022</v>
       </c>
       <c r="E39" t="n">
-        <v>979407801</v>
+        <v>964586856</v>
       </c>
       <c r="F39" t="n">
-        <v>85189.38142897138</v>
+        <v>128985.9469277343</v>
       </c>
       <c r="G39" t="n">
-        <v>97948.9674853467</v>
+        <v>134545.4845755959</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I39" t="n">
-        <v>88017926</v>
+        <v>69089952</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>107087479</v>
+        <v>104486959</v>
       </c>
       <c r="E40" t="n">
-        <v>793240586</v>
+        <v>773977477</v>
       </c>
       <c r="F40" t="n">
-        <v>109727.6582607863</v>
+        <v>207061.9866899719</v>
       </c>
       <c r="G40" t="n">
-        <v>117657.9045711595</v>
+        <v>204234.0396938125</v>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>15228844</v>
+        <v>11746287</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>291805452</v>
+        <v>286988231</v>
       </c>
       <c r="E41" t="n">
-        <v>2625262790</v>
+        <v>2581924086</v>
       </c>
       <c r="F41" t="n">
-        <v>96042.75093544131</v>
+        <v>137099.5526696365</v>
       </c>
       <c r="G41" t="n">
-        <v>186215.4606757688</v>
+        <v>194878.1715693061</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>72547379</v>
+        <v>52598163</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1458383</v>
+        <v>1443427</v>
       </c>
       <c r="E42" t="n">
-        <v>12153194</v>
+        <v>12028560</v>
       </c>
       <c r="F42" t="n">
-        <v>1755.591115918626</v>
+        <v>1880.776770140762</v>
       </c>
       <c r="G42" t="n">
-        <v>3978.643733891081</v>
+        <v>2485.013956066668</v>
       </c>
       <c r="H42" t="n">
-        <v>1.31</v>
+        <v>0.58</v>
       </c>
       <c r="I42" t="n">
-        <v>19641.57</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16330951</v>
+        <v>15828899</v>
       </c>
       <c r="E43" t="n">
-        <v>48420291</v>
+        <v>46931737</v>
       </c>
       <c r="F43" t="n">
-        <v>12545.1552748365</v>
+        <v>11887.83882358983</v>
       </c>
       <c r="G43" t="n">
-        <v>17487.55129705167</v>
+        <v>19593.90575296268</v>
       </c>
       <c r="H43" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I43" t="n">
-        <v>7857557</v>
+        <v>7416154</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7542396</v>
+        <v>7527799</v>
       </c>
       <c r="F44" t="n">
-        <v>3096.963825455494</v>
+        <v>2920.407132365607</v>
       </c>
       <c r="G44" t="n">
-        <v>2727.924172273609</v>
+        <v>2323.439940512037</v>
       </c>
       <c r="H44" t="n">
         <v>0.26</v>
       </c>
       <c r="I44" t="n">
-        <v>86142</v>
+        <v>91545</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10100272</v>
+        <v>10043538</v>
       </c>
       <c r="E45" t="n">
-        <v>10100272</v>
+        <v>10043538</v>
       </c>
       <c r="F45" t="n">
-        <v>48.59827479504823</v>
+        <v>137.1567430355365</v>
       </c>
       <c r="G45" t="n">
-        <v>688.3127473741013</v>
+        <v>719.8383202438029</v>
       </c>
       <c r="H45" t="n">
-        <v>1.98</v>
+        <v>2.73</v>
       </c>
       <c r="I45" t="n">
-        <v>4565379</v>
+        <v>3711804</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>265484087</v>
+        <v>260525946</v>
       </c>
       <c r="E46" t="n">
-        <v>265484087</v>
+        <v>260525946</v>
       </c>
       <c r="F46" t="n">
-        <v>9817.112015283315</v>
+        <v>13565.13730691245</v>
       </c>
       <c r="G46" t="n">
-        <v>20520.00376607243</v>
+        <v>14148.83353846863</v>
       </c>
       <c r="H46" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I46" t="n">
-        <v>21262655</v>
+        <v>16276954</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10929639</v>
+        <v>11074560</v>
       </c>
       <c r="E47" t="n">
-        <v>34555725</v>
+        <v>35013881</v>
       </c>
       <c r="F47" t="n">
-        <v>2945.808693667583</v>
+        <v>6669.129286253799</v>
       </c>
       <c r="G47" t="n">
-        <v>8725.883368616755</v>
+        <v>9246.196225065292</v>
       </c>
       <c r="H47" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I47" t="n">
-        <v>1864149</v>
+        <v>1484493</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>28994203</v>
+        <v>29715590</v>
       </c>
       <c r="E48" t="n">
-        <v>80311065</v>
+        <v>82309235</v>
       </c>
       <c r="F48" t="n">
-        <v>2723.54882901929</v>
+        <v>2699.134538766179</v>
       </c>
       <c r="G48" t="n">
-        <v>5386.009217437054</v>
+        <v>9079.327965214708</v>
       </c>
       <c r="H48" t="n">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="I48" t="n">
-        <v>9964510</v>
+        <v>9944001</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25538799</v>
+        <v>25090707</v>
       </c>
       <c r="E49" t="n">
-        <v>60575581</v>
+        <v>59512751</v>
       </c>
       <c r="F49" t="n">
-        <v>18294.09160147346</v>
+        <v>13464.45138130566</v>
       </c>
       <c r="G49" t="n">
-        <v>15917.71918123831</v>
+        <v>15668.48593179507</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I49" t="n">
-        <v>721016</v>
+        <v>525737</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11398426</v>
+        <v>11441230</v>
       </c>
       <c r="E50" t="n">
-        <v>17247177</v>
+        <v>17311944</v>
       </c>
       <c r="F50" t="n">
-        <v>13577.96912746752</v>
+        <v>4971.222107081078</v>
       </c>
       <c r="G50" t="n">
-        <v>18864.25548072534</v>
+        <v>3971.047991133764</v>
       </c>
       <c r="H50" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="I50" t="n">
-        <v>644224</v>
+        <v>605319</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>267968847</v>
+        <v>272950738</v>
       </c>
       <c r="E51" t="n">
-        <v>267968847</v>
+        <v>272950738</v>
       </c>
       <c r="F51" t="n">
-        <v>23719.5060279902</v>
+        <v>31693.23240049747</v>
       </c>
       <c r="G51" t="n">
-        <v>36432.82890764803</v>
+        <v>76822.01044330584</v>
       </c>
       <c r="H51" t="n">
         <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>93081122</v>
+        <v>74278612</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>78980196</v>
+        <v>77846731</v>
       </c>
       <c r="E52" t="n">
-        <v>455117955</v>
+        <v>448586439</v>
       </c>
       <c r="F52" t="n">
-        <v>53634.78959494027</v>
+        <v>231876.4818701494</v>
       </c>
       <c r="G52" t="n">
-        <v>69781.59745527981</v>
+        <v>261056.1769613659</v>
       </c>
       <c r="H52" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I52" t="n">
-        <v>23101751</v>
+        <v>19685839</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29712996</v>
+        <v>29369814</v>
       </c>
       <c r="E53" t="n">
-        <v>133037274</v>
+        <v>131500708</v>
       </c>
       <c r="F53" t="n">
-        <v>6100.384030969729</v>
+        <v>6524.924462193686</v>
       </c>
       <c r="G53" t="n">
-        <v>11757.39577438064</v>
+        <v>9603.941473750958</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I53" t="n">
-        <v>28904198</v>
+        <v>24703661</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7929276</v>
+        <v>7812467</v>
       </c>
       <c r="F54" t="n">
-        <v>3157.48920864065</v>
+        <v>2721.168431867726</v>
       </c>
       <c r="G54" t="n">
-        <v>4656.253728926022</v>
+        <v>4612.683441835498</v>
       </c>
       <c r="H54" t="n">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="I54" t="n">
-        <v>295795</v>
+        <v>292037</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4041025</v>
+        <v>4124385</v>
       </c>
       <c r="F55" t="n">
-        <v>5197.514118803171</v>
+        <v>5374.595418127855</v>
       </c>
       <c r="G55" t="n">
-        <v>1250.842103739251</v>
+        <v>574.3208124097987</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>266455</v>
+        <v>267614</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122510064</v>
+        <v>122205030</v>
       </c>
       <c r="E56" t="n">
-        <v>2028867002</v>
+        <v>2023815381</v>
       </c>
       <c r="F56" t="n">
-        <v>173168.2606907631</v>
+        <v>176895.0656629235</v>
       </c>
       <c r="G56" t="n">
-        <v>176611.6325318619</v>
+        <v>176614.7994155393</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>25455550</v>
+        <v>24223571</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>74462391</v>
+        <v>71498437</v>
       </c>
       <c r="E57" t="n">
-        <v>75263871</v>
+        <v>72268015</v>
       </c>
       <c r="F57" t="n">
-        <v>15625.44875763831</v>
+        <v>14216.05476627914</v>
       </c>
       <c r="G57" t="n">
-        <v>27025.09037051093</v>
+        <v>25286.05296842858</v>
       </c>
       <c r="H57" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>10518200</v>
+        <v>9090421</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>230544014</v>
+        <v>224224564</v>
       </c>
       <c r="E58" t="n">
-        <v>230544014</v>
+        <v>224224564</v>
       </c>
       <c r="F58" t="n">
-        <v>66883.95333834024</v>
+        <v>50138.89591538659</v>
       </c>
       <c r="G58" t="n">
-        <v>82379.27052366934</v>
+        <v>113745.6722650236</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I58" t="n">
-        <v>58927858</v>
+        <v>47656094</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>21125193</v>
+        <v>20987510</v>
       </c>
       <c r="E59" t="n">
-        <v>126396276</v>
+        <v>125572491</v>
       </c>
       <c r="F59" t="n">
-        <v>20744.30204956973</v>
+        <v>21092.95721174202</v>
       </c>
       <c r="G59" t="n">
-        <v>27600.12754163621</v>
+        <v>9747.119192839786</v>
       </c>
       <c r="H59" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I59" t="n">
-        <v>21180685</v>
+        <v>17570939</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2220637</v>
+        <v>2413128</v>
       </c>
       <c r="E60" t="n">
-        <v>4098312</v>
+        <v>4453566</v>
       </c>
       <c r="F60" t="n">
-        <v>4085.049129482455</v>
+        <v>4127.18130386301</v>
       </c>
       <c r="G60" t="n">
-        <v>1876.308790166399</v>
+        <v>2016.026466924922</v>
       </c>
       <c r="H60" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="I60" t="n">
-        <v>77402</v>
+        <v>70367</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10504632</v>
+        <v>10362276</v>
       </c>
       <c r="E62" t="n">
-        <v>30744985</v>
+        <v>30328269</v>
       </c>
       <c r="F62" t="n">
-        <v>6549.286660552782</v>
+        <v>9544.954445211049</v>
       </c>
       <c r="G62" t="n">
-        <v>2882.376423346802</v>
+        <v>7459.194872820164</v>
       </c>
       <c r="H62" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I62" t="n">
-        <v>7279635</v>
+        <v>6540318</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14072039</v>
+        <v>13998484</v>
       </c>
       <c r="E63" t="n">
-        <v>28487984</v>
+        <v>28339075</v>
       </c>
       <c r="F63" t="n">
-        <v>5246.865342888486</v>
+        <v>6831.793781395765</v>
       </c>
       <c r="G63" t="n">
-        <v>13793.96161534857</v>
+        <v>16946.79793833713</v>
       </c>
       <c r="H63" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I63" t="n">
-        <v>515519</v>
+        <v>512146</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>30587421</v>
+        <v>29438074</v>
       </c>
       <c r="E64" t="n">
-        <v>216859827</v>
+        <v>208711141</v>
       </c>
       <c r="F64" t="n">
-        <v>42452.01472746093</v>
+        <v>60967.03136452798</v>
       </c>
       <c r="G64" t="n">
-        <v>41722.43348590376</v>
+        <v>43675.63913879386</v>
       </c>
       <c r="H64" t="n">
         <v>0.14</v>
       </c>
       <c r="I64" t="n">
-        <v>3523086</v>
+        <v>2416071</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1226449</v>
+        <v>1223060</v>
       </c>
       <c r="E65" t="n">
-        <v>7591714</v>
+        <v>7570671</v>
       </c>
       <c r="F65" t="n">
-        <v>3225.984877449802</v>
+        <v>2644.492986342954</v>
       </c>
       <c r="G65" t="n">
-        <v>3039.312138863241</v>
+        <v>3296.916561344709</v>
       </c>
       <c r="H65" t="n">
         <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>663375</v>
+        <v>519551</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>541886356</v>
+        <v>543320799</v>
       </c>
       <c r="E66" t="n">
-        <v>2098645909</v>
+        <v>2104201293</v>
       </c>
       <c r="F66" t="n">
-        <v>38631.60214789666</v>
+        <v>46139.44184884035</v>
       </c>
       <c r="G66" t="n">
-        <v>62395.17018935997</v>
+        <v>109022.8922833063</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I66" t="n">
-        <v>68596588</v>
+        <v>47322282</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5080374</v>
+        <v>5172904</v>
       </c>
       <c r="E67" t="n">
-        <v>22545825</v>
+        <v>22934708</v>
       </c>
       <c r="F67" t="n">
-        <v>2948.44178751715</v>
+        <v>2344.828596665351</v>
       </c>
       <c r="G67" t="n">
-        <v>1301.968449450336</v>
+        <v>1395.864762317151</v>
       </c>
       <c r="H67" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I67" t="n">
-        <v>172796</v>
+        <v>170197</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>96717512</v>
+        <v>94353851</v>
       </c>
       <c r="E68" t="n">
-        <v>915118147</v>
+        <v>892753746</v>
       </c>
       <c r="F68" t="n">
-        <v>5899.973151205113</v>
+        <v>5921.116626433773</v>
       </c>
       <c r="G68" t="n">
-        <v>20371.92212206689</v>
+        <v>17403.18417007304</v>
       </c>
       <c r="H68" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I68" t="n">
-        <v>18198650</v>
+        <v>13865754</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>75548710</v>
+        <v>71375883</v>
       </c>
       <c r="E69" t="n">
-        <v>115251328</v>
+        <v>108885583</v>
       </c>
       <c r="F69" t="n">
-        <v>56788.28380468013</v>
+        <v>56559.51081284379</v>
       </c>
       <c r="G69" t="n">
-        <v>61996.83191524577</v>
+        <v>65512.76124588668</v>
       </c>
       <c r="H69" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I69" t="n">
-        <v>9333942</v>
+        <v>7415154</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1007049</v>
+        <v>1015362</v>
       </c>
       <c r="E70" t="n">
-        <v>3899515</v>
+        <v>3931705</v>
       </c>
       <c r="F70" t="n">
-        <v>2657.753580782809</v>
+        <v>2758.53748369231</v>
       </c>
       <c r="G70" t="n">
-        <v>2501.785050665807</v>
+        <v>2067.438733483985</v>
       </c>
       <c r="H70" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="I70" t="n">
-        <v>121561</v>
+        <v>103350</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>127410954</v>
+        <v>125419797</v>
       </c>
       <c r="E71" t="n">
-        <v>488768927</v>
+        <v>481130530</v>
       </c>
       <c r="F71" t="n">
-        <v>12984.22647672875</v>
+        <v>13658.71751159456</v>
       </c>
       <c r="G71" t="n">
-        <v>11981.77636333252</v>
+        <v>12986.12491045276</v>
       </c>
       <c r="H71" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I71" t="n">
-        <v>33126015</v>
+        <v>27242706</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2857519</v>
+        <v>2842887</v>
       </c>
       <c r="E72" t="n">
-        <v>27075418</v>
+        <v>26936775</v>
       </c>
       <c r="F72" t="n">
-        <v>3866.901532004622</v>
+        <v>5381.889552478257</v>
       </c>
       <c r="G72" t="n">
-        <v>3984.26458871198</v>
+        <v>2401.265829859697</v>
       </c>
       <c r="H72" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="I72" t="n">
-        <v>458503</v>
+        <v>416161</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>35079241</v>
+        <v>34728963</v>
       </c>
       <c r="F73" t="n">
-        <v>1945.23903822898</v>
+        <v>2990.459978991621</v>
       </c>
       <c r="G73" t="n">
-        <v>1690.400444444982</v>
+        <v>1563.317870467644</v>
       </c>
       <c r="H73" t="n">
-        <v>0.18</v>
+        <v>0.54</v>
       </c>
       <c r="I73" t="n">
-        <v>9801672</v>
+        <v>7958863</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>104188791</v>
+        <v>108735948</v>
       </c>
       <c r="E74" t="n">
-        <v>379795800</v>
+        <v>396358479</v>
       </c>
       <c r="F74" t="n">
-        <v>1268.427200907187</v>
+        <v>1408.808752338188</v>
       </c>
       <c r="G74" t="n">
-        <v>886.7426788689961</v>
+        <v>586.720207567853</v>
       </c>
       <c r="H74" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="I74" t="n">
-        <v>351774</v>
+        <v>464608</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20446660</v>
+        <v>19726783</v>
       </c>
       <c r="E75" t="n">
-        <v>20446660</v>
+        <v>19726783</v>
       </c>
       <c r="F75" t="n">
-        <v>6787.204447078514</v>
+        <v>6827.050089511379</v>
       </c>
       <c r="G75" t="n">
-        <v>8998.274141523027</v>
+        <v>6886.839637886047</v>
       </c>
       <c r="H75" t="n">
         <v>0.18</v>
       </c>
       <c r="I75" t="n">
-        <v>11247579</v>
+        <v>8907593</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>402140596</v>
+        <v>399310721</v>
       </c>
       <c r="E76" t="n">
-        <v>1396277813</v>
+        <v>1386452166</v>
       </c>
       <c r="F76" t="n">
-        <v>122085.7557636917</v>
+        <v>163099.3010261469</v>
       </c>
       <c r="G76" t="n">
-        <v>174177.1684125634</v>
+        <v>172649.3564990467</v>
       </c>
       <c r="H76" t="n">
         <v>0.14</v>
       </c>
       <c r="I76" t="n">
-        <v>63762586</v>
+        <v>45223054</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5152849456</v>
+        <v>5098829347</v>
       </c>
       <c r="E77" t="n">
-        <v>5152849456</v>
+        <v>5098829347</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>29.9</v>
+        <v>46.56</v>
       </c>
       <c r="I77" t="n">
-        <v>22534776</v>
+        <v>14918970</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6947467</v>
+        <v>6762890</v>
       </c>
       <c r="E78" t="n">
-        <v>18048772</v>
+        <v>17569260</v>
       </c>
       <c r="F78" t="n">
-        <v>6395.805500993416</v>
+        <v>431.2327263195922</v>
       </c>
       <c r="G78" t="n">
-        <v>6108.920242350793</v>
+        <v>1007.239388862355</v>
       </c>
       <c r="H78" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I78" t="n">
-        <v>122647</v>
+        <v>770644</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>93983666</v>
+        <v>93441257</v>
       </c>
       <c r="E79" t="n">
-        <v>142396113</v>
+        <v>141574300</v>
       </c>
       <c r="F79" t="n">
-        <v>39884.77051718744</v>
+        <v>7242.688282680173</v>
       </c>
       <c r="G79" t="n">
-        <v>40630.639852008</v>
+        <v>6306.74827491916</v>
       </c>
       <c r="H79" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I79" t="n">
-        <v>9668768</v>
+        <v>8342744</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1902568</v>
+        <v>1885192</v>
       </c>
       <c r="E80" t="n">
-        <v>7610272</v>
+        <v>7540767</v>
       </c>
       <c r="F80" t="n">
-        <v>1849.76175501988</v>
+        <v>3179.21814042723</v>
       </c>
       <c r="G80" t="n">
-        <v>3555.752282183869</v>
+        <v>6533.550680275583</v>
       </c>
       <c r="H80" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="I80" t="n">
-        <v>7118604</v>
+        <v>7153638</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2851900</v>
+        <v>3213294</v>
       </c>
       <c r="F81" t="n">
-        <v>1951.206347641456</v>
+        <v>2618.003205949155</v>
       </c>
       <c r="G81" t="n">
-        <v>305.6778248826322</v>
+        <v>2627.615837097933</v>
       </c>
       <c r="H81" t="n">
-        <v>0.77</v>
+        <v>1.42</v>
       </c>
       <c r="I81" t="n">
-        <v>880398</v>
+        <v>881970</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>364148579</v>
+        <v>361990826</v>
       </c>
       <c r="E82" t="n">
-        <v>2080849022</v>
+        <v>2068519006</v>
       </c>
       <c r="F82" t="n">
-        <v>19191.62451427671</v>
+        <v>23843.79285736601</v>
       </c>
       <c r="G82" t="n">
-        <v>44063.82726966541</v>
+        <v>45403.37427762348</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>71103119</v>
+        <v>52358182</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4449608</v>
+        <v>4480791</v>
       </c>
       <c r="F2" t="n">
-        <v>1799.007324276936</v>
+        <v>2169.611064769803</v>
       </c>
       <c r="G2" t="n">
-        <v>883.0796548643434</v>
+        <v>1564.584190128661</v>
       </c>
       <c r="H2" t="n">
-        <v>0.72</v>
+        <v>0.35</v>
       </c>
       <c r="I2" t="n">
-        <v>306901</v>
+        <v>260074</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1405851</v>
+        <v>1295689</v>
       </c>
       <c r="E3" t="n">
-        <v>4425864</v>
+        <v>4079054</v>
       </c>
       <c r="F3" t="n">
-        <v>480.236673178503</v>
+        <v>5102.941434332206</v>
       </c>
       <c r="G3" t="n">
-        <v>408.8021657705499</v>
+        <v>2188.650962182691</v>
       </c>
       <c r="H3" t="n">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>89724</v>
+        <v>204009</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>219261815</v>
+        <v>218136780</v>
       </c>
       <c r="E4" t="n">
-        <v>1374960025</v>
+        <v>1367905084</v>
       </c>
       <c r="F4" t="n">
-        <v>158533.9314114954</v>
+        <v>158723.9456761798</v>
       </c>
       <c r="G4" t="n">
-        <v>158137.5757392105</v>
+        <v>177420.1358409091</v>
       </c>
       <c r="H4" t="n">
         <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>21912674</v>
+        <v>17982510</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>127994804</v>
+        <v>130030757</v>
       </c>
       <c r="E5" t="n">
-        <v>141838244</v>
+        <v>144094398</v>
       </c>
       <c r="F5" t="n">
-        <v>47699.57910111407</v>
+        <v>60377.40911183799</v>
       </c>
       <c r="G5" t="n">
-        <v>52847.54516482133</v>
+        <v>42146.83140728707</v>
       </c>
       <c r="H5" t="n">
         <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>32722847</v>
+        <v>25672354</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>113198819</v>
+        <v>114714304</v>
       </c>
       <c r="E6" t="n">
-        <v>405437880</v>
+        <v>410865809</v>
       </c>
       <c r="F6" t="n">
-        <v>11597.61905671342</v>
+        <v>10432.43668293649</v>
       </c>
       <c r="G6" t="n">
-        <v>31099.08480290436</v>
+        <v>8849.51078178201</v>
       </c>
       <c r="H6" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>18670585</v>
+        <v>16563723</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3721617</v>
+        <v>4788098</v>
       </c>
       <c r="E7" t="n">
-        <v>22772802</v>
+        <v>29297015</v>
       </c>
       <c r="F7" t="n">
-        <v>2550.859580355985</v>
+        <v>2485.344400742754</v>
       </c>
       <c r="G7" t="n">
-        <v>2791.883281958588</v>
+        <v>1342.118634772935</v>
       </c>
       <c r="H7" t="n">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>322473</v>
+        <v>479385</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>168056</v>
+        <v>157134</v>
       </c>
       <c r="E8" t="n">
-        <v>1848802</v>
+        <v>1728646</v>
       </c>
       <c r="F8" t="n">
-        <v>3326.157903943722</v>
+        <v>2180.636221450991</v>
       </c>
       <c r="G8" t="n">
-        <v>2468.66029278454</v>
+        <v>1842.08690553863</v>
       </c>
       <c r="H8" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>87070</v>
+        <v>69025</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65737676</v>
+        <v>65262521</v>
       </c>
       <c r="E9" t="n">
-        <v>113513493</v>
+        <v>112671528</v>
       </c>
       <c r="F9" t="n">
-        <v>10064.34478882718</v>
+        <v>9501.747668670916</v>
       </c>
       <c r="G9" t="n">
-        <v>9822.793559001459</v>
+        <v>8670.487962123265</v>
       </c>
       <c r="H9" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>691369</v>
+        <v>555165</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8717909</v>
+        <v>8520943</v>
       </c>
       <c r="E10" t="n">
-        <v>12339553</v>
+        <v>12060762</v>
       </c>
       <c r="F10" t="n">
-        <v>2883.332305635333</v>
+        <v>2964.33085146958</v>
       </c>
       <c r="G10" t="n">
-        <v>3028.336301476013</v>
+        <v>2894.267690711305</v>
       </c>
       <c r="H10" t="n">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>13200.72</v>
+        <v>41108</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>377934290</v>
+        <v>390159989</v>
       </c>
       <c r="E11" t="n">
-        <v>377934290</v>
+        <v>390159989</v>
       </c>
       <c r="F11" t="n">
-        <v>45632.72069643604</v>
+        <v>27602.90287853565</v>
       </c>
       <c r="G11" t="n">
-        <v>81340.12509144809</v>
+        <v>35232.02583138378</v>
       </c>
       <c r="H11" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36782932</v>
+        <v>34365826</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>282748</v>
+        <v>281079</v>
       </c>
       <c r="E12" t="n">
-        <v>1319896</v>
+        <v>1312103</v>
       </c>
       <c r="F12" t="n">
-        <v>1473.750277257049</v>
+        <v>392.3111848777112</v>
       </c>
       <c r="G12" t="n">
-        <v>1247.029330782195</v>
+        <v>498.64883648516</v>
       </c>
       <c r="H12" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="I12" t="n">
-        <v>630485</v>
+        <v>690015</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1638714</v>
+        <v>1619327</v>
       </c>
       <c r="F13" t="n">
-        <v>267.0105134573779</v>
+        <v>1916.968908578094</v>
       </c>
       <c r="G13" t="n">
-        <v>1052.145040651905</v>
+        <v>192.4101042694567</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.85</v>
       </c>
       <c r="I13" t="n">
-        <v>271152</v>
+        <v>209465</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10869785</v>
+        <v>10817100</v>
       </c>
       <c r="E14" t="n">
-        <v>27052930</v>
+        <v>26921806</v>
       </c>
       <c r="F14" t="n">
-        <v>936.7804240732061</v>
+        <v>1127.022144739211</v>
       </c>
       <c r="G14" t="n">
-        <v>1560.606403455099</v>
+        <v>1165.463293081646</v>
       </c>
       <c r="H14" t="n">
         <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1160705</v>
+        <v>1248884</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>98542662</v>
+        <v>99113819</v>
       </c>
       <c r="E15" t="n">
-        <v>380702247</v>
+        <v>382733267</v>
       </c>
       <c r="F15" t="n">
-        <v>11110.52756394495</v>
+        <v>11200.85334760198</v>
       </c>
       <c r="G15" t="n">
-        <v>15168.80658369177</v>
+        <v>12729.48533119041</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="I15" t="n">
-        <v>6319327</v>
+        <v>4995893</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4190244</v>
+        <v>4143642</v>
       </c>
       <c r="E16" t="n">
-        <v>6168267</v>
+        <v>6099665</v>
       </c>
       <c r="F16" t="n">
-        <v>3752.546520323938</v>
+        <v>482.0265051070066</v>
       </c>
       <c r="G16" t="n">
-        <v>4155.402405022056</v>
+        <v>968.5516975217247</v>
       </c>
       <c r="H16" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="n">
-        <v>625282</v>
+        <v>607314</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>456317</v>
+        <v>457823</v>
       </c>
       <c r="E17" t="n">
-        <v>1881701</v>
+        <v>1887910</v>
       </c>
       <c r="F17" t="n">
-        <v>358.2424514728907</v>
+        <v>489.0737873099178</v>
       </c>
       <c r="G17" t="n">
-        <v>498.5803272584136</v>
+        <v>117.1072277477116</v>
       </c>
       <c r="H17" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="I17" t="n">
-        <v>55678</v>
+        <v>65045</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>125581701</v>
+        <v>128037038</v>
       </c>
       <c r="E18" t="n">
-        <v>125581701</v>
+        <v>128037038</v>
       </c>
       <c r="F18" t="n">
-        <v>48737.90657228234</v>
+        <v>71528.20531411862</v>
       </c>
       <c r="G18" t="n">
-        <v>102582.6031223612</v>
+        <v>113536.3903527288</v>
       </c>
       <c r="H18" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>94866300</v>
+        <v>74484146</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64633154</v>
+        <v>65217990</v>
       </c>
       <c r="E19" t="n">
-        <v>331452073</v>
+        <v>334451230</v>
       </c>
       <c r="F19" t="n">
-        <v>5598.349768720423</v>
+        <v>13136.82100347544</v>
       </c>
       <c r="G19" t="n">
-        <v>17592.34473173103</v>
+        <v>12063.09068572927</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I19" t="n">
-        <v>27369878</v>
+        <v>20602679</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>211375627</v>
+        <v>212433392</v>
       </c>
       <c r="E20" t="n">
-        <v>211375627</v>
+        <v>212433392</v>
       </c>
       <c r="F20" t="n">
-        <v>55536.67866998956</v>
+        <v>55620.78477567436</v>
       </c>
       <c r="G20" t="n">
-        <v>49990.08483872453</v>
+        <v>43935.67006223719</v>
       </c>
       <c r="H20" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>25295516</v>
+        <v>24070110</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>145156068</v>
+        <v>140675365</v>
       </c>
       <c r="E21" t="n">
-        <v>191008409</v>
+        <v>185112328</v>
       </c>
       <c r="F21" t="n">
-        <v>13762.28102039054</v>
+        <v>24379.05651651818</v>
       </c>
       <c r="G21" t="n">
-        <v>22114.74221091517</v>
+        <v>18022.13707603809</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>7499399</v>
+        <v>7540694</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>66089043</v>
+        <v>68929611</v>
       </c>
       <c r="E22" t="n">
-        <v>185128828</v>
+        <v>193111901</v>
       </c>
       <c r="F22" t="n">
-        <v>22252.55109709331</v>
+        <v>29435.53628421443</v>
       </c>
       <c r="G22" t="n">
-        <v>18633.04525996697</v>
+        <v>15845.22066267894</v>
       </c>
       <c r="H22" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>30791788</v>
+        <v>28830658</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73263264</v>
+        <v>75761545</v>
       </c>
       <c r="E23" t="n">
-        <v>152748021</v>
+        <v>157956737</v>
       </c>
       <c r="F23" t="n">
-        <v>14656.00337428267</v>
+        <v>14042.53023601017</v>
       </c>
       <c r="G23" t="n">
-        <v>15318.90470719394</v>
+        <v>15160.00548055301</v>
       </c>
       <c r="H23" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I23" t="n">
-        <v>17863556</v>
+        <v>15272795</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>554148030</v>
+        <v>568030781</v>
       </c>
       <c r="E24" t="n">
-        <v>554148030</v>
+        <v>568030781</v>
       </c>
       <c r="F24" t="n">
-        <v>114697.180254293</v>
+        <v>124169.5730936461</v>
       </c>
       <c r="G24" t="n">
-        <v>161062.3589538079</v>
+        <v>125871.2481127701</v>
       </c>
       <c r="H24" t="n">
         <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>478311635</v>
+        <v>355383306</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>183368928</v>
+        <v>195188083</v>
       </c>
       <c r="E25" t="n">
-        <v>637040228</v>
+        <v>678101039</v>
       </c>
       <c r="F25" t="n">
-        <v>78954.86153277307</v>
+        <v>70222.45053566425</v>
       </c>
       <c r="G25" t="n">
-        <v>124905.6776054045</v>
+        <v>118695.4905521259</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>39014374</v>
+        <v>35544242</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5098861</v>
+        <v>5015259</v>
       </c>
       <c r="E26" t="n">
-        <v>6894795</v>
+        <v>6781079</v>
       </c>
       <c r="F26" t="n">
-        <v>2553.745731246042</v>
+        <v>2625.391971792927</v>
       </c>
       <c r="G26" t="n">
-        <v>4166.22413249596</v>
+        <v>3826.816310274516</v>
       </c>
       <c r="H26" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I26" t="n">
-        <v>4012044</v>
+        <v>3716385</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12325348</v>
+        <v>12278976</v>
       </c>
       <c r="F27" t="n">
-        <v>2092.963259359588</v>
+        <v>1931.739358707848</v>
       </c>
       <c r="G27" t="n">
-        <v>2729.956083321833</v>
+        <v>3115.980459452891</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I27" t="n">
-        <v>203061</v>
+        <v>203876</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23297257</v>
+        <v>23794651</v>
       </c>
       <c r="E28" t="n">
-        <v>32896192</v>
+        <v>33591786</v>
       </c>
       <c r="F28" t="n">
-        <v>204.3176770811503</v>
+        <v>139.2304973034345</v>
       </c>
       <c r="G28" t="n">
-        <v>6030.33976104357</v>
+        <v>594.0763358389398</v>
       </c>
       <c r="H28" t="n">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
       <c r="I28" t="n">
-        <v>105546</v>
+        <v>102053</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>220223316</v>
+        <v>219856091</v>
       </c>
       <c r="E29" t="n">
-        <v>950606089</v>
+        <v>949020942</v>
       </c>
       <c r="F29" t="n">
-        <v>132290.2259034202</v>
+        <v>148545.8388086861</v>
       </c>
       <c r="G29" t="n">
-        <v>157862.8260231398</v>
+        <v>150668.0252122215</v>
       </c>
       <c r="H29" t="n">
         <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>104375159</v>
+        <v>100375493</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7868283</v>
+        <v>8263301</v>
       </c>
       <c r="E30" t="n">
-        <v>94020697</v>
+        <v>98708835</v>
       </c>
       <c r="F30" t="n">
-        <v>2995.258212972522</v>
+        <v>2025.5706362105</v>
       </c>
       <c r="G30" t="n">
-        <v>1488.767435968639</v>
+        <v>1417.349636112564</v>
       </c>
       <c r="H30" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="I30" t="n">
-        <v>148326</v>
+        <v>217293</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11730401</v>
+        <v>11734797</v>
       </c>
       <c r="E31" t="n">
-        <v>29326004</v>
+        <v>29336993</v>
       </c>
       <c r="F31" t="n">
-        <v>7740.990858795479</v>
+        <v>6692.512719099416</v>
       </c>
       <c r="G31" t="n">
-        <v>6605.679680037621</v>
+        <v>10841.86402171298</v>
       </c>
       <c r="H31" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I31" t="n">
-        <v>3347471</v>
+        <v>2761761</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18439781</v>
+        <v>18330889</v>
       </c>
       <c r="F32" t="n">
-        <v>842.9910420171381</v>
+        <v>4048.799204995923</v>
       </c>
       <c r="G32" t="n">
-        <v>3073.132611858633</v>
+        <v>5811.317771392411</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="I32" t="n">
-        <v>48493</v>
+        <v>35585</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1481392</v>
+        <v>1413713</v>
       </c>
       <c r="E33" t="n">
-        <v>5519295</v>
+        <v>5266325</v>
       </c>
       <c r="F33" t="n">
-        <v>455.6429121546299</v>
+        <v>2433.732635553403</v>
       </c>
       <c r="G33" t="n">
-        <v>1033.304998586656</v>
+        <v>1008.401990322682</v>
       </c>
       <c r="H33" t="n">
-        <v>0.26</v>
+        <v>0.58</v>
       </c>
       <c r="I33" t="n">
-        <v>627982</v>
+        <v>571937</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4177052</v>
+        <v>4031959</v>
       </c>
       <c r="E34" t="n">
-        <v>12029063</v>
+        <v>11611225</v>
       </c>
       <c r="F34" t="n">
-        <v>1268.16007376061</v>
+        <v>3994.329795815243</v>
       </c>
       <c r="G34" t="n">
-        <v>2396.600697735801</v>
+        <v>4164.672112133656</v>
       </c>
       <c r="H34" t="n">
-        <v>0.58</v>
+        <v>0.26</v>
       </c>
       <c r="I34" t="n">
-        <v>468654</v>
+        <v>482309</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11323256</v>
+        <v>11295920</v>
       </c>
       <c r="E35" t="n">
-        <v>54840336</v>
+        <v>54707943</v>
       </c>
       <c r="F35" t="n">
-        <v>5245.973025390649</v>
+        <v>4206.074172765315</v>
       </c>
       <c r="G35" t="n">
-        <v>3356.03543934691</v>
+        <v>6369.794929079927</v>
       </c>
       <c r="H35" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="I35" t="n">
-        <v>4502599</v>
+        <v>3249317</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1196808</v>
+        <v>1233083</v>
       </c>
       <c r="E36" t="n">
-        <v>7833079</v>
+        <v>8070495</v>
       </c>
       <c r="F36" t="n">
-        <v>3804.862941437186</v>
+        <v>1512.926802466587</v>
       </c>
       <c r="G36" t="n">
-        <v>3202.72881033294</v>
+        <v>3140.074098104427</v>
       </c>
       <c r="H36" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="I36" t="n">
-        <v>85729</v>
+        <v>49339</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1737688579</v>
+        <v>1729307581</v>
       </c>
       <c r="F37" t="n">
-        <v>124.0479556851323</v>
+        <v>121.677350921495</v>
       </c>
       <c r="G37" t="n">
-        <v>646.5599484516933</v>
+        <v>724.7722682489206</v>
       </c>
       <c r="H37" t="n">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="I37" t="n">
-        <v>34897962</v>
+        <v>31815963</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1832785</v>
+        <v>1820794</v>
       </c>
       <c r="E38" t="n">
-        <v>13142720</v>
+        <v>13056734</v>
       </c>
       <c r="F38" t="n">
-        <v>4334.940713356839</v>
+        <v>3737.642715005332</v>
       </c>
       <c r="G38" t="n">
-        <v>5492.982507774703</v>
+        <v>5406.170858216337</v>
       </c>
       <c r="H38" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="I38" t="n">
-        <v>2059740</v>
+        <v>1952158</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>170343022</v>
+        <v>171948265</v>
       </c>
       <c r="E39" t="n">
-        <v>964586856</v>
+        <v>973676731</v>
       </c>
       <c r="F39" t="n">
-        <v>128985.9469277343</v>
+        <v>131095.8973408107</v>
       </c>
       <c r="G39" t="n">
-        <v>134545.4845755959</v>
+        <v>142941.5055848936</v>
       </c>
       <c r="H39" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>69089952</v>
+        <v>59901003</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>104486959</v>
+        <v>105860787</v>
       </c>
       <c r="E40" t="n">
-        <v>773977477</v>
+        <v>784153976</v>
       </c>
       <c r="F40" t="n">
-        <v>207061.9866899719</v>
+        <v>192002.4354865804</v>
       </c>
       <c r="G40" t="n">
-        <v>204234.0396938125</v>
+        <v>192213.408798165</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>11746287</v>
+        <v>9286073</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>286988231</v>
+        <v>288226705</v>
       </c>
       <c r="E41" t="n">
-        <v>2581924086</v>
+        <v>2593066164</v>
       </c>
       <c r="F41" t="n">
-        <v>137099.5526696365</v>
+        <v>133648.623740735</v>
       </c>
       <c r="G41" t="n">
-        <v>194878.1715693061</v>
+        <v>166440.6194681305</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>52598163</v>
+        <v>39678659</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1443427</v>
+        <v>1523113</v>
       </c>
       <c r="E42" t="n">
-        <v>12028560</v>
+        <v>12692610</v>
       </c>
       <c r="F42" t="n">
-        <v>1880.776770140762</v>
+        <v>3291.50929388544</v>
       </c>
       <c r="G42" t="n">
-        <v>2485.013956066668</v>
+        <v>2897.763253581843</v>
       </c>
       <c r="H42" t="n">
-        <v>0.58</v>
+        <v>0.86</v>
       </c>
       <c r="I42" t="n">
-        <v>45915</v>
+        <v>69046</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15828899</v>
+        <v>16973101</v>
       </c>
       <c r="E43" t="n">
-        <v>46931737</v>
+        <v>50317222</v>
       </c>
       <c r="F43" t="n">
-        <v>11887.83882358983</v>
+        <v>8918.513477781333</v>
       </c>
       <c r="G43" t="n">
-        <v>19593.90575296268</v>
+        <v>19833.32305888172</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I43" t="n">
-        <v>7416154</v>
+        <v>5843490</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7527799</v>
+        <v>7236659</v>
       </c>
       <c r="F44" t="n">
-        <v>2920.407132365607</v>
+        <v>2921.472089300677</v>
       </c>
       <c r="G44" t="n">
-        <v>2323.439940512037</v>
+        <v>2135.977201308556</v>
       </c>
       <c r="H44" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="I44" t="n">
-        <v>91545</v>
+        <v>88689</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10043538</v>
+        <v>9858553</v>
       </c>
       <c r="E45" t="n">
-        <v>10043538</v>
+        <v>9858553</v>
       </c>
       <c r="F45" t="n">
-        <v>137.1567430355365</v>
+        <v>989.096559625687</v>
       </c>
       <c r="G45" t="n">
-        <v>719.8383202438029</v>
+        <v>956.1962812703977</v>
       </c>
       <c r="H45" t="n">
-        <v>2.73</v>
+        <v>0.2</v>
       </c>
       <c r="I45" t="n">
-        <v>3711804</v>
+        <v>2415172</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>260525946</v>
+        <v>260769118</v>
       </c>
       <c r="E46" t="n">
-        <v>260525946</v>
+        <v>260769118</v>
       </c>
       <c r="F46" t="n">
-        <v>13565.13730691245</v>
+        <v>13646.96195768308</v>
       </c>
       <c r="G46" t="n">
-        <v>14148.83353846863</v>
+        <v>15172.71217628867</v>
       </c>
       <c r="H46" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I46" t="n">
-        <v>16276954</v>
+        <v>13387721</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11074560</v>
+        <v>11185315</v>
       </c>
       <c r="E47" t="n">
-        <v>35013881</v>
+        <v>35360242</v>
       </c>
       <c r="F47" t="n">
-        <v>6669.129286253799</v>
+        <v>3375.941789417762</v>
       </c>
       <c r="G47" t="n">
-        <v>9246.196225065292</v>
+        <v>2546.682754592535</v>
       </c>
       <c r="H47" t="n">
         <v>0.28</v>
       </c>
       <c r="I47" t="n">
-        <v>1484493</v>
+        <v>1206005</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>29715590</v>
+        <v>29483176</v>
       </c>
       <c r="E48" t="n">
-        <v>82309235</v>
+        <v>81665471</v>
       </c>
       <c r="F48" t="n">
-        <v>2699.134538766179</v>
+        <v>5043.262573413012</v>
       </c>
       <c r="G48" t="n">
-        <v>9079.327965214708</v>
+        <v>3626.204565642915</v>
       </c>
       <c r="H48" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="I48" t="n">
-        <v>9944001</v>
+        <v>9727974</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25090707</v>
+        <v>25650638</v>
       </c>
       <c r="E49" t="n">
-        <v>59512751</v>
+        <v>60840854</v>
       </c>
       <c r="F49" t="n">
-        <v>13464.45138130566</v>
+        <v>16837.92473894959</v>
       </c>
       <c r="G49" t="n">
-        <v>15668.48593179507</v>
+        <v>10004.13268387538</v>
       </c>
       <c r="H49" t="n">
         <v>0.1</v>
       </c>
       <c r="I49" t="n">
-        <v>525737</v>
+        <v>306057</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11441230</v>
+        <v>11407527</v>
       </c>
       <c r="E50" t="n">
-        <v>17311944</v>
+        <v>17260948</v>
       </c>
       <c r="F50" t="n">
-        <v>4971.222107081078</v>
+        <v>5540.637831438262</v>
       </c>
       <c r="G50" t="n">
-        <v>3971.047991133764</v>
+        <v>3932.738001049672</v>
       </c>
       <c r="H50" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="I50" t="n">
-        <v>605319</v>
+        <v>597423</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>272950738</v>
+        <v>277890947</v>
       </c>
       <c r="E51" t="n">
-        <v>272950738</v>
+        <v>277890947</v>
       </c>
       <c r="F51" t="n">
-        <v>31693.23240049747</v>
+        <v>70672.42981742577</v>
       </c>
       <c r="G51" t="n">
-        <v>76822.01044330584</v>
+        <v>60342.60968378386</v>
       </c>
       <c r="H51" t="n">
         <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>74278612</v>
+        <v>97253095</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>77846731</v>
+        <v>78086392</v>
       </c>
       <c r="E52" t="n">
-        <v>448586439</v>
+        <v>449967469</v>
       </c>
       <c r="F52" t="n">
-        <v>231876.4818701494</v>
+        <v>208891.5988060414</v>
       </c>
       <c r="G52" t="n">
-        <v>261056.1769613659</v>
+        <v>213991.5506700489</v>
       </c>
       <c r="H52" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I52" t="n">
-        <v>19685839</v>
+        <v>17654604</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29369814</v>
+        <v>33355747</v>
       </c>
       <c r="E53" t="n">
-        <v>131500708</v>
+        <v>149347364</v>
       </c>
       <c r="F53" t="n">
-        <v>6524.924462193686</v>
+        <v>7093.54402043292</v>
       </c>
       <c r="G53" t="n">
-        <v>9603.941473750958</v>
+        <v>12374.43442471563</v>
       </c>
       <c r="H53" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I53" t="n">
-        <v>24703661</v>
+        <v>25890454</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7812467</v>
+        <v>7636260</v>
       </c>
       <c r="F54" t="n">
-        <v>2721.168431867726</v>
+        <v>3077.638958623629</v>
       </c>
       <c r="G54" t="n">
-        <v>4612.683441835498</v>
+        <v>4610.99845733537</v>
       </c>
       <c r="H54" t="n">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="I54" t="n">
-        <v>292037</v>
+        <v>288632</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4124385</v>
+        <v>4097395</v>
       </c>
       <c r="F55" t="n">
-        <v>5374.595418127855</v>
+        <v>5161.475307269228</v>
       </c>
       <c r="G55" t="n">
-        <v>574.3208124097987</v>
+        <v>634.2517879145482</v>
       </c>
       <c r="H55" t="n">
         <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>267614</v>
+        <v>206422</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122205030</v>
+        <v>121746034</v>
       </c>
       <c r="E56" t="n">
-        <v>2023815381</v>
+        <v>2016214034</v>
       </c>
       <c r="F56" t="n">
-        <v>176895.0656629235</v>
+        <v>171155.8971007121</v>
       </c>
       <c r="G56" t="n">
-        <v>176614.7994155393</v>
+        <v>174856.3100351328</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>24223571</v>
+        <v>19562042</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>71498437</v>
+        <v>74158038</v>
       </c>
       <c r="E57" t="n">
-        <v>72268015</v>
+        <v>74956242</v>
       </c>
       <c r="F57" t="n">
-        <v>14216.05476627914</v>
+        <v>17211.23032422673</v>
       </c>
       <c r="G57" t="n">
-        <v>25286.05296842858</v>
+        <v>20517.96923832364</v>
       </c>
       <c r="H57" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I57" t="n">
-        <v>9090421</v>
+        <v>8339377</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>224224564</v>
+        <v>238187057</v>
       </c>
       <c r="E58" t="n">
-        <v>224224564</v>
+        <v>238187057</v>
       </c>
       <c r="F58" t="n">
-        <v>50138.89591538659</v>
+        <v>55827.16244342516</v>
       </c>
       <c r="G58" t="n">
-        <v>113745.6722650236</v>
+        <v>83008.57513275913</v>
       </c>
       <c r="H58" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I58" t="n">
-        <v>47656094</v>
+        <v>45032344</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>20987510</v>
+        <v>21373301</v>
       </c>
       <c r="E59" t="n">
-        <v>125572491</v>
+        <v>127880758</v>
       </c>
       <c r="F59" t="n">
-        <v>21092.95721174202</v>
+        <v>18191.06841058307</v>
       </c>
       <c r="G59" t="n">
-        <v>9747.119192839786</v>
+        <v>6822.64418604677</v>
       </c>
       <c r="H59" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I59" t="n">
-        <v>17570939</v>
+        <v>14293047</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2413128</v>
+        <v>2225451</v>
       </c>
       <c r="E60" t="n">
-        <v>4453566</v>
+        <v>4107197</v>
       </c>
       <c r="F60" t="n">
-        <v>4127.18130386301</v>
+        <v>2067.21767143546</v>
       </c>
       <c r="G60" t="n">
-        <v>2016.026466924922</v>
+        <v>4131.398940226139</v>
       </c>
       <c r="H60" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="I60" t="n">
-        <v>70367</v>
+        <v>23801</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10362276</v>
+        <v>10085189</v>
       </c>
       <c r="E62" t="n">
-        <v>30328269</v>
+        <v>29517291</v>
       </c>
       <c r="F62" t="n">
-        <v>9544.954445211049</v>
+        <v>5749.550367323156</v>
       </c>
       <c r="G62" t="n">
-        <v>7459.194872820164</v>
+        <v>2903.114486547501</v>
       </c>
       <c r="H62" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>6540318</v>
+        <v>5732809</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13998484</v>
+        <v>14008828</v>
       </c>
       <c r="E63" t="n">
-        <v>28339075</v>
+        <v>28360016</v>
       </c>
       <c r="F63" t="n">
-        <v>6831.793781395765</v>
+        <v>6441.154381840763</v>
       </c>
       <c r="G63" t="n">
-        <v>16946.79793833713</v>
+        <v>18088.64205485348</v>
       </c>
       <c r="H63" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I63" t="n">
-        <v>512146</v>
+        <v>481929</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>29438074</v>
+        <v>28787220</v>
       </c>
       <c r="E64" t="n">
-        <v>208711141</v>
+        <v>204096694</v>
       </c>
       <c r="F64" t="n">
-        <v>60967.03136452798</v>
+        <v>28126.69030540587</v>
       </c>
       <c r="G64" t="n">
-        <v>43675.63913879386</v>
+        <v>39586.18931781071</v>
       </c>
       <c r="H64" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I64" t="n">
-        <v>2416071</v>
+        <v>1889117</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1223060</v>
+        <v>1201690</v>
       </c>
       <c r="E65" t="n">
-        <v>7570671</v>
+        <v>7427055</v>
       </c>
       <c r="F65" t="n">
-        <v>2644.492986342954</v>
+        <v>2754.81435328665</v>
       </c>
       <c r="G65" t="n">
-        <v>3296.916561344709</v>
+        <v>2793.612342151271</v>
       </c>
       <c r="H65" t="n">
         <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>519551</v>
+        <v>547343</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>543320799</v>
+        <v>550007443</v>
       </c>
       <c r="E66" t="n">
-        <v>2104201293</v>
+        <v>2130097679</v>
       </c>
       <c r="F66" t="n">
-        <v>46139.44184884035</v>
+        <v>160892.7263082972</v>
       </c>
       <c r="G66" t="n">
-        <v>109022.8922833063</v>
+        <v>57566.73580552336</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>47322282</v>
+        <v>38434493</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5172904</v>
+        <v>5233464</v>
       </c>
       <c r="E67" t="n">
-        <v>22934708</v>
+        <v>23185427</v>
       </c>
       <c r="F67" t="n">
-        <v>2344.828596665351</v>
+        <v>4973.889375886036</v>
       </c>
       <c r="G67" t="n">
-        <v>1395.864762317151</v>
+        <v>3895.828785430872</v>
       </c>
       <c r="H67" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I67" t="n">
-        <v>170197</v>
+        <v>157809</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>94353851</v>
+        <v>94649709</v>
       </c>
       <c r="E68" t="n">
-        <v>892753746</v>
+        <v>895553086</v>
       </c>
       <c r="F68" t="n">
-        <v>5921.116626433773</v>
+        <v>4548.132464304881</v>
       </c>
       <c r="G68" t="n">
-        <v>17403.18417007304</v>
+        <v>15036.81407817724</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I68" t="n">
-        <v>13865754</v>
+        <v>11932039</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>71375883</v>
+        <v>72860616</v>
       </c>
       <c r="E69" t="n">
-        <v>108885583</v>
+        <v>111150578</v>
       </c>
       <c r="F69" t="n">
-        <v>56559.51081284379</v>
+        <v>48431.87017204384</v>
       </c>
       <c r="G69" t="n">
-        <v>65512.76124588668</v>
+        <v>71262.91336682336</v>
       </c>
       <c r="H69" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I69" t="n">
-        <v>7415154</v>
+        <v>6602192</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1015362</v>
+        <v>1031764</v>
       </c>
       <c r="E70" t="n">
-        <v>3931705</v>
+        <v>3995214</v>
       </c>
       <c r="F70" t="n">
-        <v>2758.53748369231</v>
+        <v>2608.320253752084</v>
       </c>
       <c r="G70" t="n">
-        <v>2067.438733483985</v>
+        <v>2037.359889315887</v>
       </c>
       <c r="H70" t="n">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="I70" t="n">
-        <v>103350</v>
+        <v>102417</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>125419797</v>
+        <v>127369815</v>
       </c>
       <c r="E71" t="n">
-        <v>481130530</v>
+        <v>488611110</v>
       </c>
       <c r="F71" t="n">
-        <v>13658.71751159456</v>
+        <v>13577.43438762121</v>
       </c>
       <c r="G71" t="n">
-        <v>12986.12491045276</v>
+        <v>13325.55276357833</v>
       </c>
       <c r="H71" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I71" t="n">
-        <v>27242706</v>
+        <v>25031511</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2842887</v>
+        <v>2699427</v>
       </c>
       <c r="E72" t="n">
-        <v>26936775</v>
+        <v>25577473</v>
       </c>
       <c r="F72" t="n">
-        <v>5381.889552478257</v>
+        <v>4316.235020390244</v>
       </c>
       <c r="G72" t="n">
-        <v>2401.265829859697</v>
+        <v>3098.433570228126</v>
       </c>
       <c r="H72" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="I72" t="n">
-        <v>416161</v>
+        <v>295981</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>34728963</v>
+        <v>28974793</v>
       </c>
       <c r="F73" t="n">
-        <v>2990.459978991621</v>
+        <v>1321.476097676404</v>
       </c>
       <c r="G73" t="n">
-        <v>1563.317870467644</v>
+        <v>3761.208095683479</v>
       </c>
       <c r="H73" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="I73" t="n">
-        <v>7958863</v>
+        <v>10121363</v>
       </c>
     </row>
     <row r="74">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Venom Ecosystem</t>
+          <t>Infrastructure, Smart Contract Platform, Venom Ecosystem</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>108735948</v>
+        <v>115563296</v>
       </c>
       <c r="E74" t="n">
-        <v>396358479</v>
+        <v>421231036</v>
       </c>
       <c r="F74" t="n">
-        <v>1408.808752338188</v>
+        <v>1577.550900522565</v>
       </c>
       <c r="G74" t="n">
-        <v>586.720207567853</v>
+        <v>433.5096207296378</v>
       </c>
       <c r="H74" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="I74" t="n">
-        <v>464608</v>
+        <v>912802</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>19726783</v>
+        <v>20684518</v>
       </c>
       <c r="E75" t="n">
-        <v>19726783</v>
+        <v>20684518</v>
       </c>
       <c r="F75" t="n">
-        <v>6827.050089511379</v>
+        <v>5558.731367467357</v>
       </c>
       <c r="G75" t="n">
-        <v>6886.839637886047</v>
+        <v>7863.90943001434</v>
       </c>
       <c r="H75" t="n">
         <v>0.18</v>
       </c>
       <c r="I75" t="n">
-        <v>8907593</v>
+        <v>6231479</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>399310721</v>
+        <v>399170822</v>
       </c>
       <c r="E76" t="n">
-        <v>1386452166</v>
+        <v>1385966421</v>
       </c>
       <c r="F76" t="n">
-        <v>163099.3010261469</v>
+        <v>127972.4796613748</v>
       </c>
       <c r="G76" t="n">
-        <v>172649.3564990467</v>
+        <v>168334.6208881818</v>
       </c>
       <c r="H76" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>45223054</v>
+        <v>40409477</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5098829347</v>
+        <v>4942870250</v>
       </c>
       <c r="E77" t="n">
-        <v>5098829347</v>
+        <v>4942870250</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>46.56</v>
+        <v>24.94</v>
       </c>
       <c r="I77" t="n">
-        <v>14918970</v>
+        <v>15730006</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6762890</v>
+        <v>7112550</v>
       </c>
       <c r="E78" t="n">
-        <v>17569260</v>
+        <v>18477641</v>
       </c>
       <c r="F78" t="n">
-        <v>431.2327263195922</v>
+        <v>3690.390359797523</v>
       </c>
       <c r="G78" t="n">
-        <v>1007.239388862355</v>
+        <v>3719.82270336523</v>
       </c>
       <c r="H78" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I78" t="n">
-        <v>770644</v>
+        <v>205226</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>93441257</v>
+        <v>91633762</v>
       </c>
       <c r="E79" t="n">
-        <v>141574300</v>
+        <v>136702025</v>
       </c>
       <c r="F79" t="n">
-        <v>7242.688282680173</v>
+        <v>39216.65163078414</v>
       </c>
       <c r="G79" t="n">
-        <v>6306.74827491916</v>
+        <v>38342.85068512162</v>
       </c>
       <c r="H79" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="I79" t="n">
-        <v>8342744</v>
+        <v>7954264</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1885192</v>
+        <v>1852619</v>
       </c>
       <c r="E80" t="n">
-        <v>7540767</v>
+        <v>7410477</v>
       </c>
       <c r="F80" t="n">
-        <v>3179.21814042723</v>
+        <v>4051.363286794533</v>
       </c>
       <c r="G80" t="n">
-        <v>6533.550680275583</v>
+        <v>7834.2089619455</v>
       </c>
       <c r="H80" t="n">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>7153638</v>
+        <v>6659913</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3213294</v>
+        <v>4194207</v>
       </c>
       <c r="F81" t="n">
-        <v>2618.003205949155</v>
+        <v>3304.367867046634</v>
       </c>
       <c r="G81" t="n">
-        <v>2627.615837097933</v>
+        <v>3596.203688432739</v>
       </c>
       <c r="H81" t="n">
-        <v>1.42</v>
+        <v>0.78</v>
       </c>
       <c r="I81" t="n">
-        <v>881970</v>
+        <v>1413616</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>361990826</v>
+        <v>363108746</v>
       </c>
       <c r="E82" t="n">
-        <v>2068519006</v>
+        <v>2074907121</v>
       </c>
       <c r="F82" t="n">
-        <v>23843.79285736601</v>
+        <v>26495.0267749612</v>
       </c>
       <c r="G82" t="n">
-        <v>45403.37427762348</v>
+        <v>41975.69260449141</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>52358182</v>
+        <v>42955162</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4480791</v>
+        <v>4576290</v>
       </c>
       <c r="F2" t="n">
-        <v>2169.611064769803</v>
+        <v>163.6435834194089</v>
       </c>
       <c r="G2" t="n">
-        <v>1564.584190128661</v>
+        <v>459.7223616366665</v>
       </c>
       <c r="H2" t="n">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="I2" t="n">
-        <v>260074</v>
+        <v>266131</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1295689</v>
+        <v>1275526</v>
       </c>
       <c r="E3" t="n">
-        <v>4079054</v>
+        <v>4015579</v>
       </c>
       <c r="F3" t="n">
-        <v>5102.941434332206</v>
+        <v>6460.69433703901</v>
       </c>
       <c r="G3" t="n">
-        <v>2188.650962182691</v>
+        <v>6688.01006145802</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I3" t="n">
-        <v>204009</v>
+        <v>262919</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>218136780</v>
+        <v>238860897</v>
       </c>
       <c r="E4" t="n">
-        <v>1367905084</v>
+        <v>1497863109</v>
       </c>
       <c r="F4" t="n">
-        <v>158723.9456761798</v>
+        <v>113460.0245347204</v>
       </c>
       <c r="G4" t="n">
-        <v>177420.1358409091</v>
+        <v>145502.3124530116</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I4" t="n">
-        <v>17982510</v>
+        <v>51212356</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>130030757</v>
+        <v>137778994</v>
       </c>
       <c r="E5" t="n">
-        <v>144094398</v>
+        <v>152680655</v>
       </c>
       <c r="F5" t="n">
-        <v>60377.40911183799</v>
+        <v>40217.55076579205</v>
       </c>
       <c r="G5" t="n">
-        <v>42146.83140728707</v>
+        <v>59184.9979235676</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>25672354</v>
+        <v>36252552</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>114714304</v>
+        <v>118721079</v>
       </c>
       <c r="E6" t="n">
-        <v>410865809</v>
+        <v>425216649</v>
       </c>
       <c r="F6" t="n">
-        <v>10432.43668293649</v>
+        <v>13335.28749807333</v>
       </c>
       <c r="G6" t="n">
-        <v>8849.51078178201</v>
+        <v>16422.37936511859</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>16563723</v>
+        <v>20772457</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4788098</v>
+        <v>4516002</v>
       </c>
       <c r="E7" t="n">
-        <v>29297015</v>
+        <v>27592016</v>
       </c>
       <c r="F7" t="n">
-        <v>2485.344400742754</v>
+        <v>3284.742289114278</v>
       </c>
       <c r="G7" t="n">
-        <v>1342.118634772935</v>
+        <v>915.1757086690955</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>479385</v>
+        <v>1081749</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>157134</v>
+        <v>161544</v>
       </c>
       <c r="E8" t="n">
-        <v>1728646</v>
+        <v>1777160</v>
       </c>
       <c r="F8" t="n">
-        <v>2180.636221450991</v>
+        <v>2276.641422005051</v>
       </c>
       <c r="G8" t="n">
-        <v>1842.08690553863</v>
+        <v>1881.580636579885</v>
       </c>
       <c r="H8" t="n">
         <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>69025</v>
+        <v>58590</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65262521</v>
+        <v>64235459</v>
       </c>
       <c r="E9" t="n">
-        <v>112671528</v>
+        <v>110870633</v>
       </c>
       <c r="F9" t="n">
-        <v>9501.747668670916</v>
+        <v>10238.09282014148</v>
       </c>
       <c r="G9" t="n">
-        <v>8670.487962123265</v>
+        <v>9021.847003500709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="I9" t="n">
-        <v>555165</v>
+        <v>580586</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8520943</v>
+        <v>8553470</v>
       </c>
       <c r="E10" t="n">
-        <v>12060762</v>
+        <v>12106801</v>
       </c>
       <c r="F10" t="n">
-        <v>2964.33085146958</v>
+        <v>2848.633312913232</v>
       </c>
       <c r="G10" t="n">
-        <v>2894.267690711305</v>
+        <v>2683.937679072986</v>
       </c>
       <c r="H10" t="n">
         <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>41108</v>
+        <v>38710</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>390159989</v>
+        <v>375521845</v>
       </c>
       <c r="E11" t="n">
-        <v>390159989</v>
+        <v>375521846</v>
       </c>
       <c r="F11" t="n">
-        <v>27602.90287853565</v>
+        <v>49069.20884746702</v>
       </c>
       <c r="G11" t="n">
-        <v>35232.02583138378</v>
+        <v>38380.83574834491</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I11" t="n">
-        <v>34365826</v>
+        <v>35748640</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>281079</v>
+        <v>260594</v>
       </c>
       <c r="E12" t="n">
-        <v>1312103</v>
+        <v>1216479</v>
       </c>
       <c r="F12" t="n">
-        <v>392.3111848777112</v>
+        <v>2388.251328754177</v>
       </c>
       <c r="G12" t="n">
-        <v>498.64883648516</v>
+        <v>582.3400155405282</v>
       </c>
       <c r="H12" t="n">
-        <v>0.95</v>
+        <v>1.56</v>
       </c>
       <c r="I12" t="n">
-        <v>690015</v>
+        <v>708962</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1619327</v>
+        <v>1644663</v>
       </c>
       <c r="F13" t="n">
-        <v>1916.968908578094</v>
+        <v>1205.838882848367</v>
       </c>
       <c r="G13" t="n">
-        <v>192.4101042694567</v>
+        <v>1525.588008258367</v>
       </c>
       <c r="H13" t="n">
-        <v>0.85</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>209465</v>
+        <v>212433</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10817100</v>
+        <v>10598957</v>
       </c>
       <c r="E14" t="n">
-        <v>26921806</v>
+        <v>26378887</v>
       </c>
       <c r="F14" t="n">
-        <v>1127.022144739211</v>
+        <v>942.3392221014502</v>
       </c>
       <c r="G14" t="n">
-        <v>1165.463293081646</v>
+        <v>1081.945933602702</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I14" t="n">
-        <v>1248884</v>
+        <v>1120824</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>99113819</v>
+        <v>102943210</v>
       </c>
       <c r="E15" t="n">
-        <v>382733267</v>
+        <v>397283501</v>
       </c>
       <c r="F15" t="n">
-        <v>11200.85334760198</v>
+        <v>10288.04101222453</v>
       </c>
       <c r="G15" t="n">
-        <v>12729.48533119041</v>
+        <v>12879.49632647439</v>
       </c>
       <c r="H15" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4995893</v>
+        <v>10604591</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4143642</v>
+        <v>4070631</v>
       </c>
       <c r="E16" t="n">
-        <v>6099665</v>
+        <v>5992189</v>
       </c>
       <c r="F16" t="n">
-        <v>482.0265051070066</v>
+        <v>3673.202713924434</v>
       </c>
       <c r="G16" t="n">
-        <v>968.5516975217247</v>
+        <v>3625.152778589645</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05</v>
+        <v>0.63</v>
       </c>
       <c r="I16" t="n">
-        <v>607314</v>
+        <v>556131</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>457823</v>
+        <v>457613</v>
       </c>
       <c r="E17" t="n">
-        <v>1887910</v>
+        <v>1887043</v>
       </c>
       <c r="F17" t="n">
-        <v>489.0737873099178</v>
+        <v>441.9809031764555</v>
       </c>
       <c r="G17" t="n">
-        <v>117.1072277477116</v>
+        <v>167.7905419689681</v>
       </c>
       <c r="H17" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I17" t="n">
-        <v>65045</v>
+        <v>51010</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>128037038</v>
+        <v>128893951</v>
       </c>
       <c r="E18" t="n">
-        <v>128037038</v>
+        <v>128893951</v>
       </c>
       <c r="F18" t="n">
-        <v>71528.20531411862</v>
+        <v>75286.66420013325</v>
       </c>
       <c r="G18" t="n">
-        <v>113536.3903527288</v>
+        <v>97199.1578869621</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I18" t="n">
-        <v>74484146</v>
+        <v>80012049</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65217990</v>
+        <v>69043283</v>
       </c>
       <c r="E19" t="n">
-        <v>334451230</v>
+        <v>354068119</v>
       </c>
       <c r="F19" t="n">
-        <v>13136.82100347544</v>
+        <v>10236.22673413221</v>
       </c>
       <c r="G19" t="n">
-        <v>12063.09068572927</v>
+        <v>12585.66125993492</v>
       </c>
       <c r="H19" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I19" t="n">
-        <v>20602679</v>
+        <v>28780733</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>212433392</v>
+        <v>209690566</v>
       </c>
       <c r="E20" t="n">
-        <v>212433392</v>
+        <v>209690566</v>
       </c>
       <c r="F20" t="n">
-        <v>55620.78477567436</v>
+        <v>28348.80719756963</v>
       </c>
       <c r="G20" t="n">
-        <v>43935.67006223719</v>
+        <v>65988.73267593098</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>24070110</v>
+        <v>37901594</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>140675365</v>
+        <v>134055019</v>
       </c>
       <c r="E21" t="n">
-        <v>185112328</v>
+        <v>176400727</v>
       </c>
       <c r="F21" t="n">
-        <v>24379.05651651818</v>
+        <v>10663.37474655072</v>
       </c>
       <c r="G21" t="n">
-        <v>18022.13707603809</v>
+        <v>21883.45702757237</v>
       </c>
       <c r="H21" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>7540694</v>
+        <v>6834442</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68929611</v>
+        <v>75359306</v>
       </c>
       <c r="E22" t="n">
-        <v>193111901</v>
+        <v>210894962</v>
       </c>
       <c r="F22" t="n">
-        <v>29435.53628421443</v>
+        <v>37713.96142158989</v>
       </c>
       <c r="G22" t="n">
-        <v>15845.22066267894</v>
+        <v>36372.29922202569</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="I22" t="n">
-        <v>28830658</v>
+        <v>63203969</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75761545</v>
+        <v>72682316</v>
       </c>
       <c r="E23" t="n">
-        <v>157956737</v>
+        <v>151536792</v>
       </c>
       <c r="F23" t="n">
-        <v>14042.53023601017</v>
+        <v>13640.98581514558</v>
       </c>
       <c r="G23" t="n">
-        <v>15160.00548055301</v>
+        <v>17458.89523528861</v>
       </c>
       <c r="H23" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>15272795</v>
+        <v>16530569</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>568030781</v>
+        <v>577767753</v>
       </c>
       <c r="E24" t="n">
-        <v>568030781</v>
+        <v>577767753</v>
       </c>
       <c r="F24" t="n">
-        <v>124169.5730936461</v>
+        <v>112825.4923539533</v>
       </c>
       <c r="G24" t="n">
-        <v>125871.2481127701</v>
+        <v>190616.4707955252</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>355383306</v>
+        <v>438109101</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>195188083</v>
+        <v>202017558</v>
       </c>
       <c r="E25" t="n">
-        <v>678101039</v>
+        <v>701827254</v>
       </c>
       <c r="F25" t="n">
-        <v>70222.45053566425</v>
+        <v>69740.55894424862</v>
       </c>
       <c r="G25" t="n">
-        <v>118695.4905521259</v>
+        <v>116494.1770659247</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I25" t="n">
-        <v>35544242</v>
+        <v>50959106</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5015259</v>
+        <v>4991527</v>
       </c>
       <c r="E26" t="n">
-        <v>6781079</v>
+        <v>6747798</v>
       </c>
       <c r="F26" t="n">
-        <v>2625.391971792927</v>
+        <v>2764.985973008235</v>
       </c>
       <c r="G26" t="n">
-        <v>3826.816310274516</v>
+        <v>3626.019260362834</v>
       </c>
       <c r="H26" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="I26" t="n">
-        <v>3716385</v>
+        <v>4726311</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12278976</v>
+        <v>11883184</v>
       </c>
       <c r="F27" t="n">
-        <v>1931.739358707848</v>
+        <v>1932.24711514373</v>
       </c>
       <c r="G27" t="n">
-        <v>3115.980459452891</v>
+        <v>4533.512696154421</v>
       </c>
       <c r="H27" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="I27" t="n">
-        <v>203876</v>
+        <v>213988</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23794651</v>
+        <v>22335188</v>
       </c>
       <c r="E28" t="n">
-        <v>33591786</v>
+        <v>31531408</v>
       </c>
       <c r="F28" t="n">
-        <v>139.2304973034345</v>
+        <v>40.31333617577029</v>
       </c>
       <c r="G28" t="n">
-        <v>594.0763358389398</v>
+        <v>1167.357724447234</v>
       </c>
       <c r="H28" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="I28" t="n">
-        <v>102053</v>
+        <v>101482</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>219856091</v>
+        <v>225323051</v>
       </c>
       <c r="E29" t="n">
-        <v>949020942</v>
+        <v>972619372</v>
       </c>
       <c r="F29" t="n">
-        <v>148545.8388086861</v>
+        <v>146374.3901430154</v>
       </c>
       <c r="G29" t="n">
-        <v>150668.0252122215</v>
+        <v>162738.5895690586</v>
       </c>
       <c r="H29" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>100375493</v>
+        <v>129222581</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8263301</v>
+        <v>7802709</v>
       </c>
       <c r="E30" t="n">
-        <v>98708835</v>
+        <v>93154377</v>
       </c>
       <c r="F30" t="n">
-        <v>2025.5706362105</v>
+        <v>1985.921909616512</v>
       </c>
       <c r="G30" t="n">
-        <v>1417.349636112564</v>
+        <v>3000.24109895004</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="I30" t="n">
-        <v>217293</v>
+        <v>245299</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11734797</v>
+        <v>12163810</v>
       </c>
       <c r="E31" t="n">
-        <v>29336993</v>
+        <v>30409524</v>
       </c>
       <c r="F31" t="n">
-        <v>6692.512719099416</v>
+        <v>7228.688363641008</v>
       </c>
       <c r="G31" t="n">
-        <v>10841.86402171298</v>
+        <v>3817.50849985978</v>
       </c>
       <c r="H31" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>2761761</v>
+        <v>3066826</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18330889</v>
+        <v>18022414</v>
       </c>
       <c r="F32" t="n">
-        <v>4048.799204995923</v>
+        <v>2270.374351099213</v>
       </c>
       <c r="G32" t="n">
-        <v>5811.317771392411</v>
+        <v>5632.930996310559</v>
       </c>
       <c r="H32" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="I32" t="n">
-        <v>35585</v>
+        <v>48462</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1413713</v>
+        <v>1429306</v>
       </c>
       <c r="E33" t="n">
-        <v>5266325</v>
+        <v>5324341</v>
       </c>
       <c r="F33" t="n">
-        <v>2433.732635553403</v>
+        <v>841.0084245428325</v>
       </c>
       <c r="G33" t="n">
-        <v>1008.401990322682</v>
+        <v>1435.697294473057</v>
       </c>
       <c r="H33" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I33" t="n">
-        <v>571937</v>
+        <v>532075</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4031959</v>
+        <v>3803143</v>
       </c>
       <c r="E34" t="n">
-        <v>11611225</v>
+        <v>10952213</v>
       </c>
       <c r="F34" t="n">
-        <v>3994.329795815243</v>
+        <v>3815.129932239344</v>
       </c>
       <c r="G34" t="n">
-        <v>4164.672112133656</v>
+        <v>3828.04760492169</v>
       </c>
       <c r="H34" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="I34" t="n">
-        <v>482309</v>
+        <v>444268</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11295920</v>
+        <v>11320977</v>
       </c>
       <c r="E35" t="n">
-        <v>54707943</v>
+        <v>54829301</v>
       </c>
       <c r="F35" t="n">
-        <v>4206.074172765315</v>
+        <v>8671.000888830964</v>
       </c>
       <c r="G35" t="n">
-        <v>6369.794929079927</v>
+        <v>6217.058808105782</v>
       </c>
       <c r="H35" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>3249317</v>
+        <v>3045643</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1233083</v>
+        <v>1172507</v>
       </c>
       <c r="E36" t="n">
-        <v>8070495</v>
+        <v>7674025</v>
       </c>
       <c r="F36" t="n">
-        <v>1512.926802466587</v>
+        <v>3448.441616812228</v>
       </c>
       <c r="G36" t="n">
-        <v>3140.074098104427</v>
+        <v>3547.492381007946</v>
       </c>
       <c r="H36" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="I36" t="n">
-        <v>49339</v>
+        <v>53184</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1729307581</v>
+        <v>1714869395</v>
       </c>
       <c r="F37" t="n">
-        <v>121.677350921495</v>
+        <v>115.4855572480546</v>
       </c>
       <c r="G37" t="n">
-        <v>724.7722682489206</v>
+        <v>60.02575122797939</v>
       </c>
       <c r="H37" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="I37" t="n">
-        <v>31815963</v>
+        <v>31664610</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1820794</v>
+        <v>1781331</v>
       </c>
       <c r="E38" t="n">
-        <v>13056734</v>
+        <v>12773744</v>
       </c>
       <c r="F38" t="n">
-        <v>3737.642715005332</v>
+        <v>4334.131358467868</v>
       </c>
       <c r="G38" t="n">
-        <v>5406.170858216337</v>
+        <v>5399.786727061923</v>
       </c>
       <c r="H38" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="I38" t="n">
-        <v>1952158</v>
+        <v>1881352</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>171948265</v>
+        <v>177776612</v>
       </c>
       <c r="E39" t="n">
-        <v>973676731</v>
+        <v>1006680413</v>
       </c>
       <c r="F39" t="n">
-        <v>131095.8973408107</v>
+        <v>100745.3204815264</v>
       </c>
       <c r="G39" t="n">
-        <v>142941.5055848936</v>
+        <v>149500.7436883669</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>59901003</v>
+        <v>67844339</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>105860787</v>
+        <v>98951190</v>
       </c>
       <c r="E40" t="n">
-        <v>784153976</v>
+        <v>732971779</v>
       </c>
       <c r="F40" t="n">
-        <v>192002.4354865804</v>
+        <v>198861.9500566678</v>
       </c>
       <c r="G40" t="n">
-        <v>192213.408798165</v>
+        <v>209530.3450971915</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I40" t="n">
-        <v>9286073</v>
+        <v>10043118</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>288226705</v>
+        <v>293604111</v>
       </c>
       <c r="E41" t="n">
-        <v>2593066164</v>
+        <v>2641444636</v>
       </c>
       <c r="F41" t="n">
-        <v>133648.623740735</v>
+        <v>121253.1340940871</v>
       </c>
       <c r="G41" t="n">
-        <v>166440.6194681305</v>
+        <v>138035.5020723896</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>39678659</v>
+        <v>47653652</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1523113</v>
+        <v>1530238</v>
       </c>
       <c r="E42" t="n">
-        <v>12692610</v>
+        <v>12751981</v>
       </c>
       <c r="F42" t="n">
-        <v>3291.50929388544</v>
+        <v>1526.339368210158</v>
       </c>
       <c r="G42" t="n">
-        <v>2897.763253581843</v>
+        <v>2692.939349705475</v>
       </c>
       <c r="H42" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="I42" t="n">
-        <v>69046</v>
+        <v>81612</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16973101</v>
+        <v>16897805</v>
       </c>
       <c r="E43" t="n">
-        <v>50317222</v>
+        <v>50093393</v>
       </c>
       <c r="F43" t="n">
-        <v>8918.513477781333</v>
+        <v>16001.75668716523</v>
       </c>
       <c r="G43" t="n">
-        <v>19833.32305888172</v>
+        <v>20326.18708219469</v>
       </c>
       <c r="H43" t="n">
         <v>0.22</v>
       </c>
       <c r="I43" t="n">
-        <v>5843490</v>
+        <v>5845955</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7236659</v>
+        <v>7164709</v>
       </c>
       <c r="F44" t="n">
-        <v>2921.472089300677</v>
+        <v>3042.344227127722</v>
       </c>
       <c r="G44" t="n">
-        <v>2135.977201308556</v>
+        <v>1748.954106324038</v>
       </c>
       <c r="H44" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I44" t="n">
-        <v>88689</v>
+        <v>82891</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9858553</v>
+        <v>10012634</v>
       </c>
       <c r="E45" t="n">
-        <v>9858553</v>
+        <v>10012634</v>
       </c>
       <c r="F45" t="n">
-        <v>989.096559625687</v>
+        <v>627.4643574416896</v>
       </c>
       <c r="G45" t="n">
-        <v>956.1962812703977</v>
+        <v>692.92008244882</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
       <c r="I45" t="n">
-        <v>2415172</v>
+        <v>1654064</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>260769118</v>
+        <v>260170153</v>
       </c>
       <c r="E46" t="n">
-        <v>260769118</v>
+        <v>260170153</v>
       </c>
       <c r="F46" t="n">
-        <v>13646.96195768308</v>
+        <v>10863.38791224641</v>
       </c>
       <c r="G46" t="n">
-        <v>15172.71217628867</v>
+        <v>17095.57923998388</v>
       </c>
       <c r="H46" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I46" t="n">
-        <v>13387721</v>
+        <v>13230501</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11185315</v>
+        <v>11126240</v>
       </c>
       <c r="E47" t="n">
-        <v>35360242</v>
+        <v>35172662</v>
       </c>
       <c r="F47" t="n">
-        <v>3375.941789417762</v>
+        <v>3693.020540684559</v>
       </c>
       <c r="G47" t="n">
-        <v>2546.682754592535</v>
+        <v>6937.18739466619</v>
       </c>
       <c r="H47" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="I47" t="n">
-        <v>1206005</v>
+        <v>1361175</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>29483176</v>
+        <v>28106826</v>
       </c>
       <c r="E48" t="n">
-        <v>81665471</v>
+        <v>77853120</v>
       </c>
       <c r="F48" t="n">
-        <v>5043.262573413012</v>
+        <v>3718.750243188873</v>
       </c>
       <c r="G48" t="n">
-        <v>3626.204565642915</v>
+        <v>4809.807026232676</v>
       </c>
       <c r="H48" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="I48" t="n">
-        <v>9727974</v>
+        <v>9412395</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25650638</v>
+        <v>25299642</v>
       </c>
       <c r="E49" t="n">
-        <v>60840854</v>
+        <v>60008324</v>
       </c>
       <c r="F49" t="n">
-        <v>16837.92473894959</v>
+        <v>11554.74353129997</v>
       </c>
       <c r="G49" t="n">
-        <v>10004.13268387538</v>
+        <v>15626.54116194098</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I49" t="n">
-        <v>306057</v>
+        <v>350317</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11407527</v>
+        <v>11356626</v>
       </c>
       <c r="E50" t="n">
-        <v>17260948</v>
+        <v>17163460</v>
       </c>
       <c r="F50" t="n">
-        <v>5540.637831438262</v>
+        <v>5262.96169989665</v>
       </c>
       <c r="G50" t="n">
-        <v>3932.738001049672</v>
+        <v>4127.856536550297</v>
       </c>
       <c r="H50" t="n">
         <v>0.41</v>
       </c>
       <c r="I50" t="n">
-        <v>597423</v>
+        <v>632329</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>277890947</v>
+        <v>281792018</v>
       </c>
       <c r="E51" t="n">
-        <v>277890947</v>
+        <v>281792018</v>
       </c>
       <c r="F51" t="n">
-        <v>70672.42981742577</v>
+        <v>65931.2794101484</v>
       </c>
       <c r="G51" t="n">
-        <v>60342.60968378386</v>
+        <v>59231.57794514995</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>97253095</v>
+        <v>108770886</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>78086392</v>
+        <v>79430750</v>
       </c>
       <c r="E52" t="n">
-        <v>449967469</v>
+        <v>457714242</v>
       </c>
       <c r="F52" t="n">
-        <v>208891.5988060414</v>
+        <v>194461.8801521802</v>
       </c>
       <c r="G52" t="n">
-        <v>213991.5506700489</v>
+        <v>183949.4997790779</v>
       </c>
       <c r="H52" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="I52" t="n">
-        <v>17654604</v>
+        <v>20230377</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>33355747</v>
+        <v>32898797</v>
       </c>
       <c r="E53" t="n">
-        <v>149347364</v>
+        <v>147301412</v>
       </c>
       <c r="F53" t="n">
-        <v>7093.54402043292</v>
+        <v>9497.706824979065</v>
       </c>
       <c r="G53" t="n">
-        <v>12374.43442471563</v>
+        <v>31466.5801064959</v>
       </c>
       <c r="H53" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I53" t="n">
-        <v>25890454</v>
+        <v>27091256</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7636260</v>
+        <v>7382547</v>
       </c>
       <c r="F54" t="n">
-        <v>3077.638958623629</v>
+        <v>4706.817769057556</v>
       </c>
       <c r="G54" t="n">
-        <v>4610.99845733537</v>
+        <v>4655.246082245784</v>
       </c>
       <c r="H54" t="n">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>288632</v>
+        <v>293335</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4097395</v>
+        <v>4140064</v>
       </c>
       <c r="F55" t="n">
-        <v>5161.475307269228</v>
+        <v>3329.760468008232</v>
       </c>
       <c r="G55" t="n">
-        <v>634.2517879145482</v>
+        <v>624.6585117510533</v>
       </c>
       <c r="H55" t="n">
         <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>206422</v>
+        <v>212064</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>121746034</v>
+        <v>121743658</v>
       </c>
       <c r="E56" t="n">
-        <v>2016214034</v>
+        <v>2016174693</v>
       </c>
       <c r="F56" t="n">
-        <v>171155.8971007121</v>
+        <v>168388.4566735045</v>
       </c>
       <c r="G56" t="n">
-        <v>174856.3100351328</v>
+        <v>181516.0393554179</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>19562042</v>
+        <v>20947726</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>74158038</v>
+        <v>72620153</v>
       </c>
       <c r="E57" t="n">
-        <v>74956242</v>
+        <v>73401804</v>
       </c>
       <c r="F57" t="n">
-        <v>17211.23032422673</v>
+        <v>15460.80227619081</v>
       </c>
       <c r="G57" t="n">
-        <v>20517.96923832364</v>
+        <v>29480.18594848893</v>
       </c>
       <c r="H57" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I57" t="n">
-        <v>8339377</v>
+        <v>9388891</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>238187057</v>
+        <v>259707177</v>
       </c>
       <c r="E58" t="n">
-        <v>238187057</v>
+        <v>259707177</v>
       </c>
       <c r="F58" t="n">
-        <v>55827.16244342516</v>
+        <v>58596.72750258911</v>
       </c>
       <c r="G58" t="n">
-        <v>83008.57513275913</v>
+        <v>97165.30677155918</v>
       </c>
       <c r="H58" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I58" t="n">
-        <v>45032344</v>
+        <v>62189289</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>21373301</v>
+        <v>22451901</v>
       </c>
       <c r="E59" t="n">
-        <v>127880758</v>
+        <v>134334236</v>
       </c>
       <c r="F59" t="n">
-        <v>18191.06841058307</v>
+        <v>62945.31202285516</v>
       </c>
       <c r="G59" t="n">
-        <v>6822.64418604677</v>
+        <v>45008.8905217743</v>
       </c>
       <c r="H59" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I59" t="n">
-        <v>14293047</v>
+        <v>21010188</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2225451</v>
+        <v>2153988</v>
       </c>
       <c r="E60" t="n">
-        <v>4107197</v>
+        <v>3975308</v>
       </c>
       <c r="F60" t="n">
-        <v>2067.21767143546</v>
+        <v>2465.68934703187</v>
       </c>
       <c r="G60" t="n">
-        <v>4131.398940226139</v>
+        <v>203.630814854518</v>
       </c>
       <c r="H60" t="n">
-        <v>0.37</v>
+        <v>0.63</v>
       </c>
       <c r="I60" t="n">
-        <v>23801</v>
+        <v>41644</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10085189</v>
+        <v>9671450</v>
       </c>
       <c r="E62" t="n">
-        <v>29517291</v>
+        <v>28306362</v>
       </c>
       <c r="F62" t="n">
-        <v>5749.550367323156</v>
+        <v>10063.57776436192</v>
       </c>
       <c r="G62" t="n">
-        <v>2903.114486547501</v>
+        <v>4340.576779313807</v>
       </c>
       <c r="H62" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>5732809</v>
+        <v>5510661</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14008828</v>
+        <v>13961238</v>
       </c>
       <c r="E63" t="n">
-        <v>28360016</v>
+        <v>28263674</v>
       </c>
       <c r="F63" t="n">
-        <v>6441.154381840763</v>
+        <v>6654.291252332038</v>
       </c>
       <c r="G63" t="n">
-        <v>18088.64205485348</v>
+        <v>13788.7171389101</v>
       </c>
       <c r="H63" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="I63" t="n">
-        <v>481929</v>
+        <v>490196</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>28787220</v>
+        <v>28279516</v>
       </c>
       <c r="E64" t="n">
-        <v>204096694</v>
+        <v>200497156</v>
       </c>
       <c r="F64" t="n">
-        <v>28126.69030540587</v>
+        <v>41957.69258870537</v>
       </c>
       <c r="G64" t="n">
-        <v>39586.18931781071</v>
+        <v>44542.15556798033</v>
       </c>
       <c r="H64" t="n">
         <v>0.15</v>
       </c>
       <c r="I64" t="n">
-        <v>1889117</v>
+        <v>3536476</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1201690</v>
+        <v>1195434</v>
       </c>
       <c r="E65" t="n">
-        <v>7427055</v>
+        <v>7386052</v>
       </c>
       <c r="F65" t="n">
-        <v>2754.81435328665</v>
+        <v>2397.463046474214</v>
       </c>
       <c r="G65" t="n">
-        <v>2793.612342151271</v>
+        <v>2249.726691543226</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I65" t="n">
-        <v>547343</v>
+        <v>549486</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>550007443</v>
+        <v>558270060</v>
       </c>
       <c r="E66" t="n">
-        <v>2130097679</v>
+        <v>2162097574</v>
       </c>
       <c r="F66" t="n">
-        <v>160892.7263082972</v>
+        <v>146618.462984772</v>
       </c>
       <c r="G66" t="n">
-        <v>57566.73580552336</v>
+        <v>165199.5507072922</v>
       </c>
       <c r="H66" t="n">
         <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>38434493</v>
+        <v>51214681</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5233464</v>
+        <v>5103703</v>
       </c>
       <c r="E67" t="n">
-        <v>23185427</v>
+        <v>22608611</v>
       </c>
       <c r="F67" t="n">
-        <v>4973.889375886036</v>
+        <v>876.8302366221051</v>
       </c>
       <c r="G67" t="n">
-        <v>3895.828785430872</v>
+        <v>1080.546278282417</v>
       </c>
       <c r="H67" t="n">
         <v>0.22</v>
       </c>
       <c r="I67" t="n">
-        <v>157809</v>
+        <v>160264</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>94649709</v>
+        <v>99707204</v>
       </c>
       <c r="E68" t="n">
-        <v>895553086</v>
+        <v>943405905</v>
       </c>
       <c r="F68" t="n">
-        <v>4548.132464304881</v>
+        <v>4082.146880079038</v>
       </c>
       <c r="G68" t="n">
-        <v>15036.81407817724</v>
+        <v>18314.06362580761</v>
       </c>
       <c r="H68" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>11932039</v>
+        <v>18405563</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>72860616</v>
+        <v>72166488</v>
       </c>
       <c r="E69" t="n">
-        <v>111150578</v>
+        <v>110091669</v>
       </c>
       <c r="F69" t="n">
-        <v>48431.87017204384</v>
+        <v>49007.2375416207</v>
       </c>
       <c r="G69" t="n">
-        <v>71262.91336682336</v>
+        <v>70512.63898885519</v>
       </c>
       <c r="H69" t="n">
         <v>0.19</v>
       </c>
       <c r="I69" t="n">
-        <v>6602192</v>
+        <v>6692031</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1031764</v>
+        <v>1100879</v>
       </c>
       <c r="E70" t="n">
-        <v>3995214</v>
+        <v>4262845</v>
       </c>
       <c r="F70" t="n">
-        <v>2608.320253752084</v>
+        <v>4264.029420846887</v>
       </c>
       <c r="G70" t="n">
-        <v>2037.359889315887</v>
+        <v>2685.958776280377</v>
       </c>
       <c r="H70" t="n">
-        <v>0.84</v>
+        <v>0.52</v>
       </c>
       <c r="I70" t="n">
-        <v>102417</v>
+        <v>124115</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>127369815</v>
+        <v>125785683</v>
       </c>
       <c r="E71" t="n">
-        <v>488611110</v>
+        <v>482534126</v>
       </c>
       <c r="F71" t="n">
-        <v>13577.43438762121</v>
+        <v>15710.63786168464</v>
       </c>
       <c r="G71" t="n">
-        <v>13325.55276357833</v>
+        <v>11473.10609759828</v>
       </c>
       <c r="H71" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>25031511</v>
+        <v>36351328</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2699427</v>
+        <v>2605581</v>
       </c>
       <c r="E72" t="n">
-        <v>25577473</v>
+        <v>24688264</v>
       </c>
       <c r="F72" t="n">
-        <v>4316.235020390244</v>
+        <v>4788.47100044957</v>
       </c>
       <c r="G72" t="n">
-        <v>3098.433570228126</v>
+        <v>2200.599896397351</v>
       </c>
       <c r="H72" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>295981</v>
+        <v>92670</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>28974793</v>
+        <v>28043839</v>
       </c>
       <c r="F73" t="n">
-        <v>1321.476097676404</v>
+        <v>2939.151592242751</v>
       </c>
       <c r="G73" t="n">
-        <v>3761.208095683479</v>
+        <v>1739.806680568782</v>
       </c>
       <c r="H73" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="I73" t="n">
-        <v>10121363</v>
+        <v>11187873</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>115563296</v>
+        <v>115685670</v>
       </c>
       <c r="E74" t="n">
-        <v>421231036</v>
+        <v>421662588</v>
       </c>
       <c r="F74" t="n">
-        <v>1577.550900522565</v>
+        <v>1583.366989386331</v>
       </c>
       <c r="G74" t="n">
-        <v>433.5096207296378</v>
+        <v>1769.472906771065</v>
       </c>
       <c r="H74" t="n">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="I74" t="n">
-        <v>912802</v>
+        <v>958337</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20684518</v>
+        <v>21675978</v>
       </c>
       <c r="E75" t="n">
-        <v>20684518</v>
+        <v>21675978</v>
       </c>
       <c r="F75" t="n">
-        <v>5558.731367467357</v>
+        <v>5067.541583029197</v>
       </c>
       <c r="G75" t="n">
-        <v>7863.90943001434</v>
+        <v>5978.692156923458</v>
       </c>
       <c r="H75" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I75" t="n">
-        <v>6231479</v>
+        <v>7568580</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>399170822</v>
+        <v>408126140</v>
       </c>
       <c r="E76" t="n">
-        <v>1385966421</v>
+        <v>1416343918</v>
       </c>
       <c r="F76" t="n">
-        <v>127972.4796613748</v>
+        <v>159361.1554725943</v>
       </c>
       <c r="G76" t="n">
-        <v>168334.6208881818</v>
+        <v>177664.0475504108</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I76" t="n">
-        <v>40409477</v>
+        <v>51769766</v>
       </c>
     </row>
     <row r="77">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4942870250</v>
+        <v>4789391084</v>
       </c>
       <c r="E77" t="n">
-        <v>4942870250</v>
+        <v>4789391084</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>24.94</v>
+        <v>28.25</v>
       </c>
       <c r="I77" t="n">
-        <v>15730006</v>
+        <v>73595923</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7112550</v>
+        <v>6981561</v>
       </c>
       <c r="E78" t="n">
-        <v>18477641</v>
+        <v>18137344</v>
       </c>
       <c r="F78" t="n">
-        <v>3690.390359797523</v>
+        <v>3870.442418768242</v>
       </c>
       <c r="G78" t="n">
-        <v>3719.82270336523</v>
+        <v>5231.316140924916</v>
       </c>
       <c r="H78" t="n">
         <v>0.22</v>
       </c>
       <c r="I78" t="n">
-        <v>205226</v>
+        <v>787348</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>91633762</v>
+        <v>87940725</v>
       </c>
       <c r="E79" t="n">
-        <v>136702025</v>
+        <v>131192640</v>
       </c>
       <c r="F79" t="n">
-        <v>39216.65163078414</v>
+        <v>38628.8715085931</v>
       </c>
       <c r="G79" t="n">
-        <v>38342.85068512162</v>
+        <v>40285.35855275967</v>
       </c>
       <c r="H79" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="I79" t="n">
-        <v>7954264</v>
+        <v>8231328</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1852619</v>
+        <v>1937120</v>
       </c>
       <c r="E80" t="n">
-        <v>7410477</v>
+        <v>7748480</v>
       </c>
       <c r="F80" t="n">
-        <v>4051.363286794533</v>
+        <v>3831.964650183912</v>
       </c>
       <c r="G80" t="n">
-        <v>7834.2089619455</v>
+        <v>14785.72529032666</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="I80" t="n">
-        <v>6659913</v>
+        <v>6663517</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>4194207</v>
+        <v>4655293</v>
       </c>
       <c r="F81" t="n">
-        <v>3304.367867046634</v>
+        <v>3582.294780685569</v>
       </c>
       <c r="G81" t="n">
-        <v>3596.203688432739</v>
+        <v>2320.438540778809</v>
       </c>
       <c r="H81" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="I81" t="n">
-        <v>1413616</v>
+        <v>1745394</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>363108746</v>
+        <v>364522452</v>
       </c>
       <c r="E82" t="n">
-        <v>2074907121</v>
+        <v>2082985441</v>
       </c>
       <c r="F82" t="n">
-        <v>26495.0267749612</v>
+        <v>27290.71627064257</v>
       </c>
       <c r="G82" t="n">
-        <v>41975.69260449141</v>
+        <v>59304.57976388738</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>42955162</v>
+        <v>52732858</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4576290</v>
+        <v>4604444</v>
       </c>
       <c r="F2" t="n">
-        <v>163.6435834194089</v>
+        <v>2119.793545963449</v>
       </c>
       <c r="G2" t="n">
-        <v>459.7223616366665</v>
+        <v>1759.289826434372</v>
       </c>
       <c r="H2" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="I2" t="n">
-        <v>266131</v>
+        <v>254308</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1275526</v>
+        <v>1263489</v>
       </c>
       <c r="E3" t="n">
-        <v>4015579</v>
+        <v>3977683</v>
       </c>
       <c r="F3" t="n">
-        <v>6460.69433703901</v>
+        <v>5847.753752237459</v>
       </c>
       <c r="G3" t="n">
-        <v>6688.01006145802</v>
+        <v>5728.258053463655</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>262919</v>
+        <v>250946</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>238860897</v>
+        <v>251248247</v>
       </c>
       <c r="E4" t="n">
-        <v>1497863109</v>
+        <v>1575542439</v>
       </c>
       <c r="F4" t="n">
-        <v>113460.0245347204</v>
+        <v>171837.8387849942</v>
       </c>
       <c r="G4" t="n">
-        <v>145502.3124530116</v>
+        <v>189770.2890063238</v>
       </c>
       <c r="H4" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>51212356</v>
+        <v>105893183</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137778994</v>
+        <v>137715629</v>
       </c>
       <c r="E5" t="n">
-        <v>152680655</v>
+        <v>152610438</v>
       </c>
       <c r="F5" t="n">
-        <v>40217.55076579205</v>
+        <v>57839.23607798431</v>
       </c>
       <c r="G5" t="n">
-        <v>59184.9979235676</v>
+        <v>51629.57396723965</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>36252552</v>
+        <v>43143632</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>118721079</v>
+        <v>121868597</v>
       </c>
       <c r="E6" t="n">
-        <v>425216649</v>
+        <v>436489938</v>
       </c>
       <c r="F6" t="n">
-        <v>13335.28749807333</v>
+        <v>19346.09332851437</v>
       </c>
       <c r="G6" t="n">
-        <v>16422.37936511859</v>
+        <v>14535.86991989814</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>20772457</v>
+        <v>23118201</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4516002</v>
+        <v>3570496</v>
       </c>
       <c r="E7" t="n">
-        <v>27592016</v>
+        <v>21815133</v>
       </c>
       <c r="F7" t="n">
-        <v>3284.742289114278</v>
+        <v>2410.40242014167</v>
       </c>
       <c r="G7" t="n">
-        <v>915.1757086690955</v>
+        <v>3295.406743163493</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1081749</v>
+        <v>1241424</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>161544</v>
+        <v>160952</v>
       </c>
       <c r="E8" t="n">
-        <v>1777160</v>
+        <v>1770649</v>
       </c>
       <c r="F8" t="n">
-        <v>2276.641422005051</v>
+        <v>2067.776180961498</v>
       </c>
       <c r="G8" t="n">
-        <v>1881.580636579885</v>
+        <v>1890.601413329517</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I8" t="n">
-        <v>58590</v>
+        <v>69971</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64235459</v>
+        <v>64134153</v>
       </c>
       <c r="E9" t="n">
-        <v>110870633</v>
+        <v>110681275</v>
       </c>
       <c r="F9" t="n">
-        <v>10238.09282014148</v>
+        <v>10066.6066156736</v>
       </c>
       <c r="G9" t="n">
-        <v>9021.847003500709</v>
+        <v>9514.604713657231</v>
       </c>
       <c r="H9" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="I9" t="n">
-        <v>580586</v>
+        <v>572378</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8553470</v>
+        <v>8549405</v>
       </c>
       <c r="E10" t="n">
-        <v>12106801</v>
+        <v>12101047</v>
       </c>
       <c r="F10" t="n">
-        <v>2848.633312913232</v>
+        <v>3040.515313645625</v>
       </c>
       <c r="G10" t="n">
-        <v>2683.937679072986</v>
+        <v>2747.672492295185</v>
       </c>
       <c r="H10" t="n">
         <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>38710</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>375521845</v>
+        <v>378833047</v>
       </c>
       <c r="E11" t="n">
-        <v>375521846</v>
+        <v>378833054</v>
       </c>
       <c r="F11" t="n">
-        <v>49069.20884746702</v>
+        <v>37620.83559382612</v>
       </c>
       <c r="G11" t="n">
-        <v>38380.83574834491</v>
+        <v>47272.0064261096</v>
       </c>
       <c r="H11" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>35748640</v>
+        <v>38305262</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>260594</v>
+        <v>260530</v>
       </c>
       <c r="E12" t="n">
-        <v>1216479</v>
+        <v>1216180</v>
       </c>
       <c r="F12" t="n">
-        <v>2388.251328754177</v>
+        <v>1088.185094003042</v>
       </c>
       <c r="G12" t="n">
-        <v>582.3400155405282</v>
+        <v>233.7396428483798</v>
       </c>
       <c r="H12" t="n">
-        <v>1.56</v>
+        <v>0.83</v>
       </c>
       <c r="I12" t="n">
-        <v>708962</v>
+        <v>704970</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1644663</v>
+        <v>1651490</v>
       </c>
       <c r="F13" t="n">
-        <v>1205.838882848367</v>
+        <v>1974.473855709329</v>
       </c>
       <c r="G13" t="n">
-        <v>1525.588008258367</v>
+        <v>2741.315194346873</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>212433</v>
+        <v>185461</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10598957</v>
+        <v>10650709</v>
       </c>
       <c r="E14" t="n">
-        <v>26378887</v>
+        <v>26507688</v>
       </c>
       <c r="F14" t="n">
-        <v>942.3392221014502</v>
+        <v>850.2332249541047</v>
       </c>
       <c r="G14" t="n">
-        <v>1081.945933602702</v>
+        <v>941.7442591117964</v>
       </c>
       <c r="H14" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="I14" t="n">
-        <v>1120824</v>
+        <v>1052116</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>102943210</v>
+        <v>105818846</v>
       </c>
       <c r="E15" t="n">
-        <v>397283501</v>
+        <v>408250748</v>
       </c>
       <c r="F15" t="n">
-        <v>10288.04101222453</v>
+        <v>11073.02357561015</v>
       </c>
       <c r="G15" t="n">
-        <v>12879.49632647439</v>
+        <v>14027.77638905839</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>10604591</v>
+        <v>17713530</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4070631</v>
+        <v>4023872</v>
       </c>
       <c r="E16" t="n">
-        <v>5992189</v>
+        <v>5923358</v>
       </c>
       <c r="F16" t="n">
-        <v>3673.202713924434</v>
+        <v>1937.301271600009</v>
       </c>
       <c r="G16" t="n">
-        <v>3625.152778589645</v>
+        <v>1791.574448813421</v>
       </c>
       <c r="H16" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="I16" t="n">
-        <v>556131</v>
+        <v>540684</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>457613</v>
+        <v>460770</v>
       </c>
       <c r="E17" t="n">
-        <v>1887043</v>
+        <v>1900062</v>
       </c>
       <c r="F17" t="n">
-        <v>441.9809031764555</v>
+        <v>1260.774928012793</v>
       </c>
       <c r="G17" t="n">
-        <v>167.7905419689681</v>
+        <v>967.4814810285225</v>
       </c>
       <c r="H17" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="I17" t="n">
-        <v>51010</v>
+        <v>39851</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>128893951</v>
+        <v>131249353</v>
       </c>
       <c r="E18" t="n">
-        <v>128893951</v>
+        <v>131249353</v>
       </c>
       <c r="F18" t="n">
-        <v>75286.66420013325</v>
+        <v>84307.70475375265</v>
       </c>
       <c r="G18" t="n">
-        <v>97199.1578869621</v>
+        <v>103034.9601210517</v>
       </c>
       <c r="H18" t="n">
         <v>0.11</v>
       </c>
       <c r="I18" t="n">
-        <v>80012049</v>
+        <v>79166826</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69043283</v>
+        <v>70577981</v>
       </c>
       <c r="E19" t="n">
-        <v>354068119</v>
+        <v>361938364</v>
       </c>
       <c r="F19" t="n">
-        <v>10236.22673413221</v>
+        <v>13272.55906025307</v>
       </c>
       <c r="G19" t="n">
-        <v>12585.66125993492</v>
+        <v>7653.400787045859</v>
       </c>
       <c r="H19" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>28780733</v>
+        <v>32716901</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>209690566</v>
+        <v>215369458</v>
       </c>
       <c r="E20" t="n">
-        <v>209690566</v>
+        <v>215369458</v>
       </c>
       <c r="F20" t="n">
-        <v>28348.80719756963</v>
+        <v>46920.69517172891</v>
       </c>
       <c r="G20" t="n">
-        <v>65988.73267593098</v>
+        <v>49070.30349291307</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>37901594</v>
+        <v>43706559</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>134055019</v>
+        <v>139841575</v>
       </c>
       <c r="E21" t="n">
-        <v>176400727</v>
+        <v>184015158</v>
       </c>
       <c r="F21" t="n">
-        <v>10663.37474655072</v>
+        <v>20185.45198539861</v>
       </c>
       <c r="G21" t="n">
-        <v>21883.45702757237</v>
+        <v>24631.04044448824</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>6834442</v>
+        <v>7125248</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75359306</v>
+        <v>78796267</v>
       </c>
       <c r="E22" t="n">
-        <v>210894962</v>
+        <v>220493948</v>
       </c>
       <c r="F22" t="n">
-        <v>37713.96142158989</v>
+        <v>33403.06465456467</v>
       </c>
       <c r="G22" t="n">
-        <v>36372.29922202569</v>
+        <v>44107.12480270696</v>
       </c>
       <c r="H22" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I22" t="n">
-        <v>63203969</v>
+        <v>72526813</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72682316</v>
+        <v>73585576</v>
       </c>
       <c r="E23" t="n">
-        <v>151536792</v>
+        <v>153420015</v>
       </c>
       <c r="F23" t="n">
-        <v>13640.98581514558</v>
+        <v>13050.39230200984</v>
       </c>
       <c r="G23" t="n">
-        <v>17458.89523528861</v>
+        <v>13175.5717134946</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I23" t="n">
-        <v>16530569</v>
+        <v>17400864</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>577767753</v>
+        <v>597378676</v>
       </c>
       <c r="E24" t="n">
-        <v>577767753</v>
+        <v>597378676</v>
       </c>
       <c r="F24" t="n">
-        <v>112825.4923539533</v>
+        <v>125308.9778295265</v>
       </c>
       <c r="G24" t="n">
-        <v>190616.4707955252</v>
+        <v>156081.8232066377</v>
       </c>
       <c r="H24" t="n">
         <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>438109101</v>
+        <v>457577667</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>202017558</v>
+        <v>202642463</v>
       </c>
       <c r="E25" t="n">
-        <v>701827254</v>
+        <v>703998229</v>
       </c>
       <c r="F25" t="n">
-        <v>69740.55894424862</v>
+        <v>81092.88851388426</v>
       </c>
       <c r="G25" t="n">
-        <v>116494.1770659247</v>
+        <v>122099.9739500405</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>50959106</v>
+        <v>64049614</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4991527</v>
+        <v>5018663</v>
       </c>
       <c r="E26" t="n">
-        <v>6747798</v>
+        <v>6784226</v>
       </c>
       <c r="F26" t="n">
-        <v>2764.985973008235</v>
+        <v>3235.624296228326</v>
       </c>
       <c r="G26" t="n">
-        <v>3626.019260362834</v>
+        <v>4034.518120544429</v>
       </c>
       <c r="H26" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="I26" t="n">
-        <v>4726311</v>
+        <v>5114383</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>11883184</v>
+        <v>12151336</v>
       </c>
       <c r="F27" t="n">
-        <v>1932.24711514373</v>
+        <v>2284.291600050604</v>
       </c>
       <c r="G27" t="n">
-        <v>4533.512696154421</v>
+        <v>2572.457612080081</v>
       </c>
       <c r="H27" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="I27" t="n">
-        <v>213988</v>
+        <v>213181</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22335188</v>
+        <v>22704746</v>
       </c>
       <c r="E28" t="n">
-        <v>31531408</v>
+        <v>32053127</v>
       </c>
       <c r="F28" t="n">
-        <v>40.31333617577029</v>
+        <v>678.3959668244474</v>
       </c>
       <c r="G28" t="n">
-        <v>1167.357724447234</v>
+        <v>1033.410283042987</v>
       </c>
       <c r="H28" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="I28" t="n">
-        <v>101482</v>
+        <v>108150</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>225323051</v>
+        <v>224656617</v>
       </c>
       <c r="E29" t="n">
-        <v>972619372</v>
+        <v>969742675</v>
       </c>
       <c r="F29" t="n">
-        <v>146374.3901430154</v>
+        <v>165747.9018690088</v>
       </c>
       <c r="G29" t="n">
-        <v>162738.5895690586</v>
+        <v>151494.7733846223</v>
       </c>
       <c r="H29" t="n">
         <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>129222581</v>
+        <v>141766485</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7802709</v>
+        <v>7760791</v>
       </c>
       <c r="E30" t="n">
-        <v>93154377</v>
+        <v>92602631</v>
       </c>
       <c r="F30" t="n">
-        <v>1985.921909616512</v>
+        <v>5069.35033055139</v>
       </c>
       <c r="G30" t="n">
-        <v>3000.24109895004</v>
+        <v>2446.955421828922</v>
       </c>
       <c r="H30" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="I30" t="n">
-        <v>245299</v>
+        <v>261730</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12163810</v>
+        <v>13269886</v>
       </c>
       <c r="E31" t="n">
-        <v>30409524</v>
+        <v>33174715</v>
       </c>
       <c r="F31" t="n">
-        <v>7228.688363641008</v>
+        <v>5338.88648220739</v>
       </c>
       <c r="G31" t="n">
-        <v>3817.50849985978</v>
+        <v>5496.459548896178</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>3066826</v>
+        <v>3356271</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18022414</v>
+        <v>18102628</v>
       </c>
       <c r="F32" t="n">
-        <v>2270.374351099213</v>
+        <v>3500.343217474895</v>
       </c>
       <c r="G32" t="n">
-        <v>5632.930996310559</v>
+        <v>4577.166543218921</v>
       </c>
       <c r="H32" t="n">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="I32" t="n">
-        <v>48462</v>
+        <v>25911</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1429306</v>
+        <v>1486530</v>
       </c>
       <c r="E33" t="n">
-        <v>5324341</v>
+        <v>5537390</v>
       </c>
       <c r="F33" t="n">
-        <v>841.0084245428325</v>
+        <v>2075.662985083839</v>
       </c>
       <c r="G33" t="n">
-        <v>1435.697294473057</v>
+        <v>1757.47439438583</v>
       </c>
       <c r="H33" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="I33" t="n">
-        <v>532075</v>
+        <v>567411</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3803143</v>
+        <v>3933255</v>
       </c>
       <c r="E34" t="n">
-        <v>10952213</v>
+        <v>11326906</v>
       </c>
       <c r="F34" t="n">
-        <v>3815.129932239344</v>
+        <v>4200.723967311821</v>
       </c>
       <c r="G34" t="n">
-        <v>3828.04760492169</v>
+        <v>5733.071661828698</v>
       </c>
       <c r="H34" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="I34" t="n">
-        <v>444268</v>
+        <v>403204</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11320977</v>
+        <v>11404933</v>
       </c>
       <c r="E35" t="n">
-        <v>54829301</v>
+        <v>55235910</v>
       </c>
       <c r="F35" t="n">
-        <v>8671.000888830964</v>
+        <v>5848.004373476182</v>
       </c>
       <c r="G35" t="n">
-        <v>6217.058808105782</v>
+        <v>5741.817957062789</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>3045643</v>
+        <v>3097357</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1172507</v>
+        <v>1169113</v>
       </c>
       <c r="E36" t="n">
-        <v>7674025</v>
+        <v>7651811</v>
       </c>
       <c r="F36" t="n">
-        <v>3448.441616812228</v>
+        <v>3190.747242429529</v>
       </c>
       <c r="G36" t="n">
-        <v>3547.492381007946</v>
+        <v>3867.665029560848</v>
       </c>
       <c r="H36" t="n">
         <v>0.78</v>
       </c>
       <c r="I36" t="n">
-        <v>53184</v>
+        <v>52505</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1714869395</v>
+        <v>1727169588</v>
       </c>
       <c r="F37" t="n">
-        <v>115.4855572480546</v>
+        <v>154.4296185640055</v>
       </c>
       <c r="G37" t="n">
-        <v>60.02575122797939</v>
+        <v>81.13179027332225</v>
       </c>
       <c r="H37" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="I37" t="n">
-        <v>31664610</v>
+        <v>31784757</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1781331</v>
+        <v>1771770</v>
       </c>
       <c r="E38" t="n">
-        <v>12773744</v>
+        <v>12705182</v>
       </c>
       <c r="F38" t="n">
-        <v>4334.131358467868</v>
+        <v>4561.0292974314</v>
       </c>
       <c r="G38" t="n">
-        <v>5399.786727061923</v>
+        <v>5172.124235047964</v>
       </c>
       <c r="H38" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="I38" t="n">
-        <v>1881352</v>
+        <v>1832092</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>177776612</v>
+        <v>178904142</v>
       </c>
       <c r="E39" t="n">
-        <v>1006680413</v>
+        <v>1013065181</v>
       </c>
       <c r="F39" t="n">
-        <v>100745.3204815264</v>
+        <v>102403.9145770474</v>
       </c>
       <c r="G39" t="n">
-        <v>149500.7436883669</v>
+        <v>140892.361925519</v>
       </c>
       <c r="H39" t="n">
         <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>67844339</v>
+        <v>69387441</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>98951190</v>
+        <v>99789507</v>
       </c>
       <c r="E40" t="n">
-        <v>732971779</v>
+        <v>739181534</v>
       </c>
       <c r="F40" t="n">
-        <v>198861.9500566678</v>
+        <v>227881.8244617897</v>
       </c>
       <c r="G40" t="n">
-        <v>209530.3450971915</v>
+        <v>224976.9628515713</v>
       </c>
       <c r="H40" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I40" t="n">
-        <v>10043118</v>
+        <v>10056759</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>293604111</v>
+        <v>299000367</v>
       </c>
       <c r="E41" t="n">
-        <v>2641444636</v>
+        <v>2689992708</v>
       </c>
       <c r="F41" t="n">
-        <v>121253.1340940871</v>
+        <v>109321.998165011</v>
       </c>
       <c r="G41" t="n">
-        <v>138035.5020723896</v>
+        <v>98914.56457552609</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>47653652</v>
+        <v>49779796</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1530238</v>
+        <v>1527224</v>
       </c>
       <c r="E42" t="n">
-        <v>12751981</v>
+        <v>12726869</v>
       </c>
       <c r="F42" t="n">
-        <v>1526.339368210158</v>
+        <v>2682.935944030869</v>
       </c>
       <c r="G42" t="n">
-        <v>2692.939349705475</v>
+        <v>1170.259682151746</v>
       </c>
       <c r="H42" t="n">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="I42" t="n">
-        <v>81612</v>
+        <v>53288</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16897805</v>
+        <v>16637217</v>
       </c>
       <c r="E43" t="n">
-        <v>50093393</v>
+        <v>49320883</v>
       </c>
       <c r="F43" t="n">
-        <v>16001.75668716523</v>
+        <v>1751.996870293247</v>
       </c>
       <c r="G43" t="n">
-        <v>20326.18708219469</v>
+        <v>16595.30709786522</v>
       </c>
       <c r="H43" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="I43" t="n">
-        <v>5845955</v>
+        <v>6189103</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7164709</v>
+        <v>7389743</v>
       </c>
       <c r="F44" t="n">
-        <v>3042.344227127722</v>
+        <v>2103.923270616303</v>
       </c>
       <c r="G44" t="n">
-        <v>1748.954106324038</v>
+        <v>2849.295582014215</v>
       </c>
       <c r="H44" t="n">
         <v>0.14</v>
       </c>
       <c r="I44" t="n">
-        <v>82891</v>
+        <v>78406</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10012634</v>
+        <v>10281478</v>
       </c>
       <c r="E45" t="n">
-        <v>10012634</v>
+        <v>10281478</v>
       </c>
       <c r="F45" t="n">
-        <v>627.4643574416896</v>
+        <v>882.2914868409591</v>
       </c>
       <c r="G45" t="n">
-        <v>692.92008244882</v>
+        <v>540.8757925471266</v>
       </c>
       <c r="H45" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="I45" t="n">
-        <v>1654064</v>
+        <v>1737794</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>260170153</v>
+        <v>265580036</v>
       </c>
       <c r="E46" t="n">
-        <v>260170153</v>
+        <v>265580036</v>
       </c>
       <c r="F46" t="n">
-        <v>10863.38791224641</v>
+        <v>8051.900850313833</v>
       </c>
       <c r="G46" t="n">
-        <v>17095.57923998388</v>
+        <v>16708.67173692358</v>
       </c>
       <c r="H46" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="n">
-        <v>13230501</v>
+        <v>14026298</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11126240</v>
+        <v>11435702</v>
       </c>
       <c r="E47" t="n">
-        <v>35172662</v>
+        <v>36149844</v>
       </c>
       <c r="F47" t="n">
-        <v>3693.020540684559</v>
+        <v>1602.144950345289</v>
       </c>
       <c r="G47" t="n">
-        <v>6937.18739466619</v>
+        <v>7530.311682862047</v>
       </c>
       <c r="H47" t="n">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>1361175</v>
+        <v>1387135</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>28106826</v>
+        <v>28848319</v>
       </c>
       <c r="E48" t="n">
-        <v>77853120</v>
+        <v>79906980</v>
       </c>
       <c r="F48" t="n">
-        <v>3718.750243188873</v>
+        <v>5180.717987658732</v>
       </c>
       <c r="G48" t="n">
-        <v>4809.807026232676</v>
+        <v>5509.248730663245</v>
       </c>
       <c r="H48" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="I48" t="n">
-        <v>9412395</v>
+        <v>9485464</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25299642</v>
+        <v>25413049</v>
       </c>
       <c r="E49" t="n">
-        <v>60008324</v>
+        <v>60277315</v>
       </c>
       <c r="F49" t="n">
-        <v>11554.74353129997</v>
+        <v>17720.84397321941</v>
       </c>
       <c r="G49" t="n">
-        <v>15626.54116194098</v>
+        <v>9954.129677329365</v>
       </c>
       <c r="H49" t="n">
         <v>0.08</v>
       </c>
       <c r="I49" t="n">
-        <v>350317</v>
+        <v>455883</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11356626</v>
+        <v>11359038</v>
       </c>
       <c r="E50" t="n">
-        <v>17163460</v>
+        <v>17167106</v>
       </c>
       <c r="F50" t="n">
-        <v>5262.96169989665</v>
+        <v>3360.698602265843</v>
       </c>
       <c r="G50" t="n">
-        <v>4127.856536550297</v>
+        <v>3485.608378242425</v>
       </c>
       <c r="H50" t="n">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="I50" t="n">
-        <v>632329</v>
+        <v>636444</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>281792018</v>
+        <v>275991519</v>
       </c>
       <c r="E51" t="n">
-        <v>281792018</v>
+        <v>275991519</v>
       </c>
       <c r="F51" t="n">
-        <v>65931.2794101484</v>
+        <v>39259.47653972167</v>
       </c>
       <c r="G51" t="n">
-        <v>59231.57794514995</v>
+        <v>47964.63488488631</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>108770886</v>
+        <v>130519098</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>79430750</v>
+        <v>80489799</v>
       </c>
       <c r="E52" t="n">
-        <v>457714242</v>
+        <v>463816940</v>
       </c>
       <c r="F52" t="n">
-        <v>194461.8801521802</v>
+        <v>208277.5701062297</v>
       </c>
       <c r="G52" t="n">
-        <v>183949.4997790779</v>
+        <v>198428.4802955166</v>
       </c>
       <c r="H52" t="n">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="I52" t="n">
-        <v>20230377</v>
+        <v>20993169</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32898797</v>
+        <v>32035629</v>
       </c>
       <c r="E53" t="n">
-        <v>147301412</v>
+        <v>143436655</v>
       </c>
       <c r="F53" t="n">
-        <v>9497.706824979065</v>
+        <v>20636.48148238008</v>
       </c>
       <c r="G53" t="n">
-        <v>31466.5801064959</v>
+        <v>32680.00032629754</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>27091256</v>
+        <v>27614004</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7382547</v>
+        <v>7150084</v>
       </c>
       <c r="F54" t="n">
-        <v>4706.817769057556</v>
+        <v>4722.8189046019</v>
       </c>
       <c r="G54" t="n">
-        <v>4655.246082245784</v>
+        <v>2633.801902575742</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="I54" t="n">
-        <v>293335</v>
+        <v>289861</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4140064</v>
+        <v>4050452</v>
       </c>
       <c r="F55" t="n">
-        <v>3329.760468008232</v>
+        <v>3030.510720154598</v>
       </c>
       <c r="G55" t="n">
-        <v>624.6585117510533</v>
+        <v>1216.266125255679</v>
       </c>
       <c r="H55" t="n">
         <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>212064</v>
+        <v>205601</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>121743658</v>
+        <v>122111975</v>
       </c>
       <c r="E56" t="n">
-        <v>2016174693</v>
+        <v>2022274318</v>
       </c>
       <c r="F56" t="n">
-        <v>168388.4566735045</v>
+        <v>172934.220610422</v>
       </c>
       <c r="G56" t="n">
-        <v>181516.0393554179</v>
+        <v>177913.917641849</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>20947726</v>
+        <v>18929463</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>72620153</v>
+        <v>75074821</v>
       </c>
       <c r="E57" t="n">
-        <v>73401804</v>
+        <v>75882893</v>
       </c>
       <c r="F57" t="n">
-        <v>15460.80227619081</v>
+        <v>17222.37479072375</v>
       </c>
       <c r="G57" t="n">
-        <v>29480.18594848893</v>
+        <v>29884.00471971651</v>
       </c>
       <c r="H57" t="n">
         <v>0.11</v>
       </c>
       <c r="I57" t="n">
-        <v>9388891</v>
+        <v>9714507</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>259707177</v>
+        <v>259998121</v>
       </c>
       <c r="E58" t="n">
-        <v>259707177</v>
+        <v>259998121</v>
       </c>
       <c r="F58" t="n">
-        <v>58596.72750258911</v>
+        <v>56305.38044293544</v>
       </c>
       <c r="G58" t="n">
-        <v>97165.30677155918</v>
+        <v>93364.42844903663</v>
       </c>
       <c r="H58" t="n">
         <v>0.11</v>
       </c>
       <c r="I58" t="n">
-        <v>62189289</v>
+        <v>64036657</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22451901</v>
+        <v>22560316</v>
       </c>
       <c r="E59" t="n">
-        <v>134334236</v>
+        <v>134982905</v>
       </c>
       <c r="F59" t="n">
-        <v>62945.31202285516</v>
+        <v>62910.70044403613</v>
       </c>
       <c r="G59" t="n">
-        <v>45008.8905217743</v>
+        <v>47917.57316704865</v>
       </c>
       <c r="H59" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>21010188</v>
+        <v>21237105</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2153988</v>
+        <v>2074014</v>
       </c>
       <c r="E60" t="n">
-        <v>3975308</v>
+        <v>3827711</v>
       </c>
       <c r="F60" t="n">
-        <v>2465.68934703187</v>
+        <v>4125.737148976773</v>
       </c>
       <c r="G60" t="n">
-        <v>203.630814854518</v>
+        <v>1923.686578222065</v>
       </c>
       <c r="H60" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="I60" t="n">
-        <v>41644</v>
+        <v>83417</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9671450</v>
+        <v>10826744</v>
       </c>
       <c r="E62" t="n">
-        <v>28306362</v>
+        <v>31624773</v>
       </c>
       <c r="F62" t="n">
-        <v>10063.57776436192</v>
+        <v>4885.59426043463</v>
       </c>
       <c r="G62" t="n">
-        <v>4340.576779313807</v>
+        <v>4253.361477163735</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I62" t="n">
-        <v>5510661</v>
+        <v>6003380</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13961238</v>
+        <v>14040485</v>
       </c>
       <c r="E63" t="n">
-        <v>28263674</v>
+        <v>28424105</v>
       </c>
       <c r="F63" t="n">
-        <v>6654.291252332038</v>
+        <v>6184.632489427965</v>
       </c>
       <c r="G63" t="n">
-        <v>13788.7171389101</v>
+        <v>19137.49238850785</v>
       </c>
       <c r="H63" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="I63" t="n">
-        <v>490196</v>
+        <v>481867</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>28279516</v>
+        <v>28626931</v>
       </c>
       <c r="E64" t="n">
-        <v>200497156</v>
+        <v>202960267</v>
       </c>
       <c r="F64" t="n">
-        <v>41957.69258870537</v>
+        <v>24526.9696817874</v>
       </c>
       <c r="G64" t="n">
-        <v>44542.15556798033</v>
+        <v>47224.63746378492</v>
       </c>
       <c r="H64" t="n">
         <v>0.15</v>
       </c>
       <c r="I64" t="n">
-        <v>3536476</v>
+        <v>3696096</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1195434</v>
+        <v>1191011</v>
       </c>
       <c r="E65" t="n">
-        <v>7386052</v>
+        <v>7358716</v>
       </c>
       <c r="F65" t="n">
-        <v>2397.463046474214</v>
+        <v>2504.058267978298</v>
       </c>
       <c r="G65" t="n">
-        <v>2249.726691543226</v>
+        <v>2843.610689988562</v>
       </c>
       <c r="H65" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>549486</v>
+        <v>606066</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>558270060</v>
+        <v>565510414</v>
       </c>
       <c r="E66" t="n">
-        <v>2162097574</v>
+        <v>2190138398</v>
       </c>
       <c r="F66" t="n">
-        <v>146618.462984772</v>
+        <v>169622.4182459245</v>
       </c>
       <c r="G66" t="n">
-        <v>165199.5507072922</v>
+        <v>161941.631803438</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I66" t="n">
-        <v>51214681</v>
+        <v>51543372</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5103703</v>
+        <v>5088702</v>
       </c>
       <c r="E67" t="n">
-        <v>22608611</v>
+        <v>22507150</v>
       </c>
       <c r="F67" t="n">
-        <v>876.8302366221051</v>
+        <v>3272.93401177621</v>
       </c>
       <c r="G67" t="n">
-        <v>1080.546278282417</v>
+        <v>3688.07373178044</v>
       </c>
       <c r="H67" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I67" t="n">
-        <v>160264</v>
+        <v>133027</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>99707204</v>
+        <v>105290674</v>
       </c>
       <c r="E68" t="n">
-        <v>943405905</v>
+        <v>996235378</v>
       </c>
       <c r="F68" t="n">
-        <v>4082.146880079038</v>
+        <v>15547.19026747446</v>
       </c>
       <c r="G68" t="n">
-        <v>18314.06362580761</v>
+        <v>25278.78997035466</v>
       </c>
       <c r="H68" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I68" t="n">
-        <v>18405563</v>
+        <v>36462485</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>72166488</v>
+        <v>71389637</v>
       </c>
       <c r="E69" t="n">
-        <v>110091669</v>
+        <v>108906564</v>
       </c>
       <c r="F69" t="n">
-        <v>49007.2375416207</v>
+        <v>48588.11446151223</v>
       </c>
       <c r="G69" t="n">
-        <v>70512.63898885519</v>
+        <v>69016.62283441488</v>
       </c>
       <c r="H69" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I69" t="n">
-        <v>6692031</v>
+        <v>6465655</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1100879</v>
+        <v>1113398</v>
       </c>
       <c r="E70" t="n">
-        <v>4262845</v>
+        <v>4311320</v>
       </c>
       <c r="F70" t="n">
-        <v>4264.029420846887</v>
+        <v>2434.998951869755</v>
       </c>
       <c r="G70" t="n">
-        <v>2685.958776280377</v>
+        <v>2305.580922547616</v>
       </c>
       <c r="H70" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="I70" t="n">
-        <v>124115</v>
+        <v>242772</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>125785683</v>
+        <v>124158768</v>
       </c>
       <c r="E71" t="n">
-        <v>482534126</v>
+        <v>476293018</v>
       </c>
       <c r="F71" t="n">
-        <v>15710.63786168464</v>
+        <v>13380.79592621638</v>
       </c>
       <c r="G71" t="n">
-        <v>11473.10609759828</v>
+        <v>9082.850875500926</v>
       </c>
       <c r="H71" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>36351328</v>
+        <v>33352649</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2605581</v>
+        <v>2632241</v>
       </c>
       <c r="E72" t="n">
-        <v>24688264</v>
+        <v>24940868</v>
       </c>
       <c r="F72" t="n">
-        <v>4788.47100044957</v>
+        <v>4562.103731464913</v>
       </c>
       <c r="G72" t="n">
-        <v>2200.599896397351</v>
+        <v>2595.090783316022</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I72" t="n">
-        <v>92670</v>
+        <v>90092</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>28043839</v>
+        <v>27916089</v>
       </c>
       <c r="F73" t="n">
-        <v>2939.151592242751</v>
+        <v>3432.070203116082</v>
       </c>
       <c r="G73" t="n">
-        <v>1739.806680568782</v>
+        <v>1419.041952033572</v>
       </c>
       <c r="H73" t="n">
         <v>0.15</v>
       </c>
       <c r="I73" t="n">
-        <v>11187873</v>
+        <v>11283967</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>115685670</v>
+        <v>115316517</v>
       </c>
       <c r="E74" t="n">
-        <v>421662588</v>
+        <v>420307575</v>
       </c>
       <c r="F74" t="n">
-        <v>1583.366989386331</v>
+        <v>1772.948236251563</v>
       </c>
       <c r="G74" t="n">
-        <v>1769.472906771065</v>
+        <v>2124.359551467411</v>
       </c>
       <c r="H74" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="I74" t="n">
-        <v>958337</v>
+        <v>773954</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21675978</v>
+        <v>21915815</v>
       </c>
       <c r="E75" t="n">
-        <v>21675978</v>
+        <v>21915815</v>
       </c>
       <c r="F75" t="n">
-        <v>5067.541583029197</v>
+        <v>6397.878778059745</v>
       </c>
       <c r="G75" t="n">
-        <v>5978.692156923458</v>
+        <v>4632.946081095602</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>7568580</v>
+        <v>7874575</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>408126140</v>
+        <v>412273330</v>
       </c>
       <c r="E76" t="n">
-        <v>1416343918</v>
+        <v>1430736154</v>
       </c>
       <c r="F76" t="n">
-        <v>159361.1554725943</v>
+        <v>164001.5977942809</v>
       </c>
       <c r="G76" t="n">
-        <v>177664.0475504108</v>
+        <v>175941.2982743203</v>
       </c>
       <c r="H76" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>51769766</v>
+        <v>55377895</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4789391084</v>
+        <v>4821430788</v>
       </c>
       <c r="E77" t="n">
-        <v>4789391084</v>
+        <v>4821430788</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>17891.22954412862</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>19232.58645843682</v>
       </c>
       <c r="H77" t="n">
-        <v>28.25</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>73595923</v>
+        <v>9626892</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6981561</v>
+        <v>6885666</v>
       </c>
       <c r="E78" t="n">
-        <v>18137344</v>
+        <v>17888221</v>
       </c>
       <c r="F78" t="n">
-        <v>3870.442418768242</v>
+        <v>3303.475693130887</v>
       </c>
       <c r="G78" t="n">
-        <v>5231.316140924916</v>
+        <v>3687.923714555076</v>
       </c>
       <c r="H78" t="n">
         <v>0.22</v>
       </c>
       <c r="I78" t="n">
-        <v>787348</v>
+        <v>816736</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>87940725</v>
+        <v>91185369</v>
       </c>
       <c r="E79" t="n">
-        <v>131192640</v>
+        <v>136033097</v>
       </c>
       <c r="F79" t="n">
-        <v>38628.8715085931</v>
+        <v>39246.14490698092</v>
       </c>
       <c r="G79" t="n">
-        <v>40285.35855275967</v>
+        <v>39021.24493878136</v>
       </c>
       <c r="H79" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="I79" t="n">
-        <v>8231328</v>
+        <v>8180019</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1937120</v>
+        <v>1957968</v>
       </c>
       <c r="E80" t="n">
-        <v>7748480</v>
+        <v>7831871</v>
       </c>
       <c r="F80" t="n">
-        <v>3831.964650183912</v>
+        <v>4838.260809675558</v>
       </c>
       <c r="G80" t="n">
-        <v>14785.72529032666</v>
+        <v>3770.868397235574</v>
       </c>
       <c r="H80" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="I80" t="n">
-        <v>6663517</v>
+        <v>6624431</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>4655293</v>
+        <v>3499508</v>
       </c>
       <c r="F81" t="n">
-        <v>3582.294780685569</v>
+        <v>2676.082982487108</v>
       </c>
       <c r="G81" t="n">
-        <v>2320.438540778809</v>
+        <v>2022.16425746814</v>
       </c>
       <c r="H81" t="n">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
       <c r="I81" t="n">
-        <v>1745394</v>
+        <v>1875683</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>364522452</v>
+        <v>368016997</v>
       </c>
       <c r="E82" t="n">
-        <v>2082985441</v>
+        <v>2102954268</v>
       </c>
       <c r="F82" t="n">
-        <v>27290.71627064257</v>
+        <v>20107.72943804495</v>
       </c>
       <c r="G82" t="n">
-        <v>59304.57976388738</v>
+        <v>47795.43145479856</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>52732858</v>
+        <v>50902754</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4604444</v>
+        <v>4488814</v>
       </c>
       <c r="F2" t="n">
-        <v>2119.793545963449</v>
+        <v>2217.36673673394</v>
       </c>
       <c r="G2" t="n">
-        <v>1759.289826434372</v>
+        <v>1717.017787559631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="I2" t="n">
-        <v>254308</v>
+        <v>191837</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1263489</v>
+        <v>1168835</v>
       </c>
       <c r="E3" t="n">
-        <v>3977683</v>
+        <v>3679695</v>
       </c>
       <c r="F3" t="n">
-        <v>5847.753752237459</v>
+        <v>3666.464947160413</v>
       </c>
       <c r="G3" t="n">
-        <v>5728.258053463655</v>
+        <v>4246.265305491719</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I3" t="n">
-        <v>250946</v>
+        <v>179706</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251248247</v>
+        <v>238809650</v>
       </c>
       <c r="E4" t="n">
-        <v>1575542439</v>
+        <v>1497541747</v>
       </c>
       <c r="F4" t="n">
-        <v>171837.8387849942</v>
+        <v>166926.9538547514</v>
       </c>
       <c r="G4" t="n">
-        <v>189770.2890063238</v>
+        <v>202583.6325552425</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>105893183</v>
+        <v>73555295</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137715629</v>
+        <v>137580816</v>
       </c>
       <c r="E5" t="n">
-        <v>152610438</v>
+        <v>152461043</v>
       </c>
       <c r="F5" t="n">
-        <v>57839.23607798431</v>
+        <v>53461.60164234799</v>
       </c>
       <c r="G5" t="n">
-        <v>51629.57396723965</v>
+        <v>52068.69778140702</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>43143632</v>
+        <v>50511826</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>121868597</v>
+        <v>120180535</v>
       </c>
       <c r="E6" t="n">
-        <v>436489938</v>
+        <v>430443900</v>
       </c>
       <c r="F6" t="n">
-        <v>19346.09332851437</v>
+        <v>10953.8712052376</v>
       </c>
       <c r="G6" t="n">
-        <v>14535.86991989814</v>
+        <v>13651.9384948837</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>23118201</v>
+        <v>24183483</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3570496</v>
+        <v>3635153</v>
       </c>
       <c r="E7" t="n">
-        <v>21815133</v>
+        <v>22208883</v>
       </c>
       <c r="F7" t="n">
-        <v>2410.40242014167</v>
+        <v>3732.918502033965</v>
       </c>
       <c r="G7" t="n">
-        <v>3295.406743163493</v>
+        <v>2776.873837883289</v>
       </c>
       <c r="H7" t="n">
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
       <c r="I7" t="n">
-        <v>1241424</v>
+        <v>1456478</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>160952</v>
+        <v>155139</v>
       </c>
       <c r="E8" t="n">
-        <v>1770649</v>
+        <v>1706702</v>
       </c>
       <c r="F8" t="n">
-        <v>2067.776180961498</v>
+        <v>2117.622881845805</v>
       </c>
       <c r="G8" t="n">
-        <v>1890.601413329517</v>
+        <v>1926.498749063273</v>
       </c>
       <c r="H8" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="I8" t="n">
-        <v>69971</v>
+        <v>70872</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64134153</v>
+        <v>64511057</v>
       </c>
       <c r="E9" t="n">
-        <v>110681275</v>
+        <v>111310517</v>
       </c>
       <c r="F9" t="n">
-        <v>10066.6066156736</v>
+        <v>12162.39540337984</v>
       </c>
       <c r="G9" t="n">
-        <v>9514.604713657231</v>
+        <v>9351.251275113735</v>
       </c>
       <c r="H9" t="n">
-        <v>0.54</v>
+        <v>0.09</v>
       </c>
       <c r="I9" t="n">
-        <v>572378</v>
+        <v>565027</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8549405</v>
+        <v>8556037</v>
       </c>
       <c r="E10" t="n">
-        <v>12101047</v>
+        <v>12110434</v>
       </c>
       <c r="F10" t="n">
-        <v>3040.515313645625</v>
+        <v>2895.21481028598</v>
       </c>
       <c r="G10" t="n">
-        <v>2747.672492295185</v>
+        <v>2670.443111982176</v>
       </c>
       <c r="H10" t="n">
         <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>42437</v>
+        <v>11862.97</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>378833047</v>
+        <v>371284338</v>
       </c>
       <c r="E11" t="n">
-        <v>378833054</v>
+        <v>371284338</v>
       </c>
       <c r="F11" t="n">
-        <v>37620.83559382612</v>
+        <v>25237.55478228557</v>
       </c>
       <c r="G11" t="n">
-        <v>47272.0064261096</v>
+        <v>30524.31790085823</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I11" t="n">
-        <v>38305262</v>
+        <v>32757121</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>260530</v>
+        <v>267949</v>
       </c>
       <c r="E12" t="n">
-        <v>1216180</v>
+        <v>1250812</v>
       </c>
       <c r="F12" t="n">
-        <v>1088.185094003042</v>
+        <v>1162.58702691638</v>
       </c>
       <c r="G12" t="n">
-        <v>233.7396428483798</v>
+        <v>346.113638658668</v>
       </c>
       <c r="H12" t="n">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="I12" t="n">
-        <v>704970</v>
+        <v>731274</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1651490</v>
+        <v>1824836</v>
       </c>
       <c r="F13" t="n">
-        <v>1974.473855709329</v>
+        <v>139.8857748012599</v>
       </c>
       <c r="G13" t="n">
-        <v>2741.315194346873</v>
+        <v>389.6145137351211</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>185461</v>
+        <v>373409</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10650709</v>
+        <v>10403490</v>
       </c>
       <c r="E14" t="n">
-        <v>26507688</v>
+        <v>25892405</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2332249541047</v>
+        <v>961.5950205301048</v>
       </c>
       <c r="G14" t="n">
-        <v>941.7442591117964</v>
+        <v>868.4821375465943</v>
       </c>
       <c r="H14" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>1052116</v>
+        <v>1065482</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>105818846</v>
+        <v>102292079</v>
       </c>
       <c r="E15" t="n">
-        <v>408250748</v>
+        <v>394463744</v>
       </c>
       <c r="F15" t="n">
-        <v>11073.02357561015</v>
+        <v>12706.59425728414</v>
       </c>
       <c r="G15" t="n">
-        <v>14027.77638905839</v>
+        <v>17363.09207083603</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="I15" t="n">
-        <v>17713530</v>
+        <v>18250714</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4023872</v>
+        <v>4011391</v>
       </c>
       <c r="E16" t="n">
-        <v>5923358</v>
+        <v>5904985</v>
       </c>
       <c r="F16" t="n">
-        <v>1937.301271600009</v>
+        <v>2872.031682338509</v>
       </c>
       <c r="G16" t="n">
-        <v>1791.574448813421</v>
+        <v>4090.384400358252</v>
       </c>
       <c r="H16" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="I16" t="n">
-        <v>540684</v>
+        <v>530325</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>460770</v>
+        <v>449753</v>
       </c>
       <c r="E17" t="n">
-        <v>1900062</v>
+        <v>1854708</v>
       </c>
       <c r="F17" t="n">
-        <v>1260.774928012793</v>
+        <v>80.5734294953032</v>
       </c>
       <c r="G17" t="n">
-        <v>967.4814810285225</v>
+        <v>2651.459332447011</v>
       </c>
       <c r="H17" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I17" t="n">
-        <v>39851</v>
+        <v>25461</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>131249353</v>
+        <v>128618869</v>
       </c>
       <c r="E18" t="n">
-        <v>131249353</v>
+        <v>128618869</v>
       </c>
       <c r="F18" t="n">
-        <v>84307.70475375265</v>
+        <v>85792.91399130858</v>
       </c>
       <c r="G18" t="n">
-        <v>103034.9601210517</v>
+        <v>79378.80767029231</v>
       </c>
       <c r="H18" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>79166826</v>
+        <v>75199452</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70577981</v>
+        <v>68511009</v>
       </c>
       <c r="E19" t="n">
-        <v>361938364</v>
+        <v>351338506</v>
       </c>
       <c r="F19" t="n">
-        <v>13272.55906025307</v>
+        <v>12158.52601346266</v>
       </c>
       <c r="G19" t="n">
-        <v>7653.400787045859</v>
+        <v>20338.84856496436</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="I19" t="n">
-        <v>32716901</v>
+        <v>34510680</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>215369458</v>
+        <v>209932680</v>
       </c>
       <c r="E20" t="n">
-        <v>215369458</v>
+        <v>209932680</v>
       </c>
       <c r="F20" t="n">
-        <v>46920.69517172891</v>
+        <v>23021.98362454161</v>
       </c>
       <c r="G20" t="n">
-        <v>49070.30349291307</v>
+        <v>64241.73831128132</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>43706559</v>
+        <v>45510165</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>139841575</v>
+        <v>137635624</v>
       </c>
       <c r="E21" t="n">
-        <v>184015158</v>
+        <v>181112385</v>
       </c>
       <c r="F21" t="n">
-        <v>20185.45198539861</v>
+        <v>11451.69892114407</v>
       </c>
       <c r="G21" t="n">
-        <v>24631.04044448824</v>
+        <v>29878.493121788</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>7125248</v>
+        <v>5755805</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78796267</v>
+        <v>80889016</v>
       </c>
       <c r="E22" t="n">
-        <v>220493948</v>
+        <v>226357944</v>
       </c>
       <c r="F22" t="n">
-        <v>33403.06465456467</v>
+        <v>40688.2023408131</v>
       </c>
       <c r="G22" t="n">
-        <v>44107.12480270696</v>
+        <v>32479.81157176732</v>
       </c>
       <c r="H22" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I22" t="n">
-        <v>72526813</v>
+        <v>114205609</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73585576</v>
+        <v>70545254</v>
       </c>
       <c r="E23" t="n">
-        <v>153420015</v>
+        <v>147081189</v>
       </c>
       <c r="F23" t="n">
-        <v>13050.39230200984</v>
+        <v>12245.07656220286</v>
       </c>
       <c r="G23" t="n">
-        <v>13175.5717134946</v>
+        <v>15999.06000918039</v>
       </c>
       <c r="H23" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I23" t="n">
-        <v>17400864</v>
+        <v>17024318</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>597378676</v>
+        <v>586277539</v>
       </c>
       <c r="E24" t="n">
-        <v>597378676</v>
+        <v>586277539</v>
       </c>
       <c r="F24" t="n">
-        <v>125308.9778295265</v>
+        <v>102438.9760680928</v>
       </c>
       <c r="G24" t="n">
-        <v>156081.8232066377</v>
+        <v>186652.7889187852</v>
       </c>
       <c r="H24" t="n">
         <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>457577667</v>
+        <v>412896741</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>202642463</v>
+        <v>197419221</v>
       </c>
       <c r="E25" t="n">
-        <v>703998229</v>
+        <v>685852216</v>
       </c>
       <c r="F25" t="n">
-        <v>81092.88851388426</v>
+        <v>81337.43011066949</v>
       </c>
       <c r="G25" t="n">
-        <v>122099.9739500405</v>
+        <v>135065.0448213037</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>64049614</v>
+        <v>61176398</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5018663</v>
+        <v>5060057</v>
       </c>
       <c r="E26" t="n">
-        <v>6784226</v>
+        <v>6838392</v>
       </c>
       <c r="F26" t="n">
-        <v>3235.624296228326</v>
+        <v>2467.743175213783</v>
       </c>
       <c r="G26" t="n">
-        <v>4034.518120544429</v>
+        <v>3961.713911280131</v>
       </c>
       <c r="H26" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>5114383</v>
+        <v>6081068</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12151336</v>
+        <v>12130993</v>
       </c>
       <c r="F27" t="n">
-        <v>2284.291600050604</v>
+        <v>2503.655187244728</v>
       </c>
       <c r="G27" t="n">
-        <v>2572.457612080081</v>
+        <v>2273.629324789406</v>
       </c>
       <c r="H27" t="n">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>213181</v>
+        <v>215379</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22704746</v>
+        <v>23183814</v>
       </c>
       <c r="E28" t="n">
-        <v>32053127</v>
+        <v>32723207</v>
       </c>
       <c r="F28" t="n">
-        <v>678.3959668244474</v>
+        <v>740.3471986512978</v>
       </c>
       <c r="G28" t="n">
-        <v>1033.410283042987</v>
+        <v>234.0422714979235</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="I28" t="n">
-        <v>108150</v>
+        <v>113157</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>224656617</v>
+        <v>223027184</v>
       </c>
       <c r="E29" t="n">
-        <v>969742675</v>
+        <v>962709138</v>
       </c>
       <c r="F29" t="n">
-        <v>165747.9018690088</v>
+        <v>147687.049758869</v>
       </c>
       <c r="G29" t="n">
-        <v>151494.7733846223</v>
+        <v>164457.2897489297</v>
       </c>
       <c r="H29" t="n">
         <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>141766485</v>
+        <v>123080376</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7760791</v>
+        <v>7694015</v>
       </c>
       <c r="E30" t="n">
-        <v>92602631</v>
+        <v>91649871</v>
       </c>
       <c r="F30" t="n">
-        <v>5069.35033055139</v>
+        <v>1747.441726709716</v>
       </c>
       <c r="G30" t="n">
-        <v>2446.955421828922</v>
+        <v>687.8936312599401</v>
       </c>
       <c r="H30" t="n">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>261730</v>
+        <v>141468</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13269886</v>
+        <v>11682885</v>
       </c>
       <c r="E31" t="n">
-        <v>33174715</v>
+        <v>29207213</v>
       </c>
       <c r="F31" t="n">
-        <v>5338.88648220739</v>
+        <v>6770.486463887341</v>
       </c>
       <c r="G31" t="n">
-        <v>5496.459548896178</v>
+        <v>9013.504628216306</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3356271</v>
+        <v>4400241</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18102628</v>
+        <v>18140748</v>
       </c>
       <c r="F32" t="n">
-        <v>3500.343217474895</v>
+        <v>4450.969207600525</v>
       </c>
       <c r="G32" t="n">
-        <v>4577.166543218921</v>
+        <v>3726.639426157399</v>
       </c>
       <c r="H32" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="I32" t="n">
-        <v>25911</v>
+        <v>41731</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1486530</v>
+        <v>1521174</v>
       </c>
       <c r="E33" t="n">
-        <v>5537390</v>
+        <v>5666256</v>
       </c>
       <c r="F33" t="n">
-        <v>2075.662985083839</v>
+        <v>3539.554078405498</v>
       </c>
       <c r="G33" t="n">
-        <v>1757.47439438583</v>
+        <v>796.808353034796</v>
       </c>
       <c r="H33" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>567411</v>
+        <v>599422</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3933255</v>
+        <v>3818997</v>
       </c>
       <c r="E34" t="n">
-        <v>11326906</v>
+        <v>10997869</v>
       </c>
       <c r="F34" t="n">
-        <v>4200.723967311821</v>
+        <v>4166.73631924394</v>
       </c>
       <c r="G34" t="n">
-        <v>5733.071661828698</v>
+        <v>2637.765258789746</v>
       </c>
       <c r="H34" t="n">
-        <v>0.71</v>
+        <v>0.09</v>
       </c>
       <c r="I34" t="n">
-        <v>403204</v>
+        <v>385069</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11404933</v>
+        <v>10983880</v>
       </c>
       <c r="E35" t="n">
-        <v>55235910</v>
+        <v>53196684</v>
       </c>
       <c r="F35" t="n">
-        <v>5848.004373476182</v>
+        <v>6604.739651297849</v>
       </c>
       <c r="G35" t="n">
-        <v>5741.817957062789</v>
+        <v>5953.399145453124</v>
       </c>
       <c r="H35" t="n">
         <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>3097357</v>
+        <v>3111801</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1169113</v>
+        <v>1172461</v>
       </c>
       <c r="E36" t="n">
-        <v>7651811</v>
+        <v>7673728</v>
       </c>
       <c r="F36" t="n">
-        <v>3190.747242429529</v>
+        <v>978.7301255451503</v>
       </c>
       <c r="G36" t="n">
-        <v>3867.665029560848</v>
+        <v>3711.376257101826</v>
       </c>
       <c r="H36" t="n">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="I36" t="n">
-        <v>52505</v>
+        <v>49095</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1727169588</v>
+        <v>1718555466</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4296185640055</v>
+        <v>76728.13776602504</v>
       </c>
       <c r="G37" t="n">
-        <v>81.13179027332225</v>
+        <v>66257.92854621852</v>
       </c>
       <c r="H37" t="n">
-        <v>1.15</v>
+        <v>0.64</v>
       </c>
       <c r="I37" t="n">
-        <v>31784757</v>
+        <v>31908960</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1771770</v>
+        <v>1735558</v>
       </c>
       <c r="E38" t="n">
-        <v>12705182</v>
+        <v>12445515</v>
       </c>
       <c r="F38" t="n">
-        <v>4561.0292974314</v>
+        <v>5433.544678107126</v>
       </c>
       <c r="G38" t="n">
-        <v>5172.124235047964</v>
+        <v>4346.390051492272</v>
       </c>
       <c r="H38" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="I38" t="n">
-        <v>1832092</v>
+        <v>1844653</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>178904142</v>
+        <v>176200347</v>
       </c>
       <c r="E39" t="n">
-        <v>1013065181</v>
+        <v>997754630</v>
       </c>
       <c r="F39" t="n">
-        <v>102403.9145770474</v>
+        <v>101374.9418332647</v>
       </c>
       <c r="G39" t="n">
-        <v>140892.361925519</v>
+        <v>142605.0764761759</v>
       </c>
       <c r="H39" t="n">
         <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>69387441</v>
+        <v>66085946</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>99789507</v>
+        <v>95508357</v>
       </c>
       <c r="E40" t="n">
-        <v>739181534</v>
+        <v>707469309</v>
       </c>
       <c r="F40" t="n">
-        <v>227881.8244617897</v>
+        <v>224107.7767131853</v>
       </c>
       <c r="G40" t="n">
-        <v>224976.9628515713</v>
+        <v>227699.0018108441</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>10056759</v>
+        <v>11934076</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>299000367</v>
+        <v>290369198</v>
       </c>
       <c r="E41" t="n">
-        <v>2689992708</v>
+        <v>2612341357</v>
       </c>
       <c r="F41" t="n">
-        <v>109321.998165011</v>
+        <v>106936.4625490079</v>
       </c>
       <c r="G41" t="n">
-        <v>98914.56457552609</v>
+        <v>135352.5631262716</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>49779796</v>
+        <v>44607361</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1527224</v>
+        <v>1607197</v>
       </c>
       <c r="E42" t="n">
-        <v>12726869</v>
+        <v>13393306</v>
       </c>
       <c r="F42" t="n">
-        <v>2682.935944030869</v>
+        <v>4705.861136362575</v>
       </c>
       <c r="G42" t="n">
-        <v>1170.259682151746</v>
+        <v>353.0906838655501</v>
       </c>
       <c r="H42" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="I42" t="n">
-        <v>53288</v>
+        <v>40146</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16637217</v>
+        <v>19821402</v>
       </c>
       <c r="E43" t="n">
-        <v>49320883</v>
+        <v>58754535</v>
       </c>
       <c r="F43" t="n">
-        <v>1751.996870293247</v>
+        <v>2406.98399350541</v>
       </c>
       <c r="G43" t="n">
-        <v>16595.30709786522</v>
+        <v>10426.76411478274</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I43" t="n">
-        <v>6189103</v>
+        <v>8047137</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7389743</v>
+        <v>7579918</v>
       </c>
       <c r="F44" t="n">
-        <v>2103.923270616303</v>
+        <v>1754.105535872861</v>
       </c>
       <c r="G44" t="n">
-        <v>2849.295582014215</v>
+        <v>2062.931775449536</v>
       </c>
       <c r="H44" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I44" t="n">
-        <v>78406</v>
+        <v>74197</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10281478</v>
+        <v>10437360</v>
       </c>
       <c r="E45" t="n">
-        <v>10281478</v>
+        <v>10437360</v>
       </c>
       <c r="F45" t="n">
-        <v>882.2914868409591</v>
+        <v>112.8423406575941</v>
       </c>
       <c r="G45" t="n">
-        <v>540.8757925471266</v>
+        <v>1149.264317346305</v>
       </c>
       <c r="H45" t="n">
-        <v>0.87</v>
+        <v>0.29</v>
       </c>
       <c r="I45" t="n">
-        <v>1737794</v>
+        <v>2037553</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>265580036</v>
+        <v>259872500</v>
       </c>
       <c r="E46" t="n">
-        <v>265580036</v>
+        <v>259872500</v>
       </c>
       <c r="F46" t="n">
-        <v>8051.900850313833</v>
+        <v>16933.63161241601</v>
       </c>
       <c r="G46" t="n">
-        <v>16708.67173692358</v>
+        <v>21383.861915146</v>
       </c>
       <c r="H46" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I46" t="n">
-        <v>14026298</v>
+        <v>13814300</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11435702</v>
+        <v>10822251</v>
       </c>
       <c r="E47" t="n">
-        <v>36149844</v>
+        <v>34210360</v>
       </c>
       <c r="F47" t="n">
-        <v>1602.144950345289</v>
+        <v>9307.976553441</v>
       </c>
       <c r="G47" t="n">
-        <v>7530.311682862047</v>
+        <v>6935.884212811238</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.61</v>
       </c>
       <c r="I47" t="n">
-        <v>1387135</v>
+        <v>3027117</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>28848319</v>
+        <v>28951425</v>
       </c>
       <c r="E48" t="n">
-        <v>79906980</v>
+        <v>80192575</v>
       </c>
       <c r="F48" t="n">
-        <v>5180.717987658732</v>
+        <v>7128.76211818195</v>
       </c>
       <c r="G48" t="n">
-        <v>5509.248730663245</v>
+        <v>5041.615869348369</v>
       </c>
       <c r="H48" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I48" t="n">
-        <v>9485464</v>
+        <v>9761539</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25413049</v>
+        <v>26620620</v>
       </c>
       <c r="E49" t="n">
-        <v>60277315</v>
+        <v>63141558</v>
       </c>
       <c r="F49" t="n">
-        <v>17720.84397321941</v>
+        <v>11321.92480655084</v>
       </c>
       <c r="G49" t="n">
-        <v>9954.129677329365</v>
+        <v>15891.55513743805</v>
       </c>
       <c r="H49" t="n">
         <v>0.08</v>
       </c>
       <c r="I49" t="n">
-        <v>455883</v>
+        <v>574305</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11359038</v>
+        <v>11530547</v>
       </c>
       <c r="E50" t="n">
-        <v>17167106</v>
+        <v>17426310</v>
       </c>
       <c r="F50" t="n">
-        <v>3360.698602265843</v>
+        <v>5426.80224876185</v>
       </c>
       <c r="G50" t="n">
-        <v>3485.608378242425</v>
+        <v>3616.790771973133</v>
       </c>
       <c r="H50" t="n">
-        <v>0.51</v>
+        <v>0.25</v>
       </c>
       <c r="I50" t="n">
-        <v>636444</v>
+        <v>615765</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>275991519</v>
+        <v>273267710</v>
       </c>
       <c r="E51" t="n">
-        <v>275991519</v>
+        <v>273267710</v>
       </c>
       <c r="F51" t="n">
-        <v>39259.47653972167</v>
+        <v>47372.82166388554</v>
       </c>
       <c r="G51" t="n">
-        <v>47964.63488488631</v>
+        <v>64587.27713783152</v>
       </c>
       <c r="H51" t="n">
         <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>130519098</v>
+        <v>85073582</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>80489799</v>
+        <v>78611484</v>
       </c>
       <c r="E52" t="n">
-        <v>463816940</v>
+        <v>452993279</v>
       </c>
       <c r="F52" t="n">
-        <v>208277.5701062297</v>
+        <v>8297.745036574637</v>
       </c>
       <c r="G52" t="n">
-        <v>198428.4802955166</v>
+        <v>184637.6615856189</v>
       </c>
       <c r="H52" t="n">
         <v>0.22</v>
       </c>
       <c r="I52" t="n">
-        <v>20993169</v>
+        <v>21307140</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32035629</v>
+        <v>29868080</v>
       </c>
       <c r="E53" t="n">
-        <v>143436655</v>
+        <v>133731645</v>
       </c>
       <c r="F53" t="n">
-        <v>20636.48148238008</v>
+        <v>23017.70124835833</v>
       </c>
       <c r="G53" t="n">
-        <v>32680.00032629754</v>
+        <v>14458.17740757011</v>
       </c>
       <c r="H53" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>27614004</v>
+        <v>20441871</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7150084</v>
+        <v>6920641</v>
       </c>
       <c r="F54" t="n">
-        <v>4722.8189046019</v>
+        <v>3189.259363422287</v>
       </c>
       <c r="G54" t="n">
-        <v>2633.801902575742</v>
+        <v>4631.350354803449</v>
       </c>
       <c r="H54" t="n">
-        <v>0.99</v>
+        <v>0.29</v>
       </c>
       <c r="I54" t="n">
-        <v>289861</v>
+        <v>311126</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4050452</v>
+        <v>4051397</v>
       </c>
       <c r="F55" t="n">
-        <v>3030.510720154598</v>
+        <v>4010.144332597644</v>
       </c>
       <c r="G55" t="n">
-        <v>1216.266125255679</v>
+        <v>1301.197537469025</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="I55" t="n">
-        <v>205601</v>
+        <v>228937</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122111975</v>
+        <v>122099558</v>
       </c>
       <c r="E56" t="n">
-        <v>2022274318</v>
+        <v>2022068678</v>
       </c>
       <c r="F56" t="n">
-        <v>172934.220610422</v>
+        <v>167054.781033928</v>
       </c>
       <c r="G56" t="n">
-        <v>177913.917641849</v>
+        <v>183271.5243732741</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>18929463</v>
+        <v>13468313</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>75074821</v>
+        <v>73283564</v>
       </c>
       <c r="E57" t="n">
-        <v>75882893</v>
+        <v>74072356</v>
       </c>
       <c r="F57" t="n">
-        <v>17222.37479072375</v>
+        <v>18336.6779317804</v>
       </c>
       <c r="G57" t="n">
-        <v>29884.00471971651</v>
+        <v>34214.65453806594</v>
       </c>
       <c r="H57" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I57" t="n">
-        <v>9714507</v>
+        <v>8813378</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>259998121</v>
+        <v>256266120</v>
       </c>
       <c r="E58" t="n">
-        <v>259998121</v>
+        <v>256266120</v>
       </c>
       <c r="F58" t="n">
-        <v>56305.38044293544</v>
+        <v>57814.0495740327</v>
       </c>
       <c r="G58" t="n">
-        <v>93364.42844903663</v>
+        <v>101083.9411945566</v>
       </c>
       <c r="H58" t="n">
         <v>0.11</v>
       </c>
       <c r="I58" t="n">
-        <v>64036657</v>
+        <v>65293101</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22560316</v>
+        <v>22355686</v>
       </c>
       <c r="E59" t="n">
-        <v>134982905</v>
+        <v>133758566</v>
       </c>
       <c r="F59" t="n">
-        <v>62910.70044403613</v>
+        <v>64093.54224022246</v>
       </c>
       <c r="G59" t="n">
-        <v>47917.57316704865</v>
+        <v>32808.65882624426</v>
       </c>
       <c r="H59" t="n">
         <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>21237105</v>
+        <v>21588195</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2074014</v>
+        <v>2096716</v>
       </c>
       <c r="E60" t="n">
-        <v>3827711</v>
+        <v>3869608</v>
       </c>
       <c r="F60" t="n">
-        <v>4125.737148976773</v>
+        <v>4015.546358870772</v>
       </c>
       <c r="G60" t="n">
-        <v>1923.686578222065</v>
+        <v>1950.173426679124</v>
       </c>
       <c r="H60" t="n">
         <v>0.26</v>
       </c>
       <c r="I60" t="n">
-        <v>83417</v>
+        <v>34048</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10826744</v>
+        <v>10000701</v>
       </c>
       <c r="E62" t="n">
-        <v>31624773</v>
+        <v>29208023</v>
       </c>
       <c r="F62" t="n">
-        <v>4885.59426043463</v>
+        <v>4331.719991847616</v>
       </c>
       <c r="G62" t="n">
-        <v>4253.361477163735</v>
+        <v>4205.609310419712</v>
       </c>
       <c r="H62" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>6003380</v>
+        <v>5630488</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14040485</v>
+        <v>13337001</v>
       </c>
       <c r="E63" t="n">
-        <v>28424105</v>
+        <v>26999945</v>
       </c>
       <c r="F63" t="n">
-        <v>6184.632489427965</v>
+        <v>4621.752593651535</v>
       </c>
       <c r="G63" t="n">
-        <v>19137.49238850785</v>
+        <v>18369.59850975612</v>
       </c>
       <c r="H63" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>481867</v>
+        <v>502602</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>28626931</v>
+        <v>29541182</v>
       </c>
       <c r="E64" t="n">
-        <v>202960267</v>
+        <v>209442164</v>
       </c>
       <c r="F64" t="n">
-        <v>24526.9696817874</v>
+        <v>39942.54164892992</v>
       </c>
       <c r="G64" t="n">
-        <v>47224.63746378492</v>
+        <v>59059.2174539101</v>
       </c>
       <c r="H64" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I64" t="n">
-        <v>3696096</v>
+        <v>3817980</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1191011</v>
+        <v>1183428</v>
       </c>
       <c r="E65" t="n">
-        <v>7358716</v>
+        <v>7308276</v>
       </c>
       <c r="F65" t="n">
-        <v>2504.058267978298</v>
+        <v>2141.513117967606</v>
       </c>
       <c r="G65" t="n">
-        <v>2843.610689988562</v>
+        <v>3318.823554554157</v>
       </c>
       <c r="H65" t="n">
         <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>606066</v>
+        <v>560748</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>565510414</v>
+        <v>560572823</v>
       </c>
       <c r="E66" t="n">
-        <v>2190138398</v>
+        <v>2171015835</v>
       </c>
       <c r="F66" t="n">
-        <v>169622.4182459245</v>
+        <v>148824.1425005136</v>
       </c>
       <c r="G66" t="n">
-        <v>161941.631803438</v>
+        <v>177725.0580194693</v>
       </c>
       <c r="H66" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>51543372</v>
+        <v>43985497</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5088702</v>
+        <v>5164391</v>
       </c>
       <c r="E67" t="n">
-        <v>22507150</v>
+        <v>22809292</v>
       </c>
       <c r="F67" t="n">
-        <v>3272.93401177621</v>
+        <v>4860.254600086294</v>
       </c>
       <c r="G67" t="n">
-        <v>3688.07373178044</v>
+        <v>3484.61480201156</v>
       </c>
       <c r="H67" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I67" t="n">
-        <v>133027</v>
+        <v>159556</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>105290674</v>
+        <v>100483049</v>
       </c>
       <c r="E68" t="n">
-        <v>996235378</v>
+        <v>950746768</v>
       </c>
       <c r="F68" t="n">
-        <v>15547.19026747446</v>
+        <v>4266.258101733699</v>
       </c>
       <c r="G68" t="n">
-        <v>25278.78997035466</v>
+        <v>18961.26354468536</v>
       </c>
       <c r="H68" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I68" t="n">
-        <v>36462485</v>
+        <v>22326363</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>71389637</v>
+        <v>69522019</v>
       </c>
       <c r="E69" t="n">
-        <v>108906564</v>
+        <v>106057470</v>
       </c>
       <c r="F69" t="n">
-        <v>48588.11446151223</v>
+        <v>48267.91767462111</v>
       </c>
       <c r="G69" t="n">
-        <v>69016.62283441488</v>
+        <v>70108.48934354422</v>
       </c>
       <c r="H69" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I69" t="n">
-        <v>6465655</v>
+        <v>6142312</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1113398</v>
+        <v>1053262</v>
       </c>
       <c r="E70" t="n">
-        <v>4311320</v>
+        <v>4078460</v>
       </c>
       <c r="F70" t="n">
-        <v>2434.998951869755</v>
+        <v>2443.993311711179</v>
       </c>
       <c r="G70" t="n">
-        <v>2305.580922547616</v>
+        <v>2904.033705646608</v>
       </c>
       <c r="H70" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="I70" t="n">
-        <v>242772</v>
+        <v>259066</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>124158768</v>
+        <v>131062631</v>
       </c>
       <c r="E71" t="n">
-        <v>476293018</v>
+        <v>502777349</v>
       </c>
       <c r="F71" t="n">
-        <v>13380.79592621638</v>
+        <v>10341.5018284921</v>
       </c>
       <c r="G71" t="n">
-        <v>9082.850875500926</v>
+        <v>15205.85763657969</v>
       </c>
       <c r="H71" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I71" t="n">
-        <v>33352649</v>
+        <v>32769051</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2632241</v>
+        <v>2735553</v>
       </c>
       <c r="E72" t="n">
-        <v>24940868</v>
+        <v>25919772</v>
       </c>
       <c r="F72" t="n">
-        <v>4562.103731464913</v>
+        <v>4566.03630397799</v>
       </c>
       <c r="G72" t="n">
-        <v>2595.090783316022</v>
+        <v>2505.592484337917</v>
       </c>
       <c r="H72" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="I72" t="n">
-        <v>90092</v>
+        <v>158511</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>27916089</v>
+        <v>26267463</v>
       </c>
       <c r="F73" t="n">
-        <v>3432.070203116082</v>
+        <v>1531.887046420324</v>
       </c>
       <c r="G73" t="n">
-        <v>1419.041952033572</v>
+        <v>6633.248165627646</v>
       </c>
       <c r="H73" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>11283967</v>
+        <v>7084896</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>115316517</v>
+        <v>115396560</v>
       </c>
       <c r="E74" t="n">
-        <v>420307575</v>
+        <v>420583926</v>
       </c>
       <c r="F74" t="n">
-        <v>1772.948236251563</v>
+        <v>1875.51685434154</v>
       </c>
       <c r="G74" t="n">
-        <v>2124.359551467411</v>
+        <v>1780.030932479102</v>
       </c>
       <c r="H74" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="I74" t="n">
-        <v>773954</v>
+        <v>306487</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21915815</v>
+        <v>21105795</v>
       </c>
       <c r="E75" t="n">
-        <v>21915815</v>
+        <v>21105795</v>
       </c>
       <c r="F75" t="n">
-        <v>6397.878778059745</v>
+        <v>5868.828833795023</v>
       </c>
       <c r="G75" t="n">
-        <v>4632.946081095602</v>
+        <v>5478.541290049048</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I75" t="n">
-        <v>7874575</v>
+        <v>7814643</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>412273330</v>
+        <v>402944637</v>
       </c>
       <c r="E76" t="n">
-        <v>1430736154</v>
+        <v>1398362246</v>
       </c>
       <c r="F76" t="n">
-        <v>164001.5977942809</v>
+        <v>119355.2030874388</v>
       </c>
       <c r="G76" t="n">
-        <v>175941.2982743203</v>
+        <v>136891.0232025445</v>
       </c>
       <c r="H76" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>55377895</v>
+        <v>50885550</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4821430788</v>
+        <v>4731285750</v>
       </c>
       <c r="E77" t="n">
-        <v>4821430788</v>
+        <v>4731285750</v>
       </c>
       <c r="F77" t="n">
-        <v>17891.22954412862</v>
+        <v>18256.82843220402</v>
       </c>
       <c r="G77" t="n">
-        <v>19232.58645843682</v>
+        <v>18354.24972057623</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>9626892</v>
+        <v>70893944</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6885666</v>
+        <v>7061671</v>
       </c>
       <c r="E78" t="n">
-        <v>17888221</v>
+        <v>18345461</v>
       </c>
       <c r="F78" t="n">
-        <v>3303.475693130887</v>
+        <v>191.7021061917887</v>
       </c>
       <c r="G78" t="n">
-        <v>3687.923714555076</v>
+        <v>275.0902373776461</v>
       </c>
       <c r="H78" t="n">
         <v>0.22</v>
       </c>
       <c r="I78" t="n">
-        <v>816736</v>
+        <v>951603</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>91185369</v>
+        <v>88268140</v>
       </c>
       <c r="E79" t="n">
-        <v>136033097</v>
+        <v>131681087</v>
       </c>
       <c r="F79" t="n">
-        <v>39246.14490698092</v>
+        <v>39243.97300243441</v>
       </c>
       <c r="G79" t="n">
-        <v>39021.24493878136</v>
+        <v>43217.23877832427</v>
       </c>
       <c r="H79" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>8180019</v>
+        <v>8052303</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1957968</v>
+        <v>1951122</v>
       </c>
       <c r="E80" t="n">
-        <v>7831871</v>
+        <v>7804486</v>
       </c>
       <c r="F80" t="n">
-        <v>4838.260809675558</v>
+        <v>4495.099613203029</v>
       </c>
       <c r="G80" t="n">
-        <v>3770.868397235574</v>
+        <v>3451.272275639435</v>
       </c>
       <c r="H80" t="n">
-        <v>0.63</v>
+        <v>0.13</v>
       </c>
       <c r="I80" t="n">
-        <v>6624431</v>
+        <v>6924277</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3499508</v>
+        <v>3452279</v>
       </c>
       <c r="F81" t="n">
-        <v>2676.082982487108</v>
+        <v>1667.297666948536</v>
       </c>
       <c r="G81" t="n">
-        <v>2022.16425746814</v>
+        <v>1238.546645872595</v>
       </c>
       <c r="H81" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="I81" t="n">
-        <v>1875683</v>
+        <v>1704137</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>368016997</v>
+        <v>361848766</v>
       </c>
       <c r="E82" t="n">
-        <v>2102954268</v>
+        <v>2067707236</v>
       </c>
       <c r="F82" t="n">
-        <v>20107.72943804495</v>
+        <v>35616.0388579115</v>
       </c>
       <c r="G82" t="n">
-        <v>47795.43145479856</v>
+        <v>52305.35442754308</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I82" t="n">
-        <v>50902754</v>
+        <v>43755498</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4488814</v>
+        <v>4535571</v>
       </c>
       <c r="F2" t="n">
-        <v>2217.36673673394</v>
+        <v>1303.804900565213</v>
       </c>
       <c r="G2" t="n">
-        <v>1717.017787559631</v>
+        <v>2158.91721426293</v>
       </c>
       <c r="H2" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="I2" t="n">
-        <v>191837</v>
+        <v>227817</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1168835</v>
+        <v>1163825</v>
       </c>
       <c r="E3" t="n">
-        <v>3679695</v>
+        <v>3663922</v>
       </c>
       <c r="F3" t="n">
-        <v>3666.464947160413</v>
+        <v>6845.603342046645</v>
       </c>
       <c r="G3" t="n">
-        <v>4246.265305491719</v>
+        <v>6418.252301469929</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="I3" t="n">
-        <v>179706</v>
+        <v>115557</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>238809650</v>
+        <v>224398345</v>
       </c>
       <c r="E4" t="n">
-        <v>1497541747</v>
+        <v>1407170477</v>
       </c>
       <c r="F4" t="n">
-        <v>166926.9538547514</v>
+        <v>172500.7840161097</v>
       </c>
       <c r="G4" t="n">
-        <v>202583.6325552425</v>
+        <v>189631.7640170354</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>73555295</v>
+        <v>90028087</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137580816</v>
+        <v>128915995</v>
       </c>
       <c r="E5" t="n">
-        <v>152461043</v>
+        <v>142859067</v>
       </c>
       <c r="F5" t="n">
-        <v>53461.60164234799</v>
+        <v>38976.56597827868</v>
       </c>
       <c r="G5" t="n">
-        <v>52068.69778140702</v>
+        <v>57946.09342648328</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>50511826</v>
+        <v>52796785</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>120180535</v>
+        <v>114178673</v>
       </c>
       <c r="E6" t="n">
-        <v>430443900</v>
+        <v>408947369</v>
       </c>
       <c r="F6" t="n">
-        <v>10953.8712052376</v>
+        <v>9598.041641709955</v>
       </c>
       <c r="G6" t="n">
-        <v>13651.9384948837</v>
+        <v>9230.221374457557</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I6" t="n">
-        <v>24183483</v>
+        <v>23456986</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3635153</v>
+        <v>3613456</v>
       </c>
       <c r="E7" t="n">
-        <v>22208883</v>
+        <v>22074934</v>
       </c>
       <c r="F7" t="n">
-        <v>3732.918502033965</v>
+        <v>3510.239510695781</v>
       </c>
       <c r="G7" t="n">
-        <v>2776.873837883289</v>
+        <v>1230.668599723302</v>
       </c>
       <c r="H7" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>1456478</v>
+        <v>1079481</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>155139</v>
+        <v>152176</v>
       </c>
       <c r="E8" t="n">
-        <v>1706702</v>
+        <v>1674099</v>
       </c>
       <c r="F8" t="n">
-        <v>2117.622881845805</v>
+        <v>2519.772228421067</v>
       </c>
       <c r="G8" t="n">
-        <v>1926.498749063273</v>
+        <v>2719.962909352197</v>
       </c>
       <c r="H8" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I8" t="n">
-        <v>70872</v>
+        <v>71235</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64511057</v>
+        <v>62381656</v>
       </c>
       <c r="E9" t="n">
-        <v>111310517</v>
+        <v>107609436</v>
       </c>
       <c r="F9" t="n">
-        <v>12162.39540337984</v>
+        <v>11825.19511336029</v>
       </c>
       <c r="G9" t="n">
-        <v>9351.251275113735</v>
+        <v>8662.941521848956</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>565027</v>
+        <v>528558</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8556037</v>
+        <v>8607972</v>
       </c>
       <c r="E10" t="n">
-        <v>12110434</v>
+        <v>12183944</v>
       </c>
       <c r="F10" t="n">
-        <v>2895.21481028598</v>
+        <v>2906.18571214439</v>
       </c>
       <c r="G10" t="n">
-        <v>2670.443111982176</v>
+        <v>2129.087872379719</v>
       </c>
       <c r="H10" t="n">
         <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>11862.97</v>
+        <v>11940.62</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>371284338</v>
+        <v>350714869</v>
       </c>
       <c r="E11" t="n">
-        <v>371284338</v>
+        <v>350714869</v>
       </c>
       <c r="F11" t="n">
-        <v>25237.55478228557</v>
+        <v>13832.67306769583</v>
       </c>
       <c r="G11" t="n">
-        <v>30524.31790085823</v>
+        <v>17999.76071167549</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>32757121</v>
+        <v>31533220</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>267949</v>
+        <v>270760</v>
       </c>
       <c r="E12" t="n">
-        <v>1250812</v>
+        <v>1263934</v>
       </c>
       <c r="F12" t="n">
-        <v>1162.58702691638</v>
+        <v>45.12590926082511</v>
       </c>
       <c r="G12" t="n">
-        <v>346.113638658668</v>
+        <v>29.45946617556967</v>
       </c>
       <c r="H12" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="I12" t="n">
-        <v>731274</v>
+        <v>678730</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1824836</v>
+        <v>1695526</v>
       </c>
       <c r="F13" t="n">
-        <v>139.8857748012599</v>
+        <v>4414.760442329516</v>
       </c>
       <c r="G13" t="n">
-        <v>389.6145137351211</v>
+        <v>383.1568446326048</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>373409</v>
+        <v>347529</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10403490</v>
+        <v>10081333</v>
       </c>
       <c r="E14" t="n">
-        <v>25892405</v>
+        <v>25090614</v>
       </c>
       <c r="F14" t="n">
-        <v>961.5950205301048</v>
+        <v>991.6451030532241</v>
       </c>
       <c r="G14" t="n">
-        <v>868.4821375465943</v>
+        <v>968.0843804431373</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="I14" t="n">
-        <v>1065482</v>
+        <v>1138140</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>102292079</v>
+        <v>111532241</v>
       </c>
       <c r="E15" t="n">
-        <v>394463744</v>
+        <v>429839864</v>
       </c>
       <c r="F15" t="n">
-        <v>12706.59425728414</v>
+        <v>11949.78936406049</v>
       </c>
       <c r="G15" t="n">
-        <v>17363.09207083603</v>
+        <v>13746.25609111688</v>
       </c>
       <c r="H15" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="I15" t="n">
-        <v>18250714</v>
+        <v>54347417</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4011391</v>
+        <v>4129010</v>
       </c>
       <c r="E16" t="n">
-        <v>5904985</v>
+        <v>6078127</v>
       </c>
       <c r="F16" t="n">
-        <v>2872.031682338509</v>
+        <v>561.966776249642</v>
       </c>
       <c r="G16" t="n">
-        <v>4090.384400358252</v>
+        <v>622.0974753792674</v>
       </c>
       <c r="H16" t="n">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="I16" t="n">
-        <v>530325</v>
+        <v>652303</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>449753</v>
+        <v>479722</v>
       </c>
       <c r="E17" t="n">
-        <v>1854708</v>
+        <v>1978299</v>
       </c>
       <c r="F17" t="n">
-        <v>80.5734294953032</v>
+        <v>264.9503531863187</v>
       </c>
       <c r="G17" t="n">
-        <v>2651.459332447011</v>
+        <v>1105.874268643752</v>
       </c>
       <c r="H17" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>25461</v>
+        <v>26281</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>128618869</v>
+        <v>122715908</v>
       </c>
       <c r="E18" t="n">
-        <v>128618869</v>
+        <v>122715908</v>
       </c>
       <c r="F18" t="n">
-        <v>85792.91399130858</v>
+        <v>64453.45092389661</v>
       </c>
       <c r="G18" t="n">
-        <v>79378.80767029231</v>
+        <v>95657.37614299424</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I18" t="n">
-        <v>75199452</v>
+        <v>75070400</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68511009</v>
+        <v>66196051</v>
       </c>
       <c r="E19" t="n">
-        <v>351338506</v>
+        <v>339466930</v>
       </c>
       <c r="F19" t="n">
-        <v>12158.52601346266</v>
+        <v>9994.090120150471</v>
       </c>
       <c r="G19" t="n">
-        <v>20338.84856496436</v>
+        <v>9551.420058882302</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>34510680</v>
+        <v>29319286</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>209932680</v>
+        <v>209672109</v>
       </c>
       <c r="E20" t="n">
-        <v>209932680</v>
+        <v>209672109</v>
       </c>
       <c r="F20" t="n">
-        <v>23021.98362454161</v>
+        <v>28728.33456789502</v>
       </c>
       <c r="G20" t="n">
-        <v>64241.73831128132</v>
+        <v>35518.45935167796</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>45510165</v>
+        <v>62709359</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>137635624</v>
+        <v>128935174</v>
       </c>
       <c r="E21" t="n">
-        <v>181112385</v>
+        <v>169663609</v>
       </c>
       <c r="F21" t="n">
-        <v>11451.69892114407</v>
+        <v>16218.52695812504</v>
       </c>
       <c r="G21" t="n">
-        <v>29878.493121788</v>
+        <v>21941.23102923165</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I21" t="n">
-        <v>5755805</v>
+        <v>6456600</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80889016</v>
+        <v>76490616</v>
       </c>
       <c r="E22" t="n">
-        <v>226357944</v>
+        <v>214052941</v>
       </c>
       <c r="F22" t="n">
-        <v>40688.2023408131</v>
+        <v>30588.09235457011</v>
       </c>
       <c r="G22" t="n">
-        <v>32479.81157176732</v>
+        <v>43149.45072567738</v>
       </c>
       <c r="H22" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>114205609</v>
+        <v>81936809</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70545254</v>
+        <v>67041228</v>
       </c>
       <c r="E23" t="n">
-        <v>147081189</v>
+        <v>139775575</v>
       </c>
       <c r="F23" t="n">
-        <v>12245.07656220286</v>
+        <v>9023.81749112324</v>
       </c>
       <c r="G23" t="n">
-        <v>15999.06000918039</v>
+        <v>17636.18934974883</v>
       </c>
       <c r="H23" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I23" t="n">
-        <v>17024318</v>
+        <v>16294284</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>586277539</v>
+        <v>573928938</v>
       </c>
       <c r="E24" t="n">
-        <v>586277539</v>
+        <v>573928938</v>
       </c>
       <c r="F24" t="n">
-        <v>102438.9760680928</v>
+        <v>130370.6978014294</v>
       </c>
       <c r="G24" t="n">
-        <v>186652.7889187852</v>
+        <v>176077.498730553</v>
       </c>
       <c r="H24" t="n">
         <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>412896741</v>
+        <v>343796772</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>197419221</v>
+        <v>187854504</v>
       </c>
       <c r="E25" t="n">
-        <v>685852216</v>
+        <v>652623524</v>
       </c>
       <c r="F25" t="n">
-        <v>81337.43011066949</v>
+        <v>82182.39615748888</v>
       </c>
       <c r="G25" t="n">
-        <v>135065.0448213037</v>
+        <v>136344.8037037671</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>61176398</v>
+        <v>56074842</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5060057</v>
+        <v>4978026</v>
       </c>
       <c r="E26" t="n">
-        <v>6838392</v>
+        <v>6726638</v>
       </c>
       <c r="F26" t="n">
-        <v>2467.743175213783</v>
+        <v>3068.638247898663</v>
       </c>
       <c r="G26" t="n">
-        <v>3961.713911280131</v>
+        <v>3495.966541758126</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I26" t="n">
-        <v>6081068</v>
+        <v>5567312</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12130993</v>
+        <v>12086146</v>
       </c>
       <c r="F27" t="n">
-        <v>2503.655187244728</v>
+        <v>2595.408684780389</v>
       </c>
       <c r="G27" t="n">
-        <v>2273.629324789406</v>
+        <v>1991.334944937145</v>
       </c>
       <c r="H27" t="n">
         <v>0.04</v>
       </c>
       <c r="I27" t="n">
-        <v>215379</v>
+        <v>205638</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23183814</v>
+        <v>22336183</v>
       </c>
       <c r="E28" t="n">
-        <v>32723207</v>
+        <v>31526804</v>
       </c>
       <c r="F28" t="n">
-        <v>740.3471986512978</v>
+        <v>267.9159455982884</v>
       </c>
       <c r="G28" t="n">
-        <v>234.0422714979235</v>
+        <v>823.316293511784</v>
       </c>
       <c r="H28" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="I28" t="n">
-        <v>113157</v>
+        <v>94720</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>223027184</v>
+        <v>212273572</v>
       </c>
       <c r="E29" t="n">
-        <v>962709138</v>
+        <v>916290581</v>
       </c>
       <c r="F29" t="n">
-        <v>147687.049758869</v>
+        <v>122981.6554724306</v>
       </c>
       <c r="G29" t="n">
-        <v>164457.2897489297</v>
+        <v>155110.8001004824</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>123080376</v>
+        <v>118225969</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7694015</v>
+        <v>7412404</v>
       </c>
       <c r="E30" t="n">
-        <v>91649871</v>
+        <v>88263519</v>
       </c>
       <c r="F30" t="n">
-        <v>1747.441726709716</v>
+        <v>1726.695253597858</v>
       </c>
       <c r="G30" t="n">
-        <v>687.8936312599401</v>
+        <v>975.4535339308375</v>
       </c>
       <c r="H30" t="n">
         <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>141468</v>
+        <v>133677</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11682885</v>
+        <v>11813191</v>
       </c>
       <c r="E31" t="n">
-        <v>29207213</v>
+        <v>29532977</v>
       </c>
       <c r="F31" t="n">
-        <v>6770.486463887341</v>
+        <v>6395.3701557328</v>
       </c>
       <c r="G31" t="n">
-        <v>9013.504628216306</v>
+        <v>13143.19278909976</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>4400241</v>
+        <v>4737409</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18140748</v>
+        <v>17861210</v>
       </c>
       <c r="F32" t="n">
-        <v>4450.969207600525</v>
+        <v>2460.957499866676</v>
       </c>
       <c r="G32" t="n">
-        <v>3726.639426157399</v>
+        <v>4370.256222756741</v>
       </c>
       <c r="H32" t="n">
-        <v>0.55</v>
+        <v>0.17</v>
       </c>
       <c r="I32" t="n">
-        <v>41731</v>
+        <v>33372</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1521174</v>
+        <v>1550784</v>
       </c>
       <c r="E33" t="n">
-        <v>5666256</v>
+        <v>5776232</v>
       </c>
       <c r="F33" t="n">
-        <v>3539.554078405498</v>
+        <v>1313.865284520862</v>
       </c>
       <c r="G33" t="n">
-        <v>796.808353034796</v>
+        <v>908.8897771209636</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>1.26</v>
       </c>
       <c r="I33" t="n">
-        <v>599422</v>
+        <v>680583</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3818997</v>
+        <v>3537320</v>
       </c>
       <c r="E34" t="n">
-        <v>10997869</v>
+        <v>10186700</v>
       </c>
       <c r="F34" t="n">
-        <v>4166.73631924394</v>
+        <v>2841.797804176526</v>
       </c>
       <c r="G34" t="n">
-        <v>2637.765258789746</v>
+        <v>5042.258374241694</v>
       </c>
       <c r="H34" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>385069</v>
+        <v>398013</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10983880</v>
+        <v>10458025</v>
       </c>
       <c r="E35" t="n">
-        <v>53196684</v>
+        <v>50649885</v>
       </c>
       <c r="F35" t="n">
-        <v>6604.739651297849</v>
+        <v>7241.835535074124</v>
       </c>
       <c r="G35" t="n">
-        <v>5953.399145453124</v>
+        <v>6578.072511480277</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3111801</v>
+        <v>3096998</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1172461</v>
+        <v>1139531</v>
       </c>
       <c r="E36" t="n">
-        <v>7673728</v>
+        <v>7458202</v>
       </c>
       <c r="F36" t="n">
-        <v>978.7301255451503</v>
+        <v>3349.89501677445</v>
       </c>
       <c r="G36" t="n">
-        <v>3711.376257101826</v>
+        <v>3607.109903107298</v>
       </c>
       <c r="H36" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="I36" t="n">
-        <v>49095</v>
+        <v>47700</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1718555466</v>
+        <v>1665232455</v>
       </c>
       <c r="F37" t="n">
-        <v>76728.13776602504</v>
+        <v>76386.44014864025</v>
       </c>
       <c r="G37" t="n">
-        <v>66257.92854621852</v>
+        <v>74779.18910028237</v>
       </c>
       <c r="H37" t="n">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="I37" t="n">
-        <v>31908960</v>
+        <v>29569404</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1735558</v>
+        <v>1727718</v>
       </c>
       <c r="E38" t="n">
-        <v>12445515</v>
+        <v>12389296</v>
       </c>
       <c r="F38" t="n">
-        <v>5433.544678107126</v>
+        <v>4573.573951975521</v>
       </c>
       <c r="G38" t="n">
-        <v>4346.390051492272</v>
+        <v>6555.717298097511</v>
       </c>
       <c r="H38" t="n">
-        <v>0.63</v>
+        <v>0.08</v>
       </c>
       <c r="I38" t="n">
-        <v>1844653</v>
+        <v>1785138</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>176200347</v>
+        <v>166866820</v>
       </c>
       <c r="E39" t="n">
-        <v>997754630</v>
+        <v>944902466</v>
       </c>
       <c r="F39" t="n">
-        <v>101374.9418332647</v>
+        <v>99532.78522198845</v>
       </c>
       <c r="G39" t="n">
-        <v>142605.0764761759</v>
+        <v>134233.3266900818</v>
       </c>
       <c r="H39" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I39" t="n">
-        <v>66085946</v>
+        <v>59624828</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>95508357</v>
+        <v>89092105</v>
       </c>
       <c r="E40" t="n">
-        <v>707469309</v>
+        <v>659941519</v>
       </c>
       <c r="F40" t="n">
-        <v>224107.7767131853</v>
+        <v>193800.6777848748</v>
       </c>
       <c r="G40" t="n">
-        <v>227699.0018108441</v>
+        <v>217789.461935708</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>11934076</v>
+        <v>10200583</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>290369198</v>
+        <v>281245418</v>
       </c>
       <c r="E41" t="n">
-        <v>2612341357</v>
+        <v>2530258172</v>
       </c>
       <c r="F41" t="n">
-        <v>106936.4625490079</v>
+        <v>70864.83571392375</v>
       </c>
       <c r="G41" t="n">
-        <v>135352.5631262716</v>
+        <v>116256.4477235711</v>
       </c>
       <c r="H41" t="n">
         <v>0.08</v>
       </c>
       <c r="I41" t="n">
-        <v>44607361</v>
+        <v>45017755</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1607197</v>
+        <v>1602471</v>
       </c>
       <c r="E42" t="n">
-        <v>13393306</v>
+        <v>13353923</v>
       </c>
       <c r="F42" t="n">
-        <v>4705.861136362575</v>
+        <v>602.7438821760157</v>
       </c>
       <c r="G42" t="n">
-        <v>353.0906838655501</v>
+        <v>4120.516538568239</v>
       </c>
       <c r="H42" t="n">
-        <v>1.26</v>
+        <v>0.53</v>
       </c>
       <c r="I42" t="n">
-        <v>40146</v>
+        <v>38882</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19821402</v>
+        <v>20194193</v>
       </c>
       <c r="E43" t="n">
-        <v>58754535</v>
+        <v>59853148</v>
       </c>
       <c r="F43" t="n">
-        <v>2406.98399350541</v>
+        <v>10248.36461249744</v>
       </c>
       <c r="G43" t="n">
-        <v>10426.76411478274</v>
+        <v>10003.18793857</v>
       </c>
       <c r="H43" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I43" t="n">
-        <v>8047137</v>
+        <v>9183371</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7579918</v>
+        <v>7783904</v>
       </c>
       <c r="F44" t="n">
-        <v>1754.105535872861</v>
+        <v>2620.819771709413</v>
       </c>
       <c r="G44" t="n">
-        <v>2062.931775449536</v>
+        <v>2916.761412002933</v>
       </c>
       <c r="H44" t="n">
         <v>0.13</v>
       </c>
       <c r="I44" t="n">
-        <v>74197</v>
+        <v>72623</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10437360</v>
+        <v>9840403</v>
       </c>
       <c r="E45" t="n">
-        <v>10437360</v>
+        <v>9840403</v>
       </c>
       <c r="F45" t="n">
-        <v>112.8423406575941</v>
+        <v>59.32632549205704</v>
       </c>
       <c r="G45" t="n">
-        <v>1149.264317346305</v>
+        <v>601.3056213876331</v>
       </c>
       <c r="H45" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2037553</v>
+        <v>2262811</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>259872500</v>
+        <v>233934971</v>
       </c>
       <c r="E46" t="n">
-        <v>259872500</v>
+        <v>233934971</v>
       </c>
       <c r="F46" t="n">
-        <v>16933.63161241601</v>
+        <v>7802.411480217027</v>
       </c>
       <c r="G46" t="n">
-        <v>21383.861915146</v>
+        <v>12355.54933152506</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="I46" t="n">
-        <v>13814300</v>
+        <v>13113406</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10822251</v>
+        <v>10132283</v>
       </c>
       <c r="E47" t="n">
-        <v>34210360</v>
+        <v>32027795</v>
       </c>
       <c r="F47" t="n">
-        <v>9307.976553441</v>
+        <v>9481.394716379624</v>
       </c>
       <c r="G47" t="n">
-        <v>6935.884212811238</v>
+        <v>8023.947119410168</v>
       </c>
       <c r="H47" t="n">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>3027117</v>
+        <v>3166139</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>28951425</v>
+        <v>26130237</v>
       </c>
       <c r="E48" t="n">
-        <v>80192575</v>
+        <v>72378163</v>
       </c>
       <c r="F48" t="n">
-        <v>7128.76211818195</v>
+        <v>6159.178139478635</v>
       </c>
       <c r="G48" t="n">
-        <v>5041.615869348369</v>
+        <v>2896.947863427833</v>
       </c>
       <c r="H48" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="I48" t="n">
-        <v>9761539</v>
+        <v>9510740</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>26620620</v>
+        <v>25003449</v>
       </c>
       <c r="E49" t="n">
-        <v>63141558</v>
+        <v>59305782</v>
       </c>
       <c r="F49" t="n">
-        <v>11321.92480655084</v>
+        <v>17188.17817834843</v>
       </c>
       <c r="G49" t="n">
-        <v>15891.55513743805</v>
+        <v>15690.61626851455</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I49" t="n">
-        <v>574305</v>
+        <v>504096</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11530547</v>
+        <v>11764277</v>
       </c>
       <c r="E50" t="n">
-        <v>17426310</v>
+        <v>17758421</v>
       </c>
       <c r="F50" t="n">
-        <v>5426.80224876185</v>
+        <v>5018.360481173563</v>
       </c>
       <c r="G50" t="n">
-        <v>3616.790771973133</v>
+        <v>18955.70427275816</v>
       </c>
       <c r="H50" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I50" t="n">
-        <v>615765</v>
+        <v>634613</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>273267710</v>
+        <v>261891753</v>
       </c>
       <c r="E51" t="n">
-        <v>273267710</v>
+        <v>261891753</v>
       </c>
       <c r="F51" t="n">
-        <v>47372.82166388554</v>
+        <v>45467.28600270176</v>
       </c>
       <c r="G51" t="n">
-        <v>64587.27713783152</v>
+        <v>67731.87276958933</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I51" t="n">
-        <v>85073582</v>
+        <v>85565866</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>78611484</v>
+        <v>74623125</v>
       </c>
       <c r="E52" t="n">
-        <v>452993279</v>
+        <v>430010635</v>
       </c>
       <c r="F52" t="n">
-        <v>8297.745036574637</v>
+        <v>225587.2438815362</v>
       </c>
       <c r="G52" t="n">
-        <v>184637.6615856189</v>
+        <v>235461.2164404359</v>
       </c>
       <c r="H52" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I52" t="n">
-        <v>21307140</v>
+        <v>19021749</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29868080</v>
+        <v>29363990</v>
       </c>
       <c r="E53" t="n">
-        <v>133731645</v>
+        <v>131474627</v>
       </c>
       <c r="F53" t="n">
-        <v>23017.70124835833</v>
+        <v>25410.60445384038</v>
       </c>
       <c r="G53" t="n">
-        <v>14458.17740757011</v>
+        <v>23931.29952172109</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I53" t="n">
-        <v>20441871</v>
+        <v>17158191</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>6920641</v>
+        <v>6933874</v>
       </c>
       <c r="F54" t="n">
-        <v>3189.259363422287</v>
+        <v>2811.478973661715</v>
       </c>
       <c r="G54" t="n">
-        <v>4631.350354803449</v>
+        <v>4622.426951673627</v>
       </c>
       <c r="H54" t="n">
         <v>0.29</v>
       </c>
       <c r="I54" t="n">
-        <v>311126</v>
+        <v>46113</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4051397</v>
+        <v>4055030</v>
       </c>
       <c r="F55" t="n">
-        <v>4010.144332597644</v>
+        <v>7128.203727469519</v>
       </c>
       <c r="G55" t="n">
-        <v>1301.197537469025</v>
+        <v>1077.048578683572</v>
       </c>
       <c r="H55" t="n">
         <v>0.1</v>
       </c>
       <c r="I55" t="n">
-        <v>228937</v>
+        <v>194395</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122099558</v>
+        <v>122604628</v>
       </c>
       <c r="E56" t="n">
-        <v>2022068678</v>
+        <v>2030433056</v>
       </c>
       <c r="F56" t="n">
-        <v>167054.781033928</v>
+        <v>172598.0732978149</v>
       </c>
       <c r="G56" t="n">
-        <v>183271.5243732741</v>
+        <v>173993.5217582829</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>13468313</v>
+        <v>7071674</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>73283564</v>
+        <v>69980204</v>
       </c>
       <c r="E57" t="n">
-        <v>74072356</v>
+        <v>70733439</v>
       </c>
       <c r="F57" t="n">
-        <v>18336.6779317804</v>
+        <v>13079.59687503952</v>
       </c>
       <c r="G57" t="n">
-        <v>34214.65453806594</v>
+        <v>33767.17031887601</v>
       </c>
       <c r="H57" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>8813378</v>
+        <v>7432401</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>256266120</v>
+        <v>244580678</v>
       </c>
       <c r="E58" t="n">
-        <v>256266120</v>
+        <v>244580678</v>
       </c>
       <c r="F58" t="n">
-        <v>57814.0495740327</v>
+        <v>64511.64225871534</v>
       </c>
       <c r="G58" t="n">
-        <v>101083.9411945566</v>
+        <v>104652.191794499</v>
       </c>
       <c r="H58" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I58" t="n">
-        <v>65293101</v>
+        <v>55217969</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22355686</v>
+        <v>21558135</v>
       </c>
       <c r="E59" t="n">
-        <v>133758566</v>
+        <v>128986657</v>
       </c>
       <c r="F59" t="n">
-        <v>64093.54224022246</v>
+        <v>69116.370178613</v>
       </c>
       <c r="G59" t="n">
-        <v>32808.65882624426</v>
+        <v>10164.71423716433</v>
       </c>
       <c r="H59" t="n">
         <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>21588195</v>
+        <v>16656006</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2096716</v>
+        <v>2070408</v>
       </c>
       <c r="E60" t="n">
-        <v>3869608</v>
+        <v>3821056</v>
       </c>
       <c r="F60" t="n">
-        <v>4015.546358870772</v>
+        <v>2363.157341733497</v>
       </c>
       <c r="G60" t="n">
-        <v>1950.173426679124</v>
+        <v>3628.317670106389</v>
       </c>
       <c r="H60" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I60" t="n">
-        <v>34048</v>
+        <v>26371</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10000701</v>
+        <v>9198009</v>
       </c>
       <c r="E62" t="n">
-        <v>29208023</v>
+        <v>26863642</v>
       </c>
       <c r="F62" t="n">
-        <v>4331.719991847616</v>
+        <v>6067.017223214543</v>
       </c>
       <c r="G62" t="n">
-        <v>4205.609310419712</v>
+        <v>4282.085184942398</v>
       </c>
       <c r="H62" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I62" t="n">
-        <v>5630488</v>
+        <v>5103208</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13337001</v>
+        <v>13411239</v>
       </c>
       <c r="E63" t="n">
-        <v>26999945</v>
+        <v>27150234</v>
       </c>
       <c r="F63" t="n">
-        <v>4621.752593651535</v>
+        <v>4718.408499236453</v>
       </c>
       <c r="G63" t="n">
-        <v>18369.59850975612</v>
+        <v>16506.95738845438</v>
       </c>
       <c r="H63" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I63" t="n">
-        <v>502602</v>
+        <v>504709</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>29541182</v>
+        <v>27102860</v>
       </c>
       <c r="E64" t="n">
-        <v>209442164</v>
+        <v>192154855</v>
       </c>
       <c r="F64" t="n">
-        <v>39942.54164892992</v>
+        <v>34338.37251549136</v>
       </c>
       <c r="G64" t="n">
-        <v>59059.2174539101</v>
+        <v>22504.80087047298</v>
       </c>
       <c r="H64" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I64" t="n">
-        <v>3817980</v>
+        <v>3549114</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1183428</v>
+        <v>1178501</v>
       </c>
       <c r="E65" t="n">
-        <v>7308276</v>
+        <v>7277885</v>
       </c>
       <c r="F65" t="n">
-        <v>2141.513117967606</v>
+        <v>2415.659963060337</v>
       </c>
       <c r="G65" t="n">
-        <v>3318.823554554157</v>
+        <v>3319.962633623178</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I65" t="n">
-        <v>560748</v>
+        <v>545793</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>560572823</v>
+        <v>526799145</v>
       </c>
       <c r="E66" t="n">
-        <v>2171015835</v>
+        <v>2040215364</v>
       </c>
       <c r="F66" t="n">
-        <v>148824.1425005136</v>
+        <v>133263.9328957896</v>
       </c>
       <c r="G66" t="n">
-        <v>177725.0580194693</v>
+        <v>177270.6264246268</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I66" t="n">
-        <v>43985497</v>
+        <v>34524402</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5164391</v>
+        <v>5172273</v>
       </c>
       <c r="E67" t="n">
-        <v>22809292</v>
+        <v>22844106</v>
       </c>
       <c r="F67" t="n">
-        <v>4860.254600086294</v>
+        <v>4836.491868485062</v>
       </c>
       <c r="G67" t="n">
-        <v>3484.61480201156</v>
+        <v>3621.446872246233</v>
       </c>
       <c r="H67" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I67" t="n">
-        <v>159556</v>
+        <v>146770</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>100483049</v>
+        <v>104704972</v>
       </c>
       <c r="E68" t="n">
-        <v>950746768</v>
+        <v>990693602</v>
       </c>
       <c r="F68" t="n">
-        <v>4266.258101733699</v>
+        <v>6943.53795543669</v>
       </c>
       <c r="G68" t="n">
-        <v>18961.26354468536</v>
+        <v>22289.78275136656</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>22326363</v>
+        <v>47543754</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>69522019</v>
+        <v>66702691</v>
       </c>
       <c r="E69" t="n">
-        <v>106057470</v>
+        <v>101756519</v>
       </c>
       <c r="F69" t="n">
-        <v>48267.91767462111</v>
+        <v>57948.05893714672</v>
       </c>
       <c r="G69" t="n">
-        <v>70108.48934354422</v>
+        <v>59575.56726382083</v>
       </c>
       <c r="H69" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="I69" t="n">
-        <v>6142312</v>
+        <v>5606098</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1053262</v>
+        <v>1098113</v>
       </c>
       <c r="E70" t="n">
-        <v>4078460</v>
+        <v>4252131</v>
       </c>
       <c r="F70" t="n">
-        <v>2443.993311711179</v>
+        <v>2268.662753262616</v>
       </c>
       <c r="G70" t="n">
-        <v>2904.033705646608</v>
+        <v>2293.190809943736</v>
       </c>
       <c r="H70" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="I70" t="n">
-        <v>259066</v>
+        <v>256584</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>131062631</v>
+        <v>122306918</v>
       </c>
       <c r="E71" t="n">
-        <v>502777349</v>
+        <v>469189022</v>
       </c>
       <c r="F71" t="n">
-        <v>10341.5018284921</v>
+        <v>10880.91513689282</v>
       </c>
       <c r="G71" t="n">
-        <v>15205.85763657969</v>
+        <v>12095.91160220923</v>
       </c>
       <c r="H71" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>32769051</v>
+        <v>27421267</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2735553</v>
+        <v>2572563</v>
       </c>
       <c r="E72" t="n">
-        <v>25919772</v>
+        <v>24375418</v>
       </c>
       <c r="F72" t="n">
-        <v>4566.03630397799</v>
+        <v>4501.90435615834</v>
       </c>
       <c r="G72" t="n">
-        <v>2505.592484337917</v>
+        <v>2284.63893377715</v>
       </c>
       <c r="H72" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I72" t="n">
-        <v>158511</v>
+        <v>149504</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>26267463</v>
+        <v>27666170</v>
       </c>
       <c r="F73" t="n">
-        <v>1531.887046420324</v>
+        <v>1779.173078304948</v>
       </c>
       <c r="G73" t="n">
-        <v>6633.248165627646</v>
+        <v>4213.748093675294</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I73" t="n">
-        <v>7084896</v>
+        <v>7153961</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>115396560</v>
+        <v>115781757</v>
       </c>
       <c r="E74" t="n">
-        <v>420583926</v>
+        <v>421970254</v>
       </c>
       <c r="F74" t="n">
-        <v>1875.51685434154</v>
+        <v>1562.147748237895</v>
       </c>
       <c r="G74" t="n">
-        <v>1780.030932479102</v>
+        <v>1555.232917255914</v>
       </c>
       <c r="H74" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I74" t="n">
-        <v>306487</v>
+        <v>242351</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21105795</v>
+        <v>20885418</v>
       </c>
       <c r="E75" t="n">
-        <v>21105795</v>
+        <v>20885418</v>
       </c>
       <c r="F75" t="n">
-        <v>5868.828833795023</v>
+        <v>4856.112509099748</v>
       </c>
       <c r="G75" t="n">
-        <v>5478.541290049048</v>
+        <v>6517.197533181366</v>
       </c>
       <c r="H75" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>7814643</v>
+        <v>6225718</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>402944637</v>
+        <v>395228244</v>
       </c>
       <c r="E76" t="n">
-        <v>1398362246</v>
+        <v>1370890553</v>
       </c>
       <c r="F76" t="n">
-        <v>119355.2030874388</v>
+        <v>158198.089185351</v>
       </c>
       <c r="G76" t="n">
-        <v>136891.0232025445</v>
+        <v>169978.4580195617</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I76" t="n">
-        <v>50885550</v>
+        <v>52405768</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4731285750</v>
+        <v>4450603977</v>
       </c>
       <c r="E77" t="n">
-        <v>4731285750</v>
+        <v>4450713763</v>
       </c>
       <c r="F77" t="n">
-        <v>18256.82843220402</v>
+        <v>17033.82633547348</v>
       </c>
       <c r="G77" t="n">
-        <v>18354.24972057623</v>
+        <v>20591.23570027674</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I77" t="n">
-        <v>70893944</v>
+        <v>15056262</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7061671</v>
+        <v>7064742</v>
       </c>
       <c r="E78" t="n">
-        <v>18345461</v>
+        <v>18353441</v>
       </c>
       <c r="F78" t="n">
-        <v>191.7021061917887</v>
+        <v>10778.3113924377</v>
       </c>
       <c r="G78" t="n">
-        <v>275.0902373776461</v>
+        <v>3656.732085696388</v>
       </c>
       <c r="H78" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I78" t="n">
-        <v>951603</v>
+        <v>880784</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>88268140</v>
+        <v>83717527</v>
       </c>
       <c r="E79" t="n">
-        <v>131681087</v>
+        <v>124892345</v>
       </c>
       <c r="F79" t="n">
-        <v>39243.97300243441</v>
+        <v>40107.4414700096</v>
       </c>
       <c r="G79" t="n">
-        <v>43217.23877832427</v>
+        <v>40523.84934926428</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I79" t="n">
-        <v>8052303</v>
+        <v>7310057</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1951122</v>
+        <v>1749890</v>
       </c>
       <c r="E80" t="n">
-        <v>7804486</v>
+        <v>6999559</v>
       </c>
       <c r="F80" t="n">
-        <v>4495.099613203029</v>
+        <v>7757.142292431807</v>
       </c>
       <c r="G80" t="n">
-        <v>3451.272275639435</v>
+        <v>3437.004770772871</v>
       </c>
       <c r="H80" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="I80" t="n">
-        <v>6924277</v>
+        <v>6570218</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3452279</v>
+        <v>3505914</v>
       </c>
       <c r="F81" t="n">
-        <v>1667.297666948536</v>
+        <v>5210.515178260894</v>
       </c>
       <c r="G81" t="n">
-        <v>1238.546645872595</v>
+        <v>2858.734581210497</v>
       </c>
       <c r="H81" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I81" t="n">
-        <v>1704137</v>
+        <v>1710281</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>361848766</v>
+        <v>338492380</v>
       </c>
       <c r="E82" t="n">
-        <v>2067707236</v>
+        <v>1934242170</v>
       </c>
       <c r="F82" t="n">
-        <v>35616.0388579115</v>
+        <v>25594.21603760959</v>
       </c>
       <c r="G82" t="n">
-        <v>52305.35442754308</v>
+        <v>51923.41213958326</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I82" t="n">
-        <v>43755498</v>
+        <v>40687325</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4535571</v>
+        <v>4521224</v>
       </c>
       <c r="F2" t="n">
-        <v>1303.804900565213</v>
+        <v>2263.988724873017</v>
       </c>
       <c r="G2" t="n">
-        <v>2158.91721426293</v>
+        <v>1678.535606996736</v>
       </c>
       <c r="H2" t="n">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="I2" t="n">
-        <v>227817</v>
+        <v>278585</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1163825</v>
+        <v>1092398</v>
       </c>
       <c r="E3" t="n">
-        <v>3663922</v>
+        <v>3439060</v>
       </c>
       <c r="F3" t="n">
-        <v>6845.603342046645</v>
+        <v>4097.21090454474</v>
       </c>
       <c r="G3" t="n">
-        <v>6418.252301469929</v>
+        <v>5224.488506043528</v>
       </c>
       <c r="H3" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="I3" t="n">
-        <v>115557</v>
+        <v>116058</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>224398345</v>
+        <v>229289945</v>
       </c>
       <c r="E4" t="n">
-        <v>1407170477</v>
+        <v>1437845013</v>
       </c>
       <c r="F4" t="n">
-        <v>172500.7840161097</v>
+        <v>178188.2655664335</v>
       </c>
       <c r="G4" t="n">
-        <v>189631.7640170354</v>
+        <v>161741.5023550432</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>90028087</v>
+        <v>46409901</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>128915995</v>
+        <v>125594173</v>
       </c>
       <c r="E5" t="n">
-        <v>142859067</v>
+        <v>139177970</v>
       </c>
       <c r="F5" t="n">
-        <v>38976.56597827868</v>
+        <v>55013.38881887813</v>
       </c>
       <c r="G5" t="n">
-        <v>57946.09342648328</v>
+        <v>49331.80554297955</v>
       </c>
       <c r="H5" t="n">
         <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>52796785</v>
+        <v>44844253</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>114178673</v>
+        <v>112536809</v>
       </c>
       <c r="E6" t="n">
-        <v>408947369</v>
+        <v>403066796</v>
       </c>
       <c r="F6" t="n">
-        <v>9598.041641709955</v>
+        <v>8006.363053592383</v>
       </c>
       <c r="G6" t="n">
-        <v>9230.221374457557</v>
+        <v>9440.399330327173</v>
       </c>
       <c r="H6" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>23456986</v>
+        <v>22012111</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3613456</v>
+        <v>3624325</v>
       </c>
       <c r="E7" t="n">
-        <v>22074934</v>
+        <v>22122604</v>
       </c>
       <c r="F7" t="n">
-        <v>3510.239510695781</v>
+        <v>2447.152906653408</v>
       </c>
       <c r="G7" t="n">
-        <v>1230.668599723302</v>
+        <v>2445.108604870789</v>
       </c>
       <c r="H7" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I7" t="n">
-        <v>1079481</v>
+        <v>887056</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>152176</v>
+        <v>148807</v>
       </c>
       <c r="E8" t="n">
-        <v>1674099</v>
+        <v>1637040</v>
       </c>
       <c r="F8" t="n">
-        <v>2519.772228421067</v>
+        <v>2468.945054823238</v>
       </c>
       <c r="G8" t="n">
-        <v>2719.962909352197</v>
+        <v>1447.877760309733</v>
       </c>
       <c r="H8" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I8" t="n">
-        <v>71235</v>
+        <v>74548</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>62381656</v>
+        <v>64099449</v>
       </c>
       <c r="E9" t="n">
-        <v>107609436</v>
+        <v>110558181</v>
       </c>
       <c r="F9" t="n">
-        <v>11825.19511336029</v>
+        <v>4257.528044114879</v>
       </c>
       <c r="G9" t="n">
-        <v>8662.941521848956</v>
+        <v>5364.506430395368</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>528558</v>
+        <v>681626</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8607972</v>
+        <v>8417694</v>
       </c>
       <c r="E10" t="n">
-        <v>12183944</v>
+        <v>11914621</v>
       </c>
       <c r="F10" t="n">
-        <v>2906.18571214439</v>
+        <v>2861.787941866277</v>
       </c>
       <c r="G10" t="n">
-        <v>2129.087872379719</v>
+        <v>2700.718054448747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="I10" t="n">
-        <v>11940.62</v>
+        <v>27144</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>350714869</v>
+        <v>339928113</v>
       </c>
       <c r="E11" t="n">
-        <v>350714869</v>
+        <v>339928113</v>
       </c>
       <c r="F11" t="n">
-        <v>13832.67306769583</v>
+        <v>16691.05129961099</v>
       </c>
       <c r="G11" t="n">
-        <v>17999.76071167549</v>
+        <v>68202.97273258398</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>31533220</v>
+        <v>29451036</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>270760</v>
+        <v>259102</v>
       </c>
       <c r="E12" t="n">
-        <v>1263934</v>
+        <v>1209514</v>
       </c>
       <c r="F12" t="n">
-        <v>45.12590926082511</v>
+        <v>243.1666824051604</v>
       </c>
       <c r="G12" t="n">
-        <v>29.45946617556967</v>
+        <v>876.1671246993317</v>
       </c>
       <c r="H12" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="I12" t="n">
-        <v>678730</v>
+        <v>635224</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1695526</v>
+        <v>1675643</v>
       </c>
       <c r="F13" t="n">
-        <v>4414.760442329516</v>
+        <v>3080.626962188867</v>
       </c>
       <c r="G13" t="n">
-        <v>383.1568446326048</v>
+        <v>540.9696976702556</v>
       </c>
       <c r="H13" t="n">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
       <c r="I13" t="n">
-        <v>347529</v>
+        <v>366960</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10081333</v>
+        <v>9877737</v>
       </c>
       <c r="E14" t="n">
-        <v>25090614</v>
+        <v>24583900</v>
       </c>
       <c r="F14" t="n">
-        <v>991.6451030532241</v>
+        <v>815.7253301315847</v>
       </c>
       <c r="G14" t="n">
-        <v>968.0843804431373</v>
+        <v>1063.603803280004</v>
       </c>
       <c r="H14" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="I14" t="n">
-        <v>1138140</v>
+        <v>1167425</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>111532241</v>
+        <v>106985811</v>
       </c>
       <c r="E15" t="n">
-        <v>429839864</v>
+        <v>412186558</v>
       </c>
       <c r="F15" t="n">
-        <v>11949.78936406049</v>
+        <v>14695.74710967053</v>
       </c>
       <c r="G15" t="n">
-        <v>13746.25609111688</v>
+        <v>15983.71238226154</v>
       </c>
       <c r="H15" t="n">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>54347417</v>
+        <v>56974445</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4129010</v>
+        <v>4008333</v>
       </c>
       <c r="E16" t="n">
-        <v>6078127</v>
+        <v>5900483</v>
       </c>
       <c r="F16" t="n">
-        <v>561.966776249642</v>
+        <v>3340.471391339052</v>
       </c>
       <c r="G16" t="n">
-        <v>622.0974753792674</v>
+        <v>2301.133526248338</v>
       </c>
       <c r="H16" t="n">
-        <v>0.37</v>
+        <v>0.82</v>
       </c>
       <c r="I16" t="n">
-        <v>652303</v>
+        <v>627903</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>479722</v>
+        <v>525632</v>
       </c>
       <c r="E17" t="n">
-        <v>1978299</v>
+        <v>2167623</v>
       </c>
       <c r="F17" t="n">
-        <v>264.9503531863187</v>
+        <v>1245.479790454533</v>
       </c>
       <c r="G17" t="n">
-        <v>1105.874268643752</v>
+        <v>761.785894681816</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="I17" t="n">
-        <v>26281</v>
+        <v>114250</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>122715908</v>
+        <v>119334615</v>
       </c>
       <c r="E18" t="n">
-        <v>122715908</v>
+        <v>119334615</v>
       </c>
       <c r="F18" t="n">
-        <v>64453.45092389661</v>
+        <v>67961.06903766951</v>
       </c>
       <c r="G18" t="n">
-        <v>95657.37614299424</v>
+        <v>112315.4037104505</v>
       </c>
       <c r="H18" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I18" t="n">
-        <v>75070400</v>
+        <v>66484082</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66196051</v>
+        <v>63192884</v>
       </c>
       <c r="E19" t="n">
-        <v>339466930</v>
+        <v>324066070</v>
       </c>
       <c r="F19" t="n">
-        <v>9994.090120150471</v>
+        <v>10425.17088908345</v>
       </c>
       <c r="G19" t="n">
-        <v>9551.420058882302</v>
+        <v>11541.10835059877</v>
       </c>
       <c r="H19" t="n">
         <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>29319286</v>
+        <v>27858296</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>209672109</v>
+        <v>203412606</v>
       </c>
       <c r="E20" t="n">
-        <v>209672109</v>
+        <v>203412606</v>
       </c>
       <c r="F20" t="n">
-        <v>28728.33456789502</v>
+        <v>22942.06766322432</v>
       </c>
       <c r="G20" t="n">
-        <v>35518.45935167796</v>
+        <v>46959.07973256749</v>
       </c>
       <c r="H20" t="n">
         <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>62709359</v>
+        <v>65700885</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>128935174</v>
+        <v>121263659</v>
       </c>
       <c r="E21" t="n">
-        <v>169663609</v>
+        <v>159568794</v>
       </c>
       <c r="F21" t="n">
-        <v>16218.52695812504</v>
+        <v>26984.7374284995</v>
       </c>
       <c r="G21" t="n">
-        <v>21941.23102923165</v>
+        <v>17484.83120676466</v>
       </c>
       <c r="H21" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>6456600</v>
+        <v>7461691</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>76490616</v>
+        <v>76683684</v>
       </c>
       <c r="E22" t="n">
-        <v>214052941</v>
+        <v>214817578</v>
       </c>
       <c r="F22" t="n">
-        <v>30588.09235457011</v>
+        <v>41021.11125090857</v>
       </c>
       <c r="G22" t="n">
-        <v>43149.45072567738</v>
+        <v>35390.75906319502</v>
       </c>
       <c r="H22" t="n">
         <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>81936809</v>
+        <v>79576503</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67041228</v>
+        <v>66342764</v>
       </c>
       <c r="E23" t="n">
-        <v>139775575</v>
+        <v>138319335</v>
       </c>
       <c r="F23" t="n">
-        <v>9023.81749112324</v>
+        <v>16596.37021657988</v>
       </c>
       <c r="G23" t="n">
-        <v>17636.18934974883</v>
+        <v>16280.92519015991</v>
       </c>
       <c r="H23" t="n">
         <v>0.16</v>
       </c>
       <c r="I23" t="n">
-        <v>16294284</v>
+        <v>17009231</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>573928938</v>
+        <v>566330531</v>
       </c>
       <c r="E24" t="n">
-        <v>573928938</v>
+        <v>566330531</v>
       </c>
       <c r="F24" t="n">
-        <v>130370.6978014294</v>
+        <v>135682.2494377045</v>
       </c>
       <c r="G24" t="n">
-        <v>176077.498730553</v>
+        <v>176385.2094799404</v>
       </c>
       <c r="H24" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>343796772</v>
+        <v>381415425</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>187854504</v>
+        <v>184870335</v>
       </c>
       <c r="E25" t="n">
-        <v>652623524</v>
+        <v>642256252</v>
       </c>
       <c r="F25" t="n">
-        <v>82182.39615748888</v>
+        <v>78257.51011819307</v>
       </c>
       <c r="G25" t="n">
-        <v>136344.8037037671</v>
+        <v>130303.542740057</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I25" t="n">
-        <v>56074842</v>
+        <v>52131199</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4978026</v>
+        <v>4945411</v>
       </c>
       <c r="E26" t="n">
-        <v>6726638</v>
+        <v>6682344</v>
       </c>
       <c r="F26" t="n">
-        <v>3068.638247898663</v>
+        <v>2823.931424042749</v>
       </c>
       <c r="G26" t="n">
-        <v>3495.966541758126</v>
+        <v>3682.271653528278</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="I26" t="n">
-        <v>5567312</v>
+        <v>5703547</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12086146</v>
+        <v>11957490</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.408684780389</v>
+        <v>3033.595438524123</v>
       </c>
       <c r="G27" t="n">
-        <v>1991.334944937145</v>
+        <v>2131.365880928373</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>205638</v>
+        <v>229606</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22336183</v>
+        <v>21888288</v>
       </c>
       <c r="E28" t="n">
-        <v>31526804</v>
+        <v>30894332</v>
       </c>
       <c r="F28" t="n">
-        <v>267.9159455982884</v>
+        <v>524.1947940762537</v>
       </c>
       <c r="G28" t="n">
-        <v>823.316293511784</v>
+        <v>3956.906851783659</v>
       </c>
       <c r="H28" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="I28" t="n">
-        <v>94720</v>
+        <v>95051</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>212273572</v>
+        <v>203998678</v>
       </c>
       <c r="E29" t="n">
-        <v>916290581</v>
+        <v>880571542</v>
       </c>
       <c r="F29" t="n">
-        <v>122981.6554724306</v>
+        <v>144787.7306982543</v>
       </c>
       <c r="G29" t="n">
-        <v>155110.8001004824</v>
+        <v>169900.0648300593</v>
       </c>
       <c r="H29" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I29" t="n">
-        <v>118225969</v>
+        <v>122767034</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7412404</v>
+        <v>7316709</v>
       </c>
       <c r="E30" t="n">
-        <v>88263519</v>
+        <v>87107712</v>
       </c>
       <c r="F30" t="n">
-        <v>1726.695253597858</v>
+        <v>3153.779715691146</v>
       </c>
       <c r="G30" t="n">
-        <v>975.4535339308375</v>
+        <v>823.737336360329</v>
       </c>
       <c r="H30" t="n">
         <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>133677</v>
+        <v>129837</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11813191</v>
+        <v>11760742</v>
       </c>
       <c r="E31" t="n">
-        <v>29532977</v>
+        <v>29401856</v>
       </c>
       <c r="F31" t="n">
-        <v>6395.3701557328</v>
+        <v>10425.62526199576</v>
       </c>
       <c r="G31" t="n">
-        <v>13143.19278909976</v>
+        <v>7377.370405299186</v>
       </c>
       <c r="H31" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4737409</v>
+        <v>5312951</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17861210</v>
+        <v>17197679</v>
       </c>
       <c r="F32" t="n">
-        <v>2460.957499866676</v>
+        <v>3614.819763612235</v>
       </c>
       <c r="G32" t="n">
-        <v>4370.256222756741</v>
+        <v>4866.370591396274</v>
       </c>
       <c r="H32" t="n">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="I32" t="n">
-        <v>33372</v>
+        <v>35405</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1550784</v>
+        <v>1466871</v>
       </c>
       <c r="E33" t="n">
-        <v>5776232</v>
+        <v>5463554</v>
       </c>
       <c r="F33" t="n">
-        <v>1313.865284520862</v>
+        <v>2870.624935524382</v>
       </c>
       <c r="G33" t="n">
-        <v>908.8897771209636</v>
+        <v>950.6647072113967</v>
       </c>
       <c r="H33" t="n">
-        <v>1.26</v>
+        <v>0.61</v>
       </c>
       <c r="I33" t="n">
-        <v>680583</v>
+        <v>637668</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3537320</v>
+        <v>3445325</v>
       </c>
       <c r="E34" t="n">
-        <v>10186700</v>
+        <v>9921775</v>
       </c>
       <c r="F34" t="n">
-        <v>2841.797804176526</v>
+        <v>2222.715573038554</v>
       </c>
       <c r="G34" t="n">
-        <v>5042.258374241694</v>
+        <v>2335.963010518778</v>
       </c>
       <c r="H34" t="n">
         <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>398013</v>
+        <v>369639</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10458025</v>
+        <v>10274608</v>
       </c>
       <c r="E35" t="n">
-        <v>50649885</v>
+        <v>49761567</v>
       </c>
       <c r="F35" t="n">
-        <v>7241.835535074124</v>
+        <v>6355.076804175369</v>
       </c>
       <c r="G35" t="n">
-        <v>6578.072511480277</v>
+        <v>8984.689061053306</v>
       </c>
       <c r="H35" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="I35" t="n">
-        <v>3096998</v>
+        <v>3223600</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1139531</v>
+        <v>1076777</v>
       </c>
       <c r="E36" t="n">
-        <v>7458202</v>
+        <v>7047477</v>
       </c>
       <c r="F36" t="n">
-        <v>3349.89501677445</v>
+        <v>924.7884433645805</v>
       </c>
       <c r="G36" t="n">
-        <v>3607.109903107298</v>
+        <v>3731.71328146286</v>
       </c>
       <c r="H36" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="I36" t="n">
-        <v>47700</v>
+        <v>58165</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1665232455</v>
+        <v>1643740753</v>
       </c>
       <c r="F37" t="n">
-        <v>76386.44014864025</v>
+        <v>75645.85880595782</v>
       </c>
       <c r="G37" t="n">
-        <v>74779.18910028237</v>
+        <v>66809.11290398448</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="I37" t="n">
-        <v>29569404</v>
+        <v>29591175</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1727718</v>
+        <v>1622386</v>
       </c>
       <c r="E38" t="n">
-        <v>12389296</v>
+        <v>11633970</v>
       </c>
       <c r="F38" t="n">
-        <v>4573.573951975521</v>
+        <v>71.80475589832808</v>
       </c>
       <c r="G38" t="n">
-        <v>6555.717298097511</v>
+        <v>446.3005443842708</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I38" t="n">
-        <v>1785138</v>
+        <v>1749773</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>166866820</v>
+        <v>160611693</v>
       </c>
       <c r="E39" t="n">
-        <v>944902466</v>
+        <v>909482090</v>
       </c>
       <c r="F39" t="n">
-        <v>99532.78522198845</v>
+        <v>90393.61128234789</v>
       </c>
       <c r="G39" t="n">
-        <v>134233.3266900818</v>
+        <v>119531.9035442099</v>
       </c>
       <c r="H39" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I39" t="n">
-        <v>59624828</v>
+        <v>68706618</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>89092105</v>
+        <v>87867435</v>
       </c>
       <c r="E40" t="n">
-        <v>659941519</v>
+        <v>650869887</v>
       </c>
       <c r="F40" t="n">
-        <v>193800.6777848748</v>
+        <v>180634.9047927553</v>
       </c>
       <c r="G40" t="n">
-        <v>217789.461935708</v>
+        <v>215577.4151598723</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>10200583</v>
+        <v>10691024</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>281245418</v>
+        <v>270260316</v>
       </c>
       <c r="E41" t="n">
-        <v>2530258172</v>
+        <v>2431429388</v>
       </c>
       <c r="F41" t="n">
-        <v>70864.83571392375</v>
+        <v>101057.376260918</v>
       </c>
       <c r="G41" t="n">
-        <v>116256.4477235711</v>
+        <v>120031.3258972743</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>45017755</v>
+        <v>50885767</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1602471</v>
+        <v>1580323</v>
       </c>
       <c r="E42" t="n">
-        <v>13353923</v>
+        <v>13169360</v>
       </c>
       <c r="F42" t="n">
-        <v>602.7438821760157</v>
+        <v>3677.211806170153</v>
       </c>
       <c r="G42" t="n">
-        <v>4120.516538568239</v>
+        <v>3591.98296786991</v>
       </c>
       <c r="H42" t="n">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="I42" t="n">
-        <v>38882</v>
+        <v>40004</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20194193</v>
+        <v>21119872</v>
       </c>
       <c r="E43" t="n">
-        <v>59853148</v>
+        <v>62596448</v>
       </c>
       <c r="F43" t="n">
-        <v>10248.36461249744</v>
+        <v>18854.0797592889</v>
       </c>
       <c r="G43" t="n">
-        <v>10003.18793857</v>
+        <v>16177.35259355562</v>
       </c>
       <c r="H43" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="I43" t="n">
-        <v>9183371</v>
+        <v>10183226</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7783904</v>
+        <v>9343524</v>
       </c>
       <c r="F44" t="n">
-        <v>2620.819771709413</v>
+        <v>2378.343385536603</v>
       </c>
       <c r="G44" t="n">
-        <v>2916.761412002933</v>
+        <v>3016.816906039419</v>
       </c>
       <c r="H44" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I44" t="n">
-        <v>72623</v>
+        <v>141474</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9840403</v>
+        <v>9658931</v>
       </c>
       <c r="E45" t="n">
-        <v>9840403</v>
+        <v>9658931</v>
       </c>
       <c r="F45" t="n">
-        <v>59.32632549205704</v>
+        <v>170.4242277275354</v>
       </c>
       <c r="G45" t="n">
-        <v>601.3056213876331</v>
+        <v>579.1148915261296</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="I45" t="n">
-        <v>2262811</v>
+        <v>1961587</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>233934971</v>
+        <v>233576252</v>
       </c>
       <c r="E46" t="n">
-        <v>233934971</v>
+        <v>233576252</v>
       </c>
       <c r="F46" t="n">
-        <v>7802.411480217027</v>
+        <v>18413.34070863917</v>
       </c>
       <c r="G46" t="n">
-        <v>12355.54933152506</v>
+        <v>15947.44711080854</v>
       </c>
       <c r="H46" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I46" t="n">
-        <v>13113406</v>
+        <v>13985605</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10132283</v>
+        <v>11651869</v>
       </c>
       <c r="E47" t="n">
-        <v>32027795</v>
+        <v>30274941</v>
       </c>
       <c r="F47" t="n">
-        <v>9481.394716379624</v>
+        <v>8831.906316080658</v>
       </c>
       <c r="G47" t="n">
-        <v>8023.947119410168</v>
+        <v>9102.765095690673</v>
       </c>
       <c r="H47" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I47" t="n">
-        <v>3166139</v>
+        <v>3522588</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>26130237</v>
+        <v>25804842</v>
       </c>
       <c r="E48" t="n">
-        <v>72378163</v>
+        <v>71476850</v>
       </c>
       <c r="F48" t="n">
-        <v>6159.178139478635</v>
+        <v>6715.388753943074</v>
       </c>
       <c r="G48" t="n">
-        <v>2896.947863427833</v>
+        <v>2369.913335213021</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I48" t="n">
-        <v>9510740</v>
+        <v>9629699</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25003449</v>
+        <v>24686090</v>
       </c>
       <c r="E49" t="n">
-        <v>59305782</v>
+        <v>58553039</v>
       </c>
       <c r="F49" t="n">
-        <v>17188.17817834843</v>
+        <v>9993.540954676915</v>
       </c>
       <c r="G49" t="n">
-        <v>15690.61626851455</v>
+        <v>9342.422122032536</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>504096</v>
+        <v>429639</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11764277</v>
+        <v>11432353</v>
       </c>
       <c r="E50" t="n">
-        <v>17758421</v>
+        <v>17257375</v>
       </c>
       <c r="F50" t="n">
-        <v>5018.360481173563</v>
+        <v>3851.355529313711</v>
       </c>
       <c r="G50" t="n">
-        <v>18955.70427275816</v>
+        <v>18950.23735384887</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="I50" t="n">
-        <v>634613</v>
+        <v>633701</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>261891753</v>
+        <v>273551930</v>
       </c>
       <c r="E51" t="n">
-        <v>261891753</v>
+        <v>273551930</v>
       </c>
       <c r="F51" t="n">
-        <v>45467.28600270176</v>
+        <v>55218.85510659165</v>
       </c>
       <c r="G51" t="n">
-        <v>67731.87276958933</v>
+        <v>53513.25689238308</v>
       </c>
       <c r="H51" t="n">
         <v>0.08</v>
       </c>
       <c r="I51" t="n">
-        <v>85565866</v>
+        <v>75713696</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>74623125</v>
+        <v>72371597</v>
       </c>
       <c r="E52" t="n">
-        <v>430010635</v>
+        <v>417036359</v>
       </c>
       <c r="F52" t="n">
-        <v>225587.2438815362</v>
+        <v>223439.5915198241</v>
       </c>
       <c r="G52" t="n">
-        <v>235461.2164404359</v>
+        <v>227796.5630040947</v>
       </c>
       <c r="H52" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I52" t="n">
-        <v>19021749</v>
+        <v>19335188</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29363990</v>
+        <v>31801162</v>
       </c>
       <c r="E53" t="n">
-        <v>131474627</v>
+        <v>142386848</v>
       </c>
       <c r="F53" t="n">
-        <v>25410.60445384038</v>
+        <v>11853.79227994333</v>
       </c>
       <c r="G53" t="n">
-        <v>23931.29952172109</v>
+        <v>30443.22783367772</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>17158191</v>
+        <v>21016319</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>6933874</v>
+        <v>6824591</v>
       </c>
       <c r="F54" t="n">
-        <v>2811.478973661715</v>
+        <v>2739.705995700836</v>
       </c>
       <c r="G54" t="n">
-        <v>4622.426951673627</v>
+        <v>4513.376898070343</v>
       </c>
       <c r="H54" t="n">
         <v>0.29</v>
       </c>
       <c r="I54" t="n">
-        <v>46113</v>
+        <v>319794</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4055030</v>
+        <v>4030257</v>
       </c>
       <c r="F55" t="n">
-        <v>7128.203727469519</v>
+        <v>5813.32899740792</v>
       </c>
       <c r="G55" t="n">
-        <v>1077.048578683572</v>
+        <v>1767.279682521217</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I55" t="n">
-        <v>194395</v>
+        <v>191433</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122604628</v>
+        <v>122306531</v>
       </c>
       <c r="E56" t="n">
-        <v>2030433056</v>
+        <v>2025496323</v>
       </c>
       <c r="F56" t="n">
-        <v>172598.0732978149</v>
+        <v>176925.1157259207</v>
       </c>
       <c r="G56" t="n">
-        <v>173993.5217582829</v>
+        <v>186770.0547516077</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>7071674</v>
+        <v>10545529</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>69980204</v>
+        <v>67281685</v>
       </c>
       <c r="E57" t="n">
-        <v>70733439</v>
+        <v>68005875</v>
       </c>
       <c r="F57" t="n">
-        <v>13079.59687503952</v>
+        <v>17703.1155442745</v>
       </c>
       <c r="G57" t="n">
-        <v>33767.17031887601</v>
+        <v>22077.64808894508</v>
       </c>
       <c r="H57" t="n">
         <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>7432401</v>
+        <v>7947159</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>244580678</v>
+        <v>255025131</v>
       </c>
       <c r="E58" t="n">
-        <v>244580678</v>
+        <v>255025131</v>
       </c>
       <c r="F58" t="n">
-        <v>64511.64225871534</v>
+        <v>72626.25097946663</v>
       </c>
       <c r="G58" t="n">
-        <v>104652.191794499</v>
+        <v>98107.96836993514</v>
       </c>
       <c r="H58" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I58" t="n">
-        <v>55217969</v>
+        <v>60861475</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>21558135</v>
+        <v>21369269</v>
       </c>
       <c r="E59" t="n">
-        <v>128986657</v>
+        <v>127856631</v>
       </c>
       <c r="F59" t="n">
-        <v>69116.370178613</v>
+        <v>51307.82864314064</v>
       </c>
       <c r="G59" t="n">
-        <v>10164.71423716433</v>
+        <v>46775.40301362617</v>
       </c>
       <c r="H59" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I59" t="n">
-        <v>16656006</v>
+        <v>19916124</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2070408</v>
+        <v>2017376</v>
       </c>
       <c r="E60" t="n">
-        <v>3821056</v>
+        <v>3723182</v>
       </c>
       <c r="F60" t="n">
-        <v>2363.157341733497</v>
+        <v>2372.023530422412</v>
       </c>
       <c r="G60" t="n">
-        <v>3628.317670106389</v>
+        <v>1916.783728170888</v>
       </c>
       <c r="H60" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="I60" t="n">
-        <v>26371</v>
+        <v>70319</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9198009</v>
+        <v>8270732</v>
       </c>
       <c r="E62" t="n">
-        <v>26863642</v>
+        <v>25325747</v>
       </c>
       <c r="F62" t="n">
-        <v>6067.017223214543</v>
+        <v>3569.607804717949</v>
       </c>
       <c r="G62" t="n">
-        <v>4282.085184942398</v>
+        <v>2413.548480822896</v>
       </c>
       <c r="H62" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I62" t="n">
-        <v>5103208</v>
+        <v>4054796</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13411239</v>
+        <v>13351735</v>
       </c>
       <c r="E63" t="n">
-        <v>27150234</v>
+        <v>27029772</v>
       </c>
       <c r="F63" t="n">
-        <v>4718.408499236453</v>
+        <v>5293.20905002617</v>
       </c>
       <c r="G63" t="n">
-        <v>16506.95738845438</v>
+        <v>13250.082783674</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>504709</v>
+        <v>496280</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>27102860</v>
+        <v>26412978</v>
       </c>
       <c r="E64" t="n">
-        <v>192154855</v>
+        <v>187263704</v>
       </c>
       <c r="F64" t="n">
-        <v>34338.37251549136</v>
+        <v>51709.78724624764</v>
       </c>
       <c r="G64" t="n">
-        <v>22504.80087047298</v>
+        <v>46806.36611368423</v>
       </c>
       <c r="H64" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I64" t="n">
-        <v>3549114</v>
+        <v>4497691</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1178501</v>
+        <v>1160770</v>
       </c>
       <c r="E65" t="n">
-        <v>7277885</v>
+        <v>7168381</v>
       </c>
       <c r="F65" t="n">
-        <v>2415.659963060337</v>
+        <v>1875.44179097901</v>
       </c>
       <c r="G65" t="n">
-        <v>3319.962633623178</v>
+        <v>2526.174416003307</v>
       </c>
       <c r="H65" t="n">
         <v>0.09</v>
       </c>
       <c r="I65" t="n">
-        <v>545793</v>
+        <v>513585</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>526799145</v>
+        <v>518065947</v>
       </c>
       <c r="E66" t="n">
-        <v>2040215364</v>
+        <v>2006392977</v>
       </c>
       <c r="F66" t="n">
-        <v>133263.9328957896</v>
+        <v>168677.6786435067</v>
       </c>
       <c r="G66" t="n">
-        <v>177270.6264246268</v>
+        <v>157855.0848572002</v>
       </c>
       <c r="H66" t="n">
         <v>0.1</v>
       </c>
       <c r="I66" t="n">
-        <v>34524402</v>
+        <v>43387341</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5172273</v>
+        <v>5107764</v>
       </c>
       <c r="E67" t="n">
-        <v>22844106</v>
+        <v>22557040</v>
       </c>
       <c r="F67" t="n">
-        <v>4836.491868485062</v>
+        <v>2293.238799308293</v>
       </c>
       <c r="G67" t="n">
-        <v>3621.446872246233</v>
+        <v>1106.331898251959</v>
       </c>
       <c r="H67" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I67" t="n">
-        <v>146770</v>
+        <v>150874</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>104704972</v>
+        <v>97966907</v>
       </c>
       <c r="E68" t="n">
-        <v>990693602</v>
+        <v>926939633</v>
       </c>
       <c r="F68" t="n">
-        <v>6943.53795543669</v>
+        <v>130088.2497767966</v>
       </c>
       <c r="G68" t="n">
-        <v>22289.78275136656</v>
+        <v>144135.6662269954</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>47543754</v>
+        <v>19849918</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>66702691</v>
+        <v>63549022</v>
       </c>
       <c r="E69" t="n">
-        <v>101756519</v>
+        <v>96945523</v>
       </c>
       <c r="F69" t="n">
-        <v>57948.05893714672</v>
+        <v>28364.31185609071</v>
       </c>
       <c r="G69" t="n">
-        <v>59575.56726382083</v>
+        <v>66282.45229716532</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="I69" t="n">
-        <v>5606098</v>
+        <v>6532630</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1098113</v>
+        <v>1067636</v>
       </c>
       <c r="E70" t="n">
-        <v>4252131</v>
+        <v>4134120</v>
       </c>
       <c r="F70" t="n">
-        <v>2268.662753262616</v>
+        <v>5901.914007028982</v>
       </c>
       <c r="G70" t="n">
-        <v>2293.190809943736</v>
+        <v>2525.220360879011</v>
       </c>
       <c r="H70" t="n">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="I70" t="n">
-        <v>256584</v>
+        <v>113377</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>122306918</v>
+        <v>119088416</v>
       </c>
       <c r="E71" t="n">
-        <v>469189022</v>
+        <v>456842332</v>
       </c>
       <c r="F71" t="n">
-        <v>10880.91513689282</v>
+        <v>11079.23999920764</v>
       </c>
       <c r="G71" t="n">
-        <v>12095.91160220923</v>
+        <v>14701.47675050415</v>
       </c>
       <c r="H71" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I71" t="n">
-        <v>27421267</v>
+        <v>31084630</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2572563</v>
+        <v>2703080</v>
       </c>
       <c r="E72" t="n">
-        <v>24375418</v>
+        <v>25612083</v>
       </c>
       <c r="F72" t="n">
-        <v>4501.90435615834</v>
+        <v>365.6323115664749</v>
       </c>
       <c r="G72" t="n">
-        <v>2284.63893377715</v>
+        <v>913.7568063766196</v>
       </c>
       <c r="H72" t="n">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="I72" t="n">
-        <v>149504</v>
+        <v>178915</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>27666170</v>
+        <v>25858838</v>
       </c>
       <c r="F73" t="n">
-        <v>1779.173078304948</v>
+        <v>2488.960858152683</v>
       </c>
       <c r="G73" t="n">
-        <v>4213.748093675294</v>
+        <v>1345.550380773448</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>7153961</v>
+        <v>8122339</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>115781757</v>
+        <v>114983434</v>
       </c>
       <c r="E74" t="n">
-        <v>421970254</v>
+        <v>419018688</v>
       </c>
       <c r="F74" t="n">
-        <v>1562.147748237895</v>
+        <v>11645.58658333135</v>
       </c>
       <c r="G74" t="n">
-        <v>1555.232917255914</v>
+        <v>987.672049520893</v>
       </c>
       <c r="H74" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="I74" t="n">
-        <v>242351</v>
+        <v>304059</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20885418</v>
+        <v>19570751</v>
       </c>
       <c r="E75" t="n">
-        <v>20885418</v>
+        <v>19570751</v>
       </c>
       <c r="F75" t="n">
-        <v>4856.112509099748</v>
+        <v>4659.18501434355</v>
       </c>
       <c r="G75" t="n">
-        <v>6517.197533181366</v>
+        <v>4808.751432602137</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I75" t="n">
-        <v>6225718</v>
+        <v>6840102</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>395228244</v>
+        <v>386971055</v>
       </c>
       <c r="E76" t="n">
-        <v>1370890553</v>
+        <v>1342249628</v>
       </c>
       <c r="F76" t="n">
-        <v>158198.089185351</v>
+        <v>146179.4126720767</v>
       </c>
       <c r="G76" t="n">
-        <v>169978.4580195617</v>
+        <v>161913.5549547993</v>
       </c>
       <c r="H76" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>52405768</v>
+        <v>57299051</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4450603977</v>
+        <v>4318126707</v>
       </c>
       <c r="E77" t="n">
-        <v>4450713763</v>
+        <v>4317204104</v>
       </c>
       <c r="F77" t="n">
-        <v>17033.82633547348</v>
+        <v>16250.86726614898</v>
       </c>
       <c r="G77" t="n">
-        <v>20591.23570027674</v>
+        <v>16802.82498743265</v>
       </c>
       <c r="H77" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>15056262</v>
+        <v>33061470</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7064742</v>
+        <v>7020219</v>
       </c>
       <c r="E78" t="n">
-        <v>18353441</v>
+        <v>18237775</v>
       </c>
       <c r="F78" t="n">
-        <v>10778.3113924377</v>
+        <v>9876.520151089246</v>
       </c>
       <c r="G78" t="n">
-        <v>3656.732085696388</v>
+        <v>3708.677897747555</v>
       </c>
       <c r="H78" t="n">
         <v>0.16</v>
       </c>
       <c r="I78" t="n">
-        <v>880784</v>
+        <v>810221</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>83717527</v>
+        <v>78898293</v>
       </c>
       <c r="E79" t="n">
-        <v>124892345</v>
+        <v>117702865</v>
       </c>
       <c r="F79" t="n">
-        <v>40107.4414700096</v>
+        <v>37949.54215241064</v>
       </c>
       <c r="G79" t="n">
-        <v>40523.84934926428</v>
+        <v>38412.91324600555</v>
       </c>
       <c r="H79" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="I79" t="n">
-        <v>7310057</v>
+        <v>7703702</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1749890</v>
+        <v>1718902</v>
       </c>
       <c r="E80" t="n">
-        <v>6999559</v>
+        <v>6875609</v>
       </c>
       <c r="F80" t="n">
-        <v>7757.142292431807</v>
+        <v>7265.76415444036</v>
       </c>
       <c r="G80" t="n">
-        <v>3437.004770772871</v>
+        <v>2195.953540514537</v>
       </c>
       <c r="H80" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I80" t="n">
-        <v>6570218</v>
+        <v>6362017</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3505914</v>
+        <v>3208386</v>
       </c>
       <c r="F81" t="n">
-        <v>5210.515178260894</v>
+        <v>2531.927953314053</v>
       </c>
       <c r="G81" t="n">
-        <v>2858.734581210497</v>
+        <v>3140.226809016894</v>
       </c>
       <c r="H81" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>1710281</v>
+        <v>1668974</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>338492380</v>
+        <v>334258475</v>
       </c>
       <c r="E82" t="n">
-        <v>1934242170</v>
+        <v>1910048429</v>
       </c>
       <c r="F82" t="n">
-        <v>25594.21603760959</v>
+        <v>38486.68055666577</v>
       </c>
       <c r="G82" t="n">
-        <v>51923.41213958326</v>
+        <v>53334.75669196533</v>
       </c>
       <c r="H82" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I82" t="n">
-        <v>40687325</v>
+        <v>44057809</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4521224</v>
+        <v>3945104</v>
       </c>
       <c r="F2" t="n">
-        <v>2263.988724873017</v>
+        <v>1680.672618735553</v>
       </c>
       <c r="G2" t="n">
-        <v>1678.535606996736</v>
+        <v>1730.422878765282</v>
       </c>
       <c r="H2" t="n">
-        <v>0.31</v>
+        <v>0.65</v>
       </c>
       <c r="I2" t="n">
-        <v>278585</v>
+        <v>290726</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1092398</v>
+        <v>1075737</v>
       </c>
       <c r="E3" t="n">
-        <v>3439060</v>
+        <v>3386607</v>
       </c>
       <c r="F3" t="n">
-        <v>4097.21090454474</v>
+        <v>6624.878116578454</v>
       </c>
       <c r="G3" t="n">
-        <v>5224.488506043528</v>
+        <v>6204.826240733633</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I3" t="n">
-        <v>116058</v>
+        <v>76576</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>229289945</v>
+        <v>245914288</v>
       </c>
       <c r="E4" t="n">
-        <v>1437845013</v>
+        <v>1542093931</v>
       </c>
       <c r="F4" t="n">
-        <v>178188.2655664335</v>
+        <v>190457.2502754474</v>
       </c>
       <c r="G4" t="n">
-        <v>161741.5023550432</v>
+        <v>186127.1632755521</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I4" t="n">
-        <v>46409901</v>
+        <v>54276090</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>125594173</v>
+        <v>145952427</v>
       </c>
       <c r="E5" t="n">
-        <v>139177970</v>
+        <v>161738097</v>
       </c>
       <c r="F5" t="n">
-        <v>55013.38881887813</v>
+        <v>28604.41349369595</v>
       </c>
       <c r="G5" t="n">
-        <v>49331.80554297955</v>
+        <v>72254.6327830068</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I5" t="n">
-        <v>44844253</v>
+        <v>62632345</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>112536809</v>
+        <v>120798092</v>
       </c>
       <c r="E6" t="n">
-        <v>403066796</v>
+        <v>432655769</v>
       </c>
       <c r="F6" t="n">
-        <v>8006.363053592383</v>
+        <v>14444.35802419764</v>
       </c>
       <c r="G6" t="n">
-        <v>9440.399330327173</v>
+        <v>21633.84919935215</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>22012111</v>
+        <v>24477136</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3624325</v>
+        <v>3513726</v>
       </c>
       <c r="E7" t="n">
-        <v>22122604</v>
+        <v>22122190</v>
       </c>
       <c r="F7" t="n">
-        <v>2447.152906653408</v>
+        <v>2451.736143576351</v>
       </c>
       <c r="G7" t="n">
-        <v>2445.108604870789</v>
+        <v>2452.627661079512</v>
       </c>
       <c r="H7" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>887056</v>
+        <v>696329</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>148807</v>
+        <v>152687</v>
       </c>
       <c r="E8" t="n">
-        <v>1637040</v>
+        <v>1679730</v>
       </c>
       <c r="F8" t="n">
-        <v>2468.945054823238</v>
+        <v>2288.047965617366</v>
       </c>
       <c r="G8" t="n">
-        <v>1447.877760309733</v>
+        <v>2489.746110588658</v>
       </c>
       <c r="H8" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I8" t="n">
-        <v>74548</v>
+        <v>70435</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64099449</v>
+        <v>65656998</v>
       </c>
       <c r="E9" t="n">
-        <v>110558181</v>
+        <v>113223066</v>
       </c>
       <c r="F9" t="n">
-        <v>4257.528044114879</v>
+        <v>3807.102849450039</v>
       </c>
       <c r="G9" t="n">
-        <v>5364.506430395368</v>
+        <v>3489.119709417904</v>
       </c>
       <c r="H9" t="n">
         <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>681626</v>
+        <v>766464</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8417694</v>
+        <v>8446163</v>
       </c>
       <c r="E10" t="n">
-        <v>11914621</v>
+        <v>11954917</v>
       </c>
       <c r="F10" t="n">
-        <v>2861.787941866277</v>
+        <v>2592.094993517411</v>
       </c>
       <c r="G10" t="n">
-        <v>2700.718054448747</v>
+        <v>2078.219422730121</v>
       </c>
       <c r="H10" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="I10" t="n">
-        <v>27144</v>
+        <v>27941</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>339928113</v>
+        <v>369348782</v>
       </c>
       <c r="E11" t="n">
-        <v>339928113</v>
+        <v>369348782</v>
       </c>
       <c r="F11" t="n">
-        <v>16691.05129961099</v>
+        <v>16674.10632308375</v>
       </c>
       <c r="G11" t="n">
-        <v>68202.97273258398</v>
+        <v>37442.71674416633</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>29451036</v>
+        <v>33729557</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>259102</v>
+        <v>263183</v>
       </c>
       <c r="E12" t="n">
-        <v>1209514</v>
+        <v>1228566</v>
       </c>
       <c r="F12" t="n">
-        <v>243.1666824051604</v>
+        <v>62.09246867721291</v>
       </c>
       <c r="G12" t="n">
-        <v>876.1671246993317</v>
+        <v>1109.643088356356</v>
       </c>
       <c r="H12" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="I12" t="n">
-        <v>635224</v>
+        <v>654648</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1675643</v>
+        <v>1791699</v>
       </c>
       <c r="F13" t="n">
-        <v>3080.626962188867</v>
+        <v>95.67644943192877</v>
       </c>
       <c r="G13" t="n">
-        <v>540.9696976702556</v>
+        <v>1200.77722665389</v>
       </c>
       <c r="H13" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="I13" t="n">
-        <v>366960</v>
+        <v>201038</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9877737</v>
+        <v>10374126</v>
       </c>
       <c r="E14" t="n">
-        <v>24583900</v>
+        <v>25819323</v>
       </c>
       <c r="F14" t="n">
-        <v>815.7253301315847</v>
+        <v>956.8694793462222</v>
       </c>
       <c r="G14" t="n">
-        <v>1063.603803280004</v>
+        <v>944.9206874450315</v>
       </c>
       <c r="H14" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>1167425</v>
+        <v>1201939</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>106985811</v>
+        <v>108864129</v>
       </c>
       <c r="E15" t="n">
-        <v>412186558</v>
+        <v>419231385</v>
       </c>
       <c r="F15" t="n">
-        <v>14695.74710967053</v>
+        <v>16713.15605458274</v>
       </c>
       <c r="G15" t="n">
-        <v>15983.71238226154</v>
+        <v>19242.26838644576</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>56974445</v>
+        <v>64693926</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4008333</v>
+        <v>3865116</v>
       </c>
       <c r="E16" t="n">
-        <v>5900483</v>
+        <v>5689660</v>
       </c>
       <c r="F16" t="n">
-        <v>3340.471391339052</v>
+        <v>3149.605162262545</v>
       </c>
       <c r="G16" t="n">
-        <v>2301.133526248338</v>
+        <v>1689.389279140883</v>
       </c>
       <c r="H16" t="n">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="I16" t="n">
-        <v>627903</v>
+        <v>723394</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>525632</v>
+        <v>479026</v>
       </c>
       <c r="E17" t="n">
-        <v>2167623</v>
+        <v>1970640</v>
       </c>
       <c r="F17" t="n">
-        <v>1245.479790454533</v>
+        <v>183.632506967872</v>
       </c>
       <c r="G17" t="n">
-        <v>761.785894681816</v>
+        <v>415.5287949010381</v>
       </c>
       <c r="H17" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>114250</v>
+        <v>146670</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>119334615</v>
+        <v>129409472</v>
       </c>
       <c r="E18" t="n">
-        <v>119334615</v>
+        <v>129409472</v>
       </c>
       <c r="F18" t="n">
-        <v>67961.06903766951</v>
+        <v>94931.63208735028</v>
       </c>
       <c r="G18" t="n">
-        <v>112315.4037104505</v>
+        <v>119926.8933221124</v>
       </c>
       <c r="H18" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>66484082</v>
+        <v>97841104</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63192884</v>
+        <v>68346637</v>
       </c>
       <c r="E19" t="n">
-        <v>324066070</v>
+        <v>350495576</v>
       </c>
       <c r="F19" t="n">
-        <v>10425.17088908345</v>
+        <v>17244.88324917893</v>
       </c>
       <c r="G19" t="n">
-        <v>11541.10835059877</v>
+        <v>20177.79721227365</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>27858296</v>
+        <v>29454821</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>203412606</v>
+        <v>222368707</v>
       </c>
       <c r="E20" t="n">
-        <v>203412606</v>
+        <v>222368707</v>
       </c>
       <c r="F20" t="n">
-        <v>22942.06766322432</v>
+        <v>38041.07574308704</v>
       </c>
       <c r="G20" t="n">
-        <v>46959.07973256749</v>
+        <v>38656.38630395371</v>
       </c>
       <c r="H20" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="n">
-        <v>65700885</v>
+        <v>76508213</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>121263659</v>
+        <v>130243500</v>
       </c>
       <c r="E21" t="n">
-        <v>159568794</v>
+        <v>171385213</v>
       </c>
       <c r="F21" t="n">
-        <v>26984.7374284995</v>
+        <v>23706.27552477959</v>
       </c>
       <c r="G21" t="n">
-        <v>17484.83120676466</v>
+        <v>18152.35063083256</v>
       </c>
       <c r="H21" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="I21" t="n">
-        <v>7461691</v>
+        <v>5700994</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>76683684</v>
+        <v>83408169</v>
       </c>
       <c r="E22" t="n">
-        <v>214817578</v>
+        <v>233618631</v>
       </c>
       <c r="F22" t="n">
-        <v>41021.11125090857</v>
+        <v>37853.27577554801</v>
       </c>
       <c r="G22" t="n">
-        <v>35390.75906319502</v>
+        <v>44213.19641311467</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I22" t="n">
-        <v>79576503</v>
+        <v>46542677</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>66342764</v>
+        <v>72888758</v>
       </c>
       <c r="E23" t="n">
-        <v>138319335</v>
+        <v>151967206</v>
       </c>
       <c r="F23" t="n">
-        <v>16596.37021657988</v>
+        <v>28221.27412295159</v>
       </c>
       <c r="G23" t="n">
-        <v>16280.92519015991</v>
+        <v>18103.85691951639</v>
       </c>
       <c r="H23" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I23" t="n">
-        <v>17009231</v>
+        <v>19081306</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>566330531</v>
+        <v>619524765</v>
       </c>
       <c r="E24" t="n">
-        <v>566330531</v>
+        <v>619524765</v>
       </c>
       <c r="F24" t="n">
-        <v>135682.2494377045</v>
+        <v>139102.6800548215</v>
       </c>
       <c r="G24" t="n">
-        <v>176385.2094799404</v>
+        <v>239848.1046564207</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>381415425</v>
+        <v>477186671</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>184870335</v>
+        <v>200794846</v>
       </c>
       <c r="E25" t="n">
-        <v>642256252</v>
+        <v>697579441</v>
       </c>
       <c r="F25" t="n">
-        <v>78257.51011819307</v>
+        <v>78570.93997297151</v>
       </c>
       <c r="G25" t="n">
-        <v>130303.542740057</v>
+        <v>145439.4045729826</v>
       </c>
       <c r="H25" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>52131199</v>
+        <v>54514793</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4945411</v>
+        <v>5102421</v>
       </c>
       <c r="E26" t="n">
-        <v>6682344</v>
+        <v>6883968</v>
       </c>
       <c r="F26" t="n">
-        <v>2823.931424042749</v>
+        <v>2511.38966140755</v>
       </c>
       <c r="G26" t="n">
-        <v>3682.271653528278</v>
+        <v>4053.182060536556</v>
       </c>
       <c r="H26" t="n">
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
       <c r="I26" t="n">
-        <v>5703547</v>
+        <v>2285397</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>11957490</v>
+        <v>13051735</v>
       </c>
       <c r="F27" t="n">
-        <v>3033.595438524123</v>
+        <v>3308.106620727303</v>
       </c>
       <c r="G27" t="n">
-        <v>2131.365880928373</v>
+        <v>1314.606166179133</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I27" t="n">
-        <v>229606</v>
+        <v>247049</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21888288</v>
+        <v>22646446</v>
       </c>
       <c r="E28" t="n">
-        <v>30894332</v>
+        <v>31958347</v>
       </c>
       <c r="F28" t="n">
-        <v>524.1947940762537</v>
+        <v>6335.236226750101</v>
       </c>
       <c r="G28" t="n">
-        <v>3956.906851783659</v>
+        <v>143.7728353589935</v>
       </c>
       <c r="H28" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="I28" t="n">
-        <v>95051</v>
+        <v>101680</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>203998678</v>
+        <v>219104454</v>
       </c>
       <c r="E29" t="n">
-        <v>880571542</v>
+        <v>945429093</v>
       </c>
       <c r="F29" t="n">
-        <v>144787.7306982543</v>
+        <v>152852.1791690834</v>
       </c>
       <c r="G29" t="n">
-        <v>169900.0648300593</v>
+        <v>175395.2994113496</v>
       </c>
       <c r="H29" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>122767034</v>
+        <v>135610089</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7316709</v>
+        <v>7853797</v>
       </c>
       <c r="E30" t="n">
-        <v>87107712</v>
+        <v>93474451</v>
       </c>
       <c r="F30" t="n">
-        <v>3153.779715691146</v>
+        <v>1519.661318877126</v>
       </c>
       <c r="G30" t="n">
-        <v>823.737336360329</v>
+        <v>1038.021027195868</v>
       </c>
       <c r="H30" t="n">
         <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>129837</v>
+        <v>157700</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11760742</v>
+        <v>12384631</v>
       </c>
       <c r="E31" t="n">
-        <v>29401856</v>
+        <v>30961578</v>
       </c>
       <c r="F31" t="n">
-        <v>10425.62526199576</v>
+        <v>7774.829833662838</v>
       </c>
       <c r="G31" t="n">
-        <v>7377.370405299186</v>
+        <v>8082.72905377987</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I31" t="n">
-        <v>5312951</v>
+        <v>4545117</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17197679</v>
+        <v>17599444</v>
       </c>
       <c r="F32" t="n">
-        <v>3614.819763612235</v>
+        <v>1375.067917547708</v>
       </c>
       <c r="G32" t="n">
-        <v>4866.370591396274</v>
+        <v>2723.685404976897</v>
       </c>
       <c r="H32" t="n">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="I32" t="n">
-        <v>35405</v>
+        <v>52337</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1466871</v>
+        <v>1467678</v>
       </c>
       <c r="E33" t="n">
-        <v>5463554</v>
+        <v>5466537</v>
       </c>
       <c r="F33" t="n">
-        <v>2870.624935524382</v>
+        <v>3689.132355023194</v>
       </c>
       <c r="G33" t="n">
-        <v>950.6647072113967</v>
+        <v>1089.494466461764</v>
       </c>
       <c r="H33" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="I33" t="n">
-        <v>637668</v>
+        <v>621496</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3445325</v>
+        <v>3438656</v>
       </c>
       <c r="E34" t="n">
-        <v>9921775</v>
+        <v>9901928</v>
       </c>
       <c r="F34" t="n">
-        <v>2222.715573038554</v>
+        <v>3559.854441690547</v>
       </c>
       <c r="G34" t="n">
-        <v>2335.963010518778</v>
+        <v>7935.184184564305</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I34" t="n">
-        <v>369639</v>
+        <v>409086</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10274608</v>
+        <v>10776814</v>
       </c>
       <c r="E35" t="n">
-        <v>49761567</v>
+        <v>52193830</v>
       </c>
       <c r="F35" t="n">
-        <v>6355.076804175369</v>
+        <v>5762.860150763777</v>
       </c>
       <c r="G35" t="n">
-        <v>8984.689061053306</v>
+        <v>8482.728177459958</v>
       </c>
       <c r="H35" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>3223600</v>
+        <v>3403118</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1076777</v>
+        <v>1049811</v>
       </c>
       <c r="E36" t="n">
-        <v>7047477</v>
+        <v>6870982</v>
       </c>
       <c r="F36" t="n">
-        <v>924.7884433645805</v>
+        <v>3497.072605467116</v>
       </c>
       <c r="G36" t="n">
-        <v>3731.71328146286</v>
+        <v>1629.331484180226</v>
       </c>
       <c r="H36" t="n">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="I36" t="n">
-        <v>58165</v>
+        <v>60920</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1643740753</v>
+        <v>1710688763</v>
       </c>
       <c r="F37" t="n">
-        <v>75645.85880595782</v>
+        <v>72575.4884749973</v>
       </c>
       <c r="G37" t="n">
-        <v>66809.11290398448</v>
+        <v>73766.32660608857</v>
       </c>
       <c r="H37" t="n">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
       <c r="I37" t="n">
-        <v>29591175</v>
+        <v>31098845</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1622386</v>
+        <v>1506378</v>
       </c>
       <c r="E38" t="n">
-        <v>11633970</v>
+        <v>10802085</v>
       </c>
       <c r="F38" t="n">
-        <v>71.80475589832808</v>
+        <v>42.44436504108074</v>
       </c>
       <c r="G38" t="n">
-        <v>446.3005443842708</v>
+        <v>356.3506054976266</v>
       </c>
       <c r="H38" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>1749773</v>
+        <v>1811513</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>160611693</v>
+        <v>173831518</v>
       </c>
       <c r="E39" t="n">
-        <v>909482090</v>
+        <v>984340865</v>
       </c>
       <c r="F39" t="n">
-        <v>90393.61128234789</v>
+        <v>124842.8573138406</v>
       </c>
       <c r="G39" t="n">
-        <v>119531.9035442099</v>
+        <v>139264.4683456603</v>
       </c>
       <c r="H39" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>68706618</v>
+        <v>83335895</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>87867435</v>
+        <v>91140180</v>
       </c>
       <c r="E40" t="n">
-        <v>650869887</v>
+        <v>675112446</v>
       </c>
       <c r="F40" t="n">
-        <v>180634.9047927553</v>
+        <v>160887.6431547473</v>
       </c>
       <c r="G40" t="n">
-        <v>215577.4151598723</v>
+        <v>237691.6601156324</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>10691024</v>
+        <v>11470241</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>270260316</v>
+        <v>295728977</v>
       </c>
       <c r="E41" t="n">
-        <v>2431429388</v>
+        <v>2660561248</v>
       </c>
       <c r="F41" t="n">
-        <v>101057.376260918</v>
+        <v>68828.70601435156</v>
       </c>
       <c r="G41" t="n">
-        <v>120031.3258972743</v>
+        <v>116625.1670526946</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>50885767</v>
+        <v>60661003</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1580323</v>
+        <v>1629062</v>
       </c>
       <c r="E42" t="n">
-        <v>13169360</v>
+        <v>13575518</v>
       </c>
       <c r="F42" t="n">
-        <v>3677.211806170153</v>
+        <v>390.4720461715606</v>
       </c>
       <c r="G42" t="n">
-        <v>3591.98296786991</v>
+        <v>2507.193525331442</v>
       </c>
       <c r="H42" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>40004</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>21119872</v>
+        <v>21388294</v>
       </c>
       <c r="E43" t="n">
-        <v>62596448</v>
+        <v>63389148</v>
       </c>
       <c r="F43" t="n">
-        <v>18854.0797592889</v>
+        <v>39071.54167574729</v>
       </c>
       <c r="G43" t="n">
-        <v>16177.35259355562</v>
+        <v>28003.89496335334</v>
       </c>
       <c r="H43" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="I43" t="n">
-        <v>10183226</v>
+        <v>6108663</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9343524</v>
+        <v>9765858</v>
       </c>
       <c r="F44" t="n">
-        <v>2378.343385536603</v>
+        <v>3136.27242289405</v>
       </c>
       <c r="G44" t="n">
-        <v>3016.816906039419</v>
+        <v>4041.803355371905</v>
       </c>
       <c r="H44" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I44" t="n">
-        <v>141474</v>
+        <v>291451</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9658931</v>
+        <v>10170462</v>
       </c>
       <c r="E45" t="n">
-        <v>9658931</v>
+        <v>10170462</v>
       </c>
       <c r="F45" t="n">
-        <v>170.4242277275354</v>
+        <v>139.5719875355462</v>
       </c>
       <c r="G45" t="n">
-        <v>579.1148915261296</v>
+        <v>700.9063860082879</v>
       </c>
       <c r="H45" t="n">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="I45" t="n">
-        <v>1961587</v>
+        <v>1661334</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>233576252</v>
+        <v>265626475</v>
       </c>
       <c r="E46" t="n">
-        <v>233576252</v>
+        <v>265626475</v>
       </c>
       <c r="F46" t="n">
-        <v>18413.34070863917</v>
+        <v>15106.05575826129</v>
       </c>
       <c r="G46" t="n">
-        <v>15947.44711080854</v>
+        <v>25529.4829454292</v>
       </c>
       <c r="H46" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="I46" t="n">
-        <v>13985605</v>
+        <v>15962335</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11651869</v>
+        <v>12567570</v>
       </c>
       <c r="E47" t="n">
-        <v>30274941</v>
+        <v>32653563</v>
       </c>
       <c r="F47" t="n">
-        <v>8831.906316080658</v>
+        <v>8219.961389447346</v>
       </c>
       <c r="G47" t="n">
-        <v>9102.765095690673</v>
+        <v>4338.291476349005</v>
       </c>
       <c r="H47" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I47" t="n">
-        <v>3522588</v>
+        <v>2359835</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>25804842</v>
+        <v>28786763</v>
       </c>
       <c r="E48" t="n">
-        <v>71476850</v>
+        <v>79736476</v>
       </c>
       <c r="F48" t="n">
-        <v>6715.388753943074</v>
+        <v>3526.716235972428</v>
       </c>
       <c r="G48" t="n">
-        <v>2369.913335213021</v>
+        <v>4880.441280754716</v>
       </c>
       <c r="H48" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I48" t="n">
-        <v>9629699</v>
+        <v>10245389</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>24686090</v>
+        <v>25533321</v>
       </c>
       <c r="E49" t="n">
-        <v>58553039</v>
+        <v>60562588</v>
       </c>
       <c r="F49" t="n">
-        <v>9993.540954676915</v>
+        <v>2874.176702514464</v>
       </c>
       <c r="G49" t="n">
-        <v>9342.422122032536</v>
+        <v>1482.916781795721</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="I49" t="n">
-        <v>429639</v>
+        <v>405274</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11432353</v>
+        <v>11633784</v>
       </c>
       <c r="E50" t="n">
-        <v>17257375</v>
+        <v>17561438</v>
       </c>
       <c r="F50" t="n">
-        <v>3851.355529313711</v>
+        <v>4434.021299634795</v>
       </c>
       <c r="G50" t="n">
-        <v>18950.23735384887</v>
+        <v>4005.402358448378</v>
       </c>
       <c r="H50" t="n">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="I50" t="n">
-        <v>633701</v>
+        <v>703670</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>273551930</v>
+        <v>287149803</v>
       </c>
       <c r="E51" t="n">
-        <v>273551930</v>
+        <v>287149803</v>
       </c>
       <c r="F51" t="n">
-        <v>55218.85510659165</v>
+        <v>57439.03259261612</v>
       </c>
       <c r="G51" t="n">
-        <v>53513.25689238308</v>
+        <v>79510.71394217656</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I51" t="n">
-        <v>75713696</v>
+        <v>88618505</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>72371597</v>
+        <v>77557661</v>
       </c>
       <c r="E52" t="n">
-        <v>417036359</v>
+        <v>446920696</v>
       </c>
       <c r="F52" t="n">
-        <v>223439.5915198241</v>
+        <v>229992.0484777578</v>
       </c>
       <c r="G52" t="n">
-        <v>227796.5630040947</v>
+        <v>228740.249512237</v>
       </c>
       <c r="H52" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="I52" t="n">
-        <v>19335188</v>
+        <v>18530825</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31801162</v>
+        <v>33299478</v>
       </c>
       <c r="E53" t="n">
-        <v>142386848</v>
+        <v>149095425</v>
       </c>
       <c r="F53" t="n">
-        <v>11853.79227994333</v>
+        <v>20494.24405613838</v>
       </c>
       <c r="G53" t="n">
-        <v>30443.22783367772</v>
+        <v>28404.24554688386</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I53" t="n">
-        <v>21016319</v>
+        <v>24183110</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>6824591</v>
+        <v>6938812</v>
       </c>
       <c r="F54" t="n">
-        <v>2739.705995700836</v>
+        <v>2784.788566826691</v>
       </c>
       <c r="G54" t="n">
-        <v>4513.376898070343</v>
+        <v>4643.003930262219</v>
       </c>
       <c r="H54" t="n">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="I54" t="n">
-        <v>319794</v>
+        <v>64955</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4030257</v>
+        <v>4007403</v>
       </c>
       <c r="F55" t="n">
-        <v>5813.32899740792</v>
+        <v>7046.598498677396</v>
       </c>
       <c r="G55" t="n">
-        <v>1767.279682521217</v>
+        <v>728.9054049539881</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I55" t="n">
-        <v>191433</v>
+        <v>187288</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>122306531</v>
+        <v>123626147</v>
       </c>
       <c r="E56" t="n">
-        <v>2025496323</v>
+        <v>2047350254</v>
       </c>
       <c r="F56" t="n">
-        <v>176925.1157259207</v>
+        <v>168696.0815949216</v>
       </c>
       <c r="G56" t="n">
-        <v>186770.0547516077</v>
+        <v>179387.4496016488</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>10545529</v>
+        <v>12526433</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>67281685</v>
+        <v>73837726</v>
       </c>
       <c r="E57" t="n">
-        <v>68005875</v>
+        <v>74632482</v>
       </c>
       <c r="F57" t="n">
-        <v>17703.1155442745</v>
+        <v>19779.09279433255</v>
       </c>
       <c r="G57" t="n">
-        <v>22077.64808894508</v>
+        <v>26691.94304148178</v>
       </c>
       <c r="H57" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I57" t="n">
-        <v>7947159</v>
+        <v>9250354</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>255025131</v>
+        <v>276821689</v>
       </c>
       <c r="E58" t="n">
-        <v>255025131</v>
+        <v>276821689</v>
       </c>
       <c r="F58" t="n">
-        <v>72626.25097946663</v>
+        <v>79323.27551098292</v>
       </c>
       <c r="G58" t="n">
-        <v>98107.96836993514</v>
+        <v>113590.7367201088</v>
       </c>
       <c r="H58" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I58" t="n">
-        <v>60861475</v>
+        <v>72498693</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>21369269</v>
+        <v>22445891</v>
       </c>
       <c r="E59" t="n">
-        <v>127856631</v>
+        <v>134298277</v>
       </c>
       <c r="F59" t="n">
-        <v>51307.82864314064</v>
+        <v>70839.07487373891</v>
       </c>
       <c r="G59" t="n">
-        <v>46775.40301362617</v>
+        <v>54029.0723782847</v>
       </c>
       <c r="H59" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>19916124</v>
+        <v>21845166</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2017376</v>
+        <v>1985886</v>
       </c>
       <c r="E60" t="n">
-        <v>3723182</v>
+        <v>3665065</v>
       </c>
       <c r="F60" t="n">
-        <v>2372.023530422412</v>
+        <v>4001.135197679433</v>
       </c>
       <c r="G60" t="n">
-        <v>1916.783728170888</v>
+        <v>1904.721356255222</v>
       </c>
       <c r="H60" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="I60" t="n">
-        <v>70319</v>
+        <v>81141</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8270732</v>
+        <v>9445104</v>
       </c>
       <c r="E62" t="n">
-        <v>25325747</v>
+        <v>27544398</v>
       </c>
       <c r="F62" t="n">
-        <v>3569.607804717949</v>
+        <v>1913.48077665294</v>
       </c>
       <c r="G62" t="n">
-        <v>2413.548480822896</v>
+        <v>3231.282139643469</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>4054796</v>
+        <v>5088515</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13351735</v>
+        <v>13449252</v>
       </c>
       <c r="E63" t="n">
-        <v>27029772</v>
+        <v>27227189</v>
       </c>
       <c r="F63" t="n">
-        <v>5293.20905002617</v>
+        <v>4163.970108285913</v>
       </c>
       <c r="G63" t="n">
-        <v>13250.082783674</v>
+        <v>14276.94656152632</v>
       </c>
       <c r="H63" t="n">
         <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>496280</v>
+        <v>531425</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>26412978</v>
+        <v>29215501</v>
       </c>
       <c r="E64" t="n">
-        <v>187263704</v>
+        <v>207133135</v>
       </c>
       <c r="F64" t="n">
-        <v>51709.78724624764</v>
+        <v>38488.23446110568</v>
       </c>
       <c r="G64" t="n">
-        <v>46806.36611368423</v>
+        <v>37754.20275132788</v>
       </c>
       <c r="H64" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I64" t="n">
-        <v>4497691</v>
+        <v>4703563</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1160770</v>
+        <v>1145209</v>
       </c>
       <c r="E65" t="n">
-        <v>7168381</v>
+        <v>7071418</v>
       </c>
       <c r="F65" t="n">
-        <v>1875.44179097901</v>
+        <v>141.1170763519545</v>
       </c>
       <c r="G65" t="n">
-        <v>2526.174416003307</v>
+        <v>540.8991112696633</v>
       </c>
       <c r="H65" t="n">
         <v>0.09</v>
       </c>
       <c r="I65" t="n">
-        <v>513585</v>
+        <v>520252</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>518065947</v>
+        <v>559827731</v>
       </c>
       <c r="E66" t="n">
-        <v>2006392977</v>
+        <v>2168130206</v>
       </c>
       <c r="F66" t="n">
-        <v>168677.6786435067</v>
+        <v>160125.2281410336</v>
       </c>
       <c r="G66" t="n">
-        <v>157855.0848572002</v>
+        <v>180000.3415855055</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>43387341</v>
+        <v>51851388</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5107764</v>
+        <v>5049477</v>
       </c>
       <c r="E67" t="n">
-        <v>22557040</v>
+        <v>22284637</v>
       </c>
       <c r="F67" t="n">
-        <v>2293.238799308293</v>
+        <v>4913.9997211885</v>
       </c>
       <c r="G67" t="n">
-        <v>1106.331898251959</v>
+        <v>3537.468261445185</v>
       </c>
       <c r="H67" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>150874</v>
+        <v>135387</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>97966907</v>
+        <v>106385275</v>
       </c>
       <c r="E68" t="n">
-        <v>926939633</v>
+        <v>1006592229</v>
       </c>
       <c r="F68" t="n">
-        <v>130088.2497767966</v>
+        <v>136617.2487355816</v>
       </c>
       <c r="G68" t="n">
-        <v>144135.6662269954</v>
+        <v>147836.5035694454</v>
       </c>
       <c r="H68" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>19849918</v>
+        <v>35367789</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>63549022</v>
+        <v>70080094</v>
       </c>
       <c r="E69" t="n">
-        <v>96945523</v>
+        <v>106908827</v>
       </c>
       <c r="F69" t="n">
-        <v>28364.31185609071</v>
+        <v>50823.12951395467</v>
       </c>
       <c r="G69" t="n">
-        <v>66282.45229716532</v>
+        <v>70390.69456788403</v>
       </c>
       <c r="H69" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I69" t="n">
-        <v>6532630</v>
+        <v>6338277</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1067636</v>
+        <v>1090422</v>
       </c>
       <c r="E70" t="n">
-        <v>4134120</v>
+        <v>4222353</v>
       </c>
       <c r="F70" t="n">
-        <v>5901.914007028982</v>
+        <v>2572.229275377514</v>
       </c>
       <c r="G70" t="n">
-        <v>2525.220360879011</v>
+        <v>2278.42605717785</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="I70" t="n">
-        <v>113377</v>
+        <v>131607</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>119088416</v>
+        <v>125532055</v>
       </c>
       <c r="E71" t="n">
-        <v>456842332</v>
+        <v>481561168</v>
       </c>
       <c r="F71" t="n">
-        <v>11079.23999920764</v>
+        <v>9834.112397891009</v>
       </c>
       <c r="G71" t="n">
-        <v>14701.47675050415</v>
+        <v>20505.05973923823</v>
       </c>
       <c r="H71" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>31084630</v>
+        <v>30990893</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2703080</v>
+        <v>2659568</v>
       </c>
       <c r="E72" t="n">
-        <v>25612083</v>
+        <v>25199804</v>
       </c>
       <c r="F72" t="n">
-        <v>365.6323115664749</v>
+        <v>3371.631219804564</v>
       </c>
       <c r="G72" t="n">
-        <v>913.7568063766196</v>
+        <v>1893.766939297609</v>
       </c>
       <c r="H72" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="I72" t="n">
-        <v>178915</v>
+        <v>131080</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>25858838</v>
+        <v>28994396</v>
       </c>
       <c r="F73" t="n">
-        <v>2488.960858152683</v>
+        <v>2561.929004489544</v>
       </c>
       <c r="G73" t="n">
-        <v>1345.550380773448</v>
+        <v>4701.146133534626</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I73" t="n">
-        <v>8122339</v>
+        <v>9346511</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>114983434</v>
+        <v>116309950</v>
       </c>
       <c r="E74" t="n">
-        <v>419018688</v>
+        <v>423841796</v>
       </c>
       <c r="F74" t="n">
-        <v>11645.58658333135</v>
+        <v>9797.372497575287</v>
       </c>
       <c r="G74" t="n">
-        <v>987.672049520893</v>
+        <v>1998.715922709452</v>
       </c>
       <c r="H74" t="n">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="I74" t="n">
-        <v>304059</v>
+        <v>259737</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>19570751</v>
+        <v>20948642</v>
       </c>
       <c r="E75" t="n">
-        <v>19570751</v>
+        <v>20948642</v>
       </c>
       <c r="F75" t="n">
-        <v>4659.18501434355</v>
+        <v>5546.918220438687</v>
       </c>
       <c r="G75" t="n">
-        <v>4808.751432602137</v>
+        <v>5089.293051317261</v>
       </c>
       <c r="H75" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I75" t="n">
-        <v>6840102</v>
+        <v>8228532</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>386971055</v>
+        <v>411977810</v>
       </c>
       <c r="E76" t="n">
-        <v>1342249628</v>
+        <v>1428988178</v>
       </c>
       <c r="F76" t="n">
-        <v>146179.4126720767</v>
+        <v>161244.8930092468</v>
       </c>
       <c r="G76" t="n">
-        <v>161913.5549547993</v>
+        <v>170950.3309004914</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I76" t="n">
-        <v>57299051</v>
+        <v>65845973</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4318126707</v>
+        <v>4573044429</v>
       </c>
       <c r="E77" t="n">
-        <v>4317204104</v>
+        <v>4573044429</v>
       </c>
       <c r="F77" t="n">
-        <v>16250.86726614898</v>
+        <v>18695.40037565379</v>
       </c>
       <c r="G77" t="n">
-        <v>16802.82498743265</v>
+        <v>17383.37615315001</v>
       </c>
       <c r="H77" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>33061470</v>
+        <v>40977529</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7020219</v>
+        <v>6975773</v>
       </c>
       <c r="E78" t="n">
-        <v>18237775</v>
+        <v>18122308</v>
       </c>
       <c r="F78" t="n">
-        <v>9876.520151089246</v>
+        <v>10298.22723302128</v>
       </c>
       <c r="G78" t="n">
-        <v>3708.677897747555</v>
+        <v>2925.827887500445</v>
       </c>
       <c r="H78" t="n">
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="I78" t="n">
-        <v>810221</v>
+        <v>763902</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>78898293</v>
+        <v>89125971</v>
       </c>
       <c r="E79" t="n">
-        <v>117702865</v>
+        <v>132960825</v>
       </c>
       <c r="F79" t="n">
-        <v>37949.54215241064</v>
+        <v>38938.19740899011</v>
       </c>
       <c r="G79" t="n">
-        <v>38412.91324600555</v>
+        <v>38332.35866736008</v>
       </c>
       <c r="H79" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>7703702</v>
+        <v>8476091</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1718902</v>
+        <v>1874732</v>
       </c>
       <c r="E80" t="n">
-        <v>6875609</v>
+        <v>7498930</v>
       </c>
       <c r="F80" t="n">
-        <v>7265.76415444036</v>
+        <v>3301.516421342095</v>
       </c>
       <c r="G80" t="n">
-        <v>2195.953540514537</v>
+        <v>3296.576049604458</v>
       </c>
       <c r="H80" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="I80" t="n">
-        <v>6362017</v>
+        <v>6382327</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3208386</v>
+        <v>3310353</v>
       </c>
       <c r="F81" t="n">
-        <v>2531.927953314053</v>
+        <v>2663.194569436343</v>
       </c>
       <c r="G81" t="n">
-        <v>3140.226809016894</v>
+        <v>2640.322657518197</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>1668974</v>
+        <v>1649200</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>334258475</v>
+        <v>356227333</v>
       </c>
       <c r="E82" t="n">
-        <v>1910048429</v>
+        <v>2035584761</v>
       </c>
       <c r="F82" t="n">
-        <v>38486.68055666577</v>
+        <v>55486.14924894916</v>
       </c>
       <c r="G82" t="n">
-        <v>53334.75669196533</v>
+        <v>58887.6017157201</v>
       </c>
       <c r="H82" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>44057809</v>
+        <v>52618244</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3945104</v>
+        <v>3989903</v>
       </c>
       <c r="F2" t="n">
-        <v>1680.672618735553</v>
+        <v>2884.54871395245</v>
       </c>
       <c r="G2" t="n">
-        <v>1730.422878765282</v>
+        <v>2735.300870997142</v>
       </c>
       <c r="H2" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="I2" t="n">
-        <v>290726</v>
+        <v>255783</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1075737</v>
+        <v>1058634</v>
       </c>
       <c r="E3" t="n">
-        <v>3386607</v>
+        <v>3332764</v>
       </c>
       <c r="F3" t="n">
-        <v>6624.878116578454</v>
+        <v>4582.237145069988</v>
       </c>
       <c r="G3" t="n">
-        <v>6204.826240733633</v>
+        <v>3613.093168787885</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="I3" t="n">
-        <v>76576</v>
+        <v>80747</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245914288</v>
+        <v>270881771</v>
       </c>
       <c r="E4" t="n">
-        <v>1542093931</v>
+        <v>1698661508</v>
       </c>
       <c r="F4" t="n">
-        <v>190457.2502754474</v>
+        <v>90176.78746920759</v>
       </c>
       <c r="G4" t="n">
-        <v>186127.1632755521</v>
+        <v>111735.3181966173</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I4" t="n">
-        <v>54276090</v>
+        <v>117220797</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145952427</v>
+        <v>139311119</v>
       </c>
       <c r="E5" t="n">
-        <v>161738097</v>
+        <v>154378490</v>
       </c>
       <c r="F5" t="n">
-        <v>28604.41349369595</v>
+        <v>20311.22065304267</v>
       </c>
       <c r="G5" t="n">
-        <v>72254.6327830068</v>
+        <v>60883.16456165547</v>
       </c>
       <c r="H5" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>62632345</v>
+        <v>65733859</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>120798092</v>
+        <v>121805692</v>
       </c>
       <c r="E6" t="n">
-        <v>432655769</v>
+        <v>436264636</v>
       </c>
       <c r="F6" t="n">
-        <v>14444.35802419764</v>
+        <v>9916.643811661679</v>
       </c>
       <c r="G6" t="n">
-        <v>21633.84919935215</v>
+        <v>18930.03381103801</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I6" t="n">
-        <v>24477136</v>
+        <v>20643946</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3513726</v>
+        <v>3493308</v>
       </c>
       <c r="E7" t="n">
-        <v>22122190</v>
+        <v>21990901</v>
       </c>
       <c r="F7" t="n">
-        <v>2451.736143576351</v>
+        <v>2334.203245726645</v>
       </c>
       <c r="G7" t="n">
-        <v>2452.627661079512</v>
+        <v>1803.411766408382</v>
       </c>
       <c r="H7" t="n">
         <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>696329</v>
+        <v>506008</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>152687</v>
+        <v>156556</v>
       </c>
       <c r="E8" t="n">
-        <v>1679730</v>
+        <v>1722285</v>
       </c>
       <c r="F8" t="n">
-        <v>2288.047965617366</v>
+        <v>2761.346201604964</v>
       </c>
       <c r="G8" t="n">
-        <v>2489.746110588658</v>
+        <v>2295.571485991193</v>
       </c>
       <c r="H8" t="n">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="I8" t="n">
-        <v>70435</v>
+        <v>66781</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65656998</v>
+        <v>64055994</v>
       </c>
       <c r="E9" t="n">
-        <v>113223066</v>
+        <v>110433280</v>
       </c>
       <c r="F9" t="n">
-        <v>3807.102849450039</v>
+        <v>7136.679327155254</v>
       </c>
       <c r="G9" t="n">
-        <v>3489.119709417904</v>
+        <v>3486.94482476599</v>
       </c>
       <c r="H9" t="n">
         <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>766464</v>
+        <v>713820</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8446163</v>
+        <v>8425249</v>
       </c>
       <c r="E10" t="n">
-        <v>11954917</v>
+        <v>11925314</v>
       </c>
       <c r="F10" t="n">
-        <v>2592.094993517411</v>
+        <v>2668.097632118056</v>
       </c>
       <c r="G10" t="n">
-        <v>2078.219422730121</v>
+        <v>2579.605690393172</v>
       </c>
       <c r="H10" t="n">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="I10" t="n">
-        <v>27941</v>
+        <v>28523</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>369348782</v>
+        <v>380980257</v>
       </c>
       <c r="E11" t="n">
-        <v>369348782</v>
+        <v>380980260</v>
       </c>
       <c r="F11" t="n">
-        <v>16674.10632308375</v>
+        <v>25176.08604143083</v>
       </c>
       <c r="G11" t="n">
-        <v>37442.71674416633</v>
+        <v>27271.17898337637</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>33729557</v>
+        <v>34361587</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>263183</v>
+        <v>261249</v>
       </c>
       <c r="E12" t="n">
-        <v>1228566</v>
+        <v>1219538</v>
       </c>
       <c r="F12" t="n">
-        <v>62.09246867721291</v>
+        <v>36.13484284462139</v>
       </c>
       <c r="G12" t="n">
-        <v>1109.643088356356</v>
+        <v>3768.401655467787</v>
       </c>
       <c r="H12" t="n">
         <v>0.49</v>
       </c>
       <c r="I12" t="n">
-        <v>654648</v>
+        <v>644558</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1791699</v>
+        <v>1725282</v>
       </c>
       <c r="F13" t="n">
-        <v>95.67644943192877</v>
+        <v>3428.756019718538</v>
       </c>
       <c r="G13" t="n">
-        <v>1200.77722665389</v>
+        <v>2192.646481360625</v>
       </c>
       <c r="H13" t="n">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="I13" t="n">
-        <v>201038</v>
+        <v>287896</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10374126</v>
+        <v>10681810</v>
       </c>
       <c r="E14" t="n">
-        <v>25819323</v>
+        <v>26585092</v>
       </c>
       <c r="F14" t="n">
-        <v>956.8694793462222</v>
+        <v>1002.229865725972</v>
       </c>
       <c r="G14" t="n">
-        <v>944.9206874450315</v>
+        <v>1004.509646635581</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="I14" t="n">
-        <v>1201939</v>
+        <v>864232</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108864129</v>
+        <v>109215687</v>
       </c>
       <c r="E15" t="n">
-        <v>419231385</v>
+        <v>420329823</v>
       </c>
       <c r="F15" t="n">
-        <v>16713.15605458274</v>
+        <v>24959.8076246824</v>
       </c>
       <c r="G15" t="n">
-        <v>19242.26838644576</v>
+        <v>44560.91819824378</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>64693926</v>
+        <v>36520235</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3865116</v>
+        <v>3702139</v>
       </c>
       <c r="E16" t="n">
-        <v>5689660</v>
+        <v>5449749</v>
       </c>
       <c r="F16" t="n">
-        <v>3149.605162262545</v>
+        <v>3424.730449269146</v>
       </c>
       <c r="G16" t="n">
-        <v>1689.389279140883</v>
+        <v>1790.805940918987</v>
       </c>
       <c r="H16" t="n">
-        <v>0.54</v>
+        <v>0.78</v>
       </c>
       <c r="I16" t="n">
-        <v>723394</v>
+        <v>740516</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>479026</v>
+        <v>412110</v>
       </c>
       <c r="E17" t="n">
-        <v>1970640</v>
+        <v>1695357</v>
       </c>
       <c r="F17" t="n">
-        <v>183.632506967872</v>
+        <v>556.6299778809611</v>
       </c>
       <c r="G17" t="n">
-        <v>415.5287949010381</v>
+        <v>72.26189258707124</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>0.58</v>
       </c>
       <c r="I17" t="n">
-        <v>146670</v>
+        <v>185381</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>129409472</v>
+        <v>132732520</v>
       </c>
       <c r="E18" t="n">
-        <v>129409472</v>
+        <v>132732520</v>
       </c>
       <c r="F18" t="n">
-        <v>94931.63208735028</v>
+        <v>61143.33188230255</v>
       </c>
       <c r="G18" t="n">
-        <v>119926.8933221124</v>
+        <v>80540.21837370453</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>97841104</v>
+        <v>93889219</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68346637</v>
+        <v>67783991</v>
       </c>
       <c r="E19" t="n">
-        <v>350495576</v>
+        <v>347610212</v>
       </c>
       <c r="F19" t="n">
-        <v>17244.88324917893</v>
+        <v>6979.544184198635</v>
       </c>
       <c r="G19" t="n">
-        <v>20177.79721227365</v>
+        <v>12824.4790753028</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>29454821</v>
+        <v>27165249</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>222368707</v>
+        <v>220885823</v>
       </c>
       <c r="E20" t="n">
-        <v>222368707</v>
+        <v>220885823</v>
       </c>
       <c r="F20" t="n">
-        <v>38041.07574308704</v>
+        <v>23290.89586505439</v>
       </c>
       <c r="G20" t="n">
-        <v>38656.38630395371</v>
+        <v>36969.01586969517</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I20" t="n">
-        <v>76508213</v>
+        <v>44288556</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>130243500</v>
+        <v>132083666</v>
       </c>
       <c r="E21" t="n">
-        <v>171385213</v>
+        <v>173806657</v>
       </c>
       <c r="F21" t="n">
-        <v>23706.27552477959</v>
+        <v>23737.57721067962</v>
       </c>
       <c r="G21" t="n">
-        <v>18152.35063083256</v>
+        <v>17845.46324968933</v>
       </c>
       <c r="H21" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5700994</v>
+        <v>6829495</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>83408169</v>
+        <v>80398591</v>
       </c>
       <c r="E22" t="n">
-        <v>233618631</v>
+        <v>225181749</v>
       </c>
       <c r="F22" t="n">
-        <v>37853.27577554801</v>
+        <v>48209.06806145496</v>
       </c>
       <c r="G22" t="n">
-        <v>44213.19641311467</v>
+        <v>54164.492432378</v>
       </c>
       <c r="H22" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>46542677</v>
+        <v>44469496</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72888758</v>
+        <v>71983066</v>
       </c>
       <c r="E23" t="n">
-        <v>151967206</v>
+        <v>150078911</v>
       </c>
       <c r="F23" t="n">
-        <v>28221.27412295159</v>
+        <v>15048.04705095253</v>
       </c>
       <c r="G23" t="n">
-        <v>18103.85691951639</v>
+        <v>20393.8613623763</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I23" t="n">
-        <v>19081306</v>
+        <v>18087737</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>619524765</v>
+        <v>648923425</v>
       </c>
       <c r="E24" t="n">
-        <v>619524765</v>
+        <v>648923425</v>
       </c>
       <c r="F24" t="n">
-        <v>139102.6800548215</v>
+        <v>128414.3363018168</v>
       </c>
       <c r="G24" t="n">
-        <v>239848.1046564207</v>
+        <v>205898.2120468341</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>477186671</v>
+        <v>501492118</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>200794846</v>
+        <v>198169399</v>
       </c>
       <c r="E25" t="n">
-        <v>697579441</v>
+        <v>688458402</v>
       </c>
       <c r="F25" t="n">
-        <v>78570.93997297151</v>
+        <v>69295.45350438733</v>
       </c>
       <c r="G25" t="n">
-        <v>145439.4045729826</v>
+        <v>145684.0206723613</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>54514793</v>
+        <v>46180014</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5102421</v>
+        <v>5198910</v>
       </c>
       <c r="E26" t="n">
-        <v>6883968</v>
+        <v>7012960</v>
       </c>
       <c r="F26" t="n">
-        <v>2511.38966140755</v>
+        <v>4274.85515400516</v>
       </c>
       <c r="G26" t="n">
-        <v>4053.182060536556</v>
+        <v>2098.017837488443</v>
       </c>
       <c r="H26" t="n">
         <v>0.08</v>
       </c>
       <c r="I26" t="n">
-        <v>2285397</v>
+        <v>5272317</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>13051735</v>
+        <v>13742253</v>
       </c>
       <c r="F27" t="n">
-        <v>3308.106620727303</v>
+        <v>2294.35725376913</v>
       </c>
       <c r="G27" t="n">
-        <v>1314.606166179133</v>
+        <v>1470.016821986708</v>
       </c>
       <c r="H27" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="I27" t="n">
-        <v>247049</v>
+        <v>239450</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22646446</v>
+        <v>23326882</v>
       </c>
       <c r="E28" t="n">
-        <v>31958347</v>
+        <v>32918568</v>
       </c>
       <c r="F28" t="n">
-        <v>6335.236226750101</v>
+        <v>172.9195550086956</v>
       </c>
       <c r="G28" t="n">
-        <v>143.7728353589935</v>
+        <v>3987.980270421788</v>
       </c>
       <c r="H28" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="I28" t="n">
-        <v>101680</v>
+        <v>109609</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>219104454</v>
+        <v>219648722</v>
       </c>
       <c r="E29" t="n">
-        <v>945429093</v>
+        <v>948125822</v>
       </c>
       <c r="F29" t="n">
-        <v>152852.1791690834</v>
+        <v>144226.3417948465</v>
       </c>
       <c r="G29" t="n">
-        <v>175395.2994113496</v>
+        <v>187829.5265562623</v>
       </c>
       <c r="H29" t="n">
         <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>135610089</v>
+        <v>101622838</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7853797</v>
+        <v>7889777</v>
       </c>
       <c r="E30" t="n">
-        <v>93474451</v>
+        <v>93883796</v>
       </c>
       <c r="F30" t="n">
-        <v>1519.661318877126</v>
+        <v>2625.625857278872</v>
       </c>
       <c r="G30" t="n">
-        <v>1038.021027195868</v>
+        <v>1349.554514143629</v>
       </c>
       <c r="H30" t="n">
         <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>157700</v>
+        <v>176327</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12384631</v>
+        <v>12020146</v>
       </c>
       <c r="E31" t="n">
-        <v>30961578</v>
+        <v>30050365</v>
       </c>
       <c r="F31" t="n">
-        <v>7774.829833662838</v>
+        <v>8520.66474876668</v>
       </c>
       <c r="G31" t="n">
-        <v>8082.72905377987</v>
+        <v>8298.088881895286</v>
       </c>
       <c r="H31" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>4545117</v>
+        <v>3552328</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17599444</v>
+        <v>17579547</v>
       </c>
       <c r="F32" t="n">
-        <v>1375.067917547708</v>
+        <v>3368.864828346186</v>
       </c>
       <c r="G32" t="n">
-        <v>2723.685404976897</v>
+        <v>3350.953534116237</v>
       </c>
       <c r="H32" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I32" t="n">
-        <v>52337</v>
+        <v>46226</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1467678</v>
+        <v>1458845</v>
       </c>
       <c r="E33" t="n">
-        <v>5466537</v>
+        <v>5432238</v>
       </c>
       <c r="F33" t="n">
-        <v>3689.132355023194</v>
+        <v>1196.678554941466</v>
       </c>
       <c r="G33" t="n">
-        <v>1089.494466461764</v>
+        <v>1334.337853578927</v>
       </c>
       <c r="H33" t="n">
-        <v>0.48</v>
+        <v>0.76</v>
       </c>
       <c r="I33" t="n">
-        <v>621496</v>
+        <v>597435</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3438656</v>
+        <v>3659723</v>
       </c>
       <c r="E34" t="n">
-        <v>9901928</v>
+        <v>9883895</v>
       </c>
       <c r="F34" t="n">
-        <v>3559.854441690547</v>
+        <v>367.1715748485045</v>
       </c>
       <c r="G34" t="n">
-        <v>7935.184184564305</v>
+        <v>7004.795556430936</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>409086</v>
+        <v>441999</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10776814</v>
+        <v>10591088</v>
       </c>
       <c r="E35" t="n">
-        <v>52193830</v>
+        <v>51294328</v>
       </c>
       <c r="F35" t="n">
-        <v>5762.860150763777</v>
+        <v>6059.35562973152</v>
       </c>
       <c r="G35" t="n">
-        <v>8482.728177459958</v>
+        <v>4848.027648464819</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3403118</v>
+        <v>3272425</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1049811</v>
+        <v>1127969</v>
       </c>
       <c r="E36" t="n">
-        <v>6870982</v>
+        <v>7382528</v>
       </c>
       <c r="F36" t="n">
-        <v>3497.072605467116</v>
+        <v>377.8521658130238</v>
       </c>
       <c r="G36" t="n">
-        <v>1629.331484180226</v>
+        <v>1402.722671293801</v>
       </c>
       <c r="H36" t="n">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="I36" t="n">
-        <v>60920</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1710688763</v>
+        <v>1742972146</v>
       </c>
       <c r="F37" t="n">
-        <v>72575.4884749973</v>
+        <v>77507.7447562592</v>
       </c>
       <c r="G37" t="n">
-        <v>73766.32660608857</v>
+        <v>76916.23023059871</v>
       </c>
       <c r="H37" t="n">
-        <v>0.47</v>
+        <v>0.86</v>
       </c>
       <c r="I37" t="n">
-        <v>31098845</v>
+        <v>31627417</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1506378</v>
+        <v>1596183</v>
       </c>
       <c r="E38" t="n">
-        <v>10802085</v>
+        <v>11446066</v>
       </c>
       <c r="F38" t="n">
-        <v>42.44436504108074</v>
+        <v>1295.638562978221</v>
       </c>
       <c r="G38" t="n">
-        <v>356.3506054976266</v>
+        <v>5432.381323059619</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.52</v>
       </c>
       <c r="I38" t="n">
-        <v>1811513</v>
+        <v>1884771</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>173831518</v>
+        <v>175663625</v>
       </c>
       <c r="E39" t="n">
-        <v>984340865</v>
+        <v>994715380</v>
       </c>
       <c r="F39" t="n">
-        <v>124842.8573138406</v>
+        <v>125948.4279238751</v>
       </c>
       <c r="G39" t="n">
-        <v>139264.4683456603</v>
+        <v>141835.4455470542</v>
       </c>
       <c r="H39" t="n">
         <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>83335895</v>
+        <v>77980417</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>91140180</v>
+        <v>95465666</v>
       </c>
       <c r="E40" t="n">
-        <v>675112446</v>
+        <v>707153080</v>
       </c>
       <c r="F40" t="n">
-        <v>160887.6431547473</v>
+        <v>212498.684385805</v>
       </c>
       <c r="G40" t="n">
-        <v>237691.6601156324</v>
+        <v>227151.8208244363</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I40" t="n">
-        <v>11470241</v>
+        <v>10867655</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>295728977</v>
+        <v>294952916</v>
       </c>
       <c r="E41" t="n">
-        <v>2660561248</v>
+        <v>2653579325</v>
       </c>
       <c r="F41" t="n">
-        <v>68828.70601435156</v>
+        <v>103104.759070249</v>
       </c>
       <c r="G41" t="n">
-        <v>116625.1670526946</v>
+        <v>145079.0042017398</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>60661003</v>
+        <v>47221496</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1629062</v>
+        <v>1588402</v>
       </c>
       <c r="E42" t="n">
-        <v>13575518</v>
+        <v>13236687</v>
       </c>
       <c r="F42" t="n">
-        <v>390.4720461715606</v>
+        <v>1787.89472059869</v>
       </c>
       <c r="G42" t="n">
-        <v>2507.193525331442</v>
+        <v>2289.148102403908</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="I42" t="n">
-        <v>42111</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>21388294</v>
+        <v>20654675</v>
       </c>
       <c r="E43" t="n">
-        <v>63389148</v>
+        <v>61215091</v>
       </c>
       <c r="F43" t="n">
-        <v>39071.54167574729</v>
+        <v>27328.81286491181</v>
       </c>
       <c r="G43" t="n">
-        <v>28003.89496335334</v>
+        <v>22803.93363059197</v>
       </c>
       <c r="H43" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I43" t="n">
-        <v>6108663</v>
+        <v>4763481</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9765858</v>
+        <v>9413183</v>
       </c>
       <c r="F44" t="n">
-        <v>3136.27242289405</v>
+        <v>2803.316207878782</v>
       </c>
       <c r="G44" t="n">
-        <v>4041.803355371905</v>
+        <v>2226.053640862159</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="I44" t="n">
-        <v>291451</v>
+        <v>337136</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10170462</v>
+        <v>10559148</v>
       </c>
       <c r="E45" t="n">
-        <v>10170462</v>
+        <v>10559148</v>
       </c>
       <c r="F45" t="n">
-        <v>139.5719875355462</v>
+        <v>586.0486922796844</v>
       </c>
       <c r="G45" t="n">
-        <v>700.9063860082879</v>
+        <v>266.3951145548933</v>
       </c>
       <c r="H45" t="n">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="I45" t="n">
-        <v>1661334</v>
+        <v>1280097</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>265626475</v>
+        <v>255627359</v>
       </c>
       <c r="E46" t="n">
-        <v>265626475</v>
+        <v>255627359</v>
       </c>
       <c r="F46" t="n">
-        <v>15106.05575826129</v>
+        <v>12351.76243642824</v>
       </c>
       <c r="G46" t="n">
-        <v>25529.4829454292</v>
+        <v>18659.13929860352</v>
       </c>
       <c r="H46" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I46" t="n">
-        <v>15962335</v>
+        <v>14107342</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12567570</v>
+        <v>12085341</v>
       </c>
       <c r="E47" t="n">
-        <v>32653563</v>
+        <v>31400601</v>
       </c>
       <c r="F47" t="n">
-        <v>8219.961389447346</v>
+        <v>9712.013718453671</v>
       </c>
       <c r="G47" t="n">
-        <v>4338.291476349005</v>
+        <v>7465.631446127951</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="I47" t="n">
-        <v>2359835</v>
+        <v>1831080</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>28786763</v>
+        <v>27916862</v>
       </c>
       <c r="E48" t="n">
-        <v>79736476</v>
+        <v>77326937</v>
       </c>
       <c r="F48" t="n">
-        <v>3526.716235972428</v>
+        <v>2491.317265458301</v>
       </c>
       <c r="G48" t="n">
-        <v>4880.441280754716</v>
+        <v>2226.241694564053</v>
       </c>
       <c r="H48" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I48" t="n">
-        <v>10245389</v>
+        <v>10118456</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25533321</v>
+        <v>23744165</v>
       </c>
       <c r="E49" t="n">
-        <v>60562588</v>
+        <v>56318883</v>
       </c>
       <c r="F49" t="n">
-        <v>2874.176702514464</v>
+        <v>2368.375305735694</v>
       </c>
       <c r="G49" t="n">
-        <v>1482.916781795721</v>
+        <v>9883.272961008493</v>
       </c>
       <c r="H49" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I49" t="n">
-        <v>405274</v>
+        <v>409149</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11633784</v>
+        <v>11564946</v>
       </c>
       <c r="E50" t="n">
-        <v>17561438</v>
+        <v>17436826</v>
       </c>
       <c r="F50" t="n">
-        <v>4434.021299634795</v>
+        <v>4341.347838720524</v>
       </c>
       <c r="G50" t="n">
-        <v>4005.402358448378</v>
+        <v>3643.150555796993</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="I50" t="n">
-        <v>703670</v>
+        <v>943044</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>287149803</v>
+        <v>294543643</v>
       </c>
       <c r="E51" t="n">
-        <v>287149803</v>
+        <v>294543643</v>
       </c>
       <c r="F51" t="n">
-        <v>57439.03259261612</v>
+        <v>86302.1303054201</v>
       </c>
       <c r="G51" t="n">
-        <v>79510.71394217656</v>
+        <v>86696.69885833915</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>88618505</v>
+        <v>81317535</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>77557661</v>
+        <v>77879728</v>
       </c>
       <c r="E52" t="n">
-        <v>446920696</v>
+        <v>448776583</v>
       </c>
       <c r="F52" t="n">
-        <v>229992.0484777578</v>
+        <v>212210.7760297098</v>
       </c>
       <c r="G52" t="n">
-        <v>228740.249512237</v>
+        <v>192918.95595224</v>
       </c>
       <c r="H52" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="I52" t="n">
-        <v>18530825</v>
+        <v>17141446</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>33299478</v>
+        <v>31812594</v>
       </c>
       <c r="E53" t="n">
-        <v>149095425</v>
+        <v>142438036</v>
       </c>
       <c r="F53" t="n">
-        <v>20494.24405613838</v>
+        <v>26614.69701514648</v>
       </c>
       <c r="G53" t="n">
-        <v>28404.24554688386</v>
+        <v>35503.79395475417</v>
       </c>
       <c r="H53" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>24183110</v>
+        <v>21916570</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>6938812</v>
+        <v>7179912</v>
       </c>
       <c r="F54" t="n">
-        <v>2784.788566826691</v>
+        <v>4502.08748349745</v>
       </c>
       <c r="G54" t="n">
-        <v>4643.003930262219</v>
+        <v>2647.13351010548</v>
       </c>
       <c r="H54" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="I54" t="n">
-        <v>64955</v>
+        <v>306949</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4007403</v>
+        <v>3800506</v>
       </c>
       <c r="F55" t="n">
-        <v>7046.598498677396</v>
+        <v>5778.621311053873</v>
       </c>
       <c r="G55" t="n">
-        <v>728.9054049539881</v>
+        <v>703.5115152696358</v>
       </c>
       <c r="H55" t="n">
         <v>0.1</v>
       </c>
       <c r="I55" t="n">
-        <v>187288</v>
+        <v>164281</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>123626147</v>
+        <v>122533216</v>
       </c>
       <c r="E56" t="n">
-        <v>2047350254</v>
+        <v>2029250418</v>
       </c>
       <c r="F56" t="n">
-        <v>168696.0815949216</v>
+        <v>166777.7239136259</v>
       </c>
       <c r="G56" t="n">
-        <v>179387.4496016488</v>
+        <v>182532.1338107224</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>12526433</v>
+        <v>14429018</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>73837726</v>
+        <v>72851033</v>
       </c>
       <c r="E57" t="n">
-        <v>74632482</v>
+        <v>73635169</v>
       </c>
       <c r="F57" t="n">
-        <v>19779.09279433255</v>
+        <v>12781.10249950978</v>
       </c>
       <c r="G57" t="n">
-        <v>26691.94304148178</v>
+        <v>31406.10725909461</v>
       </c>
       <c r="H57" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I57" t="n">
-        <v>9250354</v>
+        <v>9112808</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>276821689</v>
+        <v>278663783</v>
       </c>
       <c r="E58" t="n">
-        <v>276821689</v>
+        <v>278663783</v>
       </c>
       <c r="F58" t="n">
-        <v>79323.27551098292</v>
+        <v>75244.49735476465</v>
       </c>
       <c r="G58" t="n">
-        <v>113590.7367201088</v>
+        <v>135490.769382939</v>
       </c>
       <c r="H58" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>72498693</v>
+        <v>66394958</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22445891</v>
+        <v>22244991</v>
       </c>
       <c r="E59" t="n">
-        <v>134298277</v>
+        <v>133096252</v>
       </c>
       <c r="F59" t="n">
-        <v>70839.07487373891</v>
+        <v>55891.46284358951</v>
       </c>
       <c r="G59" t="n">
-        <v>54029.0723782847</v>
+        <v>58637.55122789788</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I59" t="n">
-        <v>21845166</v>
+        <v>20424731</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1985886</v>
+        <v>2058588</v>
       </c>
       <c r="E60" t="n">
-        <v>3665065</v>
+        <v>3799241</v>
       </c>
       <c r="F60" t="n">
-        <v>4001.135197679433</v>
+        <v>3589.488633306455</v>
       </c>
       <c r="G60" t="n">
-        <v>1904.721356255222</v>
+        <v>3498.09655769176</v>
       </c>
       <c r="H60" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>81141</v>
+        <v>78565</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9445104</v>
+        <v>9307716</v>
       </c>
       <c r="E62" t="n">
-        <v>27544398</v>
+        <v>27142295</v>
       </c>
       <c r="F62" t="n">
-        <v>1913.48077665294</v>
+        <v>3470.143867793704</v>
       </c>
       <c r="G62" t="n">
-        <v>3231.282139643469</v>
+        <v>3978.033396193442</v>
       </c>
       <c r="H62" t="n">
         <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>5088515</v>
+        <v>5391252</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13449252</v>
+        <v>13368270</v>
       </c>
       <c r="E63" t="n">
-        <v>27227189</v>
+        <v>27063246</v>
       </c>
       <c r="F63" t="n">
-        <v>4163.970108285913</v>
+        <v>4882.971726027017</v>
       </c>
       <c r="G63" t="n">
-        <v>14276.94656152632</v>
+        <v>12563.21994060647</v>
       </c>
       <c r="H63" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I63" t="n">
-        <v>531425</v>
+        <v>504249</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>29215501</v>
+        <v>29173156</v>
       </c>
       <c r="E64" t="n">
-        <v>207133135</v>
+        <v>206832919</v>
       </c>
       <c r="F64" t="n">
-        <v>38488.23446110568</v>
+        <v>45791.69390761245</v>
       </c>
       <c r="G64" t="n">
-        <v>37754.20275132788</v>
+        <v>41494.42867101423</v>
       </c>
       <c r="H64" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I64" t="n">
-        <v>4703563</v>
+        <v>3077379</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1145209</v>
+        <v>1179478</v>
       </c>
       <c r="E65" t="n">
-        <v>7071418</v>
+        <v>7073600</v>
       </c>
       <c r="F65" t="n">
-        <v>141.1170763519545</v>
+        <v>2579.608475099161</v>
       </c>
       <c r="G65" t="n">
-        <v>540.8991112696633</v>
+        <v>2936.268326907284</v>
       </c>
       <c r="H65" t="n">
         <v>0.09</v>
       </c>
       <c r="I65" t="n">
-        <v>520252</v>
+        <v>485251</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>559827731</v>
+        <v>585531977</v>
       </c>
       <c r="E66" t="n">
-        <v>2168130206</v>
+        <v>2134247220</v>
       </c>
       <c r="F66" t="n">
-        <v>160125.2281410336</v>
+        <v>140382.7112892085</v>
       </c>
       <c r="G66" t="n">
-        <v>180000.3415855055</v>
+        <v>185043.2045875179</v>
       </c>
       <c r="H66" t="n">
         <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>51851388</v>
+        <v>49038894</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5049477</v>
+        <v>5050475</v>
       </c>
       <c r="E67" t="n">
-        <v>22284637</v>
+        <v>22287376</v>
       </c>
       <c r="F67" t="n">
-        <v>4913.9997211885</v>
+        <v>4969.781524953754</v>
       </c>
       <c r="G67" t="n">
-        <v>3537.468261445185</v>
+        <v>3553.251953275839</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>135387</v>
+        <v>133378</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>106385275</v>
+        <v>105825939</v>
       </c>
       <c r="E68" t="n">
-        <v>1006592229</v>
+        <v>1001299921</v>
       </c>
       <c r="F68" t="n">
-        <v>136617.2487355816</v>
+        <v>134291.9505493212</v>
       </c>
       <c r="G68" t="n">
-        <v>147836.5035694454</v>
+        <v>145934.3527896456</v>
       </c>
       <c r="H68" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I68" t="n">
-        <v>35367789</v>
+        <v>25366210</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>70080094</v>
+        <v>74293068</v>
       </c>
       <c r="E69" t="n">
-        <v>106908827</v>
+        <v>113335817</v>
       </c>
       <c r="F69" t="n">
-        <v>50823.12951395467</v>
+        <v>53229.71598052161</v>
       </c>
       <c r="G69" t="n">
-        <v>70390.69456788403</v>
+        <v>69231.97844595878</v>
       </c>
       <c r="H69" t="n">
         <v>0.2</v>
       </c>
       <c r="I69" t="n">
-        <v>6338277</v>
+        <v>6590405</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1090422</v>
+        <v>1061569</v>
       </c>
       <c r="E70" t="n">
-        <v>4222353</v>
+        <v>4110625</v>
       </c>
       <c r="F70" t="n">
-        <v>2572.229275377514</v>
+        <v>613.2789080270328</v>
       </c>
       <c r="G70" t="n">
-        <v>2278.42605717785</v>
+        <v>459.7300728159726</v>
       </c>
       <c r="H70" t="n">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="I70" t="n">
-        <v>131607</v>
+        <v>194567</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>125532055</v>
+        <v>129874569</v>
       </c>
       <c r="E71" t="n">
-        <v>481561168</v>
+        <v>498219751</v>
       </c>
       <c r="F71" t="n">
-        <v>9834.112397891009</v>
+        <v>16075.26917159395</v>
       </c>
       <c r="G71" t="n">
-        <v>20505.05973923823</v>
+        <v>20453.26626404393</v>
       </c>
       <c r="H71" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I71" t="n">
-        <v>30990893</v>
+        <v>30173322</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2659568</v>
+        <v>2564582</v>
       </c>
       <c r="E72" t="n">
-        <v>25199804</v>
+        <v>24299790</v>
       </c>
       <c r="F72" t="n">
-        <v>3371.631219804564</v>
+        <v>4726.579867694358</v>
       </c>
       <c r="G72" t="n">
-        <v>1893.766939297609</v>
+        <v>2246.166573208293</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="I72" t="n">
-        <v>131080</v>
+        <v>136785</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>28994396</v>
+        <v>28724331</v>
       </c>
       <c r="F73" t="n">
-        <v>2561.929004489544</v>
+        <v>2136.974315543234</v>
       </c>
       <c r="G73" t="n">
-        <v>4701.146133534626</v>
+        <v>5286.838526705093</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I73" t="n">
-        <v>9346511</v>
+        <v>7548561</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>116309950</v>
+        <v>117212710</v>
       </c>
       <c r="E74" t="n">
-        <v>423841796</v>
+        <v>427111603</v>
       </c>
       <c r="F74" t="n">
-        <v>9797.372497575287</v>
+        <v>8522.427810317135</v>
       </c>
       <c r="G74" t="n">
-        <v>1998.715922709452</v>
+        <v>6958.60989220692</v>
       </c>
       <c r="H74" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="I74" t="n">
-        <v>259737</v>
+        <v>202571</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20948642</v>
+        <v>22543812</v>
       </c>
       <c r="E75" t="n">
-        <v>20948642</v>
+        <v>22543812</v>
       </c>
       <c r="F75" t="n">
-        <v>5546.918220438687</v>
+        <v>5484.248981852184</v>
       </c>
       <c r="G75" t="n">
-        <v>5089.293051317261</v>
+        <v>6288.650891442401</v>
       </c>
       <c r="H75" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I75" t="n">
-        <v>8228532</v>
+        <v>8650791</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>411977810</v>
+        <v>405171457</v>
       </c>
       <c r="E76" t="n">
-        <v>1428988178</v>
+        <v>1404669865</v>
       </c>
       <c r="F76" t="n">
-        <v>161244.8930092468</v>
+        <v>150440.5817456525</v>
       </c>
       <c r="G76" t="n">
-        <v>170950.3309004914</v>
+        <v>166959.5732677496</v>
       </c>
       <c r="H76" t="n">
         <v>0.14</v>
       </c>
       <c r="I76" t="n">
-        <v>65845973</v>
+        <v>49705187</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4573044429</v>
+        <v>4607684534</v>
       </c>
       <c r="E77" t="n">
-        <v>4573044429</v>
+        <v>4607606937</v>
       </c>
       <c r="F77" t="n">
-        <v>18695.40037565379</v>
+        <v>18586.87470128152</v>
       </c>
       <c r="G77" t="n">
-        <v>17383.37615315001</v>
+        <v>18880.87831390132</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I77" t="n">
-        <v>40977529</v>
+        <v>34093737</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6975773</v>
+        <v>6995082</v>
       </c>
       <c r="E78" t="n">
-        <v>18122308</v>
+        <v>18172472</v>
       </c>
       <c r="F78" t="n">
-        <v>10298.22723302128</v>
+        <v>2239.027561854818</v>
       </c>
       <c r="G78" t="n">
-        <v>2925.827887500445</v>
+        <v>3485.967349236552</v>
       </c>
       <c r="H78" t="n">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="I78" t="n">
-        <v>763902</v>
+        <v>892683</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>89125971</v>
+        <v>88033232</v>
       </c>
       <c r="E79" t="n">
-        <v>132960825</v>
+        <v>131330645</v>
       </c>
       <c r="F79" t="n">
-        <v>38938.19740899011</v>
+        <v>38691.84645892247</v>
       </c>
       <c r="G79" t="n">
-        <v>38332.35866736008</v>
+        <v>41921.02530152469</v>
       </c>
       <c r="H79" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I79" t="n">
-        <v>8476091</v>
+        <v>8893537</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1874732</v>
+        <v>1913192</v>
       </c>
       <c r="E80" t="n">
-        <v>7498930</v>
+        <v>7652770</v>
       </c>
       <c r="F80" t="n">
-        <v>3301.516421342095</v>
+        <v>8593.429669267884</v>
       </c>
       <c r="G80" t="n">
-        <v>3296.576049604458</v>
+        <v>2382.625993632488</v>
       </c>
       <c r="H80" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I80" t="n">
-        <v>6382327</v>
+        <v>6610540</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3310353</v>
+        <v>3589827</v>
       </c>
       <c r="F81" t="n">
-        <v>2663.194569436343</v>
+        <v>1652.751944471158</v>
       </c>
       <c r="G81" t="n">
-        <v>2640.322657518197</v>
+        <v>1127.719219341208</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03</v>
+        <v>0.54</v>
       </c>
       <c r="I81" t="n">
-        <v>1649200</v>
+        <v>1879681</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>356227333</v>
+        <v>356126284</v>
       </c>
       <c r="E82" t="n">
-        <v>2035584761</v>
+        <v>2035007336</v>
       </c>
       <c r="F82" t="n">
-        <v>55486.14924894916</v>
+        <v>30993.35446162819</v>
       </c>
       <c r="G82" t="n">
-        <v>58887.6017157201</v>
+        <v>55491.61606640903</v>
       </c>
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
       <c r="I82" t="n">
-        <v>52618244</v>
+        <v>43958156</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData.xlsx
+++ b/BybitData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3989903</v>
+        <v>3931127</v>
       </c>
       <c r="F2" t="n">
-        <v>2884.54871395245</v>
+        <v>2571.496833867201</v>
       </c>
       <c r="G2" t="n">
-        <v>2735.300870997142</v>
+        <v>2509.764848803381</v>
       </c>
       <c r="H2" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="I2" t="n">
-        <v>255783</v>
+        <v>212665</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1058634</v>
+        <v>1072149</v>
       </c>
       <c r="E3" t="n">
-        <v>3332764</v>
+        <v>3375310</v>
       </c>
       <c r="F3" t="n">
-        <v>4582.237145069988</v>
+        <v>8178.736155495821</v>
       </c>
       <c r="G3" t="n">
-        <v>3613.093168787885</v>
+        <v>7254.510185311373</v>
       </c>
       <c r="H3" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="I3" t="n">
-        <v>80747</v>
+        <v>114731</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>270881771</v>
+        <v>274027858</v>
       </c>
       <c r="E4" t="n">
-        <v>1698661508</v>
+        <v>1718390182</v>
       </c>
       <c r="F4" t="n">
-        <v>90176.78746920759</v>
+        <v>113696.5285960317</v>
       </c>
       <c r="G4" t="n">
-        <v>111735.3181966173</v>
+        <v>179114.3921904173</v>
       </c>
       <c r="H4" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I4" t="n">
-        <v>117220797</v>
+        <v>66529208</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139311119</v>
+        <v>139925308</v>
       </c>
       <c r="E5" t="n">
-        <v>154378490</v>
+        <v>155059107</v>
       </c>
       <c r="F5" t="n">
-        <v>20311.22065304267</v>
+        <v>35559.12140917325</v>
       </c>
       <c r="G5" t="n">
-        <v>60883.16456165547</v>
+        <v>54851.05036010072</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>65733859</v>
+        <v>59188790</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>121805692</v>
+        <v>121177203</v>
       </c>
       <c r="E6" t="n">
-        <v>436264636</v>
+        <v>434013611</v>
       </c>
       <c r="F6" t="n">
-        <v>9916.643811661679</v>
+        <v>15471.29250695756</v>
       </c>
       <c r="G6" t="n">
-        <v>18930.03381103801</v>
+        <v>14440.55986149678</v>
       </c>
       <c r="H6" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I6" t="n">
-        <v>20643946</v>
+        <v>18182938</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3493308</v>
+        <v>3497646</v>
       </c>
       <c r="E7" t="n">
-        <v>21990901</v>
+        <v>22018209</v>
       </c>
       <c r="F7" t="n">
-        <v>2334.203245726645</v>
+        <v>3357.490792560472</v>
       </c>
       <c r="G7" t="n">
-        <v>1803.411766408382</v>
+        <v>2545.107497366685</v>
       </c>
       <c r="H7" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I7" t="n">
-        <v>506008</v>
+        <v>557618</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>156556</v>
+        <v>155606</v>
       </c>
       <c r="E8" t="n">
-        <v>1722285</v>
+        <v>1711832</v>
       </c>
       <c r="F8" t="n">
-        <v>2761.346201604964</v>
+        <v>2354.452511375329</v>
       </c>
       <c r="G8" t="n">
-        <v>2295.571485991193</v>
+        <v>1932.220311525182</v>
       </c>
       <c r="H8" t="n">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="I8" t="n">
-        <v>66781</v>
+        <v>67421</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64055994</v>
+        <v>64576360</v>
       </c>
       <c r="E9" t="n">
-        <v>110433280</v>
+        <v>111317153</v>
       </c>
       <c r="F9" t="n">
-        <v>7136.679327155254</v>
+        <v>9434.064145019462</v>
       </c>
       <c r="G9" t="n">
-        <v>3486.94482476599</v>
+        <v>6529.74120403664</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I9" t="n">
-        <v>713820</v>
+        <v>520488</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8425249</v>
+        <v>8512057</v>
       </c>
       <c r="E10" t="n">
-        <v>11925314</v>
+        <v>12048184</v>
       </c>
       <c r="F10" t="n">
-        <v>2668.097632118056</v>
+        <v>2734.262134982258</v>
       </c>
       <c r="G10" t="n">
-        <v>2579.605690393172</v>
+        <v>2687.578375796799</v>
       </c>
       <c r="H10" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>28523</v>
+        <v>15903.91</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>380980257</v>
+        <v>381148731</v>
       </c>
       <c r="E11" t="n">
-        <v>380980260</v>
+        <v>381148740</v>
       </c>
       <c r="F11" t="n">
-        <v>25176.08604143083</v>
+        <v>28148.25088319332</v>
       </c>
       <c r="G11" t="n">
-        <v>27271.17898337637</v>
+        <v>26747.80252387873</v>
       </c>
       <c r="H11" t="n">
         <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>34361587</v>
+        <v>29121097</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>261249</v>
+        <v>262011</v>
       </c>
       <c r="E12" t="n">
-        <v>1219538</v>
+        <v>1223093</v>
       </c>
       <c r="F12" t="n">
-        <v>36.13484284462139</v>
+        <v>487.6735421222295</v>
       </c>
       <c r="G12" t="n">
-        <v>3768.401655467787</v>
+        <v>3417.357205122025</v>
       </c>
       <c r="H12" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="I12" t="n">
-        <v>644558</v>
+        <v>651700</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1725282</v>
+        <v>1729490</v>
       </c>
       <c r="F13" t="n">
-        <v>3428.756019718538</v>
+        <v>3025.544784524163</v>
       </c>
       <c r="G13" t="n">
-        <v>2192.646481360625</v>
+        <v>1908.169854203624</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="I13" t="n">
-        <v>287896</v>
+        <v>274927</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10681810</v>
+        <v>10749277</v>
       </c>
       <c r="E14" t="n">
-        <v>26585092</v>
+        <v>26753005</v>
       </c>
       <c r="F14" t="n">
-        <v>1002.229865725972</v>
+        <v>941.9311308073723</v>
       </c>
       <c r="G14" t="n">
-        <v>1004.509646635581</v>
+        <v>1341.295313018708</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>864232</v>
+        <v>1155189</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109215687</v>
+        <v>108838543</v>
       </c>
       <c r="E15" t="n">
-        <v>420329823</v>
+        <v>418749990</v>
       </c>
       <c r="F15" t="n">
-        <v>24959.8076246824</v>
+        <v>37197.59102592702</v>
       </c>
       <c r="G15" t="n">
-        <v>44560.91819824378</v>
+        <v>39901.04834154247</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>36520235</v>
+        <v>10878976</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3702139</v>
+        <v>3798217</v>
       </c>
       <c r="E16" t="n">
-        <v>5449749</v>
+        <v>5591181</v>
       </c>
       <c r="F16" t="n">
-        <v>3424.730449269146</v>
+        <v>206.3950139217004</v>
       </c>
       <c r="G16" t="n">
-        <v>1790.805940918987</v>
+        <v>626.4468644382811</v>
       </c>
       <c r="H16" t="n">
-        <v>0.78</v>
+        <v>1.81</v>
       </c>
       <c r="I16" t="n">
-        <v>740516</v>
+        <v>759701</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>412110</v>
+        <v>466415</v>
       </c>
       <c r="E17" t="n">
-        <v>1695357</v>
+        <v>1918760</v>
       </c>
       <c r="F17" t="n">
-        <v>556.6299778809611</v>
+        <v>514.8039987447252</v>
       </c>
       <c r="G17" t="n">
-        <v>72.26189258707124</v>
+        <v>150.9671947105716</v>
       </c>
       <c r="H17" t="n">
-        <v>0.58</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>185381</v>
+        <v>117331</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>132732520</v>
+        <v>129372386</v>
       </c>
       <c r="E18" t="n">
-        <v>132732520</v>
+        <v>129372386</v>
       </c>
       <c r="F18" t="n">
-        <v>61143.33188230255</v>
+        <v>86801.55444739026</v>
       </c>
       <c r="G18" t="n">
-        <v>80540.21837370453</v>
+        <v>120597.435588172</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I18" t="n">
-        <v>93889219</v>
+        <v>75944221</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67783991</v>
+        <v>67076583</v>
       </c>
       <c r="E19" t="n">
-        <v>347610212</v>
+        <v>343982478</v>
       </c>
       <c r="F19" t="n">
-        <v>6979.544184198635</v>
+        <v>13912.92203187026</v>
       </c>
       <c r="G19" t="n">
-        <v>12824.4790753028</v>
+        <v>9200.320908966189</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I19" t="n">
-        <v>27165249</v>
+        <v>23573055</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>220885823</v>
+        <v>219125707</v>
       </c>
       <c r="E20" t="n">
-        <v>220885823</v>
+        <v>219125707</v>
       </c>
       <c r="F20" t="n">
-        <v>23290.89586505439</v>
+        <v>32249.516242905</v>
       </c>
       <c r="G20" t="n">
-        <v>36969.01586969517</v>
+        <v>30314.20937494281</v>
       </c>
       <c r="H20" t="n">
         <v>0.12</v>
       </c>
       <c r="I20" t="n">
-        <v>44288556</v>
+        <v>29683341</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>132083666</v>
+        <v>137481721</v>
       </c>
       <c r="E21" t="n">
-        <v>173806657</v>
+        <v>180909866</v>
       </c>
       <c r="F21" t="n">
-        <v>23737.57721067962</v>
+        <v>13708.49728393743</v>
       </c>
       <c r="G21" t="n">
-        <v>17845.46324968933</v>
+        <v>21005.19275381557</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>6829495</v>
+        <v>3507191</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80398591</v>
+        <v>79504937</v>
       </c>
       <c r="E22" t="n">
-        <v>225181749</v>
+        <v>222727612</v>
       </c>
       <c r="F22" t="n">
-        <v>48209.06806145496</v>
+        <v>53609.32557366079</v>
       </c>
       <c r="G22" t="n">
-        <v>54164.492432378</v>
+        <v>46288.89648640255</v>
       </c>
       <c r="H22" t="n">
         <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>44469496</v>
+        <v>34224091</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71983066</v>
+        <v>71297475</v>
       </c>
       <c r="E23" t="n">
-        <v>150078911</v>
+        <v>148649510</v>
       </c>
       <c r="F23" t="n">
-        <v>15048.04705095253</v>
+        <v>13477.65290395377</v>
       </c>
       <c r="G23" t="n">
-        <v>20393.8613623763</v>
+        <v>19585.44373834005</v>
       </c>
       <c r="H23" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>18087737</v>
+        <v>15959675</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>648923425</v>
+        <v>641393586</v>
       </c>
       <c r="E24" t="n">
-        <v>648923425</v>
+        <v>641393586</v>
       </c>
       <c r="F24" t="n">
-        <v>128414.3363018168</v>
+        <v>163431.0840730378</v>
       </c>
       <c r="G24" t="n">
-        <v>205898.2120468341</v>
+        <v>191518.6542509102</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>501492118</v>
+        <v>458417789</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>198169399</v>
+        <v>199488699</v>
       </c>
       <c r="E25" t="n">
-        <v>688458402</v>
+        <v>693041771</v>
       </c>
       <c r="F25" t="n">
-        <v>69295.45350438733</v>
+        <v>75367.74229815364</v>
       </c>
       <c r="G25" t="n">
-        <v>145684.0206723613</v>
+        <v>145834.0116992336</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>46180014</v>
+        <v>34607697</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5198910</v>
+        <v>5170995</v>
       </c>
       <c r="E26" t="n">
-        <v>7012960</v>
+        <v>6975030</v>
       </c>
       <c r="F26" t="n">
-        <v>4274.85515400516</v>
+        <v>4214.304129037362</v>
       </c>
       <c r="G26" t="n">
-        <v>2098.017837488443</v>
+        <v>2075.114096370159</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I26" t="n">
-        <v>5272317</v>
+        <v>4437605</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>13742253</v>
+        <v>13219329</v>
       </c>
       <c r="F27" t="n">
-        <v>2294.35725376913</v>
+        <v>2392.279457482688</v>
       </c>
       <c r="G27" t="n">
-        <v>1470.016821986708</v>
+        <v>1004.973312139265</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>239450</v>
+        <v>218345</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23326882</v>
+        <v>23348744</v>
       </c>
       <c r="E28" t="n">
-        <v>32918568</v>
+        <v>32943143</v>
       </c>
       <c r="F28" t="n">
-        <v>172.9195550086956</v>
+        <v>131.7259551030106</v>
       </c>
       <c r="G28" t="n">
-        <v>3987.980270421788</v>
+        <v>5232.852485736594</v>
       </c>
       <c r="H28" t="n">
-        <v>0.26</v>
+        <v>0.77</v>
       </c>
       <c r="I28" t="n">
-        <v>109609</v>
+        <v>75446</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>219648722</v>
+        <v>217026998</v>
       </c>
       <c r="E29" t="n">
-        <v>948125822</v>
+        <v>936809003</v>
       </c>
       <c r="F29" t="n">
-        <v>144226.3417948465</v>
+        <v>98950.69152596837</v>
       </c>
       <c r="G29" t="n">
-        <v>187829.5265562623</v>
+        <v>171932.2793684913</v>
       </c>
       <c r="H29" t="n">
         <v>0.11</v>
       </c>
       <c r="I29" t="n">
-        <v>101622838</v>
+        <v>77407117</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7889777</v>
+        <v>8002347</v>
       </c>
       <c r="E30" t="n">
-        <v>93883796</v>
+        <v>95214691</v>
       </c>
       <c r="F30" t="n">
-        <v>2625.625857278872</v>
+        <v>2442.649525915071</v>
       </c>
       <c r="G30" t="n">
-        <v>1349.554514143629</v>
+        <v>849.0572918949213</v>
       </c>
       <c r="H30" t="n">
         <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>176327</v>
+        <v>215815</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12020146</v>
+        <v>12148258</v>
       </c>
       <c r="E31" t="n">
-        <v>30050365</v>
+        <v>30370646</v>
       </c>
       <c r="F31" t="n">
-        <v>8520.66474876668</v>
+        <v>8408.423411121941</v>
       </c>
       <c r="G31" t="n">
-        <v>8298.088881895286</v>
+        <v>4201.750986700724</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3552328</v>
+        <v>2931623</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17579547</v>
+        <v>17567630</v>
       </c>
       <c r="F32" t="n">
-        <v>3368.864828346186</v>
+        <v>1504.182273113779</v>
       </c>
       <c r="G32" t="n">
-        <v>3350.953534116237</v>
+        <v>3696.437557443732</v>
       </c>
       <c r="H32" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>46226</v>
+        <v>35491</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1458845</v>
+        <v>1418149</v>
       </c>
       <c r="E33" t="n">
-        <v>5432238</v>
+        <v>5280673</v>
       </c>
       <c r="F33" t="n">
-        <v>1196.678554941466</v>
+        <v>2950.306917187409</v>
       </c>
       <c r="G33" t="n">
-        <v>1334.337853578927</v>
+        <v>1442.259310035492</v>
       </c>
       <c r="H33" t="n">
-        <v>0.76</v>
+        <v>0.35</v>
       </c>
       <c r="I33" t="n">
-        <v>597435</v>
+        <v>591702</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3659723</v>
+        <v>3635427</v>
       </c>
       <c r="E34" t="n">
-        <v>9883895</v>
+        <v>9818278</v>
       </c>
       <c r="F34" t="n">
-        <v>367.1715748485045</v>
+        <v>4061.810810526737</v>
       </c>
       <c r="G34" t="n">
-        <v>7004.795556430936</v>
+        <v>8035.761582195</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I34" t="n">
-        <v>441999</v>
+        <v>486513</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10591088</v>
+        <v>10708341</v>
       </c>
       <c r="E35" t="n">
-        <v>51294328</v>
+        <v>51862205</v>
       </c>
       <c r="F35" t="n">
-        <v>6059.35562973152</v>
+        <v>6741.704613184885</v>
       </c>
       <c r="G35" t="n">
-        <v>4848.027648464819</v>
+        <v>5949.823871501294</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="I35" t="n">
-        <v>3272425</v>
+        <v>3046587</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1127969</v>
+        <v>1166536</v>
       </c>
       <c r="E36" t="n">
-        <v>7382528</v>
+        <v>7634950</v>
       </c>
       <c r="F36" t="n">
-        <v>377.8521658130238</v>
+        <v>320.8219187109125</v>
       </c>
       <c r="G36" t="n">
-        <v>1402.722671293801</v>
+        <v>380.5377830599343</v>
       </c>
       <c r="H36" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
       <c r="I36" t="n">
-        <v>43636</v>
+        <v>46390</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1742972146</v>
+        <v>1752260931</v>
       </c>
       <c r="F37" t="n">
-        <v>77507.7447562592</v>
+        <v>77626.2750316836</v>
       </c>
       <c r="G37" t="n">
-        <v>76916.23023059871</v>
+        <v>76398.96317841245</v>
       </c>
       <c r="H37" t="n">
-        <v>0.86</v>
+        <v>0.51</v>
       </c>
       <c r="I37" t="n">
-        <v>31627417</v>
+        <v>30077427</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1596183</v>
+        <v>1593456</v>
       </c>
       <c r="E38" t="n">
-        <v>11446066</v>
+        <v>11426517</v>
       </c>
       <c r="F38" t="n">
-        <v>1295.638562978221</v>
+        <v>1469.754528096934</v>
       </c>
       <c r="G38" t="n">
-        <v>5432.381323059619</v>
+        <v>5089.052650934362</v>
       </c>
       <c r="H38" t="n">
-        <v>0.52</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>1884771</v>
+        <v>1860381</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>175663625</v>
+        <v>173750604</v>
       </c>
       <c r="E39" t="n">
-        <v>994715380</v>
+        <v>983882678</v>
       </c>
       <c r="F39" t="n">
-        <v>125948.4279238751</v>
+        <v>127769.5402393151</v>
       </c>
       <c r="G39" t="n">
-        <v>141835.4455470542</v>
+        <v>136273.4159335185</v>
       </c>
       <c r="H39" t="n">
         <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>77980417</v>
+        <v>64363499</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>95465666</v>
+        <v>93306981</v>
       </c>
       <c r="E40" t="n">
-        <v>707153080</v>
+        <v>691162820</v>
       </c>
       <c r="F40" t="n">
-        <v>212498.684385805</v>
+        <v>221602.6078666406</v>
       </c>
       <c r="G40" t="n">
-        <v>227151.8208244363</v>
+        <v>248594.3765310411</v>
       </c>
       <c r="H40" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I40" t="n">
-        <v>10867655</v>
+        <v>10120195</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>294952916</v>
+        <v>289620823</v>
       </c>
       <c r="E41" t="n">
-        <v>2653579325</v>
+        <v>2605608508</v>
       </c>
       <c r="F41" t="n">
-        <v>103104.759070249</v>
+        <v>84016.09706564389</v>
       </c>
       <c r="G41" t="n">
-        <v>145079.0042017398</v>
+        <v>104421.3721501102</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>47221496</v>
+        <v>42380630</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1588402</v>
+        <v>1577480</v>
       </c>
       <c r="E42" t="n">
-        <v>13236687</v>
+        <v>13145667</v>
       </c>
       <c r="F42" t="n">
-        <v>1787.89472059869</v>
+        <v>4431.054920805464</v>
       </c>
       <c r="G42" t="n">
-        <v>2289.148102403908</v>
+        <v>4679.565835148961</v>
       </c>
       <c r="H42" t="n">
-        <v>1.06</v>
+        <v>0.38</v>
       </c>
       <c r="I42" t="n">
-        <v>43532</v>
+        <v>62511</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20654675</v>
+        <v>22232013</v>
       </c>
       <c r="E43" t="n">
-        <v>61215091</v>
+        <v>65889913</v>
       </c>
       <c r="F43" t="n">
-        <v>27328.81286491181</v>
+        <v>19932.23604582684</v>
       </c>
       <c r="G43" t="n">
-        <v>22803.93363059197</v>
+        <v>29430.38328827416</v>
       </c>
       <c r="H43" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I43" t="n">
-        <v>4763481</v>
+        <v>4073719</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9413183</v>
+        <v>8966852</v>
       </c>
       <c r="F44" t="n">
-        <v>2803.316207878782</v>
+        <v>3106.742602951053</v>
       </c>
       <c r="G44" t="n">
-        <v>2226.053640862159</v>
+        <v>3121.042613747022</v>
       </c>
       <c r="H44" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I44" t="n">
-        <v>337136</v>
+        <v>284615</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10559148</v>
+        <v>10271132</v>
       </c>
       <c r="E45" t="n">
-        <v>10559148</v>
+        <v>10271132</v>
       </c>
       <c r="F45" t="n">
-        <v>586.0486922796844</v>
+        <v>540.9642180417094</v>
       </c>
       <c 